--- a/Excel/Clase del 12 de junio 2021.xlsx
+++ b/Excel/Clase del 12 de junio 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luis\Documents\GitProjects\Clases-octave\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Documents\proyectosdegit\Clases-octave\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D03E0-4C7A-4191-A952-3275BBAF3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF36BA-BC0B-4450-9753-E5C7C314756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C9D4E8A6-58FA-4ADB-BD29-067E5A92D69D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9D4E8A6-58FA-4ADB-BD29-067E5A92D69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -7395,17 +7395,17 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161640</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180780</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>429120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>70680</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+      <xdr:rowOff>70980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId219">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="1287" name="Entrada de lápiz 1286">
@@ -7419,12 +7419,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="2447640" y="8372280"/>
-            <a:ext cx="2553480" cy="1032900"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
+            <a:off x="2539080" y="8158740"/>
+            <a:ext cx="2644920" cy="873360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="1287" name="Entrada de lápiz 1286">
@@ -7444,8 +7444,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430000" y="8354279"/>
-              <a:ext cx="2589120" cy="1068542"/>
+              <a:off x="2521080" y="8140740"/>
+              <a:ext cx="2680560" cy="909000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8498,71 +8498,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>26460</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571920</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>68280</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId253">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="1393" name="Entrada de lápiz 1392">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE801FC-89A3-45C1-9EA0-E09CAA8A7787}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="2371320" y="15456960"/>
-            <a:ext cx="2010600" cy="994320"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="1393" name="Entrada de lápiz 1392">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE801FC-89A3-45C1-9EA0-E09CAA8A7787}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId254"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2353680" y="15439320"/>
-              <a:ext cx="2046240" cy="1029960"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47280</xdr:colOff>
       <xdr:row>80</xdr:row>
@@ -8570,13 +8505,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>19320</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId255">
+      <xdr:rowOff>2820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId253">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="1412" name="Entrada de lápiz 1411">
               <a:extLst>
@@ -8589,12 +8524,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="809280" y="15315900"/>
-            <a:ext cx="6067800" cy="2022120"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
+            <a:off x="839760" y="14706300"/>
+            <a:ext cx="6311880" cy="1938600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="1412" name="Entrada de lápiz 1411">
@@ -8607,15 +8542,15 @@
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId256"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="791640" y="15297900"/>
-              <a:ext cx="6103440" cy="2057760"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId254"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="821760" y="14688300"/>
+              <a:ext cx="6347520" cy="1974240"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8641,7 +8576,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId257">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId255">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="1413" name="Entrada de lápiz 1412">
               <a:extLst>
@@ -8706,7 +8641,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId258">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId256">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="1414" name="Entrada de lápiz 1413">
               <a:extLst>
@@ -8771,7 +8706,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId259">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId257">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="1415" name="Entrada de lápiz 1414">
               <a:extLst>
@@ -8836,7 +8771,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId260">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId258">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="1416" name="Entrada de lápiz 1415">
               <a:extLst>
@@ -8899,9 +8834,9 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>86115</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId261">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId259">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="1417" name="Entrada de lápiz 1416">
               <a:extLst>
@@ -8919,7 +8854,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="1417" name="Entrada de lápiz 1416">
@@ -11174,8 +11109,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>181860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId332">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Entrada de lápiz 9">
@@ -11194,7 +11129,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Entrada de lápiz 9">
@@ -11239,48 +11174,828 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId334">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09F68F6-E556-4391-9393-8E3E0988A6D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1495080" y="133200"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Entrada de lápiz 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09F68F6-E556-4391-9393-8E3E0988A6D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId335"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1486440" y="124200"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>372240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14760</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
+    </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId334">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09F68F6-E556-4391-9393-8E3E0988A6D7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1495080" y="133200"/>
-            <a:ext cx="360" cy="360"/>
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId336">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B188D2D9-E316-42EF-885E-95EE603B89F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="372240" y="9265680"/>
+            <a:ext cx="4397400" cy="1204560"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
       <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="Entrada de lápiz 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09F68F6-E556-4391-9393-8E3E0988A6D7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId335"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1486440" y="124200"/>
-              <a:ext cx="18000" cy="18000"/>
+            <xdr:cNvPr id="6" name="Entrada de lápiz 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B188D2D9-E316-42EF-885E-95EE603B89F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId337"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="354599" y="9248040"/>
+              <a:ext cx="4433043" cy="1240200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>356880</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617520</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId338">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1370088-3115-4AB7-BDEF-198D0EF2A8D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6696720" y="9707040"/>
+            <a:ext cx="260640" cy="260280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Entrada de lápiz 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1370088-3115-4AB7-BDEF-198D0EF2A8D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId339"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6679080" y="9689400"/>
+              <a:ext cx="296280" cy="295920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585360</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>182520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>772440</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId340">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Entrada de lápiz 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5099FE-3FC2-45D6-AF69-F3CD9022ABB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5340240" y="9692280"/>
+            <a:ext cx="979560" cy="444600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Entrada de lápiz 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5099FE-3FC2-45D6-AF69-F3CD9022ABB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId341"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5322240" y="9674640"/>
+              <a:ext cx="1015200" cy="480240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId342">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Entrada de lápiz 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6116EA8-9FD9-451C-86B1-D26653684FB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7299720" y="9677160"/>
+            <a:ext cx="117720" cy="198360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Entrada de lápiz 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6116EA8-9FD9-451C-86B1-D26653684FB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId343"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7281720" y="9659520"/>
+              <a:ext cx="153360" cy="234000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>605820</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>716220</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId344">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="186" name="Entrada de lápiz 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4150AA33-C111-48ED-B75C-FB36A1F533E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7738140" y="9500760"/>
+            <a:ext cx="902880" cy="610920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="186" name="Entrada de lápiz 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4150AA33-C111-48ED-B75C-FB36A1F533E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId345"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7720140" y="9483120"/>
+              <a:ext cx="938520" cy="646560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>611820</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>722220</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId346">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="191" name="Entrada de lápiz 190">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A0AC9B-A83C-42E9-B477-8F241D084C82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7744140" y="10935420"/>
+            <a:ext cx="902880" cy="610920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="191" name="Entrada de lápiz 190">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A0AC9B-A83C-42E9-B477-8F241D084C82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId345"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7726140" y="10917780"/>
+              <a:ext cx="938520" cy="646560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243360</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348480</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>99720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId347">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="Entrada de lápiz 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F1B859-BB14-4355-9A2F-34E3503DA10C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7375680" y="11117160"/>
+            <a:ext cx="105120" cy="138240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Entrada de lápiz 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F1B859-BB14-4355-9A2F-34E3503DA10C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId348"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7357680" y="11099520"/>
+              <a:ext cx="140760" cy="173880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>98640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290640</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>10440</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId349">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="Entrada de lápiz 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325B6D60-3C43-4951-BA68-22087946E406}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8366400" y="12534480"/>
+            <a:ext cx="641520" cy="460440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Entrada de lápiz 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325B6D60-3C43-4951-BA68-22087946E406}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId350"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8348400" y="12516840"/>
+              <a:ext cx="677160" cy="496080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121560</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>771720</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>78120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId351">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="Entrada de lápiz 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F6568C-C385-470F-8932-E8D4AB15D92E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="914040" y="10919160"/>
+            <a:ext cx="7782480" cy="3240720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Entrada de lápiz 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F6568C-C385-470F-8932-E8D4AB15D92E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId352"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="896040" y="10901520"/>
+              <a:ext cx="7818120" cy="3276360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>210720</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>719280</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>70589</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId353">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="230" name="Entrada de lápiz 229">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE91A132-6345-4405-AFA2-90CC8141B261}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2588160" y="14918069"/>
+            <a:ext cx="1301040" cy="880200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="230" name="Entrada de lápiz 229">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE91A132-6345-4405-AFA2-90CC8141B261}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId354"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2570160" y="14900429"/>
+              <a:ext cx="1336680" cy="915840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175080</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>343920</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId355">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="130" name="Entrada de lápiz 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7937680F-3719-4713-A520-D4166B1C85CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4137480" y="15079680"/>
+            <a:ext cx="168840" cy="307080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="130" name="Entrada de lápiz 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7937680F-3719-4713-A520-D4166B1C85CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId356"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4119480" y="15062040"/>
+              <a:ext cx="204480" cy="342720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>113940</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438540</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId357">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="235" name="Entrada de lápiz 234">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E49E1F-A0E0-40F1-AD9E-1070B110AB21}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4868820" y="15079680"/>
+            <a:ext cx="1117080" cy="429480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="235" name="Entrada de lápiz 234">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E49E1F-A0E0-40F1-AD9E-1070B110AB21}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId358"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4851180" y="15062040"/>
+              <a:ext cx="1152720" cy="465120"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11309,8 +12024,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>34740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Entrada de lápiz 16">
@@ -11329,7 +12044,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Entrada de lápiz 16">
@@ -11374,8 +12089,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Entrada de lápiz 17">
@@ -11394,7 +12109,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Entrada de lápiz 17">
@@ -11439,8 +12154,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>100620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Entrada de lápiz 18">
@@ -11459,7 +12174,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Entrada de lápiz 18">
@@ -11504,8 +12219,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Entrada de lápiz 21">
@@ -11524,7 +12239,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Entrada de lápiz 21">
@@ -11569,8 +12284,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>33060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Entrada de lápiz 22">
@@ -11589,7 +12304,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Entrada de lápiz 22">
@@ -11634,8 +12349,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Entrada de lápiz 23">
@@ -11654,7 +12369,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Entrada de lápiz 23">
@@ -11699,8 +12414,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>66180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Entrada de lápiz 43">
@@ -11719,7 +12434,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Entrada de lápiz 43">
@@ -11813,8 +12528,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -11833,7 +12548,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -11878,8 +12593,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>96720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
@@ -11898,7 +12613,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Entrada de lápiz 5">
@@ -11943,8 +12658,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
@@ -11963,7 +12678,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Entrada de lápiz 8">
@@ -12008,8 +12723,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Entrada de lápiz 9">
@@ -12028,7 +12743,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Entrada de lápiz 9">
@@ -12073,8 +12788,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
@@ -12093,7 +12808,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Entrada de lápiz 19">
@@ -12138,8 +12853,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Entrada de lápiz 20">
@@ -12158,7 +12873,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Entrada de lápiz 20">
@@ -12203,8 +12918,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>156120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Entrada de lápiz 21">
@@ -12223,7 +12938,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Entrada de lápiz 21">
@@ -12268,8 +12983,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>173460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Entrada de lápiz 26">
@@ -12288,7 +13003,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Entrada de lápiz 26">
@@ -12333,8 +13048,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>39480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -12353,7 +13068,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -12398,8 +13113,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>128460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Entrada de lápiz 43">
@@ -12418,7 +13133,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Entrada de lápiz 43">
@@ -12463,8 +13178,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>90540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Entrada de lápiz 52">
@@ -12483,7 +13198,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Entrada de lápiz 52">
@@ -12528,8 +13243,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>96960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Entrada de lápiz 62">
@@ -12548,7 +13263,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Entrada de lápiz 62">
@@ -12593,8 +13308,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>154680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Entrada de lápiz 71">
@@ -12613,7 +13328,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Entrada de lápiz 71">
@@ -12658,8 +13373,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>154380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Entrada de lápiz 72">
@@ -12678,7 +13393,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Entrada de lápiz 72">
@@ -12723,8 +13438,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Entrada de lápiz 79">
@@ -12743,7 +13458,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Entrada de lápiz 79">
@@ -12788,8 +13503,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>68460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Entrada de lápiz 80">
@@ -12808,7 +13523,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Entrada de lápiz 80">
@@ -12853,8 +13568,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="82" name="Entrada de lápiz 81">
@@ -12873,7 +13588,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="82" name="Entrada de lápiz 81">
@@ -12918,8 +13633,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>143700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="90" name="Entrada de lápiz 89">
@@ -12938,7 +13653,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="90" name="Entrada de lápiz 89">
@@ -12983,8 +13698,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>168960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="91" name="Entrada de lápiz 90">
@@ -13003,7 +13718,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="91" name="Entrada de lápiz 90">
@@ -13048,8 +13763,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>182340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="92" name="Entrada de lápiz 91">
@@ -13068,7 +13783,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="92" name="Entrada de lápiz 91">
@@ -13113,8 +13828,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="93" name="Entrada de lápiz 92">
@@ -13133,7 +13848,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="93" name="Entrada de lápiz 92">
@@ -13178,8 +13893,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>65820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Entrada de lápiz 93">
@@ -13198,7 +13913,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Entrada de lápiz 93">
@@ -13243,8 +13958,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>177060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Entrada de lápiz 99">
@@ -13263,7 +13978,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Entrada de lápiz 99">
@@ -13308,8 +14023,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="103" name="Entrada de lápiz 102">
@@ -13328,7 +14043,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="103" name="Entrada de lápiz 102">
@@ -13373,8 +14088,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="104" name="Entrada de lápiz 103">
@@ -13393,7 +14108,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="104" name="Entrada de lápiz 103">
@@ -13438,8 +14153,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>110940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Entrada de lápiz 106">
@@ -13458,7 +14173,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Entrada de lápiz 106">
@@ -13503,8 +14218,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>145200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Entrada de lápiz 107">
@@ -13523,7 +14238,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Entrada de lápiz 107">
@@ -13568,8 +14283,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>105960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="117" name="Entrada de lápiz 116">
@@ -13588,7 +14303,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="117" name="Entrada de lápiz 116">
@@ -13633,8 +14348,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>3840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="122" name="Entrada de lápiz 121">
@@ -13653,7 +14368,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="122" name="Entrada de lápiz 121">
@@ -13698,8 +14413,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>97680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="126" name="Entrada de lápiz 125">
@@ -13718,7 +14433,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="126" name="Entrada de lápiz 125">
@@ -13763,8 +14478,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>102660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="133" name="Entrada de lápiz 132">
@@ -13783,7 +14498,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="133" name="Entrada de lápiz 132">
@@ -13828,8 +14543,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>155280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Entrada de lápiz 137">
@@ -13848,7 +14563,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Entrada de lápiz 137">
@@ -13893,8 +14608,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>117660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="160" name="Entrada de lápiz 159">
@@ -13913,7 +14628,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="160" name="Entrada de lápiz 159">
@@ -13958,8 +14673,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>134460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="161" name="Entrada de lápiz 160">
@@ -13978,7 +14693,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="161" name="Entrada de lápiz 160">
@@ -14023,8 +14738,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="163" name="Entrada de lápiz 162">
@@ -14043,7 +14758,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="163" name="Entrada de lápiz 162">
@@ -14088,8 +14803,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="178" name="Entrada de lápiz 177">
@@ -14108,7 +14823,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="178" name="Entrada de lápiz 177">
@@ -14153,8 +14868,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>178680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="180" name="Entrada de lápiz 179">
@@ -14173,7 +14888,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="180" name="Entrada de lápiz 179">
@@ -14218,8 +14933,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>68460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="183" name="Entrada de lápiz 182">
@@ -14238,7 +14953,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="183" name="Entrada de lápiz 182">
@@ -14283,8 +14998,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="184" name="Entrada de lápiz 183">
@@ -14303,7 +15018,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="184" name="Entrada de lápiz 183">
@@ -14348,8 +15063,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>20700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="185" name="Entrada de lápiz 184">
@@ -14368,7 +15083,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="185" name="Entrada de lápiz 184">
@@ -14413,8 +15128,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>10260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="188" name="Entrada de lápiz 187">
@@ -14433,7 +15148,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="188" name="Entrada de lápiz 187">
@@ -14478,8 +15193,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>60360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="191" name="Entrada de lápiz 190">
@@ -14498,7 +15213,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="191" name="Entrada de lápiz 190">
@@ -14543,8 +15258,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>183000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="202" name="Entrada de lápiz 201">
@@ -14563,7 +15278,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="202" name="Entrada de lápiz 201">
@@ -14608,8 +15323,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>165840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="206" name="Entrada de lápiz 205">
@@ -14628,7 +15343,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="206" name="Entrada de lápiz 205">
@@ -14673,8 +15388,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="Entrada de lápiz 208">
@@ -14693,7 +15408,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="Entrada de lápiz 208">
@@ -14738,8 +15453,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>91980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="213" name="Entrada de lápiz 212">
@@ -14758,7 +15473,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="213" name="Entrada de lápiz 212">
@@ -14803,8 +15518,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="214" name="Entrada de lápiz 213">
@@ -14823,7 +15538,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="214" name="Entrada de lápiz 213">
@@ -14868,8 +15583,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>132900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="215" name="Entrada de lápiz 214">
@@ -14888,7 +15603,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="215" name="Entrada de lápiz 214">
@@ -14933,8 +15648,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="218" name="Entrada de lápiz 217">
@@ -14953,7 +15668,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="218" name="Entrada de lápiz 217">
@@ -14998,8 +15713,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>102900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="220" name="Entrada de lápiz 219">
@@ -15018,7 +15733,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="220" name="Entrada de lápiz 219">
@@ -15063,8 +15778,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="221" name="Entrada de lápiz 220">
@@ -15083,7 +15798,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="221" name="Entrada de lápiz 220">
@@ -15128,8 +15843,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="222" name="Entrada de lápiz 221">
@@ -15148,7 +15863,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="222" name="Entrada de lápiz 221">
@@ -15193,8 +15908,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>60000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="223" name="Entrada de lápiz 222">
@@ -15213,7 +15928,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="223" name="Entrada de lápiz 222">
@@ -15258,8 +15973,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>181320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="224" name="Entrada de lápiz 223">
@@ -15278,7 +15993,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="224" name="Entrada de lápiz 223">
@@ -15323,8 +16038,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>56700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="225" name="Entrada de lápiz 224">
@@ -15343,7 +16058,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="225" name="Entrada de lápiz 224">
@@ -15388,8 +16103,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="226" name="Entrada de lápiz 225">
@@ -15408,7 +16123,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="226" name="Entrada de lápiz 225">
@@ -15453,8 +16168,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>86820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="Entrada de lápiz 228">
@@ -15473,7 +16188,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="Entrada de lápiz 228">
@@ -15518,8 +16233,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="232" name="Entrada de lápiz 231">
@@ -15538,7 +16253,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="232" name="Entrada de lápiz 231">
@@ -15583,8 +16298,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="235" name="Entrada de lápiz 234">
@@ -15603,7 +16318,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="235" name="Entrada de lápiz 234">
@@ -15648,8 +16363,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="240" name="Entrada de lápiz 239">
@@ -15668,7 +16383,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="240" name="Entrada de lápiz 239">
@@ -15753,22 +16468,22 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">133 529,'2'4,"1"-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,0 1,0 4,3 58,-4-45,0 75,-1-52,2 0,7 49,-6-80,1-1,1 1,0 0,0-1,1 0,1 0,0-1,1 1,0-2,1 1,10 10,-9-10,2-1,0-1,0 0,1-1,0 0,0 0,20 9,-28-16,1 0,-1 0,0-1,1 1,-1-1,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 0,1-1,-1 0,1 1,0-1,-1-1,0 1,1-1,-1 1,0-1,0-1,0 1,0 0,0-1,0 0,-1 0,5-4,3-6,0-1,-1 0,-1-1,0 0,-1 0,0-1,-1 0,-1 0,-1 0,0-1,-1 0,2-27,0-22,-5-131,-4 121,3 71,1-53,2 48,3 36,6 81,-5 0,-7 129,-1-110,0 491,1-608,0-1,0 1,-1-1,0 1,-1-1,1 1,-2-1,1 0,-1 0,-4 8,4-12,0 0,1-1,-1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 0,-1-1,1 1,-7-1,-321-6,321 5,-5 1,0-1,1-1,-1-1,-26-8,39 11,0-1,0-1,0 1,0 0,1-1,-1 0,0 1,1-1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,1 0,-1 0,0 0,1-1,0 1,-1 0,2-5,2-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="776">901 0,'5'1,"0"0,0-1,-1 2,1-1,0 1,0-1,0 1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,3 8,5 10,-1 1,0 0,7 29,-14-40,11 44,-3 0,-2 1,-3 1,-3-1,-2 1,-7 68,5-115,0 0,-1 0,0 0,-8 20,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1389">1350 1058,'585'0,"-562"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2370.6">1350 1429,'9'0,"12"0,11 0,5 0,6 0,-1 0,-3 0,-3 0,-4 0,20 0,6 0,-3 0,-6 0,-7 0,-6 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4909.08">3494 741,'4'-4,"2"-6,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5936.6">2964 1217,'0'5,"0"6,9 0,7 0,20-4,16-1,5-3,0-2,-3 0,-4-1,-4-1,-6 1,-6 4,-3 1,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7127.46">3547 688,'0'-2,"1"-1,-1 1,1-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,0-1,-1 2,1-1,0 0,0 0,0 1,0-1,0 1,3-2,48-26,-44 24,19-7,1 1,1 2,0 0,0 2,0 2,1 0,0 2,0 2,-1 0,56 7,-67-2,0-1,1 2,-2 1,1 0,-1 1,0 1,0 1,-1 0,18 14,7 7,-1 1,45 47,-32-22,-39-38,0-2,1 0,1-1,0 0,1-2,1 0,25 13,-5-7,-1 0,62 44,-76-44</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7663.4">4737 291,'-9'0,"-8"9,-9 17,-10 8,-7 16,-6 9,1 4,0-6,-1 7,3-3,5-9,1 7,2-4,3-6,8-7,8-6,8-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9196.06">2620 1535,'2044'0,"-1935"6,175 30,-44-2,-139-24,132 30,-164-26,131 8,-122-16,81 17,-82-9,-48-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10242.08">3361 2090,'4'0,"2"5,-5 10,-11 7,-9 14,-10 9,-9 6,-7-1,-5-4,2-6,4-1,5-2,5-3,8-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10757.31">3044 2143,'4'0,"11"5,7 6,0 5,5 9,7 10,3 7,3 1,0 7,-3-5,-7-5,-5-10,-1-6,-6-2,0-5,0-5,2-5,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11845.34">3679 1932,'10'-10,"2"0,0 0,0 1,0 1,1 0,1 0,-1 1,1 1,0 1,21-6,-12 5,0 2,1 0,0 2,-1 1,48 3,-66-1,0 0,1 0,-1 1,0-1,0 2,-1-1,1 0,0 1,-1 0,1 0,-1 0,0 0,0 1,0 0,-1 0,1 0,-1 0,0 0,0 1,0 0,-1-1,3 6,4 12,0 1,-2-1,8 37,-10-37,0 0,-2 1,0-1,-1 1,-2 0,-2 23,2-40,-1 1,-1-1,1 1,-1-1,0 0,-1 0,0 0,0 0,0 0,0 0,-1-1,0 1,0-1,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,0-1,1 0,-1 0,-12 4,0-1,-1-2,1 0,-1 0,1-2,-1 0,0-2,0 0,-19-2,36 1,0 1,0 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 0,0 1,-1-1,1 0,0 0,0 0,-2-3,3 3,0 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,3-1,5-1,-1 1,1-1,-1 2,1-1,0 1,-1 0,1 1,0 0,-1 0,1 1,-1 0,0 1,1 0,-1 0,0 0,11 8,14 8,-2 2,43 36,-50-38,117 96,-118-103,-5-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12416.34">4949 2064,'0'9,"0"12,0 16,9 20,7 22,1 16,-2 5,-4 0,-4-9,-2-11,-3-14,3 0,0 1,5-5,0-9,-2-10,-2-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13096.56">4737 2620,'9'0,"16"0,13 0,10 0,4 0,4 0,0 0,0 0,0 0,-1 0,-5 0,-3 0,-4 0,0 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14891.6">5928 2249,'-1'-2,"1"0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,-4-2,-56-10,51 11,0 1,1 0,-1 0,0 1,0 0,1 1,-1 0,1 1,-1 0,1 0,0 1,0 1,1 0,-1 0,1 0,0 2,1-1,-1 1,1 0,0 1,-6 8,6-7,0 1,1 0,0 0,1 0,0 1,0 0,1 0,1 0,0 1,-4 17,4-1,1 1,2 0,1 36,1-59,-2 10,2 0,0 0,1 0,6 20,-6-30,0 0,1 0,0 0,0 0,1-1,-1 1,1-1,1 0,-1 0,1 0,-1-1,1 0,9 6,-3-3,1 0,0-1,0 0,0-1,1 0,-1-1,1-1,25 4,-9-4,0-1,58-3,-81 0,1 1,0-1,-1 0,1 0,-1-1,0 0,1 0,-1 0,0-1,0 0,-1 0,1-1,0 1,-1-1,0-1,0 1,0-1,-1 1,1-1,-1-1,0 1,-1-1,1 1,-1-1,0 0,-1 0,1 0,-1-1,1-7,3-17,-2 0,-1 0,-2 0,-1 0,-4-33,0-8,4 8,0 55,0 43,1 620,1-621,1-1,2 1,12 44,2 10,-14-58</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16984.7">6933 1376,'-3'43,"-2"-2,-1 1,-21 73,15-71,2 1,2-1,-3 47,11-89,-1 13,1 1,0-1,1 0,6 30,-6-42,0 1,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,7 1,-1-1,0 0,1-1,-1 1,0-2,1 0,-1 0,0 0,0-1,0-1,0 1,0-2,0 1,-1-1,1 0,-1-1,0 0,-1 0,1-1,-1 0,12-13,9-11,-2-2,-1-1,32-55,-13 19,-5 9,-2-3,-3-1,-2-1,-4-2,23-78,-25 72,-26 73,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,4 13,-1 28,-1 106,-6 1,-40 261,32-331,7-43,-2 0,-11 42,-4 12,18-69,-1 0,-1 0,-1 0,0 0,-12 21,-10 9,-63 86,74-115,0-1,-2 0,0-2,-1 0,-1-1,-29 18,39-29,-1-1,0-1,0 1,0-2,-1 0,1 0,-1-1,0-1,-13 0,-20-1,-49-5,92 4,0 1,0 0,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0-4,-2-9,2-1,0 1,2 0,3-31,-1 12,-2 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">137 509,'3'4,"0"-2,-1 2,0-1,0 1,0 0,0 0,0 0,-1-1,0 1,0 0,0 1,0 4,3 55,-4-43,0 72,-1-49,2-1,8 47,-7-76,1-2,1 2,0-1,0 0,1-1,2 1,-1-2,1 2,0-3,1 2,11 9,-10-9,3-2,-1 0,0-1,2 0,-1 0,1-1,20 10,-29-16,1-1,-1 1,0-1,2 1,-2-1,1 0,-1 0,1-1,-1 1,1-1,1 0,-2 0,1-1,-1 0,1 1,0-1,-1-1,1 1,0-1,-1 1,0 0,0-2,0 1,0 0,1-1,-1 0,-1 0,5-4,3-5,1-2,-2 1,-1-1,1-1,-2 1,0-2,0 1,-2 0,-1-1,0 0,-1-1,2-25,1-21,-6-127,-4 117,3 68,1-50,2 45,3 35,6 78,-4 0,-8 124,-2-106,1 472,1-584,0-2,0 2,-1-1,0 0,-1 0,1 1,-2-1,1-1,-1 1,-4 7,4-11,0 0,1-1,-2 0,0 0,1 0,0-1,-1 1,1 0,-1-1,0 0,-1 0,1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,0-1,1 1,-7-1,-332-6,331 5,-4 1,-1-1,2-1,-2-1,-26-8,40 11,0-1,-1 0,1 0,0 0,1-1,-1 0,0 1,1-1,0 0,-1 0,1-1,0 1,0 0,0-1,-1 2,1-2,1 0,-1 1,1-1,0 0,-1 0,1 0,1 0,-1 1,0-1,1-1,0 1,-1 0,2-5,2-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="776">931 0,'5'1,"1"0,-1-1,-1 2,1-1,0 1,0-1,1 1,-2 0,1 0,-1 0,0 1,0 0,0 0,1 0,-1 1,-1-1,1 0,-1 1,0 0,0 0,0 0,3 7,6 11,-2 0,1 0,6 28,-14-39,12 43,-4 0,-2 1,-2 1,-4-2,-2 2,-8 65,6-110,0-1,-1 1,0 0,-8 18,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1389">1395 1017,'605'0,"-581"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2370.6">1395 1374,'10'0,"11"0,12 0,6 0,5 0,-1 0,-2 0,-4 0,-4 0,21 0,6 0,-3 0,-7 0,-6 0,-7 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4909.08">3611 713,'4'-4,"3"-6,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5936.6">3063 1170,'0'5,"0"6,10-1,6 1,21-5,17 0,5-3,0-2,-3 0,-4-1,-5-1,-6 1,-5 4,-4 1,-9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7127.46">3666 662,'0'-2,"1"-1,-1 1,1-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 1,0-2,-1 2,2-1,-1 0,0 0,0 1,0-1,0 1,3-2,50-25,-46 23,20-6,1 0,1 3,0-1,0 2,0 3,1-1,0 2,0 2,-1 0,58 7,-69-2,-1-2,2 3,-2 1,0 0,0 0,-1 2,1 1,-1-1,18 15,7 5,0 2,45 45,-32-21,-40-37,-1-1,2-1,0 0,1-1,1-1,0-1,27 13,-6-7,-1 1,65 41,-80-42</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7663.4">4896 280,'-9'0,"-9"8,-9 17,-10 8,-7 15,-7 9,1 4,1-7,-2 8,3-3,6-9,1 6,1-3,4-6,8-6,9-7,7-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9196.06">2708 1476,'2112'0,"-1999"6,181 28,-46-1,-144-23,137 28,-170-24,136 7,-126-15,83 16,-85-9,-49-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10242.08">3474 2010,'4'0,"2"4,-5 11,-11 6,-10 14,-10 8,-9 6,-8-1,-4-4,1-5,5-2,4-1,6-4,8-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10757.31">3146 2061,'4'0,"12"4,6 7,1 4,5 9,7 10,4 6,2 2,0 6,-3-5,-7-4,-5-11,-1-4,-6-3,-1-5,1-4,2-6,-3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11845.34">3802 1858,'11'-10,"1"0,1 1,-1 0,0 2,2-1,0 0,0 1,0 2,1 0,21-6,-12 5,-1 3,2-1,0 2,-1 1,49 3,-68-1,0 0,2 0,-2 1,0-1,0 1,-1 0,1 0,1 1,-2 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,-1 0,0 0,0 1,0-1,-1 0,3 6,5 11,-1 1,-2-1,9 36,-11-36,0 0,-2 1,0 0,-1 0,-2 0,-2 22,2-38,-1 1,-1-2,1 2,-1-1,0 0,-1-1,0 1,0 0,0 0,-1-1,0 0,0 1,0-1,-1 0,1-1,-1 0,-1 0,1 0,0 0,-1 0,0-1,0-1,0 1,-12 4,-1-1,-1-2,2 0,-2-1,2-1,-2 0,0-2,1 0,-21-2,38 1,0 1,0 0,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-2 0,1-1,1 1,-1 0,0-1,1 0,0 1,-1-1,1 0,0 0,0 0,-2-2,3 2,0 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0 1,0-2,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,3-1,5-1,0 1,0-1,-1 2,1-1,1 1,-2 0,1 1,1 0,-2 0,1 1,-1 0,1 1,0 0,-1 0,1 0,10 7,15 8,-2 3,45 33,-52-35,120 91,-121-98,-5-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12416.34">5115 1985,'0'8,"0"12,0 16,9 19,8 21,0 15,-1 5,-5 0,-3-8,-3-11,-3-14,3 1,0 0,5-4,1-9,-3-10,-2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13096.56">4896 2519,'9'0,"17"0,13 0,11 0,4 0,4 0,-1 0,1 0,0 0,-1 0,-5 0,-4 0,-3 0,-1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14891.6">6127 2163,'-1'-2,"1"0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,-2 0,2 0,0 2,-1-2,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,-5-2,-57-9,53 10,0 1,0 0,0 0,0 1,-1 0,2 0,-1 1,0 1,0 0,0 0,1 1,0 1,1-1,-2 1,2 0,0 2,0-1,0 0,1 1,-1 1,-5 7,6-6,-1 0,2 1,0 0,1-1,0 2,-1-1,2 1,1 0,0 0,-4 17,4-1,0 1,3 0,1 34,1-56,-2 9,2 1,0-1,2 0,5 20,-6-29,0 0,1-1,0 1,0 0,1-1,-1 1,2-2,0 1,-1 0,1 0,-1-1,1-1,10 7,-4-3,2 0,-1-2,0 1,1-1,0 0,0-1,0-2,26 5,-9-4,0-1,60-3,-84 0,2 1,-1-1,-1 0,1 0,0-1,-1 0,1 0,-1 0,0 0,1-1,-2 0,1-1,0 1,-1-1,0-1,1 2,-1-2,-1 1,1-1,-1-1,0 2,0-2,0 1,-1-1,0 0,-1 1,1-1,-1-1,1-6,3-17,-1 0,-2 0,-2 0,-1 1,-4-33,-1-7,5 7,0 54,0 40,1 597,1-597,2-1,1 0,12 43,3 10,-15-56</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16984.7">7166 1323,'-4'41,"-1"-1,-1 0,-22 71,16-69,1 1,3 0,-3 44,11-85,-1 13,1 0,0-1,1 1,6 28,-6-40,0 1,0-1,1 1,-1-2,1 2,0-1,0 0,1 0,-1 0,0 0,1 0,0-1,-1 0,1 1,0-1,0 0,0 0,0 0,2 0,-2 0,1-1,-1 1,1-1,-1 0,7 1,0-2,-1 1,1-1,0 1,-1-2,1 0,0 1,-1-1,0-1,1-1,-1 1,0-2,0 1,0-1,0 0,-1 0,1-1,-2 0,1-1,-1 0,13-12,9-11,-2-1,-1-2,33-53,-14 19,-5 8,-1-2,-4-2,-2 0,-4-3,23-74,-25 69,-27 70,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,2 0,-2 0,1 0,4 12,-1 28,-1 101,-6 1,-42 252,34-319,7-42,-2 1,-12 40,-4 12,19-67,-1 0,-1 0,-1 0,0 1,-13 19,-10 9,-65 83,76-111,1-1,-3 1,1-3,-2 0,-1 0,-29 16,39-27,0-1,-1-1,1 0,0-1,-2 0,2 0,-2-1,1-1,-14 0,-21-1,-50-5,95 4,0 1,0 0,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,1 0,-1-1,0 0,1 0,-1 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 2,1-2,-1 0,1 0,0 0,0 0,0 0,0 0,0-3,-2-10,2 0,0 0,2 1,3-30,-1 11,-2 10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15878,9 +16593,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1800 8075,'17'-30,"35"-46,-1 1,71-129,167-308,308-756,-323 626,-66 158,-121 281,194-327,-215 426,6 3,3 3,5 4,150-139,-40 76,269-168,206-52,29 66,-404 197,5 13,3 13,387-61,1175-97,-437 67,-1291 160,324-43,4 37,-212 28,1676 130,-1808-120,-3-1,192 46,-273-47,0 1,-1 1,0 1,-1 2,0 1,28 22,150 135,-191-159,124 121,206 253,84 187,51 76,-250-328,216 404,-122-159,212 389,-302-461,-21-41,-201-430,-1 1,17 54,-27-68,0 0,-1 0,-1 0,0 0,0 0,-1 0,-1 0,-4 24,-3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2899.99">1 8101,'11'-12,"-1"-1,0-1,-1 1,0-2,-2 1,1-1,6-19,3-6,740-1710,-455 965,88-210,-262 708,231-378,359-396,-468 756,-191 243,2 3,110-83,43 1,325-160,359-111,-666 325,2 10,253-47,2110-268,-2324 362,546-72,-630 72,792-86,392 109,-777 11,1283-4,-1771 2,-1 4,0 4,0 6,107 29,502 168,-621-184,634 249,-675-252,-2 2,-1 2,-1 2,86 74,156 182,-233-227,160 177,339 481,-189-208,-29-43,-13-30,97 147,-290-334,-74-130,367 787,-345-684,4 12,1-40,73 177,-123-271,44 184,2 189,-76-366,-8 133,-2-87,2-93,-1-21,2-1,2 0,1 1,2-1,13 49,27 94,-33-120,4-1,26 69,43 61,-73-137,-9-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4369.07">18734 7096,'0'3,"0"0,1-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 1,-1-1,1-1,0 1,0 0,0 0,0 0,4 1,50 29,-29-19,-4 0,-1 1,0 1,-2 1,39 36,-49-40,-1-1,0 2,-1-1,0 1,0 0,-2 1,1 0,-2 0,0 0,3 18,87 325,-28-128,-25-98,-11-42,4-2,61 110,-62-129,-28-55,-1 1,-1 0,0 0,-1 0,0 1,-1-1,0 27,-1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1872 7749,'18'-29,"36"-44,-1 1,74-124,173-295,321-726,-336 601,-69 152,-125 269,201-314,-223 409,5 4,4 1,6 5,155-133,-42 72,281-161,213-50,31 64,-420 189,4 12,4 12,403-58,1221-93,-454 64,-1343 154,337-41,5 35,-221 27,1743 124,-1881-114,-2-2,199 45,-284-46,0 2,0 0,-1 2,-1 1,0 2,30 20,155 130,-198-153,128 117,215 242,87 180,54 72,-261-314,225 388,-127-153,220 373,-313-442,-23-39,-208-413,-2 0,19 53,-29-65,0-1,-1 1,-1-1,0 1,0-1,-1 1,-1-1,-4 24,-3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2899.99">1 7773,'11'-11,"0"-2,-1 0,0 1,-1-3,-2 2,2-2,5-17,4-7,769-1640,-473 926,92-202,-273 680,240-363,374-381,-487 727,-199 232,3 4,113-81,46 2,338-154,372-106,-691 311,1 11,264-46,2193-258,-2416 349,568-70,-656 69,825-82,407 104,-809 11,1335-4,-1841 2,-2 4,0 3,1 6,110 29,523 160,-646-176,659 239,-702-242,-2 1,-1 3,-1 2,89 71,163 174,-243-217,167 169,352 462,-196-200,-30-41,-14-28,101 140,-302-320,-76-125,381 755,-359-656,4 12,2-39,75 170,-127-261,45 178,2 181,-78-352,-10 128,-1-83,2-89,-1-21,2-1,2 1,1 0,3-1,12 48,29 89,-34-114,3-2,28 67,44 58,-75-131,-10-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4369.07">19483 6809,'0'3,"0"0,1-1,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,-1-1,1-1,0 1,0 0,0-1,0 1,5 1,51 28,-30-19,-4 1,-1 0,0 2,-2 0,40 35,-51-39,0 0,-1 2,-1-2,1 2,-1-1,-2 1,1 1,-1-1,-1 1,3 16,91 313,-29-123,-27-95,-10-39,3-3,64 106,-65-123,-29-54,0 2,-2-1,0 0,-1 1,0 0,-1 0,0 25,-1-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15907,27 +16622,27 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5887 3713,'-10'-1,"0"0,0-2,0 1,1-1,0 0,-17-9,-11-3,-61-20,36 12,-1 3,-100-20,86 28,-140-4,159 17,-21-1,-93 11,148-7,0 0,0 1,1 2,0 0,0 2,0 0,1 1,-25 17,30-14,1 0,0 1,1 0,0 2,1-1,1 2,1 0,0 0,1 1,1 1,1 0,-11 30,-2 21,2 1,-11 89,22-113,2-5,3-1,1 1,1 0,3 0,2 0,1-1,2 1,18 63,-18-91,1 0,0 0,1-1,1 0,0 0,0-1,1 0,1-1,0 0,1 0,17 12,-8-7,-2 2,-1 0,22 27,-25-24,1-1,0-1,1 0,2-1,0-1,0 0,2-2,0 0,24 12,60 30,-48-25,0-2,2-2,74 22,-101-44,0-1,0-2,0-1,0-1,40-5,18 0,-70 4,0-1,0 0,0-2,37-10,-49 11,-1-1,0 0,1 0,-1 0,-1-1,1 0,0-1,-1 0,0 1,0-2,0 1,-1-1,0 0,0 0,6-10,6-12,2 2,31-36,-30 38,0-1,19-33,-33 48,-1 0,0-1,-1 1,0-1,-1 0,0-1,0 1,-2 0,2-23,-7-677,5 608,2 49,-2 0,-3 0,-3 0,-11-53,15 102,0 1,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,-1 1,0-1,1 1,-1-1,0 1,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,1 0,-2 0,1 0,-8-1,-6 0,0 1,1 1,-1 0,-36 5,-33-3,-405-23,454 22,1 2,-1 1,0 2,1 2,0 1,1 1,0 3,0 1,-48 25,23-9,46-23,-1 1,1 1,0 0,1 1,-1 0,2 2,-15 12,25-18,-1 0,2-1,-1 1,0 0,1 0,0 1,0-1,0 0,1 1,0-1,0 1,0 11,4 76,0-49,0 43,0 9,-9 109,-19-60,16-101,1 0,-4 84,13-117,0-1,0 1,1 0,1-1,0 0,0 1,1-1,0 0,1-1,0 1,8 11,-3-7,0 0,2-1,-1-1,2 1,0-2,19 14,-20-18,1-1,0 0,0-1,0 0,1-1,0-1,26 4,46 13,-44-5,291 112,-273-105,0-3,68 12,31 9,-147-37,-1 0,1 0,0-2,0 1,0-1,0-1,0 0,0-1,0 0,0-1,0 0,0-1,-1-1,1 0,-1 0,21-11,47-15,-50 20,-1 0,-1-2,29-17,-49 25,-1 0,0 0,0-1,0 0,0 0,-1-1,0 0,0 0,0 0,-1 0,0-1,0 1,0-1,-1 0,0-1,3-11,5-43,-3-1,-3 1,-2-1,-3 0,-3 0,-12-69,10 72,2-69,0-12,-2 97,-1 1,-2 0,-26-79,28 109,-1 0,0 1,-1 0,-1 0,0 1,0 0,-1 0,0 1,-1 0,0 1,-1 1,0-1,0 2,0 0,-16-6,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2695.89">4829 5645,'-6'1,"1"0,-1 0,1 0,-1 1,1-1,0 1,0 1,-5 2,-12 6,0 1,2 1,-1 0,2 2,0 0,0 1,2 1,0 1,1 0,0 2,-23 38,33-41,1 1,0-1,1 1,1 0,1 0,0 0,2 0,0 1,1-1,0 0,6 20,-7-36,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,2 0,2-2,0 0,-1 0,1 0,-1-1,0 0,0 0,0 0,0 0,-1-1,7-8,-1-4,0 0,-1 0,-1-1,7-19,-8 17,0 1,2 0,16-26,41-38,-52 68,-1 0,-1 0,0-1,-1-1,-1 0,0-1,-2 1,0-2,9-28,-19 222,2-86,0 11,0-74</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22815.97">5358 3422,'-19'2,"1"0,-1 0,1 2,0 0,0 1,0 1,1 1,0 1,-20 11,-15 12,-69 54,59-37,2 3,-106 116,138-133,1 0,1 2,2 1,2 2,2 0,-29 77,42-92,2 1,0-1,2 1,1 0,1 0,1 0,1 0,1 0,1 0,13 48,-1-22,3 0,1-1,3-2,30 50,-31-61,3-2,1-1,1-1,2-1,1-1,1-2,61 45,-62-53,2-1,1-2,0-1,1-2,1-1,0-1,1-2,0-2,50 7,-41-10,-12 0,0-2,1-1,0-1,0-2,-1-2,46-7,-52 3,1-2,-1 0,-1-2,0-1,0-1,-1-1,-1-2,0 0,-1-1,-1-1,0-1,-1-1,-1 0,-1-2,30-44,-28 37,28-40,50-92,-85 135,-1 0,-2-1,-1 0,0-1,-2 0,-1 0,4-50,-8 42,-1 0,-2 0,-1 0,-2 1,-2-1,0 1,-3 0,-1 1,-1 0,-1 0,-3 1,0 1,-26-38,3 11,-4 1,-83-88,114 136,-1 1,0 0,0 0,-1 1,1 1,-2 0,-19-6,-32-14,42 16,-1 2,-1 1,1 1,-1 1,-33-2,13 1,-4-1,0 3,-1 1,1 3,-78 10,19 16,76-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19957.91">2844 4454,'1'-10,"1"0,0-1,1 1,0 0,0 0,1 0,10-17,-3 4,85-180,59-135,-128 274,2 2,4 1,2 1,2 2,3 1,65-70,-79 104,1 1,1 1,1 1,1 2,33-16,51-32,-41 16,85-54,-132 90,0 1,1 1,0 2,44-12,54-12,-78 19,1 3,1 1,60-5,330 14,-209 6,493-5,-677 5,-2 2,1 1,-1 3,83 29,-29-9,-18-3,-1 3,-1 4,-2 3,-1 4,88 63,-119-70,-1 3,-2 1,-1 1,-3 3,-1 1,-2 2,48 82,-52-71,-3 2,22 67,-26-63,56 109,-64-141,-1 1,12 36,8 19,-17-40,-2 0,16 81,1 4,-17-79,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-17669.93">1283 4454,'1'-7,"0"0,1-1,0 1,0 0,1 0,0 0,0 0,0 1,1-1,6-7,9-19,206-480,-109 241,-81 190,103-209,-53 151,187-238,-199 293,3 4,3 3,148-111,-120 118,3 4,2 5,3 5,159-54,-16 23,374-75,217 31,-728 122,1 4,0 7,150 18,351 87,-531-84,164 64,78 60,-116-47,577 286,-706-326,-2 4,136 129,-218-187,62 60,-3 2,64 88,91 164,-88-77,-35-59,54 98,-131-238,-1 0,-3 2,-1 0,12 83,-17-79,24 77,-21-90,-2 0,-2 1,-1 0,3 50,-10-65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-15455.6">13 4428,'-1'0,"1"0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,-2-31,2 0,0-1,3 1,0 0,14-53,56-158,-70 234,251-632,43 15,-2 3,-223 473,7 2,6 4,138-177,-165 244,3 2,3 4,4 2,141-111,-119 119,152-79,113-22,-239 118,184-46,122 1,-288 63,251-43,2 17,551-4,-214 62,-466-2,899 62,-984-42,-1 8,269 86,304 165,-387-117,-269-118,157 114,-95-49,196 158,-191-125,-6 7,-7 6,220 321,-300-386,-5 4,-4 1,-4 3,57 172,278 705,-162-405,-196-505,-17-46</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5710.96">6072 5407,'1'109,"-5"-1,-27 168,26-254,-1 3,2 0,0 1,0 50,4-70,1 0,-1-1,1 1,0 0,0-1,1 1,0-1,0 0,0 1,0-1,1 0,0 0,0-1,0 1,1-1,-1 1,1-1,0 0,0 0,1-1,-1 1,1-1,8 4,-1-1,0-1,0-1,0 0,1-1,-1 0,1-1,23 1,-29-3,0 0,0 0,0-1,0 0,0 0,-1-1,1 0,0 0,0 0,-1-1,0 0,1 0,-1-1,0 1,8-8,-1-9,-10 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6477.85">5860 5830,'0'-4,"4"-2,7 0,9 1,43 2,19 1,1 1,-10 0,-13 1,-12 0,-9 1,-7-1,-5 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9213.12">7527 5698,'-1'0,"1"-1,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,-1 0,-36 3,34-2,-22 3,1 1,0 2,0 0,0 2,1 0,1 2,-1 1,2 0,0 2,0 0,1 2,-24 23,32-26,0 1,1 0,0 1,1 0,1 1,0 0,1 1,1 0,1 0,0 1,1 0,1 0,1 1,1-1,0 1,1 0,1 31,2-42,0 0,0 0,0-1,1 1,1 0,-1-1,1 0,0 1,1-1,-1 0,1-1,7 9,-3-5,1-1,0 0,0 0,1-1,0 0,1-1,11 6,7 2,0-2,1-2,0 0,1-2,40 7,-20-10,0-1,0-3,85-8,-127 6,-1-1,0-1,0 0,0 0,13-5,3-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10997.1">8057 5433,'3'1,"1"-1,0 1,0 0,0-1,-1 2,1-1,0 0,-1 1,1 0,-1-1,0 1,1 1,-1-1,0 0,0 1,-1 0,1-1,0 1,-1 0,0 1,0-1,0 0,0 0,0 1,-1 0,1-1,-1 1,1 4,4 13,-1 0,-1 1,2 37,-6-56,5 472,-9-240,5-230,-1 0,-1-1,1 1,-1 0,1 0,-2 0,-1 7,2-11,1 0,-1 0,0 0,1 0,-1-1,0 1,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 0,1 1,-3-3,-9-6,1 0,0-1,0-1,1 0,0-1,1 1,0-2,1 1,1-1,0-1,-6-13,7 12,-1 0,-1 1,0 0,-1 1,0 0,-1 0,0 1,-2 0,-22-19,32 30,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-2 2,0 0,0 0,0 1,1 0,-1-1,1 1,-1 0,1 1,0-1,-4 7,-2 4,0 1,2-1,0 1,-9 26,12-27,0 0,1 0,0 1,1-1,1 1,0 0,1-1,3 24,-2-31,0 0,1 0,0-1,0 1,0 0,1-1,0 1,0-1,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0-1,1 1,-1-1,10 5,-9-5,0-1,0 0,1 0,-1 0,1-1,-1 0,1 0,0-1,0 1,0-2,0 1,0-1,0 0,0 0,0-1,0 0,-1 0,1-1,0 0,0 0,-1 0,1-1,-1 0,0-1,8-5,10-8,0-1,-2-1,23-24,-36 34,-1-1,0 0,0-1,-1 0,0 0,-1 0,0-1,-1 0,5-19,-7 4,-6 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11903.12">8612 5883,'-3'59,"-2"-1,-16 69,2-10,18-109,-2 8,1 0,0 1,2-1,0 0,3 21,-3-33,1-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,0 1,0-2,0 1,0 0,1 0,-1-1,1 1,-1-1,1 0,0 1,0-2,0 1,0 0,1 0,-1-1,0 0,1 0,-1 0,1 0,-1 0,6 0,-1 0,0 0,-1-1,1 1,0-2,0 1,0-1,12-3,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12446.69">8692 5671,'-5'0,"-1"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19312">4802 3449,'-5'1,"1"0,-1 0,1 0,0 0,0 1,-1-1,1 1,0 0,1 0,-1 1,0-1,0 1,-3 3,-47 49,37-37,-9 9,-266 293,283-308,0-1,0 2,1-1,1 1,0 0,0 1,2-1,-1 1,2 1,0-1,1 1,0-1,1 1,1 0,1 23,-1 39,11 267,-3-300,1-1,3 0,1 0,2-1,2-1,1-1,25 41,-29-61,0-1,1 0,0-1,2-1,0 0,36 27,121 74,-151-104,18 7,0-2,1-1,60 17,3 1,-11-4,0-4,2-4,1-5,0-4,1-4,1-4,97-6,-145 0,-29 0,-1-1,1 0,-1-2,26-4,-41 5,-1-1,1 1,0-1,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,-1 0,1-1,0 1,-1-1,0 0,1 0,-2 0,1 0,0-1,-1 1,0-1,2-5,19-66,14-87,-16 60,-6 32,-3 1,-3-2,-4 1,-2-1,-4 0,-15-114,12 168,0-1,-1 1,-2 0,1 0,-2 0,0 1,-12-17,-10-11,-41-46,33 44,23 29,0 1,-2 1,0 0,0 1,-1 0,-1 2,0 0,-1 1,-1 1,0 1,0 1,-36-10,-16-4,38 10,0 3,0 0,-1 3,0 0,-51-1,12 7,4-1,-121 12,168-6,0 2,1 0,0 2,0 0,0 1,1 2,1 0,0 1,0 1,-34 30,31-24,2-2,1 1,-28 29,43-40,0 1,1 0,-1 0,1 0,1 0,0 1,0-1,1 1,0 0,0 1,-1 9,0 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22776.95">6813 2602,'0'9,"0"8,0 9,0 6,0 5,0 6,0 1,0-4,0-3,0-4,0 1,0 0,0-2,0-1,0 3,4-5,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23528.96">6787 2761,'4'0,"6"-4,6-2,5 0,7-8,18-1,5 1,3 4,-8 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24338.99">6839 2549,'4'0,"7"0,5 0,5 0,7 0,5 5,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25550.96">7210 2708,'2'1,"1"0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0 1,0-1,2 3,30 45,-30-44,9 19,-1 1,-1 1,-2 0,0 1,-2 0,-1 0,-1 0,1 42,-7-54,-7-15,-16-25,1 1,15 19,-1 0,1 1,-1 0,0 0,0 1,0 0,0 0,-1 1,1 1,0 0,-1 0,1 0,0 1,-14 4,18-4,0 0,0 1,0-1,0 1,1 1,-1-1,0 0,1 1,0 0,0 0,0 1,-4 3,6-4,0 0,0-1,0 1,0 0,1 0,0 0,0 0,-1 1,2-1,-1 0,0 0,1 1,-1-1,1 0,0 0,0 1,0-1,1 0,-1 1,2 3,-1-3,0 0,1 0,-1 0,1-1,0 1,0 0,0-1,1 1,-1-1,1 0,0 0,-1 0,1 0,1-1,-1 1,0-1,1 0,-1 0,1 0,0 0,-1 0,1-1,5 2,4 0,1 0,0-1,0-1,0 0,21-1,-10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26418.96">6813 2972,'9'0,"16"0,13 0,5 0,4 0,-2 0,1 0,-3 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58532.28">4299 6359,'6'6,"2"0,-1-1,0 0,1-1,0 0,0 0,1-1,-1 0,15 4,82 11,-90-16,72 6,120-6,25 1,-148 13,-61-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60372.81">5781 6597,'742'0,"-720"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62290.17">7025 6862,'0'-1,"0"0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,2 0,39-5,-34 5,595-5,-324 7,825-2,-1005-4,-58-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6139 3564,'-11'-1,"1"0,-1-2,1 2,1-2,-1 0,-17-9,-12-2,-63-20,38 12,-2 3,-104-19,90 26,-147-3,167 16,-22-1,-98 10,155-6,0 0,0 1,1 1,0 1,0 2,0-1,1 2,-26 16,31-14,2 1,-1 0,1 1,1 1,0 0,2 1,0 0,1 0,0 2,2 0,0 0,-10 29,-3 20,2 2,-12 84,24-108,2-4,3-2,0 1,2 1,3-1,2 0,2 0,1 0,19 61,-19-88,1 1,1-1,0 0,2-1,-1 0,0 0,2 0,0-2,1 1,0-1,18 12,-8-6,-2 1,-1 0,23 26,-27-22,2-2,0-1,0 0,3-1,0 0,0-1,2-1,0-1,24 12,64 29,-51-25,1-1,1-2,78 21,-106-42,1-1,-1-3,1 0,-1-1,42-5,19 1,-73 3,0-1,-1 0,1-2,39-10,-52 11,-1 0,1-1,0 0,-1 0,0-1,0 0,0-1,-1 1,1 0,-1-2,0 1,-1-1,1 1,-1-1,6-9,7-12,2 2,32-35,-31 37,0-1,19-32,-33 47,-2-1,0 0,-1 0,0 0,-1-1,1-1,-1 2,-2-1,2-21,-7-651,5 584,2 48,-2-1,-3 0,-3 0,-12-51,16 99,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,-1 1,0-1,0 1,1-1,-1 1,0 0,0 0,1 0,-3 0,2 0,-8 0,-7-1,0 1,1 1,0 0,-39 5,-33-3,-423-23,473 22,1 2,0 1,-1 2,1 2,1 0,0 2,1 3,-1 0,-49 25,23-10,48-21,0 1,0 1,0-1,2 2,-2 0,3 1,-17 12,27-17,-1 0,2-1,-1 0,0 1,1 0,0 1,0-1,0-1,0 2,1-1,0 1,0 10,4 73,1-46,-1 40,0 9,-9 105,-20-58,16-97,2 1,-5 80,14-113,0 0,0 0,1 1,2-2,-1 1,0 1,1-2,0 1,1-2,1 2,7 10,-2-6,-1-1,3-1,-2 0,3 0,-1-1,21 13,-22-17,2-1,-1-1,1 0,-1 0,2-1,-1-1,28 3,48 14,-46-6,303 108,-285-101,1-3,70 12,33 8,-153-35,-2 0,2 0,-1-2,1 1,-1-1,1-1,-1 0,1-1,-1 0,1-1,-1 0,1-1,-2-1,2 1,-2-1,23-11,48-14,-52 20,0-1,-2-1,30-17,-51 24,0 0,-1 0,0 0,0-1,1 0,-2-1,0 0,0 1,1-1,-2 0,0-1,0 2,0-2,-1 0,0 0,4-12,4-40,-2-2,-4 2,-2-2,-3 1,-3-1,-13-65,11 68,2-66,0-11,-3 93,0 0,-2 1,-28-76,30 105,-1-1,0 2,-2-1,0 1,-1 0,1 0,-1 1,-1 0,0 1,-1 0,0 1,-1 0,1 1,-1 0,-16-5,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2695.89">5035 5419,'-6'1,"1"0,-1 0,0 0,0 1,1-1,0 0,0 2,-6 2,-12 6,0 0,2 2,-1-1,3 3,-1-1,0 1,2 2,1 0,0 0,0 2,-23 37,33-40,2 2,0-2,1 1,1 1,0-1,1 0,2 0,0 2,1-2,0 0,7 20,-8-35,0-1,0 0,0 1,0 0,1-1,-1 1,0 0,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,2 0,-2 0,1 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 0,2 0,-1-1,-1 1,1 0,0 0,0-1,2 0,2-2,1 0,-2 0,1 1,-1-2,1 0,-1 0,0 0,0 0,-1 0,8-9,-2-3,1-1,-2 1,-1-1,8-19,-9 17,1 1,1 0,17-25,43-37,-55 65,0 1,-1 0,-1-2,0 0,-2 0,0-2,-1 2,-1-2,10-27,-20 213,2-83,0 11,0-71</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22815.97">5587 3285,'-20'2,"1"0,0 0,0 1,0 1,0 1,1 1,0 1,0 0,-21 12,-15 10,-72 53,61-36,3 3,-111 111,144-127,0-1,2 3,2 1,2 1,2 0,-30 75,44-89,2 1,0-1,2 1,0 0,2 0,1 0,1 0,2 0,0 0,13 46,0-21,3 0,1-1,3-2,31 48,-32-58,3-3,1 0,1-2,2 0,1-1,2-2,62 43,-63-51,1-1,1-2,1 0,0-3,2 0,-1-2,2-1,-1-3,53 8,-43-11,-13 1,0-2,2-1,-1-1,1-2,-2-2,48-7,-54 3,2-1,-2-1,-1-2,0 0,0-2,-1 0,-1-2,0-1,-1 0,-1-2,0 0,-2-1,0 0,-1-2,31-43,-29 36,29-38,52-89,-88 130,-2 0,-1-1,-2 0,0 0,-1-1,-2 0,4-48,-8 40,0 1,-4-1,0 0,-2 2,-2-2,0 2,-4-1,0 1,-2 1,0-1,-4 1,1 1,-28-36,3 10,-4 2,-86-85,119 130,-2 1,1 1,-1-1,0 1,0 1,-2 1,-19-7,-34-13,44 16,-1 1,-1 1,1 1,-1 2,-34-3,13 1,-4-1,-1 4,0 0,1 3,-81 9,19 16,80-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19957.91">2966 4276,'1'-10,"1"0,0 0,1 0,0 1,0-1,1 0,11-16,-4 4,89-172,62-131,-134 264,2 1,5 2,1 0,3 2,3 2,67-68,-82 100,1 0,2 2,0 1,1 2,35-16,53-30,-43 15,89-52,-138 87,0 0,1 2,0 1,46-11,57-12,-82 19,1 2,1 2,62-6,345 14,-218 6,514-5,-706 5,-2 2,1 1,-2 2,88 29,-31-10,-18-2,-2 3,-1 4,-2 2,0 5,91 60,-124-68,-2 4,-1 0,-1 2,-4 2,0 1,-3 2,51 79,-55-68,-3 2,23 64,-27-61,59 105,-68-135,0 1,12 34,9 19,-19-39,-1 0,16 78,2 4,-19-76,-1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-17669.93">1338 4276,'1'-7,"0"0,1-1,0 2,0-1,1 0,0 1,1-1,-1 1,1-1,6-6,10-19,215-460,-114 231,-85 182,108-200,-55 144,194-228,-207 282,4 3,2 3,155-106,-126 113,4 3,2 6,3 4,165-52,-16 23,390-72,227 29,-760 117,1 4,0 7,157 18,366 82,-554-79,171 60,81 58,-121-45,602 275,-736-314,-2 5,141 123,-227-179,65 57,-3 3,66 84,96 157,-93-74,-36-56,57 93,-137-227,-2-1,-2 2,-1 0,12 80,-18-76,26 74,-23-86,-1-1,-3 2,-1-1,4 49,-11-63</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-15455.6">14 4251,'-2'0,"2"0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,-2-30,2 1,0-2,3 1,0 1,15-52,58-151,-73 224,262-606,45 14,-3 3,-232 454,8 2,5 4,145-171,-173 236,4 1,3 3,4 3,147-107,-124 115,158-77,118-20,-249 113,192-45,127 2,-300 60,261-41,3 16,574-4,-223 60,-486-2,937 59,-1025-40,-2 8,281 82,317 159,-404-113,-280-113,163 110,-98-48,203 152,-198-120,-6 7,-8 6,229 308,-312-371,-6 4,-3 1,-5 3,59 165,291 677,-170-389,-203-485,-19-44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5710.96">6332 5190,'1'105,"-6"-1,-27 161,27-244,-1 3,1 0,1 1,0 48,4-68,1 1,-1-1,1 1,0-1,0 0,1 1,0-1,1 0,-1 0,0 0,1 0,0 0,0-1,0 0,1 0,-1 1,2-1,-1 0,0 0,1-2,-1 2,2-1,7 4,0-1,-1-2,1 0,-1 0,2-1,-2 0,2-1,23 1,-29-3,-1 0,0 0,1-1,-1 0,0 0,-1-1,2 0,-1 0,0 0,0-1,-1 0,1 0,-1 0,1 0,7-8,0-8,-11 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6477.85">6110 5596,'0'-3,"5"-3,6 0,10 1,45 2,19 1,2 1,-11 1,-14 0,-12 0,-9 0,-8 0,-4 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9213.12">7849 5470,'-1'0,"1"-1,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 0,-2 1,2-1,-1 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,-1 0,-38 3,36-2,-23 3,1 1,0 1,0 1,-1 2,2-1,1 3,-1 1,2-1,1 3,-1-1,1 2,-25 23,33-26,1 2,0-1,1 2,0-1,2 1,-1 1,2 0,1 0,0 1,1 0,1 0,1 0,0 2,2-2,0 1,1 0,1 30,2-40,0 0,0-1,0 0,1 1,1 0,-1-2,2 1,-1 1,1-2,-1 1,1-1,8 8,-4-4,1-2,1 1,-1 0,2-2,-1 1,1-1,12 5,8 3,-1-3,1-1,0-1,2-1,41 6,-21-9,0-1,0-3,89-8,-132 6,-2-1,0-1,1 0,-1 0,14-4,3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10997.1">8401 5215,'3'1,"2"-1,-1 1,0 0,0-1,-1 2,1-1,1 0,-2 1,1 0,-1-1,0 1,1 1,0-1,-1-1,0 2,-1 0,1-1,0 1,-1 0,0 1,0-1,0-1,1 1,-1 1,-1 0,1-1,-1 1,1 3,4 14,-1-1,0 1,1 36,-6-55,5 454,-9-230,5-221,-1 0,-1-2,1 2,-1 0,1 0,-2 0,-1 6,2-10,1 0,-2 0,1 0,1 0,-1-1,0 1,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1-1,0 1,-1 0,1 0,0 0,0 0,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 0,1 1,-3-3,-10-6,2 1,-1-2,1 0,1-1,-1-1,2 2,-1-3,2 2,1-2,-1 0,-5-13,7 12,-2-1,0 2,0-1,-2 2,1-1,-2 1,1 0,-3 1,-22-19,33 29,0 0,0 0,1 0,-1 0,0 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,0-1,-2 2,0 0,0 0,-1 1,2 0,-1-1,1 1,-1 0,1 0,0 0,-5 7,-1 3,0 2,1-2,1 2,-10 24,13-26,0 1,1-1,0 2,1-2,1 2,0-1,1-1,3 24,-2-30,0-1,1 1,0-1,0 0,0 1,1-1,0 1,0-2,2 1,-1 0,0 0,0-1,1-1,1 2,-1-1,0-1,1 1,-1-2,11 6,-10-5,1-1,-1 0,1-1,-1 1,2-1,-2 0,1 0,1-1,-1 1,0-2,0 1,1-1,-1 0,0 0,1-1,-1 0,-1 0,2-1,-1 0,0 0,-1 0,2 0,-2-1,0-1,9-5,10-7,0-1,-2-2,24-22,-38 32,-1 0,1-1,-1 0,-1-1,1 1,-2-1,0-1,-1 1,6-19,-8 4,-6 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11903.12">8980 5647,'-3'57,"-2"-1,-17 65,2-8,19-106,-2 9,1-1,0 2,2-2,0 0,3 21,-3-32,1-2,0 2,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0-1,1 1,-1 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0-1,1 1,-1 0,1 0,-1-1,0 0,1 0,-1 0,2 0,-2 0,6 0,-1 0,1 0,-2-1,1 1,1-2,-1 1,0-1,13-3,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12446.69">9064 5444,'-6'0,"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19312">5007 3311,'-5'1,"1"0,-1 0,0 0,1 0,0 1,-1-2,1 2,0 0,0 0,0 1,0-1,0 1,-3 3,-50 46,40-34,-11 8,-276 281,295-296,-1 0,1 1,0 0,2 0,0 1,0 0,1 0,0 0,2 2,0-2,1 1,0 0,0 0,2 1,1 21,-1 38,12 256,-4-287,1-2,4 0,0 0,3 0,2-2,0-1,27 40,-30-59,-1 0,2-1,0-1,1-1,1 1,37 25,127 71,-159-99,20 6,0-2,1-1,62 17,3 1,-11-5,0-3,2-4,1-5,1-3,0-5,1-3,101-6,-151 0,-30 0,-1-1,1 0,-1-2,27-4,-43 5,-1-1,1 1,1 0,-1-1,-1 0,1 0,-1-1,1 1,0-1,-1 0,-1 0,1 0,0 0,0-1,-1 0,1 0,-2 0,1 0,0 0,-1 0,0-1,3-5,19-63,14-83,-16 57,-6 31,-4 1,-2-2,-5 1,-2-2,-4 1,-16-109,13 160,0 0,-1 1,-3 0,2-1,-2 1,-1 1,-11-17,-12-10,-42-44,35 41,23 29,0 1,-1 1,-1-1,0 2,-1-1,0 3,-1-1,-1 2,-1 0,0 2,0 0,-37-9,-17-4,39 9,1 4,-1-1,0 3,-1 1,-53-2,13 7,4-1,-126 12,175-6,0 1,1 1,0 2,0-1,0 2,1 2,1-1,0 2,0 0,-35 29,32-22,2-3,1 1,-29 28,45-38,-1 1,2-1,-1 1,1 0,1 0,-1 0,1 0,1 0,0 1,0 1,-1 8,0 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22776.95">7104 2498,'0'8,"0"9,0 8,0 5,0 6,0 5,0 1,0-3,0-4,0-3,0 1,0-1,0-1,0-1,0 2,4-4,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23528.96">7077 2650,'4'0,"7"-3,5-3,6 0,7-7,19-2,6 2,2 3,-8 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24338.99">7131 2447,'4'0,"8"0,5 0,5 0,7 0,5 5,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25550.96">7518 2599,'2'1,"1"0,1 0,-1 0,0 0,-1 0,1 1,0-1,-1 1,0 0,1-1,-1 1,1 0,-1 0,0 1,0-2,2 4,31 43,-30-42,8 18,0 1,-2 1,-1 0,-1 1,-2 0,-1-1,0 1,0 41,-7-53,-7-14,-17-24,1 1,15 18,0 0,0 1,0 0,0 0,-1 2,1-1,0 0,-2 1,2 1,-1 0,0 0,1 0,-1 1,-14 3,19-3,0 0,0 1,-1-1,1 1,1 1,-1-1,0 0,0 1,1 0,0 0,0 0,-4 4,5-4,1 0,0-1,0 1,0 0,1-1,0 1,0 0,-1 1,2-1,-1 0,0 0,1 1,-1-2,1 1,0 0,0 1,0-1,1 0,-1 1,2 2,-1-2,0 0,1 0,-1 0,1-1,0 0,0 1,0-1,2 1,-2-1,1 0,0 0,-1-1,1 1,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1-1,6 1,3 1,2 0,0-1,-1-1,1 0,21-1,-10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26418.96">7104 2853,'10'0,"16"0,13 0,6 0,4 0,-2 0,1 0,-3 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58532.28">4483 6104,'6'6,"2"0,0-1,-1-1,1 0,1 0,-1 0,1-1,0 0,15 3,85 12,-93-16,75 5,124-5,27 1,-154 12,-64-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60372.81">6028 6333,'774'0,"-751"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62290.17">7325 6587,'0'-1,"0"0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 1,1-1,1 0,-1 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,2 0,41-5,-36 5,621-5,-338 7,860-2,-1047-4,-62-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15954,7 +16669,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'2'4,"0"0,0 0,0 0,0 1,0-1,-1 0,0 1,0-1,0 1,0 4,2 8,40 253,0 4,-37-252,2 0,0 0,1 0,19 31,58 77,-78-120,23 34,3-2,1-1,2-2,2-2,1-1,2-2,1-2,2-1,72 35,-98-56,2-1,-1 0,1-2,0-1,1 0,-1-2,34 3,-13-4,608 15,-582-26,0-3,-1-3,0-3,73-29,11-2,-63 19,86-42,-115 46,-36 15,0 1,0 1,1 2,0 0,0 1,28-1,-43 5,0 1,0 0,0 1,0 0,0 0,0 1,0 0,0 0,0 1,-1 0,1 1,-1 0,0 0,0 1,-1 0,1 0,-1 1,0 0,9 11,0 2,-1 2,-2 0,0 0,-1 1,-1 1,16 47,26 151,-44-176,7 18,42 105,-47-138,35 79,-39-96,0 0,0 0,1-1,1 0,18 19,-27-30,1 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1-2,1-5,0-1,-1 0,0 0,-2-12,-37-192,22 144,4-1,-7-127,21 172,1-1,0 1,8-29,-7 41,1 1,-1-1,2 1,0 0,0 0,1 0,14-20,-16 29,0-1,0 0,0 1,1 0,-1 0,1 0,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1 1,7-1,14 0,0 2,31 4,-5-1,-7-1,0 2,-1 2,0 2,0 2,-1 2,45 20,244 132,-51-22,-238-126,0-1,0-3,71 12,143 7,-152-21,506 19,-594-32,0 0,0-1,0-1,-1-1,1 0,-1-1,-1-1,1-1,-1 0,0-1,-1-1,15-12,2-3,-1-2,-1-1,-1-1,30-42,-44 50,0-2,-2 0,0-1,-2 0,14-41,28-136,-40 144,0-8,-2-1,2-98,-14-132,-3 106,4 169</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'2'4,"0"0,0 0,0-1,0 2,0-1,0 0,-1 1,0-2,0 2,0 4,2 7,42 243,-1 4,-37-242,1 0,0 0,2 0,19 30,60 74,-81-115,25 32,2-2,2-1,1-1,3-3,0 0,3-2,1-3,1 0,76 33,-102-53,2-2,-1 1,0-2,1-1,1-1,-1-1,35 3,-13-4,632 14,-605-25,0-2,-1-4,-1-2,77-28,11-2,-65 18,89-40,-120 44,-37 14,0 2,0 0,1 2,0 1,0 0,29-1,-45 5,1 1,-1 0,0 1,1 0,-1 0,0 1,1 0,-1 0,0 1,0-1,0 2,-1 0,1 0,-1 1,-1 0,2-1,-2 2,0 0,10 10,0 2,-2 3,-1-1,-1 0,0 1,-2 1,17 45,27 145,-45-169,6 18,45 100,-50-132,37 75,-41-91,1-1,-1 1,1-2,2 1,18 17,-28-28,1 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,0 0,-1-1,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,1 0,-1-2,1-5,0-1,-1 1,0-1,-2-11,-39-184,24 138,3-2,-7-121,22 165,2-1,-1 1,8-27,-7 38,1 2,-1-2,3 2,-1-1,0 1,1-1,15-19,-17 29,0-2,1 0,-1 1,1 0,-1 0,1 0,0 2,1-1,-1 0,0 0,0 0,0 1,1-1,-1 1,1 1,8-1,14 0,0 2,32 4,-5-1,-7-1,0 1,-1 3,0 2,0 1,-2 3,48 18,253 128,-52-22,-248-121,-1-1,1-2,74 11,148 7,-157-21,525 19,-617-31,0 0,-1-1,1-1,-1 0,1-1,-2-1,0-1,1 0,-2-1,1-1,-1 0,15-12,2-3,-1-2,0-1,-2-1,31-40,-45 48,-1-2,-1 0,-1-1,-1 0,14-40,29-129,-42 137,1-8,-3 0,3-94,-15-127,-3 102,4 161</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15981,14 +16696,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 375,'-2'151,"4"161,0-295,0-1,1 1,1 0,1-1,0 0,1 0,0 0,2-1,-1 0,16 20,9 9,73 74,-55-64,-34-35,0 0,2-2,0 0,0 0,2-2,0-1,0 0,40 19,-15-17,2-2,0-1,1-3,0-1,54 1,248-7,-177-7,646 4,-606-12,-46 1,43 10,-98 3,1-6,139-21,-249 25,0-1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,5 2,-7-1,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 3,47 344,-8 48,-36-355,4 103,-6-77,3 0,25 126,-25-185,-1-10,2-22,0-41,63-688,-58 659,-6 47,1 2,21-79,-23 111,1 0,0 1,1 0,0 0,1 0,0 1,1 0,0 0,1 0,0 1,0 0,1 1,0-1,1 2,10-8,-15 13,1-1,-1 1,1 0,-1 0,1 1,0-1,0 1,0 1,-1-1,1 1,0 0,0 0,0 1,0 0,0 0,0 0,-1 0,1 1,0 0,-1 1,0-1,1 1,-1 0,0 0,9 8,6 5,0 1,-1 0,-1 2,22 29,-16-17,1 0,2-2,1 0,1-2,1-2,1 0,43 24,-39-31,0-2,2-1,0-2,1-1,40 7,198 19,-181-27,235 39,-162-21,269 11,-391-43,0-2,0-2,-1-2,82-27,-46 13,-5 2,276-88,-315 95,-1-2,-1-2,-1-1,0-2,-1-1,-2-2,36-33,-30 15,-2-2,-2-1,-2-2,29-60,-30 55,30-60,64-166,15-126,-128 365,-2-1,-2-1,-1 1,-3-1,-2-77,-4-72,3 167</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1708.13">1511 348,'0'593,"-2"-802,4-237,-2 440,1 0,-1 0,1 0,0 0,1 1,-1-1,1 0,0 1,0-1,1 1,0-1,0 1,0 0,5-5,-3 5,1-1,0 2,0-1,0 1,1 0,-1 0,1 1,0 0,0 0,14-4,71-13,0 4,165-8,-227 21,-11 2,-4-1,0 1,-1 1,1 0,18 4,-28-4,-1 2,1-1,-1 0,0 1,1 0,-1 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 1,0-1,0 1,4 6,1 6,0 0,-1 0,0 0,-1 1,-1 0,-1 1,-1-1,3 27,-5-36,0 0,-1 0,0 0,0 0,-1 0,0 1,0-1,-1 0,0-1,0 1,-1 0,0 0,0-1,-1 0,0 0,0 0,-1 0,0 0,0-1,-10 9,8-10,0-1,-1 0,1 0,-1-1,0 0,-1 0,1-1,0 0,-1-1,-12 2,-14-2,-44-2,47-1,-140-3,145 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3030.29">2225 666,'-5'73,"-2"0,-3-1,-27 96,26-133,6-21,1 0,0 0,-3 21,7-32,0 0,0 0,-1-1,2 1,-1 0,0 0,0 0,1-1,0 1,-1 0,1-1,0 1,1 0,-1-1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 0,3 2,10 5,0-1,0-1,0 0,1-1,0-1,25 6,5-2,49 3,-56-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3585.3">2172 1036,'4'0,"6"0,7 0,12 0,7 0,6 0,1 0,-3 0,-4 0,-3 0,-3 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4184.3">2331 587,'9'0,"7"0,10 0,6 0,5 0,2 0,-2 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5512.34">4236 57,'3'1,"0"-1,1 1,-1 0,0-1,0 1,1 1,-1-1,0 0,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,-1 0,3 4,3 7,-1 1,-1 0,7 28,2 25,-3 0,4 125,-18 139,2-313,0 47,-9 133,7-165,-2 0,-2 0,-16 51,22-79,-1-1,1 0,-1 0,0 1,-1-1,1-1,-1 1,0 0,-1-1,1 1,-1-1,0 0,-8 7,12-11,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,-8-47,7 45,-4-436,9 261,-4 143,0-15,1 0,11-55,-9 89,1 0,0 0,2 1,0 0,1 0,0 0,2 1,-1 0,2 0,11-13,4-2,1 1,1 1,2 1,1 2,0 1,2 1,1 2,56-27,-81 44,1 1,0 1,-1 0,1 0,0 0,0 1,0 1,0 0,0 0,1 0,-1 1,0 1,-1 0,1 0,0 0,0 1,-1 0,0 1,1 0,-2 0,1 1,0 0,-1 1,0-1,0 1,0 0,-1 1,0 0,0 0,-1 0,0 1,0 0,-1 0,0 0,0 0,-1 0,3 12,3 19,-3 0,-1 1,-2-1,-1 1,-3 0,-8 63,7-92,-1 0,0 0,0 0,-1 0,-1-1,0 1,-1-1,1 0,-2-1,1 0,-2 0,1 0,-1-1,0 0,-1 0,0-1,0 0,-1-1,1 0,-19 8,-5 2,0-3,-1-1,-1-1,0-2,-47 6,-28-4,72-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6758.33">5268 983,'-7'0,"1"-1,0 0,0-1,0 0,0 0,0 0,0 0,-10-7,10 5,0 1,0 0,0 0,-1 1,1 0,-1 0,0 1,-8-2,11 3,-1 1,1-1,-1 1,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,1 1,-1 0,1 0,-1 0,1 0,0 0,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,1 1,-3 4,-3 13,0 1,1 0,-5 41,11-64,-15 137,14-119,1 0,1 0,0 0,1 0,7 26,-8-39,1-1,-1 0,1 0,0-1,0 1,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,-1 0,1 0,0-1,0 1,1-1,-1 0,4 1,10 1,0-1,0-1,1-1,26-3,-3 0,-40 3,10 0,0 0,0-1,0 0,-1-1,17-5,-26 6,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0-1,0 0,-1-4,-1-20,-3 0,0 0,-1 0,-2 1,-13-31,16 46,-1-1,0 1,0 0,-1 0,-1 1,0 0,0 1,-1-1,-1 2,1-1,-1 1,0 1,-16-9,8 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8265">5532 983,'1'1,"0"0,1-1,-1 1,0 0,0 0,0 0,0 0,1 0,-1 0,-1 0,1 0,0 1,0-1,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,0-1,1 0,-1 1,0-1,0 1,0 2,3 45,-3-48,-8 82,5-67,0 0,2 1,0 0,1-1,2 19,0-29,0 0,0 0,1-1,-1 1,1-1,1 1,-1-1,1 0,0 0,0-1,0 1,1-1,0 0,-1 0,1 0,1-1,-1 0,1 0,8 4,5 1,0 0,1-2,0 0,31 5,-41-8,1-2,0 0,0 0,0-1,0 0,0 0,0-2,0 1,14-5,-19 4,0-1,0 0,-1 0,1-1,-1 1,0-1,0 0,0-1,0 1,-1-1,1 0,-1 0,-1 0,1-1,-1 1,0-1,3-7,0 0,0-1,-1 0,-1 0,0-1,-1 1,-1-1,0 0,-1 1,0-1,-3-25,1 31,-1 0,0 0,0 0,-1 1,0-1,0 1,-1 0,0 0,0 0,-1 0,-1 1,1-1,-1 1,0 1,0-1,-1 1,0 0,-15-9,15 11,-1 0,1 1,-1 0,0 0,1 1,-1 0,-1 0,-15 0,-68 3,56 1,4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 361,'-2'145,"4"155,0-284,0 0,1 0,1 0,2 0,-1-1,1 1,0-1,2-1,0 1,15 18,11 10,74 70,-56-61,-36-34,1 1,2-3,-1 0,1 1,1-3,1 0,0-1,41 19,-16-17,3-1,0-2,0-2,1-2,55 2,257-7,-183-7,668 4,-627-11,-47 0,44 10,-101 3,1-6,143-20,-257 24,0-1,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,6 2,-8-1,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,-1 1,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 3,49 330,-9 47,-37-341,4 98,-6-74,4 1,25 120,-26-177,-1-10,2-21,0-40,66-661,-61 634,-6 45,1 1,22-75,-24 106,1 1,0 0,2 1,-1-1,1 1,0 0,1 0,1 1,0-1,0 1,0 1,2 0,-1-1,1 3,11-9,-16 13,1-1,0 2,0-1,-1 0,1 1,0-1,1 1,-1 1,-1-1,1 1,0 0,1 0,-1 1,0 0,0 0,0 0,0 0,0 1,0 0,-1 0,0 0,2 1,-2 0,0 0,9 8,7 4,0 1,-2 1,0 1,22 28,-16-16,1 0,2-2,1-1,1-1,1-2,1 1,44 22,-39-30,-1-2,2 0,0-3,2 0,40 6,206 19,-188-27,243 38,-167-20,278 11,-405-42,1-2,-1-2,0-1,84-27,-47 13,-5 2,285-85,-326 91,-1-1,-1-2,-1-2,1-1,-2-1,-2-2,37-32,-31 15,-2-3,-1 0,-3-2,30-58,-31 53,31-58,66-159,16-122,-133 352,-2-2,-1 0,-2 1,-3-2,-2-73,-4-70,3 161</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1708.13">1562 335,'0'570,"-2"-771,4-228,-2 423,1 1,-1-1,1 0,1 0,0 1,-1 0,1-1,0 1,0-1,1 1,0 0,0 0,0 0,5-5,-2 6,0-2,0 2,0-1,0 1,2 1,-2-1,1 1,0 0,1 0,13-4,74-12,1 4,169-8,-234 20,-11 2,-4-1,-1 1,0 1,0 0,19 4,-29-4,-1 2,2-1,-2 0,0 1,1-1,-1 1,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 1,5 6,0 5,0 1,-1-1,1 0,-2 2,-1-1,-1 1,-1 0,3 25,-5-34,1-1,-2 1,0 0,0 0,-2-1,1 2,0-1,-1-1,0 0,0 1,-1-1,0 1,0-1,-1 0,0-1,0 1,-2 0,1-1,0 0,-11 9,9-11,0 0,-1 0,1 0,-2-1,1 0,-1 0,0-1,1 0,-1-2,-13 3,-14-2,-46-2,49-1,-145-2,150 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3030.29">2301 641,'-5'70,"-3"0,-2-1,-28 93,26-129,7-19,1-1,0 1,-3 19,7-30,0 0,0 0,-1-1,2 1,-1 0,0 0,0 0,1-1,0 0,-1 1,1-1,0 1,1 0,-1-1,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,3 2,11 5,-1-2,1 0,0 0,0-1,1-2,25 7,6-2,50 2,-58-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3585.3">2246 996,'4'0,"6"0,8 0,12 0,7 0,7 0,0 0,-3 0,-3 0,-4 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4184.3">2410 565,'10'0,"6"0,11 0,6 0,5 0,3 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5512.34">4380 55,'3'1,"0"-1,1 1,0 0,-1-1,0 1,1 1,-1-1,0 0,0 0,0 1,0 0,-1 0,2 0,-1 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0-1,-1 1,3 4,4 6,-2 2,-1-1,7 28,3 23,-4 0,5 121,-19 133,2-300,0 44,-10 128,8-158,-2 0,-2 0,-17 48,23-75,-1-1,1 0,-1 0,0 0,-1 0,0-1,0 1,0 0,-1-2,1 2,-1-1,0 0,-9 7,13-11,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-2 1,2-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,-8-45,7 43,-4-419,9 251,-4 137,0-14,1 0,12-53,-10 86,1 0,0-1,2 2,0 0,2-1,-1 1,2 0,-1 1,3 0,10-13,5-2,1 1,1 1,2 1,1 2,0 1,2 1,1 2,58-27,-83 44,0 0,0 1,-1 0,2 0,-1 0,0 1,1 1,-1 0,0 0,2 0,-2 1,0 1,0 0,0 0,0 0,0 1,0-1,-1 2,1 0,-1 0,0 1,0 0,-1 0,1 0,-1 1,0 0,-1 0,0 1,1 0,-2 0,0 0,0 1,-1 0,0-1,1 1,-2 0,3 11,3 19,-3-1,0 2,-3-2,-1 1,-3 1,-9 60,8-88,-1-1,0 1,0-1,-1 1,-1-1,0 0,-2 0,2-1,-2 0,1 0,-3-1,2 1,-1-1,0-1,-2 1,1-1,0-1,-2 0,2 0,-20 8,-5 1,0-3,-1 0,-1-1,-1-3,-47 7,-30-5,75-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6758.33">5447 945,'-7'0,"1"-1,0 0,-1 0,1-1,0 0,0 0,0 0,-11-7,11 5,0 1,-1 1,1-1,-1 1,1 0,-2 0,1 1,-8-2,11 3,-2 1,2-1,-1 1,1 0,0 0,-1 1,1-1,-1 1,1 0,0 0,0 0,0-1,1 2,-1 0,1 0,-2 0,2 0,0 0,0 1,1-2,-1 2,1 0,-1-1,1 1,0 0,1 1,-4 3,-2 13,0 1,1 1,-6 38,12-61,-15 132,14-115,1 1,1-1,0 0,1 0,7 26,-8-38,1-2,-1 1,1 0,1-1,-1 1,0 0,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,2 0,-2-1,1 1,0-2,-1 1,1 0,0-1,0 1,2-1,-2 0,4 1,11 1,-1-1,1-1,0-1,28-3,-4 0,-41 3,11 0,-1 0,1-1,-1 0,-1-1,18-5,-26 7,0-1,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,1 0,-2 0,0 1,0-2,0 1,0 0,0-1,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,0-1,0 0,-1-4,-1-19,-3 0,-1 0,0 0,-2 1,-14-30,17 45,-1-2,0 2,-1-1,0 1,-1 0,0 0,-1 2,0-2,-1 2,0 0,0 0,0 1,-17-8,8 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8265">5720 945,'1'1,"0"0,1-1,-1 1,0 0,0 0,0 0,0 0,2 0,-2 0,-1 0,1 0,0 1,0-1,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 0,1 0,-1 1,0-1,0 1,0 2,3 43,-3-46,-8 79,5-65,-1 1,3 0,0 0,1 0,2 17,1-27,-1 0,0 0,1-1,-1 0,1 0,1 1,-1-1,1 0,0-1,1 0,-1 1,1-1,0 0,-1 0,1-1,2 0,-2 0,1 0,8 4,6 1,0-1,0-1,1 0,32 4,-43-7,2-2,-1 0,0 0,1-1,-1 0,0 0,1-2,-1 1,15-5,-20 5,0-2,1 0,-2 0,1-1,-1 1,0-1,1 0,-1 0,0 0,-1-1,1 0,-1 0,-1 1,2-2,-2 1,0-1,3-6,0-1,0 0,0-1,-2 1,0-2,-1 2,-1-2,0 1,-1 1,0-2,-3-23,1 29,-1 0,0 1,0-1,-1 1,0 0,-1 0,0 0,0 1,0-1,-1 0,-1 2,1-2,-2 1,1 1,0 0,-1 0,-1 0,-14-8,14 10,0 0,1 1,-1 0,-1 0,2 1,-1 0,-1 1,-16-1,-70 3,57 0,5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16015,10 +16730,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">232 356,'-3'3,"1"0,0 0,0 1,1-1,-1 0,1 1,-1-1,1 1,0-1,0 1,1-1,-1 6,-2 1,-143 424,102-314,26-73,17-43,1-6,10-27,50-130,-21 61,38-152,-35 37,-42 210,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,3-2,-3 3,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,0 1,0-1,0 0,3 1,2 2,1 0,-1 0,0 1,1 0,-2 0,1 1,0-1,-1 1,0 1,8 9,12 16,-1 1,-1 2,-3 0,22 44,59 153,-51-85,-38-109,-13-37,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,6-9,-1 0,-1-1,1 0,-2 1,1-1,2-18,4-8,43-151,-21 66,89-218,-113 322,1 0,0 0,18-23,-24 37,0-1,1 0,-1 1,1 0,0-1,0 2,0-1,6-3,-8 5,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,3 1,-2 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 1,0 0,-1-1,1 1,1 7,12 68,-13-60,14 137,-10 282,-7-369,0-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1111.66">1714 198,'0'604,"1"-714,6 1,26-143,-19 155,-8 53,18-72,-24 114,1 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,3 2,6 1,0 2,0 0,0 0,0 1,16 12,7 8,0 2,-2 1,-2 2,0 0,-3 3,0 0,-2 1,22 43,21 52,53 140,-121-269,8 17,-4-7,0 0,1 0,1-1,9 15,-14-24,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0-2,21-19,-5-3,-1-1,0 0,13-32,-4 6,284-508,-259 473</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1531.66">1634 647,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941.66">3381 912</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 341,'-4'3,"2"0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 1,1-1,-1 5,-2 2,-151 406,108-301,27-70,18-41,1-6,11-26,52-124,-23 58,41-146,-37 36,-44 201,2 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,1 0,2-2,-3 3,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,0 1,0-1,1 0,2 1,2 2,2 0,-2 0,0 0,2 1,-3 0,1 1,1-1,-2 1,0 0,9 10,12 14,0 2,-2 2,-3-1,23 43,62 147,-53-82,-41-105,-13-35,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,0-1,2 0,-2 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,6-8,-1-1,0-1,0 1,-2 0,1-1,3-16,3-9,46-144,-23 63,94-209,-118 308,0 1,1 0,18-23,-25 37,0-2,2 0,-2 1,1 0,0-1,0 2,0 0,7-4,-9 5,0 0,0 0,1 1,0-1,-1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,2-1,-2 1,0-1,0 1,0 0,3 1,-2 0,1 1,-1-2,0 2,0 0,0 0,0 0,-1 0,2 0,-2 1,0-2,0 2,0 0,-1-1,1 1,1 6,13 66,-14-58,15 132,-11 270,-7-354,0-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1111.65">1800 190,'0'579,"1"-684,7 0,26-137,-19 149,-9 51,19-69,-25 109,1 0,-1 0,2 0,-1 0,0 0,0 1,0 0,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0 0,-1 0,2 0,-1 0,0 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,4 2,5 1,1 2,-1 0,1 0,-1 0,18 13,6 7,1 1,-2 2,-3 2,1 0,-4 2,0 1,-1 0,22 42,22 50,57 134,-128-258,8 16,-4-6,0-1,2 1,0-2,10 15,-15-23,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,1 0,-2-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0-2,22-18,-5-3,-1-1,-1 0,15-31,-5 6,299-487,-273 454</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1531.66">1716 620,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941.66">3551 874</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16130,19 +16845,19 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">268 635,'-9'0,"-8"0,0-4,-7-2,1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1390.4">136 397,'0'861,"0"-853,0 0,-1 1,0-1,0 0,-4 15,4-21,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1-1,-2 0,1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,0 1,0-2,0 1,0 0,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 1,0-1,1 0,-1 0,0-4,-6-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3099.73">83 397,'2'164,"-9"219,-2-319,-19 69,16-81,1 0,-5 78,16-117,-2 34,4-42,3-28,7-46,-2 11,28-101,-33 143,1 0,1 1,0 0,0 1,1 0,1 0,1 0,0 1,1 1,0 0,15-13,-19 20,1 1,-1 0,1 0,0 1,0 0,0 1,1-1,-1 2,0-1,1 1,-1 0,16 1,-13 0,0 1,0 0,0 0,0 1,0 1,-1 0,1 0,-1 1,15 7,-21-7,1-1,-1 1,-1-1,1 1,0 1,-1-1,0 0,0 1,0-1,-1 1,0 0,1 0,-2 0,1 0,-1 0,2 10,1 10,-1-1,-1 33,-2-43,-5 311,4-311</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9295.44">1274 767,'-8'1,"1"0,-1 1,1 0,0 0,0 0,0 1,0 0,0 0,1 1,-1-1,1 2,0-1,0 1,1 0,-1 0,1 0,-7 10,-10 13,1 1,-23 43,27-43,-20 32,-8 10,-55 121,95-179,1 0,0 1,1-1,0 1,1 0,1 0,0 0,1 0,1 0,0-1,0 1,2 0,0 0,0-1,7 16,-7-20,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 0,0 0,1 0,0-1,0 0,0 0,1-1,0 0,0 0,1-1,-1 0,1 0,0-1,0 0,18 3,-3-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10165.79">1274 1164,'-1'-6,"2"-1,-1 1,1-1,0 1,0-1,1 1,0-1,0 1,0 0,1 0,0 0,0 0,0 1,1-1,0 1,0 0,0 0,1 0,0 1,0-1,0 1,0 0,1 1,-1-1,1 1,0 0,10-3,-7 3,0 1,-1 0,1 0,0 1,0 0,0 1,0 0,0 0,0 1,0 0,0 1,0 0,0 0,-1 1,1 0,-1 1,0 0,0 0,13 9,-9-3,0 0,0 1,-1 0,-1 1,0 1,0 0,12 21,45 106,-29-53,-20-51</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11022.54">1856 926,'-5'5,"-10"10,-7 7,-5 4,-1 8,-2-4,1 4,1-1,-1 0,2-7,5-2,1-2,-5 0,3 2,-4 0,2 1,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12269.45">2041 556,'3'1,"0"0,0-1,0 1,0 0,0 1,0-1,0 0,0 1,0 0,0-1,-1 1,1 0,-1 1,1-1,-1 0,0 1,0-1,0 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 6,5 11,-1 0,6 37,-10-46,7 47,16 68,-21-122,-1-14,1-26,-3 23,1 0,1-1,0 1,1 0,0 1,1-1,1 1,0 0,0 0,1 1,1 0,14-17,-17 22,0 1,0 0,0 0,1 0,0 0,0 1,0 0,1 1,-1-1,1 1,0 1,0-1,0 1,0 0,0 0,0 1,0 0,1 1,-1-1,0 1,1 1,13 2,-18-2,0 0,0 0,-1 0,1 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1 0,-1 0,0-1,0 1,-1 0,1 0,0 4,2 10,-1 0,-1 0,-2 22,1-21,-4 153,3-126</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13033.44">2650 317,'8'1,"1"0,-1 0,1 1,-1 0,0 1,1-1,-1 1,-1 1,1 0,0 0,-1 1,0-1,0 1,0 1,-1 0,0 0,0 0,0 0,-1 1,1 0,3 8,7 12,-1 1,-1 0,-2 1,13 42,-17-42,-1-1,-2 1,-1 0,1 36,-9 119,-1-71,3-77,-2 1,-1-1,-2 0,-2 0,-1-1,-29 67,-115 191,152-291,-12 23,-2-1,-29 35,29-42</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13702.45">3258 1058,'9'0,"16"0,9 0,16 0,9 0,-1 0,-6 0,-3 0,-5 0,-1 0,-4 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14372.28">3417 1323,'18'0,"24"0,18 0,12-4,-1-2,-3 0,-10 1,-10 2,-8 1,-7 1,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15939.79">4555 979,'1'129,"-3"146,2-268,0 0,-1 0,1 0,-1 0,-1 0,1 0,-1 0,-6 12,8-19,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 0,0 1,-1-1,1 1,0-1,-1 0,1 0,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0 0,0-1,-1 0,-8-29,5 5,1 0,1 0,1 0,2 0,0 0,2-1,0 2,2-1,1 0,1 1,1 0,1 1,1-1,1 2,1 0,0 0,2 1,1 0,27-28,-37 44,0-1,0 1,1 0,0 1,0-1,1 1,-1 0,1 1,-1 0,1 0,0 0,1 1,13-3,-17 5,-1-1,1 1,0 1,-1-1,1 0,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,-1 0,1 0,0 1,1 4,3 10,0-1,-1 2,-1-1,0 0,-2 1,1 20,-6 117,-1-85,2 62,2-111</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16948.92">5560 0,'0'1113,"4"-1062,2-34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17991.89">5878 926,'0'1,"1"-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 1,4 30,-3-25,2 136,-4-94,7 59,-6-107,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0 0,-1-1,1 1,1-1,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,1-2,25-54,-26 55,5-13,70-158,-64 149,2 1,0 0,1 1,1 1,20-20,-31 36,0 0,1 0,0 1,0-1,0 2,8-5,-13 7,1 0,-1 1,0-1,0 1,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,-1 0,1 3,4 17,0 0,-2 0,-1 1,-1 0,0-1,-2 1,-4 26,1 14,2 67,1-98</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">279 613,'-10'0,"-7"0,-1-4,-7-2,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1390.4">141 383,'0'831,"0"-824,0 1,-1 1,0-1,0-1,-4 15,4-20,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,-1 0,1 0,-2 0,2 0,-1 0,1-1,-1 0,0 1,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 0,-1 0,2 0,-1-1,-2 0,1 0,1 1,-1-1,1-1,-1 1,1-1,-2 0,2 0,0 1,0-2,0 1,0 0,0 0,0-1,1 1,-1 0,1 0,-1-1,1 0,0 1,-1-1,2 0,-1 0,0-4,-6-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3099.73">86 383,'2'158,"-9"212,-2-309,-20 68,16-79,2 0,-6 76,17-114,-2 33,4-40,3-27,8-45,-3 12,30-99,-35 139,1-1,1 2,1-1,-1 2,1-1,2 1,0-1,0 2,2 0,-1 1,16-14,-19 21,0 0,-1 0,2 0,-1 1,0 0,1 1,0-1,-1 3,1-2,0 1,-1 0,17 1,-13 0,-1 1,1 0,-1 0,1 0,-1 2,-1 0,2 0,-2 1,16 7,-22-8,2 0,-2 1,-1-1,1 1,0 1,-1-1,0 0,1 0,-1 0,-1 1,0 0,1 0,-2 0,1-1,-1 1,2 10,1 9,0-1,-2 32,-2-42,-6 301,5-301</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9295.44">1325 740,'-8'1,"1"0,-1 1,0 0,1 0,0 0,-1 1,1-1,0 1,1 1,-2-1,2 2,0-1,0 1,0-1,0 1,1 0,-8 10,-9 12,0 0,-24 43,28-42,-20 31,-9 9,-57 118,99-174,1 1,-1 0,2 0,0 0,1 1,1-1,0 1,1-1,1 1,0-2,0 2,2-1,0 1,0-2,8 16,-8-19,1-1,0 0,0 0,2 0,-1 0,0-1,1 0,1 0,-1-1,1 1,0-1,1 0,-1 0,1-2,1 1,-1 0,1-1,0 0,0 0,0-1,1-1,18 4,-3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10165.79">1325 1123,'-1'-6,"2"-1,-1 2,2-2,-1 1,0-1,1 2,0-2,0 1,0 0,1 0,0 1,0-1,0 1,2-1,-1 1,0 1,0-1,1 0,0 1,1-1,-1 1,0 1,1 0,0-1,0 1,0 0,11-3,-8 3,0 1,0 0,0 1,0 0,1 0,-1 1,1 0,-1 0,0 1,1 0,-1 0,0 1,1 0,-2 1,1 0,0 1,-1 0,0 0,14 8,-9-2,-1 0,1 0,-2 1,0 0,-1 2,0-1,13 21,47 102,-31-51,-20-49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11022.54">1931 893,'-5'5,"-11"10,-7 6,-5 4,-1 8,-2-4,1 4,1-2,-2 1,3-7,5-2,2-1,-6-1,3 2,-5 0,3 1,7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12269.45">2123 536,'4'1,"-1"0,0-1,0 1,0 0,0 1,0-1,0 0,1 1,-1 0,0-1,-1 1,1 0,-1 1,1-1,-1 0,0 0,0 0,1 1,-1 0,-1-1,1 1,-1 0,1 0,-1 0,1 5,5 12,0-1,5 36,-10-44,7 45,17 65,-21-117,-2-14,1-24,-3 21,1 0,1 0,0 0,1 1,1 0,0 0,1 0,0 1,1-1,0 1,1 1,15-17,-18 21,0 1,1 0,-1 1,1-1,0 0,1 1,-1 0,1 1,-1-1,2 2,-1 0,0-1,0 1,1 0,-1 0,0 1,1 0,0 1,-1-1,0 1,2 1,13 2,-19-2,0 0,0 0,-1 0,1 1,0-1,-1 1,2-1,-2 1,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,-1 0,1 0,0 4,2 9,-1 1,-1-1,-2 22,1-21,-4 148,3-122</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13033.44">2757 306,'8'1,"2"0,-2 0,1 1,0 0,-1 0,1 0,0 1,-2 1,1 0,1 0,-2 1,0-1,1 0,-1 2,-1 0,0 0,1 0,-1-1,-1 2,1 0,4 7,6 12,0 1,-2 0,-1 1,13 41,-18-41,0-1,-3 1,-1 0,1 35,-9 114,-1-68,3-74,-2 0,-2 0,-1 0,-2 0,-2-2,-29 66,-121 184,159-282,-12 24,-3-2,-30 34,31-41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13702.45">3390 1021,'9'0,"17"0,9 0,17 0,10 0,-2 0,-6 0,-3 0,-5 0,-1 0,-5 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14372.28">3555 1276,'19'0,"25"0,18 0,13-3,-1-3,-4 0,-9 1,-11 2,-9 1,-6 1,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15939.79">4739 944,'1'125,"-3"140,2-258,0 0,-1 0,1-1,-1 1,-1 0,1 0,-1-1,-7 13,9-19,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1-1,1 1,0-1,0 1,0 0,0-1,-1 0,-9-28,6 5,1-1,1 1,1 0,2 0,0 0,2-1,0 2,2-1,2 0,0 0,1 1,2 1,0-1,1 2,2-1,-1 1,3 1,1 0,27-28,-38 44,1-2,-1 1,1 0,0 1,1-1,0 2,-1-1,1 1,0 0,0 0,0 0,2 1,12-3,-16 5,-2-1,1 1,0 1,-1-1,1 0,-1 1,2 0,-2 0,1 0,-1 0,1 0,-1 1,0-1,0 1,1 0,-1 0,0 0,0 1,0-1,-1 1,1-2,-1 2,0 0,2 0,-2 0,-1 0,1 0,0 1,1 3,3 11,0-2,0 2,-2 0,0-1,-2 2,1 18,-6 114,-1-83,2 60,2-106</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16948.92">5785 0,'0'1074,"4"-1025,2-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17991.89">6116 893,'0'1,"1"-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 1,4 29,-3-25,2 132,-4-90,8 56,-7-103,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0 0,-1-1,1 1,1-1,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,-1 0,1 0,0 0,-1 0,1 0,1-1,26-53,-27 53,5-13,73-152,-66 144,1 1,1 0,0 0,2 2,21-19,-33 34,0 0,1 0,0 1,1-1,-1 3,8-6,-13 7,2 0,-2 1,0-1,0 1,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,2 1,-2-1,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 1,0-2,-1 1,1 0,-1 0,1 3,4 16,1 1,-3-1,-1 1,-1 0,0 0,-2 0,-4 25,1 14,1 65,2-96</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16199,29 +16914,27 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1879 846,'12'31,"0"1,-2-1,9 52,-10-46,1 20,6 98,-8-48,2 136,-10-216</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1399.99">2223 1270,'-2'89,"0"-30,6 64,-4-123,1-1,-1 1,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,1 1,-1-1,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,29-38,-26 34,24-37,-9 12,2 0,1 1,31-33,-46 54,1 1,0-1,0 1,1 0,-1 1,1 0,0 0,0 0,1 1,-1 0,1 0,-1 1,1 0,0 1,0-1,0 1,0 1,0 0,11 0,-16 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,0 1,-1 1,1-1,-1 0,0 0,1 1,-1 0,0-1,-1 1,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,-1 1,1-1,-1 0,1 5,1 13,-1 0,-1 0,-3 32,1-26,1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3509.99">3573 714,'-3'2,"1"0,0 0,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,-1 3,-1 2,-34 68,-50 154,21 47,56-233,-2-1,2 0,3 1,1 1,-1 46,7-22,1 70,0-121,1 0,1 0,1-1,0 1,10 24,-10-36,0 0,0 0,1 0,0 0,0-1,0 1,0-1,1-1,0 1,0-1,1 0,11 6,10 3,47 17,-50-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5448.36">5054 397,'27'0,"96"5,-111-4,1 1,-1 0,0 1,0 1,-1 0,1 0,18 11,-27-14,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 5,-1-3,0 0,-1 0,1-1,-1 1,0 0,0 0,-1 0,0-1,1 1,-1-1,-4 7,-5 5,0-1,0 0,-1-1,-1 0,-20 17,32-30,-3 1,1 1,0 0,0 0,0 0,0 1,0-1,-2 5,5-7,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,1-1,55 35,-39-25,0 0,-1 2,-1 0,1 0,-2 2,21 21,-34-33,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,-1 3,0-1,-1-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 0,-1 1,1-1,-1 0,-5 2,-8 2,-1 0,1-1,-1 0,1-2,-21 2,19-4,0 0,0-1,-37-6,28 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7548.16">4075 1164,'26'0,"1"1,0 0,-1 2,0 1,46 14,-40-10,1 0,-1-3,59 4,106-10,-104 0,250-27,-9 1,501 27,-798-1,62-12,-87 11,19-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10207.54">4366 1428,'1'10,"1"0,0 0,1 0,0-1,1 1,0-1,6 11,2 6,-3-2,-1 1,-2 0,8 51,-5-19,-5-39,2 0,0 0,10 21,-8-22,-1 1,10 36,-8-21,-3-18,-6-15,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,53-260,-29 119,-19 102,-4 28,0-1,1 1,0-1,6-16,-7 26,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1 0,1 1,-1-1,1 0,4 0,64-2,91 7,-31 0,-42-3,422-4,-2-36,-401 31,-70 6,65-11,-101 12,1 1,0-1,-1 0,1 1,0-1,0 1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,4 3,-4-1,0 0,1 1,-1-1,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,-1 0,1 0,0 5,-1-2,2 2,0-1,-1 0,0 0,-1 0,1 1,-2-1,1 0,-1 1,0-1,-1 0,0 0,-1 0,1 0,-1 0,-6 10,-18 19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10966.96">5266 1587,'-9'9,"-8"8,-14 18,-2 9,-13 14,-4 2,8-5,5-7,5-12,8-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11498.96">4869 1667,'4'0,"7"0,9 0,7 5,7 5,7 6,-3 5,5 12,0 1,-8-2,0-1,-2-1,-2-6,-6-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12545.18">5266 1587,'188'1,"-185"-1,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,-1 5,0 3,-1-1,0 1,-1-1,0 0,0 0,-1 0,-1 0,0 0,-7 11,10-18,-10 15,-1 0,-18 19,29-34,0 0,-1 0,1-1,-1 1,0-1,0 0,1 0,-2 0,1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,1-1,-1 0,0 1,-5-2,8 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,2-2,1-4,0 0,1 0,-1 0,10-12,-10 15,1 0,0 0,0 0,0 0,0 1,0 0,1 0,0 0,-1 0,1 1,0 0,0 0,1 0,-1 1,0 0,0 0,1 0,8 0,0 1,-1 2,0-1,0 2,0 0,0 0,17 8,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12969.88">5848 1667,'0'5,"0"5,0 15,0 17,0 14,0 7,0 2,0-6,0-4,0-6,0-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13594.33">5742 1958,'4'-4,"7"-2,5 0,5 1,3-3,2 0,-3 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15567.06">6139 1667,'-3'1,"0"-1,0 1,0 0,1-1,-1 1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,0-1,-2 5,-2 2,1 1,1 0,0 0,0 0,-1 11,1-4,1 1,0-1,2 1,0 0,2 20,-1-34,-1 0,1 0,0-1,0 1,0 0,1-1,-1 1,1 0,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,5 0,-5 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,-1 0,1 0,5-5,-6 3,0-1,0 1,0-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,1 0,-1 0,0-1,-1 1,1-10,-1 9,3-28,-5-62,1 88,0 0,0 0,0 0,-1 0,-1 0,1 1,-1-1,0 1,-1 0,0 0,0 0,0 0,-10-10,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16349.9">6192 1640,'4'0,"6"5,2 6,-1 5,-4 9,-1 5,-3 6,-2 2,0 8,-1 4,-1-1,1 1,-1-5,1-5,0-5,0-4,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17712.95">6748 344,'0'0,"0"-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 1,-1-1,0 0,1 1,0 0,29 15,-24-11,0 0,0 1,-1-1,0 1,0 1,0-1,0 0,-1 1,0 0,3 9,24 77,-21-58,35 110,50 174,-80-243,-3 2,3 137,-12-140,5 494,-8-504,0-48,-1 1,-1-1,-1 1,0-1,-1 0,-1 0,-13 31,5-23,-1 0,-2 0,-35 43,-25 31,59-79</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="75049.33">1191 952,'4'0,"2"5,0 6,-1 14,-2 16,4 16,0 6,3 11,5-3,5 22,-2 1,1-8,-3-13,-4-15,-5-12,-2-11,-3-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="77196.33">4234 476,'-5'1,"0"0,1 0,-1 0,1 0,0 1,-1-1,1 1,0 0,0 1,0-1,0 1,1 0,-1-1,1 2,0-1,-1 0,1 1,-2 3,-10 13,2 0,-14 26,11-19,-2 4,-31 68,43-82,1 0,0 0,1 0,1 1,0 0,1 23,2-24,-16 325,8 24,11-218,-4-134,2 1,0-1,0 1,2-1,0 0,0 0,10 24,-8-28,0-1,0 0,1-1,0 1,1-1,0 0,0-1,1 0,0 0,0 0,13 7,-5-4,-1 0,2-1,-1-1,1-1,0 0,33 7,-27-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78125.36">6271 449,'14'1,"0"1,0 0,0 1,-1 0,1 1,-1 0,1 1,-2 1,1 0,0 1,11 8,-14-8,-1-1,0 1,0 1,-1 0,0 0,0 0,-1 1,0 0,0 1,-1-1,0 1,-1 1,0-1,3 12,46 276,-43-222,20 321,-20-174,-4-143,-4 1,-9 89,6-167,0 0,0 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,0-1,-1 1,1-1,0 1,-1-1,0 0,1 1,-1-1,0 0,0 0,0 0,-5 3,-16 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78983.9">6324 317,'0'-4,"4"-6,7-2,5 1,9 4,5 1,7 3,0 2,0 0,-3 1,-7 5,-3 2,-2 4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79649.97">6721 0,'4'5,"7"1,5 8,0 21,-2 8,-4 6,-4-1,-2-4,-2-5,-2-4,-1-5,1-2,-1-1,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7361.11">530 2143,'21'-6,"0"1,24-3,19-4,28-9,96-28,-184 48,1-1,0 1,-1-1,1 0,-1 0,0 0,0-1,0 0,0 0,0 0,0 0,-1 0,0-1,1 1,-1-1,-1 0,1 0,0 0,-1 0,0-1,0 1,0-1,-1 1,1-1,-1 1,0-1,-1 0,1 0,-1 0,0 1,0-1,0 0,-1 0,1 0,-1 1,0-1,-1 0,1 1,-1-1,0 1,0 0,-1-1,1 1,-1 0,0 0,-6-6,1 1,0 1,0 1,-1-1,0 1,0 1,-1 0,0 0,0 1,0 0,-1 1,0 0,1 1,-1 0,-1 1,1 0,-14-1,13 2,0 1,-1 0,1 1,-1 0,1 1,0 0,0 1,0 1,0 0,1 0,-1 1,1 0,0 1,-17 12,2 5,0 1,1 1,-34 46,-56 93,97-136,-104 175,111-182,1 1,1-1,1 2,1-1,1 1,1 0,1 0,-1 26,5-45,0 1,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,1 0,0 1,0-1,0 0,0 0,1-1,0 1,0 0,0-1,0 0,0 1,0-1,1 0,0-1,-1 1,1-1,0 0,0 0,1 0,-1 0,0-1,0 1,9 0,11 3,0-2,1-1,-1-1,42-3,-40 1,196-4,-185 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6472.96">1218 1455,'4'0,"6"0,16 0,15 0,11 0,5 0,2 0,-4 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83189.77">1 2857,'0'1,"0"-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,22-2,19-13,-2-10,-1-1,-1-2,-1-1,-1-2,-2-2,45-55,160-240,-216 295,-15 22,16-25,24-46,-42 70,-1-1,0 1,0-1,-2 0,1 0,-2-1,0 1,1-14,-3 23,0 1,0 0,1-1,0 1,-1 0,1 0,0 0,1-1,1-3,6-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84313.72">1615 1640,'9'-7,"0"-1,0 1,1 1,1 0,-1 0,21-7,10-6,72-47,199-156,-169 114,157-82,42 9,-300 162</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1947 809,'12'29,"0"2,-1-1,8 49,-9-44,0 20,7 93,-9-46,2 131,-10-207</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1399.99">2303 1214,'-2'85,"0"-28,6 60,-4-117,1-1,-1 1,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,2 1,-2-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,30-36,-27 32,25-35,-10 11,3 0,1 1,32-31,-48 51,1 1,0 0,0 0,2 0,-2 1,1 0,0 1,1-1,0 1,-1 0,1 0,0 1,0 0,0 1,1-1,-1 1,0 1,0 0,12 0,-17 1,0 0,1 0,0 0,-1 0,0 1,0-1,0 1,-1 0,1-1,0 1,-1 1,1-1,0-1,-1 1,1 1,-1 0,0-1,-1 1,1 0,0 0,-1 0,0-1,1 1,-1 0,0 0,-1 1,1-1,-1 0,1 4,1 13,-1 0,-1 0,-3 31,1-25,1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3509.99">3701 683,'-3'2,"1"-1,0 1,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 4,-1 2,-36 64,-51 148,22 45,57-223,-1-1,2 0,2 2,2 0,-1 44,7-21,1 66,0-114,1-1,1 0,1-1,0 1,11 24,-11-36,0 1,0 0,1 0,1-1,-1 0,0 1,0-1,1-2,1 2,-1-1,1 0,12 5,10 4,48 16,-51-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5448.36">5236 380,'28'0,"99"4,-114-3,0 1,-1 0,1 1,-1 1,0 0,0-1,19 12,-28-14,-1 1,1-1,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,0 0,0-1,0 1,0 0,1 4,-2-2,0 0,-2 0,2-1,-1 0,0 1,0 0,-1 0,0-1,1 0,-1 0,-4 7,-5 4,-1-1,1 1,-2-2,0 0,-21 17,33-29,-4 1,2 1,0 0,0 0,0-1,0 2,0-1,-2 5,5-7,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0-1,0 0,0 1,1-1,57 34,-40-25,-1 1,0 1,-1 1,0-1,-1 3,21 19,-35-31,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1-1,2 1,-1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,-1 2,1-1,-1 0,-2 3,1-1,-1-1,1-1,-1 1,0 0,0 0,0 0,0-1,0 0,-2 1,2-1,-1-1,-5 3,-9 2,0 0,0-1,-1-1,2-1,-23 2,21-4,-1 0,0-1,-38-6,29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7548.16">4221 1113,'27'0,"1"1,0 0,-1 2,0 0,48 15,-42-11,1 1,-1-3,62 3,109-9,-108 0,259-25,-9 0,519 26,-826-1,63-12,-89 12,19-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10207.54">4523 1365,'1'10,"1"-1,0 1,1 0,0-2,1 2,1-2,5 11,2 6,-2-2,-2 1,-2 0,9 49,-6-19,-5-37,2 1,1-1,9 20,-7-21,-2 2,10 33,-7-19,-4-18,-6-14,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,55-248,-30 113,-20 97,-4 28,0-1,1 0,0 0,7-16,-8 25,0 0,0-1,0 1,0 0,1 0,-1-1,1 2,0-1,-1 1,1-1,0 0,0 0,0 1,0-1,0 1,2 0,-2-1,0 1,1 0,-1 0,1 1,-1-1,1 0,4 1,67-3,94 6,-32 1,-44-3,437-4,-2-34,-415 29,-72 7,66-12,-104 12,2 1,-1-1,-1 0,1 1,0-1,0 1,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,4 3,-3-1,-1-1,1 2,-1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,-1 0,1 0,0 4,-1-1,2 2,0-2,-1 1,0-1,-1 1,1 1,-2-2,1 1,-1 1,0-2,-1 1,0 0,-1-1,1 1,-1 0,-6 9,-19 18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10966.96">5455 1517,'-9'9,"-9"7,-14 18,-2 8,-14 13,-3 3,7-6,6-6,5-12,8-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11498.96">5044 1594,'4'0,"8"0,8 0,8 5,7 4,8 6,-4 6,6 10,-1 2,-7-3,-1 0,-2-2,-2-5,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12545.18">5455 1517,'195'1,"-192"-1,-1 0,1 0,0 0,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 0,1 1,-1 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,-1 5,0 2,-2 0,1 1,-1-2,0 1,0-1,-1 1,-1-1,0 1,-8 10,11-17,-10 14,-2 0,-18 19,30-34,0 1,-1 0,1-1,-1 1,0-1,-1 0,2 0,-2 0,1 0,0-1,0 0,0 1,-1-1,1 0,-2 0,2 0,-1 0,1-1,-1 0,0 1,-6-2,9 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 1,-1-1,0-1,1 1,-1 0,1 0,-1 0,2-2,1-4,0 1,1-1,-1 0,11-11,-11 14,1 0,0 1,0-1,1 0,-1 1,0 0,1 0,0 0,-1 1,2 0,-1 0,0 0,1 0,-1 1,0 0,1 0,0 0,8 0,1 1,-2 2,1-1,-1 2,1 0,-1 0,18 7,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12969.88">6058 1594,'0'5,"0"4,0 15,0 16,0 14,0 6,0 2,0-5,0-5,0-5,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13594.33">5948 1872,'5'-4,"6"-2,6 1,4 0,4-3,2 1,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15567.06">6360 1594,'-3'1,"-1"-1,1 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,1 0,0 0,0 0,0 0,1 1,-1-1,0-1,1 2,0-1,-2 5,-2 2,0 0,2 1,0-1,0 1,-1 10,1-4,1 1,0 0,2 0,0 0,2 19,-1-32,-1 0,1 0,0-1,0 0,0 1,1-1,-1 1,1 0,0-1,0 0,0 0,0 0,2 0,-2 0,1 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,6 0,-6 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,0-1,0 0,0 0,0 0,0 0,1 0,-2-1,1 1,0-1,-1 0,1 0,6-4,-7 2,0-1,0 1,0-1,0 2,-1-2,1 0,-1 0,0 0,-1 1,2-1,-2 0,0-1,-1 2,1-11,-1 9,3-26,-5-60,1 85,0-1,0 0,0 1,-2-1,0 0,1 2,-1-2,0 1,-1 1,0-1,0 0,0 0,-11-9,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16349.9">6415 1568,'4'0,"6"5,3 5,-2 6,-4 7,-1 6,-2 6,-3 1,0 8,-1 4,-1-1,1 0,-1-4,1-4,0-6,0-3,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17712.95">6991 329,'0'0,"0"-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 1,-1-1,0 0,1 1,0 0,30 15,-24-12,-1 1,0 1,-1-1,0 0,1 2,-1-1,0 0,-1 0,0 1,4 8,24 74,-22-55,37 104,51 167,-82-232,-4 1,4 132,-13-134,5 472,-8-482,0-46,-1 1,-1 0,-1 0,0-1,-2 0,0 1,-13 28,4-21,0 0,-3 0,-36 41,-25 30,60-76</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="75049.33">1234 910,'4'0,"2"5,0 5,0 14,-3 16,4 14,0 6,4 11,4-3,6 21,-3 1,2-8,-3-12,-5-15,-5-11,-1-10,-4-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="77196.33">4386 455,'-5'1,"0"0,1 0,-1 0,0 0,1 1,-1-1,1 1,0 0,0 0,-1 0,1 1,1 0,-1-1,1 2,0-1,-1 0,1 0,-3 4,-9 12,1 0,-14 25,12-18,-3 4,-32 64,45-77,1-1,0 0,1 0,1 2,0-1,0 22,3-23,-16 311,8 23,11-208,-4-129,2 1,0 0,0 0,2 0,0-1,0 0,11 24,-9-28,0 0,0-1,1 0,1 1,0-2,0 1,0-1,2-1,-1 1,0 0,14 6,-6-3,0-1,2 0,-2-2,2 0,-1 0,35 6,-28-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78125.36">6496 429,'15'1,"-1"1,1 0,-1 1,0 0,0 1,0-1,0 2,-1 1,0 0,1 0,11 9,-15-9,-1 0,1 1,-1 1,-1-1,1 1,-1-1,-1 2,0 0,1 0,-2 0,0 0,-1 2,0-2,4 12,47 264,-45-212,21 307,-20-167,-5-137,-4 2,-9 84,6-159,0 0,0 0,-1 0,1-1,-1 1,0-1,1 0,-1 1,-1-1,0 1,1-1,0 1,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,-5 3,-17 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7361.11">549 2049,'22'-6,"0"1,24-2,20-5,30-8,99-27,-191 46,1-1,0 1,-1 0,1-1,-1 0,1 0,-1-1,0 0,0 0,0 0,0 1,-1-1,1-1,0 1,-1-1,-1 0,1 0,0 1,-1-1,0-1,0 1,0-1,-1 2,2-2,-2 1,0-1,-1 0,1 1,-1-1,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,-2 1,2 0,-1-1,0 1,0 0,-1 0,1 0,-1 0,0 0,-7-6,2 2,0 0,0 2,-2-2,1 1,0 1,-2 1,1-1,0 1,-1 0,0 2,-1-1,2 1,-1 0,-2 1,2 0,-15-1,13 2,1 1,-1 0,0 1,0 0,0 1,1 0,-1 1,1 1,0 0,0-1,0 2,0 0,1 1,-18 11,2 5,0 1,1 1,-35 44,-58 88,100-129,-107 167,114-174,2 1,1 0,0 1,2-1,1 1,1 0,1 0,-1 24,5-42,0 1,1-1,-1 1,1-2,0 2,0-1,0 1,0-1,1-1,0 2,0-1,0 0,0 0,1-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,0-2,-1 2,1-1,1 0,-1 0,1 0,-1 0,0-1,0 1,10 0,11 2,-1-1,2-1,-1-1,44-3,-42 1,203-3,-192 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6472.96">1262 1391,'4'0,"6"0,17 0,16 0,11 0,5 0,2 0,-4 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83189.77">1 2732,'0'0,"0"0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,23-2,20-12,-3-10,0-1,-2-2,-1 0,-1-3,-1-2,46-52,165-229,-223 281,-16 22,17-25,25-43,-44 66,-1 0,0 0,1 0,-3-1,1 1,-2-1,0 0,1-13,-3 23,0 0,0 0,1-1,0 1,-1 0,1 0,0 1,1-2,1-3,7-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84313.72">1673 1568,'9'-7,"1"0,-1 0,1 1,2 0,-2 1,22-8,11-5,74-45,206-149,-175 109,163-79,43 9,-310 155</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16250,7 +16963,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">67 151,'-2'33,"0"-1,-2 0,-2 0,-1 0,-14 41,16-60,0-1,2 1,-1 0,2 0,0 0,0 0,1 23,1-32,1 0,0 0,0 0,0 0,0 0,0 0,1-1,0 1,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0-1,1 1,-1-1,0 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 0,5 0,69 23,-59-17,-1-1,1 0,0-2,0 0,1-1,-1-1,32 0,-48-3,0 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,1-1,-1 0,0 1,0-1,0 0,-1 0,1 0,-1-1,0 1,1 0,-1-4,5-12,-1-1,4-38,-7 43,17-121,25-168,-43 301,-1 0,1 1,0-1,-1 0,1 1,1-1,-1 1,0-1,0 1,1 0,0-1,-1 1,4-3,-4 5,-1-1,1 1,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0 1,6 9,-1 1,-1 0,0 0,-1 0,0 0,0 0,0 16,0 95,-3-80,1-10,-5 576,2-584,-1 1,-2-1,0 0,-1 0,-2 0,0-1,-2 0,-12 23,-16 19,-63 84,92-138,0 0,-1 0,0-1,-1 0,0-1,0 0,-1-1,-1-1,0 0,0 0,0-1,-1-1,0 0,0-1,-1 0,1-2,-24 4,35-6,0-1,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 0,1-1,-1 1,1 0,0-1,0 1,-1-1,-1-2,1 1,1-1,-1 1,0-1,1 0,0 0,0 0,0 0,1-1,-1 1,-1-8,0-9,1-1,1 0,2-42,0 40,0-14</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="717.67">993 442,'4'0,"6"-4,11-7,11 0,12 0,9 3,4 3,6 2,-4 2,-2 0,-11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1266.17">1337 706,'13'0,"9"0,6 0,2 0,1 0,-1 0,3 0,6 0,1 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1266.16">1337 706,'13'0,"9"0,6 0,2 0,1 0,-1 0,3 0,6 0,1 0,-3 0,-7 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16306,15 +17019,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 595,'1'15,"2"0,0-1,1 0,0 1,1-2,1 1,11 21,1 4,8 14,43 66,-53-91,16 40,-19-36,-13-32,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,6-18,-2-46,-4 56,9-95,5 1,39-139,-25 120,-1-44,-11 55,-16 107,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 1,0-1,-1 1,1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,1-1,0 1,-1 0,1 0,4-1,5-1,1 1,-1 1,1 0,24 1,-9 1,1911 6,-1512-4,461-6,-745-7,158-33,-71 8,-223 34,1 0,0 0,-1 1,1 0,0 0,-1 1,1 0,0 0,-1 1,10 2,-14-2,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 1,-1-1,0 0,0 0,0 1,0-1,-1 1,0-1,1 7,0 27,-1 0,-1 0,-3 0,-10 49,13-82,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0-1,0 1,-1-1,0 1,-3 3,-13 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="682.65">1191 542,'0'5,"-5"15,-14 17,-18 16,-12 8,-6 3,-3-1,4-6,11-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1204.75">821 463,'4'-4,"11"2,7 7,9 11,8 12,7 10,4 21,2 10,-2-2,-6 0,-1 3,-3-7,0-4,-7-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2287.95">1456 516,'0'-4,"0"0,1 0,0 0,0-1,0 1,0 0,1 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,1 0,0 0,5-5,-3 4,0 1,0-1,0 1,1-1,-1 2,1-1,0 1,-1-1,1 2,0-1,8-1,-2 3,1 0,-1 0,0 1,0 1,0 0,0 1,0 0,-1 1,1 0,-1 1,0 0,0 1,-1 0,17 13,-9-6,-1 1,-1 0,0 2,-1 0,-1 1,0 0,14 26,-21-31,-1 0,-1 1,0 0,0 0,-2 0,0 1,0 0,-1-1,-1 1,0 0,-1 0,0 0,-4 21,3-28,-1 0,1 0,-1-1,0 1,-1-1,1 1,-1-1,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,-1-1,1 0,-1 0,0 0,0-1,0 0,0 0,-1 0,1-1,-1 0,0 0,-11 1,-10 1,-45-1,66-3,-1 0,1-1,0 0,0 0,0 0,0-1,1 0,-1 0,0-1,1 0,0 0,-7-5,12 8,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0-2,1 1,1 0,-1 1,1-1,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,1 0,3-3,3-1,0 0,1 1,-1 0,1 1,0 0,18-5,3 5,-1 1,1 2,0 1,-1 1,1 2,-1 1,1 1,-1 2,55 20,-67-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2727.95">2832 675,'0'5,"0"10,0 20,0 19,0 8,0 7,0 6,0-6,0-9,0-12,0-8,0-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3215.28">2673 992,'4'0,"6"0,11 0,15 0,10 0,7 0,7 0,3 0,4 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4712.96">3705 542,'-1'-1,"1"1,0-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,-2 0,-31 0,20 4,1 0,-1 1,1 0,0 1,1 0,-1 1,1 1,1 0,-1 1,2 0,-1 0,1 1,0 0,1 1,0 0,-8 15,5-7,0 0,2 1,0 0,1 0,2 1,0 1,1-1,0 1,-2 36,7-53,1 0,0 0,0 0,0-1,0 1,1 0,0 0,0 0,0-1,1 1,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,0-1,0 0,1 0,0 0,-1 0,1-1,0 0,7 2,1-2,0 1,0-1,1-1,-1 0,0-1,0-1,0 0,0 0,0-2,-1 1,24-12,-25 11,0-2,0 1,0-1,-1-1,0 0,-1-1,0 0,0 0,0 0,-1-2,-1 1,1-1,-1 0,-1 0,0 0,-1-1,0 0,4-13,11-29,-12 36,-2-1,0 1,6-31,-11 42,-1 1,1-1,-1 0,0 0,-1 1,0-1,1 0,-2 1,1-1,-1 1,0-1,0 1,0 0,-1 0,1 0,-5-6,-4-5,-7-12,12 24,6 14,14 131,-5 235,-9-298,-1-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5930.38">80 1442,'556'-2,"599"5,-728 23,32 1,433-27,74 0,-908 0,0 3,109 20,-128-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7547.21">3784 463,'14'192,"0"-6,-15 577,1-740</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 572,'1'15,"2"-1,0 0,2-1,-1 2,1-3,1 2,12 19,1 5,9 13,44 63,-55-87,17 39,-21-36,-13-30,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,2-1,-2 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,6-17,-1-45,-5 54,9-91,6 1,41-134,-27 116,0-43,-12 53,-17 104,-1-1,1 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 2,0-2,-1 1,2 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,2-1,-1 1,-1 0,1 0,4 0,6-2,1 1,-2 1,2 0,25 1,-10 1,2012 6,-1591-5,484-4,-783-8,166-31,-75 7,-235 33,1 0,1 0,-2 1,2 0,-1 0,-1 1,2 0,-1 0,0 1,10 2,-15-2,0 0,0-1,-1 1,1 0,0 0,0 1,0-1,-1 1,0 0,0-1,0 1,0-1,0 1,-1 0,1 1,0-1,-1 0,0 0,0 1,0-2,-1 2,0-1,1 7,0 25,-1 1,-1 0,-3-1,-11 48,14-79,0 0,0-1,0 1,-1 0,-1 0,1 0,0 0,0-1,0 0,-1 0,0 1,-4 3,-13 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="682.65">1253 521,'0'5,"-5"14,-15 17,-19 15,-12 8,-7 2,-3 0,4-6,12-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1204.75">864 445,'4'-3,"12"1,7 6,10 12,8 11,7 9,5 21,2 9,-3-1,-5-1,-2 4,-3-8,0-3,-7-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2287.95">1532 496,'0'-3,"0"-1,1 0,0 0,1-1,-1 1,0 0,1 1,0-1,0 1,0-1,0 0,0 1,1-1,0 2,0-1,0 0,5-5,-2 4,-1 1,0 0,0 0,2-1,-2 2,1-1,1 1,-2-1,1 2,0-1,9-1,-2 3,0 0,0 0,0 1,-1 1,1 0,0 1,-1 0,0 1,0 0,0 0,0 1,-1 1,0 0,17 12,-9-5,-1 0,-1 1,0 1,-2 0,0 2,0-1,14 25,-21-29,-2-1,-1 2,1 0,-1-1,-2 1,0 0,0 0,-1 0,-1 0,1 1,-2-1,0 1,-5 19,4-26,-1 0,1 0,-1-2,0 2,-1-1,1 1,-2-2,0 1,1 0,-1 0,0-1,-1 0,0 0,1 0,-1 0,-1 0,0-2,1 1,-1 0,-1 0,1-1,0 0,-1 0,0 0,1-2,-2 1,1 0,-12 1,-10 1,-48-1,69-3,0 0,1-1,-1 0,1 0,-1 0,1-1,1 0,-2 0,1-1,1 1,-1-1,-6-5,12 8,-1-1,0 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,1 2,-1-2,1 1,-1 0,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0-2,1 1,1 1,-1 0,1-1,-1 0,1 1,0-1,0 1,1 0,-1 0,0 0,1 0,3-2,4-2,-1 0,2 1,-2 0,2 2,-1-1,20-5,2 5,0 1,1 2,-1 1,0 1,0 2,0 1,1 1,-2 2,59 19,-71-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2727.95">2981 649,'0'5,"0"10,0 18,0 19,0 8,0 6,0 6,0-5,0-10,0-10,0-9,0-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3215.28">2813 954,'4'0,"7"0,11 0,16 0,10 0,8 0,7 0,4 0,3 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4712.96">3899 521,'-1'-1,"1"1,0-1,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,-1-1,2 1,-1 0,0 0,-2 0,-33 0,22 4,0 0,-1 1,2-1,-1 2,1 0,0 1,0 0,1 1,0 1,1-1,0 1,0 1,1-1,0 2,1-1,-9 15,5-6,1-1,1 1,0 0,2 1,2 0,-1 1,2-1,0 1,-3 35,8-51,1 0,0 0,0-1,0 0,0 1,1 0,0 0,0 0,0-2,1 2,1 0,-1-1,0 1,0-1,1-1,-1 1,1 0,0 0,1 0,0-1,-1 0,1 0,0 0,1 0,-1 0,0 0,0-1,0 0,2 0,-1 0,-1 0,1-2,1 1,6 2,2-2,0 1,-1-1,2-1,-1 0,-1-1,1-1,0 0,0 0,-1-1,0 0,25-12,-27 11,1-1,-1 0,1-1,-1-1,-1 1,0-2,-1 0,1 1,-1-1,-1-2,0 2,0-2,0 0,-2 1,0-1,-1 0,1-1,3-12,12-28,-12 35,-3-2,0 2,7-30,-12 40,-1 1,1-1,-1 1,0-1,-1 1,0-1,1 0,-2 2,1-2,-1 1,0-1,-1 1,1 1,-1-1,1 0,-5-6,-5-4,-7-12,13 23,6 14,15 126,-6 225,-9-286,-1-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5930.38">84 1387,'585'-2,"631"5,-767 22,34 1,456-26,78 0,-956 0,0 3,115 19,-135-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7547.21">3983 445,'14'185,"1"-6,-16 555,1-712</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16399,7 +17112,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">456 105,'-2'0,"-34"0,-1 1,-55 9,79-7,1 0,-1 0,1 2,0 0,0 0,1 1,0 0,0 1,0 0,-17 16,15-11,0 2,1-1,0 2,1-1,1 2,1-1,0 1,1 1,0-1,2 1,-8 27,8-17,1 1,2 0,0 0,2 0,1 0,7 51,-4-67,-1 0,1-1,1 0,0 1,1-1,0 0,0-1,1 0,1 0,0 0,0 0,1-1,0 0,0-1,1 0,0 0,1-1,0 0,0-1,0 0,13 5,7 2,2 0,-1-3,1 0,1-2,0-2,49 4,37-5,-84-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="688.1">1329 0,'1'0,"1"0,0 1,0-1,-1 0,1 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,1 2,0 5,0 0,0 1,-1-1,1 14,-2-11,5 441,-6-113,2-318,0 0,1 0,1 0,10 35,-2-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1286.09">1356 740,'4'0,"15"-9,10-3,3 1,1 2,0 2,2 3,5 2,1 1,-4 1,-2 0,-3 1,2 0,-5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1286.08">1356 740,'4'0,"15"-9,10-3,3 1,1 2,0 2,2 3,5 2,1 1,-4 1,-2 0,-3 1,2 0,-5-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16483,7 +17196,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">186 107,'0'14,"0"17,4 22,2 16,0 0,-1-3,-2-8,4-4,4-8,1-6,-1-2,-4 2,-2-1,-2-3,-1-3,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="595.95">1 557,'4'0,"16"0,8 0,8 0,4 0,-2 0,-2 0,6 5,5 5,-1 2,-4-2,-9-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="595.94">1 557,'4'0,"16"0,8 0,8 0,4 0,-2 0,-2 0,6 5,5 5,-1 2,-4-2,-9-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1955.29">1033 1,'-7'0,"0"0,0 0,0 0,0 1,1-1,-1 2,0-1,1 1,-1 0,1 0,-1 1,1 0,0 0,0 1,1-1,-1 1,1 1,-1-1,1 1,0-1,1 2,0-1,-1 0,1 1,1 0,-1 0,1 0,0 0,1 0,0 1,0-1,-3 14,-7 30,1 0,3 1,2 0,2 93,4-142,0 1,0 0,1-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,4 3,-4-4,-1-1,1 1,-1 0,1-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,1 0,0-2,18-21,0 0,-2-2,0 0,-2-1,-1-1,-2 0,0-1,12-46,-14 37,-2 0,6-65,-13 420,-4-172,2-118,-1 1,-1-1,-2 0,-8 37,-11 3</inkml:trace>
 </inkml:ink>
 </file>
@@ -16511,7 +17224,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 84,'789'3,"887"-7,-776-71,-811 68,151 7,-116 3,-73-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 64,'824'2,"925"-5,-809-54,-847 52,157 5,-120 2,-77-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16565,7 +17278,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1472,'20'0,"0"0,0 2,0 0,0 1,36 11,-47-11,-1 1,1 0,0 1,-1 0,0 0,0 1,-1 0,1 0,-1 1,-1 0,1 0,-1 1,-1 0,6 8,-3-2,0 1,-1 0,-1 1,0-1,-1 1,-1 0,-1 1,3 25,-13-488,7 298,2-131,42-314,-39 557,14-86,-16 110,0 1,0-1,1 1,1 0,0 0,0 1,12-17,-15 25,0 0,0-1,1 1,-1 0,0 0,1 1,0-1,-1 0,1 1,0 0,0-1,0 1,0 0,0 1,0-1,4 0,50 2,-42 1,205 17,404 25,707-38,-712-10,564 4,-1163 0,-2 0,-1 0,1 1,0 0,31 8,-44-8,0 1,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 1,-1 0,0 0,1 1,-2-1,1 0,0 1,-1 0,0 0,2 5,12 49,-3 2,-2 0,4 76,-15-135,5 53</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1420,'21'0,"-1"0,1 2,0 0,0 1,37 10,-49-10,-1 1,1 0,1 1,-2 0,0-1,1 2,-2 0,1 0,-1 1,0-1,0 1,-1 1,-1-1,7 9,-4-3,0 2,-1-1,0 2,-1-2,-1 2,-1-1,-1 2,4 23,-15-470,8 287,2-126,44-303,-41 537,15-83,-17 107,0 0,0 0,1 0,1 0,1 1,-1 0,12-16,-15 24,1 0,-1-1,1 1,-1 0,0 1,1 0,0-1,-1 0,1 1,0 0,0-1,1 1,-1 0,0 1,0-1,4 0,52 2,-43 1,211 16,420 25,731-38,-737-8,584 3,-1204 0,-3 0,0 0,0 1,1 0,32 7,-46-7,0 1,0 0,1 0,-1 1,-1-1,1 1,-1 0,0-1,0 1,1 1,-1-1,0 1,-1 0,0 0,1 1,-2-2,1 1,1 1,-2 0,0 0,2 4,12 48,-2 2,-3 0,5 73,-16-130,5 51</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16592,16 +17305,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">532 568,'-93'-1,"24"-1,-98 10,159-7,-1 0,1 1,0 0,0 0,0 1,0 0,0 0,1 1,-1 0,1 0,0 1,0 0,1 0,-1 0,1 1,0 0,1 1,0-1,0 1,0 0,0 0,1 0,1 1,-1 0,1-1,0 1,-3 17,-7 65,3 0,4 1,9 118,-3-202,2 0,-1-1,1 1,0 0,0-1,1 0,0 1,0-1,0 0,1-1,0 1,0-1,0 1,1-1,0 0,8 6,7 3,0 0,1-2,29 14,-16-9,-15-9,0 0,1-1,0-1,31 5,-29-7,16 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="642">956 885,'4'0,"11"-4,7-2,9 1,8 0,2 2,-2 1,-2 1,-4 0,-2 1,-2 0,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1182">956 1203,'4'5,"15"1,14-1,9 0,12-2,1-1,5-1,-4 0,-11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2073.75">1908 1097,'0'-11,"0"-1,2 1,-1 0,1-1,1 1,0 0,1 0,0 0,0 1,1-1,1 1,0 0,0 1,15-18,-17 22,26-35,2 1,2 2,63-54,-94 88,0 1,0-1,1 1,-1 0,0 1,1-1,0 1,-1-1,1 1,0 0,6-1,-8 2,0 1,0-1,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,0 0,2 3,4 10,-1 1,0 1,-1-1,0 1,-2-1,3 27,2 110,-7-113,-3 327,5-331,2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2726.75">2940 1017,'18'-1,"1"-1,0-1,0-1,31-11,36-8,-19 17,0 2,86 7,-38-1,-40-2,-47 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4811.26">4580 753,'17'0,"-4"0,0 0,0 1,23 4,-31-4,0 0,-1 1,1 0,-1 0,1 0,-1 1,0 0,0-1,0 1,0 1,-1-1,1 0,4 7,0 4,1-1,-2 1,0 0,-1 1,0 0,4 20,-7-22,1 0,0 0,1-1,0 1,1-1,1-1,0 1,10 12,-17-23,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1-1,12-21,0-32,-1-48,27-167,-28 222,2 0,1 1,35-76,-21 65,3 0,3 3,57-76,-87 127,1 0,-1 0,1 0,0 0,0 0,0 1,0 0,1-1,-1 2,1-1,-1 0,1 1,-1 0,1 0,0 0,0 1,-1 0,1 0,7 0,10 2,0 1,41 12,-41-10,72 16,1-4,177 8,-256-25,343-2,-120-34,-42 3,-129 24,-38 4,-1 1,50 0,-76 4,0 0,0 0,0 1,0-1,0 0,0 1,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,0 1,0-1,0 0,0 1,2 3,2 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5483.52">6009 515,'-5'0,"-1"5,-8 32,-3 15,3 8,2-3,5-1,2-6,3-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6841.52">6274 409,'35'0,"100"5,-120-4,-1 1,0 1,0 1,0 0,0 1,-1 0,15 8,-25-11,0-1,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,0 0,1-1,-1 1,0 0,-1 0,-1 3,0 0,-1-1,0 0,0 1,0-2,0 1,-1 0,0-1,0 0,0 0,0 0,-1-1,1 0,-1 0,0 0,0-1,-10 3,9-3,0 0,0 0,0 1,0 0,0 0,-7 4,14-6,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,1 1,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0 1,0-1,0-1,0 1,0 0,3 0,55 15,25 8,-81-23,0 1,0 0,0 0,0 0,0 0,0 1,0 0,-1-1,1 1,-1 1,0-1,0 0,0 1,4 6,-6-7,0 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,-1 0,1 1,0-1,-1 0,0 0,0 0,0 1,0-1,0 0,-1 0,1-1,-1 1,0 0,0 0,0-1,0 1,0-1,0 0,-6 5,-4 4,-1 0,-1-1,-27 16,11-10,-1-2,-1-1,0-1,-50 11,51-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7945.64">4633 1441,'293'-13,"-22"-1,789 13,-503 2,-469-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9400.63">6062 1652,'118'-1,"130"3,-245-1,0-1,0 1,0 0,0 0,1 0,-2 0,1 1,0-1,0 1,0-1,-1 1,1 0,-1 0,1 1,-1-1,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1-1,0 1,1 1,-1-1,-1 0,1 0,0 0,-1 0,0 1,0-1,0 4,1 7,-2 0,1-1,-2 1,0 0,0-1,-8 24,5-28,0 1,0-1,-1 0,0 0,0 0,-1-1,-1 0,1-1,-1 1,-13 8,9-6,1 0,0 1,-16 19,27-29,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0-1,0 1,2 1,4 2,0 0,1-1,-1 1,13 3,-11-4,50 16,-33-12,0 1,0 2,-1 0,-1 2,0 0,36 26,-56-33,1 0,-1 1,0-1,-1 1,0 0,1 0,-2 0,1 1,-1-1,0 1,0-1,-1 1,1 0,-2-1,1 1,-1 0,0 0,0 0,-2 6,1 0,0-1,-1 0,-1 0,0 0,0 0,-1 0,-1-1,0 1,-11 17,13-26,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-9 0,-10 1,0-1,-25-3,19 1,-79-2,80 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">551 544,'-96'-1,"24"-1,-101 10,165-7,-1 0,0 1,1 0,0-1,0 2,-1 0,1 0,1 1,-2 0,2 0,0 0,0 1,0 0,0 0,1 0,0 1,1 1,-1-1,1 0,0 1,0 0,1-1,1 2,-2 0,2-2,0 2,-3 16,-7 62,2 0,5 2,9 112,-3-193,2-1,-1 0,1 1,0-1,0 0,2 0,-1 1,0-2,0 1,1-1,0 1,0-2,0 2,2-1,-1 0,8 5,8 4,0-1,1-1,29 12,-15-7,-17-10,1 1,1-1,-1-2,33 6,-30-7,16 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="642">991 848,'4'0,"12"-4,6-2,10 1,9 0,1 3,-1 0,-3 1,-4 0,-2 1,-1 0,-9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1182">991 1152,'4'5,"16"1,14-2,9 1,13-2,1-1,6-1,-5 0,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2073.75">1978 1051,'0'-11,"0"0,2 0,-1 1,1-2,1 1,0 1,1-1,0 1,0 0,2 0,0 0,0 1,0 0,16-17,-18 21,27-33,2 1,3 1,64-51,-97 84,0 1,0-1,2 2,-2-1,0 1,1-1,0 1,-1-1,1 1,1 0,5-1,-8 2,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 1,-1-1,1-1,-1 2,0-1,1 1,-1-1,0 1,0 0,0 0,2 3,5 9,-2 1,0 2,-1-2,0 1,-1 0,2 25,2 105,-7-107,-3 312,5-316,2-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2726.75">3047 974,'19'-1,"0"-1,1-1,0-1,32-10,37-8,-20 16,1 2,88 7,-39-1,-41-2,-49 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4811.26">4747 721,'17'0,"-3"0,-1 0,1 1,23 4,-32-4,1 0,-2 1,1 0,-1 0,1-1,-1 2,1 0,-1-1,0 1,0 1,-1-1,1 0,5 6,-1 5,1-2,-2 1,1 1,-2 0,0 1,4 18,-6-20,0-1,0 0,1 0,0 0,1 0,2-2,-1 2,11 11,-18-22,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1-1,13-20,-1-31,-1-46,29-159,-30 212,3 0,0 1,37-73,-22 62,3 1,3 2,59-73,-89 122,0 1,-1-1,1 0,0 0,0 0,0 1,0 0,2-1,-2 2,1 0,-1-1,1 1,-1 0,2 0,-1 0,0 1,-1 0,1 0,8 0,10 2,-1 1,44 11,-44-9,76 15,0-4,184 8,-265-24,355-2,-124-32,-44 2,-134 23,-39 5,-1 0,52 0,-79 4,1 0,-1 0,0 1,0-1,0 0,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,0 0,0 1,0-1,1 0,-1 1,2 2,2 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5483.52">6228 493,'-5'0,"-1"5,-9 30,-3 15,4 8,1-4,6 0,2-6,3-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6841.52">6503 392,'36'0,"104"4,-125-3,0 1,-1 1,1 1,-1 0,1 1,-2-1,16 9,-26-11,1-1,-2 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,1-1,-2 1,1-1,-1 0,0 0,0 1,0 0,0 0,0 0,-1-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,0 0,1-2,-1 2,0 0,-1 0,-1 3,-1 0,0-2,0 1,0 1,0-2,0 1,-1-1,-1 0,1 0,0 0,0 0,-1-1,0-1,0 1,0 0,0-1,-11 3,10-3,0 0,-1 0,1 0,0 1,0 0,-8 4,15-6,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,0 0,0 0,0 1,-1 0,1-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,1 1,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0 1,1-1,-1-1,0 0,0 1,3 0,57 15,26 7,-84-22,1 1,-1-1,0 1,0 0,0 0,0 1,0 0,0-1,0 1,-1 1,0-2,0 1,0 1,4 6,-6-7,0 0,-1 0,1 0,-1 0,0 1,2-1,-2 0,-2 0,2 0,0 0,-1 0,0 0,0 0,0 1,0-1,0-1,-1 1,1-1,-1 1,0 0,0 0,0-1,0 1,0-1,0-1,-7 6,-3 4,-2-1,0 0,-29 15,12-10,-1-2,-1 0,0-2,-52 11,53-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7945.64">4802 1380,'303'-12,"-22"-2,818 13,-522 2,-486-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9400.63">6283 1582,'122'-1,"135"3,-254-1,0-1,1 1,-1 0,0 0,1 0,-2 0,1 1,0-1,0 1,0-1,-1 1,2-1,-2 1,1 1,-1-1,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,-1-1,0 1,1 1,0-1,-2 0,1 0,0-1,-1 1,0 1,0-1,0 4,1 6,-2 1,1-2,-2 1,-1 1,1-2,-8 24,5-28,0 2,-1-1,0-1,0 1,0-1,-1 0,-2 0,2-2,-1 2,-14 7,10-5,0 0,1 0,-17 19,28-28,-1 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-2 0,2 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,2 0,-2 0,0 0,1 0,-1 1,1-2,-1 1,1 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0-1,0 1,2 1,4 2,1 0,0-1,-1 0,14 4,-12-4,52 15,-34-11,0 1,0 1,-1 1,-1 1,0 1,37 24,-58-31,1 0,-1 0,1 0,-2 1,0 0,1-1,-2 1,1 1,-1-1,0 0,0 0,-1 1,1-1,-2 0,1 1,-1 0,0-1,0 1,-2 5,1 1,0-2,-1 1,-1-1,0 1,0-1,-1 1,-1-2,-1 2,-10 16,13-25,0-1,-2 1,2 0,-1 0,0 0,0 0,0-1,0 0,0 0,-1-1,1 0,-1 1,1-1,-1 0,1 0,-10 0,-10 1,0-1,-25-3,19 1,-82-2,83 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16684,13 +17397,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">539 25,'-8'0,"-23"0,-52 6,73-4,-1 1,0-1,1 2,0-1,-1 2,1-1,1 1,-13 9,-22 15,2 3,-57 55,87-74,0 0,0 0,2 1,0 0,0 1,1 0,1 1,1-1,0 2,1-1,-6 25,7-10,1 0,1 0,3 48,1-63,1 1,0-1,1 0,1 0,0 0,1 0,1-1,11 22,-12-31,-1 1,1-1,0 0,1 0,-1-1,1 0,1 0,-1 0,0 0,1-1,8 3,12 6,46 14,-24-10,-35-11,3 1,1-1,0 0,0-1,35 5,-48-9,-1-1,1 0,0 0,0-1,0 1,-1-1,1 0,0 0,-1-1,1 1,-1-1,0 0,1-1,-1 1,0-1,0 1,0-1,-1 0,1-1,-1 1,1 0,-1-1,0 0,3-5,10-23,0 0,-2-2,-2 0,16-69,-14 36,-2-1,-3 0,-1-70,-8 129,0 0,0-1,-1 1,0 0,-3-13,3 19,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,-3-1,-20-7,12 4,-1-1,1 0,-21-12,20 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536.69">962 740,'4'0,"7"0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6365.32">1624 131,'4'-7,"1"-1,1 1,-1 0,1 0,1 0,-1 1,1 0,0 1,1-1,-1 1,1 1,9-5,0 0,2 2,-1-1,1 2,29-6,-40 10,0 1,0 0,0 0,-1 1,1 0,0 0,0 1,0 0,0 1,0-1,7 4,-11-3,0 0,0 0,-1 0,1 0,-1 1,0 0,0-1,0 1,0 1,0-1,-1 0,1 0,-1 1,0 0,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,1 7,2 31,-2 0,-6 79,1-44,3-40,-2 1,-2 0,-9 44,10-71,0 1,-1-1,-1 1,0-2,0 1,-1 0,0-1,-1 0,0-1,-1 1,0-1,0-1,-1 1,-12 7,2-1,-2-1,0-1,0-1,-1-1,-30 11,45-20,0 1,0-1,0-1,-1 1,1-1,0-1,0 1,-1-1,1 0,-1-1,1 0,0 0,0 0,0-1,-1 0,1 0,1-1,-1 0,0 0,1-1,0 0,-7-5,11 8,-1-1,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1-3,1 3,0 0,1 1,-1-1,1 1,0-1,-1 0,1 1,1 0,-1-1,0 1,0 0,1-1,0 1,-1 0,1 0,0 0,2-1,5-4,0 1,0 0,0 0,1 1,-1 1,1-1,0 2,1-1,11-1,-6 1,-1 2,1 0,0 1,0 0,0 2,0 0,0 0,0 1,-1 1,1 1,-1 0,0 1,0 1,0 0,-1 1,0 1,0 0,18 14,-11-6,0-2,35 19,-46-29,1 0,-1 0,1-1,0 0,0-1,0 0,1-1,13 0,6-1,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7729.58">2603 78,'-1'-1,"1"1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,-37 6,30-3,1 0,0 0,0 1,1 0,-1 0,1 1,0 0,1 0,-1 0,1 1,0 0,1 1,0-1,0 1,-6 14,-5 13,1-1,-14 53,20-51,1 0,3 1,0 0,1 42,11 149,-6-222,-1 1,1 0,0 0,0 0,0-1,1 1,0 0,1-1,-1 0,1 1,1-1,-1 0,1-1,0 1,0 0,9 8,-9-11,0 0,0 0,0 0,0-1,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,0-1,0 1,0-1,-1 0,1 0,0-1,0 1,0-1,0 0,7-3,-7 2,0-1,0 0,0 0,0 0,0-1,-1 1,0-1,1 0,-2 0,1-1,0 1,-1-1,0 0,0 0,0 0,3-10,1 0,-1-1,-1 0,-1 0,4-26,6-59,-5-1,-6-168,-4 260,0 1,-1 0,0-1,0 1,-5-9,-4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8390.25">2867 105,'0'9,"0"17,0 43,-5 30,-1 14,1 3,0-10,2-10,-3-16,-1-18,1-14,1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9864.85">3291 157,'0'-4,"-1"0,1 0,0-1,-1 1,0 0,0 0,0 0,-1 0,-2-6,4 10,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,-1 2,-3 4,0 1,1 0,0 0,0 0,1 1,0 0,0-1,1 1,0 0,1 0,-1 12,1 20,4 51,0-33,-3-50,0 9,0 0,2 0,6 29,-7-44,-1 1,2-1,-1 0,0 1,1-1,0 0,-1 0,1 0,1 0,-1 0,3 2,-4-4,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 0,0 0,0 1,0-1,-1 0,1-1,0 1,0 0,0 0,-1-1,4 0,-3 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,1-5,11-49,-10 41,3-29,2-59,-5 59,9-57,-8 79</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11703.15">3370 687,'-2'1,"0"-1,0 0,0-1,1 1,-1 0,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,-1-2,-1-2,2-1,-1 0,1 0,-1 1,1-14,-7-27,8 46,-1-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1 0,0-1,-1 1,-1 0,0 0,-1 1,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 1,1-1,-1 1,0 0,0 0,1 0,-1 0,-2 3,-40 47,33-37,-195 228,201-236,1 0,1 1,-1-1,1 1,0 0,1 0,0 0,0 1,1-1,0 1,0-1,1 1,0 0,0 0,1-1,1 1,-1 0,4 16,-2-18,0-1,1 1,-1-1,1 0,1 0,-1 0,1-1,0 1,0-1,0 0,1 0,0 0,0-1,0 1,0-1,1 0,0-1,0 1,0-1,0-1,0 1,1-1,-1 0,14 2,-9-2,0 0,0 0,1-1,-1-1,1 0,-1-1,0 0,1-1,-1 0,0-1,0 0,0 0,0-1,-1-1,0 0,0 0,0-1,0 0,-1-1,0 0,0 0,-1-1,0-1,0 1,-1-1,0 0,-1-1,0 1,0-1,-1 0,0-1,-1 1,0-1,-1 0,0 0,-1 0,2-16,-1-31,-1 1,-8-71,6 126,0 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,0-1,-1 2,-17 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">566 24,'-8'0,"-25"0,-54 5,77-3,-2 1,0-1,2 2,-1-1,0 1,0 0,2 1,-14 8,-23 15,1 2,-59 52,92-70,-1 1,1-1,1 1,1 1,-1 0,2 0,0 1,2-1,0 2,0-1,-5 24,6-9,2-1,1 0,3 46,1-60,1 1,0-1,1 0,2 1,-1-1,1 0,1-1,12 21,-13-29,0 0,0 0,0 0,1-1,0 0,0 0,1 0,0-1,-1 1,1-1,9 3,12 5,49 13,-25-9,-38-10,4 1,1-2,0 1,0-1,37 4,-51-8,-1-1,1 0,1 0,-1-1,0 1,-1-1,2 0,-1 0,-1 0,1 0,0-1,-1 0,1-1,-1 1,0-1,1 1,-1 0,-1-1,1-1,-1 1,1 0,0-1,-1 1,3-6,11-21,0 0,-3-3,-1 1,16-65,-14 33,-2 0,-4 0,0-67,-9 123,0-1,0 0,-1 0,0 1,-4-13,4 18,0 0,0 0,-1 0,1 2,-1-2,1 0,-1 1,0-1,0 1,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 0,-1 1,-1-1,1 1,-3-1,-21-6,12 3,-1-1,1 1,-21-12,20 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536.69">1011 700,'4'0,"7"0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6365.32">1706 124,'4'-7,"2"0,0 0,-1 1,2-1,0 0,-1 2,2-1,-1 1,1 0,0 0,0 1,10-5,0 1,2 1,-1 0,1 1,30-5,-42 9,1 1,-1 0,1 0,-2 1,1 0,1 0,-1 1,1 0,-1 1,0-1,8 3,-12-2,1 0,-1 0,-1 0,1 0,-1 1,1 0,-1-2,0 2,0 1,0-1,-1 0,1 0,-1 0,1 1,-1-1,0 1,-1 0,1-1,-1 1,0 0,0 0,1 6,2 30,-2 0,-6 74,1-41,3-38,-2 1,-2 0,-10 41,11-66,0 0,-1 0,-2 0,1-2,0 2,-1-1,-1 0,0-1,0 0,-2 0,1 0,-1-2,0 2,-13 6,2-1,-2-1,0 0,0-2,-1-1,-32 11,48-19,-1 1,1-1,0-1,-2 1,2-1,-1-1,1 1,-1-1,0 0,0-1,1 0,-1 0,1 0,-1-1,0 0,1 0,0-1,0 0,0 1,0-2,1 0,-8-4,12 7,-1-1,1 0,0-1,-1 1,1 0,0-1,0 1,-1 0,2 0,-1-1,1 0,-1 0,1 0,0 1,0-1,0 0,1 0,-1-3,1 4,0-1,1 1,-1-1,1 1,0-1,-1 0,1 1,1 1,-1-2,0 1,0 0,1-1,1 1,-2 0,1 0,0 1,2-2,5-4,1 1,-1 1,1-1,0 1,0 2,0-2,1 2,0-1,12-1,-6 2,-1 1,1 0,0 1,-1 0,1 2,0 0,0 0,0 1,-2 1,2 0,-1 1,0 1,0 1,-1-1,0 2,0 0,-1 1,20 13,-12-6,0-2,37 18,-48-27,0 0,0 0,0-1,1-1,-1 0,1 0,0-1,15 0,5-1,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7729.58">2735 74,'-1'-1,"1"1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 1,-2-1,1 0,0 1,1 0,-1 0,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,-1 1,-39 5,32-2,0 0,1 0,0 0,0 1,0 0,1 0,-1 1,2 0,-1-1,0 2,1 0,1 0,-1 0,1 0,-6 14,-6 12,1 0,-14 49,20-48,2 0,2 1,1 0,1 40,11 141,-6-211,-1 2,1-1,1 1,-1 0,0-2,1 2,0 0,1-2,-1 1,1 1,1-2,0 1,0-1,0 0,0 1,10 7,-10-10,0 0,0 0,1 0,-1-1,1-1,-1 1,2 0,-1 0,-1-1,1 1,1-1,-1 0,0-1,0 1,1-1,-2 0,1 0,0-1,1 1,-1-1,0 0,8-3,-8 2,0-1,0 1,1-1,-1 0,0-1,-1 1,1 0,0-1,-2 0,1-1,0 1,0 0,-1-1,0 0,0 1,3-11,2 1,-2-1,-1 0,-1 0,5-25,5-56,-4 0,-7-160,-4 247,0 0,-1 1,0-2,0 2,-6-9,-3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8390.25">3012 99,'0'9,"0"15,0 42,-5 27,-1 14,0 3,1-10,2-9,-3-15,-2-17,2-14,1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9864.84">3458 149,'0'-4,"-1"0,1 0,0-1,-1 2,0-1,-1 0,1 0,-1 1,-2-7,4 10,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-2 0,0 0,1 0,-1 0,1 0,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-2 0,2 1,0-1,-1 2,-3 3,0 2,1-1,-1 1,1 0,1 0,0 1,0-2,1 2,-1-1,2 1,-1 11,1 18,4 49,1-31,-4-47,0 8,0 0,2 0,6 27,-7-41,-1 1,2-1,-1 0,0 0,1 0,1 0,-2 0,1 0,1 0,-1-1,3 3,-4-4,1 0,-1 0,2 0,-2 0,1 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 0,0 0,0 1,1-1,-2 0,1-1,0 1,0 0,0 0,-1-1,4 0,-3 0,1-1,-1 1,0 0,0-1,0 1,0-1,0 0,0 1,-1 0,1-1,-1 0,2 0,-2 0,0 0,0-1,0 1,0 1,1-6,12-46,-11 39,3-28,2-55,-4 55,8-54,-8 76</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11703.15">3541 650,'-2'1,"-1"-1,1 0,0-1,1 1,-1 0,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,-2 0,2 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,-1-2,-2-1,3-2,-1 0,1 1,-1 0,1-13,-7-25,8 43,-1-1,1 1,-1 0,0-1,-1 1,2 0,-1 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-2 1,2 0,0-1,-1 1,-1 0,0 0,-1 1,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 0,2 0,-1 1,0 0,0 0,1 0,-1 0,-3 3,-41 44,35-35,-206 216,212-223,0-1,2 2,-1-2,1 2,0 0,0-1,1 1,0 0,1 0,0 0,0 0,1 0,0 1,0-1,1 0,1 0,-1 1,4 15,-2-18,0 0,1 1,-1-2,2 1,0 0,-1-1,1 0,0 1,1-2,-1 1,1 0,0 0,0-2,1 2,-1-1,1 0,1-1,-1 0,0 0,1-1,-1 1,1-1,-1 0,15 1,-9-1,0 0,-1 0,2-1,-2-1,2 0,-2-1,1 0,1-1,-2 0,1 0,-1-1,1 0,-1-1,0-1,-1 1,1-1,-1-1,1 1,-2-2,1 0,-1 1,0-2,-1 0,1 0,-2-1,0 1,0-1,-1 0,0 0,-1-1,1 0,-2 0,0 0,-1-1,0 1,-1 0,3-16,-2-29,-1 1,-8-67,6 119,0 1,-1-1,1 0,0 2,-1-2,1 1,-2-1,2 0,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,-1 2,1-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-2 1,2-1,-1 0,1 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-2 1,1-1,1 0,-1 1,1-1,-1 1,0-1,-1 2,-18 5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16737,7 +17450,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:24:04.281"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:24:27.833"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -16746,16 +17459,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">213 772,'28'168,"-15"-80,4-1,47 143,-51-209,-13-21,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0-1,14-44,-12 36,43-213,-19 82,45-136,-59 238,-2-1,-1 0,6-67,-5 29,1-24,-9 79,2 0,0 0,1 0,10-25,3-17,-17 60,1 0,-1 0,1 1,-1-1,1 1,0-1,1 1,-1 0,0 0,1 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,1 0,0 0,-1 1,1-1,0 1,-1 0,1 0,0 0,0 1,0-1,0 1,4 0,14 0,0 0,0 2,0 1,22 5,-30-5,231 54,-5-25,261 2,251-33,-412-4,674 2,-948 0,75-13,-107 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="874">1694 719,'-9'9,"-12"17,-7 13,-7 8,-8 5,-5-1,2-5,8-6,6-5,4-8,-2-1,-1 1,1-5,-4-6,0-5,0-5,7-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1413.28">1139 799,'4'0,"6"0,7 0,3 0,13 14,10 17,6 13,0 8,-5 4,-5 1,-4-4,0 3,-5 0,1-5,-5-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2659.35">1827 666,'18'-17,"0"-1,2 2,0 1,1 0,0 2,2 0,-1 1,47-16,-66 27,0 0,1 0,-1 0,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 1,2 1,-1 0,-1 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,-1 1,1-1,0 7,5 27,-2-1,-1 1,-2 0,-2 0,-8 70,8-104,-1 1,0 0,0-1,0 1,0 0,-1-1,1 1,-1-1,0 0,-1 0,1 0,-1 0,0 0,0 0,-6 6,6-8,0-1,0 1,0 0,0-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,1-1,-1 0,1 1,-1-1,1-1,-4 0,6 1,-17-5,0-1,1 0,0-2,-21-13,35 20,0 0,0-1,1 1,-1 0,1-1,-1 0,1 1,0-1,0 0,0 0,1 0,-1 0,-1-5,3 5,0 1,-1-1,1 1,0-1,0 1,1-1,-1 1,0-1,1 1,0-1,0 1,-1 0,1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,2-2,1-1,1 0,0 0,0 0,0 1,0 0,1 0,0 1,0-1,0 1,0 1,0 0,1 0,-1 0,0 1,13-1,-15 2,0-1,1 1,-1 0,1 1,-1-1,1 1,-1 0,0 1,1-1,-1 1,0 0,0 0,0 1,-1 0,1-1,0 2,-1-1,0 0,0 1,0 0,7 8,1 6,-7-8,1-1,0 0,0 0,1-1,1 0,-1 0,1-1,12 10,1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3242.86">2859 852,'0'18,"-5"24,-1 18,0 8,1 7,2 2,1-6,1-11,0-11,1-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3824.64">2700 1301,'0'-4,"0"-6,4-2,6 2,7 2,3 3,4 2,3 2,0 0,0 1,1 1,4-1,1 1,0-1,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5516.31">3785 799,'-13'0,"0"1,1 0,-1 1,1 0,-1 1,1 0,0 1,0 0,1 1,-1 0,-16 11,20-10,0 0,0 1,0 0,1 0,0 1,1 0,0 0,0 0,0 1,1 0,1 0,-1 0,2 0,-6 19,7-23,1-1,0 1,0 0,0 0,0-1,1 1,0 0,0 0,0-1,1 1,-1 0,1 0,0-1,0 1,1 0,0-1,-1 1,2-1,-1 0,0 0,1 0,0 0,0 0,0 0,0-1,0 0,1 1,0-1,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1-1,0 0,6 2,-7-3,0 1,-1-1,1 1,0-1,0 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1-1,-1 1,0-1,1 0,-1 0,0 0,0-1,0 1,0-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,1-4,3-9,0 1,-1-1,-1 0,-1 0,2-27,-3 25,1 1,8-32,-4 36,-1 13,2 26,-2 42,-5 262,-2-158,1-150</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6613.41">1 1672,'203'12,"-36"0,1151-7,-719-8,787 3,-1181 15,-114-5,-63-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8037.66">2197 2122,'27'-11,"2"0,-1 2,1 1,33-5,-23 5,-17 2,-10 3,1 0,-1 0,0 1,1 0,0 1,-1 1,1 0,22 3,-34-2,1-1,0 1,0-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,2 4,-1-2,0 1,-1-1,0 1,0-1,0 0,0 1,0-1,0 1,-1-1,-2 6,-1 5,-2-1,1 0,-2-1,-11 18,12-22,0-1,0 0,-1 0,-12 9,-16 19,38-33,0 0,1 0,-1 0,0 0,1-1,-1 0,1 0,-1 0,1 0,0 0,3 0,2 1,3 2,0 1,-1 0,1 1,-1 0,0 1,-1 1,0-1,0 1,0 1,-1 0,0 0,-1 1,0 0,-1 1,0 0,0 0,-1 0,-1 1,0-1,0 1,-1 1,-1-1,0 1,-1-1,0 1,-1 0,0 0,-1-1,0 1,-1 0,-1 0,-5 21,5-29,1-1,-2 1,1 0,0-1,-1 1,0-1,0 0,0 0,0 0,-1-1,0 1,0-1,-6 5,1-2,0-1,0-1,0 0,-1 0,1-1,-15 4,-7-2,0-1,-1-1,-42-2,42-1,-25 1,-1-3,1-2,-99-21,99 12,23 5,-1-1,-61-25,65 17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9933.95">4605 1566,'953'0,"-927"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3907,'8'-3,"2"0,-1 1,0-1,1 2,-1-1,0 1,1 1,12 0,10-1,893-11,-610 13,94-1,1091 34,1412 79,1225-102,-2341-16,1462 5,-3155 0,1-5,-1-3,149-31,-195 24,55-20,-82 24,-17 7,0 1,0 1,0-1,0 2,22-1,-13 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1210.64">16790 0,'-1'276,"18"1417,18-788,39-7,-65-813,-4 148,-5-229,0 0,0 0,0 1,-1-1,0 0,-1 1,1-2,0 2,0-1,-1 0,0 0,0-1,0 1,-1 0,1 0,-1-1,0 1,-1-1,1-1,0 1,-1 0,1 0,-1 0,0-1,0 0,0 0,-1 0,1 0,0-1,0 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,-6-2,-676-24,498 12,28 2,-767-29,899 40,11 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1825.64">17065 2612,'-56'40,"-70"46,-75 47,-82 50,-82 53,-35 26,-17 11,33-15,42-30,66-48,70-43,66-45,56-33,43-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2453.31">17533 3069,'-9'0,"-41"22,-54 32,-57 42,-60 40,-50 30,-49 36,-35 20,-23 18,6-4,-42 20,22-17,69-40,89-51,83-49</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16782,15 +17489,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2976 556,'-2'0,"0"1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 2,-3 7,1-1,0 2,-1 19,1-12,-7 47,2 1,3-1,8 127,-3-189,1 0,0 1,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,4 4,-1-4,0 1,0-1,0 0,0 0,0 0,1-1,-1 0,1-1,-1 1,9 0,-3-1,0-1,1 0,-1 0,0-1,1-1,-1 0,0-1,0 0,-1-1,1 0,18-9,-17 4,0-1,0 0,-1-1,0-1,-1 0,-1 0,0-1,14-21,5-16,22-54,-42 86,35-92,-48 176,-38 309,33-315,0 17,-4-1,-3 0,-3-1,-30 73,30-103,-1 5,-2-1,-50 80,62-114,0-2,-1 1,-1-1,0-1,0 0,-2-1,1 0,-1-1,-1-1,0 0,0-1,-28 11,18-11,1 0,-1-2,0-1,0-1,0-1,-1-2,1 0,-1-2,1 0,-1-2,-34-8,48 8,1 0,0-1,0 0,0-1,1 0,0 0,0-1,0-1,0 0,1 0,0-1,1 0,0 0,0-1,1 0,0 0,0-1,1 0,1 0,-1-1,2 1,-1-1,2 0,-1 0,1-1,-2-19,3 8,1-1,3-31,0 25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1204.41">3214 80,'-9'0,"-4"0,1 0,-1 1,0 0,1 1,-17 4,26-5,-1 0,1 0,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,1 1,0-1,-1 1,1-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 1,1-1,-2 6,2-8,-1 1,1 0,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,1-1,0 0,0 1,0-1,-1 0,1 1,0-1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,3 0,-1 0,-1-1,0 1,1-1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 0,-1 1,0-1,0 0,0 0,1 0,-1-1,0 1,0 0,-1-1,1 1,3-4,1-4,1 0,-1 0,-1 0,0-1,0 0,-1 0,3-12,-6 19,0-1,0 1,0 0,-1 0,0-1,1 1,-1 0,0 0,-1-1,1 1,-1 0,-1-5,2 7,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,-2 1,-11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2361.67">3664 0,'-9'0,"1"0,0 1,-1 0,1 0,0 1,0-1,0 2,0-1,0 1,0 1,1-1,-1 1,1 1,0-1,0 1,1 0,0 1,-1 0,-5 7,4-4,1 0,0 1,0 0,1 0,0 0,-7 20,12-27,-1 1,1-1,-1 1,1-1,0 1,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,1-1,-1 1,1 0,0-1,0 1,0 0,0-1,1 0,-1 1,1-1,0 0,0 0,3 3,-5-4,1-1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,1-3,3-5,-2 0,1-1,-1 1,0-1,1-17,-3-29,-1 31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4783.22">145 2858,'1'12,"2"-1,0 0,0 0,1-1,0 1,1-1,0 0,1 0,10 14,3 8,-4-2,-4-10,0 0,19 26,-26-41,0 0,0-1,0 1,0-1,1 0,0-1,0 1,0-1,0 0,1 0,-1 0,1-1,10 3,83 21,-43-11,0-2,67 6,-105-17,0-1,1-2,-1 1,0-2,0-1,0 0,0-1,-1-1,1 0,-1-1,17-10,-5 0,-1-1,0-2,-1 0,-2-2,36-36,-45 40,0-1,-2-1,0 0,-1 0,-1-1,-1-1,-1 0,12-37,-17 37,-2-1,0 0,-2 0,0 0,-5-43,1 9,3 33</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7283.51">1230 2488,'1'1,"-1"-1,1 0,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 1,3 35,-2-29,7 627,-10-366,3-134,-3 156,-2-241,-2 0,-3-1,-1 0,-28 79,8-51,-3-1,-45 75,73-141,-1-1,-1 0,1 0,-2 0,1-1,-1 0,0 0,0-1,-1 0,-17 10,13-10,-1-1,0-1,0 0,0-1,-1 0,0-1,-25 2,-255 0,220-7,64 1,-1 0,1-1,-1 0,1-1,0 0,0-1,1 0,-19-11,-5-4,-35-29,68 48,-27-21,1-1,1-1,-25-29,41 42,1-1,0-1,1 0,0 0,1-1,1 1,0-2,0 1,1 0,-3-17,5 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8692.51">1441 2196,'0'3,"0"-1,1 1,0-1,-1 1,1-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,3 3,45 27,-27-18,6 6,0 2,-2 1,0 1,-1 1,33 41,-51-55,0 0,0 1,-2-1,1 1,-1 1,-1-1,0 1,-1 0,0 0,-1 0,0 1,-1-1,0 1,-1-1,0 1,-1 0,-1-1,-3 22,2-26,-1 0,0-1,-1 1,1-1,-1 1,-1-1,1-1,-1 1,0 0,-8 7,-10 7,-35 26,28-23,29-23,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 1,0-1,1 0,0 0,-1 2,3 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11001.09">2896 2699,'-2'73,"0"-29,7 71,-4-107,1 1,0-1,0 0,1 0,0 0,1-1,-1 1,1-1,1 0,-1 0,1 0,1-1,-1 1,1-1,0 0,0-1,1 0,0 0,0 0,0-1,0 0,1 0,-1-1,1 0,0 0,0-1,0 0,0 0,16 1,-13-2,0 0,1-1,-1 0,0-1,1 0,-1-1,0 0,0 0,0-1,0-1,-1 0,1-1,-1 1,0-2,0 0,-1 0,0-1,0 0,0 0,-1-1,14-16,-10 3,-1 0,0-1,-1 0,-2-1,8-28,19-48,-30 119,-2 18,-6 1324,3-1355,-1 1,1-1,-1 0,0 1,-1-1,1 0,-2 0,1 0,-1 0,0-1,0 1,-1-1,1 1,-2-1,-4 6,1-5,1 0,-1 0,0-1,0 0,-1-1,1 0,-1 0,-1-1,-16 6,-9-1,0-1,0-2,-1-2,0-1,-37-2,-158-3,165 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11950.57">3479 2276,'-5'0,"-1"14,9 8,4 10,15 18,7 17,0 3,-6-2,-6-8,-7-5,-4-7,-4-4,-2-4,-1 0,5-6,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12983.81">3823 2276,'0'5,"8"19,9 19,14 29,6 12,-3-4,-7-12,-8-12,-8-12,-5-8,-4-2,-2 3,-2-1,1-1,-1-3,-4-2,-5-7,-1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3102 533,'-2'0,"0"1,0-1,0 0,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 1,0-1,-2 0,2 0,0 1,0 0,0-1,0 1,0 0,0 0,0 2,-3 6,1 0,0 1,-1 19,0-12,-6 46,2 0,2-1,10 122,-4-181,1 0,0 1,0-1,0-1,0 1,1 0,-1 0,1-1,0 1,0 0,1-2,-1 2,1-1,1 0,-1 0,0 0,4 3,-1-3,1 1,-1-1,0 0,0 0,1 0,0-1,-1 0,2-1,-2 0,9 1,-2-1,-1-1,2 0,-2 0,1-1,1-1,-2 1,1-2,-1 0,0-1,0 0,19-8,-17 3,-1-1,1 1,-2-2,1 0,-2-1,0 1,-1-2,15-19,6-16,22-52,-44 83,37-89,-50 170,-40 295,35-301,-1 16,-3-2,-4 1,-3-1,-31 70,31-99,-1 5,-1-1,-54 77,66-110,0-1,-2 0,0 0,-1-2,1 1,-3-2,2 1,-2-2,-1 0,1 0,-1-2,-29 12,19-12,1 1,-1-2,0-2,0 0,0-1,-1-2,1 0,-1-2,1 0,-2-2,-34-7,49 7,2 0,-1-1,1 0,0 0,0-1,1 0,-1-1,1-1,-1 1,2-1,0-1,0 1,1-1,0-1,0 1,1-1,0 0,1-1,0 0,0 0,2 0,-1 0,2-1,-2 1,2-2,-2-18,3 8,1-1,3-29,0 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1204.41">3350 77,'-9'0,"-5"0,2 0,-2 1,1 0,0 1,-17 3,27-4,-2 0,2 0,0 1,0-1,0 1,0 0,1 0,-1 0,-1 0,2 1,0-2,-1 2,1-1,0 1,0 0,0 0,1 0,-1 0,1 0,0-1,-1 1,1 1,1-1,-3 6,3-8,-1 0,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,2-2,-1 1,0 1,0-1,-1 0,1 1,0-1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,3 0,0 0,-2-1,0 1,1-1,-1 0,1 0,-1 0,0-1,1 1,-1 0,1-1,0 0,-1 1,0-1,0 0,0 0,1 0,-1-1,0 1,0 0,-1-1,1 1,4-4,0-3,1-1,0 1,-2-1,0-1,0 1,-1-1,4-11,-7 18,0-1,0 1,0 1,-1-1,0-1,1 1,-1 0,0 0,-1-1,1 2,-1-1,-1-5,2 7,-1-1,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1 0,-1-1,-1 1,2 0,-1 0,1 0,-1 0,-2 1,-12 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2361.67">3819 0,'-9'0,"0"0,1 1,-1 0,0 0,1 1,0-1,-1 2,1-1,0 0,-1 2,2-1,-1 1,0 1,1-1,0 0,1 1,-1 1,0 0,-6 6,5-3,1-1,0 2,-1 0,2-1,0 1,-8 19,13-27,-1 2,1-1,-1 1,1-1,0 1,1-1,-1 0,1 1,-1 0,1-1,0 1,0 0,1-1,-1 0,1 1,0-1,0 1,0 0,0-1,1-1,-1 2,1-1,0 0,0 0,4 3,-6-4,1-1,0 0,0 0,0-1,0 0,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 0,-1 1,0-1,0 0,2 0,-2 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,1-3,3-4,-2-1,1-1,-1 2,0-2,2-16,-4-28,-1 31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4783.22">151 2741,'1'11,"2"0,0-1,1 1,0-1,0 0,1 0,0-1,2 1,9 13,4 8,-4-3,-5-8,1-1,19 25,-27-39,0-1,0 0,1 1,-1-1,1 0,0-1,0 1,1-2,-1 1,1 0,-1 0,1-1,11 3,86 20,-44-11,-1-1,70 5,-109-16,0-1,1-2,-2 1,1-2,0-1,0 0,-1-1,0-1,1 1,-1-2,17-10,-5 1,-1-1,1-2,-2-1,-2-1,37-34,-46 37,0 0,-3-1,1 0,-1-1,-2 0,0-1,-2 0,13-36,-18 36,-2-1,0 0,-2 0,0 0,-5-42,1 10,3 31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7283.51">1282 2386,'1'1,"-1"-1,1 0,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,-1-1,1 1,1 0,-2-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,3 34,-2-29,7 602,-10-351,3-128,-3 149,-2-231,-2 0,-4-1,0 0,-30 75,9-48,-3-1,-48 72,77-135,-1-2,-1 1,0-1,-1 1,1-1,-2-1,1 1,0-1,-2 0,-17 9,14-9,-2-2,0 0,1 0,-1-1,0 0,-1-2,-26 3,-265 0,229-7,66 1,0 0,0-1,0 0,0-1,1 1,-1-2,2 0,-20-10,-6-5,-36-27,71 46,-28-20,1-1,1-1,-26-28,42 41,2-2,-1-1,2 1,0-1,0 0,2 0,0-1,0 1,0-1,-2-16,5 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8692.51">1502 2106,'0'3,"0"-1,1 1,0-1,-1 0,1 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,2 0,-2 0,1 0,0-1,0 0,3 3,47 26,-28-18,6 7,1 1,-3 1,0 1,-1 1,35 39,-54-52,0-1,1 2,-3-1,1 0,-1 2,0-2,-1 2,-1-1,0 1,-1-1,0 2,-1-2,1 2,-2-2,0 2,-1-1,-1 0,-4 20,3-24,-1 0,0-2,-1 2,1-1,-1 0,-2 0,2-1,-1 1,0-1,-9 8,-10 6,-36 25,29-22,29-22,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,-1 1,0-1,1 0,0 0,-1 2,3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11001.09">3019 2588,'-3'70,"1"-27,8 67,-5-102,1 0,0 0,0 0,1-1,0 1,1-1,-1 0,2 0,0 0,-1-1,1 1,1-1,0 1,0-2,0 1,0-1,2 0,-1-1,0 1,1-1,-1 0,1 0,0-1,0 0,0-1,1 0,-1 0,0 0,17 1,-13-2,-1 0,2-1,-2 0,1-1,0 0,0-1,-1 0,1 0,-1-1,0 0,0-1,0-1,0 1,-1-2,1 1,-2-1,0-1,1 0,-1 1,0-2,13-15,-9 3,-2 0,1-1,-2 0,-1-2,7-25,21-47,-32 114,-2 17,-6 1270,3-1299,-1 1,1-1,-1-1,0 2,-1-1,1-1,-2 1,1 0,-2-1,1 0,0 1,-1-1,1 0,-2 0,-5 6,2-6,1 1,-2 0,1-1,0-1,-2 0,2 0,-1 0,-2-1,-16 5,-9 0,-1-2,1-1,-2-2,1-1,-40-2,-163-3,171 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11950.57">3626 2183,'-5'0,"-1"13,9 8,4 10,16 17,7 16,1 3,-7-2,-7-7,-6-5,-5-7,-4-4,-2-4,-1 1,5-7,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12983.81">3985 2183,'0'5,"8"18,10 18,14 28,7 11,-4-3,-7-12,-8-11,-8-12,-6-7,-4-3,-2 4,-2-2,1 0,-1-3,-5-3,-4-6,-1-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16808,7 +17515,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:24:16.679"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.295"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -16817,17 +17524,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11219 1244,'0'0,"0"0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 1,-16 8,5-1,1 2,0-1,1 1,0 1,1-1,-11 20,-40 80,41-74,-8 17,-32 90,50-116,2-1,0 1,1 0,2 0,0 49,4-38,-1-2,1-1,11 60,-10-85,1 0,0-1,0 1,1-1,0 0,0 0,1 0,0-1,1 1,0-1,0 0,1-1,0 0,10 8,-10-10,0-1,1-1,-1 0,1 0,0 0,0-1,0 0,0 0,0-1,0 0,0-1,13 0,-4-1,0 0,0-1,-1-1,1 0,18-7,-27 6,-1 0,1 0,-1-1,0 0,0-1,0 1,-1-1,0-1,0 1,-1-1,1 0,5-12,8-13,21-51,-40 82,12-33,-2-1,-1-1,-3 1,0-1,0-43,-5 68,4-56,-7-130,1 188,-2 1,1-1,-1 1,0 0,0 0,-1 0,0 1,-1-1,0 1,0 0,0 0,-1 1,0 0,0 0,-1 0,1 0,-1 1,-1 0,1 1,-1 0,1 0,-1 0,-13-3,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="412.15">11907 1958</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.03">12251 1588,'-1'-26,"1"-9,1 0,6-38,-5 63,-1 0,2 0,0 1,0-1,1 1,0 0,0 0,1 0,0 0,1 1,0 0,7-8,-8 13,0-1,0 1,0-1,1 2,-1-1,1 0,0 1,-1 0,1 1,0-1,0 1,0 0,1 1,-1-1,0 1,0 0,0 1,0 0,0 0,0 0,0 0,0 1,0 0,0 0,0 1,-1 0,0 0,1 0,-1 0,0 1,-1 0,1 0,5 6,-2 4,0-1,-1 1,0 1,-2 0,1-1,-2 2,6 29,6 118,-12-98,-4-63,6 66,-5 110,-2-174,0-1,0 0,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 1,-1-2,1 1,-1 0,1-1,0 1,-1-1,1 0,-1 0,-3-1,3 1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 0,0 1,1-2,-1 1,1 0,-1 0,1-1,0 1,0-1,-1-4,2 5,0 0,1 1,0-1,-1 0,1 0,0 0,0 1,1-1,-1 0,0 0,1 1,0-1,-1 0,1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,4-4,-2 4,0-1,1 1,-1-1,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,5 0,-2 0,0 1,0-1,1 1,-1 1,0-1,0 1,0 1,0-1,0 1,-1 0,1 1,0 0,-1 0,0 0,0 0,0 1,7 6,2 7,-2 1,0 0,-1 1,12 24,-15-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3260.27">13548 1535,'-1'-1,"1"0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,-1 0,1 0,0 0,-1-1,1 1,-2 1,-41 0,34 2,1 1,0 0,0 0,1 1,-1 0,1 1,0 0,0 0,1 1,0 0,0 0,0 1,1 0,-6 11,-3 3,2 1,0 0,2 1,-11 31,16-30,1 0,0 1,2-1,1 1,1-1,1 1,5 32,-5-53,0 1,1-1,0 0,0 0,0 0,1 1,-1-1,1 0,0-1,1 1,-1 0,1-1,0 1,0-1,1 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,0-1,1 0,-1 0,0-1,1 1,-1-1,0 0,10-2,20-4,0-1,-1-2,0-1,0-2,-1-1,-1-1,0-2,53-36,-81 48,-1 1,1 0,-1-1,0 1,0-1,-1 0,1 0,-1 0,0-1,0 1,0 0,-1-1,3-8,8-67,-9 47,0 13,-1 0,-1 0,-1 1,-1-1,0 0,-1 0,-6-20,5 30,0 0,-1 0,0 1,0-1,-1 1,0 0,-1 0,0 1,0 0,-1 0,0 0,-1 1,0 0,0 0,-9-6,-20-10,-66-31,84 45,-1 1,0 1,0 1,-1 1,-30-4,22 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4044.28">14209 1323,'4'0,"2"5,0 14,-1 18,-2 12,-5 11,-3 8,-1 7,2-1,0-3,2-6,0-9,2-9,0-9,4-10,3-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5454.28">14897 1217,'-5'1,"0"0,0 0,1 0,-1 0,0 1,1 0,0 0,-1 0,1 1,0-1,0 1,0 0,1 0,-6 5,-46 55,46-53,-6 9,1 0,1 1,0 0,2 1,0 1,-12 34,21-48,-1 0,1 0,1 0,-1 1,1-1,1 0,0 0,0 1,0-1,1 0,0 0,1 1,0-1,0 0,1-1,0 1,0 0,1-1,0 0,0 1,1-1,7 9,-7-12,-1-1,1 0,0 0,0 0,0 0,0-1,1 0,-1 0,1 0,-1-1,1 0,-1 0,1 0,0-1,0 1,-1-2,1 1,0 0,7-3,14-1,0-1,41-14,-54 14,0 0,0-1,-1 0,1-1,-1-1,-1 0,1 0,-2-1,1-1,19-22,-23 22,0 0,-1-1,-1 0,0 0,0-1,-1 0,0 0,-1 0,-1-1,0 1,0-1,0-25,-2 35,0-15,0 0,-1 0,-1 0,-5-29,5 43,0 1,0-1,0 0,0 0,-1 1,1-1,-1 1,0 0,0-1,0 1,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,-4 0,-12-2,-1 1,-1 1,1 1,0 1,-36 5,52-5,0 0,-1 1,1-1,0 1,0 0,0 0,0 1,0 0,1 0,-1 0,1 0,0 0,0 1,0 0,0 0,1 0,-1 0,1 1,0-1,0 1,1 0,-1 0,1 0,0 0,1 0,-1 0,0 7,-3 68,7-44</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7130.26">14844 1693,'-6'3,"0"1,0-1,1 1,-1 0,1 1,0-1,1 1,-1 0,-5 8,7-10,-9 12,0 1,1 0,1 1,1-1,0 2,1 0,1 0,1 0,0 1,2-1,0 1,1 1,1-1,0 0,2 1,0-1,6 38,-5-52,0 0,1-1,-1 1,1 0,0-1,0 1,1-1,-1 1,1-1,0 0,0 0,1 0,-1-1,1 1,-1-1,1 0,0 0,1 0,-1 0,0-1,1 0,-1 0,10 3,10 2,0-1,0-1,44 2,-21-2,51 12,53 7,-148-24,0 1,-1-1,1 0,0 0,-1 1,1-2,-1 1,1 0,0 0,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,2-2,-2-1,0-1,-1 1,1 0,-1 0,0-1,0 1,-1-1,0 1,0-1,0 1,-2-8,0-55,1 34,-1 0,-8-42,8 67,0 1,0-1,-1 1,0 0,0 0,-1 0,0 0,-1 0,0 1,0 0,0 0,-1 0,-11-9,11 11,-1 1,0 0,-1 0,1 1,-1 0,1 0,-1 1,0 0,-10-2,-81-6,49 6,-223-35,228 32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11154.08">1 4075,'8'-3,"1"0,0 1,0-1,0 2,0-1,0 1,0 1,12 0,10-1,858-12,-586 14,90-1,1049 36,1358 82,1177-107,-2251-16,1406 5,-3033 0,1-5,-1-4,144-32,-189 26,54-22,-79 26,-17 7,1 1,-1 0,1 0,-1 2,22-1,-13 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12364.72">16141 0,'-1'288,"17"1478,18-822,37-8,-62-847,-5 154,-4-239,0 1,0-1,0 1,-1-1,0 0,0 1,0-1,0 1,0-1,-1 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,0-1,1 0,-1 0,-1 0,1 0,0 0,0-1,0 0,-1 0,1 0,-1 0,1-1,-1 1,-5-2,-651-25,480 12,26 3,-737-31,864 42,11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12979.72">16405 2725,'-54'41,"-67"49,-72 49,-79 52,-79 55,-34 27,-15 12,30-16,42-31,62-51,68-44,64-47,53-34,42-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13607.39">16855 3201,'-9'0,"-39"23,-52 34,-54 43,-59 42,-47 31,-48 37,-33 22,-23 18,7-4,-41 21,21-17,66-43,86-52,80-52</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">253 136,'-1'48,"0"4,12 104,-8-139,0-1,1 0,1 0,1-1,0 1,1-1,0 0,1-1,1 0,15 20,-17-28,-1 0,1-1,0 0,0 0,0 0,0-1,1 0,0-1,0 0,0 0,0-1,1 0,13 2,0-1,1-1,-1-1,45-3,-63 1,0 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0-1,2-3,6-12,-1-1,9-25,-7 17,11-34,21-91,-30 98,2 1,34-79,-48 132,-1-1,1 1,-1 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,-1 0,2 0,-1 0,0 0,0 0,0 0,0 0,1 0,0 0,-1 1,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 1,8 63,-5 505,-7-275,2-253,-2 0,-2 0,-2-1,-2 0,-1 0,-3-1,-1 0,-1-1,-3-1,-33 52,45-78,-1-1,0 0,-1-1,0 0,-1 0,0-1,-1 0,0-1,0 0,0 0,-23 9,16-10,-2 0,1-2,0 0,-1-1,0-2,0 0,-28 0,-2-2,-96-1,124 0,1-1,0-2,0 0,-34-12,50 14,0-1,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,1 0,0 0,-1-1,1 1,1-1,-1 1,1-1,0 0,0 0,0 0,1-1,0 1,0 0,0 0,0-11,0 4,1 1,0-1,1 1,0 0,1-1,0 1,1 0,0 0,0 1,10-19,-6 18,0 0,1 0,0 1,1 1,12-11,11-7</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16845,7 +17542,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.295"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.296"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -16854,7 +17551,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">253 136,'-1'48,"0"4,12 104,-8-139,0-1,1 0,1 0,1-1,0 1,1-1,0 0,1-1,1 0,15 20,-17-28,-1 0,1-1,0 0,0 0,0 0,0-1,1 0,0-1,0 0,0 0,0-1,1 0,13 2,0-1,1-1,-1-1,45-3,-63 1,0 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0-1,2-3,6-12,-1-1,9-25,-7 17,11-34,21-91,-30 98,2 1,34-79,-48 132,-1-1,1 1,-1 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,-1 0,2 0,-1 0,0 0,0 0,0 0,0 0,1 0,0 0,-1 1,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 1,8 63,-5 505,-7-275,2-253,-2 0,-2 0,-2-1,-2 0,-1 0,-3-1,-1 0,-1-1,-3-1,-33 52,45-78,-1-1,0 0,-1-1,0 0,-1 0,0-1,-1 0,0-1,0 0,0 0,-23 9,16-10,-2 0,1-2,0 0,-1-1,0-2,0 0,-28 0,-2-2,-96-1,124 0,1-1,0-2,0 0,-34-12,50 14,0-1,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,1 0,0 0,-1-1,1 1,1-1,-1 1,1-1,0 0,0 0,0 0,1-1,0 1,0 0,0 0,0-11,0 4,1 1,0-1,1 1,0 0,1-1,0 1,1 0,0 0,0 1,10-19,-6 18,0 0,1 0,0 1,1 1,12-11,11-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 0,'13'5,"9"1,10 4,13 1,8-2,4-3,-4-1,-1-3,-6-1,-10 4,-2 1,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 397,'0'5,"9"1,20-1,16 0,7-2,6-1,-4-1,-6 0,-7-1,-6-1,1 1,2 0,4 0,0 0,1-1,-2 1,-3 0,-9 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16872,7 +17570,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.296"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.298"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -16881,8 +17579,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 0,'13'5,"9"1,10 4,13 1,8-2,4-3,-4-1,-1-3,-6-1,-10 4,-2 1,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 397,'0'5,"9"1,20-1,16 0,7-2,6-1,-4-1,-6 0,-7-1,-6-1,1 1,2 0,4 0,0 0,1-1,-2 1,-3 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">696 111,'-18'-2,"1"0,0-2,-1 0,2-1,-1-1,1 0,-27-15,-35-13,58 28,0 0,-1 2,0 0,0 1,0 1,0 1,0 1,-38 5,48-4,0 1,0 1,0 0,1 0,-1 1,1 0,0 1,0 0,1 1,-1 0,1 0,0 1,1 0,0 1,0 0,0 0,1 1,-6 10,6-7,0 1,2 1,-1-1,2 1,0 0,0 0,1 1,-1 27,2 10,6 61,-1-20,-4-41,-1-34,1-1,1 1,1 0,0-1,7 31,-6-44,0-1,-1 0,2 0,-1 0,0 0,1-1,-1 1,1 0,0-1,-1 0,1 0,0 0,1 0,-1 0,0 0,1-1,-1 0,0 0,1 0,0 0,5 1,11 1,1 0,30 0,-40-3,27 1,2 2,0-2,0-2,-1-2,59-11,-86 10,1 0,-2-2,1 1,-1-2,14-8,-13 7,17-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16900,7 +17597,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.298"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.299"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -16909,7 +17606,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">696 111,'-18'-2,"1"0,0-2,-1 0,2-1,-1-1,1 0,-27-15,-35-13,58 28,0 0,-1 2,0 0,0 1,0 1,0 1,0 1,-38 5,48-4,0 1,0 1,0 0,1 0,-1 1,1 0,0 1,0 0,1 1,-1 0,1 0,0 1,1 0,0 1,0 0,0 0,1 1,-6 10,6-7,0 1,2 1,-1-1,2 1,0 0,0 0,1 1,-1 27,2 10,6 61,-1-20,-4-41,-1-34,1-1,1 1,1 0,0-1,7 31,-6-44,0-1,-1 0,2 0,-1 0,0 0,1-1,-1 1,1 0,0-1,-1 0,1 0,0 0,1 0,-1 0,0 0,1-1,-1 0,0 0,1 0,0 0,5 1,11 1,1 0,30 0,-40-3,27 1,2 2,0-2,0-2,-1-2,59-11,-86 10,1 0,-2-2,1 1,-1-2,14-8,-13 7,17-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">239 0,'5'133,"30"164,5 99,-41-105,0-270</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 740,'0'-4,"9"-2,7 1,15 0,6 2,11 1,6 1,-2 0,-5 1,-2 0,-3 1,-1-1,-2 0,1 0,-2 0,2 0,-7 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16927,7 +17625,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.299"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.301"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -16936,8 +17634,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">239 0,'5'133,"30"164,5 99,-41-105,0-270</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 740,'0'-4,"9"-2,7 1,15 0,6 2,11 1,6 1,-2 0,-5 1,-2 0,-3 1,-1-1,-2 0,1 0,-2 0,2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">365 1835,'131'2,"146"-4,-272 1,-1 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,-1-1,2 1,-2-1,0 1,0-1,0 0,0 0,0 1,1-2,1-4,3-4,-1-2,0 1,-2 0,6-20,-3 14,-4 5,0 0,0 0,-1-1,-1 1,-1 0,0-1,-1 1,0 0,-1-1,-5-20,4 28,0 1,0-1,-1 0,0 0,-1 2,1-2,-1 1,0 1,0-1,-1 0,-1 1,1 0,0 0,0 0,-1 1,-1-1,1 2,0-1,-2 1,2 0,-1 0,0 0,-9-2,-13 1,0-1,-1 2,1 1,-1 2,-50 4,-6 0,67-3,1 0,-2 1,1 0,0 2,2 1,-2 0,1 1,0 0,1 1,0 2,-22 12,21-9,-1 1,1 2,1-1,1 1,0 2,1-1,1 1,-22 37,25-35,2 0,0 0,2 1,0 0,2 1,0-1,-2 34,3 13,7 69,0-30,-4-97,1 0,0 1,1-2,0 2,1-1,0 0,1 0,0 0,0 0,0-1,1 1,1-1,1 0,-1 0,12 14,12 9,58 48,-72-68,0 0,1-1,0-2,0 1,1-2,33 13,-16-12,2 0,-1-2,2-1,-2-2,74-1,531-4,-616 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">2709 747,'0'1,"0"0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,2-1,-1 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 1,1-1,38 5,-36-4,375 3,-208-7,976 3,-1122 2,-1 1,0 0,0 2,25 7,53 9,-2-9,99 15,-45 0,-128-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">3839 1101,'1'-1,"0"-2,0 0,1 1,-1-1,1 1,1 0,-1-1,0 1,0 1,0-1,0 0,1 1,-1-1,1 0,-1 1,2 0,-2-1,1 1,0 0,0 0,0 1,-1-1,1 0,0 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,6 1,-3 1,0-1,0 1,0 0,-1 0,1 0,-1 1,1 0,-1 0,-1 1,1-2,-1 2,1 0,-1 0,4 8,-4-6,-1 0,2-1,-2 2,-1-1,0 0,0 1,0 0,-1-1,0 1,0 0,-1-1,0 1,-1-1,0 1,0 0,-1-2,1 2,-2 0,1-1,-1 0,-1 0,0 0,0 0,-7 8,4-7,0 0,1-2,-2 1,0 0,0-1,0-1,-2 1,2-1,-2 0,1-2,0 1,-2 0,2-1,-2 0,1-1,0 0,-1 0,1-1,-11-1,16 0,-1 0,2 0,-1-1,1 0,-1 0,1-1,-1 0,0 1,1-1,0-1,0 1,0 0,-7-6,9 7,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,-1 1,2-1,-1 2,1-2,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 1,1 0,-1-1,2 1,-1-1,0 1,-1-1,1 1,0-1,0 1,0-1,1 1,1-2,1 1,1-1,1 0,-2 0,1 0,0 1,0 0,2 0,-2 1,0-1,1 1,0 1,0-1,-1 1,9 0,82 4,-39 7,-33-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">4391 1203,'0'456,"0"-434</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10">4171 1455,'4'0,"6"0,8 0,3 0,4 0,3 0,0 0,0 0,1 0,5-3,0-3,1 1,-3 0,-1-2,-2-1,1 1,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11">5108 1228,'-1'-1,"1"0,-1 0,1 0,-1 0,0 0,1 0,-1 0,-1 0,2 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1 0,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,-2 0,-43-5,42 5,-20-2,12 1,1 0,-2 1,2 0,-1 1,-14 2,23-3,0 1,0 0,0 1,-1-1,1 0,0 0,0 0,1 1,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,0 0,0 1,1-1,-1 1,1 0,0 0,-1 3,-4 11,0-1,1 1,1 0,1 1,1-1,0 1,2-1,2 29,-2-43,1 0,0 0,0-1,0 1,0-1,0 0,0 1,0-1,1 1,0-1,-1 0,1 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,1 1,0-1,-1 0,2 0,-2 0,1 0,0-1,0 1,-1-1,1 0,0 1,0-1,1-1,-2 1,1 0,0-1,0 1,2-2,4 0,-1 0,0 0,0-1,0 0,-1 1,2-2,-2 0,-1 0,1-1,1 1,-2-1,8-8,-7 4,-1-1,1 1,-1-2,0 1,-2-1,1 0,5-20,3-9,-13 38,0 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0-1,0 1,1 0,-1 0,3-1,-4 3,1-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,2 0,-2 3,9 73,-8 254,-3-161,2-147</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12">6128 190,'0'1,"0"-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,2 0,-2 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,11 18,-4 3,-1-1,-1 2,-2 0,0-1,-1 22,2 7,16 138,22 443,-47-677,-3 1,-1 0,-23-66,27 104,2 1,-1 2,-1-2,1 0,-1 2,-1-1,0 0,1 1,-1 0,-1 0,0 0,1 1,-1 0,-1 0,1 1,0 0,-1 0,0 0,-11-2,-4 0,0 1,0 0,1 2,-1 0,-43 3,60 0,0 0,0 0,0 0,1 0,-2 1,2 0,-1 0,1 0,0 1,-1 0,1 0,0 0,1 1,-1 0,0-1,1 1,0 0,0 1,1-1,0 0,-2 1,3 0,-1 0,1 0,-1 0,1 1,1-1,-2 9,-2 5,1 0,1 1,2 0,0-1,1 1,6 37,-6-52,2 0,-1 0,0-1,1 1,-1-1,1 1,0 0,1-2,-1 1,1 1,-1-1,1 0,2-1,-2 1,1-1,-1 1,1-1,0 0,1 0,-1-1,1 0,-1 1,1-1,-1 0,2 0,-1-1,10 3,8-1,3-1,-3 0,2-2,45-3,-8 0,-54 3,2 0,-2-1,0 0,1 0,0-1,-1 0,1 0,-1-1,-1 0,2 0,8-5,-13 5,2-1,-2 0,1 1,-1-2,0 1,0-1,0 0,-1 1,0-1,0 0,-1 0,1-1,-1 2,0-2,0 0,1-8,2-16,-3 4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16955,7 +17658,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:27:50.301"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:28:37.194"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -16964,13 +17667,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">350 1910,'126'2,"140"-4,-262 1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 1,0-1,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,0 0,0-1,2-4,3-5,-1-1,-1 0,-1 0,6-20,-4 14,-3 5,0 1,0-1,-1 0,-1 0,-1 0,0 0,-1 0,0 0,-1 0,-5-22,4 30,0 0,0 0,-1 0,0 0,0 1,0-1,-1 1,0 0,0 0,-1 0,0 1,0-1,0 1,0 0,-1 1,0-1,0 1,0 0,-1 1,1 0,-1 0,0 0,-8-2,-13 0,0 0,0 2,0 1,-1 2,-48 4,-5 0,64-3,0 0,-1 1,1 1,0 1,1 1,-1 0,1 1,0 1,0 0,1 2,-21 13,19-9,0 1,1 1,0 0,2 1,0 1,0 0,2 1,-22 38,25-36,1 0,1 0,1 1,0 0,2 1,1-1,-3 35,3 14,7 72,0-31,-4-102,1 1,0 0,1-1,0 1,1 0,0-1,0 0,1 1,0-1,0 0,1 0,1-1,0 1,0-1,12 15,10 9,57 51,-70-71,1-1,0-1,0-1,1 0,0-1,32 12,-15-11,1-1,0-1,1-2,-1-2,70-1,510-4,-591 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">2599 772,'0'1,"0"1,1-1,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 1,1-1,36 5,-34-4,359 4,-199-8,937 3,-1077 2,-1 1,0 0,0 2,24 8,50 9,-1-10,95 16,-43 1,-123-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">3683 1143,'1'-2,"0"-1,0 0,1 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,0 0,0 0,0 1,-1-1,1 0,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,5 1,-2 1,0-1,-1 1,1 0,-1 0,1 1,-1 0,0 0,0 0,-1 1,1-1,-1 1,0 0,0 0,4 9,-4-7,-1 0,1 0,-1 1,-1-1,0 1,0 0,0 0,-1 0,0 0,0 0,-1 0,0 0,-1 0,0 0,0 0,-1-1,1 1,-2 0,1 0,-1-1,0 0,-1 1,0-1,-7 9,5-8,-1 0,1-1,-2 0,1 0,-1-1,0 0,-1 0,1-1,-1 0,0-1,0 0,-1 0,1-1,-1 0,0-1,0 0,0 0,0-1,-10 0,15-1,0-1,1 1,-1-1,1 0,-1 0,1-1,0 0,-1 1,1-1,0-1,0 1,0 0,-6-7,8 8,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 1,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,1 1,1-2,1 0,1 0,0 0,-1 0,1 0,0 1,0 0,1 0,-1 1,0-1,1 1,-1 0,1 0,-1 1,8 0,80 5,-39 6,-31-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">4212 1249,'0'477,"0"-454</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10">4001 1513,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,0 0,1 0,4-4,1-2,0 1,-2 0,-1-3,-2 0,0 1,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11">4900 1275,'-1'-1,"1"0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 0,1-1,0 1,-2 0,-41-5,40 5,-19-2,12 1,0 0,-1 1,1 0,0 1,-14 2,22-3,0 1,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,1 0,0 0,-1 3,-4 12,1-1,0 1,1 0,1 0,1 0,0 1,2-1,2 30,-2-45,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,1 1,0-1,-1 0,1 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 1,0-1,0-1,-1 1,1 0,0-1,0 1,2-2,3 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 0,-1 0,1-1,0 0,-1 0,7-8,-6 3,-1 0,1 0,-2-1,1 0,-2 0,1-1,4-20,4-10,-13 40,0 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,3-1,-4 3,1-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 3,9 76,-8 266,-3-168,2-154</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12">5879 190,'0'1,"0"-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,11 19,-4 3,-2-1,0 1,-2 1,0-1,-1 23,2 8,15 143,21 464,-45-708,-2 0,-2 1,-22-69,27 109,1 1,-1 1,-1-1,1 0,-1 1,0 0,-1 0,1 1,-1-1,0 1,-1 0,1 1,-1 0,0 0,0 0,0 1,0 0,-1 0,-10-2,-4-1,0 2,0 0,0 2,0 0,-41 3,57 0,1 0,-1 0,0 0,1 0,-1 1,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,0 1,-1 0,2 0,-1 0,1 1,-1-1,1 1,1-1,-2 10,-2 5,2 0,0 0,2 1,0-1,1 1,6 39,-6-55,1 0,0 0,0 0,1 0,-1-1,1 1,0 0,1-1,-1 0,1 1,-1-1,1 0,1 0,-1 0,1-1,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0-1,9 3,9-1,1 0,-1-1,1-2,43-4,-8 1,-51 3,1 0,-1-1,0 0,0 0,1-1,-1 0,0 0,0-1,-1 0,1 0,9-6,-13 6,1-1,-1 0,1 0,-1-1,0 1,-1-1,1 0,-1 0,0 0,0 0,-1 0,1-1,-1 1,0-1,-1 0,2-9,2-16,-3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 160,'15'-15,"2"-2,0 0,2 2,-1 0,2 1,0 1,42-20,-53 29,0 1,0 0,0 0,1 1,-1 0,1 0,0 1,0 1,-1 0,1 0,0 0,0 2,-1-1,1 1,-1 0,1 1,-1 0,0 1,16 8,37 21,85 31,-60-28,-76-32,-1 0,1 0,0-1,0 0,0-1,0-1,12 1,-20-1,-1-1,0 0,1 0,-1-1,0 1,1 0,-1-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 1,0-1,0 0,1-1,-1 1,-1 0,1 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,0 0,-1-5,1 3,-1-1,0 1,0 0,0-1,0 1,-1 0,1 0,-1 0,0 0,-1 0,-3-5,-12-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1722.28">450 1,'-3'46,"-8"55,5-64,2-1,1 73,4-101,0-1,0 0,1 0,0 0,0 0,1 0,0 0,0 0,0-1,1 1,0-1,0 0,1 0,-1-1,2 1,-1-1,0 0,1 0,0-1,0 0,0 0,1 0,13 5,0-4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16988,7 +17686,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:28:37.194"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:28:42.121"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -16997,8 +17695,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 160,'15'-15,"2"-2,0 0,2 2,-1 0,2 1,0 1,42-20,-53 29,0 1,0 0,0 0,1 1,-1 0,1 0,0 1,0 1,-1 0,1 0,0 0,0 2,-1-1,1 1,-1 0,1 1,-1 0,0 1,16 8,37 21,85 31,-60-28,-76-32,-1 0,1 0,0-1,0 0,0-1,0-1,12 1,-20-1,-1-1,0 0,1 0,-1-1,0 1,1 0,-1-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 1,0-1,0 0,1-1,-1 1,-1 0,1 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,0 0,-1-5,1 3,-1-1,0 1,0 0,0-1,0 1,-1 0,1 0,-1 0,0 0,-1 0,-3-5,-12-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1722.28">450 1,'-3'46,"-8"55,5-64,2-1,1 73,4-101,0-1,0 0,1 0,0 0,0 0,1 0,0 0,0 0,0-1,1 1,0-1,0 0,1 0,-1-1,2 1,-1-1,0 0,1 0,0-1,0 0,0 0,1 0,13 5,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 127,'0'-5,"1"0,1-1,-1 1,1 0,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1 1,0-1,7-3,-4 2,0 0,0 1,0 0,1 0,-1 0,1 1,0 1,-1 0,1 0,0 0,0 1,0 0,13 3,-7 3,1 1,-2 1,1 1,-1 0,0 0,-1 1,19 20,-4-7,-13-11,6 7,1-1,1-1,1-1,1-1,32 15,-10-13,86 21,-98-30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1215.08">372 127,'-3'1,"0"0,1-1,-1 1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 1,-1 1,-30 43,26-37,-5 8,2 1,0 1,1 0,0 0,2 0,1 1,0 0,2 1,0-1,2 1,0 0,1 0,3 25,-2-38,0 0,0 0,2 0,-1 0,5 17,-4-22,0 0,0 0,1-1,-1 1,1-1,0 1,-1-1,2 0,-1 0,0 0,0-1,1 1,0-1,6 3,19 9,-2-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17016,7 +17714,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:28:42.121"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:28:44.923"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17025,8 +17723,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 127,'0'-5,"1"0,1-1,-1 1,1 0,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1 1,0-1,7-3,-4 2,0 0,0 1,0 0,1 0,-1 0,1 1,0 1,-1 0,1 0,0 0,0 1,0 0,13 3,-7 3,1 1,-2 1,1 1,-1 0,0 0,-1 1,19 20,-4-7,-13-11,6 7,1-1,1-1,1-1,1-1,32 15,-10-13,86 21,-98-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1215.08">372 127,'-3'1,"0"0,1-1,-1 1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 1,-1 1,-30 43,26-37,-5 8,2 1,0 1,1 0,0 0,2 0,1 1,0 0,2 1,0-1,2 1,0 0,1 0,3 25,-2-38,0 0,0 0,2 0,-1 0,5 17,-4-22,0 0,0 0,1-1,-1 1,1-1,0 1,-1-1,2 0,-1 0,0 0,0-1,1 1,0-1,6 3,19 9,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">74 110,'-5'0,"1"0,-1 0,1-1,0 1,0-1,-1 0,1-1,0 1,0-1,0 0,0 0,-4-3,7 4,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,1 0,-1 1,0-1,0 1,1-1,-1 0,1 1,0-1,-1 1,1 0,0-1,0 1,2-3,-1 1,0 0,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 1,6 1,10 1,0 2,-1 0,32 14,-30-11,31 13,-31-12,0-1,1 0,0-2,0 0,0-2,29 3,44-6,-53-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1313.25">286 30,'-4'6,"0"0,1-1,0 1,1 0,-1 0,1 1,0-1,-2 12,-4 14,-8 10,-46 140,56-157,0 1,2 0,1 0,1 0,2 34,0-56,0 0,1 0,0 0,0 0,0-1,1 1,-1 0,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,1-1,0 1,-1 0,1-1,0 0,5 2,11 1,0 0,1-1,-1-1,27-1,-37-1,13 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17044,7 +17742,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:28:44.923"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:29:43.702"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17053,8 +17751,28 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">74 110,'-5'0,"1"0,-1 0,1-1,0 1,0-1,-1 0,1-1,0 1,0-1,0 0,0 0,-4-3,7 4,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,1 0,-1 1,0-1,0 1,1-1,-1 0,1 1,0-1,-1 1,1 0,0-1,0 1,2-3,-1 1,0 0,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 1,6 1,10 1,0 2,-1 0,32 14,-30-11,31 13,-31-12,0-1,1 0,0-2,0 0,0-2,29 3,44-6,-53-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1313.25">286 30,'-4'6,"0"0,1-1,0 1,1 0,-1 0,1 1,0-1,-2 12,-4 14,-8 10,-46 140,56-157,0 1,2 0,1 0,1 0,2 34,0-56,0 0,1 0,0 0,0 0,0-1,1 1,-1 0,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,1-1,0 1,-1 0,1-1,0 0,5 2,11 1,0 0,1-1,-1-1,27-1,-37-1,13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1516,'6'0,"2"-1,-1-1,0 1,-1-1,2-1,-2 2,0-2,1 0,0 0,-1-1,10-7,64-53,-67 53,105-113,-117 123,0 0,-1 0,1 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1-1,1 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,3 1,-2 0,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 1,0-1,2 1,-2-1,0 3,0 68,0-64,-13 107,-41 167,-54 111,72-274,25-77,3-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="584">1021 1618,'9'0,"13"0,11 0,15 0,9 0,-1 0,-1 0,-5 0,-6 0,-6 0,-4 0,-5 0,-1 0,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1132.99">1049 2050,'4'0,"21"0,29 0,24 0,18 0,-2 0,-4 0,-13 0,-10 0,-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2536.99">3529 1644,'-117'-1,"-123"3,230-1,2 1,-1 0,0 0,1 0,0 1,-1 1,1-1,0 2,-11 6,-65 52,56-41,9-8,1 3,0-2,2 2,0 1,0 0,3 1,-1 0,2 1,0 1,2-1,1 1,0 1,2-1,1 1,0 1,1 0,2 0,0 29,3-47,-1 17,1 0,2 1,0-1,7 30,-6-45,-1 0,1 0,0-1,0 1,0-1,1 1,0-2,2 1,-2 0,1 0,0-1,2-1,-2 1,1 0,0 0,0-1,13 5,10 3,1-2,-1 0,1-1,0-3,0 0,2-1,-1-2,61 0,-56-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3135">4825 1415,'0'17,"0"24,0 34,0 30,0 76,0 37,0 3,-5-18,-7-18,1-33,-5-28,2-31,2-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3686.63">4467 2203,'9'0,"8"0,10 0,10 5,4 1,-2-1,-1-1,1-1,0-1,7-1,4 0,-1-1,-4-1,-6 1,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5036.92">5679 2406,'31'0,"0"-2,1-1,-1-2,58-14,56-15,45-12,-148 34,-12 3,0 0,52-25,-74 30,-1 0,0-1,0 1,1-1,-2 0,0-1,1 0,-2 1,1-2,-2 1,1 0,1-1,-2-1,-1 1,4-8,-2 1,6-12,-3-1,9-38,-16 57,0 0,-1-1,1 2,-2-2,1 1,-1 1,0-2,-1 1,0 1,0-1,-2 0,-6-14,8 18,-1 1,0 1,0-2,-1 1,1 1,-1-1,1 0,-1 1,0-1,-1 1,1 0,0 2,0-2,0 1,0-1,-2 1,2 0,0 1,-9-1,-10 0,-1 0,-37 5,29-1,0 1,0 1,1 3,0 0,0 1,0 2,1 0,1 3,1-1,0 3,1 0,-48 39,11 1,4 5,-59 72,109-119,1-1,1 2,0-1,0 2,2-1,1 0,0 1,1 0,0 0,1 1,1-2,1 1,1 2,0-2,2 0,-1 0,2 0,1 0,8 23,-4-17,2 0,-1-1,3 0,0 1,2-2,-1-1,3 0,-1-1,2 0,1-1,1-1,38 28,-38-35,0 0,1-1,0-1,1 0,0-1,-1-1,33 2,17 7,-8-1,0-2,1-4,90 2,-109-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5859.24">6754 1873,'4'0,"7"0,16 0,15 0,8 0,8 0,4 0,-5 0,-6 0,-7 0,-7 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7883.27">8049 703,'1'-38,"1"27,-1 1,-1 0,0-1,0 1,-1-1,0 1,-1 0,0-1,-1 2,-1-2,-4-8,7 17,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-2 0,2 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,-3 0,2 1,-1 0,1 0,0 0,0 1,0-1,0 1,-1-1,2 1,-1-1,0 1,1 0,-4 4,-4 4,2-1,-1 2,1-1,1 1,-10 16,3 11,0 1,3 0,0 1,4-1,1 1,2 1,2-1,2 0,7 56,-4-80,0 0,1 0,2 0,0-1,9 18,-5-15,-3 0,12 38,-5 11,4 7,-4 0,7 138,-25 228,5-435,-1 0,0-1,-1 1,1 0,-1 0,0 0,0-1,-1 0,0 1,0 0,0-1,-3 5,3-7,0 0,-1 1,0-1,1 0,-1 0,1 0,-1-1,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 0,0 1,-1-1,-3 0,-6-1,-1 0,0-1,2 0,-2 0,2-2,-1 0,-23-11,-86-46,93 45,0 0,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9321">8352 2177,'-9'1,"2"0,0 1,0 0,-1 0,1 0,0 1,-1 0,2-1,-1 2,1 0,-1 0,1 0,-11 9,4-1,0 0,1 1,1 0,-18 23,23-26,1 1,0-1,0 1,0 0,1-1,1 2,1-1,0 1,0-1,0 23,2-27,1-2,-1 2,1-1,1 1,-1-2,1 2,0-1,0 0,1-1,0 1,1 0,-1 0,1-1,0-1,0 2,0-1,2-1,-2 1,1-2,1 2,5 2,-3-2,-1-1,2 0,-1-1,0 1,1-1,-1-1,1 1,15 1,-22-4,1 1,1-1,-2 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1-1,0 1,-1 0,0-1,1 1,-1-1,0 1,0-1,0 0,0 0,-1 1,2-1,-2 0,1-1,-1 1,1 0,-1-1,0 1,0-1,1-3,16-43,-3 8,-1-1,-2 1,7-55,-17 68</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15294.12">10391 1161,'-97'1,"35"1,-114-9,168 6,-1 0,2-1,-1 0,0 0,0 0,1-1,-1 0,1-1,0 1,0-1,0 0,0 0,1-1,0 0,-10-10,11 7,-1 1,2 0,0-2,0 2,0-1,1-1,1 2,-2-2,3 0,-1 1,1-1,0 0,1-12,0 4,1 0,1-1,2 1,-1 0,2 0,0-1,0 2,3 0,-1-1,1 2,15-21,-17 27,2-1,0 0,0 2,1 0,0-1,0 2,1-1,0 1,1 2,-1-2,1 1,1 1,-1 0,1 2,-1-1,2 0,-1 1,13-1,11 0,0 2,0 1,58 5,-75-1,0 0,0 0,-2 2,2 1,-1-1,0 2,-1 0,25 15,0 1,-1-2,3-2,0-1,2-2,-2-3,3 0,71 9,-6-9,1-4,119-4,-194-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16369.56">10778 830,'0'1,"1"-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,0 0,1 1,9 27,-9-22,6 20,-2 0,-2 0,2 41,-4-41,1 0,1 0,11 44,19 1,-26-61,-1 2,-1-1,1 0,-1 1,-2 0,5 25,-5-15,-1 0,-1 0,-2 0,-2 0,-5 33,2-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17121.27">9564 1567,'362'3,"504"-11,-500-18,-100 6,-226 17,202-19,-226 19,0-2,0 1,17-8,11-4,-21 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19630.84">10006 1999,'0'-8,"0"-1,1 0,0 1,0-1,1 1,1-1,-1 1,1 0,2 0,-1-1,0 2,0-1,1 0,1 1,0 1,0-1,0 0,1 1,0 0,0 0,0 1,2-1,-2 3,1-2,1 1,-1 0,1 0,0 1,0 0,1 2,-1-1,0 0,1 1,15 0,10-2,2 3,-2 0,0 3,2 1,-3 0,2 3,-1 1,-2 1,2 1,40 20,-26-9,-27-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20769.71">10419 1847,'-1'1,"0"-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 0,1 1,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 1,-6 28,6-27,-6 50,6 100,2-113,0-2,-4 0,0 2,-3-2,-13 51,7-58</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23728.83">10915 1822,'0'-2,"0"0,1 0,0 0,0 0,-1 0,1 1,1-1,-1 0,1 0,-1 0,0 2,0-2,1 1,-1-1,1 1,0-1,-1 1,1 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,2 0,59-11,-47 11,-1-1,-1 2,1 0,0 0,0 1,17 4,-27-4,-1 0,0 0,0 1,0-1,0 1,1 1,-2-1,1 0,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 1,-1 0,0-1,0 1,0-1,-1 1,1 0,-1 0,2 6,1 5,-1-2,-1 2,-1-1,0 1,-1-2,0 1,-2 1,1-1,-2 0,-6 16,7-27,0 0,-1 0,1 0,-1-1,0 1,0-1,-1 1,1-1,0-1,0 1,-1 0,1-1,-1 1,0-1,0 0,0 0,1 0,-1 0,0-1,-1 0,1 1,1-1,-5-1,0 1,-1 0,2-1,-1 1,-1-1,2-1,-1 0,0 0,0 0,1 0,-11-6,17 7,1 1,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,-2 1,2-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1-1,1 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,3-1,63-6,-35 7,-1 0,-1 3,61 11,-68-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24503.54">11852 1822,'-29'542,"26"-532,0 1,0-1,0 1,-1-1,0 0,-1 0,-10 14,-12 26,19-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25039.53">11522 2279,'9'0,"8"-4,10-2,6 2,1-1,1 2,-3 1,-1 1,-1 0,0 1,6 0,33 5,7 1,-3-1,-11 4,-15 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26365.23">12431 1924,'-7'0,"0"1,0-1,1 2,0-1,-1 1,0 0,1 0,1 1,-2 0,1 0,1 0,-1 0,0 1,1 0,0 0,0 0,1 1,-8 7,6-4,0 0,0 0,1 1,0-1,1 1,0 0,0 0,0 1,2-1,-1 0,0 11,2-9,0 1,0-2,2 2,-1-2,4 19,-3-26,-1-1,1 1,0 0,1-2,-1 2,0-1,2 1,-2-1,1 0,0 1,-1-1,1 0,1 0,-1 0,0-1,0 0,1 1,-1-1,1 1,0-1,0 0,-1 0,1 0,0 0,-1-1,1 1,7 0,-1 0,0-1,2 0,-2 0,1-1,-1 0,1-1,0 0,-1 0,1-1,-2 1,1-2,1 0,-2 0,0 0,13-9,-16 9,-1 0,2 0,-2 0,0 0,0 0,0-1,-1 0,2 0,-2 0,-1 1,1-2,-1 1,0-1,0 1,0 0,-1-1,0 0,0 0,0 1,-1-1,0 0,0 0,-1 1,1-1,-3-6,-8-21,4 27,0 22,2 46,4 90,3-83,-2-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27628.02">13561 703,'3'5,"-1"0,1 0,-1 0,1 0,-1 0,0 1,-1-1,0 0,0 1,-1 0,1-1,-1 0,-1 10,2 5,8 660,-12-425,3-231,0-36,0-44,0 51,0-52,-2-88,1 129,-1-1,-1 1,-1 0,-1-1,0 2,-11-23,12 32,0 0,0 1,0 1,-1-2,0 1,-1 1,1-1,0 1,-1 1,0-1,0 0,0 1,0 0,-1 0,0 1,1-1,-1 2,-1 0,2-1,-1 1,0 1,-11-1,-17 0,0 2,1 1,-47 7,56-5,-119 21,128-21,-1 0,2 2,-1-2,1 3,0 0,-25 15,34-17,1 0,0 0,1 1,-2-1,2 1,1 0,-1 0,1 1,0-1,-1 0,2 1,0 0,0 0,0-1,1 1,0 13,-1 13,2-1,6 42,-4-57,-1-9,0 1,0 0,2-1,0 1,-1 0,2-2,-1 2,1-1,0-1,2 1,-1 0,0-1,1 0,11 10,-7-8,1-1,-1-1,2-1,-1 1,1-1,0-1,-1 0,2-1,-1 0,15 3,9 0,1 0,0-1,0-2,1-2,-1-1,1-1,-1-3,72-12,-100 12,-1 1,1-1,-1-1,0 0,0 0,0 0,-1 0,1-2,-2 1,1-1,-1 0,8-8,10-13,31-47,-35 46,-7 10,-1-1,13-27,-10 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28415.05">13836 1465,'7'-13,"16"-29,37-47,-54 79,1 2,2-1,-1 0,0 1,2 0,-1 0,0 1,2 0,-1 1,17-8,-24 13,-1 0,2 0,-2 1,1-1,0 0,-1 1,1 0,0 0,-1 0,1 0,1 0,-1 0,-1 1,1-1,0 1,-1 0,1 0,-1 0,6 2,0 2,1 1,0 0,-2 0,10 9,-10-8,55 53,-1 4,74 104,80 159,-212-322,8 14,1-1,0 0,19 19,-27-32,0-2,0 1,0 0,1-1,0 1,0-1,0 0,0-1,0 1,2-1,-2 0,0 0,1 0,1-1,-2 0,11 1,22-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28943.05">14746 1186,'-14'17,"-19"19,-13 16,-22 17,-18 14,-5-3,10-11,13-12,14-13,15-12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17072,7 +17790,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:29:43.702"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:30:36.015"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17081,28 +17799,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1557,'6'0,"1"-1,0-1,0 1,-1-1,1-1,-1 1,0-1,1 0,-1 0,0-1,9-7,62-56,-64 55,100-117,-112 128,0 0,-1 0,1 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,3 1,-2 0,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 1,0-1,1 1,-1-1,0 3,0 71,0-67,-12 112,-40 173,-52 116,70-285,23-80,4-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="584">980 1663,'9'0,"12"0,11 0,14 0,8 0,0 0,-1 0,-5 0,-6 0,-5 0,-5 0,-4 0,-1 0,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1132.99">1007 2113,'4'0,"20"0,28 0,23 0,17 0,-2 0,-4 0,-12 0,-9 0,-15 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2536.99">3388 1690,'-112'-1,"-119"3,222-1,1 1,-1 0,1 0,0 1,0 0,0 1,0-1,0 2,-10 7,-63 53,55-42,7-8,2 2,0-1,1 2,1 0,0 1,2 1,0 0,1 0,1 2,1-1,1 1,1 1,1-1,1 1,1 1,0-1,2 1,0 31,3-50,-1 18,1 0,2 0,0 0,7 31,-7-46,0-1,1 0,0 0,0 0,0-1,1 1,0-1,1 0,-1 0,1 0,0-1,1 0,-1 0,1 0,0 0,0-1,12 6,10 2,0-1,0-1,1-1,0-2,0-1,1-1,0-2,58 0,-53-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3135">4632 1452,'0'18,"0"24,0 36,0 32,0 78,0 39,0 3,-5-19,-6-19,0-33,-4-30,1-33,3-32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3686.63">4288 2272,'9'0,"7"0,10 0,10 5,3 1,-1-1,-2 0,2-2,-1-1,7-1,4 0,-1-1,-4-1,-5 1,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5036.92">5452 2483,'30'0,"0"-2,0-1,0-2,55-15,55-15,42-13,-142 35,-11 4,0-1,50-25,-72 31,0 0,0-1,0 0,0 0,-1 0,0-1,0 0,-1 0,1-1,-2 1,1-1,0 0,-1-1,-1 1,4-9,-2 1,5-12,-2-1,8-39,-15 58,0 1,-1-1,1 1,-2-1,1 1,-1 0,0-1,-1 1,0 0,0 0,-1 0,-7-15,8 19,-1 1,0 0,0-1,0 1,0 1,-1-1,1 0,-1 1,0-1,0 1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0 1,-9-1,-9 0,-1 0,-35 5,27-1,0 2,1 0,0 3,0 0,0 2,1 1,0 1,1 2,1 0,0 2,1 1,-46 40,11 2,3 4,-56 75,104-123,2-1,0 1,0 0,1 1,1 0,1 0,0 0,1 1,1 0,0 0,1-1,1 1,1 1,0-1,2 0,-1-1,2 1,0 0,9 23,-4-17,1 0,0-1,2 0,1 0,1-1,0-1,2 0,0-1,1-1,1 0,1-1,37 28,-37-35,1-1,0-1,0 0,1-1,0-1,0-1,30 3,18 6,-9 0,1-3,0-3,87 1,-105-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5859.24">6484 1928,'4'0,"6"0,16 0,15 0,7 0,7 0,5 0,-5 0,-6 0,-7 0,-7 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7883.27">7727 711,'1'-40,"1"29,-1 0,-1 1,0-1,0 0,-1 0,0 0,-1 1,0-1,-1 1,0-1,-5-9,7 18,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,-2 0,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,1 0,-4 4,-3 4,1 0,-1 1,2 0,0 0,-9 17,2 12,1 0,2 1,1 0,3 0,1 1,2 0,2 0,2 0,7 57,-4-82,0 0,1-1,1 1,1-1,9 18,-6-15,-2 0,11 39,-4 11,3 8,-4 1,7 142,-23 238,4-453,-1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,-1-1,0 1,0 0,0-1,-3 6,3-8,0 0,0 1,-1-1,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1-1,1 0,0 1,0-1,-4 0,-6-1,0 0,0-1,1-1,-1 1,1-2,0 0,-23-11,-82-49,89 47,0 1,4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9321">8018 2245,'-8'1,"1"0,0 1,0 0,0 0,0 0,0 1,0 0,1 0,-1 1,1 0,0 0,0 0,-10 10,3-2,1 1,0 0,1 1,-16 23,21-26,1 0,0-1,0 2,1-1,0 0,1 1,1 0,0 0,0 0,0 23,2-28,1-1,-1 1,1-1,1 1,-1-1,1 1,0-1,0 0,1 0,0 0,0 0,0 0,1-1,0 0,0 1,0-1,1-1,-1 1,1-1,1 1,4 2,-2-2,-1-1,1 1,0-2,0 1,0-1,0-1,1 1,14 1,-21-4,1 1,0-1,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,0-1,1-4,15-44,-2 9,-2-2,-1 1,6-57,-16 71</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15294.12">9976 1187,'-93'2,"33"0,-109-10,161 7,0 0,1-1,-1 0,1 0,-1 0,1-1,0 0,0-1,0 0,0 0,1 0,-1 0,1-1,0 0,-9-11,10 8,0 0,1 1,0-2,0 1,0 0,1-1,1 1,-1-1,2 0,-1 0,1 0,0 0,1-13,0 4,1 0,1 0,1 0,0 0,2 0,0 0,0 1,2 0,0 0,1 1,14-21,-16 27,1 0,1 0,0 1,0 1,1-1,0 1,0 0,1 1,0 1,0-1,1 1,0 1,0 0,0 1,0 0,1 0,0 1,12-1,10 0,1 1,-1 2,57 6,-73-2,0 0,0 0,-1 2,1 1,-1 0,0 1,0 0,23 16,0 1,0-2,2-2,0-2,2-1,-1-3,2-1,68 10,-5-9,0-5,115-4,-187-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16369.56">10347 843,'0'1,"1"-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 1,8 28,-8-23,6 21,-2 0,-2 0,1 43,-3-43,1 0,1 0,11 46,17 1,-24-63,-1 1,-1 0,0-1,0 2,-2-1,5 27,-5-16,-2 0,0 0,-2 0,-1 0,-6 34,2-41</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17121.27">9182 1610,'347'3,"485"-11,-481-19,-96 6,-216 18,193-20,-217 20,1-2,-1 0,17-7,10-5,-20 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19630.84">9606 2060,'0'-9,"0"0,1 0,0 0,0 0,1 0,1 0,-1 1,1-1,1 1,0-1,0 1,0 0,1 0,0 1,1 0,0 0,0 0,0 0,1 1,0 0,0 1,1-1,-1 2,1-1,0 1,0 0,1 0,-1 1,1 0,0 1,0 0,0 0,0 1,15 0,10-2,1 3,-1 0,0 3,1 1,-2 1,1 2,0 1,-2 1,1 2,39 20,-25-9,-26-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20769.71">10003 1901,'-1'1,"0"-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 1,-6 29,6-28,-5 53,5 103,2-118,-1-1,-2 0,-1 1,-3-1,-12 52,6-59</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23728.83">10479 1875,'0'-2,"0"0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,1 0,-1 0,0 1,0-1,1 1,-1-1,1 1,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,2 0,57-12,-46 12,-1-1,0 2,0 0,1 0,-1 1,17 4,-27-4,0 1,0-1,0 1,0-1,0 1,0 1,-1-1,1 0,-1 1,1 0,-1 0,0 0,0 0,-1 0,1 0,0 1,-1 0,0-1,0 1,0 0,-1 0,1 0,-1 0,2 7,0 4,0-1,-1 1,-1 0,0 0,-1-1,0 1,-2 0,1 0,-2-1,-5 18,6-29,0 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,0 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,0-1,0 0,0 1,1-1,-5-1,0 1,0 0,1-1,-1 1,0-1,1-1,-1 0,1 0,-1 0,1-1,-10-5,16 7,1 1,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1-1,0 1,0 0,1 0,0-1,-1 1,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,2-1,62-6,-35 6,0 2,-1 2,58 11,-65-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24503.54">11378 1875,'-28'564,"26"-553,-1 0,0 0,0 0,-1-1,0 1,-1-1,-9 15,-12 27,18-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25039.53">11061 2351,'9'0,"7"-4,10-2,6 1,1 0,0 2,-2 1,-1 1,-1 0,-1 1,7 0,31 5,7 1,-3 0,-10 3,-15 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26365.23">11934 1981,'-7'1,"1"0,-1-1,1 2,0-1,0 1,-1 0,1 0,1 1,-1 0,0 0,1 0,-1 1,1 0,0 0,0 0,0 0,1 1,-7 8,5-5,0 0,1 1,0 0,0 0,1 0,0 0,0 1,1 0,1-1,-1 1,0 11,2-10,0 1,0-1,2 1,-1-1,4 19,-3-27,-1-1,1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,0 1,-1-1,1 0,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,1-1,0 0,-1 0,1 0,0 0,-1-1,1 1,6 0,0 0,0-1,1 0,-1 0,0-1,0 0,1-1,-1 0,0 0,0-1,-1 0,1-1,0 0,-1 0,0 0,12-10,-15 10,-1 0,1 0,-1 0,0 0,0-1,0 0,-1 0,1 0,-1 0,-1 0,1-1,-1 1,0-1,0 0,0 1,-1-1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-3-6,-8-23,4 29,1 23,1 47,4 94,3-86,-2-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27628.02">13019 711,'3'5,"-1"0,1 0,-1 1,0-1,0 0,0 1,-1 0,0-1,0 1,-1 0,1-1,-1 1,-1 9,2 6,8 687,-12-443,3-240,0-37,0-47,0 54,0-54,-2-92,1 134,-1 0,-1 0,-1 0,0 0,-1 1,-11-24,13 34,-1 0,0 1,0 0,-1-1,0 1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 1,1-1,-1 1,0 1,1-1,-1 1,0 1,-10-1,-16 0,-1 2,1 1,-44 8,53-6,-115 22,124-22,-1 0,1 2,0-1,0 2,1 0,-24 16,32-18,1 0,0 1,1 0,-1-1,1 1,1 1,-1-1,1 1,0-1,0 1,1 0,0 0,0 0,0 0,1 0,0 14,-1 13,2 0,6 43,-4-60,-1-8,0 0,0 0,1 0,1 0,-1 0,2-1,-1 1,1-1,0 0,1 0,0 0,0 0,1-1,10 11,-6-9,0-1,0-1,1 0,0 0,0-1,1-1,-1 1,1-2,0 0,13 3,10 1,1-1,-1-1,1-2,0-2,0-1,0-1,0-3,68-12,-95 12,-1 0,0 0,0-1,0 0,-1 0,1 0,-1-1,0-1,-1 1,1-1,-1 0,7-9,10-13,30-49,-34 48,-6 10,-2-1,13-28,-10 11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28415.05">13283 1504,'7'-14,"15"-29,35-50,-51 83,1 1,1 0,0 0,0 0,1 1,0 0,0 0,1 1,0 1,16-9,-23 14,-1 0,1 0,-1 1,1-1,0 0,-1 1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 1,-1 0,1 0,-1 0,5 2,1 3,1 0,-1 0,-1 0,9 10,-9-9,53 56,-2 3,72 109,76 165,-203-335,8 15,0-1,1 0,17 19,-25-33,0-1,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,1-1,-1 0,0 0,1 0,0-1,-1 0,11 1,20-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28943.05">14157 1213,'-14'18,"-18"20,-12 16,-21 18,-18 14,-4-3,9-11,13-13,13-13,15-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">634 0,'-85'1059,"74"-957,-8 328,17-348,-21 119,-14-52,-2 16,10-11,-72 215,-33 26,112-318,-22 148,32-153,3 42,8-87,0 2,-2-1,-1 0,-10 29,-19 49,22-77</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2646.16">889 3292,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,-1 0,1-1,-1 1,-17 5,-16 16,32-19,-38 30,3 2,2 0,0 2,3 2,-38 56,64-84,1-1,0 1,0 1,2-2,-1 2,1-1,0 1,2 0,-1 0,1 13,1-2,1-2,1 1,1 0,8 27,-7-40,1 2,-1-1,1-1,1 1,0 0,0-2,1 2,0-1,1-2,-1 2,2-1,0-1,-1-1,1 1,0 0,1-1,14 5,2 1,2 0,1-2,-1-1,1-1,37 4,-45-8,-1 0,0-1,2-1,-2 0,0-2,2 0,35-7,-54 6,0 1,0-1,0 0,1 0,-1 0,0 0,-1-1,1 0,0 1,0-1,-1 0,0 0,2-3,25-49,-17 30,-1 2,0-1,-3 0,1 0,-3 0,7-45,-7-122,-3 50,7 63,-5 59,-2 0,-1 0,-1 0,-3-36,2 52,-1 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1 0,0 0,1 0,-1-1,0 1,-2 0,2 0,0 0,0 1,-1-1,1 1,-2-1,1 1,1 0,-1-1,0 2,-1-1,1 1,0-1,0 1,-3-1,-13 0,0 0,1 1,-36 3,20-1,-61 1,57-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17147,7 +17845,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:30:36.015"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:30:43.419"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17156,8 +17854,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">592 0,'-79'1098,"68"-992,-6 340,15-361,-20 123,-12-53,-3 16,10-12,-67 224,-31 27,104-331,-20 155,30-160,3 44,7-89,0 1,-2-1,-1 0,-9 30,-18 51,21-80</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2646.16">830 3413,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,-1 0,1-1,-1 1,-15 5,-16 17,30-20,-35 31,2 2,2 1,1 1,2 2,-35 59,59-88,1 0,1 0,-1 1,2-1,-1 1,2 0,-1 0,2 0,-1 1,1 13,1-3,1-1,1 1,1 0,7 27,-6-40,0 1,0-1,1 0,0 0,1 0,0-1,0 1,1-1,0-1,0 1,1-1,0-1,0 0,0 0,1 0,0-1,13 6,3 0,1 0,1-1,-1-2,1-1,35 5,-43-9,0 0,0-1,1-1,-1 0,0-2,1 0,33-7,-50 6,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 0,-1 1,1-1,-1 0,0 0,2-4,23-50,-16 31,-1 2,0 0,-2-1,0 0,-2 0,6-47,-6-126,-4 52,8 65,-6 62,-1-1,-1 0,-1 0,-3-37,2 54,-1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,0 1,1 0,-1-1,0 1,-1 0,1 0,0 0,0 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 2,0-1,0 0,0 0,0 1,-2-1,-13 0,0 0,1 1,-33 3,18 0,-56 0,52-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">538 53,'-17'-1,"0"-1,0-1,1 0,-28-10,-30-7,55 16,1 1,-1 1,0 1,1 0,-1 1,0 1,1 1,-1 1,1 0,0 2,-1 0,2 0,-1 2,-16 9,29-13,1 0,-1 1,1 0,0 0,1 0,-1 0,1 1,-1-1,1 1,1 0,-1 0,1 0,0 0,0 0,0 1,1-1,0 1,-1 7,-1 12,1 1,3 42,0-51,-2-11,2 1,-1-1,1 1,0 0,0-1,1 0,0 1,3 7,-4-13,0 1,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,4-1,32-8,-5 1,0 1,1 2,57-5,-80 11,0 0,-1 1,1 0,0 0,-1 1,1 0,-1 1,0 0,0 0,0 1,0 0,-1 1,1 0,-1 0,0 1,-1 0,11 11,3 9,-2 1,-1 0,-1 2,-1 0,-2 1,-1 0,10 35,-21-58,5 10,-1 0,-1 0,-1 0,3 30,-6-43,-1 0,0-1,0 1,0 0,-1-1,1 1,-1-1,0 1,0 0,0-1,0 0,0 1,-1-1,0 0,0 0,0 1,0-2,0 1,0 0,-1 0,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,-4 1,-4 1,1-1,-2 0,1-1,0-1,0 1,-1-2,1 0,-1 0,1-1,0-1,-17-4,-15-6,-75-31,67 23,-96-45,123 56</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17175,7 +17872,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:30:43.419"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:31:26.029"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17184,7 +17881,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">538 53,'-17'-1,"0"-1,0-1,1 0,-28-10,-30-7,55 16,1 1,-1 1,0 1,1 0,-1 1,0 1,1 1,-1 1,1 0,0 2,-1 0,2 0,-1 2,-16 9,29-13,1 0,-1 1,1 0,0 0,1 0,-1 0,1 1,-1-1,1 1,1 0,-1 0,1 0,0 0,0 0,0 1,1-1,0 1,-1 7,-1 12,1 1,3 42,0-51,-2-11,2 1,-1-1,1 1,0 0,0-1,1 0,0 1,3 7,-4-13,0 1,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,4-1,32-8,-5 1,0 1,1 2,57-5,-80 11,0 0,-1 1,1 0,0 0,-1 1,1 0,-1 1,0 0,0 0,0 1,0 0,-1 1,1 0,-1 0,0 1,-1 0,11 11,3 9,-2 1,-1 0,-1 2,-1 0,-2 1,-1 0,10 35,-21-58,5 10,-1 0,-1 0,-1 0,3 30,-6-43,-1 0,0-1,0 1,0 0,-1-1,1 1,-1-1,0 1,0 0,0-1,0 0,0 1,-1-1,0 0,0 0,0 1,0-2,0 1,0 0,-1 0,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,-4 1,-4 1,1-1,-2 0,1-1,0-1,0 1,-1-2,1 0,-1 0,1-1,0-1,-17-4,-15-6,-75-31,67 23,-96-45,123 56</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'12'10,"1"-1,0 0,1-1,-1-1,2 0,22 7,-5-1,0 2,1-1,0-2,0-1,1-2,1-1,-1-2,1-1,59 0,203-8,-268 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1104.11">54 503,'0'2,"1"-1,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 0,1 1,33 9,-31-9,61 12,110 8,-103-15,83 18,15 13,-159-34</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17202,7 +17900,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:31:26.029"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:31:30.121"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17211,41 +17909,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'12'10,"1"-1,0 0,1-1,-1-1,2 0,22 7,-5-1,0 2,1-1,0-2,0-1,1-2,1-1,-1-2,1-1,59 0,203-8,-268 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1104.12">54 503,'0'2,"1"-1,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 0,1 1,33 9,-31-9,61 12,110 8,-103-15,83 18,15 13,-159-34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 682,'21'52,"-8"12,-3 1,3 80,-13 138,-1-195,1-76,3 78,-2-83,1-1,-1 1,1 0,0-1,1 1,0 0,0-1,0 0,2 0,5 8,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1077">383 1440,'2'43,"9"53,3 16,-7-76,-7-36,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,16-14,43-88,27-36,-77 124,2 1,1 0,-1 1,2-1,0 2,30-20,-39 29,2-1,-1 1,0-1,1 1,-1 1,2 0,-2 0,1 0,0 0,1 1,-1 0,0 0,0 1,0 0,1 0,-1 1,0 0,0 0,0 0,0 1,0 0,0-1,-1 2,1 0,0 0,-1 0,0 1,-1 0,2-1,-1 2,-1-1,0 1,4 5,0-1,-1-1,-1 2,0 0,1-1,-3 2,1-2,-1 2,-1 0,0 0,1-1,-2 2,-1-1,0 0,0 1,-1-1,-1 13,-1 35,0-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2469.75">2705 0,'-5'1,"1"-1,0 1,-2 0,2 0,0 1,0-1,0 1,0 0,0-1,-1 1,-5 6,-43 33,34-23,-26 22,4 3,2 1,-50 71,30-38,-191 282,199-271,4 3,-42 116,58-114,5 2,4 0,5 2,4-1,2 166,11-171,4 154,-2-233,0 0,1 0,0 0,1-1,1 1,0-1,1 0,0 0,0-1,10 12,15 16,45 43,-36-40,-23-21,-1 0,0 2,-2-1,16 32,36 100,-43-95,38 68,-56-117,8 14,1-1,30 38,-22-39</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/ink/ink143.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:31:30.121"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 714,'20'55,"-7"12,-3 1,2 84,-12 144,-1-204,1-79,3 81,-2-87,1 0,-1 0,1 0,0 0,1 0,0 0,0 0,0-1,1 0,6 9,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1077">371 1508,'2'45,"9"56,2 16,-6-79,-7-38,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,15-15,42-92,26-37,-74 129,2 1,0 1,0 0,2 0,-1 1,30-20,-38 29,1 0,0 1,0-1,1 1,-1 1,1-1,-1 1,1 0,0 0,0 1,0 0,0 0,0 1,0 0,0 0,0 1,0 0,0 0,-1 0,1 1,0 0,0 0,-1 1,0 0,1 0,-1 0,0 1,-1 0,1 0,0 1,-1-1,0 1,4 6,-1-2,0 0,-1 1,0 0,0 0,-2 1,1-1,-1 1,-1 1,0-1,0 0,-1 1,-1 0,0 0,0 0,-1 0,-1 13,-1 37,0-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2469.75">2620 0,'-5'1,"1"-1,0 1,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,-6 6,-41 35,32-24,-24 23,3 3,2 1,-48 74,29-39,-185 295,192-284,5 3,-42 122,57-119,5 1,4 1,4 1,5 0,1 173,11-178,4 160,-2-243,0-1,1 1,0-1,1 0,0 0,1 0,1 0,0-1,0 0,9 12,15 16,44 46,-35-42,-23-22,0 0,-1 2,-1-1,15 34,35 104,-42-99,37 71,-54-123,7 15,2-1,29 40,-22-41</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink144.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17274,7 +17944,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink145.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink144.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17301,7 +17971,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink145.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17328,7 +17998,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink146.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17355,7 +18025,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink147.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17378,13 +18048,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1667,'10'158,"0"-51,-3-37,3-1,27 97,-16-77,-17-67,-1 0,0 24,5 30,-4-55</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1311">318 1826,'6'-4,"1"0,1 0,-1 1,1 0,-1 0,1 1,0 0,0 0,10-1,4-1,15-4,-1 1,1 3,62-1,-81 5,-1 0,1 2,-1 0,1 1,-1 1,0 1,0 0,-1 1,28 14,-40-17,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,-1 0,1 1,-1-1,0 1,0-1,0 1,-1 0,0 0,0 0,0 0,0-1,-1 1,0 0,0 0,0 0,-1 0,1 0,-3 9,0-3,1 0,-2 1,0-1,0 0,-1-1,0 1,-1-1,0 0,0 0,-13 13,-31 16,42-34,0 1,0 0,0 0,1 1,-11 12,18-19,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 1,0-1,1 0,19 6,-14-4,55 18,96 45,-128-50,0 1,-1 2,0 1,-2 0,25 25,-46-39,0-1,-1 2,0-1,0 0,0 1,0 0,-1 0,0 0,0 0,-1 0,0 1,0-1,0 1,-1-1,0 1,0 0,-1 0,1-1,-2 1,1 0,-1 0,0-1,0 1,-1 0,1-1,-2 1,1-1,-1 0,0 0,0 0,-1 0,1 0,-1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,0 0,-1 0,0-1,0 0,0 0,0 0,0 0,-1-1,1 0,-8 1,-59 6,-1-3,1-3,-88-7,71 1,-6-4,65 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2300.03">2885 0,'2'1,"1"0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,0-1,1 0,0 4,2 1,42 83,36 100,-31-68,106 309,-36 5,-109-392,5 22,-2 1,8 111,-21-153,-1 1,-2 0,0-1,-2 1,-1-1,-1 1,-1-1,-1-1,-2 1,-13 28,-22 22,-4-3,-74 89,-24 33,133-172,-2-1,0-1,-2 0,0-1,-1-1,-1 0,-1-2,-27 19,16-15,7-3</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink149.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1602,'10'152,"1"-49,-4-36,4 0,28 92,-17-73,-18-65,-1 0,0 23,6 29,-5-53</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1311">334 1755,'6'-4,"1"0,2 1,-2 0,1 0,0 0,0 1,1 0,-1 0,11-1,4-1,16-3,-2 0,2 3,65-1,-85 5,-1 0,1 2,-1 0,0 1,0 1,0 1,0 0,-1 0,29 15,-42-18,0 1,1 0,-1 1,-1-1,1 1,-1 0,0-1,1 1,-2 0,1 1,-1-1,0 1,0-2,0 2,-1 0,0 0,0 0,0-1,0 0,-1 1,0 0,0 0,0 0,-1-1,1 1,-3 9,0-4,1 1,-2 0,0 0,-1-1,0 0,0 1,-1-2,-1 1,1-1,-14 14,-32 14,43-32,1 1,-1-1,1 1,1 1,-12 11,19-18,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 1,0-1,1 0,20 5,-15-3,58 18,101 42,-135-48,1 2,-2 1,1 1,-3 1,26 23,-47-37,-1-1,-1 1,0 0,0 0,1 1,-1 0,-1-1,0 1,0 0,-1 0,1 0,-1 0,0 1,-1-1,0 0,0 1,-1 0,1-1,-2 0,1 1,-1 0,0-2,0 2,-1 0,1-1,-3 0,2 0,-1 0,0 0,0 0,-1-1,1 1,-2-1,0 0,1-1,-1 1,-1 0,1 0,0-1,0 0,-2-1,1 0,0 0,-1 0,1 0,0 0,-1-1,0 0,-7 1,-63 5,-1-2,2-3,-93-7,74 1,-5-4,67 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2300.03">3027 0,'2'1,"1"0,-1 0,0 1,2-1,-2 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 1,0-1,1 0,0 3,2 2,44 80,38 95,-32-64,111 296,-38 5,-115-377,6 22,-2 0,8 107,-22-147,-1 1,-2 0,0-1,-2 1,-1-1,-2 1,0-1,-1-1,-3 1,-13 27,-23 21,-4-2,-78 84,-26 33,141-166,-3-1,0-1,-2 1,1-2,-2-1,-1 0,-1-1,-29 17,18-13,7-4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink148.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17415,21 +18085,21 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:42:05.179"/>
+<file path=xl/ink/ink149.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:32:47.180"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17438,25 +18108,37 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'0,"7"0,0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink150.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:32:47.180"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6419 228,'3'-2,"1"-1,0 1,1-1,-1 1,0 0,1 1,-1 0,1 0,0-1,0 2,-1-1,1 0,-1 1,2 0,-1 0,-1 0,1 0,-1 1,1 0,1 0,-2 0,0 1,1-2,-1 2,9 4,5 3,-2-1,1 2,0 0,27 23,-31-22,-1 0,1 1,-2 0,0 0,-1 2,-1-1,10 18,-17-28,0 1,0-1,-1 1,2 0,-2 1,0-1,0 0,-1-1,1 1,-1 1,0-1,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 1,1-2,-1 1,0 0,0-1,0 1,0 0,0-2,-1 2,0-1,0 0,-1 0,1 0,0 0,-5 2,-13 9,17-13,1 1,0 0,-2 0,2 0,0 1,1-1,-1 1,0 0,-3 4,5-4,0-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,3 1,170 214,-171-213,0-1,0 1,0 0,0 1,-1-1,0 0,0 0,0 1,-1 0,0 0,0-1,0 0,-1 1,1 0,-1 0,-1 7,-1-7,1 0,-1-1,0 0,-1 1,1-1,-2 1,1-1,0-1,-1 1,1 0,-1 0,0-1,0 1,-1-2,-6 5,-3 1,1-1,-1-1,1 1,-2-2,0-1,1 1,-2-1,-26 3,2-3,-1-2,-46-3,62 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6286.79">332 1140,'0'9,"0"20,0 22,0 20,0 28,0 14,0 4,0 2,0-4,0-13,0-5,0-12,0-16,0-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5750.79">1 1773,'9'0,"32"0,21 0,22 0,13 0,5 0,-7 0,-8 0,-15 0,-11 0,-11 0,-8 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4767.79">1792 1773,'21'-1,"0"-2,1-1,0 0,27-10,-9 4,213-35,-244 43,-2-1,1 0,1 0,-2-1,1 0,0 1,-1-1,-1-1,1 0,0-1,-1 2,10-12,-13 13,-1-1,1 0,-1 0,1 0,-1-1,0 2,-1-2,1 1,-1-1,0 1,1 0,-2-1,1 1,-1-1,0 0,0 1,0-1,-1 1,-1-1,1 0,0 2,0-2,-3-4,1 4,0 1,0-1,0 1,-1-1,-1 1,1 1,0-1,0 1,-1-1,0 1,0 0,0 0,0 1,0 0,-12-4,-9-3,-56-10,68 17,-8-2,0 1,1 3,-1-1,0 1,0 1,0 0,0 2,0 1,2 0,-2 2,-26 9,11-1,1 3,1 0,0 2,2 1,-39 30,62-41,-1 0,1 1,1-1,0 2,1-1,0 1,0 0,1 1,1 0,1 0,-1 0,2 1,-4 14,3-1,0 0,2 0,1 0,2 0,4 44,0-54,0 0,0 0,1 0,0 0,2-1,0 0,1 0,0-1,2 1,22 24,-11-17,0-1,2-1,0 0,2-2,36 24,-50-37,2 1,-1-1,1 0,-1-1,1-1,-1 1,21 2,96 3,-56-7,21 4,-52-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4063.79">2618 1292,'4'-3,"12"-3,7 0,5 1,1 2,2 2,-1 0,1 0,-2 1,4 0,20 1,6-1,1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3233.32">4051 254,'-6'0,"0"4,-14 19,-8 14,-4 18,-1 21,-10 15,3 13,4 7,8 1,8-1,9-15,4-14,5-15,2-13,2-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2156.94">4106 963,'0'455,"-1"-455,1 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 1,1-1,12-15,22-49,-25 44,5-7,-1 2,3-1,1 2,0 0,25-23,-32 38,0-1,0 2,1-1,0 1,1 1,0 0,1 1,0 0,-1 1,1 0,0 1,1 0,16-1,-27 5,8-2,-1 0,0 1,1 1,18 0,-27 1,-1-1,1 0,0 1,-1 0,1-1,-1 1,0 0,1-1,-1 1,0 1,0-1,0 0,0 1,1-1,-1 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,0 1,1 3,3 17,-1 0,-2 0,-1 0,-1 0,-3 25,2-26,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1218">5703 355,'-1'24,"-1"-1,-2 1,-1-1,0 0,-1 0,-2-1,-1 0,-12 23,-16 20,-57 76,1-3,47-60,3 2,4 1,-31 97,65-165,2-2,0 1,1 0,0-1,1 2,1-1,1 17,0-22,0-1,1 1,0 0,1-1,0 0,0 0,0 1,1-2,0 1,0 0,0-1,2 1,-2-2,10 9,9 5,1-1,1 0,1-1,0-2,1-1,0 0,1-2,60 16,-76-26,1 1,-1-2,2 0,-2 0,1-1,-1 0,15-4,29-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="771.98">5950 1039,'0'1,"0"0,1 0,-1 0,2 0,-2-1,1 1,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,33 9,-29-8,223 39,283 16,-201-32,308 9,-564-29,-36 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2018.52">5979 1520,'6'0,"0"0,1 0,0 1,0-1,-1 1,0 1,2-1,-2 1,0 0,0 0,7 4,-9-3,1 0,-1 2,1-1,-1 0,0 0,0 1,-1 0,0 0,0 0,1-1,-2 2,3 6,2 7,-1 1,-1-1,-1 1,2 32,-4-31,1 0,1 0,9 26,-5-103,-7-2,-1-11,4-1,14-74,-18 138,1 0,0 1,1 0,-1-1,1 1,0-1,0 2,2-2,-1 1,0 0,0 0,0 2,1-2,0 1,1-1,-1 1,0 1,1 0,0-1,-1 1,2 0,0 0,-1 0,0 1,1 1,0-1,0 0,-1 1,2-1,-1 1,0 1,-1-1,1 1,1 0,5 1,128 4,-1 5,0 6,-2 7,184 50,-264-55,-40-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3020.68">6695 1545,'0'5,"0"14,-5 8,-16 25,-3 13,1-1,1-7,3-8,6-9,4-6,4-5,4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4206.19">6887 1545,'6'0,"0"0,0 0,-1 0,2 1,-2 0,1 0,-1 0,1 1,0 0,-1 0,1 0,-1 0,8 5,-11-5,1 1,0 0,-1 1,0-1,0-1,0 2,0-1,1 1,-2 0,1-1,-1 1,0-1,0 1,-1 0,1 0,-1 0,0-1,0 1,0 0,-1 5,-1 1,0 2,-1-1,-1 0,0-1,-9 21,6-19,2 1,0-1,-5 27,7 48,4-69,-1-1,-1 1,-1 1,-4 18,5-34,0 0,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,-1-1,1 1,-1-2,0 2,1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 0,1 1,0-1,-1 0,1-1,0 0,-6 1,-13 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5065.31">7796 0,'21'1,"0"1,0 1,-1 0,1 1,0 1,-1 1,0 1,-1 0,0 2,0 0,0 0,-2 2,1 0,-1 1,-2 1,21 18,1 7,0 1,-3 2,-2 1,49 89,-40-57,-3 4,-4-1,-4 3,-4 1,-4 1,-3 0,-5 1,-3 1,-4 0,-7 108,-5-149,-1-1,-4 1,0-1,-32 74,17-60,-4 0,-63 92,63-113,-3 1,0-3,-4 0,1-3,-56 37,7-2,64-50</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:42:05.179"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17465,23 +18147,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6166 238,'3'-2,"1"-1,0 1,0-1,0 1,0 0,1 1,-1-1,1 1,-1-1,1 2,-1-1,1 0,-1 1,1 0,0 0,-1 0,1 0,-1 1,1 0,0 0,-1 0,0 1,1-1,-1 1,8 4,5 3,-1 0,0 1,0 0,27 25,-31-24,0 1,0 0,-1 1,-1 0,0 1,-1 0,9 18,-16-29,0 1,0 0,-1 0,1 0,-1 1,0-1,0 0,-1 0,1 0,-1 1,0-1,0 0,-1 1,1-1,-1 0,0 0,0 0,0 1,0-1,-1 0,0 0,0-1,0 1,0 0,0-1,-1 1,0-1,0 0,0 0,0 0,0 0,-5 3,-12 8,16-13,1 1,0 1,-1-1,1 0,0 1,1-1,-1 1,0 0,-3 5,5-5,0-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,3 2,163 222,-164-222,0 0,0 0,0 0,-1 1,0-1,0 1,0-1,0 1,-1 0,0 0,0-1,0 1,-1 0,1 0,-1 0,-1 8,-1-8,1 0,-1 0,0-1,-1 1,1-1,-1 1,0-1,0 0,-1 0,1 0,-1 0,0-1,1 1,-2-1,-6 4,-2 1,0 0,0-2,0 1,-1-2,0 0,0 0,-1-1,-26 3,3-3,-1-2,-45-3,60 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6286.79">319 1191,'0'9,"0"21,0 24,0 20,0 29,0 15,0 5,0 1,0-4,0-13,0-6,0-12,0-17,0-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5750.79">1 1852,'9'0,"30"0,21 0,20 0,13 0,5 0,-6 0,-9 0,-14 0,-10 0,-11 0,-8 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4767.79">1721 1852,'21'-1,"-1"-2,1-1,0-1,26-9,-8 3,204-36,-235 45,-1-1,1 0,0 0,-1-1,1 0,-1 0,0 0,-1-1,1 0,-1-1,0 1,9-11,-12 12,-1 0,1 0,-1 0,1 0,-1-1,0 1,-1-1,1 1,-1-1,0 1,0-1,-1 0,1 1,-1-1,0 0,0 0,0 0,-1 1,0-1,0 0,0 1,0-1,-3-4,1 4,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 1,-11-4,-9-3,-54-11,66 18,-8-2,0 1,0 2,0 0,0 1,0 1,0 1,0 1,0 1,1 0,-1 2,-25 10,11-1,0 2,1 1,1 2,1 1,-37 31,59-43,0 1,0 0,1 0,1 1,0 0,0 0,1 1,0 0,1 1,1-1,0 1,1 0,-4 16,3-2,1 0,1 0,1 0,2 0,4 46,-1-56,1 0,0 0,1-1,0 1,1-1,1-1,1 1,0-1,1 0,22 26,-11-18,0-1,2-1,0 0,2-2,35 24,-48-37,1 0,0-1,0 0,0 0,0-2,0 1,19 2,93 3,-54-6,21 3,-51-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4063.79">2515 1350,'4'-4,"11"-2,7 0,5 1,1 2,2 1,-1 1,0 0,-1 1,4 0,19 1,5-1,2 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3233.32">3891 265,'-5'0,"-1"5,-13 19,-8 14,-4 20,-1 21,-9 16,3 14,3 7,8 1,8-1,8-16,5-15,4-14,2-15,2-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2156.94">3944 1006,'0'475,"-1"-475,1 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 1,1-1,12-16,20-51,-23 46,4-7,0 2,2-1,1 2,1 0,23-24,-31 39,1 0,0 1,0 0,1 1,0 0,1 1,0 1,0-1,0 2,0 0,1 1,0 0,16-2,-26 6,7-2,0 0,0 1,0 1,18 0,-26 1,-1-1,1 0,-1 1,0 0,1-1,-1 1,0 0,1 0,-1 0,0 1,0-1,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,1 3,3 18,-2 0,-1 0,-1 0,-1 0,-3 26,2-27,-1 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1218">5478 371,'-1'25,"-1"-1,-1 1,-2-1,0 0,-1 0,-1-1,-2 0,-11 24,-16 21,-54 79,1-3,44-62,4 1,4 2,-31 101,64-173,1-1,0 0,1 1,0-1,1 1,1 0,1 17,0-23,0 0,1 0,0 0,1-1,-1 1,1-1,0 1,1-1,0 0,0 0,0-1,1 1,-1-1,10 8,8 6,1-1,1 0,1-2,0-1,1-1,0-1,1-1,57 16,-72-27,0 1,0-2,1 0,-1 0,0-1,0 0,14-4,27-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="771.98">5716 1085,'0'1,"0"0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,31 9,-27-8,214 41,272 17,-193-34,295 9,-541-30,-35 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2018.52">5743 1588,'6'0,"0"0,1 0,-1 1,1-1,-1 1,0 1,1-1,-1 1,0 0,0 0,6 4,-8-2,1-1,-1 2,0-1,0 0,0 1,0 0,-1 0,0 0,0 0,0 0,-1 1,3 6,2 8,-1 1,-2-1,0 1,2 33,-4-32,1 0,1 0,8 27,-4-107,-7-3,-1-11,4-1,13-78,-17 145,1 0,0 1,1-1,-1 0,1 1,0-1,0 1,1-1,0 1,0 0,0 0,0 1,1-1,0 1,0-1,0 1,0 0,1 1,0-1,-1 1,1 0,1 0,-1 0,0 1,0 0,1 0,0 0,-1 1,1-1,0 1,0 1,-1-1,1 1,0 0,6 1,122 4,0 6,-1 6,-1 6,176 54,-253-58,-39-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3020.68">6431 1614,'0'5,"0"15,-5 8,-15 26,-3 14,1-1,1-7,3-9,5-9,5-7,3-5,4-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4206.19">6616 1614,'5'0,"1"0,0 0,-1 0,1 1,-1 0,1 0,-1 0,1 1,-1 0,0 0,1 0,-1 0,7 6,-10-6,1 1,0 0,-1 1,0-1,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 5,-1 2,0 1,-1 0,0-1,-1 0,-9 21,7-19,1 0,0 0,-5 27,7 51,4-72,-1-1,-1 1,0 0,-5 20,5-36,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,0 0,0 1,0-1,-1 0,1 0,0-1,-5 1,-14 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5065.31">7489 0,'20'1,"0"1,0 1,0 0,0 2,0 0,-1 1,0 1,0 1,-1 1,0 0,0 1,-1 1,0 1,-1 0,-1 2,19 18,2 8,-1 1,-2 2,-2 1,47 92,-39-58,-3 3,-3 0,-4 2,-4 2,-4 0,-3 1,-4 1,-4 0,-3 1,-7 113,-5-156,-1-1,-3 0,-1 0,-30 77,16-62,-4-1,-60 97,60-118,-3 0,0-2,-3-1,0-2,-53 38,6-3,62-51</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink151.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'0,"7"0,0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink150.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17509,7 +18179,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink152.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink151.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17538,7 +18208,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink153.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink152.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17561,12 +18231,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1562,'4'0,"24"-4,31-11,35-16,34-16,54-28,13-5,-12 2,-29 15,-35 12,-39 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="572">2276 848,'9'-9,"16"-12,32-15,27-21,28-18,25-14,22-10,10-2,17-10,-9 8,-31 18,-40 24</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink154.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1500,'4'0,"25"-4,33-10,37-16,35-15,56-27,14-5,-12 2,-31 15,-37 11,-40 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="572">2382 814,'10'-8,"16"-12,33-15,29-20,30-17,25-13,23-10,11-2,18-10,-10 8,-32 18,-42 22</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink153.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17594,7 +18264,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink155.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink154.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17617,15 +18287,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">186 343,'51'127,"25"11,-47-88,-1 1,-3 2,30 88,-45-119,-10-22,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,7-46,19-260,-15 232,3 1,25-79,-28 118,-6 16,1 0,13-28,-17 41,1 1,0 0,1 0,-1 0,1 0,0 1,0-1,1 1,-1 0,1 0,0 1,10-6,5 0,0 1,1 1,0 0,33-4,94-7,-112 14,151-11,301 15,-481 0,0 1,1 0,-1 0,0 0,0 1,0 0,0 1,-1-1,1 1,-1 1,1-1,-1 1,0 0,-1 0,1 1,-1 0,1 0,6 9,-6-5,-1 0,0 0,0 1,-1 0,0 0,-1 0,0 0,-1 0,0 1,0-1,-1 1,-1 12,-3 68,2-62</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="540.44">927 396,'-5'5,"-1"14,0 18,1 12,2 1,1-2,1-1,0-4,1-5,1-4,-1-3,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1568.54">1059 607,'6'-3,"1"-1,-1 1,1 0,0 0,1 1,-1 0,0 0,1 1,-1 0,1 0,-1 1,14 1,-5-2,-11 1,4-1,0 1,0 0,0 0,0 1,10 2,-17-3,0 1,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,0 3,1 23,-2-23,0-1,0 1,0 0,1-1,0 1,-1-1,1 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,5 2,14 7,-4-3,-1 1,-1 1,0 0,17 15,-28-21,0 0,-1 1,0-1,0 1,0 0,0 0,-1 0,0 0,0 1,-1-1,0 1,0 0,-1 0,1 0,-1 10,0-8,0 0,-1 0,0-1,-1 1,0 0,0-1,-1 1,0-1,-1 1,1-1,-5 8,3-11,1 1,-1-1,0-1,0 1,-1 0,1-1,-1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,0-1,-12 4,-11 0,-1 0,0-2,0-1,0-2,-57-4,80 3,-20-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2132.43">1 1242,'645'27,"-632"-26,553 69,122 40,-671-108,-11-1,0 0,0 0,0 0,0 1,0 0,0 0,0 0,0 1,9 6,-6 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3158.25">953 1718,'74'-1,"-33"-1,0 2,0 2,64 11,-102-13,0 1,1-1,-1 1,0 0,0 0,1 1,-1-1,0 0,0 1,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,1 7,-2-4,0 1,0-1,-1 0,0 1,-1-1,1 0,-1 0,0 0,-1 0,1 0,-1 0,0 0,-1-1,-4 6,-16 15,15-18,1 0,1 1,-1 0,-10 17,17-25,1 0,-1 0,0 1,1-1,-1 0,1 0,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,-1 0,2 0,-1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 0,2 1,18 6,-8-2,0 0,0 0,0 1,22 14,-31-16,1 0,-1 0,0 0,0 1,0-1,-1 1,1 0,-1 0,-1 1,1-1,0 0,-1 1,0 0,2 11,-1-3,0 1,-1 0,-1 0,0 0,-1 0,-1-1,0 1,-1 0,-6 24,6-33,0 0,0 0,-1 0,1-1,-1 1,-1-1,1 0,-1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0-1,-1 0,1 0,-1 0,1 0,-1-1,0 0,0-1,0 1,-10 0,-52 3,1-3,-106-11,99-3,48 6</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink156.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">194 328,'53'122,"26"10,-48-85,-2 2,-3 2,31 84,-46-114,-11-21,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,7-44,20-248,-15 221,2 1,27-75,-29 112,-7 16,1 0,14-27,-18 39,1 1,0 0,1 1,0-1,0 0,0 1,0 0,1 0,-1 0,2 0,-1 1,10-5,6-1,0 1,1 2,0-1,34-4,99-6,-118 13,158-10,314 14,-502 0,1 1,0 0,-1 0,1 0,-1 1,0 0,1 1,-2-2,1 2,-1 1,2-1,-2 1,0 0,-1-1,2 2,-2 0,1 0,7 8,-7-4,-1-1,0 1,1 1,-2-1,0 1,-1-1,0 1,-1-1,0 2,0-1,-1 0,-1 12,-3 65,2-59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="540.43">967 379,'-6'5,"0"13,0 17,1 12,2 1,1-2,0-1,1-4,1-5,1-3,-1-4,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1568.54">1104 581,'7'-3,"0"-1,-1 1,1 0,1 0,0 1,-1 1,1-1,0 1,-1 0,2 0,-2 1,15 1,-5-2,-12 1,4-1,1 1,-1 0,0 0,1 1,9 2,-16-3,-1 1,0 0,0-1,0 1,0-1,0 1,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,0 3,1 22,-2-23,0 0,0 1,0 0,1-1,0 0,-1 0,1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,1-1,0 0,-1 0,1-1,-1 1,5 2,15 7,-4-4,-1 2,-1 0,-1 1,19 14,-30-21,0 1,-1 1,0-1,1 1,-1-1,0 1,-1 0,0 0,0 0,-1 0,1 1,-1-1,-1 1,1 0,-1 9,0-7,0-1,-1 1,0-2,-1 2,0 0,0-2,-1 2,0-1,-2 0,2 0,-5 7,3-10,1 1,-1-2,-1 0,1 1,-1 0,1-1,-1 0,-1-1,1 0,0 1,-1-1,1 0,-2 0,1-1,-13 3,-11 1,-1 0,-1-2,1-2,0-1,-60-3,84 2,-21-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2132.43">1 1188,'673'26,"-660"-25,577 66,128 38,-700-103,-12-1,0 0,0 0,1 0,-1 1,0 0,0 0,1 0,-1 0,10 7,-7 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3158.25">994 1644,'77'-1,"-34"-1,-1 2,1 2,67 10,-107-12,0 1,1-1,-1 1,0 0,1 0,0 1,-1-1,0 0,0 1,0-1,-1 1,1 0,1 0,-2 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 6,-2-3,0 1,0-2,-1 1,0 1,-2-2,2 1,-1 0,0 0,-1-1,1 1,-1 0,0 0,-1-2,-5 7,-16 14,16-18,1 1,0 1,0-1,-11 17,18-24,1 0,-1 0,0 1,1-1,-1 0,1 0,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,-1-1,2 1,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 0,2 1,19 6,-8-2,-1-1,1 1,-1 1,24 13,-33-15,1 0,-1-1,0 1,1 1,-1-1,-1 1,1-1,-1 1,-1 1,1-1,1 0,-2 0,0 1,2 10,-1-2,0 0,-1 0,-1 1,0-1,-1 0,-1 0,0 0,-1 1,-6 22,6-31,0-1,0 1,-2 0,2-1,-1 0,-1 0,1 0,-1 0,0-1,-1 0,1 1,-1-1,1 0,-1 0,-1-1,1 0,-1 0,1 0,-2 0,2 0,-1-1,0 0,-1-1,1 0,-10 1,-55 3,1-3,-111-11,104-2,50 5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink155.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17648,11 +18318,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">278 523,'-2'2,"1"0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 4,-2 1,-13 109,-2 210,14-202,-3 51,-16 855,23-775,-3 317,-8-443,-33 153,17-125,-77 444,96-578,5-17,1 1,-1-1,1 0,0 1,-1 11,3-16,-1-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1-1,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,1 1,46 4,-1-1,98-6,-51-1,688 46,-512-20,413-11,-434-15,3271 3,-2992 27,-23 1,998-28,-679-2,-500-5,447-68,-647 57,571-80,3 32,-119 0,-381 39,-23 8,115-19,-186 16,0 4,1 5,119 1,-140 9,0-4,0-3,97-24,-119 25,-44 7,0-1,0-1,29-8,-45 10,1 0,-1 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 0,-1 0,0-1,1 1,-1-1,0 1,2-8,21-69,-13 37,81-204,22-68,-66 136,-7-3,-8-1,15-299,-40 63,11-196,46 33,-7 87,-58 487,0 0,0-1,-1 1,0 0,-1 0,-2-13,2 18,-1 0,1 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,1 0,-1-1,0 1,-5-1,-8-2,-1 0,0 1,0 1,-1 0,-22 2,-101 9,98-4,-451 58,72-5,-2002 73,769-140,-4306 9,5763 2,-208-4,183-10,-83-2,244 13,-497-19,26-7,375 21,-14-7,-64 0,215 13,1 1,-1 1,-27 5,39-4,1-1,0 1,-1 1,1-1,0 1,1 1,-1 0,1 0,0 0,-9 9,1 0,-1 0,2 2,0 0,1 0,1 1,0 1,2 0,-15 31,16-17</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink157.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">289 501,'-2'2,"1"0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1 0,0 0,0 4,-3 1,-12 104,-3 201,15-193,-3 49,-17 819,24-742,-3 303,-9-424,-33 146,17-119,-80 425,99-554,6-16,1 0,-1 0,1 0,0 1,-1 10,3-15,-1-1,0 1,0-1,1 0,-1 1,0-2,1 1,-1 1,1-1,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,1 1,48 3,-1 0,102-6,-53-1,715 45,-532-20,429-11,-451-14,3401 3,-3111 26,-24 1,1038-27,-706-2,-520-5,464-64,-672 53,594-76,3 31,-124 0,-396 37,-24 8,120-19,-194 16,0 4,1 4,124 2,-146 8,1-4,-1-2,101-24,-123 25,-46 6,-1-1,1-1,30-8,-47 10,1 1,0-1,0-1,-1 1,0-1,0 1,0-1,0 0,0 0,0 1,-1-2,1 1,-1-1,0 1,2-7,22-67,-13 36,83-196,24-65,-69 130,-8-2,-7-2,15-286,-42 61,12-189,47 32,-6 84,-61 466,0 0,0 0,-1 0,0 0,-1 1,-2-14,2 19,-1-1,1 0,0 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-2 0,1 1,1 0,-1-1,0 1,-5-1,-9-1,-1-1,1 1,-1 1,-1 0,-22 2,-106 9,102-5,-468 57,74-6,-2081 71,799-135,-4478 9,5994 2,-218-4,191-9,-86-3,254 13,-517-18,26-7,391 21,-15-8,-66 1,223 12,1 1,-1 1,-28 4,41-3,1-1,-1 1,0 1,1-1,-1 1,2 0,-1 1,1 0,-1 0,-8 8,0 1,-1-1,3 2,-1 1,2-1,0 1,1 2,1-1,-15 30,17-17</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink156.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17675,17 +18345,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">452 73,'-1'-1,"1"1,0-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 1,-3-1,1 0,0 1,0 0,0 0,-1 0,1 0,0 0,-3 3,-27 14,2 2,0 1,1 2,2 1,0 1,2 2,0 0,2 2,-23 35,40-49,0 0,1 1,1 0,1 0,0 0,-3 25,-7 100,13-108,-3 373,5-400,1 0,0 0,0 0,0 0,1 0,0 0,0-1,0 1,1 0,0-1,0 0,0 0,1 0,-1 0,6 4,-3-3,1 0,0-1,1 0,-1 0,1-1,0 0,0 0,0-1,12 4,7-1,0-2,0 0,0-2,0 0,47-5,-66 3,0-1,0 0,1 0,-1-1,0 0,0-1,0 1,-1-2,15-7,-17 8,-1-1,1 0,-1 0,0 0,0-1,0 0,-1 1,1-1,-1 0,0-1,-1 1,1-1,-1 1,2-8,6-18,5-15,-1-1,-3 0,-2 0,6-76,-17-41,4-67,2 203,1 1,12-39,-8 36,6-45,-12 52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="403">902 1078,'4'0,"6"0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1386">1404 337,'1'-5,"0"0,1 1,-1-1,1 0,0 0,1 1,-1-1,5-4,4-12,-1 5,0 1,0 0,2 0,-1 1,2 1,0 0,1 0,0 1,1 1,0 1,0 0,1 1,28-12,-40 19,0 1,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,0 0,1 0,-1 1,0-1,1 1,-1 0,0 1,5 1,-1 1,-1 0,1 0,-1 1,0 0,0 0,0 1,9 10,-1 2,-1 0,0 1,-1 0,-2 1,12 24,-10-9,-1 1,-1 0,-3 0,-1 1,-1 0,-2 1,-2-1,-1 1,-9 74,4-91,0 1,-2-1,0 0,-2 0,0-1,-1 0,-1-1,-1 1,-16 19,-6 6,-3-1,-54 51,78-82,0-2,-1 0,0 0,-1-2,0 1,0-2,-1 0,0 0,-28 9,42-17,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,-1-1,1 1,-2-2,2 1,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,1-2,1-1,-1 1,1-1,0 1,0 0,0-1,1 1,-1 0,7-6,-4 4,1 0,0 1,0 0,0-1,1 2,-1-1,1 1,1 0,-1 1,0 0,1 0,-1 0,1 1,0 0,0 1,0 0,14-1,-12 3,0 0,0 0,0 1,0 0,0 1,0 0,-1 1,1 0,-1 0,0 1,0 0,-1 1,13 10,57 54,-61-51,2-2,0 0,1 0,1-2,1-1,0 0,0-2,25 10,16-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2471.99">2939 364,'-8'0,"-21"0,-46 6,64-5,1 1,0 1,-1 0,2 1,-1 0,0 0,1 1,-10 5,-7 10,1 0,0 2,2 0,0 2,2 0,-32 47,46-60,1 1,0-1,0 1,1 0,1 1,0-1,1 1,0 0,-1 18,1 15,4 61,0-61,-1 78,7 147,-6-265,0 0,0 0,0 0,0 0,1 0,0 0,1 0,-1-1,1 1,0-1,0 1,1-1,0 0,0-1,0 1,0-1,7 6,-3-5,0 0,-1-1,1 0,1 0,-1-1,0 0,1-1,0 0,-1 0,1-1,9 1,1-1,1-1,-1-1,0-1,-1-1,1 0,0-2,-1 0,0-1,0 0,30-17,-37 16,0-1,0-1,-1 0,0 0,-1-1,0 0,-1-1,0 0,0 0,-1-1,8-18,5-16,23-86,-25 72,-6 20,-3-1,-1 0,4-79,-12-128,-3 119,3 117,0 1,-1-1,0 1,-1-1,0 1,0 0,-1 0,-1 0,-5-10,7 16,-1 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1 0,1 0,-1 1,1 0,-1-1,0 1,0 1,0-1,0 1,0 0,0 0,0 0,-6 1,-56-1,37 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3021">3759 126,'-75'198,"-88"379,152-523,2 0,3 1,2-1,4 79,6-105,-6-27,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,1 1,0-1,16-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4076">4553 179,'0'-11,"-1"0,0-1,0 1,-1 0,0 0,-1 0,0 0,-1 0,0 1,-8-15,10 22,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 1,0 0,0-1,0 1,0 0,0 1,0-1,0 1,1 0,-1 0,0 0,0 0,-5 4,-7 2,1 1,0 0,0 1,1 1,0 1,0 0,2 0,-1 1,2 1,-1 0,-9 16,-7 12,2 2,-31 69,48-94,1 1,1 1,1 0,0 0,2 0,-3 22,6-32,1 1,0 0,1 0,0-1,0 1,1-1,1 1,0-1,0 0,1 0,0 0,1 0,6 10,-5-10,1 0,1 0,0-1,0 0,0 0,1-1,1 0,-1-1,1 0,1 0,-1-1,1-1,0 0,0 0,0-1,1 0,0-1,0 0,0-1,0-1,0 0,0 0,0-1,0-1,0 0,0 0,0-1,0-1,13-4,-16 3,0 0,0 0,0-1,0 0,-1-1,0 0,0 0,-1 0,0-1,0-1,0 1,-1-1,0 0,6-10,5-14,-1-1,19-54,-17 39,-7 22,-2 0,-1-1,8-43,-15 61,0 1,0 0,-1-1,0 1,0 0,-1-1,0 1,-1 0,0 0,0 0,-1 0,0 0,0 0,-1 1,0-1,-5-7,-15-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5387">4288 708,'-1'5,"0"0,0 0,0 0,0 0,-1 0,1 0,-1-1,-1 1,1-1,-1 1,1-1,-1 0,-5 5,-51 50,40-41,-8 8,2 0,1 2,-30 44,45-59,2 0,0 0,0 1,1 0,1 0,1 0,0 1,0-1,2 1,0 0,-1 19,3 4,-1-8,2 1,9 60,-9-83,1 1,1-1,-1 0,2 0,-1 0,1 0,0-1,0 1,1-1,0 0,0-1,1 1,0-1,0 0,9 7,0-3,0-1,0 0,1-1,0 0,1-2,-1 0,1 0,0-2,1 0,25 2,-34-5,1-1,0 0,0 0,-1-1,1 0,0-1,-1 0,1-1,-1 0,0 0,0-1,0 0,0 0,-1-1,0 0,0-1,0 0,-1 0,1-1,10-12,1-9,-1 0,-2-1,20-45,1-4,-25 54,0-2,-2 1,10-35,-17 49,-1 1,0-1,0 0,-1 0,0 0,-1 0,-1 1,1-1,-2 0,0 0,-3-14,3 22,0 0,0-1,0 1,0 0,0 0,-1 0,1 1,-1-1,0 0,0 1,0 0,0 0,0 0,-1 0,1 0,-4-1,-67-21,38 14,-85-26,90 30</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink158.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">468 70,'-1'-1,"1"1,0-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,-3-1,1 0,0 1,0 0,0 0,-2 0,2 0,0 0,-3 2,-28 15,1 1,1 1,1 2,2 1,0 1,2 2,0 0,2 2,-23 33,40-46,1-1,1 2,0-1,2 0,0 1,-3 23,-8 96,14-103,-3 358,5-384,1 0,0-1,0 1,0 0,1 0,0-1,0 0,0 1,2 0,-1-2,0 1,0 0,1 0,-1 0,6 3,-2-2,0 0,0-1,1-1,0 1,0-1,0 0,1 0,-1-1,13 3,7 0,0-2,0 0,0-2,-1 0,50-5,-69 3,1-1,-1 0,1 0,0-1,-1 0,0-1,1 1,-2-2,16-6,-18 7,-1-1,1 0,-1 0,0 1,1-2,-1 0,-1 1,1-1,-1 1,0-2,-1 1,1-1,-1 1,3-7,5-18,5-14,0-1,-4 0,-1 0,5-73,-17-40,4-64,2 195,2 1,11-37,-8 34,7-43,-13 50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="403">935 1035,'4'0,"6"0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1386">1455 324,'1'-5,"0"0,1 1,-1-1,1 1,0-1,1 1,-1-1,6-4,3-11,-1 5,1 1,-1-1,3 1,-2 0,2 2,1-1,0 1,1 0,0 2,1 0,0 1,0 0,30-11,-42 18,0 1,0 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,1 0,0 1,-1-1,1 1,-1 0,0 1,5 1,0 1,-2-1,1 1,0 1,-1 0,0 0,0 0,10 11,-2 1,0 0,-1 2,0-1,-3 1,13 23,-10-8,-2 0,-1 1,-2 0,-2 0,-1 1,-2 0,-2 0,0 0,-11 72,5-88,0 1,-2-1,-1 0,-1 1,0-2,-1 0,-2-1,0 1,-17 19,-6 5,-4-1,-55 50,81-80,-1-1,0-1,-1 1,0-3,-1 2,1-2,-2-1,1 1,-30 8,44-16,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,1-1,0 1,-1-1,1 1,-2-2,2 2,1 0,-1-1,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,1-2,1 0,-1 0,1-1,0 1,0 0,0 0,1 0,0 0,6-6,-4 4,1 1,0 0,1 0,-1-1,1 2,-1 0,2 0,0 0,-1 1,0 0,2 0,-2 0,1 2,1-1,-1 1,0 0,15-1,-13 3,1 0,-1 0,0 1,1 0,-1 0,0 1,0 1,0 0,-1 0,1 1,-1-1,-1 2,14 10,59 51,-63-49,1-2,1 1,1-1,0-2,2 0,0-1,0-1,26 9,16-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2471.99">3045 350,'-8'0,"-22"0,-48 5,67-4,1 1,-1 1,0 0,2 1,-2 0,1-1,1 2,-11 5,-7 9,1 0,0 2,2 1,0 1,3 0,-34 45,47-58,2 2,0-2,0 2,1 0,1 0,-1 0,2 0,0 0,-1 18,1 14,4 59,0-59,-1 75,7 142,-6-256,0 1,0 0,0 0,0-1,1 1,1 0,0 0,-1-1,1 0,0 0,0 1,1-1,0 0,0-2,1 2,-1-1,7 6,-3-6,1 1,-2-1,1 0,2 0,-2-1,0-1,2 0,-1 0,-1 0,1-1,10 1,1-1,1-1,-2-1,1-1,-1-1,0 0,1-1,-1-1,-1-1,1 0,31-16,-39 16,0-2,1-1,-2 1,1-1,-2-1,0 1,0-2,-1 1,0-1,-1-1,9-16,5-17,23-81,-25 68,-7 20,-2-2,-2 1,4-76,-12-123,-3 114,3 112,0 2,-1-2,0 2,-1-2,0 1,0 1,-1-1,-1 1,-6-10,8 15,-1 1,0 0,0 0,-1 0,1 1,-1-1,-1 1,1-1,0 1,-1 0,1 0,-1 1,0 1,0-2,0 1,0 1,0-1,0 1,-1 0,1 0,0 0,-6 1,-59-1,39 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3021">3895 121,'-78'190,"-90"364,156-502,3 0,3 1,2-1,4 75,6-100,-6-26,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,2 1,-1-1,16-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4076">4718 172,'0'-11,"-1"1,0-2,0 2,-1-1,0 1,-1-1,0 0,-2 1,1 0,-8-14,10 21,-1 0,1 1,-2-1,2 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1 1,-2-1,2 0,-1 1,0-1,1 1,-1 0,0 0,-1 0,1 1,0 0,0-1,0 1,0 0,0 1,-1-1,1 1,1 0,-1 0,0 0,0 0,-6 4,-6 1,0 2,1 0,-1 0,2 2,-1 0,1 1,1 0,0 0,1 2,0-1,-10 16,-7 11,2 3,-32 65,50-90,1 2,0 0,2 0,0 0,2 1,-4 20,7-31,1 2,0 0,1-1,1 0,-1 0,1 0,1 0,0 0,0 0,1-1,0 1,1-1,7 11,-6-11,1 1,2-1,-1 0,0 0,0-1,2 0,0 0,-1-1,2-1,0 1,0-1,0-1,0-1,1 1,-1-1,2 0,-1-1,1 0,-1-2,0 0,1 0,-1 0,1-1,-1-1,1 0,-1 0,0 0,1-2,13-4,-17 3,0 0,1 0,-1 0,0-1,0-1,-1 0,0 1,0-1,-1-1,0-1,0 2,-1-2,1 0,5-9,6-14,-2 0,21-53,-19 38,-6 21,-3 0,-1-1,9-41,-16 58,0 2,0-1,-1-1,0 2,0-1,-1-1,0 2,-1-1,0 0,0 0,-1 1,-1-1,1 0,-1 2,0-2,-5-6,-16-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5387">4443 680,'-1'5,"0"-1,0 1,0 0,0 0,-1 0,1 0,-1-2,-1 2,1-1,-1 1,1-1,-1-1,-6 6,-52 48,41-40,-8 8,3 0,0 2,-31 42,46-56,3-1,0 0,0 2,0-1,2 1,1-1,0 2,0-2,2 2,0-1,-1 19,3 3,-1-7,2 1,9 57,-9-79,1 0,1 0,-1 0,2-1,-1 1,2 0,-1-2,0 2,1-1,0 0,0-2,2 2,-1-1,0 0,10 6,-1-2,1-2,-1 1,2-1,-1-1,2-1,-1 0,0 0,1-3,1 1,25 2,-35-5,2-1,-1 0,0 0,0-1,0 0,1-1,-2 0,1-1,0 1,-1-1,0-1,1 0,-1 0,-1-1,0 1,1-2,-1 0,-1 0,2 0,9-13,2-8,-1 0,-3 0,21-44,2-4,-27 52,1-2,-3 1,11-34,-18 47,-1 2,0-2,0 1,-1-1,0 1,-1-1,-1 1,1 0,-2-1,0 1,-3-14,3 21,0 0,0-1,-1 1,1 0,0 0,-1 1,1 0,-1-1,0 0,0 1,0 0,0 0,-1 0,0 0,1 0,-4 0,-70-22,40 15,-88-26,92 30</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink157.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17708,16 +18378,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">317 2013,'0'9,"0"30,0 63,-5 36,-1 17,-4 0,-5-12,0-23,3-25,3-26,3-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="599">79 2675,'-5'-4,"-5"-2,-6 0,-5 1,2-3,12-4,21-1,36 2,18 3,10 3,2 2,-4 2,-6 1,-10 0,-16 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2090.84">1535 2781,'51'-3,"0"-3,0-2,0-2,80-28,2 1,-125 35,-1 0,0-1,0 1,0-1,-1-1,1 0,-1 1,0-2,0 1,0-1,-1 0,1 0,-1-1,7-9,-6 6,0-1,-1 1,-1-1,0 0,0 0,-1 0,0 0,0-1,1-17,-3 15,0-1,-1 1,-1-1,0 1,0-1,-1 1,-1 0,0 0,-1 0,-1 0,0 1,0 0,-1 0,-1 0,0 0,-14-16,13 19,0 1,-1 1,0-1,0 2,-1-1,0 1,0 1,0-1,-1 2,0 0,-11-3,-3 1,0 2,0 1,-50 1,45 2,-1 1,1 1,0 2,0 2,0 0,1 2,-44 17,52-15,0 1,1 0,1 1,-1 1,2 1,0 1,1 1,0 0,1 1,-19 27,25-31,1-1,0 1,0 1,2 0,0 0,0 0,2 1,0 0,0 0,1 0,1 1,1-1,-1 25,10 350,-6-374,0 0,0-1,2 1,0-1,1 0,0 0,1 0,1 0,0-1,1 0,0 0,1-1,1 0,0 0,1-1,0 0,1-1,1 0,-1 0,2-2,-1 1,1-2,1 1,-1-2,27 11,23 5,132 44,-163-58,1-2,0-1,0-2,41 1,3-4,131-5,-205 3,0 1,0 0,-1-1,1 0,0 0,-1 1,1-1,-1-1,1 1,-1 0,0-1,4-2,5-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3533.83">2302 1405,'13'0,"14"0,6 0,3 0,4 0,8 0,1 0,1 0,-3 0,-1 0,-4 0,0 0,-2 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5197.3">3598 320,'3'0,"0"0,1-1,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,-1 0,1-1,0 1,-1 0,1-1,-1 1,0-1,0 0,0 1,0-1,-1 0,1 0,-1-1,2-3,4-11,-2 1,1-1,2-24,-6 32,-2 8,4-13,-2 0,0 0,-1 0,-1-27,0 40,0-1,0 1,0 0,0-1,-1 1,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-5 1,1 0,0 0,0 0,0 1,1 0,-1 0,1 0,-1 1,1 0,0 0,0 0,0 0,0 1,-4 5,1-1,1 1,0-1,0 1,1 1,0-1,-6 17,-2 8,3 2,0-1,-5 44,15-76,-7 60,2 0,3 0,5 65,0-40,-1-62,0-1,2 0,1 0,1 0,1 0,1-1,1 1,18 34,0 7,-2 1,-4 2,20 115,-25-106,33 204,-42-213,-2 1,-10 118,5-179,1-1,-2 1,1 0,-1-1,0 1,-1-1,0 0,-7 14,7-19,1 1,-1-1,1 0,-1 0,0 0,0 0,-1-1,1 1,0-1,-1 0,0 0,1 0,-1 0,0-1,0 0,0 1,0-1,0-1,0 1,-7 0,-4 0,0-1,-1 0,1-1,0-1,-26-6,33 6,0 0,0-1,0-1,0 1,1-1,0 0,0-1,0 0,1 0,-1 0,1-1,-6-7,-7-10,-31-48,45 63,1 0,0 0,0 0,1-1,0 1,1-1,-1 0,2 0,-1 1,0-18,5-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6606.3">3969 1934,'-6'1,"0"0,0 0,0 1,0-1,1 1,-1 0,1 1,-1 0,1-1,0 2,-7 4,-2 3,1 0,-20 21,24-22,1 1,0 0,0 0,1 1,0 0,1 0,1 0,0 1,1 0,0 0,1 0,0 1,-1 23,3-27,1 0,1 1,0-1,0 0,1 0,0 1,1-1,0-1,1 1,0 0,0-1,1 0,0 0,1 0,0-1,0 0,1 0,12 12,-10-14,-1 0,1 0,0-1,1 0,-1 0,1-1,0 0,0-1,0 0,0-1,1 0,-1 0,1-1,-1-1,1 1,11-3,-16 2,1-1,-1 1,0-1,1-1,-1 1,0-1,0-1,0 1,-1-1,1 0,0 0,-1 0,0-1,0 0,0 0,0 0,0-1,-1 1,0-1,0 0,0 0,-1-1,0 1,0-1,0 0,-1 0,3-7,-1-5,-1 0,-1 1,-1-1,0 0,-1 0,-1 0,-1 0,0 0,-9-31,8 37,-1 1,0 0,-1 0,0 0,0 1,-1-1,-1 1,1 1,-2-1,1 1,-1 1,-1-1,0 1,0 1,-17-12,4 8</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink159.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">330 1939,'0'9,"0"29,0 60,-5 35,-1 16,-5 1,-4-13,-1-21,3-25,4-24,3-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="599">82 2577,'-5'-4,"-5"-1,-7-1,-5 1,2-3,13-3,22-2,37 3,18 2,12 3,1 2,-4 2,-6 1,-11 0,-16 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2090.84">1598 2679,'53'-3,"0"-2,0-3,0-2,84-26,1 0,-129 34,-2 0,0-1,0 1,1 0,-2-2,1 0,0 1,-1-2,0 1,0-1,0 1,0-1,-1-1,7-8,-5 5,-1-1,-1 2,-1-2,0 0,1 1,-2-1,0 0,0 0,1-17,-3 14,0 0,-1 0,-1 0,0 0,0 0,-1 0,-1 1,0-1,-1 1,-2-1,1 2,0-1,-1 0,-2 1,1-1,-15-15,14 19,0 0,-2 1,1 0,0 1,-2-1,1 1,-1 1,1 0,-2 1,1 0,-12-3,-3 1,0 3,0 0,-52 1,47 2,-2 1,2 1,0 2,0 1,0 1,0 2,-45 16,54-15,1 2,0 0,1 0,-1 2,2 0,1 2,0 0,0 1,2 0,-21 26,27-29,0-2,1 2,0 0,1 1,1-1,0 1,2 0,-1 1,1-1,1 1,1 0,1 0,-1 23,10 338,-6-361,0 1,0-2,2 2,0-2,2 0,-1 1,1-1,1 1,0-2,2 1,-1-1,1 0,2-1,-1 1,1-2,1 1,0-1,2-1,-2 1,3-3,-2 2,2-2,0 0,0-1,28 10,23 6,138 41,-170-55,2-2,-1-2,1-1,42 1,3-4,136-5,-213 3,1 1,-1 0,-1-1,1 0,0 0,-1 1,1-1,-1-1,1 1,0 1,-1-2,4-2,5-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3533.83">2397 1354,'13'0,"15"0,7 0,2 0,5 0,8 0,1 0,1 0,-3 0,-1 0,-5 0,1 0,-2 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5197.3">3746 308,'3'0,"0"0,1-1,-1 0,1 0,0 0,-1 1,0-2,0 1,0-1,0 1,0-1,0 0,0-1,0 1,-1 0,1-1,-1 1,0-1,0 1,0 0,0-1,-1 0,1 0,0-1,1-3,4-10,-2 1,1-2,3-22,-7 30,-2 8,4-12,-2-1,0 1,-1-1,-1-25,0 38,0-1,0 1,0 0,0-1,-1 2,0-1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-5 1,0 0,1 0,0 0,0 1,0 0,0 0,1 0,-1 0,0 1,1 0,0 0,0 0,0 1,-5 5,2-2,1 2,-1-1,1 0,1 2,0-1,-7 16,-2 7,4 3,0-1,-6 42,16-73,-7 58,1-1,4 1,5 62,0-38,-1-60,0-1,3 0,0 0,1 0,1 0,1 0,2 0,18 33,0 6,-2 2,-4 1,20 111,-25-101,34 195,-44-204,-2 0,-10 114,5-172,1-1,-2 0,1 1,-1-1,0 0,-1 0,0 0,-8 13,8-18,1 1,-1-1,1 0,-1-1,-1 1,1 0,-1-1,1 1,0-1,-1 0,0 0,0 0,0 0,0-1,0 0,0 1,0-2,-1 0,1 1,-7 0,-5 0,1-1,-2 0,1-1,1-1,-28-5,35 5,-1 0,1-1,0-1,-1 1,2-1,0 1,0-2,-1 0,2 0,-1 0,0 0,-5-8,-8-9,-32-47,47 62,1-1,0 0,-1 1,2-2,0 1,1 0,-1-1,2 0,-1 1,0-17,5-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6606.3">4132 1863,'-6'1,"0"0,-1 0,1 1,0-1,1 1,-2 0,2 1,-1 0,1-1,0 2,-8 3,-2 4,2-1,-21 21,24-21,2 0,0 1,-1 0,2 0,0 1,0-1,2 1,0 0,1 1,0-1,1 1,-1 1,0 21,3-25,1-1,1 2,0-1,0-1,1 1,1 1,0-2,0 0,1 0,0 1,0-1,1-1,1 1,0 0,0-2,0 1,2 0,11 11,-9-13,-2 0,2 0,-1-2,1 1,0 0,0-1,1 0,-1-1,0-1,1 0,0 0,0 0,0-1,-1-1,2 1,11-3,-17 2,1-1,0 1,-1-1,1-1,-1 1,1-1,-1 0,0 0,-1-1,2 0,-1 0,-1 0,0-1,0 0,1 1,-1-1,0-1,-1 1,0-1,1 0,-1 1,-1-2,0 1,0-1,0 0,-1 1,4-8,-2-4,-1-1,-1 2,-1-1,0-1,-1 1,-1 0,-1-1,0 1,-10-30,9 35,-1 2,0-1,-1 0,-1 1,1 0,-1 0,-1 0,0 1,-1 0,1 0,-1 1,-2 0,1 0,-1 1,-17-11,4 7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink158.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17740,38 +18410,38 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2117 1270,'-6'1,"0"-1,0-1,0 1,0-1,0 0,0 0,0-1,0 0,0 0,1 0,-1-1,1 1,0-1,0-1,-8-6,9 6,0 0,0-1,1 0,0 0,0 0,1 0,-1 0,1-1,0 1,1-1,-1 0,1 1,0-1,0 0,1 0,0-10,0 3,1 0,1-1,0 1,1 0,0 1,1-1,0 0,1 1,8-15,-10 20,2 0,-1 0,1 0,0 0,1 1,-1 0,1 0,1 0,-1 1,1 0,0 0,0 1,0 0,0 0,14-5,-8 5,1 1,-1 0,0 1,1 0,0 1,-1 0,1 2,0-1,14 4,-7 0,-1 2,0 0,-1 1,1 1,22 13,193 117,-199-123,1-1,0-2,1-1,0-3,46 6,20 4,-45-8,0-3,100-1,-119-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="908.98">2779 1085,'-12'8,"1"0,0 1,1 0,0 0,1 1,0 0,0 1,1 0,1 1,-10 17,11-15,1-1,1 1,0 0,0 0,2 0,0 1,0-1,2 22,-1-26,2 0,-1 0,2 0,-1 0,1 0,1-1,-1 1,2 0,-1-1,1 0,1 0,9 15,-7-18,0 0,0 0,0 0,1-1,0-1,0 1,0-1,0-1,11 4,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1760.98">1456 1667,'266'0,"418"3,-7 31,-385-14,-111 19,-54-14,-66-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2861.98">1879 2355,'-4'3,"1"0,-1-1,1 0,-1 0,0 0,1 0,-1 0,0-1,0 0,0 0,-1 0,1 0,0 0,0-1,0 0,-1 0,1 0,0-1,0 1,0-1,0 0,-1 0,1 0,-6-4,3 3,0-1,1 0,0-1,-1 1,1-1,1-1,-1 1,0-1,1 0,0 0,0 0,1-1,-7-10,8 12,1-1,-1 0,1 0,0 0,1 0,-1-1,1 1,0 0,0-1,1 1,-1-1,1 1,1-1,-1 1,1-1,0 1,0 0,0-1,1 1,0 0,3-7,-2 7,1 0,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,0 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 1,-1 0,9-1,43-2,-1 3,90 9,-129-7,7 2,-1 1,1 1,22 9,-30-9,16 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3931.98">2117 2143,'-1'11,"-1"-1,0 0,0 0,0 0,-2-1,-4 12,-8 29,6 10,3 1,3 0,2 0,9 77,-8-130,2-1,-1 0,1 1,0-1,1 0,-1 0,2 0,-1 0,1 0,0 0,0-1,0 1,1-1,6 7,5-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14153.28">1 185,'0'-1,"0"0,1 0,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,2 0,35-5,-32 5,16-2,8-1,0 2,48 3,-70-1,0 0,1 0,-1 1,0 0,0 1,-1-1,1 2,0-1,-1 1,0 0,0 1,0-1,-1 1,10 9,19 29,-1 2,38 66,4 6,50 90,-119-194,2-1,-1 0,2 0,-1-1,2 0,-1 0,1-1,15 9,-5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14918.27">927 0,'-7'1,"0"0,1 0,-1 0,0 0,1 1,0 0,-1 1,1 0,0 0,0 0,0 0,-6 6,-9 8,-34 34,17-13,-16 15,4 2,-79 111,1-1,96-128,16-21,2 0,0 1,-22 37,26-32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16831.5">4895 953,'0'895,"0"-888,-4 46,4-52,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,-2 0,-4-3,0 0,1-1,-1 0,1 0,0-1,0 0,1 0,-7-9,-39-61,32 44,8 16,0-1,-1 2,-1-1,0 2,-1 0,0 0,-1 1,-23-14,29 22,0 0,0 1,-1 0,1 0,-1 1,0 1,0-1,0 2,0-1,0 1,0 1,0 0,-1 0,1 1,0 1,0-1,0 2,-11 3,-10 5,2 2,0 1,0 1,2 1,0 2,-40 34,55-41,1 0,0 0,1 2,0-1,1 1,0 1,1-1,1 1,0 1,1-1,-8 27,12-31,0 0,1 0,-1 0,2 0,0 0,0 0,1 0,0 0,0 0,1 0,1 0,-1 0,2-1,-1 1,1-1,1 0,0 0,0-1,8 10,-5-7,5 7,2-1,0 0,18 16,-28-29,1 0,0 0,0 0,0 0,0-1,1 0,-1 0,1-1,0 0,-1 0,1-1,0 1,14-1,334-5,-348 5,0-1,-1-1,1 1,0-1,-1 0,1-1,12-3,-17 3,0 1,0 0,1-1,-1 0,0 0,0 1,0-1,-1 0,1-1,0 1,-1 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,1 0,-1 1,1-4,1-64,-3 58,1 0,1 0,-1 0,2 0,0 1,0-1,1 0,4-11,4 2,1 0,18-25,-17 26,7-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17909.78">5213 1508,'0'-8,"0"0,1 0,0-1,0 1,1 0,0 0,1 0,0 0,7-14,-9 20,0 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 1,1-1,0 1,0 0,0 0,0-1,0 2,1-1,-1 0,0 0,0 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1 1,-1-1,0 0,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,3 3,4 3,-1-1,0 1,-1 0,0 1,0 0,-1 0,0 1,6 9,38 81,-42-82,40 98,23 47,-60-142,0 0,2-1,0-1,1 0,28 28,-37-42,0-1,0 0,0 0,1 0,-1-1,1 0,-1 0,1 0,0-1,0 1,0-2,0 1,6 0,18 3,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19223.78">5557 1773,'-19'0,"4"0,-1 0,1 1,-22 4,31-4,0 1,0 0,0 1,1-1,-1 1,1 0,-1 0,1 1,0 0,0 0,-7 7,2 0,1 1,0 0,1 0,0 1,1 0,0 1,1-1,1 1,0 0,1 0,0 1,-2 23,1 15,2 0,6 65,0-26,-3-86,0-1,1 1,-1 0,1-1,1 1,-1-1,1 1,0-1,0 0,1 0,-1 0,1 0,1 0,-1-1,0 1,1-1,0 0,0 0,0 0,10 6,-4-3,2-1,-1 0,0-1,1-1,0 1,0-2,1 0,18 3,-7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21276.46">2276 1984,'0'-1,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 1,1 0,-1 0,0-1,0 1,2 0,41-5,-39 5,10-2,-1-1,1 0,-1-1,18-8,46-11,-73 22,1 0,-1 1,0 0,1-1,-1 2,0-1,1 1,-1 0,0 0,0 0,0 1,7 2,-10-3,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 1,0-1,0 0,0 0,-1 1,1-1,0 3,0 0,-1 1,0-1,0 1,-1-1,1 1,-1-1,0 0,-1 1,-2 5,-3 6,0 0,-1-1,-1-1,-21 29,23-36,0 0,0 0,0-1,-1 0,-1 0,1-1,-1 0,0 0,0-1,-1 0,1-1,-1 0,0-1,-16 4,60-8,0 1,0 1,0 2,39 9,-42-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22124.98">3123 2223,'-5'0,"-1"9,0 8,1 9,-2 10,-1 7,1 2,2-3,2-5,1-2,1-5,1-1,0-2,1-1,-1-1,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22867.98">2805 2540,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,1 0,-1 0,1 0,-1 0,4 0,2 0,4 0,4 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24576.16">3546 2170,'-17'0,"1"1,0 0,0 1,0 0,0 1,1 1,-28 11,37-12,1-1,-1 1,1 1,0-1,0 1,0 0,1 0,-1 1,1-1,0 1,0 0,1 0,-1 0,1 0,0 1,0 0,1-1,0 1,0 0,0 0,1 0,0 0,-1 8,2-7,1-1,-1 1,1 0,0-1,1 1,0 0,0-1,0 0,1 1,0-1,0 0,0-1,1 1,0 0,0-1,1 0,-1 0,1 0,0-1,0 1,1-1,-1 0,1-1,9 5,-9-4,0-1,1 0,0 0,-1 0,1-1,0 0,0 0,1-1,-1 0,0 0,0 0,1-1,-1 0,0-1,1 0,-1 0,0 0,0-1,0 0,0 0,0-1,9-5,-12 5,-1 0,0 0,0-1,0 1,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,0-1,-1 1,0 0,0-1,0 1,-1-1,1-4,0-14,-1 0,-3-32,0 16,3 33,-1-17,1 18,0 12,0 529,0-513</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:42:05.522"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2210 1222,'-6'1,"-1"-1,1-1,0 1,0-1,-1 0,1 0,0-1,0 0,-1 0,2 0,-1 0,1 0,-1-1,1-1,-8-6,8 6,1 1,0-2,1 0,0 0,0 0,1 1,-2-1,2-1,0 1,1-1,-1 1,1 0,0-1,0 0,1 0,0-9,0 3,1-1,1 0,0 0,1 1,0 0,2 0,-1-1,1 1,9-14,-11 20,2-1,-1 0,1 1,1-1,0 1,-1 0,1 0,2 1,-2 0,1 0,0 0,1 1,-1 1,0-1,15-5,-8 5,0 1,0 0,0 2,0-1,1 1,-2 0,2 2,0-1,14 3,-7 1,-1 2,0 0,-2 1,2 0,23 14,201 111,-207-117,1-2,-1-1,2-2,0-2,47 6,22 3,-48-8,1-2,104-1,-124-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="908.98">2901 1044,'-13'8,"2"-1,-1 2,2 0,0-1,0 2,1 0,-1 0,2 1,1 0,-11 17,12-14,0-2,2 2,0-1,0 1,2-1,0 2,0-2,2 22,-1-26,2 1,-1 0,2-1,-1 1,1-1,1 0,-1 1,2-1,-1 0,2 0,0-1,9 15,-6-17,-1 0,0 0,1 0,0-2,0 0,1 1,-1-1,0-1,12 3,-1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1760.98">1520 1604,'278'0,"436"3,-8 30,-401-14,-116 18,-56-12,-70-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2861.98">1961 2266,'-4'3,"1"0,-1-1,1 0,-1 0,-1 0,2 0,-1-1,0 0,0 0,0 0,-2 0,2 0,0 0,0-1,0 0,-2 0,2 0,0-1,0 1,0-1,0 0,-2 0,2 0,-6-3,2 2,1-1,1 0,0-1,-2 1,2-1,1-1,-1 2,-1-2,2 0,0 0,0 0,0 0,-6-11,8 12,1 0,-1-1,1 0,-1 0,2 0,-1 0,1 0,0 0,0-1,1 1,-1 0,1 0,1-1,-1 1,1-1,0 2,0-1,0-1,1 1,1 0,2-6,-2 6,1 0,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,1 1,-1 1,1-1,-1 1,2-1,-2 1,1 0,0 0,1 1,-2 0,9-1,46-2,-2 3,95 9,-135-7,7 2,-1 1,1 1,23 8,-32-8,18 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3931.98">2210 2062,'-1'11,"-1"-2,0 1,0 0,-1-1,-1 0,-4 11,-9 28,7 10,3 1,2-1,3 1,10 74,-9-126,2 0,-1 0,1 1,0-2,1 1,-1 0,2 0,-1-1,1 1,0 0,0-1,1 0,0 0,6 7,6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14153.28">1 178,'0'-1,"0"0,1 0,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,0-1,-1 0,1 1,1-1,-1 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,2 0,37-5,-34 5,17-2,8-1,1 2,49 3,-73-1,1 0,0 0,-1 1,1 0,-1 1,-1-1,2 1,-1 0,-1 1,1 0,-1 1,0-1,0 0,9 10,21 27,-2 3,41 62,3 7,52 86,-123-186,1-2,-1 1,3-1,-2 0,3 0,-2-1,2 0,15 8,-5-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14918.27">968 0,'-8'1,"1"0,1 0,-2 0,1 0,1 1,0 0,-2 1,2-1,0 1,0 0,-1 0,-5 6,-10 7,-36 33,19-12,-18 14,5 2,-82 106,0 0,100-123,18-21,1 1,1 0,-24 36,28-31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16831.5">5110 917,'0'861,"0"-854,-4 44,4-50,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,-2 0,2 0,-1 0,1 0,-1-1,1 0,-1 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,1 1,-1 0,0-1,-2 0,-4-3,-1 1,2-2,-1 0,1 0,-1-1,1 1,1-1,-8-9,-40-58,33 42,9 16,-1-1,0 1,-2 0,1 1,-2 1,0-1,0 2,-25-14,31 21,-1 0,1 2,-2-1,2 0,-1 1,-1 1,1-1,-1 2,1-1,-1 1,1 1,0 0,-2 0,2 1,-1 1,1-1,-1 2,-11 3,-10 4,2 3,0 0,-1 2,3 0,0 3,-42 32,57-40,2 1,-1-1,2 3,0-2,0 2,1 0,0 0,2 0,0 2,1-2,-9 27,13-31,0 1,1 0,-1-1,2 1,0-1,0 1,1 0,0-1,0 1,1 0,1-1,-1 1,2-2,-1 2,2-1,0-1,0 1,0-1,9 9,-6-6,6 6,1-1,1 1,18 14,-28-27,0 0,0 0,0 0,1 0,-1-1,1-1,0 1,0-1,0 0,-1 0,2-1,-1 1,15-1,349-5,-364 5,0-1,-1-1,2 1,-1-1,-1 0,2-1,11-3,-16 4,-1 0,0 0,1-1,-1 0,0 0,0 1,0-1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 2,0-2,0 1,0-1,0 1,-1-1,1 0,-1 1,1-4,1-61,-3 56,1-1,1 0,-1 1,2-1,0 2,0-2,1 1,5-11,3 1,2 1,18-24,-17 25,6-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17909.78">5442 1451,'0'-8,"0"1,1-1,0-1,0 2,1-1,0 0,1 1,0-1,8-13,-10 19,0 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 1,1-1,1 1,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 1,0-1,1 1,0 0,-1-1,1 1,-1 0,0 0,1 1,-1-1,0 0,1 1,-1 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 1,0-1,3 3,5 3,-2-1,1 0,-2 1,0 1,0-1,0 1,-1 1,6 8,41 78,-45-78,42 93,24 46,-62-136,-1-1,3-1,-1-1,2 1,29 26,-39-40,0-1,0 0,1 0,0-1,-1 0,1 0,0 0,0 0,0-1,0 1,1-2,-1 1,6 0,20 3,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19223.78">5801 1706,'-20'0,"4"0,0 0,0 1,-23 4,33-4,0 1,0 0,-1 1,2-2,-1 2,1 0,-2 0,2 1,0 0,0 0,-8 6,3 1,0 0,1 1,1-1,-1 2,2 0,0 0,0-1,2 2,0-1,1 1,0 0,-3 23,2 14,2 0,6 62,0-24,-3-83,0-1,1 0,-1 1,1-1,1 1,-1-1,2 0,-1 0,0 0,1 0,-1 0,1-1,1 1,-1-1,0 1,2-1,-1 0,0-1,0 1,11 6,-5-3,3-2,-2 1,1-1,0-1,1 1,-1-3,2 1,18 3,-7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21276.46">2376 1909,'0'-1,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 1,0-1,1 0,0 1,-1-1,0 1,0-1,0 1,1 0,-1 0,0-1,0 1,2 0,43-5,-41 5,11-2,-2-1,2 0,-1 0,18-9,49-10,-77 21,1 0,-1 1,0 0,2-1,-2 2,0-1,1 1,0 0,-1 0,0 0,0 1,8 2,-11-4,0 1,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 1,0-2,0 1,0 0,-1 1,1-1,0 3,0 0,-1 0,0 0,0 1,-1-1,1 1,-1-2,0 1,-1 1,-2 5,-3 5,-1 0,0 0,-1-2,-23 29,25-36,0 1,-1 0,1-2,-1 1,-2 0,2-1,-1-1,-1 1,1-1,-2 0,2-1,-2-1,1 0,-17 4,62-8,1 1,-1 1,1 2,40 9,-44-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22124.98">3260 2139,'-5'0,"-1"9,-1 7,2 9,-2 10,-2 6,2 2,2-2,2-6,1-1,1-5,1-1,0-2,1-1,-1-1,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22867.98">2928 2444,'4'0,"8"0,4 0,6 0,3 0,3 0,0 0,1 0,-1 0,1 0,0 0,3 0,2 0,5 0,4 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24576.16">3702 2088,'-18'0,"1"1,0 0,1 1,-1 0,0 1,2 1,-30 10,39-11,0-1,0 1,1 1,0-2,-1 2,1 0,1 0,-1 1,1-1,-1 0,1 1,1 0,-1 0,1 0,0 1,0-1,0 0,1 1,0 0,0-1,1 1,0 0,-1 7,2-6,1-1,-1 1,1-1,0 0,1 1,0 0,0-2,0 1,2 1,-1-1,0-1,0 0,1 1,0 0,1-1,0-1,-1 1,1 0,0-1,1 1,0-1,-1-1,1 0,10 5,-10-4,1-1,0 0,0 0,-1-1,2 0,-1 0,0 0,2-1,-2 0,0 0,1 0,0-1,-1 0,1-1,0 0,-1 0,1 0,-1-1,0 0,0 0,1 0,8-6,-11 5,-2 0,0 0,0-1,0 1,0 0,0 0,0-1,-1 0,0 0,0 0,0 0,0 0,-1 0,0 0,0-1,0 1,-1-1,1-3,0-14,-1 0,-3-31,0 15,3 32,-1-16,1 17,0 12,0 509,0-494</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink159.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:33:59.262"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -17780,35 +18450,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'9'0,"3"0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink160.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T22:33:59.262"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">6 106,'-3'133,"1"-31,11 113,-7-199,1-1,0 0,1 0,0 0,2 0,0-1,0 1,1-2,1 1,0-1,1 0,0-1,1 0,1 0,0-1,0 0,1-1,0-1,1 0,0 0,0-1,1-1,0-1,0 1,1-2,0 0,0-1,28 4,-37-7,1 0,-1 0,0-1,1 0,-1 0,1-1,-1 1,10-4,-13 3,-1 0,1 0,-1 0,0-1,0 1,0-1,1 0,-2 1,1-1,0 0,0 0,0 0,-1-1,0 1,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,0-5,5-32,-2-1,-1 0,-5-65,0 74,1-1,1 1,2 0,1 0,1 0,2 0,12-35,-3 37,-6 24,0 20,-4 17,-1 1,-1-1,-2 0,-3 36,1-8,-2 1032,32-768,-17-233,-3 2,-4 97,-5-181,-1 1,1-1,-2 0,1 0,-1 0,0 0,-1 0,0-1,0 1,-1-1,-8 13,9-16,-1 0,0 0,0 0,0-1,0 0,0 0,-1 0,0 0,1-1,-1 0,0 0,0 0,0 0,0-1,-1 0,1 0,0 0,-1-1,-4 1,-9-1,1 0,-1-1,1-1,0-1,-1 0,1-1,1-1,-1-1,1-1,0 0,-30-18,37 18,-1 0,2-1,-1-1,1 0,0 0,1 0,0-1,0 0,1-1,1 0,-1 0,2 0,0-1,0 0,1 0,0 0,1 0,-1-15,2 11,1 1,1-1,0 0,1 0,1 1,0-1,2 1,-1-1,2 1,0 0,1 0,12-22,-2 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="531.3">1170 768,'4'0,"16"0,21-4,19-2,38 0,12 1,-4-3,-6 0,-16 2,-22 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="531.29">1170 768,'4'0,"16"0,21-4,19-2,38 0,12 1,-4-3,-6 0,-16 2,-22 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1060.33">1250 1297,'13'0,"18"0,27 0,16 0,5 0,-2 0,-10 0,-7 0,-9 0,-9 0,-7 0,-5 0,-3 0,3 0,9 0,-1 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57455.94">615 265,'-4'74,"-20"118,12-121,-4 133,15-81,-1-49,14 138,-7-187,1-1,1 0,1 0,2 0,0-1,1-1,18 26,110 142,-133-184,0 1,1-1,0 0,0 0,0-1,1 0,-1 0,1-1,0 0,10 3,13 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58313.96">1170 397,'-2'8,"1"0,-1 0,0-1,0 1,-1-1,0 1,-7 9,-3 12,-34 78,-25 67,69-165,0 0,-1-1,0 0,0 0,-1 0,0 0,0-1,-1 1,0-2,0 1,-10 8,6-7,-1-1,0 0,0-1,-1 0,0-1,0 0,-18 4,14-4,1 1,-1 0,1 2,-25 14,21-10</inkml:trace>
@@ -17817,7 +18460,34 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:42:05.522"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'9'0,"3"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink160.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17846,7 +18516,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink162.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink161.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17869,12 +18539,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">650 807,'0'0,"1"-1,0 1,-1-1,1 1,-1-1,1 1,0-1,-1 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,1 0,-2 0,1 1,0-1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1-1,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 1,-1-1,-3-1,-65-9,49 11,1 2,0 0,0 1,-1 0,2 2,-1 1,0 0,1 2,1 0,-1 1,1 1,-22 16,16-9,0 2,1 0,1 1,1 1,1 2,1 0,1 1,-16 27,26-36,1 2,0-1,2 1,-8 25,12-36,0 0,1 0,0 0,0 1,0-1,1 0,0 0,0 1,1-1,0 0,0 0,0 0,0 0,1 0,0 0,4 7,-5-11,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,2-1,34 4,0-2,0-1,0-3,-1 0,47-11,0 3,-5 1,323-25,-390 34,-1 0,1 0,0 1,0 1,-1 0,1 0,-1 1,12 5,-17-5,1 0,0 1,-1 0,0 0,0 1,0 0,-1 0,0 0,0 1,0 0,0 0,-1 0,5 9,2 8,0 0,-2 1,0 0,-2 0,-1 1,-1 0,2 26,-1 23,-5 80,0-145,-2-1,1 1,-1 0,0-1,-1 1,0-1,0 0,-7 15,6-19,1 0,-1 0,-1 0,1 0,0-1,-1 1,0-1,0 0,0 0,0 0,0 0,-1-1,1 0,-1 0,-8 3,-14 3,0-1,0-2,0 0,-36 0,-113-4,101-3,-66-4,124 4,0-1,1-1,-1 0,1-1,0-1,-19-9,10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1121.99">809 13,'1'-1,"1"0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,4 0,48 16,-45-13,28 11,-2 1,0 2,-1 2,0 1,53 44,-46-27,-1 0,-2 3,50 69,-27-17,-3 2,-5 3,62 162,-44-70,51 225,-112-367,-2 0,-2 0,0 55,-12 147,4-216,-1 5,-1 0,-2 0,-17 61,15-76,-1-1,0 1,-2-1,0-1,-2 0,-27 35,31-46,-1-1,-1 0,-21 16,-7 2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink163.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">679 774,'0'0,"1"-1,0 1,-1-1,1 1,-1-1,1 1,0-1,-1 0,0 1,1 0,-1-1,1 0,-1 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,1 0,-2 0,1 1,0-1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1-1,-1 0,0 1,0 0,0 0,0-1,0 1,0 0,-1-1,0 1,1 1,-1-1,-3-1,-68-9,51 11,1 2,0 0,0 1,-1 0,2 2,-1 1,0-1,1 3,2 0,-2 0,1 2,-23 15,17-9,0 2,1 1,1 0,1 1,1 2,1 0,1 1,-17 26,28-35,1 3,-1-2,3 1,-9 25,13-36,0 1,1 0,0 0,0 0,0 0,1 0,0 0,0 0,1 0,0 0,0 0,0-1,0 1,1 0,0 0,5 6,-6-10,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 0,0 1,0-1,0 1,2-1,36 4,0-2,-1-1,1-3,-1 0,48-10,1 2,-5 2,337-25,-408 33,0 0,0 0,1 1,-1 1,0 0,0 0,0 1,12 4,-18-4,1 0,1 1,-2 0,0-1,1 2,-1 0,-1 0,0 0,0 0,1 1,-1 0,-1 0,5 8,3 8,-1 0,-1 1,-1 0,-1 0,-2 1,-1 0,2 25,0 22,-6 77,0-139,-2-2,1 2,-1 0,0-2,-1 2,-1-1,1-1,-7 15,6-18,1 0,-1 0,-2 0,2-1,0 0,-1 1,0-1,0 0,-1 0,1 0,0 0,-1-2,1 1,-2 0,-7 3,-15 3,-1-2,1-1,0 0,-38 0,-118-4,106-3,-69-4,129 4,0-1,1 0,0-1,0-1,0-1,-19-8,10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1121.99">845 13,'1'-1,"1"0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1-1,0 1,2 0,-2 0,0 0,1 0,-1 0,0 1,4 0,51 15,-48-12,30 10,-3 2,1 1,-2 2,1 1,55 43,-48-27,-1 1,-3 2,53 67,-28-17,-4 2,-4 3,64 155,-46-66,54 215,-118-352,-2 0,-1 0,-1 53,-12 141,4-208,-2 6,0-1,-2 0,-18 59,16-73,-2 0,1 0,-3-1,1-1,-3 0,-28 33,33-43,-1-1,-2-1,-21 16,-8 2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink162.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17897,11 +18567,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3861,'0'-17,"2"0,0-1,1 1,1 0,1 0,8-20,48-95,-41 93,2-7,213-469,-196 417,4 1,4 2,5 3,109-149,-32 71,170-173,-219 268,139-99,105-45,-307 206,0 2,1 1,0 0,1 1,0 1,0 1,1 0,0 2,0 0,1 1,-1 2,33-2,-23 6,0 1,1 2,-1 1,-1 1,1 1,-1 2,-1 1,0 1,37 22,-6 2,-1 3,-2 2,52 50,12 26,139 177,-6-6,-201-236,3-3,2-2,1-2,69 38,-36-31,3-5,117 42,-169-75,1-2,1-1,0-3,0-2,1-1,-1-3,1-1,52-7,4-6,-1-5,149-44,536-245,-762 296,100-45,-3-6,214-145,370-320,-620 462,211-176,137-100,-298 255,198-95,163-35,-286 128,288-109,-365 151,247-49,-363 90,0 1,0 1,1 1,-1 0,0 1,1 1,-1 0,0 2,0-1,0 2,0 0,0 1,-1 1,17 8,17 13,0 3,-2 1,-2 3,77 72,146 186,-5 25,209 239,-281-332,-100-112,196 184,-261-275,1-2,1-1,1-1,0-2,1 0,0-2,1-2,1-1,59 12,16-6,177 5,-212-18,705 6,-719-11,-1-2,68-14,-94 12,-1-3,1 0,-2-2,1-1,44-26,21-18,-3-4,-3-5,-3-3,124-126,-179 161,260-268,-239 253,3 3,1 3,122-70,321-107,-362 165,575-194,-567 211,0 6,3 6,152-6,-277 30,40 0,-60 1,1 0,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0 0,0 0,0 0,-1 0,6 4,3 8,0 0,-1 1,-1 0,0 1,-1-1,11 31,23 104,-40-145,8 39</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink164.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3713,'0'-16,"2"-1,0 0,1 1,1-1,2 1,7-20,50-91,-42 90,2-7,221-452,-204 402,5 1,4 2,5 2,113-143,-33 69,176-167,-227 258,145-95,108-44,-318 198,-1 3,2 0,0 1,0 0,1 1,0 2,1-1,-1 2,1 0,1 1,-1 2,34-1,-24 4,0 2,1 2,-1 1,-1 1,2 0,-2 3,-1 1,0 0,38 22,-5 1,-2 4,-2 1,54 49,13 24,143 171,-5-6,-209-227,3-3,2-2,2-1,70 36,-36-30,2-5,123 40,-177-71,2-3,0 0,1-3,0-3,0 0,0-3,1-1,54-7,3-5,0-6,155-41,556-237,-791 286,103-44,-2-6,221-139,385-308,-643 445,218-170,142-96,-309 245,206-91,169-34,-297 124,299-106,-379 146,256-47,-376 86,-1 1,1 1,1 1,-2 0,1 1,1 1,-2 0,1 2,-1-1,1 2,0-1,-1 2,0 1,17 7,18 13,0 3,-2 1,-3 3,81 69,151 179,-5 23,217 231,-292-319,-103-109,203 178,-271-265,1-2,1 0,1-2,0-2,1 1,0-3,2-1,0-1,61 11,17-6,184 5,-220-17,731 6,-745-11,-2-2,71-13,-98 11,-1-3,1 1,-2-3,1 0,46-26,22-17,-4-4,-2-4,-4-3,129-122,-186 155,270-257,-248 243,3 2,1 4,127-68,333-102,-376 158,598-187,-590 204,1 5,2 6,159-6,-288 29,41 0,-62 1,1 0,-1 1,0 0,2 0,-2 0,0 0,1 0,-1 0,0 1,0 0,0 0,1-1,-2 1,6 4,3 8,1-1,-2 2,0-1,-1 1,-1 0,12 29,24 100,-42-139,8 37</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink163.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17924,29 +18594,29 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1853 5794,'-2'37,"1"-13,1 1,3 27,-2-47,0 0,-1 0,1 0,1-1,-1 1,1 0,0-1,0 1,0-1,1 0,-1 0,1 1,0-2,0 1,0 0,7 4,-9-7,1 0,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,1-3,35-41,-30 34,0 1,-1 0,0-1,0 0,-2-1,7-20,-10 28,0 1,-1-1,1 1,-1-1,0 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,0 0,1 1,-1 0,-3-2,-15-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1788.13">20188 5741,'-25'0,"8"0,-1 0,0 1,-17 3,29-2,0-1,0 1,0 0,0 1,0-1,1 1,-1 0,1 1,0-1,0 1,0 0,-5 6,2-3,1 1,0 0,1 1,0 0,0 0,1 0,0 0,0 1,1 0,0 0,1 0,-2 13,5-20,0-1,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,3-1,13 4,-1-1,1-1,23 0,-24-1,22 1,-1 2,0 1,-1 2,1 2,-1 1,43 18,-77-27,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 1,-1 4,-1-3,1 0,-1 0,0 0,-1-1,1 1,-1-1,0 1,0-1,0 0,-1 0,1 0,-1-1,0 0,0 1,-1-1,1 0,0-1,-8 4,-15 4,0-1,0-2,-1 0,0-2,-42 2,13 0,23-3,3-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10115.98">2091 0,'2'648,"-5"706,-16-906,-115 671,-43 61,133-866,-15 152,30-203,7-74,2 200,21-230,0-130</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8828.57">1 5530,'20527'0,"-20494"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34158.76">5848 5398,'0'14,"0"8,4 10,2 4,-1 5,0 0,-2-3,4-7,4-5,1-3,-1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35602.91">9870 5450,'0'5,"0"10,0 7,0 5,0 2,0 0,0 5,0 1,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36723.67">13865 5239,'27'325,"-13"-217,-1 117,-14-24,1-173</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37906.93">17622 5239,'2'1,"1"0,-1-1,0 1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 1,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,1 4,24 49,-25-51,21 51,-2 1,-3 1,-3 0,-2 2,-2-1,-3 2,-3-1,-2 62,-3-92,1-20,-1 0,0 0,0 0,-1 0,0 0,-1 0,0 0,0 0,-1-1,-6 14,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45682.48">1826 4180,'26'0,"0"-2,0-1,0-1,0-1,0-1,25-10,64-23,1 5,2 5,125-13,-14-1,-178 32,56-9,-70 15,1-2,-1-1,0-2,51-22,-41 14,1 1,0 3,97-16,-76 17,69-22,-33 1,184-37,-160 44,148-51,-249 69,293-101,112-21,-59 21,-305 95,-50 12,-1-1,0-1,0 0,21-10,-12-9,-11 10,-15 14,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,11 69,-4 0,-2 0,-8 107,1-62,2 25,2 32,-39 319,14-343,-26 136,35-192,4 0,4 1,8 130,0-73,-2-129</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48007.44">9817 1111,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50852.06">5769 3096,'4'0,"0"-1,0 0,0-1,0 1,0-1,-1 0,1 0,6-4,17-9,311-89,-66-8,-125 47,45-17,178-69,-207 88,-37 13,134-34,60-24,-121 35,483-174,-505 180,57-25,-151 55,101-50,-156 71,-2-2,36-31,-34 26,40-26,-47 36,-1-1,0-1,-1-1,-1-1,-1 0,0-1,-1-1,-1-1,-1 0,12-24,-11 20,-9 16,-1 0,0 0,-1 0,0 0,0-1,-1 0,3-9,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52188.08">10055 1058,'-17'711,"7"-420,-7 96,5 416,15-483,-17 58,0 22,1-61,0-1,13-276,2 2,-3-1,-15 100,1-96,-6 47,19-92</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55117.21">10028 1032,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56176.98">14182 2408,'-5'0,"-1"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59212.7">10161 1138,'23'2,"0"1,0 1,0 1,0 1,-1 1,0 1,26 13,51 17,397 98,-29-9,-353-86,-63-21,54 13,536 148,-629-176,1 0,-1 1,19 12,28 13,258 67,-180-58,-63-18,235 63,-268-73,57 23,-61-20,1-2,39 9,41 8,-75-18,1-1,0-3,53 5,-87-13,0 0,0 1,0 1,0 0,14 4,-21-4,0-1,0 0,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,2 6,5 35,-3 1,-1 0,-2 0,-5 58,1-24,-1 48,3 139,3-243,1 0,0 0,10 27,-6-24,8 52,-5 8,0-9,-1 77,-11 1819,1-1948</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61657.36">17595 4260,'0'-4,"0"-7,0-18,0-10,0-20,-9-41,-3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62023.35">17304 2434,'0'-9,"0"-34,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62405.35">17357 1667,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="65099.53">14050 2381,'6'0,"1"-1,0 1,0-2,0 1,-1-1,11-4,11-3,422-112,13 31,-306 62,245-79,-19 4,-61 24,35-7,-311 77,241-60,-197 30,-75 30,0 2,1 0,0 1,0 0,0 1,31-4,-41 9,-1 0,0 1,0-1,1 1,-1 1,0-1,0 1,0 0,0 0,-1 0,1 1,0 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 1,0-1,0 1,2 4,2 4,-1 0,0 1,-1-1,0 1,-1 0,0 0,2 25,-2 95,-4-80,8 63,2-29,12 71,1-40,-5 0,1 135,-17 244,-5-245,4-164,3-1,5 0,3 0,33 116,15 72,-11-42,17 3,-56-184,-3 0,-1 0,-3 0,-8 102,2-34,5-39,0-51,-1 1,-2-1,-1 0,-11 59,9-79,-1-1,0 0,0 1,-1-2,0 1,0-1,-1 0,-1 0,0-1,0 0,0 0,-1-1,0 0,0 0,-11 5,-9 4</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink165.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1929 5569,'-2'35,"1"-12,1 1,3 26,-2-45,0 0,-1 0,1 0,1-2,0 2,0 0,0-1,0 1,0-1,1-1,-1 1,1 1,0-2,0 1,1 0,6 3,-9-6,1 0,0-1,0 0,-1 1,1-1,0 0,1 0,-1 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0 1,-1-1,0 0,1 0,-1-1,0 1,0 0,1-3,36-39,-30 32,-1 2,-1-1,1-1,-1 1,-2-2,7-19,-10 28,1 0,-2-1,1 1,-1-1,0 0,0 1,-1 0,1 0,-2-1,2 0,-1 1,0-1,0 1,-1 1,1-2,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,-1 0,-1-1,2 1,-1 0,-3-2,-16-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1788.13">21020 5518,'-26'0,"8"0,-1 0,0 1,-17 3,30-2,-1-2,1 2,0 0,0 1,-1-1,2 1,-1 0,1 1,0-1,-1 0,1 1,-5 6,1-3,2 0,0 1,1 1,-1-1,1 1,1 0,0-1,0 2,0 0,1-1,1 1,-2 12,5-19,0-1,0 1,0-2,1 1,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0-1,1 1,1-1,-2 1,1 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,2-1,-2 1,3-1,14 4,-2-2,2 0,24 0,-26-1,24 1,-1 2,-1 1,0 2,0 1,0 2,44 17,-80-26,0 0,0 1,1-1,-2 0,1 0,0 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,-1-1,1 0,-1 1,0 0,1 0,-1 0,0 0,-1 1,1-2,-1 1,1 0,-1 0,0 0,0 1,-1 4,-1-4,1 1,-1 0,0 0,-1-1,1 0,-1 0,-1 1,1-1,0 0,-1 0,1-1,-1 0,0 0,-1 1,0-1,1 0,0-1,-9 3,-15 5,0-1,0-3,-1 1,0-2,-44 2,14-1,23-2,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10115.98">2177 0,'2'623,"-5"678,-17-870,-119 644,-46 59,140-832,-17 146,32-195,7-72,2 193,22-221,0-125</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8828.57">1 5315,'21373'0,"-21339"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34158.75">6089 5188,'0'14,"0"7,4 9,2 5,-1 5,1-1,-3-3,4-6,5-5,0-3,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35602.91">10277 5238,'0'5,"0"9,0 7,0 5,0 2,0 0,0 5,0 0,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36723.67">14436 5035,'28'313,"-13"-210,-2 114,-14-24,1-166</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37906.93">18348 5035,'2'1,"1"0,-1-1,0 1,1 0,-1 0,1 0,0 1,-1-1,0 0,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,2 4,24 47,-26-49,22 49,-2 0,-4 2,-2 0,-2 2,-3-2,-3 3,-2-1,-3 59,-3-88,1-19,-1-1,0 1,0 0,-1-1,0 1,-1 0,-1-1,1 1,-1-1,-6 13,-3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45682.48">1901 4017,'27'0,"0"-1,0-2,0-1,1-1,-1-1,26-9,66-23,2 6,2 4,130-13,-14 0,-186 31,58-10,-72 16,0-3,0-1,-1-1,54-22,-43 13,1 2,0 3,101-16,-79 16,71-20,-33 0,190-35,-165 42,153-49,-259 66,306-96,115-21,-60 20,-318 91,-53 13,0-2,0-1,0 0,21-9,-12-9,-11 9,-16 14,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 1,12 67,-5-1,-2 0,-8 103,1-59,2 23,2 31,-40 307,14-330,-27 131,36-184,5-1,4 2,8 124,0-70,-2-124</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48007.44">10221 1068,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50852.06">6007 2976,'4'0,"0"-1,0 0,0-1,0 1,1-1,-2 0,1 0,6-4,18-8,324-86,-68-8,-131 46,47-17,185-66,-216 84,-37 13,138-32,64-24,-127 34,503-168,-526 174,60-25,-158 54,106-49,-163 69,-2-3,38-29,-36 25,42-25,-50 35,0-2,0 0,-1-2,-1 0,-2 0,1-2,-1 0,-2-1,0 0,12-24,-12 20,-8 16,-2-1,0 0,-1 1,0-1,1-1,-2 1,3-10,-2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52188.08">10469 1017,'-18'683,"8"-403,-8 92,6 400,15-465,-18 57,1 20,0-58,1-1,13-266,2 3,-3-2,-16 97,2-93,-7 46,20-89</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55117.21">10441 992,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56176.98">14766 2314,'-5'0,"-1"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59212.7">10580 1094,'23'2,"1"1,0 0,0 2,0 1,-1 1,0 0,27 14,53 15,414 95,-31-9,-367-83,-66-19,56 11,558 143,-654-169,0 0,0 1,19 11,30 13,268 64,-188-56,-65-17,245 61,-279-70,59 21,-64-18,2-3,40 9,43 8,-78-17,0-2,1-2,55 4,-90-12,-1 0,1 1,-1 1,0 0,15 4,-22-4,1-1,-1 0,0 1,0 0,0 0,0 0,-1 0,1-1,-1 1,2 1,-2-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1-1,0 1,2 6,6 33,-4 1,-1 1,-2-1,-5 56,1-23,-1 46,3 134,3-234,1 0,0 0,11 26,-7-23,9 50,-6 8,1-9,-2 74,-11 1748,1-1872</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61657.36">18320 4094,'0'-3,"0"-8,0-17,0-9,0-20,-10-39,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62023.35">18017 2339,'0'-8,"0"-34,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62405.35">18072 1602,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="65099.53">14629 2288,'6'0,"1"-1,1 1,-1-1,0 0,-1-1,12-4,11-3,440-107,13 29,-319 61,256-77,-20 4,-64 23,37-7,-324 74,250-57,-204 29,-78 28,-1 2,2 1,0 0,-1 0,1 1,32-3,-43 8,-1 0,1 1,-1-1,1 0,-1 2,0-1,1 1,-1 0,0 0,-1 0,1 1,1 0,-2 0,0 0,0-1,0 2,0-1,1 1,-2 0,1 0,-1 1,0-2,0 2,2 4,3 3,-2 1,0 0,-1 0,1 0,-2 1,0-1,2 25,-2 90,-4-76,9 61,1-29,13 69,1-38,-5-1,0 130,-16 235,-7-236,5-158,4 0,4 0,4-1,33 112,17 69,-12-40,18 3,-59-177,-3 0,0 0,-4 0,-9 98,3-33,5-37,0-49,0 1,-4-2,0 1,-11 57,9-77,-1 0,-1-1,1 2,-1-2,0 0,-1 0,0 0,-1-1,-1 0,1 0,0-1,-2 0,1 0,0-1,-12 6,-9 3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink164.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17969,11 +18639,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 818,'5'-3,"0"-1,1 1,0 0,0 1,0-1,0 1,0 1,0-1,9-1,7-2,322-109,-321 106,521-156,-265 109,26-8,41-12,348-141,-640 197,-34 12,1 0,-2-2,1 0,26-17,-45 25,2-1,-1 1,0-1,0 1,0 0,1 0,-1-1,1 2,-1-1,1 0,-1 0,1 1,-1 0,1-1,4 1,-5 1,0 0,0 0,0 0,1 0,-1 1,0-1,-1 1,1-1,0 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,0 1,0-1,0 0,1 3,21 54,-2 0,-4 0,15 87,-7-32,-10-44,-2 1,-4 1,-3-1,-3 89,-8 1187,8-720,-3 1244,0-1867,0-1,1 1,-2 0,1 0,0 0,-1 0,1-1,-1 1,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 0,-1 0,1 0,0 0,-1-1,1 1,-1-1,0 0,1 0,-7 1,-131 25,-43-3</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink166.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 786,'5'-3,"0"0,1 0,1 0,-1 1,0-1,0 1,0 1,0-1,10-1,6-1,332-106,-330 102,535-149,-272 104,26-8,43-11,357-136,-657 190,-36 11,2 1,-3-3,2 0,26-16,-46 24,2 0,-1 0,0-1,1 1,-1 0,1 0,-1-1,1 2,-1-1,1 0,-1 0,1 1,-1 0,1-1,4 1,-4 1,-1 0,0 0,0 0,1 0,-1 1,0-1,-1 1,1-1,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,0-1,0 0,1 3,22 51,-2 1,-5 0,16 83,-7-30,-11-43,-2 1,-3 1,-4 0,-3 85,-8 1140,8-691,-3 1196,0-1795,0-1,1 0,-2 1,1 0,0 0,-1 0,1-1,-1 1,0-1,0 0,-1 1,1 0,-1-1,0 1,0-1,-1-1,1 1,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 0,-1-1,1 1,0 0,-2-1,2 1,-1-1,0 0,1 0,-7 1,-135 24,-44-3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink165.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17996,18 +18666,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 4392,'0'7,"1"-1,0 1,1-1,-1 0,1 0,1 0,-1 0,1 0,0 0,0-1,6 8,52 60,-38-48,-7-8,0-2,1 0,1 0,0-2,1 0,0-2,39 18,153 47,-187-69,16 4,-1-2,1-2,72 4,124-12,-92-2,-79 1,-35 1,0 0,56 7,-83-5,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0-1,0 1,0-1,-1 1,1 4,2 8,-1 0,0 1,-1 19,-1-23,-3 184,1 44,3-228,0 0,0 0,6 18,-7-30,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,5-18,0-28,-5 24,1-1,1 1,1 0,1 0,0 0,2 0,0 1,2 0,0 0,1 1,1 0,1 0,0 1,21-24,62-86,-93 127,1-1,0 0,0 0,-1 0,1 1,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,1 0,-1 1,0-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,3 1,5 1,0 1,-1 1,1 0,15 8,23 10,58 3,2-4,136 9,-77-11,232 14,-334-32,0-4,-1-2,1-2,72-20,-100 14,-1-1,0-2,-1-1,-1-2,56-41,2 0,-35 27,-24 15,0-1,34-28,-59 40,0 1,-1-1,1 0,-2-1,1 0,-1 0,-1 0,1-1,-1 1,-1-1,0-1,6-18,-4-4,-2 0,-2 0,-1-1,-6-57,2 40,4 48,-1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-2-3,1 4,1 1,-1-1,0 0,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 1,-1 0,-38 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.35">1773 5688,'1'-4,"1"-1,0 0,0 1,0-1,1 1,0 0,0-1,0 1,0 1,1-1,-1 0,1 1,0 0,8-6,0 0,67-56,111-66,-125 88,-63 41,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,4 1,-5 0,0 1,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 1,1-1,-2 0,1 1,0-1,0 1,-1-1,1 1,-1-1,0 1,0 3,18 203,3 25,-15-207</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20773.88">927 1270,'-38'590,"-5"-307,-5 63,34-173,-3 83,13-202,-2 0,-15 56,0 1,7-25,-3 7,5 0,0 101,10-144,-9 58,-1 46,10-72,5 98,1-158,2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22229.02">1535 423,'0'38,"-35"860,-4-406,-19 144,15-307,-10 66,45-321,3 0,6 82,0-63,-1-84,0-4,0-1,-1 0,1 0,0 0,1 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0 0,4 3,11 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23525.02">2091 0,'-2'1,"0"-1,0 0,0 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,1 0,-2 2,-14 47,16-50,-15 91,5 1,4-1,6 102,0-96,4 2850,-4-2912</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24694.66">2832 53,'-2'185,"-43"313,12-237,4 523,32 441,-3-806,-2-379,-2 0,-1 1,-12 42,-4-32,9-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25673.85">3361 556,'0'3122,"0"-3094</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26731.84">3943 873,'-8'19,"2"-1,0 1,1 0,1 0,1 0,-1 25,-2 10,-3 13,-75 759,59-196,17-545,-24 110,-6 65,-6 65,31-241,-13 60,18-117</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink167.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 4219,'0'6,"1"0,0 1,1-1,-1-1,1 1,1 0,-1 0,1-1,0 1,0-1,7 7,52 59,-39-47,-6-8,-1-2,2 1,0-1,0-1,2-1,-1-1,40 17,157 45,-192-67,17 5,-1-2,1-3,73 5,127-12,-93-2,-82 1,-35 1,-1 0,58 7,-85-5,0 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 0,0 0,0 1,0-1,-1 1,1 4,2 7,-1 1,0 0,-1 19,-1-23,-3 177,1 43,3-220,0 1,0-1,6 18,-7-29,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,2 0,-2 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,5-17,0-27,-5 22,1 0,1 1,1 0,1 0,0 0,2-1,0 2,2 0,1 0,0 1,1-1,1 1,1 1,20-24,64-82,-95 122,1 0,0-1,0 0,-1 0,1 1,1-1,-1 1,0 0,1-1,-1 1,0 0,0 0,1 0,-1 1,0-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,3 1,6 1,-1 1,-1 1,1 0,16 7,23 10,59 3,3-3,138 7,-79-9,238 12,-342-30,1-4,-2-1,2-3,73-19,-103 13,0 0,0-2,-1-2,-2-1,58-40,2 1,-35 25,-26 15,1-1,34-28,-59 40,-1 0,-1-1,1 1,-2-2,1 0,-1 0,0 1,0-2,-1 1,-1 0,0-2,6-17,-4-3,-2-1,-2 0,-1-1,-6-54,2 38,4 46,-1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-2-3,1 4,1 1,-1-1,0 0,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,-1 0,-39 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.34">1811 5463,'1'-3,"1"-2,0 0,0 1,0-1,1 2,1-1,-1-1,0 1,0 1,1-1,-1 1,1 0,0 0,8-6,1 0,67-53,114-64,-127 85,-65 39,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,4 1,-5 0,0 0,0 0,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 1,1-1,-2 0,1 0,0 0,0 1,-1-1,1 1,-1-1,0 1,0 3,19 194,2 25,-15-199</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20773.88">947 1220,'-39'567,"-5"-296,-5 62,35-167,-3 80,12-194,-1 0,-15 53,-1 2,8-25,-3 8,4-1,1 97,10-138,-9 56,-1 44,10-69,5 94,1-152,2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22229.02">1568 406,'0'37,"-36"825,-4-389,-19 138,15-295,-10 63,46-308,3 0,6 79,0-60,-1-82,0-3,0-1,-1 0,1 0,0-1,1 1,-1 1,1-1,0 0,0 0,0-1,1 1,-1 0,1 0,0-1,0 1,0 0,4 2,12 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23525.02">2136 0,'-2'1,"0"-1,0 0,0 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-2 0,2 0,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,1 0,-2 2,-14 45,16-48,-15 87,4 2,5-2,6 98,0-92,4 2738,-4-2797</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24694.66">2893 51,'-2'178,"-44"300,12-227,5 502,32 423,-3-773,-2-365,-2 1,-1 0,-13 41,-3-31,8-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25673.85">3433 534,'0'2999,"0"-2972</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26731.84">4028 839,'-8'18,"2"-1,0 1,0 1,2-1,1 0,-1 24,-2 10,-3 13,-77 728,61-188,16-523,-23 105,-7 63,-6 62,32-231,-14 57,19-112</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink166.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18030,11 +18700,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1485 136,'-21'2,"1"0,-32 7,11-1,4 0,0 1,1 2,1 1,-1 2,2 1,0 2,1 1,1 2,1 1,0 1,-34 34,55-47,-228 237,208-212,2 2,1 2,3 0,1 1,-28 64,6 50,14-41,-22 84,-46 334,-52 246,122-644,6 1,-8 158,16 269,15-533,-2 129,10 378,2-439,4-1,37 135,91 174,-117-344,2-2,62 93,-68-120,2-1,1-1,0-1,2-2,2 0,38 26,-20-19,2-1,1-3,2-3,0-1,2-3,0-2,71 16,311 90,-271-72,-123-42,1-2,0-2,0-2,50 1,171-13,-251 6,39-3,1-3,92-24,95-46,-38 10,-157 53,0-2,-1-2,-1-3,-1 0,45-33,177-156,-88 72,-99 82,83-80,-34 7,-6-5,129-187,-195 245,95-150,-125 185,-1 0,-3-2,26-84,65-357,-29-150,-45-11,-36 532,-13-467,4 474,-5 1,-4 1,-47-154,-85-142,114 323,-2 2,-4 1,-53-69,80 124,-2 1,0 0,-1 2,-1 0,0 1,-1 1,-1 1,0 1,-42-18,-16-1,-119-29,186 57,-452-114,345 95,-238-16,-181 39,203 3,309-2,1 1,-1 2,1 0,0 2,1 0,-37 18,-31 8,-92 28,-71 21,233-77</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink168.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1537 131,'-22'2,"1"0,-32 6,10 0,5 0,0 1,0 1,2 2,-1 1,2 2,-1 1,2 1,1 3,1 0,0 1,-35 33,56-45,-235 227,215-203,2 2,1 1,3 1,1 0,-28 63,5 47,15-39,-23 80,-47 323,-55 236,127-620,7 1,-9 152,16 259,16-513,-2 124,10 365,3-424,3 0,39 129,94 168,-121-331,2-2,64 89,-71-115,3-1,1-1,0-1,2-2,2 0,39 25,-20-18,1-1,2-3,2-3,0-1,2-3,-1-2,75 16,321 86,-280-69,-128-40,1-2,1-3,-1-1,53 1,176-13,-260 6,41-3,1-2,95-24,98-44,-39 9,-162 52,-1-3,0-1,-2-3,0 0,46-32,183-151,-91 71,-102 78,85-77,-35 7,-5-5,132-181,-201 237,98-144,-129 177,-1 1,-4-3,28-80,67-344,-30-144,-47-11,-37 512,-13-449,3 456,-4 0,-5 2,-48-148,-88-137,117 311,-1 1,-4 2,-56-66,84 118,-3 2,1 0,-2 1,-1 1,1 0,-2 2,-1 0,0 2,-43-18,-17-1,-122-28,191 55,-467-109,357 91,-247-16,-186 38,209 3,320-2,1 1,-1 1,1 1,0 2,2 0,-39 17,-33 8,-94 26,-74 21,241-74</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink167.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18061,7 +18731,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink169.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink168.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18088,6 +18758,36 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink169.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:04:59.463"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">523 413,'8'-40,"-7"37,0 0,0 0,0 1,0-1,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 0,0 0,0 0,0 1,-1-1,0 0,1 1,-1-1,0 2,-4-6,-2 0,0 0,0 1,-1 0,0 1,0-1,-1 1,1 1,-1 1,0-1,0 1,-1 0,1 1,-1 0,1 1,-1 0,0 0,1 1,-15 2,23-1,-1 0,0 0,0 1,0-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,-1 1,0 0,1-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,0 5,-1 12,1 1,6 41,-4-45,49 240,-17-103,-12-48,29 192,-41 174,-11-300,1-170,0 14,0 0,-1-1,-1 1,-6 23,7-35,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,-1-1,1 0,-1 0,0 0,0 1,0-1,0 0,0-1,-1 1,1-1,0 1,-1-1,1 0,-1 0,-4 0,-15 1,-1-2,1 0,0-2,0 0,0-2,0 0,0-2,1 0,0 0,0-3,1 0,0 0,-23-16,22 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1196">496 2070,'0'-4,"1"-1,0 0,0 2,0-2,0 1,1-1,0 1,0-1,0 2,0-1,1 0,0 0,0 1,0-1,0 0,1 1,0 1,0-1,-1 0,1 0,0 1,0-1,8-2,12-5,0 0,0 2,31-7,-36 10,-9 3,-1 0,1 1,0 0,-1 1,1 0,0 0,-1 1,1 0,-1 1,1 0,-1 1,0 0,0 0,0 1,0-1,0 1,-1 1,0 0,14 11,-7-3,0-1,-1 2,-1 0,0 1,-2-1,1 3,-2-2,16 33,-15-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1919">1000 1969,'0'-4,"-5"-2,-5 4,-11 17,-15 17,-10 9,-2 1,2 3,6-4,-1 2,8-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4491.62">947 31,'-1'3,"1"-1,0 1,-1-2,0 2,1-1,-1 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,0-1,1 1,-1-1,0 1,0-1,-4 3,-49 23,37-20,6 0,0-2,0 3,1-1,0 2,0-2,0 3,2-1,-1 0,1 2,0-1,1 1,1 0,-11 20,10-14,1 0,1-1,0 3,2-2,0 0,1 2,1-1,0 0,2 28,1-40,0 0,0 1,0-1,0 0,1 0,0 0,1 1,-1-1,1-1,1 0,-1 1,1 0,0-1,0-1,0 1,1 0,-1 0,1-1,1 0,-1-1,1 1,6 3,9 3,0-1,1-1,0 0,45 7,-64-14,0 0,-1 0,1 0,0-1,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1-1,1 1,-1-1,1 0,2-1,-2-1,-1 0,1-1,-1 1,0-1,0 2,0-2,-1 0,0 0,0 1,0-1,0 1,-1-1,0-7,7-59,3 0,29-103,-34 154,0 4,-2-2,0 2,-1-2,0 1,-2-26,0 39,-1 1,1-1,-1 0,1 0,-1 1,-1 0,1-1,0 0,-1 1,0 0,1-1,-1 1,-1 1,1-1,0 0,-1 0,0 0,0 0,1 1,-1 0,-1-1,1 1,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-6-1,-16 0,2 1</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -18129,7 +18829,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:04:59.463"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:08:50.837"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -18138,10 +18838,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">523 429,'7'-42,"-6"39,0 0,0 0,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,0 1,-4-5,-2 0,0 0,0 1,-1-1,0 2,0-1,-1 1,1 1,-1 0,0 0,0 1,-1 0,1 1,-1 0,1 1,-1 0,0 0,1 1,-15 2,23-1,-1 0,0 0,0 1,0-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,1-1,-1 1,0 0,1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 5,-1 13,1 1,6 42,-4-46,49 249,-17-108,-12-49,29 200,-41 180,-11-312,1-176,0 15,0-1,-1 0,-1 0,-6 25,7-37,0-1,0 1,0-1,-1 1,1-1,-1 0,0 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,0 1,0-1,0 0,0-1,-1 1,1-1,0 1,-1-1,1 0,-1 0,-4 0,-15 1,-1-2,1 0,0-2,0 0,0-2,0 0,0-2,1 0,0-1,0-2,1 0,0-1,-23-16,22 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1196">496 2148,'0'-4,"1"-1,0 0,0 1,0-1,0 1,1-1,0 1,0-1,0 1,0 0,1 0,0 0,0 1,0-1,0 0,0 1,1 0,0 0,-1 0,1 0,0 1,0-1,8-2,12-6,0 1,0 2,31-8,-36 11,-9 3,-1 0,1 1,0 0,-1 1,1 0,0 0,-1 1,1 0,-1 1,1 0,-1 1,0 0,0 0,0 1,0 0,0 0,-1 1,0 0,14 12,-7-4,0 0,-1 1,-1 1,0 0,-2 0,1 2,-2-1,16 34,-15-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1919">999 2043,'0'-4,"-5"-2,-5 4,-11 17,-15 19,-10 8,-2 2,2 2,6-3,-1 2,8-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4491.62">946 32,'-1'3,"1"-1,0 1,-1-1,0 1,1-1,-1 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0-1,-4 3,-49 24,37-21,6 0,0-1,0 2,1-1,0 2,0-1,0 2,2-1,-1 1,1 1,0 0,1 0,1 0,-11 22,10-16,1 1,1-1,0 2,2-1,0 0,1 1,1 0,0 0,2 28,1-40,0-1,0 1,0-1,0 1,1-1,0 0,1 1,-1-1,1 0,1-1,-1 1,1 0,0-1,0 0,0 0,1 0,-1 0,1-1,1 0,-1 0,1 0,6 3,9 3,0 0,1-2,0 0,45 8,-64-15,0 0,-1 0,1 0,0-1,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1-1,1 1,-1-1,1 0,2-2,-2 0,-1 0,1-1,-1 1,0-1,0 1,0-1,-1 0,0 0,0 1,0-1,0 0,-1 0,0-7,7-62,3 0,29-106,-34 159,0 4,-2-1,0 1,-1-1,0 0,-2-27,0 41,-1 1,1-1,-1 0,1 0,-1 0,-1 1,1-1,0 0,-1 1,0 0,1-1,-1 1,-1 0,1 0,0 0,-1 0,0 0,0 0,1 1,-1 0,-1-1,1 1,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,1 0,-6-1,-16 0,2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18159,34 +18856,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:08:50.837"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink172.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:05.733"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T20:59:31.680"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -18195,33 +18865,26 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2462 0,'0'4644,"-33"-4083,-42-10,37-311,-100 660,59-219,59-525,-116 812,114-822,-49 269,49-275,19-105</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1004">1 7779,'742'-1,"1900"23,-2621-22,1511 69,797 81,140 23,-1329-67,1179 137,-1872-198,-375-39,-25-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3650">2356 6376,'19'2,"0"0,0 1,0 0,19 8,33 5,57-3,1-5,133-10,-80-1,2172 3,-2026-13,394-67,305-70,-66-46,-23-87,31-70,-922 335,601-216,138-53,-21-81,-36-60,-591 345,626-441,-651 442,249-204,-280 212,-3-5,80-101,-69 63,-6-4,88-169,53-121,-87 176,-124 211,-3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10592">2303 6297,'4'0,"-2"0,-7-4,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12960">4764 7620,'-5'5,"-1"10,0 20,1 14,2 8,1 6,1 3,0-1,1-8,1-4,-1-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14162">7330 7726,'4'0,"2"5,0 14,8 23,1 12,3 12,-2 2,-3-5,-5-4,-2-8,-4-8,-1-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15445">10320 7911,'0'9,"0"21,0 19,0 15,0 9,0 2,0 2,0-4,0-10,0-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16846">13125 8043,'4'0,"15"23,10 25,-2 27,0 14,-4 6,-7 0,-1-7,-4-15,-3-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18890">4870 6376,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink173.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:27.647"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">575 636,'1206'70,"-129"84,-19-3,63-47,177 58,-380-15,-686-116,497 52,51-12,-19-1,-60 2,-5 27,-515-72,-5-9,299-7,-265-11,-190 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="937.21">12026 1,'-28'2,"0"1,1 2,0 1,0 1,-45 19,29-11,-244 87,-132 43,-650 181,-39 12,-1903 583,2104-638,-554 155,446-201,-6-34,740-148,-115 19,-378 80,750-149</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink172.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T20:59:40.793"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -18230,25 +18893,25 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 21,'0'-1,"0"0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 1,48 3,-45-3,175 42,-70-20,-76-14,1-2,60 6,446-11,-264-5,453 3,-690 2,55 10,31 1,-43-14,-43-1,61 6,-98-3,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,1 4,1 8,-1 1,-1-1,0 1,-1 21,-32 405,18-296,-45 359,34-344,14-107,3-1,-2 70,10-101</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink174.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:30.748"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">596 23,'-198'-11,"-7"0,196 11,1 0,0 0,0 1,0 1,0-1,-13 5,17-4,-1 0,1 1,1-1,-1 1,0 0,1-1,-1 2,1-1,0 0,0 1,0-1,0 1,-3 7,-2 3,2 1,-1 1,2-1,0 1,-3 18,-10 84,13-76,5-42,-4 25,2 1,0-1,3 39,0-57,-1 0,2 0,-1 0,1 0,0-1,1 1,-1 0,1-1,1 0,-1 0,1 0,0 0,0 0,1-1,0 0,0 0,8 6,10 6,1-2,1-1,0 0,1-2,0-1,1-1,0-2,1 0,36 4,13-3,0-4,90-5,-143 0,-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink173.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T20:59:37.675"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -18257,25 +18920,28 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'9,"0"17,0 17,0 28,0 11,0-3,0-7,0-15</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink175.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:34.277"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1634 1,'0'10,"0"87,-3 1,-17 100,14-167,0-1,-2 0,-2 0,0-1,-2 0,-1 0,-2-2,0 0,-2 0,-32 38,16-31,0-2,-2-1,-2-2,0-2,-2-1,-1-2,-56 26,0-9,-2-3,-119 28,-39-8,201-49,0-3,-96 0,144-7,0 0,0 0,1 0,-1-1,0 0,1 0,-1-1,1 1,0-2,0 1,0 0,0-1,1 0,-1-1,1 1,0-1,1 0,-1 0,1-1,0 1,0-1,0 0,1 0,-3-7,0-2,0-1,1 0,0 0,2 0,0 0,0 0,2-1,0-32,5 26,1 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="762.52">1020 107,'0'6,"1"0,0 1,1-1,-1 0,1 0,6 11,1 8,33 127,-26-86,3 0,45 105,-58-159,0-1,1 1,0-1,0-1,1 0,1 0,18 16,-21-21,1 0,-1 0,1-1,1 0,-1-1,0 1,1-2,0 1,0-1,0 0,0 0,0-1,14 0,41-2,-45 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1660.36">2353 403,'3'0,"6"0,7 0,6 0,5 0,6 0,1 0,-2 0,-3 0,-2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2140.16">2375 636,'3'0,"5"0,9 0,4 0,3 0,4 0,1 0,3 0,-1 0,-1 0,-3 0,-2 0,-2 0,-5 3,-1 2,-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink174.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T20:59:41.603"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -18284,26 +18950,26 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1111,'928'0,"-901"-1,54-10,4-1,-34 6,-1-2,65-19,-73 15,1 2,0 2,81-4,-96 11,0-1,0-1,0-1,0-2,27-9,-13 6,0 1,72-4,-62 9,61-14,-44 1,-29 5,0 3,0 1,71-3,-78 9,-16 0,-1 1,1 0,22 5,-35-4,0 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,1 1,-1-1,-1 0,4 5,1 5,-1 0,0 0,-1 0,0 1,-1 0,-1 0,0 0,-1 0,1 18,-2 23,-6 61,0-28,5 20,1-38,-3 0,-18 113,6-103,4 0,3 0,4 86,1-109,-9 58,-1 20,12 194,0-307</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2481.04">5584 0,'0'9,"0"12,0 7,0 8,0 1,4 5,2-6</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink176.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:40.498"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">107 1,'0'3,"0"9,0 6,0 10,3 12,2 5,3 7,0 1,3 0,-1-4,-2-1,1-10,-1-4,-1-4,-3-3,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="611.69">1 339,'3'0,"5"0,5 0,4 0,6 0,9 0,4 0,3 0,-2 0,-4-4,-3-1,-8-3,-3 0,-5 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink175.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T20:59:58.877"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -18312,25 +18978,34 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 799,'23'-1,"0"-1,-1-1,1-1,0-1,28-10,107-49,-82 31,271-103,-325 128,1 1,1 1,24-3,43-12,203-47,-136 37,-72 14,90-5,-158 19,-1-1,0-1,-1 0,26-12,6-1,-12 8,0 2,1 1,64-3,-65 8,0-1,-1-2,0-2,42-13,-50 11,0 2,42-5,-11 1,157-51,-110 27,-9 2,-55 17,1 2,46-8,-87 21,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 1,0-1,1 0,0 2,1 1,0 1,-1-1,1 1,-1 0,0 0,0 0,2 10,0 8,-1 1,1 38,-4-60,-3 66,-3 0,-3 0,-25 96,-11 77,19-68,11-85,-6 144,9-98,0-16,9 634,6-386,-3-352,0 1,-1-1,-1 0,0 1,-1-1,0 0,-1 0,-8 18,5-14,1 0,1 1,1 0,-2 22,4-22,-2 0,0 0,-12 32,8-33</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink177.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:45.970"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5236 380,'28'0,"99"4,-114-3,0 1,-1 0,1 1,-1 1,0 0,0-1,19 12,-28-14,-1 1,1-1,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,0 0,0-1,0 1,0 0,1 4,-2-2,0 0,-2 0,2-1,-1 0,0 1,0 0,-1 0,0-1,1 0,-1 0,-4 7,-5 4,-1-1,1 1,-2-2,0 0,-21 17,33-29,-4 1,2 1,0 0,0 0,0-1,0 2,0-1,-2 5,5-7,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0-1,0 0,0 1,1-1,57 34,-40-25,-1 1,0 1,-1 1,0-1,-1 3,21 19,-35-31,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1-1,2 1,-1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,-1 2,1-1,-1 0,-2 3,1-1,-1-1,1-1,-1 1,0 0,0 0,0 0,0-1,0 0,-2 1,2-1,-1-1,-5 3,-9 2,0 0,0-1,-1-1,2-1,-23 2,21-4,-1 0,0-1,-38-6,29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">4221 1113,'27'0,"1"1,0 0,-1 2,0 0,48 15,-42-11,1 1,-1-3,62 3,109-9,-108 0,259-25,-9 0,519 26,-826-1,63-12,-89 12,19-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">4523 1365,'1'10,"1"-1,0 1,1 0,0-2,1 2,1-2,5 11,2 6,-2-2,-2 1,-2 0,9 49,-6-19,-5-37,2 1,1-1,9 20,-7-21,-2 2,10 33,-7-19,-4-18,-6-14,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,55-248,-30 113,-20 97,-4 28,0-1,1 0,0 0,7-16,-8 25,0 0,0-1,0 1,0 0,1 0,-1-1,1 2,0-1,-1 1,1-1,0 0,0 0,0 1,0-1,0 1,2 0,-2-1,0 1,1 0,-1 0,1 1,-1-1,1 0,4 1,67-3,94 6,-32 1,-44-3,437-4,-2-34,-415 29,-72 7,66-12,-104 12,2 1,-1-1,-1 0,1 1,0-1,0 1,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,4 3,-3-1,-1-1,1 2,-1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,-1 0,1 0,0 4,-1-1,2 2,0-2,-1 1,0-1,-1 1,1 1,-2-2,1 1,-1 1,0-2,-1 1,0 0,-1-1,1 1,-1 0,-6 9,-19 18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">5455 1517,'-9'9,"-9"7,-14 18,-2 8,-14 13,-3 3,7-6,6-6,5-12,8-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">5044 1594,'4'0,"8"0,8 0,8 5,7 4,8 6,-4 6,6 10,-1 2,-7-3,-1 0,-2-2,-2-5,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">5455 1517,'195'1,"-192"-1,-1 0,1 0,0 0,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 0,1 1,-1 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,-1 5,0 2,-2 0,1 1,-1-2,0 1,0-1,-1 1,-1-1,0 1,-8 10,11-17,-10 14,-2 0,-18 19,30-34,0 1,-1 0,1-1,-1 1,0-1,-1 0,2 0,-2 0,1 0,0-1,0 0,0 1,-1-1,1 0,-2 0,2 0,-1 0,1-1,-1 0,0 1,-6-2,9 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 1,-1-1,0-1,1 1,-1 0,1 0,-1 0,2-2,1-4,0 1,1-1,-1 0,11-11,-11 14,1 0,0 1,0-1,1 0,-1 1,0 0,1 0,0 0,-1 1,2 0,-1 0,0 0,1 0,-1 1,0 0,1 0,0 0,8 0,1 1,-2 2,1-1,-1 2,1 0,-1 0,18 7,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">6058 1594,'0'5,"0"4,0 15,0 16,0 14,0 6,0 2,0-5,0-5,0-5,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">5948 1872,'5'-4,"6"-2,6 1,4 0,4-3,2 1,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">6360 1594,'-3'1,"-1"-1,1 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,1 0,0 0,0 0,0 0,1 1,-1-1,0-1,1 2,0-1,-2 5,-2 2,0 0,2 1,0-1,0 1,-1 10,1-4,1 1,0 0,2 0,0 0,2 19,-1-32,-1 0,1 0,0-1,0 0,0 1,1-1,-1 1,1 0,0-1,0 0,0 0,0 0,2 0,-2 0,1 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,6 0,-6 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,0-1,0 0,0 0,0 0,0 0,1 0,-2-1,1 1,0-1,-1 0,1 0,6-4,-7 2,0-1,0 1,0-1,0 2,-1-2,1 0,-1 0,0 0,-1 1,2-1,-2 0,0-1,-1 2,1-11,-1 9,3-26,-5-60,1 85,0-1,0 0,0 1,-2-1,0 0,1 2,-1-2,0 1,-1 1,0-1,0 0,0 0,-11-9,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">6415 1568,'4'0,"6"5,3 5,-2 6,-4 7,-1 6,-2 6,-3 1,0 8,-1 4,-1-1,1 0,-1-4,1-4,0-6,0-3,-2-7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink176.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T21:00:18.128"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -18339,11 +19014,425 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1267,'10'-1,"1"-1,0-1,-1 1,0-2,11-4,-7 3,472-171,-409 144,88-49,12-6,-58 35,152-43,-230 82,76-37,-10 3,215-105,-145 62,-112 57,-32 15,2 2,72-24,-77 30,-1-1,51-28,-54 25,1 1,1 1,38-11,-33 15,79-20,141-54,-245 79,-2 0,1 0,0 1,-1 0,1 0,0 0,10 0,-16 2,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,0-1,1 1,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 3,2 12,-1 1,-1-1,0 0,-1 1,-1-1,-7 27,-32 98,33-116,-53 143,-24 86,43-64,10-63,23-98,0 2,2 0,2-1,-3 33,-4 125,-1 59,16-24,-6 339,-9-402,-2 57,13 838,3-504,-2-525</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5236 380,'28'0,"99"4,-114-3,0 1,-1 0,1 1,-1 1,0 0,0-1,19 12,-28-14,-1 1,1-1,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,0 0,0-1,0 1,0 0,1 4,-2-2,0 0,-2 0,2-1,-1 0,0 1,0 0,-1 0,0-1,1 0,-1 0,-4 7,-5 4,-1-1,1 1,-2-2,0 0,-21 17,33-29,-4 1,2 1,0 0,0 0,0-1,0 2,0-1,-2 5,5-7,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0-1,0 0,0 1,1-1,57 34,-40-25,-1 1,0 1,-1 1,0-1,-1 3,21 19,-35-31,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1-1,2 1,-1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,-1 2,1-1,-1 0,-2 3,1-1,-1-1,1-1,-1 1,0 0,0 0,0 0,0-1,0 0,-2 1,2-1,-1-1,-5 3,-9 2,0 0,0-1,-1-1,2-1,-23 2,21-4,-1 0,0-1,-38-6,29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">4221 1113,'27'0,"1"1,0 0,-1 2,0 0,48 15,-42-11,1 1,-1-3,62 3,109-9,-108 0,259-25,-9 0,519 26,-826-1,63-12,-89 12,19-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">4523 1365,'1'10,"1"-1,0 1,1 0,0-2,1 2,1-2,5 11,2 6,-2-2,-2 1,-2 0,9 49,-6-19,-5-37,2 1,1-1,9 20,-7-21,-2 2,10 33,-7-19,-4-18,-6-14,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,55-248,-30 113,-20 97,-4 28,0-1,1 0,0 0,7-16,-8 25,0 0,0-1,0 1,0 0,1 0,-1-1,1 2,0-1,-1 1,1-1,0 0,0 0,0 1,0-1,0 1,2 0,-2-1,0 1,1 0,-1 0,1 1,-1-1,1 0,4 1,67-3,94 6,-32 1,-44-3,437-4,-2-34,-415 29,-72 7,66-12,-104 12,2 1,-1-1,-1 0,1 1,0-1,0 1,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,4 3,-3-1,-1-1,1 2,-1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,-1 0,1 0,0 4,-1-1,2 2,0-2,-1 1,0-1,-1 1,1 1,-2-2,1 1,-1 1,0-2,-1 1,0 0,-1-1,1 1,-1 0,-6 9,-19 18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">5455 1517,'-9'9,"-9"7,-14 18,-2 8,-14 13,-3 3,7-6,6-6,5-12,8-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">5044 1594,'4'0,"8"0,8 0,8 5,7 4,8 6,-4 6,6 10,-1 2,-7-3,-1 0,-2-2,-2-5,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">5455 1517,'195'1,"-192"-1,-1 0,1 0,0 0,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 0,1 1,-1 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,-1 5,0 2,-2 0,1 1,-1-2,0 1,0-1,-1 1,-1-1,0 1,-8 10,11-17,-10 14,-2 0,-18 19,30-34,0 1,-1 0,1-1,-1 1,0-1,-1 0,2 0,-2 0,1 0,0-1,0 0,0 1,-1-1,1 0,-2 0,2 0,-1 0,1-1,-1 0,0 1,-6-2,9 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 1,-1-1,0-1,1 1,-1 0,1 0,-1 0,2-2,1-4,0 1,1-1,-1 0,11-11,-11 14,1 0,0 1,0-1,1 0,-1 1,0 0,1 0,0 0,-1 1,2 0,-1 0,0 0,1 0,-1 1,0 0,1 0,0 0,8 0,1 1,-2 2,1-1,-1 2,1 0,-1 0,18 7,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">6058 1594,'0'5,"0"4,0 15,0 16,0 14,0 6,0 2,0-5,0-5,0-5,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">5948 1872,'5'-4,"6"-2,6 1,4 0,4-3,2 1,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">6360 1594,'-3'1,"-1"-1,1 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,1 0,0 0,0 0,0 0,1 1,-1-1,0-1,1 2,0-1,-2 5,-2 2,0 0,2 1,0-1,0 1,-1 10,1-4,1 1,0 0,2 0,0 0,2 19,-1-32,-1 0,1 0,0-1,0 0,0 1,1-1,-1 1,1 0,0-1,0 0,0 0,0 0,2 0,-2 0,1 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,6 0,-6 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,0-1,0 0,0 0,0 0,0 0,1 0,-2-1,1 1,0-1,-1 0,1 0,6-4,-7 2,0-1,0 1,0-1,0 2,-1-2,1 0,-1 0,0 0,-1 1,2-1,-2 0,0-1,-1 2,1-11,-1 9,3-26,-5-60,1 85,0-1,0 0,0 1,-2-1,0 0,1 2,-1-2,0 1,-1 1,0-1,0 0,0 0,-11-9,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">6415 1568,'4'0,"6"5,3 5,-2 6,-4 7,-1 6,-2 6,-3 1,0 8,-1 4,-1-1,1 0,-1-4,1-4,0-6,0-3,-2-7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink177.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T21:00:31.835"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">234 1,'0'3,"0"6,0 4,0 7,0 4,0 5,0 5,0 0,0-2,0 0,0 0,3-4,6-5,0-4,-1-1,-1 0,-3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="654.27">1 213,'3'0,"6"0,4 0,7 0,4 0,2 0,3 0,0 0,-1 0,2 0,0 0,-2 0,-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/ink/ink178.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T21:00:43.305"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">22 1,'1717'0,"-1675"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1580.97">1 678,'0'4,"1"1,-1 0,2-1,-1 1,0 0,1-1,0 0,0 1,0-1,0 0,1 0,3 4,43 46,-32-36,-9-9,30 29,-36-36,0 0,0-1,-1 1,1-1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,3 0,-4-1,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 0,-1 0,0 1,1-1,-1-3,6-52,-5 47,-1-171,0-6,0 183,1 1,0-1,-1 1,1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 1,-1-1,1 1,-1 0,1 0,0 0,5-3,5-1,0 0,0 1,27-7,-13 5,11-4,0 2,1 2,50-4,115 6,16-2,-199 4,1-1,25-8,-28 6,1 1,29-3,-32 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2077.83">446 678,'0'3,"0"6,0 4,0 4,0 5,3 11,5 7,5 10,4 8,2 9,2-1,-3-3,-4-6,-1-12,-3-11,-3-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3299.97">700 700,'2'-4,"0"0,1 1,0-1,-1 1,2 0,-1 0,0 0,0 0,1 1,0-1,5-2,-1-1,31-19,1 1,62-28,-93 48,0 0,0 1,0 0,1 0,-1 1,18-2,-25 4,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,-1 2,1 6,-1 0,0 0,-1 0,0-1,-1 1,0-1,0 1,-1-1,0 0,-1 0,0-1,0 1,-1-1,0 0,-12 11,1-1,-1-2,0 0,-2 0,1-2,-28 14,52-25,15-2,21-1,16-3,-1 0,81 5,-122 0,0-1,0 2,0 0,-1 1,1 0,-1 1,0 1,0 0,-1 1,18 11,-28-16,-1 0,1 0,0 0,-1 0,1 1,-1-1,0 1,1 0,-1-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 0,0 1,-1-1,1 1,-1-1,0 0,1 1,-2-1,1 1,0-1,-1 1,1-1,-1 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-4 4,-1 2,-2 1,1-1,-1 0,0-1,-1 0,0 0,-1-1,1 0,-14 7,4-5,0 0,0-1,-1-1,0-1,0-1,0 0,-1-2,1 0,-39 0,41-4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink179.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T21:00:12.352"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13971 551,'17'626,"-16"-582,2 160,-3-188</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="844.01">15156 847,'-1'-4,"5"-1,5 1,7 0,6 2,9 0,10 1,2 1,1 0,0 0,-4 0,-5 0,-5 0,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.97">15220 1228,'3'0,"5"0,9 0,4 0,10 0,7 0,4 0,2 0,4 0,-2 0,-5 0,-7 0,-4 0,-5 0,-3 0,-1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2361.56">16956 530,'-10'-1,"1"0,0-1,0 1,-9-5,-33-4,42 10,-1-1,1 2,-1-1,0 2,1-1,0 1,-1 1,1-1,0 2,0-1,0 1,-13 8,12-4,0-1,1 1,-1 0,2 1,-1 0,1 1,1 0,-13 20,8-7,1 1,1 1,1 0,2 0,0 1,1-1,2 1,-2 45,3-28,3 0,2 1,1-1,3 0,1 0,2-1,2 0,2-1,2 0,20 40,-21-52,1-1,2-1,21 27,-30-44,1 0,0-1,1 0,0 0,0-1,1 0,0-1,1 0,-1-1,15 5,8 1,0-3,0 0,0-3,70 6,146-12,-121-3,-121 3,1 0,0 0,-1-1,1 0,-1 0,1-1,-1 0,1-1,-1 0,0 0,0-1,0 0,-1 0,12-9,-10 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26216.47">15029 4509,'-4'-1,"0"0,1 0,-1-1,1 1,0-1,-1 1,-2-3,-8-3,-67-24,-2 5,-1 3,-103-15,111 25,0 4,0 3,-100 6,121 3,-1 4,1 1,0 3,1 3,-64 24,77-22,0 1,1 2,0 2,-43 32,67-41,1 0,0 1,1 1,1 0,0 1,1 0,0 1,2 1,0-1,1 2,-15 35,17-29,0-1,1 1,1 0,1 0,2 0,0 1,3 37,0-47,1-1,1 1,0 0,1-1,0 0,1 0,1 0,0-1,1 1,0-1,1-1,1 0,15 18,13 6,0-2,3-2,0-2,73 42,190 77,-117-70,3-9,355 81,-491-139,1-2,0-3,0-2,102-5,-152 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,3-2,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26767.39">16045 5060,'83'0,"425"-14,-489 12,-12 1,0 0,-1 0,1 1,0 0,0 0,0 1,0-1,-1 2,10 1,-16-2,1-1,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,-24 20,19-15,-16 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27217.18">16384 5525,'3'0,"5"0,9 0,12 0,8-4,8-4,9-1,4 0,-3 0,-4 0,-7 2,-8 2,-9 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28104.74">18141 4192,'5'112,"37"210,-18-169,-13-71,-6-36,1 0,3-1,24 77,-27-102,-2 0,-1 1,0-1,-1 1,-2-1,0 1,-3 24,1 16,2-36,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29033.32">19136 4573,'3'0,"5"0,5 0,4 0,2 0,6 0,5 0,1 0,-1 0,-1 0,-3 0,-2 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30273.57">21041 3493,'4'-4,"1"0,0 0,0 1,1 0,-1 0,1 0,0 1,-1 0,1 0,0 1,7-2,70-5,-78 7,1 1,-1-1,0 1,1 1,-1-1,0 1,1 0,-1 0,0 0,0 1,8 3,-10-4,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1-1,1 1,-1 3,1 10,-1 0,0 0,-1 0,0 0,-6 25,4-33,0 0,0 0,0 0,-1 0,0-1,0 0,-1 0,0 0,0 0,-1-1,1 0,-10 7,7-6,0 0,-1-1,0 0,0 0,-1-1,1 0,-1-1,-12 4,33-10,-1 1,1 0,0 1,0 0,0 1,17 3,73 18,-95-20,34 7,-1 3,0 1,-1 2,40 21,-75-34,1-1,-1 2,0-1,1 0,-1 1,0-1,0 1,-1 0,1 0,0 0,-1 0,0 1,0-1,0 1,0-1,0 1,-1 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,-1 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,0-1,-6 5,-10 5,0-1,-2-1,1-1,-1 0,-1-1,1-2,-1 0,-32 4,28-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47021.81">16194 8044,'-7'-5,"1"0,-1 0,0 1,0 0,0 1,-1-1,1 1,-1 1,-14-4,-11 0,-33-2,52 7,-371-8,259 10,83-1,1 2,-57 10,84-9,-1 0,1 2,0 0,0 1,1 0,-1 1,1 1,1 0,-20 15,9-2,2 2,0 0,1 2,1 0,1 1,2 1,0 0,-24 59,25-45,2 0,1 1,3 0,1 0,2 1,-1 47,7-71,0-1,2 1,5 35,-5-49,1 1,-1 0,1-1,1 1,-1-1,1 1,0-1,0 0,0 0,0-1,1 1,0-1,0 1,1-1,-1 0,7 4,12 4,1-1,0-1,0-1,1-2,1 0,30 4,-35-6,64 10,0-3,0-4,1-3,106-9,-183 4,1-1,0 0,0-1,-1 0,1-1,-1 0,1 0,-1-1,0 0,0-1,-1 0,0 0,1-1,-2 0,1 0,-1-1,0 0,7-9,10-13,-13 20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47594.57">16956 8425,'3'0,"5"0,9 0,8 0,14 0,8 0,3 0,1 0,-2 0,-2 0,-5 0,-6 0,-6 0,-4-4,0-1,0 1,-1 0,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48102.17">17231 8848,'3'0,"9"0,6 0,6 0,8 0,4 0,4 0,-1 0,-4 0,-5 0,-3 0,-3 0,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49849.77">18395 7917,'-8'8,"1"0,0 1,1 0,0 0,1 1,-7 15,-19 64,21-58,-3 18,3 0,2 0,2 1,2 0,2 0,8 90,-5-132,0-1,0 1,0-1,1 0,0 1,1-1,-1 0,2 0,-1-1,0 1,1 0,1-1,-1 0,1 0,0-1,0 1,0-1,1 0,0 0,0-1,0 0,1 0,-1 0,1-1,0 0,0 0,0-1,0 0,15 3,18 1,-1-2,60 0,79-12,-169 7,0 0,-1 0,1 0,-1-1,1-1,-1 1,0-1,0-1,13-6,-15 6,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0-1,-1 1,1-1,-1 0,0 0,1-7,1-2,0 0,-2-1,0 0,0 0,-1-16,-4-84,0 52,2 54,0-1,-1 1,0 0,0 0,-1-1,-1 1,0 1,0-1,-1 0,0 1,-1 0,0 0,0 0,-1 0,0 1,0 0,-11-10,-2 1,-1 2,0 0,0 1,-2 1,0 1,0 1,-1 1,0 1,0 2,-1 0,-1 1,1 1,-1 1,1 2,-1 0,0 1,-33 5,47-4,-5 1,27 1,10 2,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51379.21">19115 8467,'-4'0,"3"0,4 0,3 3,0 6,2 0,0 3,2-1,0 2,-6-2,-7-3,-7-2,-5-3,0-5,6-2,5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52164.05">19432 7811,'-1'49,"26"566,-21-574,-4-28,1-1,0 1,1 0,1-1,0 1,0-1,1 0,6 12,-9-22,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 0,0 1,0-1,0 0,-1 0,1 0,0 0,0-1,0 1,3-1,12-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53250.45">19898 7854,'-2'0,"1"0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 2,-11 30,10-26,-11 37,2 1,2 0,-6 75,10 140,6-213,2 1,3-1,1 0,3-1,17 53,-25-93,1 1,-1-1,2 1,-1-1,0 0,1 0,0 0,1 0,-1-1,1 0,0 0,11 8,-9-9,0 0,0-1,0 0,1 0,0 0,-1-1,1 0,0-1,0 1,16-1,-12 0,1-1,0 0,-1 0,1-2,24-4,-33 4,0 1,0-1,-1 0,1 0,0 0,-1 0,0-1,1 0,-1 1,0-1,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 0,0 1,-1-1,1 0,1-8,0 3,-1-1,0 0,0-1,-1 1,0 0,-2-13,1 21,0 0,0-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,-1-1,1 2,0-1,-1 0,-3-1,-27-1,-1 2,0 1,-57 7,87-7,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,0 1,1-1,-1 1,0 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,1 1,0-1,-1 1,2 0,-1-1,0 1,0 4,-1 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54798.73">20575 7854,'-13'492,"4"1,9-431,-3-35,3-27,0 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,-18-56,15 46,-8-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55708.83">20512 7832,'-4'0,"-5"0,-4 0,-7 0,-4 0,-5 0,-8 0,-2 0,-5 0,2 0,4 0,5 0,4 0,8 3,6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56216.59">20300 8256,'3'0,"5"0,5 0,7 0,8 0,10 0,8 0,5 0,0 0,3 0,-5 0,-7 0,-6 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57562.79">21041 7748,'-5'0,"0"0,1 0,-1 1,1 0,-1-1,1 2,0-1,-1 0,1 1,0 0,0 0,0 0,0 1,0-1,1 1,-4 3,2 0,0-1,1 1,0 0,0 0,0 0,1 0,0 1,0-1,-3 11,1 2,1 1,1 1,1-1,0 0,2 1,2 27,1-25,2-1,0 0,1 0,1 0,1-1,1 0,22 38,-28-54,1-1,-1 0,1 0,0 0,0 0,1-1,-1 1,1-1,0 0,-1-1,1 1,1-1,-1 0,11 3,-14-4,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,-1-1,1 1,-1 0,1-1,-1 0,0 0,0 1,0-1,0-1,0 1,0 0,0 0,-1-1,3-3,4-16,0 0,-2 0,0 0,-2-1,3-28,-4 29,2-35,-3-95,-2 116,0 81,1 53,3 0,20 108,47 95,-14-66,-52-211,-1 0,-1 1,0 25,-3-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59668.9">1 1,'0'7,"1"0,0 0,1 0,0 0,0-1,1 1,0 0,0-1,7 12,2 5,172 289,28-3,-165-243,-46-64,838 1151,-552-793,372 359,84-41,32-33,1116 726,-642-586,-786-497,459 267,-584-355,-108-67,291 190,-45 44,-162-122,-197-147,-101-82,-1 0,0 2,-1 0,17 28,-30-44,-1-1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,4-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60886.17">10119 191,'-220'170,"-32"19,-87 68,-1992 1650,808-403,202 100,746-888,412-516,-271 294,334-383,-68 108,122-154,-2-1,-76 77,-164 118,226-205,-58 44,-48 45,69-49,-154 166,234-238,5-7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:42:10.939"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">156 0,'-3'73,"-3"0,-3-1,-3 0,-39 125,-7-24,47-156,6-25,4-31,16-53,45-149,-58 233,1-2,-2 3,1 0,0 0,1 0,0 1,4-10,-6 15,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,1 0,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,1 2,17 29,-2 2,-2 0,17 56,-21-56,1-1,2 0,1-1,27 43,-41-74,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1-1,5 2,-6-3,1 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 1,1-4,4-9,0-1,-1-1,-1 1,5-28,26-240,-28 219,1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="889.99">606 714,'18'1,"1"-2,-1 0,0-1,1-1,30-9,-44 10,0 0,0 0,0 0,0-1,0 1,-1-1,1-1,-1 1,0-1,0 1,0-1,0 0,-1-1,1 1,-1 0,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,1-9,-3 12,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,-2-2,-1 0,1 0,-1 1,0 0,0 0,1 0,-1 0,-1 0,1 1,0 0,-7-1,0 0,0 0,0 2,-1-1,1 2,0-1,0 1,-22 6,29-6,-1 1,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,1 1,0 0,0 0,-3 4,2 0,0 1,1-1,-1 0,2 1,-1 0,1-1,0 1,0 10,1-8,0 0,1 0,0 0,1 0,1 0,-1 0,2 0,-1 0,2 0,-1-1,1 0,1 0,0 0,8 12,-9-17,1 0,0 0,0-1,0 1,1-1,0 0,-1-1,1 0,1 0,-1 0,0 0,1-1,7 2,5 0,0-2,0 1,28-2,-10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1918.1">1188 555,'-14'167,"7"-122,3 0,2 73,2-116,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,-1 0,5 0,-4 0,1-1,-1 0,1-1,-1 1,0 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,3-3,13-32,-15 31,0 1,0-1,1 1,0 0,0 0,0 0,0 0,1 0,0 1,8-9,-11 13,1-1,0 1,-1-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,2 1,35 33,-32-29,21 23,-18-18,1 0,0-1,0 0,1-1,14 10,-21-17,-1 0,0-1,1 1,-1-1,1 0,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 0,0 0,0-1,-1 1,1-1,0 0,0 0,-1 0,1-1,-1 1,1-1,4-3,1-1,0-1,-1 0,1-1,-1 0,-1 0,0-1,0 0,8-14,2-7,20-45,-25 46</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink180.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T21:01:29.912"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5733 437,'40'0,"144"7,-166-6,1 2,-1-1,0 3,0 0,-2 1,2-1,27 16,-41-20,-1 2,2-2,-2 2,0 0,1 0,-1-1,0 1,0 0,0 0,0 1,-1-1,1 1,-2-2,2 3,-1-1,-1 0,1-1,-1 1,1 0,-1 7,-1-4,0 0,-1 0,1-2,-2 2,1 0,-1 0,-1 0,0-2,2 2,-2-2,-6 11,-8 6,1-2,-1 1,-1-2,-1 1,-30 22,47-40,-4 0,2 3,-1-1,1 0,-1 0,1 2,-1-2,-2 7,7-10,-1 0,1 1,0-1,0 1,-2-1,2 0,0 1,0-1,0 0,0 2,2-1,-2-1,0 0,0 1,1-1,-1 0,0 1,1-1,-1 1,2-2,-2 1,1 0,1 1,-2-1,1 0,1-1,-1 2,-1-1,2-1,-1 2,1-1,-1-1,1 1,1-1,82 49,-58-36,0 1,-2 3,-1-1,1 1,-2 2,31 29,-51-45,-2-2,1 2,0 0,0-2,-1 2,1 0,-1 0,1-1,-2 1,1 0,1 0,-2-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 1,1-1,-2 0,-1 4,0-2,-1-1,1 0,-1 1,-1-1,1 0,-1 0,1-1,-1-1,-1 3,2-3,-2 1,-8 3,-11 2,-2 0,2-1,-2 0,1-3,-30 3,27-6,1 1,0-2,-56-9,42 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.99">4271 1493,'39'0,"1"2,1-1,-3 3,1 2,69 19,-61-14,3 0,-3-4,89 5,158-13,-155-1,373-36,-13 0,748 38,-1192-1,93-17,-130 15,28-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.99">4706 1857,'1'14,"2"0,0 0,1-1,1 0,1 1,0-2,9 15,3 9,-5-3,-1 2,-3-1,12 71,-8-26,-7-55,3 1,0 0,15 29,-12-31,-1 2,14 49,-12-28,-4-26,-9-20,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,2 0,-2 0,0 0,0-2,0 2,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,2 1,-2 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,2 0,-2 0,0 0,0 0,0 0,0 0,0 0,0 0,0 2,0-2,0 0,0 0,1 0,-1 0,0 0,79-359,-43 165,-28 140,-7 39,1-1,1 1,0-2,9-22,-11 37,1-1,-1-1,1 1,-1 0,2 1,-1-3,1 3,0-1,-2 2,2-2,0 0,0 0,0 2,0-2,0 2,1-1,-1 0,0 0,2 1,-2-1,1 2,-1-1,2 0,5-1,96-2,136 10,-46-1,-63-3,629-7,-2-48,-598 42,-106 8,98-15,-151 17,2 1,-1-2,-1 1,1 1,1-1,-1 1,-1 0,2 0,-1 0,1 1,-2-1,1 0,1 1,-2 1,1-1,1 0,-2 1,1-1,-1 1,6 3,-6-1,0 0,2 2,-2-2,0 2,-2-2,2 1,-1 1,1-1,-2 1,1-1,-2 1,1-1,1 8,-2-4,3 4,-1-2,0 0,-1 0,-1 0,2 1,-4-1,2 0,-1 2,-1-2,0 0,-1 0,-2 0,2 0,-1 0,-10 14,-26 26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.99">6049 2076,'-13'13,"-13"10,-20 25,-3 13,-20 19,-6 3,13-8,7-9,7-16,12-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3.99">5456 2187,'6'0,"11"0,13 0,10 6,11 8,10 8,-4 7,7 17,0 0,-12-1,1-3,-4 0,-3-9,-8-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4.99">6049 2076,'281'2,"-277"-2,-1 0,2 0,-1 0,1 1,-1-1,1 1,-1 1,-1-1,2 1,-1-1,-1 0,2 1,-1 0,-1 0,0 1,2-1,-3 1,1 0,0 0,0-1,0 1,0 0,-1 1,1-1,-2 1,2-1,-1 1,-1 0,1-1,-1 1,1 0,-2 0,1 0,-1-1,0 1,2 0,-2 0,-2 7,1 5,-2-3,0 2,-2-1,1 0,-1 0,-1 0,-1-1,0 1,-11 15,15-25,-15 21,-2 0,-26 26,43-47,0 0,-1 0,1-1,-2 1,1-1,-1 0,2-1,-3 1,2 0,-1 0,1-2,-1 2,-1-2,2 1,-2-1,1 0,-1 1,2-2,-2 0,0 1,-7-2,11 1,-1-2,2 2,-1-1,1 0,-1 1,1-2,1 1,-2-1,1 1,-1 0,1-1,1 1,-2 0,1-1,1 1,-2-1,2 1,-1 0,1-2,0 1,-2 1,2 0,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,2 0,-2-1,0-1,1 2,-1 0,2-1,-2 1,3-3,1-6,1 0,1 1,-2-1,15-16,-14 21,1-1,0 0,0 1,0-1,0 2,0 0,1 0,1 0,-2 0,1 1,1 0,-1 1,2-1,-2 1,1 1,-1 0,2-1,12 1,0 1,-1 3,-1-2,0 3,1 0,-1 0,26 12,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5.99">6918 2187,'0'6,"0"8,0 21,0 23,0 19,0 9,0 4,0-9,0-5,0-8,0-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6.99">6760 2587,'6'-5,"10"-3,8-1,7 3,5-5,3 0,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7.99">7352 2187,'-4'1,"0"-1,-1 1,1 1,1-2,-2 1,1 0,1 2,-2-1,2-1,-1 2,1-2,0 2,-2 0,2-1,0 1,0 0,0 0,2 1,-2-2,0 1,1 1,1-1,-4 7,-2 2,1 2,1 0,1 0,0-1,-2 16,1-5,2 0,0 0,3 1,0-1,3 29,-1-48,-2 1,1-1,1 0,-1 0,1 1,1-2,-2 1,2 1,0-2,0 0,0 1,0 0,1-1,-1 0,2 0,-1-1,1 1,-1-1,1 1,-1-1,1-1,1 1,-2-2,2 2,-1-1,1 0,0 0,0-1,7 0,-7 1,0-1,0 1,0-2,0 0,0 0,0 0,0 0,0-2,0 1,0-1,0 1,0 0,0-1,-2 0,2 0,0-1,-1 1,0-1,9-7,-10 5,1-2,-1 1,1-1,-1 2,-1-2,2 0,-2 0,0 0,-2 1,2-1,-1 0,-1-2,-1 3,2-15,-2 13,4-39,-7-85,2 120,-1 1,1 0,-1 0,-1 0,-1 0,1 2,-2-2,1 1,-2 0,0 1,0-1,0 0,-15-13,0 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8.99">7432 2149,'6'0,"9"7,2 8,0 7,-7 13,-1 6,-4 9,-4 2,1 12,-2 4,-2 0,2 1,-1-7,1-7,0-7,0-5,-2-10</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink181.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T21:01:46.569"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">445 1,'0'3,"0"6,-4 11,-4 10,-2 13,-1 15,-4 12,-2 8,-3 5,3-1,1 1,-1-4,3-11,3-10,4-8,3-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="508.63">1 255,'3'0,"5"0,9 0,11 3,13 6,13 0,5-1,-1 2,-3-1,-6-2,-10-2,-6-2,-10-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink182.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-19T21:01:57.744"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18395 7917,'-8'8,"1"0,0 1,1 0,0 0,1 1,-7 15,-19 64,21-58,-3 18,3 0,2 0,2 1,2 0,2 0,8 90,-5-132,0-1,0 1,0-1,1 0,0 1,1-1,-1 0,2 0,-1-1,0 1,1 0,1-1,-1 0,1 0,0-1,0 1,0-1,1 0,0 0,0-1,0 0,1 0,-1 0,1-1,0 0,0 0,0-1,0 0,15 3,18 1,-1-2,60 0,79-12,-169 7,0 0,-1 0,1 0,-1-1,1-1,-1 1,0-1,0-1,13-6,-15 6,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0-1,-1 1,1-1,-1 0,0 0,1-7,1-2,0 0,-2-1,0 0,0 0,-1-16,-4-84,0 52,2 54,0-1,-1 1,0 0,0 0,-1-1,-1 1,0 1,0-1,-1 0,0 1,-1 0,0 0,0 0,-1 0,0 1,0 0,-11-10,-2 1,-1 2,0 0,0 1,-2 1,0 1,0 1,-1 1,0 1,0 2,-1 0,-1 1,1 1,-1 1,1 2,-1 0,0 1,-33 5,47-4,-5 1,27 1,10 2,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">19115 8467,'-4'0,"3"0,4 0,3 3,0 6,2 0,0 3,2-1,0 2,-6-2,-7-3,-7-2,-5-3,0-5,6-2,5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">19432 7811,'-1'49,"26"566,-21-574,-4-28,1-1,0 1,1 0,1-1,0 1,0-1,1 0,6 12,-9-22,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 0,0 1,0-1,0 0,-1 0,1 0,0 0,0-1,0 1,3-1,12-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">19898 7854,'-2'0,"1"0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 2,-11 30,10-26,-11 37,2 1,2 0,-6 75,10 140,6-213,2 1,3-1,1 0,3-1,17 53,-25-93,1 1,-1-1,2 1,-1-1,0 0,1 0,0 0,1 0,-1-1,1 0,0 0,11 8,-9-9,0 0,0-1,0 0,1 0,0 0,-1-1,1 0,0-1,0 1,16-1,-12 0,1-1,0 0,-1 0,1-2,24-4,-33 4,0 1,0-1,-1 0,1 0,0 0,-1 0,0-1,1 0,-1 1,0-1,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 0,0 1,-1-1,1 0,1-8,0 3,-1-1,0 0,0-1,-1 1,0 0,-2-13,1 21,0 0,0-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,-1-1,1 2,0-1,-1 0,-3-1,-27-1,-1 2,0 1,-57 7,87-7,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,0 1,1-1,-1 1,0 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,1 1,0-1,-1 1,2 0,-1-1,0 1,0 4,-1 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">20575 7854,'-13'492,"4"1,9-431,-3-35,3-27,0 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,-18-56,15 46,-8-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">20512 7832,'-4'0,"-5"0,-4 0,-7 0,-4 0,-5 0,-8 0,-2 0,-5 0,2 0,4 0,5 0,4 0,8 3,6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">20300 8256,'3'0,"5"0,5 0,7 0,8 0,10 0,8 0,5 0,0 0,3 0,-5 0,-7 0,-6 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">21041 7748,'-5'0,"0"0,1 0,-1 1,1 0,-1-1,1 2,0-1,-1 0,1 1,0 0,0 0,0 0,0 1,0-1,1 1,-4 3,2 0,0-1,1 1,0 0,0 0,0 0,1 0,0 1,0-1,-3 11,1 2,1 1,1 1,1-1,0 0,2 1,2 27,1-25,2-1,0 0,1 0,1 0,1-1,1 0,22 38,-28-54,1-1,-1 0,1 0,0 0,0 0,1-1,-1 1,1-1,0 0,-1-1,1 1,1-1,-1 0,11 3,-14-4,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,-1-1,1 1,-1 0,1-1,-1 0,0 0,0 1,0-1,0-1,0 1,0 0,0 0,-1-1,3-3,4-16,0 0,-2 0,0 0,-2-1,3-28,-4 29,2-35,-3-95,-2 116,0 81,1 53,3 0,20 108,47 95,-14-66,-52-211,-1 0,-1 1,0 25,-3-33</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink183.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:05.733"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2567 0,'0'4456,"-35"-3918,-43-9,38-299,-103 634,60-211,62-503,-120 779,118-789,-51 258,51-264,20-100</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1004">1 7464,'774'-1,"1980"22,-2732-21,1575 67,831 76,146 23,-1386-64,1230 131,-1952-190,-391-37,-26-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3650">2456 6118,'20'2,"0"0,0 1,-1 0,21 7,34 5,59-2,2-5,138-10,-83-1,2264 3,-2112-13,411-63,317-68,-68-44,-24-84,32-67,-961 322,627-208,143-50,-21-78,-38-58,-617 332,654-424,-679 424,259-195,-291 203,-4-5,84-97,-72 61,-7-4,92-162,56-117,-91 170,-130 202,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10592">2401 6042,'4'0,"-2"0,-7-4,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12960">4967 7312,'-6'4,"0"11,0 18,1 14,1 8,2 6,1 2,0-1,1-7,1-4,-1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14162">7642 7413,'4'0,"2"5,0 13,9 23,1 10,2 13,-1 1,-3-5,-6-3,-2-8,-4-8,-1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15445">10759 7591,'0'8,"0"21,0 18,0 15,0 8,0 2,0 2,0-4,0-10,0-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16846">13683 7717,'4'0,"16"23,10 23,-2 26,0 13,-4 6,-7 0,-1-6,-5-15,-2-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18890">5077 6118,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink184.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:27.647"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 21,'0'-1,"0"0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 1,48 3,-45-3,175 42,-70-20,-76-14,1-2,60 6,446-11,-264-5,453 3,-690 2,55 10,31 1,-43-14,-43-1,61 6,-98-3,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,1 4,1 8,-1 1,-1-1,0 1,-1 21,-32 405,18-296,-45 359,34-344,14-107,3-1,-2 70,10-101</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink185.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:30.748"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'9,"0"17,0 17,0 28,0 11,0-3,0-7,0-15</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink186.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:34.277"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1069,'970'0,"-942"-1,57-9,4-2,-36 6,-1-1,69-19,-77 14,1 3,0 1,84-4,-100 11,1-1,-1 0,0-2,1-2,27-8,-13 5,0 1,75-3,-65 8,64-14,-45 2,-32 4,1 4,0 0,74-3,-81 9,-18 0,0 1,1 0,23 5,-37-4,0 0,1 0,-1 0,1 1,-1-1,0 1,0 0,0 1,1-1,-2 1,1-2,-1 2,0 0,1 1,-1-1,0 0,3 5,1 4,-1 1,1-1,-2 1,0 0,-1 1,-1-1,1 0,-2 1,1 17,-2 22,-6 58,-1-26,6 19,1-37,-3 1,-19 108,7-99,3 0,4 0,4 83,1-105,-10 55,0 20,12 187,0-296</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2481.04">5838 0,'0'9,"0"11,0 7,0 7,0 2,4 5,2-7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink187.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:40.498"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 766,'24'-1,"-1"-1,0-1,0-1,1-1,29-9,109-47,-84 29,278-98,-333 122,1 1,0 1,26-2,43-12,209-45,-139 35,-75 14,93-5,-163 18,0-1,-1-1,0 0,26-11,6-1,-12 7,0 2,1 2,66-4,-67 8,0-1,-1-1,0-3,43-12,-51 10,-1 2,44-4,-11 0,161-48,-113 25,-10 3,-56 15,2 3,46-8,-89 20,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,2 0,-1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 1,0-2,1 1,0 2,1 1,0 1,-1-1,1 1,-1-1,1 1,-1 0,2 9,0 8,-1 1,1 37,-4-58,-3 63,-3 0,-4 0,-24 92,-13 74,21-65,10-82,-5 139,8-95,1-15,9 608,6-371,-3-336,0 0,-1-1,-1 1,0 0,-1 0,0-1,-1 0,-9 18,6-14,1 1,1 0,1 0,-3 21,5-20,-2-1,0 0,-12 31,8-32</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink188.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T13:51:45.970"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1213,'10'0,"2"-2,-1-1,-1 1,0-2,12-4,-8 4,485-165,-420 138,91-46,12-7,-60 35,156-42,-236 78,78-35,-10 3,221-100,-150 59,-114 54,-33 15,2 1,74-22,-79 28,-2 0,54-27,-57 23,2 2,1 0,39-10,-35 15,82-20,145-52,-252 76,-1 0,0 1,0 0,-1 0,1 0,0 0,11 0,-17 2,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,0-1,1 1,-1 0,1 0,-1-1,0 1,2 0,-2 0,0 0,0 0,0 0,0-1,0 2,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 2,2 13,-1 0,-1-1,0 1,-1 0,-1-1,-7 27,-33 93,33-111,-53 136,-26 84,45-62,10-61,24-93,0 2,2-1,2 0,-4 31,-3 121,-1 55,16-22,-6 324,-10-385,-1 55,13 802,3-482,-2-503</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink189.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18366,35 +19455,35 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">133 214,'6'-4,"0"1,1-1,-1 1,1 0,0 1,0-1,0 2,0-1,1 1,-1 0,0 0,1 1,11 0,27-4,89-29,-98 22,0 1,1 2,0 2,44-2,104 9,-76 2,1-4,166-25,-86-7,2 8,243 0,1122 27,-1449 4,204 37,-201-24,80 15,181 24,-286-48,-1 4,158 48,156 86,-185-55,401 236,-291-143,17 11,-254-140,458 309,-62 27,-251-195,-209-178,65 52,-3 4,79 91,-92-89,4-4,100 76,-80-71,95 101,191 210,-24-24,203 297,-534-627,222 305,-217-293,372 566,82 117,-463-693,-1 2,-1 0,-3 1,28 84,-35-72,-9-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1837.58">212 372,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4690.58">212 610,'152'-13,"-21"1,22 0,181-37,-123 14,92-25,-80 40,-221 19,32-3,1-2,-1-1,44-17,-49 16,1 1,0 1,0 1,33-1,7-1,18-2,-49 6,0-1,-1-3,46-12,-50 11,1 1,0 3,0 0,0 3,66 4,-15-1,-61-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7241.59">1 161,'2268'0,"-2095"14,8-1,-113-11,-41 0,0-2,0 0,0-2,29-5,-46 3,1 1,-1-2,0 1,0-1,14-11,20-9,-26 17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9253.58">2938 108,'331'-2,"348"5,-428 23,-67-5,-139-14,0 2,-1 2,0 2,-1 2,67 32,-28-12,-47-23,1-1,54 8,-70-15,3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11951.6">5001 267,'12'1,"1"1,-1 0,0 0,1 1,-1 1,0 0,-1 0,15 8,88 56,-88-52,123 84,133 78,152 67,-19-9,-372-213,18 11,2-3,0-3,107 32,-49-25,-69-19,97 18,-115-29,1 1,-1 2,52 18,-58-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15667.58">7488 1457,'14'1,"0"-1,0 2,0 0,0 0,0 2,0 0,-1 0,0 1,13 7,-1 2,0 1,-2 2,31 26,44 49,-4 4,-4 4,121 174,-113-150,-49-64,48 78,-76-108,2 0,51 53,-44-52,44 61,-16-4,-28-40,1-2,2-1,67 69,-77-89,-1 0,-1 1,32 53,-36-51,1-1,1 0,46 45,34 15,4-5,3-4,220 119,-285-175,219 124,-217-125,-23-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21074.32">2858 267,'-2'1,"1"-1,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 2,-3 41,3-40,24 588,-4-218,-12 795,-10-673,2 2807,-2-3250,-2 0,-2 0,-14 53,-51 150,16-64,47-165,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22702.85">5001 214,'0'268,"-9"753,-69-5,6-66,62-640,-8 458,17-479,4 302,7-472,32 159,-2-31,-13-69,12 131,-34-260,18 83,2 13,-23-119</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24205.76">7356 1457,'0'1,"1"0,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,1 5,152 881,-85-466,-51-292,2 152,-20 133,-1-168,2 3260,0-3477</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25645.29">10055 3785,'0'3075,"2"-3034,2 0,17 75,-12-77,-2 0,-1 1,0 41,-8 233,2-291</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink179.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:09:20.456"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">139 206,'6'-4,"0"1,1-1,0 1,0 0,0 1,0 0,1 1,-1-1,1 1,0 0,-1 0,1 1,12 0,28-4,93-28,-103 22,1 0,0 2,1 3,45-3,109 9,-79 2,1-4,172-24,-89-7,2 8,254 0,1168 26,-1509 4,212 35,-209-23,83 15,188 23,-297-47,-2 5,166 45,162 84,-193-54,417 227,-302-137,17 10,-264-134,477 297,-65 25,-261-186,-218-172,68 50,-3 4,81 88,-94-86,3-4,104 73,-83-68,99 97,199 202,-24-24,210 286,-556-602,232 293,-227-282,388 544,86 112,-483-665,-1 1,-1 1,-4 0,30 81,-36-69,-10-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1837.58">221 358,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4690.58">221 586,'158'-12,"-21"0,22 1,189-36,-128 13,96-24,-84 39,-230 18,34-3,0-2,0 0,45-17,-51 15,1 1,1 2,-1 0,34-1,8-1,19-1,-51 5,-1-1,0-3,48-11,-53 10,1 1,1 4,-1-1,1 3,68 4,-15-1,-64-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7241.59">1 155,'2363'0,"-2182"13,7 0,-117-11,-43 0,0-2,0 0,1-2,29-5,-48 3,2 1,-2-2,1 1,-1 0,15-12,21-8,-27 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9253.58">3061 104,'345'-2,"363"5,-447 22,-69-5,-145-13,0 1,-1 3,0 1,-2 3,71 30,-30-11,-48-23,0 0,57 7,-73-14,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11951.6">5211 257,'13'1,"0"0,0 1,-1 0,2 1,-2 1,1 0,-2 0,16 7,92 55,-92-51,128 81,139 75,158 65,-19-10,-388-203,18 9,3-2,-1-3,113 31,-52-25,-72-17,101 16,-119-27,0 1,-1 2,55 16,-61-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15667.58">7802 1400,'15'1,"0"-1,-1 2,1 0,-1 0,1 2,0 0,-2-1,1 2,13 7,-1 1,0 2,-2 1,32 25,46 48,-4 3,-4 4,126 167,-118-143,-51-63,50 76,-79-104,2 0,53 50,-46-49,46 59,-16-5,-30-38,1-2,3 0,69 65,-80-85,-1 0,-1 1,33 51,-37-49,0-1,2 0,48 43,35 15,4-5,4-4,229 114,-298-168,229 119,-226-119,-24-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21074.32">2978 257,'-2'1,"1"-1,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0 0,-1-1,2 1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 2,-3 39,3-38,25 565,-4-210,-13 764,-10-646,2 2697,-2-3123,-2 0,-2 0,-15 51,-53 144,16-61,50-159,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22702.85">5211 206,'0'257,"-9"724,-73-4,7-64,65-615,-9 440,18-460,4 289,8-452,32 152,-1-30,-14-66,13 126,-36-249,19 78,2 14,-24-115</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24205.76">7665 1400,'0'1,"1"0,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 1,1 5,159 846,-89-447,-54-281,3 146,-21 128,-1-162,2 3133,0-3341</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25645.29">10477 3637,'0'2956,"2"-2917,3 0,16 73,-11-75,-3 1,-1 0,1 40,-10 224,3-280</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:15:09.134"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -18402,55 +19491,74 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:42:10.939"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
+    <inkml:brush xml:id="br1">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
       <inkml:brushProperty name="height" value="0.1" units="cm"/>
       <inkml:brushProperty name="color" value="#004F8B"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">156 0,'-3'73,"-3"0,-3-1,-3 0,-39 125,-7-24,47-156,6-25,4-31,16-53,45-149,-58 233,1-2,-2 3,1 0,0 0,1 0,0 1,4-10,-6 15,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,1 0,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,1 2,17 29,-2 2,-2 0,17 56,-21-56,1-1,2 0,1-1,27 43,-41-74,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1-1,5 2,-6-3,1 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 1,1-4,4-9,0-1,-1-1,-1 1,5-28,26-240,-28 219,1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="889.99">606 714,'18'1,"1"-2,-1 0,0-1,1-1,30-9,-44 10,0 0,0 0,0 0,0-1,0 1,-1-1,1-1,-1 1,0-1,0 1,0-1,0 0,-1-1,1 1,-1 0,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,1-9,-3 12,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,-2-2,-1 0,1 0,-1 1,0 0,0 0,1 0,-1 0,-1 0,1 1,0 0,-7-1,0 0,0 0,0 2,-1-1,1 2,0-1,0 1,-22 6,29-6,-1 1,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,1 1,0 0,0 0,-3 4,2 0,0 1,1-1,-1 0,2 1,-1 0,1-1,0 1,0 10,1-8,0 0,1 0,0 0,1 0,1 0,-1 0,2 0,-1 0,2 0,-1-1,1 0,1 0,0 0,8 12,-9-17,1 0,0 0,0-1,0 1,1-1,0 0,-1-1,1 0,1 0,-1 0,0 0,1-1,7 2,5 0,0-2,0 1,28-2,-10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1918.1">1188 555,'-14'167,"7"-122,3 0,2 73,2-116,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,-1 0,5 0,-4 0,1-1,-1 0,1-1,-1 1,0 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,3-3,13-32,-15 31,0 1,0-1,1 1,0 0,0 0,0 0,0 0,1 0,0 1,8-9,-11 13,1-1,0 1,-1-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,2 1,35 33,-32-29,21 23,-18-18,1 0,0-1,0 0,1-1,14 10,-21-17,-1 0,0-1,1 1,-1-1,1 0,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 0,0 0,0-1,-1 1,1-1,0 0,0 0,-1 0,1-1,-1 1,1-1,4-3,1-1,0-1,-1 0,1-1,-1 0,-1 0,0-1,0 0,8-14,2-7,20-45,-25 46</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink180.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:09:23.986"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3446 2056,'52'-2,"0"-3,72-14,-70 9,0 3,61-3,97 12,-189-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2565">3887 1523,'1'0,"0"0,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 0,0 0,0 2,6 42,-6-38,5 534,-7-298,2-221</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7363.53">5154 2233,'3031'0,"-3005"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8602.53">5127 2690,'1'-6,"2"1,-1-1,1 0,0 0,1 1,-1-1,1 1,0-1,0 1,0 1,2-1,-1 1,0-1,6-2,-2 2,-1 1,0 1,1 0,0 0,-1 0,2 1,-1 1,1 0,-1 0,0 0,1 1,-1 0,11 2,17 2,70 18,-87-18,10 4,-2 2,0-1,-1 3,0 0,-1 2,30 19,138 112,-152-108,-2 3,-1 0,54 78,-72-88</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9380.53">6174 2488,'-23'2,"1"0,0 0,-1 2,2 1,-1 1,0 0,2 1,0 1,-1 1,-20 13,-27 18,-92 71,54-34,-44 36,33-24,94-72</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11327.93">6311 2411,'0'-1,"0"0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,1 0,-1 1,0-1,0 1,0 0,1-1,-1 1,0 0,1 0,1 0,46-5,-43 5,19-2,-7 1,1 0,-1 1,34 4,-48-3,0 0,0 0,1 0,0 0,-1 1,0 0,0-1,-1 1,1 0,0 0,0 1,0 0,-1-1,0 1,0 1,0-1,0-1,-1 2,1-1,4 8,0 7,0 1,0 0,-2 0,-1 1,-1 0,1 21,-2 6,-7 68,4-103,-1-1,0 1,-1-1,0 1,-1-2,-1 1,0 0,-11 19,12-25,0 1,0-2,0 1,0 0,-1-1,-1 1,1-1,0-1,0 1,-2-1,2 1,-1-1,0 0,0-1,-1 0,1 0,-12 2,8-2,1-1,-2 0,1 0,-1-1,1 0,-1-1,-18-3,26 3,-1 0,1-1,0 1,0-1,0 2,0-2,0 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 0,0 1,0 0,0-1,0 0,1 0,0 0,-1 0,1 0,1-1,-1 2,0-1,0-5,-1-5,1 0,0 0,0-1,2 2,-1-2,5-19,-4 30,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,2 0,-1 0,0 0,0 0,0 0,0 0,0 1,0 0,0 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1 0,1-1,-1 1,-1 1,1-1,0 0,-1 1,1-1,0 1,4 1,13 4,0 2,-1 1,1-1,-3 3,2 0,23 17,41 24,-47-33,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12457.93">7111 2741,'9'-4,"8"-2,6 2,3-1,2 2,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13329.93">7166 2386,'-2'1,"1"0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0-1,1 1,-1 1,-1-1,2 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 2,-1 1,-17 185,8-55,0 146,10-259</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14406.93">6945 2690,'10'0,"6"0,7 0,3 0,3 0,1 0,-1 0,0 0,0 0,-5 5,2 1,2 3,0 2,1-3,-5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16372.45">7717 2513,'-25'0,"0"2,0-1,0 2,0 1,-39 12,50-12,0 1,1 1,0 1,1-1,-1 1,1 1,0 0,1 1,1 0,-2 0,-8 12,14-12,0 0,1 0,-1 0,1 0,1 1,0 1,1-2,0 2,0-2,1 2,0-1,2 1,-1-1,2 20,0-25,-1 1,1-1,0 0,0 0,1 0,0 1,-1-2,2 1,-1 0,0 0,1 0,0-2,0 2,0-1,2 1,-1-1,-1 0,1-2,1 2,-1-1,1 1,0-1,0-1,0 1,0-1,1 0,-1-1,0 1,0 0,10 0,-8-1,0 0,1 0,-1-1,0 0,1-1,-1 1,0-1,0-1,1 1,-1-1,-1 0,2 0,9-6,-12 5,0-1,0 1,-1-1,0 1,0-1,1-1,-1 1,-1-1,0 1,0-1,0 0,-1 0,1 0,-1 1,0-2,0 1,1-7,3-18,4-18,32-83,-36 114,-1-1,0 0,2-34,-36 398,29 84,0-401</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17632.44">5291 1269,'-8'5,"2"-1,-1 1,-1-1,2 1,0 1,1-1,-2 1,2 0,-9 13,-34 64,37-63,-122 256,84-168,21-50,3 3,-31 113,26-14,8 0,0 304,20-368,0-44,2 1,10 70,-6-104,1-1,1 1,1-1,13 27,-15-35,1 0,0-1,2 1,-2-1,2 0,1 0,-1-1,0 0,12 7,-15-12,1 0,1 0,-1-1,0 0,0 0,1-1,-1 1,0-1,0-1,2 1,-2-1,8-1,8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19022.93">8213 1243,'17'20,"1"-1,-2 1,-1 0,0 2,20 41,-9-7,22 72,-12 2,29 247,-34-172,-23-127,-5 155,-5-134,2-73,-1 0,-1 0,-2 0,-2 0,1 0,-2-2,-1 1,-3 0,1-1,-3 0,-14 22,-77 100,-30 47,120-170</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="64599.81">883 0,'2890'0,"-2760"7,234 38,73 5,-178-50,25 2,-221 0,1 4,87 19,-86-10,2-5,0-1,0-3,72-3,44-3,137-3,-183-11,-95 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="65739.81">2867 508,'-5'0,"-6"4,-1 6,1 10,3 10,2 13,3 4,2 2,0-3,1-1,1-3,-1-5,1-4,4-4,6-6,6-8,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="66679.81">3033 813,'4'-4,"6"-7,12-4,6 0,3 1,1 4,4 9,2 12,-3 8,4 16,-1 4,-8-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="67449.81">3473 660,'-3'1,"0"0,1-1,-1 1,1 0,-2 0,2 0,0 1,-1-1,1 1,0-1,0 0,0 1,0 0,0 0,0 0,-3 3,-29 41,27-34,7-12,-33 47,-1 0,-2-3,-3-1,-74 66,94-95</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="68979.81">3473 432,'7'-6,"2"0,-2 1,1 1,2-1,-2 1,1 0,1 0,-1 1,1 1,-1 0,15-3,-20 4,0 0,0 1,1-1,0 1,-1 0,0 0,0 0,1 0,0 1,-1 0,0 0,0 0,0 0,0 0,1 1,-1 0,0-1,-1 1,1 0,-1 1,2-1,-2 1,0 0,0 0,0 0,0-1,2 6,1 8,-1-1,-1 0,-1 2,0-2,-1 1,-1 0,-1 1,0-1,-1 0,-1 1,-5 19,0-15,0-14,3-11,4 3,0-1,0 1,0 0,0-1,0 1,0 1,1-2,-1 1,0 0,1-1,-1 1,1 0,0 0,-1 0,1-1,0 1,1 0,-1 0,-1 0,1 0,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,1 1,1 0,43-14,-23 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="69609.81">4107 457,'0'4,"0"7,0 8,0 12,0 2,0 3,0 1,0 1,0-3,0 2,0-2,0 3,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="70439.81">3942 736,'4'-4,"6"-6,8-1,8 0,5 5,7 0,1 3,0 2,-4 0,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="72309.81">4685 508,'0'0,"0"-1,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,0 0,-25 2,-21 16,39-11,0-1,1 0,0 1,1 1,-1-1,1 0,1 2,-1-1,-4 9,8-13,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,0-1,1 2,-1-1,1 0,0 0,0 1,1-2,-1 1,1 0,3 6,-4-9,0 0,0 0,0 0,0-1,0 0,1 1,-1 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,2 0,-2-1,0 1,1 0,-1-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,10-8,-1 1,0-2,8-12,-8 11,-4 3,-1 0,0 1,0-1,0-1,-1 1,0-1,1-9,13-29,-18 48,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,3 12,-1 18,-1 230,-4-122,2-113</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="73599.81">4796 253,'3'1,"0"0,0 0,0-1,0 2,1-1,-1 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-1-1,0 1,1 1,1 2,31 40,-19-15,-3 1,12 35,-16-43,-2 2,-1 1,-1-1,0 1,-2-1,-2 1,-2 35,-6 10,-16 73,17-120,-19 46,8-25,10-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-170596.93">1573 5330,'9'0,"8"0,5 0,5 0,1 0,1 0,0 0,1 0,3-4,2-1,-1 0,-2 0,0 2,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-169756.92">1600 5762,'4'0,"17"0,12 0,26 0,6 0,3 0,-3 0,-1 0,-8 0,-4 0,-5 0,2 9,-1 2,-6 1,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-167276.92">635 4340,'0'950,"-3"-949,-3-11,-7-13,0-14,-11-56,18 63,-2 0,0 2,-23-51,28 76,1-1,-2 1,2 0,-1 1,0-1,0 0,0 0,-1 1,1-1,-2 1,2 0,-1 0,0 0,1 2,-1-2,-1 1,1 0,-1 0,1 0,0 0,-7 1,-13-1,-1 0,-41 6,21-1,37-4,0 0,0 0,1 2,-2-1,2 1,-1 0,0 1,1 0,0 0,0 0,0 1,0-1,1 1,0 1,-1 0,1 0,1-1,0 2,-1 0,-6 8,6-3,-1 0,1 1,1-1,0 1,1-1,1 2,-1-2,1 2,2-1,-1 1,2 17,-1-7,2 0,1 0,1 0,2 0,0-1,1 1,15 32,-17-46,1 1,0-2,1 0,0 1,0-2,1 1,1 0,-1-1,1 0,1 0,-1-2,0 1,2 0,-1-1,0 0,2-2,-2 2,2-2,-1 0,11 3,-12-4,0 0,0-1,0-1,0 1,0-1,0 0,1-1,-2 1,1-1,1-1,-2 0,2 0,10-6,-13 5,-2 0,1 1,-1-2,0 0,0 0,0 0,-1-1,1 2,-1-2,0 0,0 0,-1-1,0 2,0-2,0 1,-1-1,0 1,0-1,3-9,-1-11,-1 1,-1-1,-2-35,0 34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-164666.93">883 4721,'-2'1,"0"0,0-1,0 1,1 0,-1 0,1 0,-1 0,-1 0,2 0,0 0,-1 0,1 1,0-1,-1-1,1 2,0 0,0-1,-1 3,-19 34,18-33,-13 31,2 0,2 1,1 0,2 1,-5 70,13-105,1 0,0 0,0-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,1-1,-1 1,1 0,-1-1,1 1,1-1,3 4,-2-3,0 0,0-1,1 1,0-1,0 0,-1 0,1 0,0 0,1-1,-1 0,6 0,2 0,-2 0,2-1,-2 0,2-1,-2 0,2 0,-2-1,2-1,-2 0,13-6,-18 6,-1 0,1-1,-2 0,1 0,-1-1,0 1,1 0,-1-1,0 0,-1-1,3-4,30-62,-23 40,7-12,-3-1,14-60,-25 78,-5 25,0 3,-3 42,0-5,2 428,-2-434,-1 0,-9 31,-1 13,12-70,-1 1,1 0,-1 0,-2-1,1 1,0-1,0 0,0 0,-1 0,0-1,-2 1,2-1,-1 0,0 0,0 0,-2-1,2 0,-1 0,0 0,-1-1,0 1,1-1,-9 1,-1 2,-2 0,1-2,0 0,-1-2,0 1,1-2,-1 0,-31-2,46 0,0 1,-2-1,2 0,0 0,-1 0,1 1,0-2,0 0,0 1,-1-1,1 0,1 0,-1-1,0 1,1 0,0-1,-1 0,1 2,-1-2,1 0,1 0,-1 0,1-1,-1 1,0-5,-2-6,1 2,0-2,1 2,1-2,0-13,1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-163516.92">1 5838,'809'0,"-629"13,-30 0,0 0,-57-3,-69-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-161406.92">414 6041,'0'7,"17"426,-10-278,3 20,-3-148,-7-26,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,8-52,-7 27,0-1,-2 1,-1-1,-8-29,9 49,-1-1,0 0,0 1,-1-1,0 1,0-1,-2 2,1-2,0 1,0 0,-1 2,-1-2,1 1,0 0,-1 0,1 1,-2 0,0 0,1 0,-9-3,3 2,-1 1,0-1,0 1,0 1,-1 0,1 1,-1 1,0 0,-15 1,24 0,1 1,-1 0,1-1,-1 1,0 0,1 1,0-1,0 1,0 0,-1 1,1-1,1 1,-1-1,1 1,0-1,-1 2,0-1,2 0,-1 1,0 0,1-1,0 0,0 1,0 0,0 0,1 1,-1-1,0-1,1 2,0 5,-3 15,2 0,0 25,-2 32,3-76,-3 17,1 1,2-1,-1 0,6 36,-4-55,1 1,0 0,0 0,0-2,0 2,1-1,0 1,-1-1,2 1,-1-2,1 1,-1 0,2 0,-1 0,0-1,1 0,-1 0,1 0,0 0,1 0,-1-1,0 1,0-1,0 0,1-1,0 1,0-1,-1 1,10 0,16 1,-1-2,0-1,52-7,-77 7,2-1,-2 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,0-1,-1 1,1-1,0 0,-1 0,0 1,6-7,-5 2,2 0,-2 0,0 0,-1-1,0 1,0-1,-1 0,4-10,-3-7,0 0,-2 0,-1 0,-5-42,0 42,-1 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-160596.93">635 6371,'45'-2,"61"-9,-60 5,56-2,-90 8,-1 0,0 1,1 0,-1 0,1 1,-1 1,1 0,-2 0,2 1,-2-1,0 2,1 0,-2 1,2 0,-2-1,0 2,14 13,5 6,-2 1,-1 1,23 33,-26-31,1-2,1 0,31 25,-44-45</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-160026.93">1297 6143,'-4'1,"2"-1,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,-1 0,1 1,1 0,-1-1,1 1,-3 3,-24 35,22-29,-279 442,274-435,2 2,-1-1,3 1,0 0,0 1,-2 23,8-38,-1 0,1 0,-1 0,0-1,0 0,-5 8,-3 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-159166.93">1131 3427,'4'0,"2"5,1 4,-2 11,-2 6,-1 2,-1 6,0 10,-6 6,-11 11,-2 4,0 1,0-8,4-9,-3-12,3-10,4-4,3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-158036.92">966 3757,'-2'1,"1"0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-2,0 1,1 0,-1 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 2,-1 0,-6 41,3-1,1 1,5 55,-2-96,0 0,0-1,1 1,-1 0,1 1,0-1,-1 0,2 0,-1-1,1 1,-1-1,1 1,0 0,-1 0,1-1,0 1,0-1,1 0,-1 0,0 0,1 0,0 0,0-1,0 1,-1 0,1-1,0 0,0 0,7 2,3-1,1-1,-1 0,0 0,0-2,1 0,15-2,-14 0,-2 0,2-1,-2 0,1 0,-1-1,0-1,0 0,-1-1,16-10,9-10,49-44,-84 69,21-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2535.69">2095 1624,'-32'83,"18"-43,3-1,2 3,1-2,2 1,3 0,2 56,2-92,0 0,1 0,-1-1,1 1,0-1,0 1,1-1,0 1,0-2,0 1,0 1,0-2,1 1,-1 0,2-2,-1 2,0-1,0 0,1-1,-1 1,2-1,-2 1,1-1,0-1,0 0,6 1,10 4,0-2,-1 0,1-1,0-1,27-1,-43-1,-1-1,1 1,1-1,-1 0,0 0,-1 0,1-1,1 0,-2 0,0 0,1 0,-1-1,1 0,-1 1,6-6,-4 1,1 0,-1 0,-1 0,1-1,-1 1,0-1,5-15,-2-2,1 1,-3-1,-1 0,4-49,-8 19,-1 36,0 1,2 0,0 0,8-34,-10 52,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,2 1,-2-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,12 22,7 34,-1 17,-5 0,6 109,-16 155,-4-225,0-91,-1-1,-1 0,-2 0,0 0,-1 0,0-1,-3 0,0 1,0-2,-2 0,-1-1,-26 33,33-46,0 1,-1-2,-1 1,2-1,-2 1,1-1,-1-1,0 0,0 0,0 0,-1-1,1 1,0-1,-14 1,-13 2,2-3,-38-1,49 0,-10-1,2 0,0-2,0 0,1-1,-1-3,-36-9,58 13,0 0,1-1,-1 0,1 0,-1-1,1 1,1-1,-1 1,1-2,-1 1,1-1,0 0,1 0,0 0,-1-1,1 1,0 0,1-1,0-1,1 1,-1 0,1 0,-1-1,2 1,-1 0,2-1,-1 0,1 1,0-1,0 0,2-9,7-26,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1381">2592 1396,'6'1,"1"0,-1 1,0-1,0 1,1 0,-1 0,0 1,-1 0,2 0,-2 0,0 1,0 0,0-1,1 1,-2 1,1-1,6 11,7 7,-1 0,19 38,-20-32,-3 0,0 0,9 31,-19-49,0 1,-1 0,0 0,-1 0,0 0,-1 1,0-2,-1 2,0-1,-1 0,-5 18,6-26,-1 0,1-1,-1 1,0 0,0 0,0-1,0 1,0-2,-1 2,1-1,-1 0,1 0,-1 0,1 0,-2-1,1 1,0-1,0 1,0-1,-6 1,-4 0,1 0,-2 0,-23 0,28-2,-38 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-90886.92">1765 3122,'-3'23,"-1"-1,0 0,-3 0,1 0,-2-1,-12 23,2-2,-43 90,61-130,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,0-1,0 1,0 0,0-1,-1 1,1-1,3 2,9 5,0 0,1-1,15 6,-13-6,46 17,-36-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-89866.92">2013 3604,'4'-2,"0"0,2-1,-2 1,1 0,0 0,0 1,1-1,-1 1,0 0,0 0,8 1,18-6,-9 1,-1-3,-1 0,1 0,28-18,-43 23,1-1,-1 0,-1 0,0 1,2-2,-3 0,1 0,0 0,-1 0,1 0,-1-1,-1 0,0 1,0-1,0-1,0 1,3-12,-6 16,0 0,0 0,-1 0,1 1,-2-1,2 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 1,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-3-1,-11-1,0 0,0 1,-22 1,32 0,-15 0,0 2,2 0,-2 1,-37 9,52-10,0 0,-1 0,0 1,1 0,0 0,1 0,-2 1,2-1,0 1,0 0,0 1,-1 0,2-1,-1 1,2 0,-1 1,-7 10,10-13,1 0,-1 0,0 0,1-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,1 0,0-1,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,1 0,4 2,7 5,1 1,0-1,26 11,-37-18,12 4,0 0,1 0,0 0,33 4,-17-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-88496.93">2785 2843,'-5'71,"-3"0,-31 124,38-192,-105 394,103-390,0-13,0-29,3 25,0 0,0 0,1 0,0-1,1 1,7-17,-5 20,0 1,0 1,1 0,0-1,1 1,-1 0,0 0,1 2,1-2,-1 1,0 1,1-1,0 1,0 0,0 1,1 0,9-2,1 0,0 1,-1 1,2 0,-1 1,1 1,21 3,-35-2,1 0,-1 0,0 0,0 1,0-1,1 1,-1 1,-1-1,1 0,-1 0,1 1,-1 0,0 1,0-1,0 1,-1-1,1 0,0 1,-1 1,-1-1,1 0,-1 1,1-1,-1 0,-1 1,1 0,-1 0,0-1,1 7,2 10,-2 1,0 0,-2-1,-1 1,-6 28,7-47,-1 1,1 0,-1 0,-1-1,1 0,0 1,-1 0,0-1,1 1,-1-1,-1-1,1 1,0 0,-1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,-1 1,0 0,0-1,0 1,1-1,-1 0,-8 1,-9 1,0-1,0-1,-1-1,-31-3,6 0,20 3,-33-2,57 1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,2-1,-1 1,0 0,1-1,0 0,-1 0,1 0,-3-3,-7-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-87306.92">3170 3554,'0'41,"2"-25,-2 0,0 2,-1-2,-1 0,-8 33,4-41,2-15,0-15,2 2,1 0,0 0,2 0,0 0,6-26,-6 41,1-1,1-1,-1 1,1 1,-1-1,1 1,0-1,1 1,0 0,1 0,-1 0,0 0,1 1,-1 0,1 0,1 0,0 1,-1-1,1 1,0 1,9-5,-5 4,-1-1,0 1,1 1,-1 0,0 0,17 0,-23 2,0 1,-1-1,0 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,2 1,-2-1,0 0,-1 1,1 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0 0,1 1,-1-1,0 0,-1 1,1 3,5 23,-2 1,-1 1,-2-1,-1 0,-5 37,1 20,6-61,-2-26,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,2 0,-2 0,0 0,1 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0-1,1 1,-1-1,12-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-86786.92">3776 3478,'0'5,"0"4,0 6,0 6,0 2,0 2,0 0,0 2,0-1,0 1,0-10,0-19,0-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-86446.92">3831 3173,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-85836.92">4327 2843,'0'78,"-2"0,-28 152,-44 45,41-162,32-109,-7 17,3 1,0 0,1 0,1 0,0 0,3 40,0-62,1 2,-1-1,0 0,0 0,0 1,2-1,-2 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,1 0,-1-1,0 0,0 1,0-1,2 1,-1 0,2-1,-2 0,0 0,1 0,-1-1,0 1,1 0,-1-1,0 0,0 1,1 0,0-1,2-2,4-2,-1 0,1-1,-2 1,1-1,0-1,8-9,23-32,-23 25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-85096.92">4052 3401,'10'0,"11"0,8 0,8 5,3 1,-2-1,-1 0,-4-2,-2-1,-2-1,0 0,-1-1,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-83836.92">4603 3503,'24'2,"0"0,44 9,-21-2,-43-8,-1-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 1,0-1,-1 1,1-1,0 1,-1 0,0 0,1 0,0 0,-1 1,0-1,0 0,0 0,0 1,2 5,-3-3,0 0,0-1,0 1,-1 1,0-1,0-1,0 1,0 0,-1 0,0 0,0-1,-1 1,-2 6,-2 4,-1 0,-1 1,0-2,-2 1,1-2,-1 1,-2-1,1-1,-25 21,-5-1,-87 51,85-58,37-21,0 0,0-1,-1 0,1-2,-12 5,17-6,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-2 1,2 0,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1-1,1 1,-1-1,1-1,0 1,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,1 1,0-1,-1 1,1-1,1 1,-1 0,1-2,1-2,1-1,0 1,0 0,0 0,2 1,-2-1,1 1,0 0,1 0,0 1,0-1,-1 1,1 0,1 0,-1 1,0 0,1 0,0 0,0 1,-1 0,1 1,0-1,8 1,-2 1,0-1,0 2,-1 1,0 0,0 0,1 1,-2 1,1-1,-1 1,1 1,16 12,0 2,-20-13,2 0,-2-1,1-1,1 1,0-1,18 7,-8-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-82836.92">4576 3731,'-5'0,"3"0,12 0,8 0,11 0,10 0,6 0,2 0,-2 0,-5 0,-5 5,-3 1,-3-1,-6 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink190.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:09:20.456"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -18459,12 +19567,39 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">317 450,'0'577,"-1"-570,1-1,0 0,1 0,0 0,0 0,0 0,0 0,1 0,3 6,-3-8,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,0 0,1-1,0 0,-1 1,1-1,7 2,0 1,1 0,0-1,1 0,13 2,-22-5,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,5-4,1-3,0-1,-1 0,0-1,-1 0,0 0,12-23,33-83,-38 82,131-336,-124 308,-3 0,22-130,-36 177,0 17,2 31,4 561,-13-385,2-151,-10 390,2-351,-3-1,-40 153,-7 2,48-205,9-38,-1 0,0 0,0 0,-1 0,0 0,0-1,-1 1,0-1,0 0,0 0,0-1,-1 1,0-1,-1 0,1 0,-1-1,0 1,-10 5,3-4,0-1,0 0,-1-1,0-1,0 0,0 0,0-1,-26-1,15 0,0 0,-1-2,1-1,0-1,0-1,0-2,0 0,1-1,0-2,-28-14,27 10,-2-1,1-1,1-1,-46-38,65 48,-1-1,1 0,0-1,1 1,0-1,0 0,0 0,1-1,0 1,1-1,0 0,1 0,-1 0,2 0,-1 0,0-18,3 16,1-1,-1 1,2 0,0 0,0 0,1 0,0 0,1 1,0 0,0 0,1 0,1 0,0 1,0 0,1 1,-1 0,2 0,-1 0,1 1,1 0,9-5,3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1682.99">1270 0,'35'35,"-22"-23,-1 0,0 0,-1 1,-1 1,10 14,1 8,-2 1,-1 1,-2 1,-1 1,-3 0,10 49,-21-84,0-1,-1 0,1 1,-1-1,0 1,-1-1,1 1,-1-1,0 1,0-1,0 1,0-1,-1 0,0 0,0 0,0 0,0 0,-6 7,0-3,-1 0,0-1,-1 0,1-1,-1 0,-12 5,6-1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink181.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink191.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:09:23.986"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">335 430,'0'552,"-1"-545,1-2,0 1,1 0,0 0,0-1,0 1,0 0,1-1,3 7,-3-8,2-1,-2 0,1 0,0 0,0 0,1 0,0 0,-1 0,1-1,0 0,-1 0,2 0,6 2,1 1,0 0,1-1,1-1,13 3,-23-5,1 0,-1-1,0 0,0 0,1 0,-1 0,0-1,0 1,0-1,1 0,-1 0,0-1,0 1,1-1,-2 0,1 1,5-5,2-3,0 0,-2-1,1 0,-2-1,0 1,14-23,34-79,-41 79,140-322,-132 295,-3 0,23-125,-38 170,1 16,1 29,5 537,-14-368,2-144,-11 372,3-335,-4-1,-42 146,-7 2,50-196,10-37,-1 1,0 0,0-1,-1 1,0 0,-1-1,0 0,0 0,0 0,-1 0,1-2,-1 2,0-1,-2 0,2-1,-1 0,-1 1,-9 5,2-5,0 0,0 0,0-1,-1-1,0-1,0 1,0-1,-27-1,16 0,-1 0,0-2,1-1,-1-1,1-1,-1-1,1-1,1-1,-1-1,-28-14,27 9,-1 0,0-1,2-2,-49-35,69 45,-2-1,2 1,-1-2,2 1,0 0,0-1,-1 0,2 0,0 0,1-1,0 1,0-1,0 1,2-1,-1 0,0-16,3 14,1 0,-1 0,2 1,1-1,-1 0,1 1,0-1,1 2,1-1,-1 1,1-1,2 1,-1 0,1 0,0 2,-1-1,3 0,-2 1,2 0,0 0,10-4,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1682.99">1341 0,'37'33,"-24"-21,0-1,0 1,-2 0,0 2,10 12,1 9,-2 0,-1 2,-2 0,-1 1,-3 0,10 47,-22-80,0-1,-1 0,1 1,-1-2,0 2,-1-1,1 1,-1-1,0 0,0 0,0 1,0-1,-2 0,1 0,0-1,0 1,0 0,-6 7,-1-4,0 1,-1-1,0-1,0 0,0 0,-14 4,7 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink192.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18492,7 +19627,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink182.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink193.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18519,7 +19654,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink183.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink194.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18543,7 +19678,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">518 84,'0'5,"-5"6,-10 5,-7 5,0 3,-10 11,-4 13,-4 7,-23 22,-6 6,6-6,8-12,14-12,9-11,10-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="451.99">68 84,'9'0,"12"9,11 3,18 18,15 16,18 24,8 18,3 7,-5 6,-10-6,-13-14,-19-12,-7-13,-11-12,-10-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="451.98">68 84,'9'0,"12"9,11 3,18 18,15 16,18 24,8 18,3 7,-5 6,-10-6,-13-14,-19-12,-7-13,-11-12,-10-13</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2147.99">782 58,'0'-2,"1"0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0 1,0-1,0 0,0 1,3-1,52-12,-27 8,0 3,41 0,-63 2,0 0,-1 1,1 0,-1 0,1 1,-1 0,0 0,1 0,-1 1,0 0,0 1,-1 0,1 0,10 9,-15-11,-1 0,1 1,-1 0,1-1,-1 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,0 0,-1 0,-1 5,-3 8,0 0,-13 24,12-26,-4 5,0 0,0-2,-2 1,0-1,-1-1,-1 0,-1-1,0-1,-1 0,-18 13,21-18,-1 0,0-1,0 0,-1-1,0 0,0-2,-1 0,1 0,-1-2,0 0,-1 0,1-2,-21 0,114-3,28-1,-94 3,0 1,0 0,-1 1,1 0,-1 1,1 0,13 7,-6 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2709.99">1602 190,'0'23,"0"20,0 22,0 17,0 13,0-1,0-7,0-14,0-11,0-15</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3244.02">1417 561,'0'-4,"4"-2,7 0,9 1,30 2,18 1,8 1,4 0,-3 1,-10 0,-11 1,-16-1</inkml:trace>
@@ -18551,7 +19686,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink184.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink195.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18580,7 +19715,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink185.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink196.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18607,7 +19742,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink186.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink197.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18637,7 +19772,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink187.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink198.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18664,7 +19799,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink188.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink199.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18691,21 +19826,49 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink189.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:10:50.317"/>
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:15:13.838"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 626,'59'-115,"-41"78,0 0,3 0,37-46,-53 78,1 0,-1 0,1 2,0-1,1 0,-1 0,1 0,0 1,0 1,0 0,0-1,1 1,-1 0,0 1,1 0,0 0,-1 0,1 1,0 0,0 0,0 1,11 2,-6-2,-1 1,1 1,-1 0,0 0,0 1,0 0,0 1,-1 0,0 0,0 2,0-1,17 15,-4 5,-1 0,30 48,-39-52,0 0,1-1,3-1,-1 0,2-1,24 17,-27-25,0-3,2 1,-1-1,23 8,-26-12,0 1,-1 1,0 0,1 1,-1 0,-1 0,0 2,14 12,-15-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1078.53">985 0,'-10'1,"2"0,-1 1,0-1,0 2,2-2,-2 2,0 0,1 0,1 1,-1 0,1 0,-1 0,1 1,-8 6,-15 14,-47 52,35-35,-185 193,178-187,-88 95,109-108,1-5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:42:45.132"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -18714,91 +19877,48 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">87 0,'0'1,"1"-1,0 0,0 0,0 1,-1-1,1 1,0-1,-1 0,1 1,0 0,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,0 1,5 28,-4-24,6 88,-7 106,-1-107,2-81,0 0,1 0,0 0,1 0,1 0,0-1,0 1,1-1,0 0,1 0,1-1,-1 1,2-2,-1 1,1-1,1 0,15 13,-15-15,-1 0,1 0,0-1,1 0,-1-1,1 0,0-1,1 0,-1 0,1-1,-1 0,1-1,0-1,0 1,0-2,0 0,0 0,0 0,18-5,-16 2,-1-1,0-1,0 0,0-1,-1 0,0 0,0-1,-1-1,0 0,0 0,-1-1,0 0,0-1,-1 0,11-17,-10 12,-1-1,-1 1,0-1,-2 0,1-1,-2 1,0-1,-1 0,-1 0,-1 0,0-22,-9-259,10 442,-6 242,-1-294,-5 0,-25 109,25-159,-64 241,56-231,-1 0,-3-1,-36 61,41-83,-61 96,65-107,0-1,-1-1,-1 0,-27 23,35-34,0-1,-1 1,1-2,-1 1,0-1,0 0,0 0,0-1,-1-1,-9 2,15-2,-1-1,0 1,0-1,0 0,0-1,0 1,0 0,0-1,0 0,1 0,-1 0,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0-1,0 0,0 1,-4-6,2-3,0 1,0 0,1-1,1 0,-1 0,2 0,0-1,-1-13,-1-103,4 83,5-450,-5 462</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1503.99">669 1667,'3'-1,"0"0,-1-1,1 0,0 1,0-1,-1 0,1-1,-1 1,1 0,-1-1,0 1,0-1,3-5,19-18,-21 24,1 0,0 0,0 0,-1 1,1 0,0 0,0 0,0 0,1 1,-1-1,0 1,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,5 5,9 6,-2 1,1 1,25 30,-8-8,-13-15,0 1,17 28,-3-6,-25-32,2-1,0 0,0-1,1 0,18 10,-9-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2283.02">1277 1534,'0'-4,"-5"3,-14 14,-14 20,-9 12,-12 9,-6 3,4 1,1 0,6-6,3-7,4 3,5-8,4-5,3-5,8-2,6-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4417.99">2494 132,'0'1169,"-1"-1138,-1 0,-6 32,3-34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5032.01">2097 635,'0'-1,"1"0,0 0,0 0,0-1,1 1,-1 0,0 0,0 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,3 1,0-2,28-1,0 2,0 0,0 3,0 0,40 11,49 4,214 3,-75-7,-231-10,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21459.99">1330 1878,'-11'0,"1"0,1 0,0 0,0 1,-1 0,-10 3,18-3,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 1,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 4,0 11,2-1,-1 1,2 0,0-1,2 1,8 24,0-9,1-1,22 37,-31-61,0-1,0 1,0-1,1-1,0 1,0-1,0 0,1 0,0-1,0 0,0 0,0 0,15 4,7 1,0-2,41 5,-52-9,-16-2,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,-1-1,1 1,0 0,0 0,0-1,-1 1,1-1,0 0,-1 1,0-1,1 0,-1 0,2-4,-2 0,0 0,0 0,0-1,-1 1,0-1,0 1,-1 0,1-1,-1 1,-4-10,-9-89,5 29,7 71,1 1,-1-1,0 0,0 1,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,-1 0,1 0,-1 0,-4-1,-14-5,-1 1,0 2,-26-4,34 7,-20-3,5 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:15:09.134"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br1">
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2006 132,'1'264,"-3"287,1-534,-1 0,-1-1,-6 26,8-39,0 0,0-1,0 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,-1 0,-3 3,5-5,0 1,0-1,-1 1,1-1,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-2 0,2-1,0 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 1,0 0,-1-3,-9-7,3-1,-1 1,2-1,-2 0,2-1,1 1,1-1,-8-19,-13-23,21 45,-1-4,-2 1,1-1,-1 2,0-1,-2 1,-20-19,7 9,19 17,1 0,0 1,-1 0,0-1,0 2,-1-1,1 1,-9-5,10 6,1 1,-1 0,0 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,-1 4,-14 12,2 0,0 0,2 1,-1 2,-14 30,4-1,-18 59,30-79,3 1,2 0,-1 0,-1 33,9-58,1-1,-1 1,1-2,-1 1,1 1,1-1,-1 0,1 0,-1 0,1 0,1-1,0 1,-1 0,0 0,1-1,0 0,0 0,0 0,1 0,-1 0,2-1,-2 1,1-1,0 1,7 1,10 4,-1-1,1-1,0-2,27 4,-10-1,-3 2,-25-6,1 0,-1 0,21 2,-29-5,1 0,-1 0,1 0,0 0,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,1-1,0 1,-1 0,0-1,0 0,-1 2,4-5,4-8,0 2,-1-2,0 0,-2 0,1 0,-1-1,-1 0,-1 0,0 0,3-26,-3-9,-4-93,-3 59,3 61</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2385.98">2445 616,'-2'26,"-2"-1,0-1,-2 1,0-1,-2 1,-11 23,8-17,2 0,2 1,2 0,-1-1,4 2,1 0,1-1,8 48,-8-77,0 0,1 0,0-1,-1 1,1 0,0 0,0-1,1 0,-1 1,0-1,1 0,0 1,-1-1,1 0,0 0,0 1,1-2,0 1,-1 0,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,1 0,-2 0,6 0,11 0,-2 1,1-2,1 0,20-4,4 1,-4 2,8 1,0-2,0-2,79-16,-113 17,1 0,-1-2,0 0,0-1,-1 0,1 0,-2-1,1-1,-1 1,0-2,-1 0,0 0,0-1,-1 0,-1 0,15-23,-8 10,-2-1,0 0,-3 0,0-1,-1-1,-2 0,-1 0,-1 0,-1-1,0-49,-8-50,2 1068,4-468,-3-451,0 0,-2 0,0 0,-2 0,-1-1,-11 28,12-37,0-2,-1 2,-1-2,0 0,-1 0,0 0,-1-1,0 0,-1 0,0-1,0 0,-20 12,14-14,-1-1,0-1,0-1,0 0,-1 0,-33 1,36-3,-20 2,0-3,1 0,0-2,-58-7,70 5,2-2,-1 0,0 0,0-3,2 1,-1-2,0 0,-26-18,41 24,1 1,1-1,-1 0,1 0,0 1,0-1,0 0,0-1,0 1,1-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,0-1,0 2,1-1,-1-1,1 1,0 0,0-1,1 2,1-9,-1 7,1 0,1 1,-1-1,1 0,0 0,0 1,1 0,0 0,-1 0,1 0,0 0,0 0,2 1,-2 1,1-1,0 0,-1 0,1 1,2-1,6-1,12-2,0 1,40-4,-16 3,-17 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4541.92">1 1302,'9'0,"17"0,10 0,15-4,16-1,8-5,20-4,4-1,-11 4,-16 2,-15 3,-12 3,-5-2,-5-1,-3-4,-3 1,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6619.95">358 1404,'-13'32,"4"-13,-90 309,98-324,-1-1,1 1,1-2,-1 1,1 1,-1 0,1-1,0 1,0-1,1 1,-1-2,1 2,0-1,-1 1,3-1,-2 0,0 1,3 2,-1-3,0 1,1-1,-1 0,1 0,1 0,-1-1,0 0,0 0,0 0,0 0,1 0,0-1,6 2,51 17,-45-13,0-1,-1-2,1 1,0-1,30 3,-43-8,1 1,0-1,-1 0,1 0,-1-1,0 1,1-1,0 0,-1 0,0 0,0 0,-1 0,1-1,-1 0,2 0,-2 0,0 0,0-1,0 1,-1 0,1-1,-1 0,0 0,2-5,8-15,-2 0,0 0,5-26,-6 20,102-288,-109 314,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 1,0 0,1-1,0 1,-1 0,1 0,0 0,6-2,-7 4,-1 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,-1 1,1 0,0 0,0 0,0-1,-1 1,1 0,-1 0,1 0,0 1,-1-1,0 0,2 1,-2 0,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,2 2,4 12,0 0,-2-1,2 2,-3-1,2 32,-3 89,-3-83,1 100,-5 276,-2-355,-4 0,-21 76,30-142,0-1,0 0,-1 1,-1-1,0-1,0 2,-1-1,1-2,-1 2,-2-1,2 0,-1-1,-1 1,1-1,-2 0,1-1,0 0,-2 0,2 0,-1-1,-1-1,0 1,1-1,-1 0,-1 0,-17 2,-9 1,0-1,-1-1,0-2,1-2,-2-1,-53-8,87 8,0 0,1 1,-2-1,2 0,-1 0,1-1,-1 0,1 1,0-1,0 0,0-1,-1 1,1 0,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,1-1,1 1,-1-1,0 0,1-3,0 1,0-1,1 1,0 1,0-2,0 1,1 0,1 0,0 0,-1 0,1 0,0 1,0 0,1 0,0-1,1 1,6-6,8-5,0 2,2 0,30-15,20-15,-42 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7909.95">3844 971,'10'-3,"11"-3,17 1,12 0,10 2,10-3,-2-1,-5 1,-7 1,-4-1,-6-2,-7 1,-5 3,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9014.94">3954 1124,'-1'0,"1"0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 1,0-1,9 12,20 5,5-6,-2-3,2 1,-1-3,1-1,1-1,-1-2,62-3,251 0,-318 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink200.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:10:50.317"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
       <inkml:brushProperty name="height" value="0.1" units="cm"/>
       <inkml:brushProperty name="color" value="#004F8B"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3309 2143,'50'-2,"0"-3,69-15,-67 10,0 2,58-2,94 12,-182-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2565">3732 1587,'1'1,"0"-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 1,0-1,0 2,5 44,-5-40,5 557,-7-311,2-230</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7363.53">4949 2328,'2910'0,"-2885"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8602.53">4923 2804,'1'-6,"2"0,-1 0,1 0,0 0,0 0,0 0,1 1,0-1,0 1,0 0,1 0,0 1,0-1,6-3,-3 3,0 1,0 1,0 0,1 0,-1 0,1 1,0 0,0 1,0 0,0 0,0 1,0 0,10 2,17 3,66 17,-82-17,8 3,-1 2,0 0,-1 2,0 1,-1 1,29 21,132 116,-146-112,-1 2,-2 1,53 81,-70-92</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9380.53">5928 2593,'-22'2,"1"0,0 1,-1 1,2 1,-1 1,0 0,1 2,1 0,-1 2,-19 12,-27 20,-87 74,51-36,-42 38,32-25,89-76</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11327.93">6060 2513,'0'-1,"0"0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 1,0 0,1-1,-1 1,0 0,1 0,1 0,44-5,-41 5,18-2,-7 1,1 0,-1 1,33 4,-46-3,0 0,0 0,1 0,-1 0,0 1,0 0,0 0,-1 0,1 0,0 0,-1 1,1 0,-1-1,0 1,0 1,0-1,0 0,-1 1,0-1,5 8,0 8,0 1,-1 0,-1 0,-1 0,-1 1,1 22,-2 6,-7 71,4-108,-1 0,0 0,-1 0,0 0,-1-1,0 0,-1 1,-11 19,13-26,-1 1,0-1,0 0,0 0,-1-1,0 1,0-1,0 0,0 0,-1-1,1 1,-1-1,0 0,0-1,0 1,0-1,-11 2,7-2,1-1,-1 0,0 0,0-1,0 0,0-1,-18-3,25 3,-1 0,1-1,0 1,0-1,0 1,1-1,-1 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 0,0 1,1-1,-1 0,0 0,1 0,0 0,-1 0,1 0,1-1,-1 1,0 0,0-5,-1-6,1 1,0-1,0 0,2 1,-1-1,5-21,-4 32,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1 0,0-1,0 1,-1 1,1-1,0 0,-1 1,1-1,0 1,3 1,14 5,-1 1,-1 1,1 0,-2 2,1 0,22 19,40 24,-46-34,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12457.93">6828 2857,'9'-4,"7"-2,6 1,3 0,2 2,-3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13329.93">6881 2487,'-2'1,"1"0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 2,-1 1,-17 194,9-59,-1 153,10-270</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14406.93">6669 2804,'9'0,"7"0,6 0,3 0,3 0,0 0,0 0,0 0,0 0,-5 5,2 1,2 4,0 1,1-2,-5-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16372.45">7410 2619,'-24'0,"0"2,0 0,0 1,0 1,-37 12,47-11,1 0,0 1,1 1,0 0,0 0,0 1,1 1,0 0,1 0,-1 1,-8 12,13-13,0 0,1 1,0-1,0 1,1 0,0 1,1-1,0 1,1-1,0 1,0 0,2 0,-1 0,2 20,0-26,-1 1,1-1,0 1,0-1,0 0,1 1,-1-1,2 0,-1 0,0 0,1 0,0-1,0 1,0-1,1 1,0-1,-1 0,1-1,1 1,-1-1,0 1,1-1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,9 0,-7-1,0 0,0 0,0-1,0 0,0-1,0 1,0-1,0-1,0 1,0-1,-1 0,1-1,10-5,-12 5,-1-1,1 1,-1-1,0 0,0 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1 0,1 0,-1 0,-1-1,1 1,1-8,3-18,4-19,30-86,-34 118,-1-1,-1 0,3-35,-35 415,28 87,0-418</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17632.44">5081 1323,'-8'5,"2"-1,-1 1,0 0,1 0,0 1,1-1,-1 1,1 1,-9 12,-32 68,36-66,-118 267,81-176,20-51,3 2,-30 118,26-14,6 0,1 317,19-384,0-46,2 1,10 73,-6-108,1-1,0 1,2-1,12 27,-14-35,1-1,0 0,1 0,-1 0,2-1,0 0,0 0,0-1,11 8,-14-13,1 0,0 0,0-1,0 0,0 0,0-1,0 1,0-1,0-1,1 1,-1-1,7-1,9 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19022.93">7886 1296,'17'20,"0"0,-2 1,0 0,-1 2,20 43,-9-8,21 75,-12 3,29 257,-34-180,-21-131,-5 161,-5-140,2-76,-1 0,-1 0,-2 0,-1 0,0 0,-2-1,-1 0,-2 0,0-1,-2 0,-14 23,-74 104,-29 49,116-177</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="64599.81">848 0,'2775'0,"-2650"7,224 40,71 5,-171-52,23 2,-211 1,0 3,84 20,-82-11,1-4,0-2,1-3,68-2,43-4,131-3,-175-12,-92 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="65739.81">2753 529,'-5'0,"-5"5,-2 5,2 11,2 10,2 14,3 4,2 2,0-3,1-1,1-3,-1-6,1-3,4-5,6-6,5-8,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="66679.81">2912 847,'4'-4,"6"-7,11-5,6 0,3 2,0 4,5 8,1 14,-2 8,3 16,0 5,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="67449.81">3335 688,'-3'1,"0"0,1-1,-1 1,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,0 1,0 0,0 0,0 0,0 0,-2 3,-29 43,26-36,7-12,-31 50,-2-2,-2-2,-2-1,-72 69,91-100</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="68979.81">3335 450,'7'-6,"1"0,-1 1,1 0,1 0,-1 1,1 0,0 0,0 1,0 0,0 1,14-3,-19 4,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,1 0,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,2 5,0 8,0 0,-1 0,-1 1,0-1,-1 1,-1 0,-1 0,0 0,-1 0,-1 0,-5 21,0-16,1-15,2-11,4 3,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,1 1,1-1,41-13,-22 11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="69609.81">3944 476,'0'5,"0"6,0 9,0 12,0 3,0 2,0 2,0 0,0-2,0 1,0-1,0 2,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="70439.81">3785 767,'4'-4,"6"-6,7-2,8 1,5 4,6 1,2 3,-1 2,-3 0,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="72309.81">4499 529,'0'0,"0"-1,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,0 0,-24 2,-20 17,37-12,1-1,0 1,0 0,1 1,0-1,0 1,1 1,-1-1,-3 10,7-14,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 1,1-1,-1 0,1 1,0-1,0 0,1 1,-1-1,1 0,0 0,0 1,1-1,-1 0,1 0,3 6,-4-9,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,1 0,-1-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,9-8,0 0,-1-1,9-13,-9 11,-3 4,-1 0,0 0,0 0,-1-1,0 0,0 0,1-10,12-30,-17 50,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,3 12,-1 20,-2 239,-2-127,1-118</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="73599.81">4605 264,'3'1,"0"0,0 0,0-1,0 2,0-1,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,0 1,2 2,30 42,-19-16,-2 1,11 37,-16-45,-1 2,-1 1,-1-1,-1 1,-1 0,-2 0,-2 36,-5 11,-16 76,16-125,-18 48,7-26,11-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-170596.93">1510 5556,'9'0,"7"0,6 0,3 0,2 0,1 0,0 0,1 0,3-4,1-2,0 1,-2 0,-1 2,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-169756.92">1536 6006,'4'0,"16"0,12 0,25 0,5 0,3 0,-2 0,-2 0,-7 0,-4 0,-5 0,2 9,-1 3,-5 0,-9-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-167276.92">610 4524,'0'990,"-3"-989,-3-11,-6-14,-1-15,-10-58,17 66,-1 0,-1 1,-22-52,27 79,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,-6 1,-13-1,-1 0,-40 6,21-1,35-4,1 1,-1-1,1 2,-1-1,1 1,-1 0,1 1,0 0,0 0,0 0,1 1,-1 0,1 0,0 1,0 0,0 0,1 0,0 1,0 0,-7 9,6-4,0 1,0 0,1 0,0 0,1 0,1 1,0-1,0 1,2 0,-1 0,2 18,-1-7,2 0,1 0,1 0,1 0,1-1,1 1,14 34,-16-49,1 1,0-1,0-1,1 1,0-1,1 0,0 0,0 0,1-1,0 0,0-1,0 0,1 0,0-1,0 0,1-1,-1 1,1-2,0 0,10 3,-11-4,-1 0,1-1,0 0,-1 0,1-1,0 0,0-1,-1 0,1 0,0-1,-1 0,1 0,11-6,-14 5,-1 0,1 0,-1-1,0 0,-1 0,1 0,-1-1,1 1,-1-1,-1 0,1 0,-1-1,0 1,0-1,0 1,-1-1,0 0,0 0,2-9,0-12,-1 0,-1 0,-2-36,0 35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-164666.93">848 4921,'-2'1,"0"0,0-1,0 1,1 0,-1 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 1,0 0,0-1,-1 3,-18 35,17-33,-12 31,1 1,3 0,0 1,3 1,-6 72,13-109,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,4 5,-2-4,0 0,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0-1,0 0,6 1,1-1,-1 0,1-1,-1 0,1-1,-1 0,1-1,-1 0,1-1,-1 0,12-6,-17 6,-1-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,-1-1,3-5,28-64,-21 42,6-13,-3-1,14-62,-24 81,-5 25,0 5,-3 42,0-4,2 446,-2-453,-1 0,-8 33,-2 13,12-72,-1 0,1 0,-1 0,-1 0,0 0,0-1,0 0,0 1,-1-1,0-1,-1 1,1 0,-1-1,0 0,0 0,-1-1,1 1,-1-1,0 0,0-1,-1 1,1-1,-8 2,-2 1,-1 0,1-2,-1 0,0-1,0 0,0-2,0 0,-30-2,44 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0-1,0 0,0 1,0-1,0 0,1 0,-1-1,0 1,1 0,0-1,-1 0,1 1,0-1,0 0,1 0,-1 0,1-1,-1 1,0-6,-2-5,1 1,0-1,1 1,1-1,0-15,1 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-163516.92">1 6085,'777'0,"-604"14,-29-1,0 1,-55-4,-66-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-161406.92">398 6297,'0'7,"16"444,-9-289,2 20,-2-153,-7-28,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,7-54,-6 28,0-1,-2 1,-1-1,-7-30,8 50,-1 0,0 0,0 0,-1 0,0 1,0-1,-1 1,0-1,0 1,0 0,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 1,-1 0,1 0,-8-3,2 1,0 2,-1-1,1 1,-1 1,0 0,0 1,0 0,0 1,-15 1,23 0,1 1,-1 0,1 0,0 0,-1 0,1 1,0-1,0 1,0 0,0 1,0-1,1 1,-1-1,1 1,0 0,-1 1,1-1,1 0,-1 1,0 0,1-1,0 1,0 0,0 0,0 0,1 1,-1-1,1 0,0 1,0 5,-3 16,2 0,0 26,-2 34,3-80,-3 18,1 1,2-1,0 0,4 38,-3-58,1 1,0 0,0 0,0-1,0 1,1-1,0 1,-1-1,2 1,-1-1,1 0,-1 0,1 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,1-1,-1 1,9 0,16 1,-1-2,0-1,50-7,-74 7,1-1,-1 0,0 0,0 0,0-1,0 0,0 1,0-1,0 0,0-1,-1 1,1-1,-1 0,0 0,0 0,6-6,-5 2,1 0,-1-1,0 1,-1-1,0 0,0 0,-1 0,3-11,-2-7,0 0,-2 0,-1 0,-5-44,1 44,-2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-160596.93">610 6641,'43'-2,"59"-10,-58 6,54-2,-87 8,0 0,0 1,0 0,0 0,0 1,0 1,0 0,-1 0,1 1,-1 0,0 1,0 0,-1 1,1 0,-1 0,0 1,13 14,5 6,-2 1,-1 1,22 35,-25-33,1-2,1 0,30 27,-43-48</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-160026.93">1245 6403,'-3'1,"1"-1,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1 0,-1-1,1 1,-3 3,-23 37,21-31,-267 461,262-453,2 2,0-1,2 1,0 0,1 0,-3 25,8-39,-1-1,1 0,-1 0,0 0,0-1,-4 8,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-159166.93">1086 3572,'4'0,"2"5,0 5,-1 11,-2 6,-1 2,-1 6,0 11,-6 6,-10 12,-3 4,1 0,0-7,3-10,-2-13,3-9,3-5,3-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-158036.92">928 3916,'-2'1,"1"0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 2,-1 1,-5 41,2 0,1 1,5 57,-2-100,0 0,0 0,1 0,-1 0,1 1,0-1,-1 0,2 0,-1 0,0 0,0-1,1 1,0 0,-1 0,1-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1-1,0 1,-1 0,1-1,0 0,0 0,6 2,4-1,0-1,0 0,-1 0,1-2,0 0,15-2,-14 0,-1 0,1-1,-1 0,0 0,0-2,-1 0,1 0,-2-1,16-11,9-10,46-46,-80 72,20-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2535.69">2012 1693,'-31'86,"18"-44,2-1,2 2,2-1,1 1,3 0,2 58,2-96,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,1 1,0-1,0 0,0 1,0-2,1 1,-1 0,1-1,0 1,0-1,0 0,1-1,-1 1,1-1,-1 1,1-1,0-1,0 1,5 0,10 4,0-2,0 0,0-1,0-1,26-1,-41-1,-1-1,1 1,0-1,0 0,0 0,-1 0,1-1,0 0,-1 0,0 0,1 0,-1-1,0 0,0 0,6-5,-4 1,0 0,0-1,-1 1,1-1,-2 0,1 0,5-16,-2-2,0 1,-2-1,-1 0,3-51,-7 19,-1 39,0 0,2 0,0 0,8-35,-10 54,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,12 23,6 35,-1 18,-4 1,5 112,-15 163,-4-235,0-96,-1 0,-1 0,-1 0,-1 0,-1 0,0-1,-2 0,-1 0,0-1,-1 0,-2-1,-24 34,31-48,0 1,-1-1,0 0,1-1,-2 1,1-1,0-1,-1 1,0-1,0 0,0-1,0 1,0-1,-13 1,-12 2,1-2,-36-2,46 0,-8-1,1 0,0-2,0 0,1-2,-1-2,-34-10,55 14,1 0,0-1,-1 0,1 0,0-1,0 1,1-1,-1 0,1-1,0 1,0-1,0 0,1-1,0 1,0-1,0 1,0-1,1 0,0-1,1 1,-1-1,1 1,0-1,1 1,-1-1,2 0,-1 0,1 0,0 0,0 0,2-10,6-27,3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1381">2489 1455,'6'1,"0"0,0 1,0-1,0 1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 1,0 0,0 0,0 0,-1 1,1-1,6 12,6 7,-1 0,19 39,-20-33,-2 0,-1 1,9 31,-18-50,0 0,-1 1,0-1,-1 1,0-1,-1 1,0-1,-1 1,0 0,-1-1,-5 20,6-28,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,-6 1,-3 1,0-1,-1 0,-23 0,28-2,-37 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-90886.92">1695 3254,'-3'24,"-1"-1,0 0,-2 0,0 0,-2-1,-11 24,2-3,-42 95,59-136,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,3 2,8 6,1-1,0-1,15 7,-13-7,45 18,-35-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-89866.92">1933 3757,'4'-2,"0"-1,1 0,-1 1,1 0,0 0,0 1,0-1,0 1,0 0,0 0,7 1,18-6,-9 0,-1-2,0 0,0-1,27-18,-41 24,0-1,0 0,-1 0,0 0,1-1,-2 0,1 0,0 0,-1-1,0 1,0-1,-1 0,0 0,0 0,0-1,0 1,2-13,-5 17,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-3-1,-10-1,0 0,-1 1,-20 1,30 0,-14 0,0 2,1 0,-1 1,-35 10,49-11,0 0,-1 0,1 1,0 0,0 0,1 0,-1 1,1 0,0 0,0 0,0 1,0 0,1 0,-1 0,2 0,-1 1,-6 11,9-14,1 0,-1 0,0 0,1 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,1 0,3 2,8 6,0 0,1-1,24 12,-35-19,11 5,1-1,0 0,0 0,32 5,-16-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-88496.93">2674 2963,'-5'74,"-2"0,-31 130,37-201,-100 411,98-407,0-13,0-31,3 27,0-1,0 1,1-1,0 0,1 1,6-19,-4 22,0 1,0 1,1-1,0 0,0 1,0 0,0 0,1 1,0-1,0 1,0 1,1-1,-1 1,1 0,0 0,0 1,10-2,0 0,0 1,0 1,1 0,-1 1,1 1,21 3,-34-2,0 0,0 0,0 0,0 1,0-1,0 1,0 1,-1-1,1 0,-1 1,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,-1 1,1 0,-1 0,0 0,1 6,1 11,-1 1,0 0,-2-1,-1 1,-5 29,6-49,-1 1,1 0,-1 0,-1 0,1-1,0 1,-1 0,0-1,1 1,-1-1,-1 0,1 0,0 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,-7 1,-9 1,-1-1,1-1,-1-1,-30-3,6 0,19 3,-31-2,54 1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 0,0 1,1-1,0 0,-1 0,1 0,-3-3,-6-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-87306.92">3044 3704,'0'43,"2"-26,-2 0,0 1,-1-1,-1 0,-8 34,5-43,1-15,0-16,2 2,1 0,0 0,2 1,0-1,6-27,-6 42,1 0,0-1,0 1,1 0,-1 0,1 1,0-1,1 1,0-1,0 1,0 0,0 0,1 1,-1-1,1 1,0 0,1 1,-1-1,1 1,-1 0,10-4,-6 4,0-1,0 1,0 1,0 0,0 0,16-1,-23 3,1 1,-1-1,0 0,1 1,-1 0,1-1,-1 1,0 0,0 0,0 0,1 1,-1-1,0 0,-1 1,1 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,1 3,5 25,-2 0,-1 1,-2 0,-1-1,-5 39,1 20,6-63,-2-27,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0-1,1 1,-1-1,12-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-86786.92">3626 3625,'0'5,"0"5,0 6,0 5,0 3,0 2,0 1,0 1,0-1,0 1,0-10,0-21,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-86446.92">3679 3307,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-85836.92">4155 2963,'0'82,"-2"-1,-27 159,-42 46,39-168,31-114,-6 18,2 1,0 0,1 0,1 0,1 0,2 41,0-63,1 1,-1-1,0 0,0 0,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,2 1,-1 0,1-1,-1 0,0 0,1 0,-1-1,0 1,1 0,-1-1,0 0,0 1,1-1,-1 0,3-2,4-2,-1 0,0-1,-1 0,1 0,-1-1,9-10,21-33,-22 26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-85096.92">3891 3545,'9'0,"12"0,6 0,9 5,2 1,-1 0,-2-1,-3-2,-2-1,-2-1,0 0,-2-1,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-83836.92">4420 3651,'23'2,"0"0,42 10,-20-3,-41-8,-1-1,0 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,0 0,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,2 5,-3-3,0 0,0 0,0 0,-1 1,0-1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 0,-2 6,-2 5,0 0,-2 0,0-1,-1 0,0-1,-1 1,-1-2,0 0,-23 21,-6-1,-83 54,82-61,35-22,1 0,-1-1,-1 0,1-1,-11 4,16-6,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1-1,1 1,-1-1,1-1,0 1,0-1,1 0,-1 1,0-1,0 1,1-1,-1 0,1 1,0-1,-1 1,1-1,0 1,0 0,1-2,1-3,1 0,0 1,0 0,0 0,1 0,-1 0,1 1,0 0,1 0,-1 0,1 0,-1 1,1 0,0 0,0 1,0 0,1 0,-1 0,1 1,-1-1,1 2,-1-1,9 1,-3 1,1 0,-1 1,0 1,-1 0,1 0,0 1,-1 1,0 0,0 0,0 1,16 13,0 2,-19-14,1 0,-1-1,1 0,0 0,1-1,17 8,-8-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-82836.92">4394 3889,'-5'0,"3"0,12 0,7 0,11 0,9 0,7 0,1 0,-2 0,-5 0,-4 5,-3 1,-3 0,-6-1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink190.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">92 0,'0'1,"1"-1,0 0,0 0,0 1,-1-1,1 1,0-1,-1 0,1 1,0 0,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 0,0 1,0 0,0 1,6 27,-5-23,6 85,-7 101,-1-102,2-79,0 1,1 0,0-1,2 1,0-1,0 0,0 0,2 0,-1 0,1-1,2 0,-2 0,2-1,0 1,0-2,2 1,15 12,-16-14,0 0,0-1,1 0,0 0,0-1,0 0,1-2,1 1,-2 0,2-1,-2 0,2-1,-1-1,1 1,0-2,-1 0,1 0,-1 0,20-5,-17 2,-2-1,1-1,0 1,-1-2,0 0,0 0,-1-1,0 0,-1-1,1 0,-2 0,1-1,-1-1,0 1,11-17,-11 11,0 0,-2 0,0 0,-1 0,0-2,-2 2,0-2,0 1,-2 0,-1-1,0-20,-10-250,12 425,-8 234,0-283,-6-1,-25 106,25-153,-67 231,59-222,-1 0,-3 0,-38 57,43-79,-65 93,70-104,-1-1,-1 0,-1-1,-28 23,37-33,-1-1,0 0,1-1,-2 1,1-1,-1 0,1 0,-1-1,0-1,-10 2,16-2,-2-1,1 0,0 0,0 0,0 0,-1 0,1 0,0-1,0 0,1 0,-2 0,1-1,1 1,-1-1,1 0,-2 0,2 0,0 0,0 0,0-1,0 0,-1 1,-3-5,2-4,-1 2,1-1,1-1,1 1,-1-1,1 1,1-2,-1-12,-1-99,4 79,5-433,-5 446</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1503.99">705 1606,'4'-1,"-1"0,-1-1,1 0,0 1,0-1,-1 0,2-1,-2 1,1 1,-1-2,0 1,0-1,4-5,19-17,-22 23,1 0,0 0,1 0,-2 1,1 0,0 0,0 0,1 1,0 0,-1-1,0 1,1 0,-1 0,0 1,0-1,0 0,1 1,-1 0,0 0,0 1,1-1,-2 1,1 0,0 0,6 5,9 5,-2 2,0 0,28 30,-9-9,-14-14,0 2,18 26,-3-6,-27-30,3-2,0 1,-1-2,2 1,19 9,-10-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2283.02">1347 1478,'0'-4,"-6"3,-14 13,-14 20,-11 12,-12 8,-6 2,4 2,1 0,6-6,4-6,3 2,6-8,5-4,2-5,9-2,6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4417.99">2630 127,'0'1126,"-1"-1096,-1 0,-7 31,4-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5032.01">2211 612,'0'-1,"1"0,0 0,1 0,-1-1,1 1,-1 0,0 0,0 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 1,-1 0,2-1,-2 1,1 0,-1 0,1-1,-1 1,3 1,0-2,30-1,0 2,0 0,-1 3,1 0,42 11,52 3,225 3,-79-6,-243-10,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21459.99">1403 1809,'-12'0,"1"0,2 0,-1 0,1 1,-2 0,-10 3,19-3,0 0,0-1,0 1,0 0,1 0,-1 0,-1 0,1 1,1-1,-1-1,0 2,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,1 0,-1 0,1-1,-1 1,1 0,0 4,0 10,2 0,-1 0,3 1,-1-2,2 1,9 24,-1-9,2-1,23 35,-33-58,1-1,-1 0,0 0,2-1,-1 1,0-1,1-1,0 1,0-1,1 0,-1 0,1 0,15 3,7 2,1-2,43 4,-55-8,-17-2,0 0,0-1,1 1,-1-1,0 1,0-1,2 0,-2 0,0 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,-1-1,1 1,0 0,0 0,1 0,-2 0,1-1,0 0,-1 1,0-1,1 0,-1 0,2-4,-2 0,0 1,0-1,1-1,-2 1,0 0,0 0,-2 0,2-1,-1 1,-4-9,-10-86,6 28,7 68,1 1,-1-1,-1 0,1 2,0-1,0 0,-1 0,0 0,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 0,-1 0,1 0,0 1,-1 0,0 0,0 1,-4-2,-16-5,0 1,0 2,-28-3,36 6,-21-3,5 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink201.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18821,16 +19941,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 322,'-3'299,"6"306,-3-598,1 1,-1-1,1 0,0 0,1 0,0 0,0 0,0 0,1-1,0 1,6 10,-4-12,-1 0,1-1,-1 0,1 0,1 0,-1 0,0-1,1 0,0 0,-1 0,1-1,0 0,8 2,23 7,0-2,76 10,-102-18,1 0,-1-1,1 0,-1-1,1-1,-1 1,0-2,1 1,-1-2,-1 1,1-2,0 1,-1-1,14-9,-5-3,0 0,0-1,-2-1,0-1,-2 0,0-1,22-41,68-176,-68 145,8-7,41-112,-64 108,-18 76,14-49,-18 76,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,1-1,-1 3,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 2,9 133,-10 166,-2-124,3 280,-3-420,-1 1,-2-1,-12 42,-4 29,19-93,-1-1,-1 0,-1-1,0 1,-1-1,0 0,-16 23,-77 90,77-102,18-20,-1-1,1 0,-1 0,0-1,0 1,-1-1,0-1,1 1,-1-1,0 0,0-1,-14 3,-6 0,-1-1,-32 0,22-1,9-1,-167 7,175-10,-1 0,0-2,1 0,-1-1,1-2,-37-13,53 17,1 0,0-1,-1 0,1 1,0-1,0-1,0 1,-4-5,-3-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1731.62">1723 216,'-2'15,"0"-1,0 0,-2 0,1 0,-2-1,-7 16,-2 11,-55 138,41-112,3 1,-29 124,43-106,4 1,6 128,1-143,0-64,0-1,1 1,0-1,0 1,0-1,1 1,-1-1,2 0,-1 0,1 0,0 0,0 0,0-1,1 1,5 6,1-3,1 1,0-2,0 1,0-2,1 1,14 5,-21-11,-1 1,0-1,0 1,0-1,-1 1,1 1,-1-1,1 0,-1 1,0-1,0 1,-1 0,3 5,3 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3840.56">2544 348,'-13'2,"1"0,-1 1,1 1,0-1,0 2,1 0,-1 0,1 1,0 0,1 1,-13 10,-13 7,-73 39,42-26,-90 68,151-100,0 1,1 0,0 0,0 0,1 1,0-1,0 1,1 0,-1 1,2-1,-1 0,1 1,0-1,0 1,0 9,-2 17,2 1,3 39,-1-35,0-29,0 0,1-1,0 1,1 0,0-1,0 1,1-1,0 0,0 0,1 0,1 0,-1 0,8 8,-4-7,1-1,0 0,0 0,1-1,1 0,-1-1,1 0,0 0,18 6,-24-10,0 0,0 0,1-1,-1 0,1 0,-1 0,1-1,0 0,-1 0,1 0,0-1,0 0,0 0,-1-1,1 1,0-1,0 0,-1-1,1 1,-1-1,1 0,-1-1,0 1,1-1,6-5,23-18,-1-2,-2-1,0-1,-2-2,46-63,-67 79,0 0,-1 0,-1 0,0-1,-1 0,-1-1,0 1,-2-1,2-20,-2-3,-2-1,-8-76,7 113,-1 0,1 0,-1 1,0-1,0 1,-1-1,0 1,1-1,-1 1,-1 0,1-1,-1 1,1 1,-1-1,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 1,0 0,0-1,0 1,-8-2,-9-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4667.59">2570 4,'0'0,"1"-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,-1 1,2 1,27 28,-27-27,16 20,-2 0,-1 1,-1 1,-1 0,19 53,32 144,-47-156,-4-9,-3 1,6 98,-14 114,-3-162,0-90,0 1,-2-1,0 0,-1 0,0-1,-2 1,0-1,-1 0,-10 19,-10 10,-60 77,66-96,18-22,-1-1,0 0,1 0,-1 0,-1-1,1 1,0-1,-7 3,-11 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5320.56">3231 613,'4'-4,"11"-7,8 0,3 0,7 3,7 3,1 2,3-7,2-3,7 2,18-2,9 0,1 4,-10 2,-11 3,-17 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5955.56">3231 1010,'0'5,"13"1,23-1,28 0,16-2,22-1,11-1,0-5,-10-2,-9-4,-12-1,-15 2,-14 2,-12 2,-4 3,1-4,-2 0,-7 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink191.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 309,'-3'287,"6"293,-3-573,1 1,-1-1,1-1,0 1,1 0,0-1,0 1,1 0,0-1,0 0,6 11,-4-13,-1 1,2-1,-2 0,1 0,1 0,-1-1,1 0,0 0,0 0,-1 0,2-1,-1 0,8 2,25 6,-1-1,80 9,-107-17,2 0,-2-1,2 0,-2-1,1-1,0 1,-1-2,2 1,-2-2,0 2,0-3,1 1,-2-1,15-8,-5-4,-1 1,1-1,-2-1,-1-2,-1 1,0-1,22-39,71-170,-70 140,7-7,44-107,-67 103,-19 73,15-47,-19 73,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1 0,1 0,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,1-1,-1 3,0 0,0-1,0 1,0-1,-1 1,1 0,0 0,-1 0,2 0,-2 0,0 0,1 0,-1 2,9 127,-10 160,-2-119,3 268,-3-403,-2 2,-1-2,-12 41,-5 28,20-90,-2-1,0 1,-1-2,0 1,-2 0,1-1,-17 23,-80 85,80-97,19-19,-1-1,1 0,-1-1,-1 0,1 1,-1-1,0-1,0 1,0-1,0-1,-1 0,-13 3,-7 0,-2-1,-32 0,23-2,8 0,-172 7,181-10,-1 0,0-2,1 0,-1 0,2-3,-40-12,56 16,1 0,0-1,-1 0,0 1,1-1,0-1,0 1,-4-4,-4-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1731.62">1791 207,'-2'15,"0"-2,0 1,-2-1,0 0,-1 0,-7 15,-3 10,-56 133,41-108,4 1,-30 120,45-103,4 2,6 122,1-137,0-61,0-1,1 1,0-2,0 2,0-1,1 0,-1 0,2 0,-1 0,1-1,0 1,0 0,0-1,2 1,4 5,1-2,2 0,-1-1,1 1,-1-3,2 2,14 4,-22-10,-1 1,0-1,0 1,0-1,0 1,0 1,-1-1,1-1,-1 2,0-1,0 1,-1 0,4 4,2 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3840.56">2644 334,'-13'2,"0"0,0 1,0 0,1 0,-1 2,2 0,-1 0,0 1,1-1,0 2,-13 9,-13 7,-76 38,43-26,-93 66,157-96,-1 1,2-1,0 1,0 0,1 1,-1-2,1 2,1 0,-1 0,2 0,-1 0,1 1,0-2,0 2,-1 8,-1 17,2 0,3 38,-1-33,0-29,0 1,1-1,0 0,1 1,1-1,-1 0,1 0,0-1,0 1,1 0,1-1,-1 1,9 7,-5-6,2-2,-1 1,0 0,2-2,0 1,0-1,0 0,0-1,20 7,-26-10,0 0,0-1,1 0,0 0,0 0,-1 0,1-1,0 0,0 0,0 0,0-1,0 0,1 0,-2-1,1 1,0-1,1 0,-2-1,1 1,-1-1,1 0,0-1,-1 2,1-2,7-5,23-17,-1-2,-1-1,-1 0,-2-3,48-60,-70 75,1 1,-2 0,-1-1,1 0,-2 0,-1-2,0 2,-2-1,2-20,-1-2,-3-1,-9-74,8 110,-1-1,1 0,-1 1,0-1,0 2,-1-2,0 1,1-1,-1 1,-1 0,1 0,-1 0,1 1,-2-1,1 0,0 1,-1 0,1 0,-1 0,0 0,-1 0,1 1,0 0,0-1,0 1,-9-1,-9-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4667.59">2671 4,'0'0,"1"-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,0-1,1 1,-1-1,-1 1,2 1,28 26,-28-25,17 19,-3 0,0 1,-2 1,0 0,19 51,34 138,-50-149,-3-10,-4 2,7 94,-15 109,-3-156,0-85,0 0,-2-1,0 0,-2 1,1-2,-2 1,0 0,-1-1,-11 18,-10 11,-63 73,70-92,17-22,0 0,0 0,1 0,-1 0,-1-1,0 0,1 0,-7 3,-12 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5320.56">3358 588,'5'-4,"10"-6,9-1,3 1,7 2,8 3,1 2,2-6,3-4,7 3,19-3,9 1,1 3,-10 2,-11 4,-19 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5955.56">3358 969,'0'5,"14"1,23-2,30 1,16-2,23-1,12-1,-1-5,-10-2,-9-3,-13-2,-15 3,-15 1,-13 2,-3 3,0-4,-1 1,-8 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink202.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18853,18 +19973,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 942,'4'0,"7"0,5 0,9 0,9 0,9 0,9 0,28 5,14 6,0 0,-12 0,-15-4,-14-1,-12-3,-13-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1263.98">1483 440,'-9'10,"2"0,0 1,0 0,0 0,2 0,-1 0,-6 25,-4 4,-25 66,4 2,-31 156,61-232,2 0,0 1,2 0,3 60,1-87,1-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,1 0,-1-1,1 0,0 0,0 0,0 0,0-1,1 0,-1 0,1 0,-1-1,1 0,0 0,-1 0,1-1,0 0,0 0,-1 0,1-1,0 1,-1-1,1-1,-1 1,1-1,-1 0,6-3,14-13,-1-1,-1 0,-1-2,0-1,-2-1,0 0,-2-1,20-36,-6 6,-3-2,-3-1,20-64,-37 94,-2 0,-2-1,0 1,-2-1,0 0,-3 0,0 0,-1 0,-10-48,9 69,0 0,0 0,-1 0,0 1,0-1,-1 1,0 0,0 0,0 0,-1 1,0-1,0 1,-10-8,3 5,1 0,-2 1,1 0,-1 1,-27-9,21 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1641.98">2409 1418,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2875.98">2938 96,'3'-2,"0"-1,1 1,0-1,-1 1,1 0,0 0,0 1,0-1,0 1,0 0,1 0,7 0,58-2,-43 3,7-1,9-1,63 5,-101-2,1 0,-1 0,0 1,0 0,0 0,0 0,-1 1,1-1,0 1,-1 0,0 0,0 1,0 0,0-1,0 1,-1 0,0 1,0-1,0 1,0-1,0 1,2 8,4 11,0 1,-2 1,7 37,-5-19,6 23,-3-1,-3 2,-3-1,-5 134,-6-150,-2 0,-1-1,-4 0,-1 0,-2-2,-3 0,-28 55,45-100,-14 29,-2 0,-1-2,-2 0,-34 40,48-63,-1-1,1 0,-2 0,1 0,-1-1,0 0,0 0,0-1,-16 6,18-9,-1 1,1-1,-1 0,1-1,-1 0,0 0,1 0,-1 0,0-1,1-1,-1 1,1-1,0 0,-1 0,-6-4,7 2,0 0,0 0,1 0,0-1,0 0,0 0,0 0,1-1,0 1,0-1,0 0,1 0,-1-1,2 1,-1-1,1 1,0-1,0 0,1 0,0 0,0 0,0-7,0-7,1 0,0 0,2 0,0 0,2 0,6-23,-6 30,0 1,1 0,0 0,1 1,1 0,0 0,16-20,-19 27,0 0,1 1,0-1,0 1,1 0,-1 0,1 1,-1 0,1 0,0 0,0 1,1 0,-1 0,0 0,1 1,-1 0,1 0,8 0,2 2,0 0,-1 1,1 0,-1 2,1 0,-1 1,-1 0,1 1,19 11,7 8,72 55,-75-51,1-1,46 25,-76-49,0 0,0 0,0-1,1 0,-1-1,1 0,0-1,18 1,28-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4118.99">4473 307,'0'-1,"0"-1,0 0,0 1,0-1,0 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,0 0,1 1,-1 0,0-1,0 1,-2-3,2 4,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 2,-4 0,1 1,0 0,0 0,0 1,0-1,1 1,-1 0,-6 8,-46 66,3 2,-77 152,24-6,89-180,3 0,1 1,-9 56,21-90,1 1,0-1,1 1,0 0,1-1,1 1,0-1,1 1,0-1,1 0,1 0,0 0,0-1,2 1,-1-2,1 1,1-1,0 0,13 14,-11-18,-1 0,1 0,0-1,1 0,-1 0,1-2,0 1,1-1,-1-1,1 0,15 2,-21-7,0 1,0-1,0 0,0-1,0 1,-1-1,1 0,-1-1,0 1,0-1,0 0,0 0,-1-1,1 1,6-11,5-2,24-22,52-58,-83 85,0 0,-1 0,0-1,-1 0,0-1,9-28,-7 6,-2 0,-1-1,2-61,-11-117,-2 69,6-89,-1 205</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4703.98">4896 175,'-17'647,"6"-200,11-426</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5918.98">5875 16,'0'0,"0"-1,0 0,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 0,0 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,-33 18,-4 14,0 2,3 2,-60 78,81-97,2 0,0 1,1 0,0 1,2 0,0 1,2 0,0 0,1 0,1 1,1 0,2 0,0 0,1 25,1-43,0 0,0 0,1 0,0 0,-1 0,2 1,-1-1,0-1,1 1,0 0,0 0,0-1,0 1,0-1,1 1,0-1,-1 0,1 0,1 0,-1-1,0 1,0-1,1 0,0 1,-1-2,1 1,0 0,0-1,6 2,0-1,0-1,0-1,0 1,0-2,0 1,0-1,0-1,0 0,-1 0,1-1,11-5,1 0,0-2,-1 0,0-2,0 0,-1-1,-1-1,30-29,-40 34,0-1,-1 1,-1-2,0 1,0-1,-1 0,0-1,-1 1,0-1,-1 0,0-1,-1 1,-1-1,0 1,0-1,-1-14,-1 12,1 2,-2 0,1 0,-1 0,-4-17,4 26,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 1,0 0,-1-1,-4-1,-22-8,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7667.98">5663 466,'-4'2,"0"0,0 0,1 0,-1 0,1 0,-1 1,1 0,0-1,0 1,0 0,-3 6,-8 5,-28 24,2 1,2 2,1 2,3 1,-30 50,56-82,0 1,1 0,0 1,1-1,1 2,0-1,1 0,1 1,0 0,0-1,2 1,0 23,1-2,1 0,3 0,0 0,12 40,-11-59,0 0,2 0,0-1,1 0,1 0,0-1,1 0,0 0,2-1,16 16,-9-10,1-2,1-1,32 21,-43-32,0-1,0 0,0-1,1 0,0 0,0-1,0-1,0 0,0-1,0 0,13 0,14-2,0-1,0-2,0-1,0-2,41-14,-67 18,0-2,0 0,0 0,-1-1,1 0,-1-1,-1 0,0-1,0 0,0-1,-1 0,0-1,-1 1,0-2,0 1,-1-1,-1 0,10-23,-3 0,-2 0,-1 0,8-55,-16 78,-1-1,-1 0,0 0,-1 0,0 1,0-1,-1 0,-1 1,0 0,-1-1,0 1,-1 0,0 1,-10-17,-36-42,-111-114,-4 39,125 108,23 25</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink192.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 904,'4'0,"8"0,4 0,10 0,10 0,8 0,11 0,28 5,15 5,0 1,-13-1,-15-3,-15-1,-12-3,-14-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1263.98">1544 422,'-10'10,"3"-1,0 2,0 0,-1-1,3 1,-1-1,-7 25,-3 3,-27 64,4 1,-31 151,62-223,3-1,0 2,2 0,3 57,1-83,1-2,0 2,0-1,0 1,1-2,-1 1,2 0,-1 0,1-1,-1 0,1 0,0 0,0 0,1 0,0 0,-1-1,1-1,0 1,1 0,-1 0,0-1,1 0,-1 0,2 0,-2-1,1 0,0 0,0 0,0-1,0 0,0 0,0 0,0-1,0 1,-1-1,1-1,0 1,0-1,-1 0,7-3,14-12,-1-1,-1-1,-2-1,1-1,-2-1,0 0,-2-1,20-35,-5 7,-4-3,-3-1,21-61,-39 90,-2 0,-1-1,-1 1,-2 0,0-1,-3 0,0 0,-1 0,-10-46,8 66,1 1,0-1,-1 0,0 2,0-2,-1 1,0 0,-1 1,1-1,-1 1,0-1,0 1,-11-7,4 4,0 1,-1 0,0 0,0 1,-29-8,22 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1641.98">2508 1361,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2875.98">3058 92,'4'-2,"-1"-1,1 1,0 0,-1 0,1 0,0 0,1 1,-1-1,0 1,0 0,1 0,8 0,60-2,-45 3,7-1,10-1,65 5,-105-2,2 0,-2 0,0 1,0 0,1 0,-1 0,-1 1,1-1,0 0,-1 1,1 0,-1 1,0 0,0-1,0 1,-1-1,1 2,-1-1,0 1,0-1,0 1,2 7,5 11,-1 1,-2 1,8 35,-6-17,7 21,-4-1,-2 2,-4 0,-5 128,-6-144,-3 0,0-1,-4-1,-2 1,-1-1,-4-1,-29 52,47-95,-15 28,-1 0,-2-3,-2 1,-35 38,50-60,-2-1,2 0,-2-1,0 1,0-1,0 0,-1 0,1-2,-17 7,19-9,-1 1,0-1,0 0,1-1,-2 0,1 0,1 0,-1 0,-1-1,2-1,-1 1,1-1,-1 0,0 0,-6-4,6 3,1-1,0 0,1 0,-1-1,1 1,0-1,0 0,1-1,-1 1,1 0,0-1,1 0,-1-1,2 2,-1-2,1 1,-1-1,1 1,1-1,0 0,0 1,0-8,0-6,1 0,0 0,2 0,0-1,3 1,5-22,-6 29,0 0,1 1,1-1,0 2,1-1,0 1,17-20,-19 26,-1 0,1 1,0 0,0 0,2 0,-2 0,1 1,-1 0,2 1,-1-1,0 1,1 0,0 0,-1 0,1 1,-1 0,2 0,7 0,3 2,0 0,-2 1,2 0,-1 2,0 0,0 0,-1 1,0 1,21 10,6 8,76 53,-78-49,0-1,49 24,-80-48,1 1,-1 0,0-1,2 0,-2-1,2 0,-1-1,19 1,30-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4118.99">4656 295,'0'-1,"0"-1,0 0,0 1,0-1,0 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,0 0,1 2,-1-1,0-1,0 1,-2-3,2 4,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 2,-4 0,1 1,-1 0,1-1,0 2,0-1,1 1,-2 0,-5 7,-48 64,2 2,-79 146,25-7,92-171,3-1,2 1,-10 54,22-87,1 2,0-2,1 1,0 1,1-2,1 2,0-2,1 2,0-2,1 1,1-1,1 1,-1-2,2 2,-1-3,2 2,0-2,0 1,14 13,-11-18,-2 1,1 0,1-1,0-1,0 1,0-2,1 1,0-1,-1-1,2-1,15 3,-22-7,1 1,-1-1,0 1,0-2,1 1,-2-1,1 0,-1-1,0 1,1-1,-1 1,0-1,-1-1,1 1,7-10,5-3,24-20,55-56,-87 81,1 1,-2-1,0 0,0-1,-1 0,10-27,-8 5,-2 1,-1-2,3-58,-12-112,-3 66,7-86,-1 197</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4703.97">5097 168,'-18'621,"7"-192,11-409</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5918.98">6116 15,'0'0,"0"-1,0 0,0 1,-1 0,1 0,0-1,0 0,0 1,0-1,-1 1,1-1,0 0,0 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,-1-1,2 1,-1 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,-35 17,-3 14,-1 1,4 3,-63 74,84-93,3 1,-1 0,2 0,0 1,1 1,1 0,1 0,1 0,1 0,1 1,1 0,2 0,-1 1,2 23,1-41,0-1,0 1,1 0,0 0,-1 0,3 1,-2-2,0 0,1 1,0 0,0 0,0-1,0 0,0 0,1 1,0-1,-1 0,2 0,0 0,-1-1,0 1,0-2,1 1,0 1,0-2,0 1,0 0,0-1,6 2,1-1,-1-1,1-1,-1 1,1-2,-1 1,0-1,1-1,-1 0,0 0,0-1,12-5,1 1,0-3,-2 1,1-3,0 1,-1-2,-1 0,31-29,-42 34,1-2,-2 2,-1-3,0 1,1 0,-2-1,0 0,-1 0,1 0,-2-1,0 0,-1 0,-1 0,0 0,0 0,-1-14,-1 11,1 3,-2-1,1 1,-1 0,-4-17,4 25,-1 0,1 0,-1 0,1 2,-1-2,0 1,0-1,-2 1,2 0,-1 0,0 0,1 1,-1-1,-1 0,1 1,0 0,-2-1,-3-1,-23-7,0 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7667.98">5895 447,'-4'2,"0"0,0 0,1 0,-2 0,2 0,-1 1,1-1,0 0,0 1,0 0,-4 6,-7 4,-30 24,2 0,3 2,0 3,4 0,-32 48,59-78,0 0,0 1,1 0,1-1,1 3,-1-2,2 1,1 0,0 1,0-2,2 1,0 23,1-3,1 1,3-1,0 1,13 38,-12-57,0 1,3-1,-1-1,1 1,2-1,-1-1,1 1,1-1,1 0,17 14,-9-8,1-3,1-1,33 21,-45-32,1 0,-1 0,1-1,0 0,1-1,-1 0,0-1,1 0,-1-1,1 0,13 0,14-2,1-1,-1-2,1 0,0-3,42-13,-70 17,1-2,-1 0,1 0,-2 0,2-1,-2-1,0 0,-1 0,0-1,1-1,-2 1,1-2,-2 2,0-3,1 1,-2 0,-1-1,11-21,-4-1,-1 0,-2 1,9-54,-17 76,-1-2,-1 1,0-1,-1 1,0 0,0 0,-1-1,-1 2,0-1,-2 0,1 0,-1 0,0 2,-11-17,-37-40,-116-110,-3 38,129 103,24 25</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink203.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18892,7 +20012,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink193.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink204.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18924,7 +20044,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink194.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink205.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18947,11 +20067,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">460 0,'-3'69,"-3"0,-3-1,-21 80,13-70,-54 269,-200 1073,245-1220,-1 239,37 202,-6-591,1 1,3 0,2-1,2-1,3 0,1-1,3 0,1-1,3-2,43 67,55 77,-107-166</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink195.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">459 0,'-3'66,"-3"1,-3-2,-21 77,13-67,-54 258,-199 1031,244-1171,-1 228,37 195,-6-568,1 1,3 0,2-1,2-1,3 0,1-1,3 0,1 0,3-3,43 64,54 75,-106-160</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink206.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18974,11 +20094,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">454 0,'2'1,"1"0,-1 0,1 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,0 3,39 68,-2 3,-5 1,-2 1,27 105,-15-7,-7 1,-8 3,6 185,-24 546,-12-805,-10 208,3-235,-35 153,-77 179,-176 398,277-762,-109 243,115-269,-2 0,0-1,-1 0,-1-1,-1-1,-27 21,21-17,-42 37</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink196.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">454 0,'2'1,"1"0,-1 0,1 0,-1 0,0 1,1-1,-1 1,0-1,0 0,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,0 3,39 65,-2 3,-5 1,-2 1,27 101,-15-7,-7 1,-8 3,6 177,-24 526,-12-774,-10 199,3-225,-35 147,-77 172,-176 383,277-733,-109 233,115-257,-2-1,0-1,-1 0,-1-1,-1 0,-27 19,21-16,-42 36</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink207.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19001,12 +20121,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">189 0,'-3'91,"-4"-1,-18 93,-52 170,65-303,-9 41,4 0,-9 154,26-233,0 1,0 0,1-1,1 1,0-1,1 1,0-1,8 19,-9-26,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,1 0,-1 0,1 0,-1 0,1-1,0 1,0-1,-1-1,1 1,9 0,12-2,0-1,0 0,-1-2,1-1,-1-1,0-2,-1 0,0-1,44-24,5-10,109-87,-165 118,227-187,-201 159,-2-1,-3-2,50-71,-83 107,-1 0,-1 0,1-1,-1 0,0 0,-1 0,0 0,0 0,-1 0,1-11,-2-7,-5-50,1 35,2 12,-2 0,-1 0,-14-47,19 76,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,0-1,-6 16,0 37,1 644,8-305,-2-300,-29 556,21-578,-4 0,-22 73,28-121,-1 0,-1-1,-1 0,-1 0,0-1,-1 0,-1-1,-1 0,-1-1,-26 26,29-35,0 0,0-1,0-1,-1 0,0 0,-16 5,-79 18,96-26,-11 2,0-1,-38 1,25-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1508.97">1671 2355,'-12'2,"0"1,0 0,0 1,1 0,-1 0,1 1,0 1,1 0,-11 7,14-6,0 0,0 0,0 0,1 1,0 0,1 0,0 0,0 1,-6 15,0 3,2 0,-7 30,13-48,2-1,-1 1,1-1,0 1,1 0,1 10,-1-16,0-1,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,3 0,15 4,-11-3,0 0,-1 1,1 0,-1 1,10 4,-16-6,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,1 1,-1-1,0 0,0 1,0 0,0-1,0 1,-1 0,1 4,3 12,-1-1,-1 1,-1 0,-1 0,-1 0,-1 0,0 1,-2-2,-5 26,7-41,-1-1,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,-1-1,0 1,1 0,-1-1,0 0,-5 4,0-2,0 1,-1-2,1 1,-1-1,-15 4,-4-2,0-2,-52 1,51-3</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink197.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">199 0,'-4'87,"-3"0,-19 88,-55 164,68-291,-9 39,4 0,-9 148,27-223,0 0,0 1,1-2,1 2,0-2,1 2,1-2,7 19,-9-25,1-2,-1 1,2 0,-1 0,0 0,0 0,0-1,1 0,0 0,0 0,0 0,0 0,0 0,1-1,0-1,-1 1,1 0,0 0,0-1,0 1,0-1,-1-1,2 1,8 0,14-2,-1-1,0 0,0-2,0 0,-1-2,1-2,-2 0,0 0,46-24,6-9,114-84,-173 114,239-180,-212 153,-2-2,-3-1,52-68,-86 102,-2 0,-1 1,1-2,-1 0,1 1,-2-1,0 0,0 0,-1 1,1-11,-2-7,-5-48,1 33,1 13,-1-1,-1 0,-15-45,20 73,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 0,0 1,-1-1,1 1,-1 0,1 0,0-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,-1-1,-5 15,0 36,0 617,10-292,-3-287,-31 532,23-554,-5 1,-23 69,30-116,-1 0,-2-1,0 0,-2 1,1-2,-2 0,0-1,-2 1,-1-2,-27 25,31-33,-1-1,1 0,-1-1,-1 0,1-1,-18 6,-82 17,100-25,-11 1,0 0,-40 1,26-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1508.97">1756 2259,'-13'1,"1"2,-1 0,1 1,0 0,-1 0,2 1,-1 0,2 1,-12 7,14-7,1 1,0 0,-1-1,2 2,0 0,0-1,1 1,0 1,-7 14,1 3,1 0,-7 28,14-45,2-2,-1 2,1-1,0 0,1 1,1 9,-1-15,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,1-1,-1 1,0 0,0 0,1 0,3 0,16 4,-11-3,-1 0,0 1,0 0,0 0,10 5,-17-6,1 1,-1-1,0 1,1-1,-1 1,0-1,-1 1,1 1,-1-1,0 0,0 1,1 0,-1-2,0 2,-1 0,1 4,3 11,-1-1,0 1,-2 1,-1-1,-1 0,-1 0,0 1,-3-2,-4 26,7-41,-1 0,1 1,-1-1,0 0,0 1,-1-1,1-1,0 1,-1-1,0 1,1 0,-1-1,0 0,-6 4,1-3,-1 2,0-2,0 1,0-1,-16 4,-5-3,1-1,-55 1,53-3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink208.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19035,7 +20155,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink198.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink209.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19059,25 +20179,25 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'2'1,"0"-1,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,1 2,25 32,-23-28,62 100,-6 3,51 128,-25-51,-76-166,1-1,0 0,2-1,25 29,-33-42,0 0,0-1,1 0,0 0,1-1,-1 1,1-2,0 1,1-1,-1 0,0-1,1 0,0 0,0-1,12 2,-16-4,1-1,0 0,-1 0,1 0,-1-1,1 1,-1-1,0-1,0 1,0-1,0 0,0 0,0 0,-1-1,0 1,1-1,5-8,9-10,-1 0,18-30,-26 37,24-34,-1-2,-3-2,46-106,-71 138,0 1,-2-1,2-23,4-22,-9 66,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,7 16,4 18,-2 1,-2 0,-1 1,1 35,-1 153,-6-144,1-41,-10 459,3-415,-5-1,-3 0,-46 152,57-224,0-1,-1 1,0-1,-1 0,0 0,0-1,-1 1,0-1,-8 9,10-15,1 1,-1 0,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 0,-1-1,1 1,0-1,-1 0,1 0,-1-1,1 1,0-1,-1 0,-6-2,-23-9,1-2,0-1,-56-35,59 32,-28-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1155.59">1483 1587,'32'0,"-5"-1,0 1,29 5,-50-4,0-1,0 2,0-1,0 1,-1 0,1 0,0 0,-1 1,0 0,0 0,0 0,0 1,0 0,-1-1,5 7,-8-9,0 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 0,-2 2,-41 38,33-32,7-5,-1 0,1 0,-1 0,1 0,1 1,-1-1,1 1,-1 0,-1 6,4-10,1 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,1-1,0 2,1 0,0-1,0 0,0 1,0-1,0 0,0 0,1-1,-1 1,0 0,1-1,2 2,69 29,-56-26,0 1,-1 2,0-1,24 17,-36-21,-1 0,1 0,-1 1,1 0,-2-1,1 1,0 1,-1-1,0 0,0 1,0 0,-1-1,0 1,0 0,-1 0,1 0,-1 1,0 6,-1-13,2 20,-1 0,-1 0,-4 37,4-52,-2 1,1-1,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0-1,-1 1,1-1,-6 4,-4-1,1 0,-1 0,0-2,0 1,-1-2,-25 4,-89-2,83-5</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink199.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:14:01.656"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1155.58">1483 1587,'32'0,"-5"-1,0 1,29 5,-50-4,0-1,0 2,0-1,0 1,-1 0,1 0,0 0,-1 1,0 0,0 0,0 0,0 1,0 0,-1-1,5 7,-8-9,0 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 0,-2 2,-41 38,33-32,7-5,-1 0,1 0,-1 0,1 0,1 1,-1-1,1 1,-1 0,-1 6,4-10,1 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,1-1,0 2,1 0,0-1,0 0,0 1,0-1,0 0,0 0,1-1,-1 1,0 0,1-1,2 2,69 29,-56-26,0 1,-1 2,0-1,24 17,-36-21,-1 0,1 0,-1 1,1 0,-2-1,1 1,0 1,-1-1,0 0,0 1,0 0,-1-1,0 1,0 0,-1 0,1 0,-1 1,0 6,-1-13,2 20,-1 0,-1 0,-4 37,4-52,-2 1,1-1,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0-1,-1 1,1-1,-6 4,-4-1,1 0,-1 0,0-2,0 1,-1-2,-25 4,-89-2,83-5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:43:22.756"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -19086,53 +20206,28 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 0,'-3'175,"6"184,-2-352,1 1,-1-1,1 1,1-1,-1 0,1 0,1 0,-1 0,1 0,0-1,1 1,-1-1,1 0,1-1,-1 1,1-1,0 0,0-1,10 7,-4-4,-1-1,1 0,0 0,0-1,1-1,0 0,0-1,0 0,0-1,23 1,-28-4,-1 0,1-1,0 0,-1 0,0-1,1 0,-1 0,0-1,-1 1,1-2,0 1,-1-1,0 0,0 0,-1 0,1-1,-1 0,6-9,6-9,0-1,-2 0,17-40,-15 32,-2-1,-1-1,-2 0,-1-1,-2-1,-1 1,-3-1,3-52,-9 65,-1-24,2 46,0-1,0 1,0 0,1-1,-1 1,0 0,1-1,0 1,0 0,-1 0,1 0,1 0,-1 0,2-3,-3 5,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 1,9 29,1 41,-3 1,-4 1,-6 79,1-40,3 14,-5 134,-7-189,-4-1,-2-1,-35 87,46-140,0 0,-1 0,-16 26,20-39,0 0,0 1,0-1,0-1,-1 1,0-1,1 1,-1-1,-1 0,1 0,0-1,-1 1,1-1,-1 0,0 0,0-1,-8 3,-35 0,0-1,0-3,-59-7,96 6,-6 0,0-2,0 0,0-1,1-1,0 0,0-1,0-1,1-1,0 0,-17-12,13 6</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:15:13.838"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 661,'54'-122,"-38"83,1 0,2 0,34-49,-48 83,0 0,0 0,0 1,1 0,0 0,0 0,0 0,0 1,1 0,-1 1,1-1,0 1,-1 0,1 1,0 0,0 0,0 0,0 1,0 0,1 0,-1 1,10 2,-5-2,-1 1,1 1,-1 0,0 1,0 0,0 0,0 1,-1 1,0-1,0 2,0 0,16 15,-4 5,-1 1,27 50,-35-55,0 0,1-1,2-1,0 0,1-1,22 19,-24-28,0-2,1 0,0 0,20 7,-23-11,0 0,-1 1,0 1,0 0,0 0,-1 1,0 1,13 13,-14-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1078.53">901 0,'-9'1,"1"0,0 1,0-1,0 2,1-1,-1 1,0 0,1 0,0 1,0 0,0 1,0-1,1 1,-8 7,-13 14,-44 55,33-36,-170 203,163-198,-80 101,99-114,2-5</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:42:45.132"/>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 749,'9'0,"13"0,16 0,17 0,8 0,2 0,-4 0,-9 0,-3 0,-6 0,-4 0,-5 0,-4 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1457">1416 465,'43'-43,"-31"30,0 0,27-19,-33 27,1 2,-1-1,1 1,0 0,0 1,-1-1,2 1,-1 0,0 1,13-2,38 0,78 6,-22 1,-105-4,2 1,-2 1,1-1,0 2,-1-1,1 0,-1 2,1-1,-1 2,10 5,14 9,39 34,-14-11,-15-15,-2 2,-3 2,52 49,-74-61</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2346.41">2693 0,'-12'2,"1"0,0 1,0 0,0 1,1 0,-1 0,1 1,-1 0,2 1,-12 8,-4 1,-12 8,1 1,2 2,-52 48,-79 100,102-102,-101 87,48-45,101-98,-6 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3625.52">1084 827,'341'15,"321"-2,-409-16,1017 3,-1244 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink210.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:14:01.656"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -19141,16 +20236,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1933 132,'1'275,"-3"298,1-556,-1 1,0-1,-7 26,8-40,0 0,0 0,0 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,0 0,-4 4,5-6,0 1,0-1,-1 1,1-1,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 1,0-1,-1-2,-8-7,2-1,-1 0,2 0,-1-1,1 0,1 0,1 0,-7-20,-13-25,20 48,-1-4,-1 0,0 0,-1 1,0 0,-1 0,-20-19,7 9,18 18,1 0,0 1,-1 0,0-1,0 1,0 0,0 1,-9-5,10 6,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1 0,-1-1,-1 4,-13 12,1 1,1 0,1 1,0 1,-14 32,4-1,-18 62,30-83,2 1,2 0,0 0,-2 35,9-61,1-1,-1 1,1-1,-1 0,1 1,1-1,-1 0,1 0,-1 1,1-1,0-1,1 1,-1 0,0 0,1-1,0 1,0-1,0 0,1 0,-1 0,1-1,-1 1,1-1,0 1,7 2,9 3,-1-1,1-1,1-1,25 3,-10-1,-2 3,-24-7,0 0,0 0,20 2,-28-5,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,0-1,0 0,-1 1,4-4,4-8,-1 1,0-1,0-1,-2 1,0-1,0 0,-1-1,-1 1,0-1,2-27,-2-9,-4-96,-3 61,3 63</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2385.98">2356 635,'-2'27,"-1"-1,-1-1,-2 1,0-1,-2 1,-10 24,8-18,1 1,2 0,2 0,0 0,3 1,1 0,1-1,7 51,-7-81,0 0,1 0,0-1,-1 1,1 0,0 0,0-1,1 1,-1 0,0-1,1 0,0 1,-1-1,1 0,0 0,0 1,1-2,-1 1,0 0,0 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,-1 0,6 0,10 0,-1 1,0-2,1 0,20-4,3 1,-3 2,7 1,1-2,-1-2,76-17,-108 18,0-1,0-1,-1 0,1-1,-1 0,0-1,-1 0,0-1,0 0,-1-1,0 0,0-1,-1 0,0 0,-1-1,14-23,-8 10,-1-1,-1 0,-2 0,0-1,-2-1,-1 0,-1 0,-1 0,-1-1,-1-51,-6-52,1 1110,4-486,-3-469,0 0,-2 0,0 0,-2 0,-1-1,-10 29,11-39,0-1,-1 1,0-1,-1-1,-1 1,1-1,-2 0,0-1,0 0,-1 0,0-1,-19 13,14-15,-1-1,-1 0,1-2,-1 0,0 0,-32 1,34-3,-18 2,-1-2,1-1,0-2,-55-8,67 6,1-2,0 0,0-1,0-2,1 1,0-2,0-1,-26-18,41 25,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,1 0,-1-1,1 1,0 0,0-1,1 1,1-8,-1 7,1 0,1 0,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,1 0,0 0,0 0,1 1,-1 0,1 0,0 0,-1 0,1 1,1-1,7-1,11-3,0 2,39-4,-16 3,-16 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4541.93">1 1349,'9'0,"16"0,9 0,16-4,14-2,8-4,20-5,3 0,-10 3,-15 3,-15 3,-12 3,-5-3,-4 0,-3-4,-3 0,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6619.95">345 1455,'-12'33,"3"-13,-87 321,95-337,0-1,0 1,1-1,-1 0,1 1,-1 0,1-1,0 1,0-1,1 1,-1-1,1 1,0-1,-1 1,2-1,-1 0,0 1,3 3,-1-4,0 1,1-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1-1,7 2,49 18,-44-14,0-1,0-1,0 0,1-1,28 3,-41-8,1 1,-1-1,0 0,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0-1,0 0,-1 1,1-1,-1 0,0 0,2-5,7-16,-1 0,-1 0,6-27,-6 20,98-298,-106 326,1-1,0 1,0 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 1,-1 0,1 0,0 0,6-3,-8 5,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,0 0,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,2 3,4 11,0 1,-2-1,1 1,-2 0,2 33,-3 92,-3-86,1 105,-5 286,-2-369,-3 0,-21 79,29-148,0-1,0 1,-1 0,-1-1,1 0,-1 1,-1-1,1-1,-1 1,-1-1,1 0,-1 0,-1 0,1-1,-1 0,0 0,0-1,-1 0,1 0,-1-1,-1 0,1 0,0-1,-1 0,0 0,-17 2,-9 2,0-2,0-1,-1-2,1-2,-1-1,-52-8,84 8,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 0,1 1,0-1,0 0,0-1,0 1,0 0,0-1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,1 1,0-1,-1 1,1-1,1 1,-1-1,0 0,1-4,0 2,0-1,1 1,0 0,0-1,0 1,1 0,0-1,1 1,-1 0,1 0,0 1,0-1,1 1,0-1,0 1,7-7,7-4,1 1,1 0,29-15,19-15,-40 23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7909.95">3705 1005,'9'-4,"12"-2,15 1,12 0,10 2,10-4,-3 0,-4 1,-7 1,-4-2,-6-1,-6 1,-5 3,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9014.94">3811 1164,'-1'0,"1"0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 1,0-1,9 12,19 6,4-7,-1-2,2 0,-1-3,1 0,0-2,0-2,60-3,241 0,-306 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink200.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 0,'-3'175,"6"184,-2-352,1 1,-1-1,1 1,1-1,-1 0,1 0,1 0,-1 0,1 0,0-1,1 1,-1-1,1 0,1-1,-1 1,1-1,0 0,0-1,10 7,-4-4,-1-1,1 0,0 0,0-1,1-1,0 0,0-1,0 0,0-1,23 1,-28-4,-1 0,1-1,0 0,-1 0,0-1,1 0,-1 0,0-1,-1 1,1-2,0 1,-1-1,0 0,0 0,-1 0,1-1,-1 0,6-9,6-9,0-1,-2 0,17-40,-15 32,-2-1,-1-1,-2 0,-1-1,-2-1,-1 1,-3-1,3-52,-9 65,-1-24,2 46,0-1,0 1,0 0,1-1,-1 1,0 0,1-1,0 1,0 0,-1 0,1 0,1 0,-1 0,2-3,-3 5,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 1,9 29,1 41,-3 1,-4 1,-6 79,1-40,3 14,-5 134,-7-189,-4-1,-2-1,-35 87,46-140,0 0,-1 0,-16 26,20-39,0 0,0 1,0-1,0-1,-1 1,0-1,1 1,-1-1,-1 0,1 0,0-1,-1 1,1-1,-1 0,0 0,0-1,-8 3,-35 0,0-1,0-3,-59-7,96 6,-6 0,0-2,0 0,0-1,1-1,0 0,0-1,0-1,1-1,0 0,-17-12,13 6</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink211.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19177,7 +20267,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink201.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink212.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19208,7 +20298,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink202.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink213.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19239,7 +20329,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink203.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink214.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19266,7 +20356,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink204.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink215.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19289,12 +20379,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2068,'131'187,"233"252,-288-361,3-4,3-3,4-4,2-3,3-5,2-3,3-5,131 51,-157-71,-1 3,99 66,101 100,-116-75</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2896.99">1853 3470,'1'3,"1"0,0 0,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,1 0,0 0,-1-1,1 1,0 0,0-1,0 0,4 1,-2 1,25 10,0-1,1-2,0-1,1-1,0-2,0-1,52 2,-26-7,1-2,-1-2,78-17,-91 10,0-2,-1-2,0-2,-1-1,50-31,186-139,-239 156,-1-2,-2-2,-1-1,-2-1,-2-2,-2-2,-1-1,-3-1,-1-1,-2-1,-3-1,-1-1,21-85,-40 132,34-124,-6-2,18-201,-43-295,-4 585,-2 0,-2 0,-1 1,-1 0,-2 0,-2 1,-2 0,-1 1,-32-58,-8 1,-4 3,-4 3,-4 2,-3 3,-80-71,122 130,-1 1,-1 1,-1 2,0 1,-1 1,-57-20,-210-47,163 49,28 6,0 4,-1 6,-2 3,-185 1,251 15,-41 1,-146 21,206-19,-18 4,-54 16,81-18,1 0,0 1,0 1,0 0,1 1,-23 18,-16 17,-154 136,177-151,1 1,2 2,1 1,-30 51,35-40,2 0,2 1,2 1,-9 52,2-15,-2 1,7-33,3 2,2-1,2 2,-3 68,-12 291,0 89,24-493,1 0,1-1,-1 1,1 0,1-1,0 1,0 0,0-1,1 0,1 0,-1 0,1 0,1 0,-1-1,1 1,0-1,1-1,0 1,0-1,0 0,14 9,53 57,-59-56</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink205.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1987,'134'180,"239"242,-296-347,4-4,3-3,4-4,2-2,3-6,2-2,4-5,133 49,-160-68,-2 3,102 63,103 96,-118-72</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2896.99">1896 3334,'1'3,"1"0,0 0,0 0,0-1,0 1,0-2,0 1,2 1,-2-1,1 0,0 0,-1-1,1 1,0 0,0-1,0 0,4 1,-2 1,26 9,0 0,0-3,1 0,1-1,0-3,-1 0,54 2,-26-7,0-2,-1-2,81-16,-94 9,0-1,-1-3,0-1,-1-1,51-30,190-134,-244 150,-1-1,-2-3,-1-1,-2 0,-3-2,-1-3,-1 0,-4-1,0-2,-2 0,-4-1,-1-1,22-82,-41 127,35-119,-6-2,18-193,-44-284,-4 563,-2-1,-2 1,-1 0,-2 1,-1-1,-2 1,-2 1,-2 0,-32-55,-8 0,-4 4,-5 2,-3 3,-4 2,-81-68,124 125,-1 0,0 2,-2 2,0 1,0 0,-59-18,-215-46,166 47,30 6,-1 4,0 6,-3 2,-188 2,255 14,-40 1,-151 20,212-18,-19 4,-56 15,84-18,1 1,-1 1,1 1,0-1,0 2,-23 17,-16 16,-158 131,182-145,0 1,2 1,2 2,-32 49,37-39,1 0,3 2,2 0,-10 50,3-14,-3 1,8-32,2 1,3 0,2 2,-3 66,-13 278,0 87,25-475,1 1,1-1,-1 0,1 1,1-1,0 0,1 1,-1-1,1-1,1 1,-1 0,1-1,1 1,-1-1,1 0,0 0,1-1,1 1,-1-2,0 1,14 9,55 54,-61-54</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink216.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19321,7 +20411,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink206.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink217.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19344,17 +20434,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 450,'-2'147,"4"151,-1-293,-1 0,1 0,0-1,0 1,1 0,0-1,-1 1,1-1,1 0,-1 1,1-1,-1 0,1-1,0 1,1 0,-1-1,0 0,1 0,0 0,0 0,0 0,0-1,7 3,9 4,1-1,0-2,42 9,-24-7,-31-5,-1-1,1-1,-1 1,1-1,0-1,-1 1,1-1,0-1,0 1,-1-1,1-1,0 1,-1-1,1-1,-1 1,0-1,0-1,0 1,0-1,-1 0,1-1,-1 1,0-1,-1-1,7-6,16-17,-1-2,-1 0,-2-2,-1-1,-2 0,-1-2,-2 0,-1-1,-2-1,-2-1,-1 0,-2 0,6-49,-23 496,8-232,0-6,2-34,-6-1,-27 182,27-300,-1 0,-1 0,0-1,-1 1,-1-1,-12 20,15-29,0 0,-1-1,0 1,0-1,-1 0,1-1,-1 1,-1-1,1 0,-1-1,1 1,-1-1,-1-1,1 1,-14 3,-7-1,0-1,0-2,0 0,-50-4,-116-18,149 13,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1184">796 1720,'17'0,"0"1,0 0,0 1,0 1,0 1,-1 0,0 1,1 1,-2 0,1 1,-1 1,0 0,0 2,-1-1,25 24,-7-2,-2 2,-1 1,35 56,27 32,-67-94</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1857.02">1484 1640,'-9'0,"0"0,0 1,0 0,0 0,0 0,0 1,1 1,-1 0,1 0,-1 0,1 1,0 0,1 1,-1 0,1 0,0 1,-12 11,-20 22,1 1,2 3,2 1,-34 57,-97 202,159-290,-2-1,1 1,-2-1,1-1,-15 15,9-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2762.99">743 0,'9'1,"0"0,0 1,0 0,0 0,0 1,-1 0,1 1,-1-1,0 2,9 4,2 4,0 1,29 26,-40-32,0 1,0 0,-1 1,0 0,-1 0,0 0,-1 1,0 0,0 0,-2 0,1 0,-1 1,2 18,-2-1,-1 1,-2-1,-1 0,-6 41,6-63,0 0,-1 0,0 0,0 0,-1 0,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,-8 6,-4 3,-1-2,0 0,-20 12,0-1,7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4102">1749 1905,'-20'0,"9"0,0 0,0 0,0 1,0 0,-15 5,22-5,0 1,0 0,0 0,0 0,0 1,0 0,1 0,-1 0,1 0,0 0,0 0,0 1,0 0,0-1,1 1,-3 6,-10 21,1 0,1 0,2 1,-10 46,17-56,0 1,2-1,0 1,1-1,2 0,0 1,8 37,-7-54,1 1,0-1,0 0,0-1,1 1,0-1,0 1,1-1,-1 0,1 0,0-1,0 0,1 0,-1 0,1 0,0-1,0 0,0 0,0-1,1 1,-1-1,1-1,-1 1,1-1,0 0,-1-1,1 0,0 0,0 0,-1-1,1 0,0 0,-1-1,1 1,-1-2,11-4,2-6,-1-1,-1-1,0-1,-1-1,0 0,-2-1,0 0,13-24,-3 0,-1-2,31-83,-51 119,3-8,-1 0,0 0,-1 0,2-24,-5 37,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,0 0,1 1,-1-1,0 0,0 1,-1-1,1 0,0 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,-2 0,-14-3,1 1,-27 0,-10-2,29 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4645">2198 846,'9'0,"12"0,11 0,5 0,10 0,6 0,-3 0,6 0,5 0,6 0,6 0,3 0,2-9,-7-3,-11 1,-16 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5185.99">2278 1217,'9'5,"20"1,11-1,16 0,12-2,13-1,19-1,6 0,8-1,-2-1,-3 1,-5 0,-8 0,-15 0,-17-1,-20 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink207.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 431,'-2'141,"4"144,-1-280,-1 0,1-1,0 0,0 1,1 0,0-1,0 0,0 0,1 0,-1 1,1-1,-1-1,1 0,0 1,2 0,-2-1,0 0,1 0,0-1,0 1,1 0,-1-1,7 3,10 4,1-2,0-1,44 8,-25-6,-32-5,-2-1,2-1,-2 1,1-1,1-1,-2 1,1-1,1-1,-1 1,-1-1,2-1,-1 1,0-1,0-1,-1 1,1-1,-1-1,0 1,1 0,-2-1,1-1,0 1,-1-1,-1 0,8-7,16-16,-1-1,0-1,-3-2,-1 0,-2-1,-1-1,-2-1,-1 0,-3-1,-1-2,-1 1,-3 0,7-48,-24 476,8-223,0-5,2-33,-6 0,-29 173,29-287,-1 1,-1-1,-1-1,0 2,-1-2,-13 19,16-27,-1 0,0-1,0 0,0 0,-2 0,2-1,-1 0,-1 0,0 0,0-1,1 0,-2 0,0-1,1 1,-16 3,-6-2,0 0,-1-2,1 0,-53-4,-121-17,156 12,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1184">835 1647,'18'0,"-1"1,1 0,0 1,0 1,0 0,-2 1,1 1,1 1,-2-1,1 2,-2 1,1-1,0 3,-2-1,27 22,-7-1,-3 2,0 0,36 54,28 31,-69-90</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1857.02">1556 1570,'-9'0,"-1"0,1 1,-1 0,1 0,0 0,-1 1,2 1,-2 0,2 0,-1-1,0 2,1 0,0 1,0 0,1-1,-1 2,-12 11,-20 20,0 1,2 3,2 1,-35 55,-102 193,167-277,-3-2,2 2,-3-2,2 0,-16 14,9-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2762.99">779 0,'10'1,"-1"0,0 1,1 0,-1 0,1 1,-2-1,2 2,-2-1,0 2,10 4,2 3,0 1,30 26,-41-32,-1 2,1 0,-2 0,0 1,0-1,-1 1,-1 0,0 1,1-1,-3 1,1 0,-1 0,2 18,-2-2,0 2,-3-1,-1 0,-7 39,7-61,0 1,-1 0,0 0,0-1,-1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,-1 1,-7 6,-5 2,-1-2,0 1,-20 11,-1-1,7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4102">1834 1824,'-21'0,"10"0,-1 0,1 0,-1 1,0 0,-15 5,23-5,0 1,0-1,-1 1,1 0,0 1,0 0,1 0,-1 0,0 0,1-1,0 1,0 1,0 0,0-1,1 1,-4 5,-9 21,0 0,1-1,3 2,-11 44,18-54,-1 1,3-1,0 1,1-1,2 0,0 1,9 35,-8-51,1 1,0-1,0-1,0 0,1 1,1-1,-1 0,1 0,-1 0,2 0,-1-1,0-1,1 1,0 0,0 0,0-1,0 0,1 0,-1-2,1 2,0-1,0-1,-1 1,2-1,-1 0,-1-1,2 0,-1 0,0 0,0-1,0 0,0 0,0-1,0 1,-1-2,12-3,2-7,-1 0,-1-1,-1-2,0 0,0 0,-2-2,-1 1,15-23,-4 0,-1-2,33-80,-54 114,3-7,-1 0,1-1,-2 1,2-23,-5 35,-1 0,0 0,0 0,0 0,0 2,0-2,0 0,-1 0,0 0,1 1,-1-1,0 0,0 1,-1 0,1-1,0 1,-1 0,-1-1,2 1,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,0-1,1 1,-1 0,0 0,-2 0,-15-3,1 1,-28 0,-11-1,31 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4645">2305 810,'9'0,"13"0,12 0,5 0,10 0,7 0,-4 0,7 0,5 0,6 0,7 0,2 0,3-9,-7-2,-12 0,-17 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5185.99">2389 1165,'9'5,"22"1,11-1,16-1,14-1,13-1,20-1,6 0,8-1,-1-1,-4 1,-5 0,-8 0,-16 0,-18-1,-21 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink218.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19377,14 +20467,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">953 212,'125'-33,"150"-35,-209 55,1 3,78-1,-135 11,0 0,0 1,0 1,-1 0,1 0,0 1,-1 0,0 0,0 1,0 0,0 1,0 0,-1 0,0 1,0 0,-1 1,0 0,9 10,8 12,-2 1,-1 2,25 51,1 0,-14-29,-19-28,2 0,1-2,30 34,-26-37</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="823.96">2038 0,'-5'0,"-5"14,-15 13,-13 15,-8 11,-9 8,-10 13,-3-2,6-9,5-10,12-10,13-8,17-10,11-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2053.96">2594 556,'-6'1,"1"-1,0 0,-1 1,1 0,0 0,0 1,0 0,0-1,0 2,0-1,0 1,1-1,-1 1,-7 7,6-4,0 0,0 1,0 0,1 1,0-1,0 1,0 0,-3 11,2-4,0 1,2 0,0 1,1-1,0 1,1-1,1 1,1 0,2 21,-1-34,0 1,0-1,1 0,0 0,-1 0,2 0,-1 0,0 0,1-1,-1 1,1-1,0 0,0 1,1-1,-1-1,0 1,1 0,0-1,7 4,8 3,1 0,38 10,-36-12,-20-6,1 0,-1 0,0 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,3-2,-2-1,1 0,-1-1,0 1,0-1,0 1,0-1,-1 0,0 0,3-9,11-31,19-90,-32 119,-1 1,0-1,-1 1,-1-1,0 0,-1 0,-1 1,-1-1,-7-26,8 38,0 1,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,0 0,-1 0,1 0,0 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 1,-7 0,-15-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3406.96">1 1058,'195'-11,"-27"-1,1154 6,-724 9,825 18,-859-14,-508-3,-15 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink208.xml><?xml version="1.0" encoding="utf-8"?>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1008 204,'133'-32,"158"-33,-222 52,2 4,83-2,-144 11,1 0,0 1,-1 1,0 0,0 0,1 1,-2-1,1 1,-1 1,1 0,-1 1,1 0,-2-1,1 2,-1 0,0 1,-1-1,10 11,8 11,-1 0,-2 3,27 49,0 0,-14-28,-20-27,2 0,1-2,32 32,-28-35</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="823.95">2156 0,'-5'0,"-5"13,-17 13,-13 15,-9 10,-9 7,-11 13,-3-1,7-10,4-9,14-10,13-7,18-10,12-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2053.96">2745 534,'-7'1,"2"-1,0 0,-1 1,0 0,1 0,0 1,-1 0,1-1,0 2,-1-1,1 1,1-2,-1 2,-8 7,7-4,-1-1,1 2,0 0,0 1,1-2,0 2,-1 0,-2 10,2-4,-1 2,3-1,0 1,1 0,-1 0,2 0,1 0,1 0,2 21,-1-33,0 0,1 0,0 0,0 0,-1 0,2 0,-1-1,0 1,1-1,0 1,0-1,0 0,0 1,1-2,-1 0,1 1,0 0,0-1,8 4,8 2,1 1,40 9,-37-11,-22-6,1 0,-1 0,0 0,1-1,1 1,-2-1,1 1,-1-1,1 0,0 0,-1 0,2 0,-2-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,-1 0,3-2,-2-1,2 1,-2-2,0 1,0-1,0 1,0-1,0 1,-1-1,3-9,12-29,20-87,-34 115,-1 1,0-2,-1 2,-1-1,0-1,-1 1,-1 0,-1 0,-8-25,9 36,0 1,0 0,0 0,-1 0,1 0,-1 1,0 0,0 0,0-1,0 1,0 0,-2 0,2 0,0 1,-1-1,1 1,-2 0,1 0,1 0,-1 0,0 1,0-1,0 1,-7 0,-17-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3406.96">1 1016,'206'-10,"-28"-2,1221 7,-766 7,873 19,-910-15,-536-2,-17 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink219.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -19410,377 +20500,6 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'0,"6"0,7 0,3 0,9 0,3 0,1 0,8 0,2 0,-2 0,-4 5,-3 1,-3 4,-7 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2295.03">795 741,'6'-5,"0"0,1 0,0 1,0 0,0 0,0 0,1 1,-1 0,1 1,0-1,11 0,2-1,0 1,0 2,27 0,-33 3,0 0,0 1,0 0,-1 1,1 1,-1 0,0 1,22 13,11 10,45 35,-43-28,1 4,-2 2,-2 2,71 87,29 31,-36-48,-97-103</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3305.99">1826 662,'-5'1,"0"0,1-1,-1 1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-4 4,-47 39,26-20,-361 269,292-228,65-45,1 1,1 1,-47 45,56-45,2-1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink209.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:18:38.793"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">427 899,'-5'0,"-6"0,0 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1981">374 847,'-7'0,"-22"0,0 0,1 2,-42 8,60-7,1-1,0 2,0-1,1 1,-1 0,1 1,-1 0,2 0,-1 1,0 0,1 0,0 1,1 0,-9 11,3-2,0 2,2 0,0 0,-13 34,20-45,0 1,1 0,0 0,0 0,1 1,0-1,0 0,1 0,0 1,1-1,0 0,0 1,0-1,5 11,-3-13,0 0,0-1,1 0,0 1,0-1,0-1,1 1,-1-1,1 0,0 0,1 0,-1 0,1-1,8 4,11 4,1-1,28 7,-28-9,20 10,-34-12,-1-1,1 0,0-1,0-1,22 4,-31-7,0 0,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,1 0,-1 0,0 1,0-1,-1-1,1 1,0 0,-1 0,1-1,-1 1,0-1,0 1,0-1,0 1,1-4,8-33,-1-1,-2 1,-2-2,-1 1,-3 0,-1-1,-5-40,4 78,1-1,-1 1,1-1,-1 1,0 0,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0 0,0 1,-5-3,-12-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3130.99">427 26,'233'-12,"-55"1,-159 10,-1 0,0 1,0 0,35 6,-49-5,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 1,1 0,-1 0,-1 0,1 0,0 1,-1-1,0 1,0-1,0 1,2 5,1 13,-1 0,0 1,-2-1,-1 1,0-1,-2 1,-4 26,2-11,1 0,-2 0,-11 41,12-65,-1-1,0 1,-1-1,-1 0,0 0,-1 0,0-1,-16 19,19-26,-1-1,1 0,-1 0,-1 0,1-1,0 0,-1 0,0 0,0 0,0-1,0 0,0 0,0-1,0 0,0 0,-10 0,-10-1,1-1,-45-6,42 3,20 3,1 0,-1 0,1-1,0 0,-1 0,1-1,0 1,1-2,-1 1,-7-5,14 7,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 0,19-6,26 2,-21 7,0 1,-1 1,0 1,1 1,-2 1,27 12,-13-6,53 13,-4-14,1-3,174-6,-231-3,17-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3607.99">1961 503,'4'0,"2"5,0 23,-1 26,-2 21,-1 11,-1 9,0 3,-1 1,0-6,-1-10,1-15,0-14,0-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4051.99">1776 714,'13'5,"37"10,44 16,40 3,27 0,22-1,12-2,0 3,-25-4,-31-8,-41-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5404">3178 582,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1-1,-2 1,-41-5,39 5,-6-1,0 0,0 1,0 0,0 1,0 0,-20 6,26-5,1 0,0 0,-1 0,1 1,0-1,0 1,0 0,0 1,1-1,0 1,-1-1,1 1,0 0,1 0,-1 1,1-1,0 0,-2 6,-3 10,0-1,2 1,1 1,0-1,2 1,0-1,1 1,1 0,1-1,1 1,1-1,0 1,2-1,0 0,10 22,-12-36,0-1,0 0,1 0,-1-1,1 1,1-1,-1 0,0 0,1 0,0-1,0 1,0-1,0 0,1-1,-1 1,1-1,-1 0,8 1,6 1,0-1,0 0,0-1,25-1,-37-2,0-1,0 1,1-1,-2 0,1-1,0 0,0 0,-1 0,1-1,-1 0,0 0,-1-1,1 1,-1-1,0-1,0 1,0-1,6-9,5-8,0-2,-1 0,14-34,-21 39,0-1,-2 1,0-1,-2 0,0-1,1-23,-6-126,0 162,4 281,4 105,-5-343,13 257,-15-264</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:43:22.756"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 767,'9'0,"12"0,15 0,16 0,8 0,2 0,-4 0,-8 0,-3 0,-6 0,-4 0,-5 0,-3 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1457">1350 476,'41'-44,"-30"31,1 0,25-20,-31 28,0 2,0-1,1 1,-1 0,1 0,-1 0,1 1,0 0,0 1,12-2,36 0,75 6,-22 1,-99-4,1 1,-1 1,1-1,-1 2,0-1,0 1,0 1,0-1,0 2,9 5,13 10,38 34,-14-11,-14-15,-2 1,-2 3,48 50,-69-63</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2346.41">2567 0,'-11'2,"0"0,1 1,-1 0,1 1,0 0,0 1,0 0,0 0,1 1,-11 8,-4 2,-11 7,1 2,1 1,-49 50,-75 103,97-106,-96 90,45-46,97-101,-6 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3625.52">1033 847,'325'16,"306"-3,-389-16,968 3,-1185 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink210.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:18:50.602"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 56,'0'1018,"0"-1009,-1 2,1 0,1 0,0 1,4 15,-5-25,0 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 1,0-1,-1 0,1-1,0 1,2 0,8-4,1 0,-1 0,1-2,-2 1,1-1,0-1,10-8,8-4,-20 13,55-32,-2-3,76-65,-123 91,1 0,-2-1,0-1,-1 0,-1-1,0 0,-2-1,0-1,-1 0,-1 0,-1-1,10-37,-6-28,-3 0,-4-1,-8-104,1 42,2 145,0 0,0 0,1-1,-1 1,1 0,0 0,1 0,-1 0,4-5,-5 8,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,2 0,0 0,-1 0,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 1,2 1,3 6,-1-1,0 1,0 0,-1 0,0 0,-1 1,5 17,9 78,-13-72,12 123,-7 196,8 104,12-282,-16-113,-3 2,2 84,-10-103,-1-23,-1 0,0 0,-1 0,-8 40,7-57,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 0,0 1,0-1,0-1,-1 1,1 0,-1-1,1 1,-1-1,-7 1,-7 2,-1-1,0-1,-20 0,25-1,-6 0,0 0,1-2,-1 0,0-1,1-1,0-1,-21-6,15-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1986.99">1165 1511,'10'0,"1"0,-1 0,1 1,0 0,-1 0,1 2,-1-1,0 1,0 1,0 0,0 0,-1 1,0 0,1 0,-2 1,1 1,-1-1,0 1,0 1,7 8,56 65,-33-39,60 85,-73-81,-20-35,1 0,0 0,1 0,0-1,14 16,-7-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.01">1800 1379,'-14'0,"-1"1,1 0,0 0,0 1,1 1,-1 1,1 0,-1 0,1 1,0 1,1 0,-1 1,1 1,1-1,-1 2,1 0,1 0,-13 15,-83 93,-124 178,218-277</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3989.05">1906 1511,'-2'0,"1"-1,0 0,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 2,-34 41,27-26,0 0,2 1,0 0,1 0,1 1,1 0,0 0,2 0,0 0,1 0,2 1,0-1,0 0,2 0,8 28,-9-41,1 0,1-1,0 1,0-1,0 0,0 0,1 0,0 0,1-1,-1 0,1 0,0 0,0-1,0 0,1 0,-1 0,1-1,0 0,0-1,0 1,9 1,-8-2,0-1,-1 0,1 0,0-1,0 1,0-2,0 1,-1-1,1 0,0-1,-1 0,1 0,-1 0,0-1,1-1,-1 1,-1-1,1 0,0 0,6-7,0-2,-1-1,0 0,-2 0,1-1,-2-1,0 0,-1 0,0 0,-2-1,0 0,-1-1,0 1,-1-1,1-26,-5 40,0-1,0 0,0 1,-1-1,0 1,0-1,0 1,-1-1,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,-1 0,0 0,-6-4,2 2,0 1,-1 0,0 0,0 1,0 0,0 1,0 0,0 0,0 1,-10 0,-5 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink211.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:19:08.992"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5957 212,'0'-2,"1"0,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,3-3,41-25,-39 25,12-5,0 0,1 1,1 1,-1 1,1 1,36-5,130 0,-182 10,-1-1,1 1,-1 1,0-1,1 1,-1-1,0 1,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 1,0-1,0 0,-1 1,1 0,-1-1,0 1,0 0,-1 0,1 1,-1-1,2 6,5 20,0 0,-2 1,-1 0,0 34,-4 129,-2-171,0 14,-1 0,-3-1,-1 1,-18 61,16-74,-2 0,0-1,-1 0,-2-1,0 0,-1-1,-32 35,13-20,-1-1,-65 50,87-76,-1 0,1-1,-1-1,-1 0,1-1,-1 0,0-1,0-1,-1 0,0-1,1 0,-1-1,-17-1,29 0,1-1,-1 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 0,0 0,1 0,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,-1 0,1 0,0 1,0-1,0 0,1 0,0-4,1-6,1 0,0 0,1 0,0 1,1 0,1-1,13-21,30-34,2 2,106-104,-142 154,2 1,-1 0,2 1,0 1,21-11,-30 19,1 1,-1 0,1 1,-1-1,1 2,0 0,0 0,0 1,0 0,0 0,1 2,-1-1,13 3,6 4,-1 1,0 2,-1 1,0 1,36 22,-29-15,1-2,44 15,-46-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.02">4264 1350,'10'1,"1"0,0 1,-1-1,21 8,20 4,278 35,-40-8,106 12,96 12,776 95,31-32,1907-4,-3164-123</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2213.01">4952 2011,'59'-1,"1"-2,-1-3,104-25,-144 26,-9 2,1 0,0 1,19-2,-28 3,1 1,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,0 0,0-1,2 4,0 3,0 0,0 0,0 1,-1-1,-1 1,0 0,0-1,0 1,-1 0,0 0,-1 1,0-1,-1 0,0 0,0 0,0 0,-2-1,-2 11,-8 23,-2-1,-29 55,42-91,-48 95,-6-2,-128 173,178-264,1 0,-1-1,-1 0,1 0,-1-1,0 1,0-1,-12 5,15-8,0 0,-1 0,1-1,-1 0,0 0,1 0,-1 0,0-1,0 0,0 0,1 0,-1 0,0-1,0 0,1 0,-6-2,9 3,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 1,-1-1,3-1,38-45,-18 25,1 2,0 0,2 2,0 0,35-17,-50 30,1 0,-1 1,1 0,-1 1,1 0,0 1,0 0,1 1,-1 1,0-1,0 2,0 0,0 0,0 1,0 1,20 6,-15-1,0 0,24 14,-10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5556">5799 1906,'12'0,"0"1,0 0,1 0,-1 1,0 1,0 0,-1 0,1 1,-1 1,1 0,11 8,-16-9,-1 1,1 1,-1-1,0 1,-1 0,0 0,0 0,0 1,-1 0,1 0,-2 0,1 0,-1 1,0-1,-1 1,1 0,1 14,-3-13,0-1,0 0,0 0,-1 1,-1-1,1 0,-1 1,-1-1,-2 11,2-15,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,-3-1,-6 2,1 0,-1-1,0-1,1 0,-1-1,1 0,-1-1,-16-4,29 6,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,13-6,25 3,-22 4,0 2,0 0,0 1,0 1,0 0,-1 1,0 1,0 1,-1 0,0 1,0 1,22 18,-16-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6150">7227 2408,'0'14,"0"13,-5 16,-10 36,-2 23,1 3,3-2,5-11,3-16,2-16,-2-14,-1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6558">6804 2805,'49'3,"54"8,50 3,448-15,-579 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8001">8180 2303,'-14'0,"1"1,-1 0,1 1,0 0,0 1,0 1,0 0,0 0,1 1,0 1,0 0,-15 10,19-9,-1 0,1 0,1 1,-1 0,1 0,0 1,1 0,0 0,1 0,0 1,0 0,1 0,0 0,0 1,-2 16,-2 26,2 0,3 0,6 97,-3-142,1-1,0 0,0 0,0 0,1 0,0 0,1-1,-1 1,1-1,1 1,-1-1,9 11,-9-14,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1-1,1 1,0-1,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,5-2,9-4,0 0,0-1,-1-1,0-1,-1 0,0-1,16-16,0-1,-1-2,32-41,-55 61,0 0,-1-1,0 0,-1 0,0-1,-1 0,0 0,6-23,-7 14,-1-1,-2 1,0 0,-3-33,1 26,-2-12,2 72,15 194,1-5,-16 24,1-202</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10301.03">12281 1721,'23'-13,"0"-1,-1 0,0-2,-2-1,33-33,77-107,-110 130,345-491,-362 512,2-2,1-1,0 1,0 1,13-13,-19 19,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1 1,6 12,0 0,-2 1,0-1,0 1,-2 0,1 17,0 108,-4-85,-4 1177,5-1208</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12424.99">31 688,'-3'4,"1"0,0 0,1 0,-1 0,1 0,-1 0,1 0,1 0,-1 1,1-1,-1 0,1 6,-1 4,-6 41,3 0,1 0,7 67,-4-118,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,1-1,0 1,0-1,4 2,8 2,1 0,-1-2,29 4,9 3,-49-9,1 0,0-1,0 1,0-1,0 0,-1-1,1 1,0-1,0 0,0 0,-1 0,1 0,0-1,-1 0,1 0,-1 0,0-1,0 0,0 1,0-1,0-1,-1 1,1 0,-1-1,0 0,0 0,4-6,8-13,-2-1,0 0,16-46,-19 45,107-310,-110 316,-5 12,0-1,0 1,1 1,1-1,-1 0,1 1,8-11,-11 15,1 1,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,3 3,4 1,-1 0,1 1,-1 0,0 1,-1 0,1 0,-1 0,0 1,-1 0,12 16,-9-9,0 1,-2 0,0 0,0 1,7 27,-3 7,-2 1,3 102,-11-149,0 441,-4-215,3-216,-1 0,-1 0,-1 0,0 0,0-1,-1 1,-1-1,0 0,-13 22,1-9,0 0,-2 0,-27 27,40-47,1-1,-1 0,0-1,0 1,-1-1,1 0,-1-1,0 0,0 0,0 0,0-1,-1 0,1 0,-14 1,1-2,-1 0,0-2,0 0,-21-5,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13679.03">1036 0,'4'5,"7"5,5 11,0 6,-2 3,-4 0,-3 1,-4-2,-1 0,-7 8,-10 6,-8 6,-5-2,4-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14828.52">2941 1005,'4'0,"7"0,9 0,7 0,12 0,4 0,-2 0,-2 0,-3 0,-5 0,-1 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15371.52">2650 1481,'9'5,"16"6,13 5,14 9,2 1,-3-5,-6-5,-6-6,-6-4,-7-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16395.05">666 2037,'0'-2,"1"0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 1,0-1,3-2,3-2,132-114,-135 116,-1 1,1 0,0 0,0 0,0 0,0 1,0 0,0 0,1 0,-1 1,1 0,0 0,-1 0,1 1,0 0,-1 0,1 0,0 1,-1 0,1 0,-1 0,1 0,-1 1,0 0,1 1,-1-1,0 1,0 0,-1 0,1 0,-1 1,7 6,11 11,-2 2,0 1,-1 1,28 49,-18-28,-2-1,-18-28,1-1,1 0,0-1,1 0,23 22,-18-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17559.06">877 1878,'-2'1,"0"0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,1 0,-2 2,-1 3,-51 94,4 3,-49 152,98-253,-2 5,1 0,0 0,0 0,0 14,1-21,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-2,0 1,0 0,0 0,0 0,0 0,0-1,0 1,1-1,37-11,-1-2,-1-2,0-1,62-41,-36 22,381-234,-436 264,0 0,0 0,-1 0,0-1,0 1,10-16,-14 18,-1-1,1 0,-1 0,0 0,0 0,-1-1,1 1,-1 0,0-1,-1 1,1 0,-2-12,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19254.06">1698 2064,'-3'34,"0"0,-2-1,-12 43,9-50,2 1,1-1,2 1,0 0,1 0,3 31,0-53,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,0 0,-1-1,1 1,1-1,-1 0,0 0,5 3,-5-4,0 0,0 0,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,7-2,-8 2,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-4,-5-68,3 52,0 6,1-1,1 1,1 0,0-1,1 1,1 0,1 0,0 0,1 0,13-29,-15 40,-1 0,0-1,0 1,0-1,0 1,-1-1,1-10,-2 14,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,-3-2,-9-4,1-1,0 0,0-1,-12-10,8 5,-10-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22119.06">3708 1190,'4'0,"7"0,14 0,21 0,8 0,3 0,-4 0,-1 0,-6 0,-1 0,1 0,-8 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink212.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:20:03.916"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">373 0,'-3'2,"1"0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 1,0-1,0 1,-1 0,2-1,-1 1,0 0,1 0,-1 3,-3 11,-153 736,78-212,25-152,31-235,-4 252,29 892,-2-1277</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink213.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:10:35.113"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3278 1884,'0'-1,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,39-6,-35 6,276-4,-159 5,-76 4,-30 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4081.01">1769 2731,'3'0,"0"-1,0-1,-1 1,1 0,0-1,0 1,-1-1,1 0,4-4,13-7,-19 12,1 1,0-1,0 0,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 0,1 0,0-1,-1 2,1-1,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1 3,3 9,0 0,-1 1,-1-1,2 18,1 3,-3-28,0 0,0 0,0-1,1 1,0-1,0 0,1 0,0-1,0 1,0-1,0 0,1-1,0 1,9 5,-5-3,0 0,0 1,-1 0,10 13,-4 0,-12-16,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,1 0,-1-1,1 1,0-1,5 4,3-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3296.01">2193 2598,'-16'1,"1"1,1 0,-1 1,0 1,1 0,-1 1,1 0,0 2,-23 13,5 0,2 1,-50 45,64-50,0 0,2 2,0 0,1 1,1 0,1 0,0 2,2-1,0 1,-6 25,14-44,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,1 3,10 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2623">2352 2678,'-5'9,"-1"17,0 35,1 20,2 11,-3 2,-1 0,0-13,3-14,1-25,1-27,1-30,1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1904.01">2113 2916,'9'0,"7"0,11 0,4 0,2 0,5 5,4 1,-1-1,-6 4,-1 1,-2-2,-1 2,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-987">2643 2836,'1'-10,"1"0,0 1,1-1,0 0,7-15,1-2,1-6,2 1,2 1,0 0,41-55,-56 85,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,1-1,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0-1,0 1,2 0,-2 0,-1 1,1 0,0-1,0 1,0-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,0 0,0 1,7 65,-7-58,0 395,-2-227,2-122</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="993">3172 2307,'0'2,"1"0,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 0,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,2 1,55 13,-48-12,59 12,57 12,225 18,-157-44,-164 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="572082.95">791 534,'4'-2,"0"-1,0 1,1 0,-1 0,1 0,-1 0,1 1,0 0,0 0,-1 0,1 1,0-1,9 2,-6-2,206-8,111-9,927-141,-794 96,356-62,-173 25,-139 61,2 39,-270 2,5347 2,-3102-6,-2469 2,-4 0,1 0,-1 0,0 0,0 1,0 0,1 0,-1 0,7 3,-11-2,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,0 6,2 268,-4-93,3-88,2 102,29 198,22 0,-38-282,3 146,-20 120,-2-155,3 2123,0-2329,0-3,0 1,-1-1,-5 27,6-40,0 0,-1 0,0-1,1 1,-1 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,-2 1,-5 1,-1-1,0-1,0 1,-12-1,20-1,-342 2,226-4,-597-6,-699-13,204-60,11-62,1025 121,69 10,-164 4,-336-23,283 6,-1340-17,1087 35,-423-73,934 73,-634-33,638 37,1-3,1-2,-62-17,-165-60,-20-5,-228 3,-1 49,95 30,-108-6,456 8,-15 1,-193-36,290 39,0 0,1-1,-1 0,1 0,0-1,0 0,-11-6,18 9,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 0,1-1,0 1,-1 0,1 0,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,0 1,-1-1,1 0,0 1,3-3,28-19,-28 20,0 0,0 0,0 0,-1-1,1 0,-1 0,0 0,0 0,0 0,-1-1,0 0,0 0,0 0,0 0,-1 0,3-8,10-40,-3-1,8-69,1-6,8-19,103-471,-114 551</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink214.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:20:11.959"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">431 288,'-2'-1,"0"-1,0 1,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 1,-1 0,1-1,-1 1,1 0,0 1,0-1,0 0,-1 1,1-1,-3 4,-6 4,0 0,0 1,1 0,-11 16,-18 26,2 2,3 2,2 0,3 2,2 2,3 0,-29 114,50-160,0 1,0-1,2 1,0 0,1 20,0-30,1-1,0 0,0 1,0-1,0 0,1 0,-1 1,1-1,1-1,-1 1,0 0,1 0,0-1,-1 1,2-1,-1 0,0 0,0 0,1-1,0 1,5 2,31 14,66 23,-39-18,-35-11,-11-3,1-1,0-1,1-1,-1-1,1-1,0-1,33 1,-49-6,0 0,-1 0,1-1,0 0,-1-1,0 1,0-1,0 0,0-1,0 0,0 0,-1 0,0 0,0-1,0 0,8-10,5-9,-1 0,22-42,38-80,79-213,-146 330,-2-1,-1 0,-1 0,-2 0,0-34,-7-154,-2 86,4 109,1 24,0 38,0-24,1 153,-8 367,-1-403,-6-1,-34 138,-130 424,167-651,-1 0,-2 0,-2-2,-2 0,-2 0,-29 43,46-79,-1 0,0 0,0 0,0 0,0-1,-1 0,1 0,-1 0,0 0,0-1,0 1,0-1,0-1,-1 1,1-1,0 0,-1 0,-7 0,-8-1,0 0,0-2,-31-6,24 4,-15-5,0-2,0-2,1-2,-77-38,91 39</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="912">2098 288,'-8'2,"0"0,0 1,1 0,-1 0,1 0,0 1,0 0,0 0,0 1,1 0,0 0,-7 8,-10 6,-51 38,3 4,3 3,3 2,3 3,-102 149,148-192,1 0,2 1,1 0,1 1,1 0,-10 55,11-25,2 0,3 88,3-109,0-20,1-1,0 1,1 0,1-1,0 1,1-1,8 23,0-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2195.99">2336 685,'-5'1,"1"-1,-1 1,1 0,0 1,0-1,-1 0,1 1,0 0,0 0,1 0,-1 1,0 0,1-1,-6 7,-45 52,36-38,-26 29,-60 94,91-123,0 0,2 1,0 0,2 1,1 0,1 0,-6 36,10-45,1 1,1 0,0 0,1 0,5 30,-4-42,0-1,0 1,1-1,0 1,-1-1,2 0,-1 1,0-1,1-1,0 1,0 0,0-1,0 1,0-1,1 0,0 0,-1 0,1 0,0-1,1 0,-1 0,0 0,0 0,10 2,4 0,1-1,-1 0,1-2,0 0,-1-1,29-4,-45 4,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,1-3,1-7,0 1,-1-1,1-24,-2 10,10-38,27-93,-23 105,-3-1,12-109,-23 140</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2983.99">2283 341,'8'1,"1"0,-1 0,0 1,1 0,-1 0,0 1,0 0,0 0,0 1,-1 0,0 0,1 1,-1 0,-1 0,1 1,-1 0,0 0,0 0,7 12,4 7,0 2,-2 0,23 56,-9-9,-4 2,-3 0,15 102,4 246,-38-374,-3 0,-8 73,5-105,0 0,-1-1,-1 0,-1 1,0-2,-2 1,1-1,-2 0,0-1,-14 18,6-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3577.99">3791 870,'4'0,"7"0,5 0,9 0,5 0,2 0,5 0,-1 0,0 0,-3 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4187.02">3580 1452,'4'0,"15"0,10 0,3 0,1 0,4 0,0 0,8 0,9 0,4 0,7 0,5 0,4 0,-6 0,-5 0,-9 0,-14 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink215.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:20:17.333"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 397,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,1 0,0 0,-1 0,0 5,4 1,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1415.99">1245 133,'-49'-8,"42"6,0 1,0-1,0 1,-1 0,1 1,-9 0,11 1,-1-1,1 2,0-1,-1 0,1 1,0 0,0 0,0 1,0-1,1 1,-1 0,1 1,0-1,-1 1,1-1,1 1,-1 0,1 1,-1-1,1 1,1-1,-1 1,1 0,-4 9,-1 9,1 0,0 0,2 1,-2 33,3-22,-12 83,1-19,4 0,4 147,6-243,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0-1,1 1,-1 0,0-1,0 0,5 3,2-1,1 0,0-1,0 1,0-2,12 1,2 1,-17-3,-1 0,1 0,-1-1,1 0,-1 0,1 0,-1-1,0 0,0 0,0-1,0 0,0 0,-1 0,1-1,-1 0,6-5,13-11,-2-1,23-28,-29 31,1 0,-1-1,-1-1,-1 0,-1-1,15-30,-21 36,-2-1,0 1,-1-1,0 0,-1 0,-1 0,-1 0,0-1,-2-17,0 9,0 1,-2-1,-1 1,-1 0,-11-32,14 49,-1 0,-1 1,1-1,-1 1,0 0,0 0,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 1,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 1,0 0,-11-2,-9 0,3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1992.99">1721 821,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3388.99">2012 291,'6'0,"1"-2,-1 1,1-1,-1 0,1 0,11-6,19-7,129-32,-105 27,0 3,113-15,-169 31,1 1,-1 0,0 1,1-1,-1 1,0 0,0 1,0-1,0 1,0 0,0 0,-1 1,1-1,0 1,-1 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 1,3 6,5 13,-1 0,-1 0,-1 1,4 30,-11-53,11 66,-3 0,-3 1,-3 0,-14 130,12-192,-1 0,0 0,0 0,-1 0,0 0,0 0,0 0,-1-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,1-1,-1 1,0-1,-1-1,1 1,-1-1,0 0,0 0,0 0,-1-1,1 0,-1 0,0-1,1 0,-1 0,0-1,0 1,-1-2,1 1,-12-1,15 0,0 0,0-1,-1 0,1 1,0-1,1-1,-1 1,0 0,0-1,0 0,1 0,-6-4,8 5,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0-2,1 2,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1-1,-1 1,1 0,-1 0,0 0,1 1,2-2,2-1,1 0,-1 1,1-1,-1 2,1-1,0 1,-1 0,1 0,0 1,0 0,0 0,0 0,-1 1,1 0,0 1,0-1,-1 1,1 1,-1-1,0 1,11 6,1 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4807.99">3626 238,'-10'1,"0"0,0 0,0 1,0 0,0 1,1 0,-1 0,1 1,0 0,0 1,1 0,-1 0,1 1,-12 10,-5 9,0 0,-36 51,41-50,-6 8,3 2,0 1,-22 52,-39 123,62-150,-19 96,35-128,1 1,2 0,1-1,2 1,4 42,-4-71,1 1,-1-1,1 0,0 0,-1 1,1-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0 1,3 1,0-1,0 0,0 0,0-1,0 1,0-1,0-1,1 1,-1-1,6 1,1-2,0 0,-1 0,1-1,0-1,-1 1,1-2,-1 0,12-6,7-8,-1-1,-1-2,-1-1,30-31,93-110,-139 150,152-190,-144 177,-1-2,-2 0,-1-1,-1-1,19-60,-25 53,-3 0,-1 0,-1 0,-2 0,-2 0,-9-60,9 93,1-1,-2 1,1-1,-1 1,1-1,-1 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,-4-4,1 3,0-1,0 1,-1 0,0 0,0 1,0 0,-16-3,-11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5499">4526 0,'-5'5,"-6"24,0 15,-4 28,1 16,-2 9,3 3,-2-2,-3 0,2-4,0-3,1-13,5-7,-2-6,2-5,2-8,3-9,2-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7054.99">5320 106,'-3'2,"1"-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 1,1-1,0 0,-1 1,1-1,-1 3,-2 3,-9 17,2 1,0 1,2 0,0 0,2 1,1 0,-3 45,4-4,11 138,-6-203,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0 0,1 0,-1-1,1 1,0-1,0 0,0 1,1-1,-1 0,1 0,0 0,-1-1,1 1,0-1,1 1,-1-1,0 0,1 0,-1-1,1 1,0-1,-1 0,1 1,0-2,0 1,0 0,0-1,0 0,-1 0,1 0,0 0,0 0,0-1,0 0,0 0,-1 0,1 0,6-4,19-6,-1-3,0 0,-1-1,26-20,97-83,-111 87,-32 25,1 0,-2-1,1 1,-1-1,0-1,0 1,-1-1,0 0,-1 0,8-17,-11 21,0 1,0-1,-1 1,0-1,1 1,-1-1,0 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,0 0,-5-3,-87-43,54 29,27 13,1 1,-1 0,0 1,0 0,-1 1,1 1,-29-2,20 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9113.99">5425 741,'-1'-1,"1"0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,-2 1,-2-1,-1 1,1 0,0 0,-1 0,1 1,-7 3,-1 2,1 1,1 1,-1 1,1-1,1 2,0-1,0 1,-14 23,-4 10,-25 52,37-65,1 1,2 0,1 1,1 1,2 0,2 0,1 0,-2 41,8-70,0 1,0-1,1 0,-1 1,1-1,1 0,-1 0,1 0,-1 0,2 0,-1 0,0 0,1-1,0 1,0-1,0 0,1 0,0 0,-1 0,1 0,1-1,3 3,5 2,0-2,0 1,1-2,-1 1,1-2,29 6,-3 0,-26-5,1-2,0 0,18 2,-29-5,0 0,0 0,-1 0,1 0,0-1,0 0,-1 1,1-1,-1-1,1 1,-1 0,1-1,-1 0,0 0,1 0,-1 0,5-5,10-14,0-2,-1 0,25-48,7-8,-38 63,-1 0,-1-1,0 0,-1 0,-1-1,6-24,-10 31,-1-1,0 1,-1-1,0 0,-1 1,-1-1,0 0,0 1,-1-1,0 0,-6-15,3 14,0-4,-1-1,-2 1,1 1,-14-21,18 33,0-1,-1 1,1 0,-1 0,0 0,0 1,-1 0,1-1,-1 1,0 1,1-1,-1 1,0 0,0 0,-1 0,1 1,0 0,-11-2,-85 5,68-1,10 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink216.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:22:02.158"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">265 195,'-3'207,"6"224,-2-416,0-1,1 1,1-1,0 1,7 18,-7-27,-1 1,2-1,-1 0,1 0,0 0,0-1,0 0,1 1,0-1,0-1,1 1,-1-1,10 6,10 5,2-2,44 18,-58-27,1 0,-1 0,1-1,0-1,0 0,0-1,24-2,-35 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,0 1,-1-1,1 1,0-4,2-11,-1 1,0-1,-2-25,2 2,1 19,0 0,2 0,0 0,2 0,13-28,-7 13,-2 1,-1-2,7-56,-8 45,16-56,22-84,-47 187,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 1,1-1,-1 2,0 0,0 1,0 0,-1-1,1 1,0-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,0 0,0 1,14 283,-7-90,0-89,27 778,-33-724,-3 114,0-265,1-1,-2 0,1 1,-1-1,-1 0,0 0,0 0,-1-1,0 1,0-1,-1-1,0 1,0-1,-1 0,0 0,0 0,-1-1,1 0,-1-1,-15 8,-2 0,-1 0,-1-2,0 0,0-2,-50 10,45-14,1-1,-1-1,1-2,-1-1,-33-4,46 2,1-2,0 0,0 0,0-2,0 0,1-1,0-1,1 0,-30-21,40 24,-17-11,1-2,-29-30,44 40,1 1,0-2,0 1,1-1,0 0,0 0,1 0,1-1,0 1,-4-16,5 8,0-1,0 0,2 0,1 0,3-28,2 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1184">1191 10,'0'0,"0"-1,0 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,1 0,-1-1,0 1,0 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 1,24 13,-15-1,0 1,-1 0,0 0,-1 1,-1 0,0 1,-1 0,6 23,-1-5,-2-8,65 207,-66-198,-1 1,-1-1,-2 1,-2 64,-10-27,2-52</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink217.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:22:08.344"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">42 0,'-2'384,"4"417,11-455,0 112,-13 467,-3-897,0-1,-1 1,-2-1,-15 43,3-6,15-53,1-4,0 0,0 0,1 1,-1-1,2 0,-1 1,2 10,-1-16,1 1,0-1,0 0,0 0,0 0,0 1,0-1,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,3 1,21 3,-1-1,1-2,36-1,-30 0,58 5,-38 1,67 0,654-5,12-66,-738 56,-1-3,87-32,-20 4,879-216,-757 225,16-3,-22-3,345-12,238 43,-448 9,-246-6,-57 0,0 3,0 2,75 13,-67 2,76 31,-82-26,56 17,1-6,244 35,-157-42,429 30,-277-44,18 0,1260-13,-1627 2,0-1,0-1,0 0,0 0,0-1,0 0,0-1,-1 0,1 0,8-6,-11 5,0-1,-1 0,0 0,0-1,-1 0,1 0,-1 0,-1 0,1-1,-1 0,0 0,-1 0,4-8,19-53,-2-1,18-81,13-144,0 6,-18 134,-2 13,17-149,-26 132,-15 108,-3-1,-1 0,-3 0,-4-91,-2 133,-1 0,0 0,0 0,-1 0,0 0,0 1,-1 0,0 0,-1 0,0 1,0-1,0 1,-1 1,-15-13,-11-6,-1 2,-37-20,67 41,-58-29,-2 3,-1 2,-1 4,-82-18,98 30,0 3,-67-2,-22-3,-263-57,-192-22,281 84,76 5,-342-46,-250-6,-2611 57,2303-3,968-8,-302-55,368 46,-24-3,-180-5,182 17,-131-24,147 15,-217-5,5 23,290-1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink218.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:22:22.630"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">203 0,'1'480,"-3"517,-24-439,22-525,-1 0,-11 33,8-33,-9 65,14 302,3-59,-4-288,-3 0,-1 0,-3-1,-3 0,-23 58,26-77,1-1,2 1,-5 39,13-69,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,5 1,9 4,0-1,34 6,-34-8,76 14,-52-11,0 2,-1 1,39 15,-46-14,1-2,0-1,0-1,0-2,1-2,66-3,-47 1,872-23,-160-12,-614 23,200-42,-153 20,411-27,-37 12,-51 2,606 38,-636 13,-144-6,375 4,-80 50,-331-20,-43-6,439 24,47-53,217 5,-895 3,82 17,-90-10,119 3,322-17,-503 3,0-1,0 0,0 0,0-1,0 1,0-1,0-1,0 1,0-1,0 0,-1 0,1-1,-1 0,0 0,0 0,0 0,0-1,0 0,-1 0,1 0,-1-1,0 1,-1-1,1 0,-1 0,0-1,0 1,2-7,7-14,-1-2,13-56,1 1,103-349,-107 337,-5-1,7-162,-23-458,-4 286,5 334,-5 1,-4 0,-4 0,-38-145,38 199</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink219.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:23:04.535"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 688,'0'-1,"0"1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1 0,2 0,31-4,-31 4,41 1,0 2,67 13,16 1,181-8,-252-12,0-2,1-3,76-21,-90 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="960.99">715 0,'0'3,"0"-1,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1-1,-1 1,1-1,2 2,39 25,-21-14,35 25,3-2,70 31,12 6,-137-71,-1 1,0-1,1 1,-1 0,0-1,-1 2,1-1,-1 0,0 1,0 0,0-1,-1 1,1 0,-1 1,0-1,-1 0,1 0,-1 1,0 6,2 11,-2 1,-1-1,-3 30,0-17,2-27,0 0,0 0,-2 1,1-1,-1-1,0 1,-1 0,0-1,0 0,-7 9,-8 10,-36 38,-1 3,-64 81,82-106</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19830,7 +20549,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:23:06.653"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:18:38.793"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -19839,8 +20558,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 503,'0'5,"4"1,6 4,11 5,10 0,10 2,1-2,3-4,-1-3,-5-3,-3-3,-9 3,-3 5,-3 1,1 3,1-1,0-2,-3-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1122.99">477 0,'15'13,"0"-2,1 0,1 0,0-2,35 15,-35-18,-1 2,0 0,0 0,-1 2,0 0,-1 0,15 15,-24-19,-1 0,0 0,-1 0,1 1,-1 0,0-1,-1 1,1 0,-2 0,1 1,-1-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 0,-3 9,-4 11,-2-1,0-1,-2 0,-23 37,-92 114,34-48,75-100</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">448 861,'-5'0,"-7"0,1 0,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1981">392 812,'-7'0,"-23"0,-1 0,2 1,-45 9,64-7,0-1,1 2,0-1,0 0,0 1,0 1,0 0,2 0,-2 0,1 1,0 0,1 1,1-1,-10 11,3-1,1 1,1 0,1 1,-14 31,21-42,-1 1,2-1,0 1,0 0,1 0,0 0,0 0,1-1,0 2,1-1,0-1,0 2,0-1,5 10,-2-12,-1-1,0 0,1 0,0 1,1-2,-1 0,1 1,-1-1,1 0,1 0,0-1,-1 1,2-1,7 4,12 3,2 0,28 6,-28-8,20 9,-35-11,-2-1,2-1,-1 0,1-1,23 4,-33-7,0 0,0 0,-1 0,1 0,0-1,1 1,-2-1,1 0,0 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,0-1,1 0,-1 1,0 0,0-1,-1-1,1 1,0 0,-1 0,2-1,-2 1,0-1,0 1,0 0,0 0,1-4,8-31,0-2,-3 2,-2-2,0 0,-4 1,-1-1,-6-39,5 75,1-1,-1 1,1 0,-1 0,0 0,0-1,-1 1,1 0,-1 0,0 1,0-1,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 2,0-1,0 0,-1 0,1 1,-5-3,-13-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3130.99">448 25,'245'-12,"-59"2,-166 9,-1 0,0 1,0 0,37 6,-52-5,0 0,0 0,0 0,1 0,-1 0,0 1,-1 0,1 0,0 0,0 1,-1-1,0 1,1 0,-1 0,-1-1,2 1,-1 1,-1-1,0 1,0-1,0 1,2 4,2 13,-2 0,0 1,-2-1,-1 1,0 0,-2 0,-4 25,2-11,1 0,-3 1,-10 38,12-61,-2-2,1 2,-1-2,-1 1,-1-1,0 1,0-2,-17 19,19-25,0-2,1 1,-1 0,-2 0,2-1,0 0,-1-1,-1 1,1 0,0-1,-1 0,1 0,0-1,-1 0,1 0,-11 0,-10-1,1-1,-48-6,45 3,21 3,0 0,0 0,1 0,-1-1,0 0,0-1,1 1,1-2,-2 1,-6-4,14 6,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,-2 1,2 0,0-1,0 1,0-1,0 1,0 0,0-1,2 1,-2 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 0,19-6,29 3,-23 6,0 0,-1 2,0 1,2 1,-3 0,28 13,-13-7,55 13,-4-13,2-4,182-5,-243-3,18-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3607.99">2058 482,'4'0,"2"5,1 22,-2 24,-2 21,-1 11,-1 8,0 2,-1 2,0-6,-1-9,1-15,0-13,0-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4051.99">1864 684,'13'5,"40"9,46 16,41 3,29-1,23 0,13-3,-1 4,-25-4,-33-8,-43-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5404">3335 558,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 1,1-1,0 0,0 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1 0,-2 0,-43-5,40 5,-5-1,-1 0,1 1,-1 0,1 1,-1 0,-20 5,26-4,2 0,0 0,-1 0,0 1,1-1,0 1,0 0,0 0,1 0,-1 1,0-1,1 1,0 0,1 0,-1 0,1 0,-1 0,-1 6,-3 9,0-1,1 1,2 1,0-1,2 2,0-2,1 1,1 0,1-1,1 1,1-1,0 1,2 0,1-1,9 21,-12-34,1-1,-1-1,1 1,-1-1,1 1,2-1,-2-1,0 1,1 0,0-1,1 1,-1-1,0 0,1-2,0 2,0-1,-1 0,9 1,6 1,0-1,0 0,0-1,26-1,-39-2,1-1,-1 1,1-1,-1 0,0-1,0 0,1 0,-2 0,1 0,0-1,-1 0,-1-1,1 1,0-1,-1 0,0 0,0-1,7-8,5-8,0-2,-2 0,16-33,-23 38,0-1,-1 1,-1-1,-2 0,0-1,2-23,-7-119,0 154,4 270,4 100,-5-329,14 247,-16-253</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19858,7 +20581,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:24:04.719"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:18:50.602"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -19867,15 +20590,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">925 904,'-1'340,"2"332,0-652,-1 28,13 90,-11-125,1-1,0 0,1 0,0 0,0 0,2-1,-1 1,1-1,1-1,0 1,1-1,11 12,-17-20,0 1,1-1,-1 0,1-1,-1 1,1 0,0-1,0 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,0 0,4 0,-2-2,0 1,0-1,-1 0,1 0,0 0,0-1,-1 1,0-1,1 0,-1-1,4-4,8-9,0-1,-2-1,0 0,15-30,16-34,-5-1,56-170,18-201,-75 263,28-160,-60 324,-4 38,-1 53,-2-60,0 422,-83 646,-8-417,-38 248,108-794,-39 116,26-105,32-112,0 0,0 0,-1-1,0 1,-1-1,0 0,1 0,-2 0,1 0,-1-1,0 0,0 0,0 0,-1 0,0-1,1 0,-2 0,1-1,0 0,-1 0,1 0,-1-1,0 0,0 0,0 0,0-1,0 0,0-1,-10 0,-1 0,-1-1,1-1,-1-1,1 0,0-2,0 0,1-1,-1 0,1-2,-27-15,-35-28,2-3,3-3,2-4,3-2,3-4,3-2,3-3,3-3,-93-161,138 214,1 0,1 0,1-1,-9-34,16 49,1 0,0 1,1-1,-1 0,1 0,1 1,-1-1,1 0,1 0,-1 1,2-1,-1 1,1-1,0 1,0 0,1 0,4-7,22-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="893.99">2142 137,'5'7,"1"0,-1 0,0 0,-1 1,0-1,0 1,-1 0,3 10,0-5,26 78,-4 2,-3 1,-5 0,-4 2,-4 0,-1 147,-11-238,1 0,-1 0,0 0,0-1,-1 1,0 0,1 0,-2 0,1-1,0 1,-1 0,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,-7 3,-35 19,-47 33,46-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3047">2883 1883,'9'5,"7"1,19-1,36-9,9-5,5-5,-3 0,-6-2,-8 2,-10 2,-11 5,-4 2,-5 3,-5-8,-3-2,-2 2,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3613">2645 2439,'4'0,"6"0,11 0,15 0,10 0,2 0,6 0,-1 5,-1 1,-5-1,-1 0,-4-2,0-1,-3-1,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4808">3729 3735,'1'-31,"2"0,11-49,0 0,12-113,58-366,-39 296,-24 117,64-220,-3 134,10 3,131-230,-107 226,-34 63,152-232,-131 269,-88 116,0 1,2 1,0 0,1 1,25-15,-38 26,1 0,0 0,-1 1,1 0,0 0,0 0,0 1,0 0,0 0,0 0,0 1,7 0,-10 0,0 1,-1-1,0 1,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 5,4 61,-7 101,0-58,3-80</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5467.99">3835 1592,'19'2,"0"0,0 1,0 1,35 12,-32-9,2 0,36 4,242 25,-161-19,-109-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6381">6190 481,'-2'1,"-1"0,1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,0 0,-2 3,-3 5,-164 241,-252 507,363-630,-75 240,111-284,4 2,3 0,5 0,-2 97,12-122,-1 33,14 135,-9-209,2 0,0 0,1-1,1 0,0 0,19 32,76 98,-21-35,-73-101,1-1,0 0,21 20,-12-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7343.99">6031 2121,'-4'-6,"1"0,0-1,0 0,0 1,1-1,0 0,1 0,0-1,0 1,0 0,1 0,1-14,-2 1,-1-14,2-1,6-46,-5 68,2 0,0 0,0 0,1 0,0 1,1-1,1 1,0 0,9-12,-14 22,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,3 2,7 6,-1 1,-1 1,0-1,0 2,8 13,-5-7,40 59,-2 3,-5 1,41 100,-33-57,147 323,-182-412,-3-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7909">7195 1248,'-2'1,"1"-1,0 0,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-2 2,-6 5,-370 421,-190 190,134-178,408-413</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 56,'0'1018,"0"-1009,-1 2,1 0,1 0,0 1,4 15,-5-25,0 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 1,0-1,-1 0,1-1,0 1,2 0,8-4,1 0,-1 0,1-2,-2 1,1-1,0-1,10-8,8-4,-20 13,55-32,-2-3,76-65,-123 91,1 0,-2-1,0-1,-1 0,-1-1,0 0,-2-1,0-1,-1 0,-1 0,-1-1,10-37,-6-28,-3 0,-4-1,-8-104,1 42,2 145,0 0,0 0,1-1,-1 1,1 0,0 0,1 0,-1 0,4-5,-5 8,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,2 0,0 0,-1 0,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 1,2 1,3 6,-1-1,0 1,0 0,-1 0,0 0,-1 1,5 17,9 78,-13-72,12 123,-7 196,8 104,12-282,-16-113,-3 2,2 84,-10-103,-1-23,-1 0,0 0,-1 0,-8 40,7-57,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 0,0 1,0-1,0-1,-1 1,1 0,-1-1,1 1,-1-1,-7 1,-7 2,-1-1,0-1,-20 0,25-1,-6 0,0 0,1-2,-1 0,0-1,1-1,0-1,-21-6,15-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1986.99">1165 1511,'10'0,"1"0,-1 0,1 1,0 0,-1 0,1 2,-1-1,0 1,0 1,0 0,0 0,-1 1,0 0,1 0,-2 1,1 1,-1-1,0 1,0 1,7 8,56 65,-33-39,60 85,-73-81,-20-35,1 0,0 0,1 0,0-1,14 16,-7-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.01">1800 1379,'-14'0,"-1"1,1 0,0 0,0 1,1 1,-1 1,1 0,-1 0,1 1,0 1,1 0,-1 1,1 1,1-1,-1 2,1 0,1 0,-13 15,-83 93,-124 178,218-277</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3989.05">1906 1511,'-2'0,"1"-1,0 0,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 2,-34 41,27-26,0 0,2 1,0 0,1 0,1 1,1 0,0 0,2 0,0 0,1 0,2 1,0-1,0 0,2 0,8 28,-9-41,1 0,1-1,0 1,0-1,0 0,0 0,1 0,0 0,1-1,-1 0,1 0,0 0,0-1,0 0,1 0,-1 0,1-1,0 0,0-1,0 1,9 1,-8-2,0-1,-1 0,1 0,0-1,0 1,0-2,0 1,-1-1,1 0,0-1,-1 0,1 0,-1 0,0-1,1-1,-1 1,-1-1,1 0,0 0,6-7,0-2,-1-1,0 0,-2 0,1-1,-2-1,0 0,-1 0,0 0,-2-1,0 0,-1-1,0 1,-1-1,1-26,-5 40,0-1,0 0,0 1,-1-1,0 1,0-1,0 1,-1-1,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,-1 0,0 0,-6-4,2 2,0 1,-1 0,0 0,0 1,0 0,0 1,0 0,0 0,0 1,-10 0,-5 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19893,7 +20611,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:24:17.488"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:19:08.992"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -19902,9 +20620,22 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">436 2117,'-5'0,"-6"14,-14 13,-3 11,-6 3,2 0,-1-7,4-1,-1-1,-1-2,-4-1,0-6,-3-7,0-1,6-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1720.99">1335 979,'-15'233,"7"-159,3 0,7 106,-2-174,1 0,0 0,0-1,0 1,1 0,0-1,0 1,0-1,0 1,1-1,0 0,1 0,-1 0,1-1,6 8,-1-5,0-1,1 0,-1 0,1-1,0 0,1-1,14 4,-1 1,-10-4,0 0,0-1,0 0,18 1,-27-5,-1 1,1-1,0-1,0 1,0-1,-1 0,1 0,0 0,-1-1,1 1,-1-1,0 0,1-1,-1 1,0-1,0 0,3-3,17-19,-1-1,-1-1,-1-1,32-58,-16 25,-25 42,21-31,-2-1,-2-1,31-82,-53 107,-7 23,0 0,1 0,-1 0,1 1,0-1,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,4-5,-6 8,0 0,0 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 1,1 0,8 21,15 72,17 130,-21-106,-3-15,-4 1,-5 1,-4-1,-12 126,7-223,0-1,0 1,-1-1,1 0,-2 0,1 1,-1-1,0-1,0 1,0 0,-1-1,0 0,-8 9,4-6,0-1,0-1,-1 1,0-2,0 1,-1-1,-17 7,2-4,0-1,0-1,0-1,-1-1,0-1,-30-2,41-1,-29 0,-74-9,87 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2764.99">2394 0,'10'1,"1"1,-1 0,1 0,-1 1,0 0,0 0,0 1,0 1,-1 0,0 0,13 10,6 6,-1 1,28 30,-17-11,-1 2,-3 2,-1 1,-3 2,-1 1,-3 1,38 102,-34-61,-4 0,-4 2,18 182,-24-2,-23 297,5-541,-2 0,-1 0,-2-1,0 1,-2-2,-1 1,-1-1,-2-1,-21 36,-18 17,-96 111,135-175,-118 137,108-125</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6188 203,'0'-2,"1"1,-1-2,1 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,-1 1,2-1,-1 1,3-3,43-24,-41 24,13-4,-1-1,2 1,1 2,-1 0,1 1,37-5,135 1,-189 9,-1-1,2 1,-2 1,0-1,1 1,-1-1,0 1,2 0,-2 1,0-1,0 1,0-1,0 1,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 1,0-2,1 1,-2 1,1 0,-1-1,0 1,0-1,-1 1,1 1,-1-1,2 6,6 18,-1 1,-2 1,-1 0,1 32,-5 124,-2-164,0 14,-2-1,-2 0,-1 0,-19 59,17-71,-3 0,1-1,-1 0,-3 0,1-1,-2-1,-33 34,14-20,-1 0,-68 47,90-72,0 0,0-2,0 0,-2 0,2-2,-2 1,1-1,-1-1,0 0,-1-1,1-1,0 0,-18-1,30 0,0-1,0 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 0,-1 0,2 0,-1 1,1-2,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,-1 0,2 0,-1 0,1 0,-1 0,1-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,-1 1,1-1,0 1,0-1,0 0,1 0,0-4,1-5,1-1,0 1,2 0,-1 0,1 1,1-2,14-20,31-32,2 2,110-100,-148 147,3 2,-1 0,1 0,1 2,22-11,-32 18,1 1,0 0,0 1,-1-1,2 3,-1-1,1 0,-1 1,0 0,1 0,0 2,0-1,12 3,8 3,-2 2,0 2,-1 0,0 2,37 20,-29-13,0-3,46 15,-48-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.02">4429 1295,'11'1,"0"0,0 1,0-1,21 8,21 3,289 34,-42-7,110 11,100 11,806 92,33-32,1980-3,-3286-118</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2213.01">5144 1930,'61'-1,"2"-2,-2-3,108-24,-149 25,-10 3,2-1,-1 1,20-2,-29 3,1 1,1 0,-2 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,2 0,-2 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,2 4,0 3,1-1,-1 1,0 1,-1-2,-1 2,0 0,0-2,0 2,-1 0,0-1,-1 2,0-2,-1 1,0 0,0-1,0 1,-2-1,-2 10,-9 22,-1 0,-31 52,44-88,-50 92,-6-2,-133 166,185-253,0 0,0-1,-1-1,1 1,-2-1,1 1,0-1,-13 4,16-7,0 0,-1 0,1-1,-2 0,1 0,1 0,-1 0,0-1,-1 0,1 0,1 0,-1 0,0-1,-1 0,2 0,-6-2,9 3,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,-1 1,1-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 1,0 0,-1-1,4-1,38-43,-18 23,1 3,0 0,2 2,0 0,36-17,-51 29,0 0,0 2,0-1,0 1,0 0,0 1,1 0,0 1,0 1,-1-1,1 2,-1 0,1 0,-1 1,1 1,20 5,-15 0,-1 0,26 13,-11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5556">6024 1829,'12'0,"1"1,-1 0,2 0,-2 1,1 1,-1-1,-1 1,2 1,-2 1,2 0,11 7,-17-8,-1 1,1 1,0-2,-1 2,-1 0,0 0,1-1,-1 2,-1 0,1 0,-2-1,1 1,-1 1,1-2,-2 2,1 0,1 13,-3-13,0 0,0 0,0 0,-1 0,-1 0,1 0,-1 0,-1 0,-2 10,2-14,1-1,-1 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1-1,0 0,-1 0,0 0,0 0,-3-1,-6 2,0 0,0-1,-1-1,2 0,-2-1,2 0,-2-1,-16-4,30 6,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,13-5,27 2,-23 4,-1 2,1-1,-1 2,1 1,0 0,-2 1,1 0,0 2,-2 0,1 0,-1 2,24 17,-17-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6150">7507 2311,'0'13,"0"13,-5 15,-11 35,-1 22,0 3,4-3,4-9,4-16,2-16,-2-13,-2-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6558">7068 2691,'51'3,"56"8,52 2,465-14,-601 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8001">8497 2210,'-15'0,"2"1,-2 0,2 1,-1 0,1 0,-1 2,1 0,-1 0,2 1,-1 0,1 1,-16 10,20-10,-2 1,2 0,1 0,-2 1,2 0,0 0,1 1,-1 0,2-1,0 2,0 0,1-1,0 1,-1 0,-1 16,-2 25,2 0,2 0,8 93,-4-137,1 0,0 0,0-1,0 1,1 0,0 0,1-2,-1 2,1-1,1 1,-1-2,10 12,-10-14,0-2,0 2,0-1,1 1,0-1,-1 0,1 0,-1-1,1 1,0-1,-1 0,2 0,-1 0,0 0,0-1,0 1,0-1,1 0,-1 0,0-1,0 1,0-1,0 0,1 0,4-2,10-4,-1 0,1 0,-1-2,-1-1,0 1,0-2,16-15,0 0,-1-3,34-39,-58 58,0 0,0 0,-1-1,-1 1,0-2,-1 1,1-1,5-21,-7 12,-1 0,-2 1,0 0,-3-32,1 25,-2-11,2 69,16 186,0-5,-16 23,1-194</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10301.03">12757 1651,'24'-12,"0"-2,-1 1,-1-2,-1-2,34-31,80-102,-114 124,358-471,-376 491,3-2,0 0,0 0,0 1,14-12,-20 18,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,0 1,1 0,0 0,-1-1,0 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,2-1,-1 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1 1,6 11,0 0,-2 2,0-2,1 1,-3 1,1 15,0 105,-4-83,-4 1131,5-1160</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12424.99">32 660,'-3'4,"1"0,0 0,1 0,-1-1,1 1,-1 0,1 0,1 0,-1 0,1 0,-1 0,1 6,-1 3,-7 40,4 0,1 0,7 64,-4-114,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,2-1,-2 1,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,-1 0,1-1,-1 1,2-1,-1 1,0-1,4 2,9 2,0 0,0-2,30 3,9 4,-51-9,1 0,0-1,0 1,1-1,-1 0,-1-1,1 1,0-1,0 0,1 0,-2 0,1 0,0-1,-1 0,2 0,-2 0,0-1,0 1,0 0,0-1,1-1,-2 1,1 0,-1-1,0 1,0-1,4-6,9-12,-3-1,1 0,16-44,-19 43,110-298,-114 304,-5 11,0 0,1 0,0 1,1 0,-1-1,1 1,9-10,-12 14,1 1,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 1,2-1,-2 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,2-1,-2 1,0 0,0-1,3 3,4 1,0 0,0 1,-1-1,1 2,-2 0,1 0,-1-1,1 2,-2 0,13 15,-10-9,0 2,-1-1,-1 1,0 0,8 26,-4 7,-2 1,4 98,-12-143,0 423,-4-207,3-206,-1-1,-1 1,-1-1,0 1,-1-2,0 1,-1 0,0-1,-14 22,2-9,-1 0,-2 0,-28 26,42-46,1 0,-1 0,-1-1,1 1,-1-1,1-1,-2 0,1 0,0 0,0 0,-1-1,0 0,1 0,-15 1,1-3,-1 1,1-2,-1 1,-22-6,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13679.03">1076 0,'4'5,"8"4,4 12,1 4,-2 4,-5 0,-3 1,-4-2,-1-1,-7 9,-10 5,-9 6,-5-2,4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14828.52">3055 964,'4'0,"8"0,8 0,8 0,13 0,4 0,-3 0,-1 0,-4 0,-5 0,-1 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15371.52">2753 1421,'9'5,"17"5,13 6,16 8,1 1,-3-5,-7-5,-5-5,-7-4,-7-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16395.05">692 1955,'0'-2,"1"0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 2,1-2,2-2,3-2,137-109,-139 111,-2 1,1 0,0 0,0 1,1-1,-1 1,0 0,0 0,1 0,0 1,0 0,0 0,-1 0,1 1,1 0,-2 0,1 0,0 1,0 0,0 0,-1 0,1 0,-1 1,1 0,0 1,-1-1,0 0,0 1,0 0,0 0,-1 1,7 5,12 12,-2 1,0 1,-2 1,30 47,-19-27,-2-1,-18-27,0 0,2-1,-1-1,2 1,23 20,-18-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17559.06">911 1802,'-2'1,"0"0,0-1,0 1,0 0,0 0,-1 0,1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,1 0,-2 2,-1 2,-54 91,5 3,-50 146,101-243,-3 4,2 1,0 0,0-1,0 14,1-20,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 0,1 1,1-1,-1 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-2,0 1,0 0,0 0,0 0,0 0,0-1,0 1,1-1,39-10,-2-3,0-1,-1-1,65-40,-37 22,395-226,-453 255,0-1,1 0,-2 0,0 0,1 0,9-15,-14 17,-1-1,1 0,0 1,-1-1,0 0,-1-1,1 1,-1 1,0-2,-1 1,1 0,-2-11,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19254.06">1764 1980,'-3'33,"0"0,-3-2,-11 42,8-48,3 1,1-1,2 1,0 0,1 0,3 29,0-50,0-1,1 0,-1 1,1-1,0-1,0 1,0 0,0 0,1 0,1 0,-2-2,1 2,1-1,-1 0,0 0,5 3,-4-4,-1 0,0-1,0 1,0 0,0-1,0 1,0-1,2 0,-2 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,-1-1,1 1,-1-1,7-2,-7 2,-1-1,0 1,0-1,0 1,0 0,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,0 2,-1-2,2 1,-2-1,1 1,-1-1,0 1,0-4,-6-65,4 50,0 6,1-1,1 0,1 1,0-1,1 0,1 1,2 0,-1-1,1 1,14-28,-16 38,-1 0,0-1,0 1,0 0,0 0,-1-1,1-9,-2 13,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1 0,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,-3-2,-10-3,2-2,-1 0,1 0,-13-11,8 6,-10-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22119.06">3852 1142,'4'0,"7"0,15 0,22 0,8 0,3 0,-4 0,-1 0,-6 0,-1 0,1 0,-9 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19922,7 +20653,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:24:39.159"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:20:03.916"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -19931,8 +20662,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 107,'29'0,"203"-5,-182 1,0-2,78-20,-69 9,0 2,1 3,1 2,85-2,-124 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1191.99">81 716,'87'-2,"1"-5,-1-4,107-26,-124 26,0 2,0 4,108 6,-122-1,-18 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">373 0,'-3'2,"1"0,0 0,0 0,0 0,0 0,0-1,0 2,1-1,-1 0,1 1,0-1,0 1,-1 0,2-1,-1 0,0 1,1 0,-1 3,-3 10,-153 707,78-204,25-146,31-226,-4 243,29 855,-2-1225</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19950,7 +20680,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:04.813"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:10:35.113"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -19959,7 +20689,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 132,'190'113,"-150"-89,-27-15,1 0,0-1,0-1,1 0,0-1,0 0,16 3,-30-9,1 0,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,3 0,-4 0,0 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,-1 0,1-1,-2-2,0 0,0 0,-1 0,1 1,0-1,-1 1,0-1,0 1,1 0,-6-2,-235-106,234 106,-1 1,0 0,0 0,0 1,0 0,0 1,0 0,-15 1,73 33,-31-26,1-1,0-1,24 5,31 9,-73-19,14 5,1-1,-1 0,16 1,-27-4,0-1,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1-1,0 0,3-1,-5 1,0 1,0-1,-1 0,1 1,0-1,0 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,0-2,0-1,-1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,-1 1,1 0,0-1,-1 1,1 0,-1 1,0-1,-6-2,-64-31,65 32,1 1,-1 0,0 1,0 0,0 0,0 1,-16-1,22 2,0 0,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0 1,1-1,-1 0,1 1,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,0 1,-1 4,-5 21,2 0,1 0,1 1,2-1,1 1,1 0,5 32,-6-58,0-1,0 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,4 3,-5-4,1 0,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,2-1,9-4,-1-1,0 0,0-1,0 0,13-11,-18 13,33-24,-1-1,-2-2,0-1,55-68,-90 99,0 0,0-1,0 0,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0 0,-1 0,1-1,-1 1,0 0,0 0,-2-6,-1 4,0 0,0 0,0 1,-1-1,1 1,-1 0,0 1,0-1,-1 1,1 0,-1 0,-7-3,0 0,-2-1,0 1,0 0,0 1,-28-5,40 9,-1 1,0-1,1 1,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1-1,1 2,0-1,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,-4 6,-6 13,0 0,2 1,0 1,2 0,1 0,0 0,2 1,1 0,1 0,1 50,3-70,-1 1,2-1,-1 0,1 1,0-1,0 0,0 0,1 0,0-1,0 1,0 0,0-1,1 0,-1 0,6 4,-7-6,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,3-4,-2 1,1 0,-1-1,1 1,-1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 1,-1-1,1-6,0-16,-4-51,1 44,2 24,-1 0,0 0,0 0,-7-20,8 28,-1 1,0-1,-1 1,1 0,0-1,0 1,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,1 0,0 0,-1 1,0-1,1 1,-4-1,6 1,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,-1 1,13 16,23 14,53 14,-81-42,0 0,-1 0,1-1,0 0,0-1,0 0,0 0,1 0,-1-1,0 0,11-1,-16 0,0 1,0-1,0 0,0 1,0-1,0 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-2 0,1 0,0-1,0 1,-1 0,1 0,-1 0,0-2,-1-2,0-1,0 1,0 0,-1 0,0 0,0 0,-1 1,0-1,0 1,0 0,-6-6,0 3,-1 0,0 1,-1 0,1 0,-1 1,-1 1,-17-6,4 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3416 1806,'0'-1,"0"0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,2 0,-2 0,1 0,40-6,-35 6,286-4,-164 5,-80 4,-32 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4081.01">1843 2618,'3'0,"1"-1,-1-1,-1 1,1 0,0 0,0 0,-1-1,1 0,5-4,12-6,-19 11,2 1,-1-1,0 0,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0-1,-1 2,1-1,-1 0,1 0,-1 0,2 1,-2-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1 2,3 10,0-1,0 2,-2-2,2 18,1 2,-3-26,0 0,1-1,-1 0,1 1,0-1,0-1,1 1,1-1,-1 1,0-2,0 1,1-1,1 1,8 4,-4-2,-1 0,1 1,-2-1,11 13,-5 0,-11-15,-1 0,0 0,1 0,-1-1,1 0,0 1,1-1,0 0,-1-1,1 0,0 0,6 4,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3296.01">2285 2491,'-17'1,"2"1,0 0,0 0,-1 2,1 0,0 1,0 0,1 1,-25 14,6-1,1 1,-51 43,66-48,1 1,1 1,0 0,2 2,0-1,2 0,0 2,1-1,1 1,-7 25,15-44,0 1,1 0,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,-1 0,1-1,0 1,1 3,11 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2623">2451 2567,'-5'9,"-2"16,1 33,1 20,2 10,-4 2,0 1,0-14,3-13,1-23,0-27,2-28,1-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1904.01">2202 2796,'9'0,"8"0,11 0,4 0,3 0,4 4,5 2,-1-1,-7 4,0 0,-3-1,-1 1,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-987">2754 2719,'1'-10,"1"1,0 0,1 0,0-1,8-14,0-2,2-6,1 2,3 0,0 0,42-52,-58 81,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,1-1,1 1,-1-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,2 0,-2 0,-1 0,1 1,0-1,0 1,0-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,0 0,0 1,8 62,-8-55,0 378,-2-217,2-118</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="993">3305 2212,'0'2,"1"0,-1 0,1-2,0 2,-1 0,1-1,0 1,0 0,0-1,0 0,2 1,-2-1,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 0,1 1,0-1,3 1,56 13,-49-12,60 11,61 12,234 17,-164-42,-171 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="142586.22">824 512,'4'-2,"1"-1,-1 1,1 0,-1 0,1 1,-1-1,2 1,-1 0,0 0,-1 0,1 1,1-1,8 2,-5-2,214-8,115-8,967-136,-828 93,371-60,-180 24,-145 59,2 37,-281 2,5571 2,-3232-6,-2572 2,-5 0,1 0,0 0,-1 0,0 1,0 0,2 0,-2 0,7 3,-10-3,-1 0,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-2,1 2,-1-1,0 1,0-1,-1 1,1-1,-1 1,1 0,-1-2,0 7,2 257,-4-90,3-84,2 98,30 190,23 0,-39-271,3 140,-21 115,-2-148,3 2035,0-2232,0-4,0 1,-1 0,-6 25,7-38,0 0,-1 0,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,-1 0,1 0,-2 0,-5 2,-2-1,1-1,0 1,-13-1,21-1,-357 2,236-4,-622-6,-728-12,212-57,12-60,1067 115,73 11,-171 3,-351-21,296 5,-1397-17,1133 35,-441-71,973 70,-660-31,665 35,0-3,2-1,-65-17,-172-58,-21-4,-238 2,0 48,99 28,-113-5,475 7,-16 1,-200-34,301 37,1 0,1-1,-2 0,2 1,0-2,-1 0,-10-6,18 9,-1 0,1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 0,1 0,0 0,-1 0,1 0,0-1,0 1,0 0,1 0,-1 0,0 0,2 0,-1 1,-1 0,1-1,0 1,3-3,29-18,-28 19,-1 0,0 0,0 0,-1-1,2 1,-2-1,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,-1 1,3-9,11-38,-4-1,9-65,1-7,8-18,108-451,-119 527</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19977,7 +20714,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:12.461"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:20:11.959"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -19986,7 +20723,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">223 153,'-9'-7,"1"0,-1 0,0 1,0 0,-1 0,0 1,0 1,0-1,0 2,-1-1,0 2,-13-3,24 5,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,8 10,20 5,-18-12,0 0,0 0,1-1,-1-1,0 0,1-1,-1 1,1-2,-1 0,18-3,-27 4,0 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 1,0-1,0 0,0-1,0 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,-3-2,-54-31,52 31,-21-12,18 9,0 1,-1 0,0 1,-15-5,22 8,-1 0,0 0,-1 1,1 0,0 0,0 0,0 0,0 1,0 0,0-1,0 2,1-1,-1 0,0 1,-6 3,-7 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">448 278,'-2'-1,"0"-1,0 1,-1-1,0 1,1 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-2 0,2 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 1,-1 0,0-1,0 1,1 0,0 1,0-1,0 0,-1 1,1-1,-3 4,-7 3,1 1,-1 1,2-1,-12 16,-18 26,1 1,4 2,2 0,2 2,3 1,3 1,-30 110,52-154,0 0,0 0,2 0,0 1,1 18,0-28,1-1,0 0,0 1,0-2,0 1,1 0,-1 1,1-1,2-1,-2 1,0-1,1 1,0-1,-1 1,2-1,-1 0,0 0,0 0,2-1,-1 0,5 3,33 14,68 21,-41-17,-35-10,-12-4,0 0,1-1,1-1,-1-2,1 0,0-1,34 1,-51-6,0 0,0 0,0-1,0 0,0-1,-1 1,0-1,0 1,0-2,1 0,-1 0,-1 0,0 0,1-1,-1 1,8-11,6-8,-1 0,22-41,40-77,82-205,-151 318,-3-1,-1 0,-1 0,-1 0,-1-32,-7-150,-3 84,5 105,1 23,0 37,0-24,1 148,-8 354,-1-389,-7 0,-35 132,-135 409,174-627,-1-1,-3 1,-2-2,-1-1,-3 1,-30 41,48-76,-1-1,0 1,-1 0,1 0,0-1,-1 0,1 0,-1 0,-1 0,1-2,0 2,0-1,0-1,-2 1,2-1,0 0,-1 0,-8 0,-8-1,1 0,-1-2,-32-6,25 5,-16-6,0-2,1-1,0-3,-80-36,95 38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="912">2180 278,'-9'2,"1"0,0 1,1-1,-2 1,2 0,0 1,-1 0,1 0,0 1,1-1,-1 1,-6 8,-11 5,-53 37,3 4,4 3,2 1,4 4,-107 143,155-185,0 0,3 1,0 0,2 1,0 0,-9 53,10-24,3 0,3 85,3-105,0-20,1 0,0 0,1 0,1 0,0 0,1 0,8 21,1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2195.99">2427 661,'-5'1,"1"-1,-2 1,2 0,0 0,0 0,-1 0,1 1,-1 0,1 0,1 0,-1 1,0 0,1-1,-7 7,-46 49,38-35,-28 27,-62 90,94-117,1-1,1 1,1 0,2 1,0 0,2 0,-6 35,9-43,2 0,1 1,0-1,1 0,5 30,-3-42,-1 0,0 1,1-1,0 1,-1-1,2 0,-1 0,0 0,1-1,0 1,0 0,1-1,-1 1,0-2,1 1,0 0,-1 0,1 0,0-1,2 0,-2 0,0 0,0 0,11 2,3-1,2 0,-1 0,1-2,-1 0,0-1,30-4,-47 4,1-1,-1 1,0-1,1 0,-1 0,0 0,1 0,0 1,-1-1,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,0 0,0-1,1 1,-1 1,0-2,1-3,1-7,0 2,-1-2,1-23,-2 10,11-36,27-91,-23 102,-4-1,13-105,-24 135</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2983.99">2372 329,'8'1,"2"0,-2 0,0 1,2 0,-2 0,0 0,1 1,-1 0,0 1,-1 0,1 0,0 1,-1-1,-1 1,2 1,-2 0,0 0,0-1,8 13,4 6,-1 2,-1 0,23 54,-9-9,-4 3,-3-1,16 99,3 237,-39-361,-3 0,-8 71,5-102,0 0,-1 0,-1-1,-2 2,1-3,-2 1,1 0,-3-1,1 0,-15 16,6-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3577.99">3939 839,'4'0,"7"0,6 0,9 0,5 0,2 0,6 0,-2 0,1 0,-4 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4187.02">3719 1400,'5'0,"14"0,12 0,2 0,1 0,4 0,1 0,8 0,9 0,4 0,8 0,4 0,5 0,-6 0,-6 0,-9 0,-14 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20004,7 +20746,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:16.069"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:20:17.333"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20013,7 +20755,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1232,'1'0,"1"-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,2-4,21-29,-16 22,27-35,-18 26,-1-1,-1 0,20-42,-12 22,1 0,3 2,1 1,54-58,-70 84,1 1,0 0,1 1,1 1,-1 0,2 1,17-8,121-44,-92 39,473-200,-500 206,12-4,128-63,-146 64,-2-1,0-1,41-42,14-12,-64 61</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 386,'4'0,"7"0,6 0,5 0,2 0,3 0,1 0,1 0,-1 0,0 0,0 5,4 1,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1415.99">1282 129,'-51'-7,"44"5,0 1,0-1,-1 1,0 0,1 1,-10 0,12 1,-1-1,1 2,0-1,-1 0,1 1,-1-1,1 1,0 1,0-1,1 1,-1 0,1 1,-1-1,0 1,1-1,1 1,-1-1,1 2,-1-1,1 1,1-1,-1 1,0 0,-3 8,-1 10,1-1,0 0,2 2,-3 31,4-21,-12 81,0-19,5 0,4 143,6-236,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,1 0,-2 0,1 0,0-1,1 1,-1 0,0-1,0 0,5 3,2-1,2 0,-1-1,0 1,1-3,11 2,3 1,-18-3,-1 0,2 0,-2-1,1 0,-1 0,1 0,-1 0,1-1,-1 0,0-1,0 0,0 0,-1 0,2-1,-2 0,6-5,14-10,-3-1,25-28,-31 30,2 1,-2-2,0 0,-2 0,-1-2,16-28,-21 34,-3-1,0 2,-1-2,0 1,-1-1,-1 1,-1-1,0 0,-2-17,0 8,0 2,-2-1,-1 0,-1 1,-12-31,15 47,-1 0,-1 1,1-1,-1 1,0 1,0-1,-2 1,1-1,0 1,0 0,-1 1,1-1,-1 1,-1 0,0 0,1 1,-1 0,1 0,-2 0,1 1,0 0,-12-1,-8-1,2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1992.99">1772 798,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3388.99">2071 283,'6'0,"2"-2,-2 1,1-1,-1 0,1 0,12-6,19-6,133-32,-108 27,-1 2,118-14,-175 30,1 1,-1 0,0 1,1-1,0 1,-1 0,0 1,0-1,0 1,0 0,0 0,0 1,0-1,0 0,-1 1,0 0,0 1,0-1,0 1,-1 0,2 0,-2 0,0 0,0 0,0 0,-1 1,3 6,5 12,0 1,-2-1,-1 1,4 30,-11-52,12 64,-4 0,-3 1,-3 0,-14 126,12-186,-1 0,0 0,0 0,-1-1,0 1,0 0,0 0,-2-1,1 0,-1 0,1 0,-1 0,0 0,-1 0,1-2,-1 2,-1-1,0-1,1 1,-1-1,0 0,0 0,-1-1,0 0,1 0,-1 0,0-1,0 0,0 0,0-1,0 1,-1-2,0 1,-11-1,15 0,0 0,-1-1,0 0,1 1,0-1,1-1,-1 1,0 0,0-1,-1 0,2 0,-6-4,8 5,0 1,0-1,1 1,-1 0,0-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0-2,1 2,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1-1,-1 2,1-1,-1 0,0 0,1 1,3-2,1-1,1 0,-1 1,1-1,-1 2,2-1,-1 1,-1 0,1 0,0 1,1 0,-1 0,0 0,-1 1,1 0,1 1,-1-1,-1 1,1 1,-1-1,1 1,10 5,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4807.99">3733 231,'-11'1,"1"0,0 0,0 1,-1 0,1 1,1 0,-2 0,2 1,0 0,0 1,0-1,0 1,1 1,-13 10,-4 8,-1 0,-37 50,42-49,-5 8,2 2,0 1,-22 51,-40 119,63-146,-19 94,35-125,2 1,2 0,1-1,2 2,4 40,-4-70,1 2,-1-1,1 0,0 0,-1 1,1-1,0 0,0 0,2 0,-2 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0-2,0 2,3 1,0-1,0 0,1 0,-1-1,0 1,0-1,0-1,1 1,0-1,5 1,1-2,1 0,-2 0,1-1,1-1,-2 1,1-2,0 1,11-7,8-8,-1 0,-1-3,-1 0,30-30,97-108,-144 146,157-184,-149 172,0-2,-3-1,0 0,-2-1,20-58,-26 51,-2 0,-2 0,-1 0,-2 0,-2 0,-9-59,8 92,2-2,-2 1,1-1,-1 1,1-1,-1 1,0 0,-1 1,1-1,-1 0,0 0,0 0,0 1,0-1,-2 1,-3-4,1 4,0-2,0 1,-2 0,1 0,0 1,0 0,-17-3,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5499">4659 0,'-5'5,"-6"23,-1 15,-3 27,1 15,-3 10,4 2,-3-2,-2 0,1-3,1-4,0-12,6-7,-2-6,1-4,3-9,3-8,2-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7054.99">5477 103,'-3'2,"0"-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1 1,1-1,-1 3,-2 3,-10 16,3 1,0 2,1-1,1 0,2 1,1 1,-4 43,5-4,11 134,-6-197,0 0,0-1,1 1,-1 0,2 0,-1-1,0 1,0 0,1 0,-1-1,1 1,0-2,0 1,0 1,1-1,-1 0,1 0,0 0,-1-1,1 1,0-1,2 1,-2-1,0 0,1-1,-1 0,1 1,0-1,-1 0,1 1,1-2,-1 1,0 0,0-1,0 0,-1 0,1 0,0 0,0 0,1-1,-1 0,0 0,-1 0,1 0,6-3,20-7,-1-3,0 1,-1-2,26-19,101-81,-115 85,-33 24,1 0,-2 0,2 0,-2-1,0-1,0 1,-1 0,0-1,-1 0,9-16,-12 20,0 1,0-1,-1 1,0-1,1 1,-1 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 1,-1-1,1 2,-1-1,1 0,-1 0,0 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,0-1,0 1,0 0,-5-2,-90-43,56 29,27 12,2 1,-2 0,1 1,0 0,-2 1,2 1,-31-2,22 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9113.99">5585 720,'-1'-1,"1"0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 0,-2 0,1 0,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,-2 1,-2-1,-2 1,2 0,0 0,-1 0,1 1,-8 3,0 1,1 2,0 1,0 1,1-2,0 3,1-1,0 0,-15 23,-4 10,-25 51,37-64,2 1,1 0,2 1,1 1,1 0,3 0,1 0,-2 40,8-68,0 1,0-1,1-1,-1 2,1-1,1 0,-1 0,1 0,-1 0,2-1,-1 1,0 0,1-1,0 1,1-1,-1 0,1 0,0 0,-1-1,1 1,1-1,3 3,6 2,-1-2,1 0,0-1,-1 1,2-2,29 6,-3-1,-26-4,0-2,1 0,18 2,-30-5,0 0,0 0,-1 0,1 0,0-1,0 0,-1 1,2-1,-2-1,1 1,-1 0,1-1,-1 0,0 0,1 0,-1 1,6-6,9-14,1-1,-2 0,26-47,8-8,-40 61,-1 1,0-2,-1 1,-1-1,-1 0,7-24,-11 30,-1-1,0 2,-1-2,0 0,-1 2,-1-2,0 0,0 2,-1-2,0 0,-6-14,2 13,1-3,-1-2,-2 2,1 0,-15-20,19 32,0 0,-1 0,1 0,-1 0,-1 0,1 1,-1 0,1-1,-1 1,0 2,1-2,-1 1,-1 0,1 0,-1 0,1 1,0 0,-12-2,-87 5,70-1,11 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20031,7 +20780,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:26.049"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:22:02.158"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20040,8 +20789,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">474 1508,'53'1,"0"-3,1-2,-1-2,0-3,62-18,606-193,-695 210,-2-1,1-1,-1-2,-1 0,0-1,-1-1,23-23,45-31,-69 56</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2647">2273 0,'-6'2,"1"-1,-1 1,1 0,0 0,-1 0,1 1,0-1,1 1,-1 1,0-1,1 1,0-1,-8 10,-2 0,-100 89,-192 222,195-201,-154 132,3-47,165-137,-131 126,156-124,-4-3,-103 75,-25 10,-40 57,221-193</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">281 186,'-4'198,"8"215,-3-399,0-1,1 2,1-2,0 1,8 18,-8-26,-1 0,2 0,-1 0,2 0,-1-1,0 0,0 0,2 1,-1-2,0 0,2 1,-2-1,11 5,10 6,3-3,46 18,-61-26,1-1,-2 1,2-1,0-1,0 0,0-1,25-2,-37 1,-1-1,1 1,-1-1,2 0,-2 0,0 0,1 0,-1 0,0-1,0 1,0-1,1 1,-1 0,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,0 0,0 0,-1-1,1 1,0-4,2-10,-1 1,0-2,-2-23,2 2,2 18,-1 0,2 0,0 0,3 0,13-27,-7 12,-3 2,0-3,7-52,-9 42,18-54,23-80,-50 179,0 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 1,1-1,-1 2,0 0,0 1,0 0,-1-1,1 1,1-1,-2 1,1 0,-1 0,0-1,1 0,-1 1,0 0,0 1,14 271,-6-87,-1-85,29 745,-35-693,-3 108,0-252,1-1,-2-1,1 2,-1-2,-2 1,1 0,0-1,-1 0,-1 0,1 0,-1-1,-1 0,1 0,-1 0,-1 0,1-1,-2 0,2 0,-2-1,-15 7,-2 0,-2 1,-1-3,1 1,-1-3,-52 11,47-15,1 0,-1-1,1-2,-1-1,-34-4,48 2,1-2,-1 1,1-1,0-2,0 0,1 0,0-2,1 0,-31-19,41 22,-17-10,1-3,-31-28,46 39,2 0,0-2,-1 2,2-2,0 1,-1-1,2 0,1 0,0 0,-5-15,6 8,0-1,0 0,2-1,1 1,3-27,3 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1184">1261 10,'0'0,"0"-1,0 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,1 0,-1-1,0 1,0 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,2 0,-2 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 1,25 12,-15 0,-1 0,0 1,0-1,-2 1,-1 1,1 0,-2 0,7 22,-2-4,-1-8,68 198,-69-190,-2 2,0-2,-3 1,-2 62,-11-26,3-50</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20059,7 +20808,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:24:57.990"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:22:08.344"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20068,9 +20817,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3123 0,'0'4589,"-33"-4050,14-331,-29 205,-8 115,-17 286,51-587,16-195</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1109">1 5874,'1464'-1,"1464"3,-1088 135,221-3,-406-137,-522-2,-1016 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39636.53">5451 6271,'-3'113,"6"120,-2-229,0 1,0-1,0 0,0 0,0 0,1 0,0 0,0-1,0 1,0 0,0-1,1 0,0 1,0-1,0 0,0 0,0-1,0 1,1-1,4 3,7 3,1 0,0-2,29 9,-27-10,25 7,1-2,0-1,79 3,137-12,-116-3,-113 2,0-2,-1-2,52-14,-22 5,-57 13,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1 0,6 4,-6-2,1 0,-1 0,0 1,-1 0,1-1,-1 1,1 0,-2 0,1 0,0 1,-1-1,0 0,0 1,0 6,3 84,-9 129,2-164,9-95,0-1,2 1,2 0,1 1,21-45,-21 53,-9 18,1 0,1 0,-1 1,1-1,0 1,0 0,1 0,-1 0,1 1,1 0,-1 0,1 0,0 0,0 1,0 0,8-3,-7 4,0 1,1 0,-1 1,1-1,-1 1,1 1,-1-1,1 2,0-1,-1 1,1 0,-1 0,1 1,-1 0,13 5,-1 0,1 0,-1-1,2-1,-1-1,38 2,-48-6,0 0,1-1,-1-1,0 0,0 0,0-1,0 0,-1 0,1-1,-1-1,0 0,0 0,15-11,-14 8,1 0,-1 0,0-1,-1-1,0 0,0 0,-1-1,0 1,-1-2,-1 1,1-1,-2 0,0 0,0-1,-1 0,-1 0,0 0,-1 0,2-16,-5 4,2-1,1 1,8-42,0-17,-10 68,2 0,0 0,0 0,9-26,0 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">44 0,'-2'369,"4"401,11-437,1 107,-14 449,-3-862,-1-1,0 1,-2-1,-16 41,4-5,14-52,2-3,0 0,0 0,1 0,-1 0,2 0,-1 0,2 11,-1-16,1 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1-1,2 1,-1 0,-1 0,1-1,0 1,0-2,0 2,0-1,0 0,0 0,0 0,0 0,1 0,0 0,-1-1,1 1,-1-1,3 1,22 3,-1-1,1-2,37-1,-30 0,59 5,-39 0,70 1,679-5,12-63,-766 53,-1-3,90-30,-21 4,914-208,-787 216,16-3,-22-3,359-11,246 42,-465 7,-255-4,-60-1,0 3,1 2,77 12,-69 2,78 31,-84-26,57 16,2-5,253 33,-163-40,446 29,-288-42,18-1,1310-12,-1691 2,1-1,-1-1,0 0,1 0,-1-1,0 0,1 0,-2-1,2 0,7-6,-10 5,-1-1,-1 1,0-1,0-1,0 0,0 1,-1-1,-1 0,1-1,0 1,-1-1,-1 0,4-7,20-52,-2 0,19-78,13-139,0 6,-19 129,-1 13,17-144,-27 127,-16 104,-2-1,-2 0,-3 0,-4-88,-2 129,-1-1,0 0,0 1,-2-1,1 1,0 0,-1 0,0 0,-2 1,1 0,0-1,0 2,-2 0,-14-12,-13-6,0 1,-39-18,70 39,-60-28,-3 3,0 2,-2 4,-85-17,103 28,-1 4,-70-3,-22-3,-274-54,-199-21,292 80,79 5,-356-44,-259-6,-2712 55,2392-3,1005-8,-313-53,382 45,-25-3,-187-5,189 16,-135-23,151 15,-224-5,4 22,302-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20088,7 +20835,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:43.115"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:22:22.630"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20097,7 +20844,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3074,'4'-1,"-1"-1,1 1,0-1,-1 0,1 0,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,2-6,8-7,37-51,59-69,-56 73,-37 43,0 1,1 0,1 2,30-25,218-139,-239 164,36-30,-46 33,2 0,-1 2,2 0,34-17,-12 10,58-38,-60 33,52-24,-34 21,-2-3,-2-3,-1-1,-1-3,68-65,-70 63,103-65,-1 2,-47 29,-58 42,59-51,84-71,-148 121,85-51,20-13,6-15,-81 62,106-95,-37 29,-97 83,-2-2,63-65,121-183,-109 129,-63 97,-38 41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">211 0,'1'461,"-3"497,-25-422,23-504,-1-1,-12 33,9-33,-10 64,15 289,3-57,-4-276,-3 0,-2 0,-2-1,-4 0,-23 56,26-74,2-2,2 2,-6 37,14-66,0-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,2-1,-1 1,-1 0,1-2,0 2,0-1,0 1,0-1,0 0,0 0,0 0,0 0,6 1,8 4,1-1,35 5,-35-7,78 13,-53-10,0 2,-2 0,41 15,-47-13,0-2,0-1,1-2,-1-1,1-2,69-3,-49 1,908-22,-168-12,-637 23,207-41,-159 19,427-25,-38 11,-53 1,631 38,-663 12,-149-6,390 4,-83 48,-344-20,-45-5,456 23,49-51,226 5,-930 3,84 16,-93-9,123 2,336-16,-524 3,0-1,0 0,1 0,-1-1,0 1,0-1,1-1,-1 2,0-2,0 0,0 0,0-1,-1 0,0 0,0 0,1 0,-1 0,0-1,-1 0,1 0,-1-1,1 1,-2 0,1-1,-1 0,0-1,0 1,2-6,8-14,-2-2,14-54,1 2,108-336,-113 323,-4 0,7-156,-24-440,-4 275,5 321,-5 1,-5-1,-3 1,-40-139,39 190</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20144,7 +20891,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:46.863"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:23:04.535"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20153,7 +20900,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'130'122,"51"53,-173-167,-1 0,0 1,0 0,0 0,-2 1,1 0,-1 0,4 13,-7-19,-1 0,-1 1,1-1,-1 0,0 1,0-1,0 0,0 1,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,1-1,-1 1,0-1,-4 5,-34 29,39-34,-1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 0,-8 1,10-3,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0 0,0-3,-2-46,2 42,-2-17,1 20,0 0,1-1,-1 1,1 0,0-1,1 1,-1 0,1 0,0-1,3-6,-4 12,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,0 0,0-1,0 1,0-1,1 2,-2-1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,-1 1,0 0,-18 7,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 688,'0'-1,"0"1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1 0,2 0,31-4,-31 4,41 1,0 2,67 13,16 1,181-8,-252-12,0-2,1-3,76-21,-90 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="960.99">715 0,'0'3,"0"-1,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1-1,-1 1,1-1,2 2,39 25,-21-14,35 25,3-2,70 31,12 6,-137-71,-1 1,0-1,1 1,-1 0,0-1,-1 2,1-1,-1 0,0 1,0 0,0-1,-1 1,1 0,-1 1,0-1,-1 0,1 0,-1 1,0 6,2 11,-2 1,-1-1,-3 30,0-17,2-27,0 0,0 0,-2 1,1-1,-1-1,0 1,-1 0,0-1,0 0,-7 9,-8 10,-36 38,-1 3,-64 81,82-106</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20171,7 +20919,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:52.504"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:23:06.653"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20180,7 +20928,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">95 216,'-1'-1,"1"0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-3 0,4 0,-1-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,1-1,0 2,2 3,0 0,1-1,-1 0,1 0,0 0,1 0,-1 0,1-1,-1 0,11 5,54 25,-68-33,3 2,-1-1,0 1,1-1,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0-1,-1 1,1-1,0 1,-1-1,1 0,0-1,5-2,-6 1,0 1,0-2,0 1,0 0,-1 0,0-1,1 1,-1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1-5,3-8,-1 0,-1 0,-1 0,0 0,-1 0,-1 0,-7-29,8 43,0 1,0-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 1,1-1,-1 0,0 1,0 0,1-1,-1 1,0 0,0 1,0-1,-5 1,3 0,0 1,-1-1,1 1,0 0,0 0,0 0,0 1,0-1,1 1,-1 0,1 1,-1-1,1 1,-6 7,4 0,1 0,0 1,0 0,1 0,1 0,0 0,0 0,2 1,-1 0,2-1,-1 1,2-1,0 1,0 0,1-1,6 20,-6-28,0 0,0 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,0 0,-1-1,1 0,0 0,0 0,0 0,0-1,7 2,-8-1,0-1,1 0,-1-1,1 1,-1 0,1-1,0 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,3-3,-4 3,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,0 0,0 1,-1-1,1 0,0 1,-2-5,-24-58,10 27,11 23,0-2,0 0,-2 1,0-1,-15-24,19 37,0 0,0 0,0 0,-1 0,1 1,-1 0,0-1,0 2,0-1,0 0,-1 1,1-1,-1 1,0 1,1-1,-1 1,0-1,0 1,0 1,0-1,-7 1,10 0,-1 0,0 1,1 0,-1 0,1-1,0 1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,-1 4,-2 10,1 1,0 0,2 20,0-33,-1 3,1 3,0 0,0 0,1-1,1 1,-1 0,5 13,-5-21,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,1-1,-1 1,5 0,13 1,0 0,1-1,-1-1,0-1,0-1,39-8,-60 10,1 0,0 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 1,0-1,0-1,-8-24,-26-25,29 45,-5-8,0 0,-1 1,-1 1,0 0,-17-14,25 23,-1 0,0 0,0 1,-1-1,1 1,0 1,-1-1,1 1,-1-1,1 2,-1-1,0 0,1 1,-1 0,0 1,1-1,-1 1,1 0,-1 1,-5 1,8-2,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1-1,-3 5,5-5,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,2 0,19 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 503,'0'5,"4"1,6 4,11 5,10 0,10 2,1-2,3-4,-1-3,-5-3,-3-3,-9 3,-3 5,-3 1,1 3,1-1,0-2,-3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1122.99">477 0,'15'13,"0"-2,1 0,1 0,0-2,35 15,-35-18,-1 2,0 0,0 0,-1 2,0 0,-1 0,15 15,-24-19,-1 0,0 0,-1 0,1 1,-1 0,0-1,-1 1,1 0,-2 0,1 1,-1-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 0,-3 9,-4 11,-2-1,0-1,-2 0,-23 37,-92 114,34-48,75-100</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20198,7 +20947,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:59.184"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:24:04.719"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20207,7 +20956,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2040,'131'1,"151"-2,-208-7,1-4,-2-2,108-37,-50 14,307-67,-423 101,322-93,-186 50,73-27,57-16,-60 33,-173 46,71-6,6 0,-97 11,276-59,-194 34,74-16,-177 45,1 0,0-1,-1 0,1-1,7-3,-13 5,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,-1-1,1 1,0 0,-1-1,1-3,0-4,-1-1,-1 0,1 1,-2-1,0 0,-4-15,-27-73,-2-7,33 98,1-1,-1 1,1 0,1-1,0 1,0-1,1 1,-1 0,2-1,-1 1,1 0,1 0,0 0,0 0,0 0,1 1,9-14,-5 10,1 1,0 1,1-1,0 1,1 1,0 0,0 1,0 0,1 0,17-6,29-10,2 2,109-22,128-2,-256 38,-1-2,67-24,17-4,57-4,222-22,-63 8,-29 4,95 15,-242 9,-31 4,310-6,-405 28,16-4,0-3,93-25,10-2,40 13,-147 20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">958 869,'-1'327,"2"319,0-626,-1 26,13 87,-11-121,1 0,0-1,2 1,-1-1,0 1,2-2,-1 2,1-2,2 0,-1 1,1-2,12 12,-18-19,0 1,1-1,-1 0,1-1,-1 1,1 0,1-1,-1 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,1-1,0 0,-1 0,0 0,4 0,-2-2,0 1,1-1,-2 0,1 0,0 0,0-1,-1 1,1-1,0 0,-1 0,4-5,9-8,-1-2,-1 0,-1 0,16-29,17-33,-6-1,59-163,18-194,-78 254,29-155,-61 312,-5 37,-1 50,-2-57,0 406,-86 621,-8-401,-40 238,112-763,-40 111,27-100,33-109,0 1,0 0,-1-1,0 0,-1 0,-1 0,2 0,-2 0,1-1,-1 0,0 0,0 0,-1 0,0-1,0 0,1 0,-3 0,2-1,0 0,-1 0,1-1,-2 0,1 0,0 0,0 0,-1-1,1 0,0-1,-11 0,0 0,-2-1,1-1,0-1,0 0,0-1,1-1,0-1,0 0,0-1,-28-16,-35-26,1-3,3-2,3-5,2-2,4-3,3-2,3-4,3-2,-97-155,144 206,0 0,2 0,1-1,-10-33,17 47,1 1,0 0,1-1,-1 0,1 1,1 0,-1-1,1 1,1-1,-1 1,2-1,-1 2,1-2,1 1,-1 1,1-1,4-7,23-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="893.99">2218 132,'5'7,"1"-1,-1 1,0 0,-1 0,1 0,-1 1,-1 0,3 9,0-5,27 76,-4 1,-3 2,-5-1,-4 2,-5 1,-1 140,-11-228,1 0,-1 0,0 0,0-2,-1 2,0 0,1 0,-2 0,1-1,0 0,-1 1,0-1,0 1,0-1,-1-1,1 1,-1 0,0 0,-1 0,0-1,1 1,-1-2,0 1,0 0,0 0,-1 0,1-1,-7 3,-37 18,-48 32,47-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3047">2985 1811,'9'5,"8"0,19 0,37-9,10-4,5-6,-3 1,-6-3,-9 3,-10 1,-11 6,-5 1,-4 3,-6-8,-3-1,-2 1,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3613">2738 2345,'5'0,"5"0,12 0,15 0,10 0,3 0,6 0,-1 5,-1 1,-6-1,0 0,-4-2,-1-2,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4808">3861 3592,'1'-30,"2"0,11-47,1 0,12-108,60-353,-41 285,-24 113,66-212,-3 129,10 3,136-222,-111 218,-35 61,157-224,-135 259,-92 112,1 0,2 2,-1 0,2 0,25-14,-39 25,2 0,-1 1,-1 0,1 0,0 0,1 0,-1 1,0 0,0 0,1 0,-1 1,7 0,-10 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0 0,1 0,-2 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,-1 0,1 0,0 1,-1-1,1 1,-1-1,0 5,4 58,-7 98,0-57,3-76</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5467.99">3970 1531,'20'2,"0"0,-1 1,1 1,36 11,-33-8,2-1,37 5,250 24,-166-19,-113-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6381">6408 463,'-2'1,"-1"-1,1 0,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,-1-1,1 1,-2-1,2 1,0 0,0 0,0 0,-2 2,-3 6,-170 231,-261 488,376-606,-78 231,115-273,5 2,2-1,6 1,-3 93,13-117,-1 31,15 130,-10-200,2-1,0 0,1-1,2 1,-1-1,20 31,78 94,-21-33,-75-98,0 0,0-1,22 20,-12-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7343.99">6244 2040,'-4'-6,"1"0,0-1,-1 1,1 0,1-1,0 0,1 1,0-2,0 1,0 1,1-1,1-13,-2 0,-1-12,2-2,6-44,-5 66,2-1,0 1,1-1,0 1,0 0,1 0,1 0,0 0,10-11,-15 21,0 1,0-1,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1 0,0 0,0 0,1-1,0 1,-1 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,3 2,7 6,0 0,-2 2,0-2,1 3,7 12,-4-7,41 57,-2 3,-6 1,43 96,-34-55,152 311,-188-397,-4-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7909">7449 1200,'-2'1,"1"-1,0 0,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-2 2,-6 4,-383 406,-197 182,138-171,423-397</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20225,7 +20982,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:03.738"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:24:17.488"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20234,7 +20991,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'44,"2"0,2 0,19 78,-20-112,0-1,1 1,1-1,0 0,0 0,0-1,1 0,1 0,-1 0,1-1,0 0,1 0,0 0,0-1,0-1,1 1,11 4,17 7,1-2,0-1,42 9,-13-4,-22-7,-1-1,2-2,-1-3,1-1,64-2,339-5,-444 2,-1-1,1 1,0 0,-1 1,1-1,0 1,-1 0,1 0,0 0,-1 0,0 1,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 1,0 0,0-1,0 1,-1 0,1 0,-1 1,0-1,-1 0,1 1,1 7,3 16,-2 0,-1 0,-1 0,-4 56,0-62,1 0,1 1,1-1,1 1,1-1,0 0,2 0,11 30,-16-51,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,1 0,-1-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0-2,10-60,-9-43,-3 65,7-60,-5 91,1 0,1 0,-1 0,2 1,-1-1,1 1,1 0,0 0,0 0,9-11,-11 18,0 0,-1 1,1-1,0 1,0-1,1 1,-1 0,0 0,1 0,0 1,-1-1,1 1,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 1,0-1,0 1,6 2,11 3,-1 2,1 0,30 18,5 1,-40-22,0 0,0-1,0-1,1-1,-1 0,1-1,0-1,21-3,17-4,59-15,-84 15,-14 4,29-7,55-19,-89 25,0 0,0-1,-1 0,0 0,0-1,0-1,0 0,-1 0,-1-1,14-13,-19 15,1 0,-1 0,0 0,-1 0,0 0,1 0,-2-1,1 1,-1-1,0 0,-1 1,1-9,-2-15,-6-43,1 21,4 19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">460 2037,'-5'0,"-7"14,-14 12,-4 10,-6 4,3-1,-2-6,4-1,0-1,-2-3,-4 0,0-6,-3-6,0-2,6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1720.99">1409 942,'-16'224,"7"-152,4-1,7 102,-2-167,1 0,0-1,0 0,0 1,2 0,-1-1,0 0,0 0,0 1,1-1,0 0,2-1,-2 1,1-1,7 8,-2-6,1 0,0 0,0 0,0-2,1 1,0-1,16 4,-2 0,-10-3,0 0,-1-1,1 0,19 1,-29-5,-1 1,2-1,-1-1,0 1,0-1,0 0,0 0,0 0,-1-1,2 1,-2-1,0 0,1-1,0 1,-1-1,0 0,3-2,19-19,-2-1,-1-1,-1-1,34-56,-17 24,-26 41,22-30,-2-1,-3-1,34-79,-57 103,-7 22,0 0,1 0,-1 0,1 1,0 0,0-1,1 1,-1-1,1 1,0-1,1 1,-1 0,4-4,-6 7,0 0,0 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 0,2 0,-2 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 1,1 0,8 20,17 69,17 126,-22-103,-3-14,-4 2,-6 0,-4-1,-12 121,7-214,0-1,0 0,-1 0,1 0,-3 0,2 0,-1 0,0-1,0 1,0-1,-2 0,1 0,-8 9,3-7,1 0,-1-1,0 1,-1-3,1 2,-2-1,-17 6,1-3,1-1,0-1,-1-1,0-2,-1 0,-31-2,43-1,-30 0,-79-8,93 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2764.99">2526 0,'11'1,"0"1,0 0,0 0,0 1,0 0,-1-1,1 2,-1 1,0 0,-1 0,14 9,7 6,-2 2,30 28,-17-11,-2 2,-3 3,-2 0,-2 2,-1 1,-4 1,41 99,-37-60,-3 1,-5 1,19 176,-25-2,-24 285,4-520,-1 0,-1 0,-2-1,-1 1,-1-2,-2 1,0-1,-3-1,-22 34,-19 17,-101 107,142-168,-124 131,114-120</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20252,7 +21011,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:07.485"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:24:39.159"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20261,7 +21020,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">161 168,'-5'0,"-1"0,1 0,0 1,0-1,0 1,0 0,0 1,1-1,-1 1,0 0,-4 2,6-1,0-1,0 0,1 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 1,0-1,1 0,0 1,0-1,0 1,-1 4,-5 30,2 0,2 1,1-1,2 1,8 62,-8-97,0 0,1 0,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,6 2,-9-4,1-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,0 0,0 0,1 0,7-39,-8 36,36-313,-30 283,-2 16,0 0,-2 0,0 0,-2 0,0 0,-2-22,1 37,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,-4 1,2-1,1 1,-1-1,1 1,0 0,-1 0,1 1,0-1,0 0,0 1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,0 0,0 0,-3 5,-9 19,2 1,-12 40,22-60,0-1,0 1,1-1,-1 1,2 0,-1 0,1 0,0 0,1-1,0 1,0 0,0 0,1-1,6 14,-6-17,1-1,0 0,-1 0,2 0,-1 0,0-1,0 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,5 1,75 11,-64-11,-15-2,-1 1,1-1,-1 1,1-1,-1 0,1-1,-1 1,0-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,4-3,-5 2,0 0,-1 0,1-1,-1 1,0 0,0-1,0 1,0-1,-1 0,1 0,-1 0,0 1,0-1,0 0,-1 0,0 0,0-1,0-3,1-2,-2-1,1 1,-1 0,-1-1,0 1,0 0,-1 0,0 0,-1 1,0-1,-9-15,10 22,1-1,-1 1,0 0,0-1,0 1,0 1,-1-1,1 0,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,-1 0,1 1,0-1,-1 1,1 0,0 1,0-1,-1 1,1 0,0 0,0 0,-7 3,5-1,1 0,-1 0,1 1,0 0,0 0,0 0,0 0,0 1,1 0,0 0,0 0,1 0,-1 1,1 0,0-1,1 1,-4 9,2-4,1 1,-1-1,2 1,-1 0,2 0,0 0,0 0,2 17,-1-25,1 1,1-1,-1 0,0 1,1-1,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 1,0-1,1 0,-1 0,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,1-1,-1 0,0 1,1-1,-1-1,1 1,7 0,-7-1,1 0,-1 1,0-2,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0-1,0 1,0-1,0 0,-1 0,0 0,0 0,0-1,3-5,-2 1,0-1,0 1,-1-1,-1 0,1 0,-2-1,1 1,-1-20,-2 26,1 0,-1 0,-1 0,1 0,0-1,-1 2,0-1,0 0,0 0,-1 1,1-1,-1 1,0-1,1 1,-2 0,1 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,-7-2,-23-8,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 107,'29'0,"203"-5,-182 1,0-2,78-20,-69 9,0 2,1 3,1 2,85-2,-124 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1191.99">81 716,'87'-2,"1"-5,-1-4,107-26,-124 26,0 2,0 4,108 6,-122-1,-18 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20279,7 +21039,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:13.661"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:04.813"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20288,8 +21048,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'0,"7"0,18 14,6 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1889.99">557 397,'-25'2,"1"1,0 2,-31 8,33-7,13-5,1 2,-1-1,0 1,1 0,0 1,0 0,0 0,0 1,-12 9,19-13,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,2 2,23 18,-21-17,24 15,1-1,0-1,51 18,-60-26,0-2,1 0,0-1,0-1,0-1,39 0,-58-3,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 1,1-1,-1 0,0-1,0 1,0 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,-1 1,1-3,0-13,-1 0,-1 0,-5-26,4 31,2 7,0-1,0 1,-1 0,0 0,0 0,0 1,-1-1,0 0,0 1,-1 0,0-1,1 2,-2-1,1 0,0 1,-9-7,6 7,0 0,-1 1,1-1,-1 1,1 1,-1 0,0 0,0 0,0 1,0 0,-1 1,-9 0,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 132,'190'113,"-150"-89,-27-15,1 0,0-1,0-1,1 0,0-1,0 0,16 3,-30-9,1 0,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,3 0,-4 0,0 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,-1 0,1-1,-2-2,0 0,0 0,-1 0,1 1,0-1,-1 1,0-1,0 1,1 0,-6-2,-235-106,234 106,-1 1,0 0,0 0,0 1,0 0,0 1,0 0,-15 1,73 33,-31-26,1-1,0-1,24 5,31 9,-73-19,14 5,1-1,-1 0,16 1,-27-4,0-1,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1-1,0 0,3-1,-5 1,0 1,0-1,-1 0,1 1,0-1,0 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,0-2,0-1,-1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,-1 1,1 0,0-1,-1 1,1 0,-1 1,0-1,-6-2,-64-31,65 32,1 1,-1 0,0 1,0 0,0 0,0 1,-16-1,22 2,0 0,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0 1,1-1,-1 0,1 1,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,0 1,-1 4,-5 21,2 0,1 0,1 1,2-1,1 1,1 0,5 32,-6-58,0-1,0 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,4 3,-5-4,1 0,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,2-1,9-4,-1-1,0 0,0-1,0 0,13-11,-18 13,33-24,-1-1,-2-2,0-1,55-68,-90 99,0 0,0-1,0 0,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0 0,-1 0,1-1,-1 1,0 0,0 0,-2-6,-1 4,0 0,0 0,0 1,-1-1,1 1,-1 0,0 1,0-1,-1 1,1 0,-1 0,-7-3,0 0,-2-1,0 1,0 0,0 1,-28-5,40 9,-1 1,0-1,1 1,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1-1,1 2,0-1,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,-4 6,-6 13,0 0,2 1,0 1,2 0,1 0,0 0,2 1,1 0,1 0,1 50,3-70,-1 1,2-1,-1 0,1 1,0-1,0 0,0 0,1 0,0-1,0 1,0 0,0-1,1 0,-1 0,6 4,-7-6,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,3-4,-2 1,1 0,-1-1,1 1,-1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 1,-1-1,1-6,0-16,-4-51,1 44,2 24,-1 0,0 0,0 0,-7-20,8 28,-1 1,0-1,-1 1,1 0,0-1,0 1,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,1 0,0 0,-1 1,0-1,1 1,-4-1,6 1,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,-1 1,13 16,23 14,53 14,-81-42,0 0,-1 0,1-1,0 0,0-1,0 0,0 0,1 0,-1-1,0 0,11-1,-16 0,0 1,0-1,0 0,0 1,0-1,0 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-2 0,1 0,0-1,0 1,-1 0,1 0,-1 0,0-2,-1-2,0-1,0 1,0 0,-1 0,0 0,0 0,-1 1,0-1,0 1,0 0,-6-6,0 3,-1 0,0 1,-1 0,1 0,-1 1,-1 1,-17-6,4 5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20307,7 +21066,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:18.693"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:12.461"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20316,8 +21075,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2673,'11'1,"0"-1,0 0,0-1,0-1,0 1,-1-2,1 1,0-2,-1 1,0-1,0-1,0 0,0-1,14-10,122-110,90-70,353-184,41 40,-410 234,303-101,254-22,-437 148,1729-282,-1917 339,-31 4,232-10,85 41,-405-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1000">6431 1,'73'0,"0"2,139 24,-173-18,-2 2,1 2,-2 1,0 2,0 2,-1 1,39 28,-56-35,1-2,27 12,-28-14,0 1,-1 1,21 13,-35-19,0 0,1 0,-1 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,-1 1,0-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,-1-1,-2 6,-6 14,-1-1,-1 0,-1-1,-16 22,12-19,-104 144,-202 218,229-281,45-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">223 153,'-9'-7,"1"0,-1 0,0 1,0 0,-1 0,0 1,0 1,0-1,0 2,-1-1,0 2,-13-3,24 5,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,8 10,20 5,-18-12,0 0,0 0,1-1,-1-1,0 0,1-1,-1 1,1-2,-1 0,18-3,-27 4,0 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 1,0-1,0 0,0-1,0 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,-3-2,-54-31,52 31,-21-12,18 9,0 1,-1 0,0 1,-15-5,22 8,-1 0,0 0,-1 1,1 0,0 0,0 0,0 0,0 1,0 0,0-1,0 2,1-1,-1 0,0 1,-6 3,-7 5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20335,7 +21093,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:23.837"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:16.069"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20344,8 +21102,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4450 0,'-254'228,"-102"103,204-155,-49 53,-38 27,-127 119,164-183,-44 38,193-185,-1-3,-2-2,-2-2,-117 56,-174 90,215-107,-18 12,130-77</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="851">1566 1826,'-3'0,"0"1,-1-1,1 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,1 1,-1-1,-3 3,0-1,-390 237,10 29,272-188,80-57,-485 359,517-382,-7 6,1-1,0 2,0-1,0 1,-9 13,16-20,1 1,-1-1,0 1,0-1,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,0-1,1 1,-1 0,0-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,3 0,45 24,2-3,73 22,118 22,-141-41,-2 1,2-4,0-5,1-4,178-1,-272-12,7-1,1 1,-1 0,0 1,0 0,20 6,-1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1232,'1'0,"1"-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,2-4,21-29,-16 22,27-35,-18 26,-1-1,-1 0,20-42,-12 22,1 0,3 2,1 1,54-58,-70 84,1 1,0 0,1 1,1 1,-1 0,2 1,17-8,121-44,-92 39,473-200,-500 206,12-4,128-63,-146 64,-2-1,0-1,41-42,14-12,-64 61</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20363,7 +21120,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:27:01.132"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:26.049"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20372,10 +21129,37 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2355,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="505">742 1429</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="943">1721 662</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1414">2991 0,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">474 1508,'53'1,"0"-3,1-2,-1-2,0-3,62-18,606-193,-695 210,-2-1,1-1,-1-2,-1 0,0-1,-1-1,23-23,45-31,-69 56</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2647">2273 0,'-6'2,"1"-1,-1 1,1 0,0 0,-1 0,1 1,0-1,1 1,-1 1,0-1,1 1,0-1,-8 10,-2 0,-100 89,-192 222,195-201,-154 132,3-47,165-137,-131 126,156-124,-4-3,-103 75,-25 10,-40 57,221-193</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink239.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:24:57.990"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3241 0,'0'4404,"-34"-3886,15-319,-31 198,-8 109,-18 275,53-563,17-187</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1109">1 5637,'1520'0,"1519"1,-1129 131,229-3,-421-132,-542-2,-1055 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39636.53">5658 6018,'-3'109,"6"115,-2-221,0 2,0-1,0 0,0 0,0 0,1-1,0 1,0-1,0 1,0 0,1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,5 3,6 2,2 1,0-2,29 8,-27-9,26 6,0-1,1-1,82 2,141-11,-119-3,-118 2,0-2,-1-1,55-15,-24 6,-59 12,1 0,0 0,-1 1,1-1,1 1,-1 0,0 0,-1 0,1 0,0 1,0-1,1 1,-2 0,1 0,-1 1,1-1,-1 1,1 0,0 0,5 3,-6-1,1 0,-1 0,0 1,-1-1,2 0,-2 1,1 0,-2 0,1-1,0 2,-1-1,0 0,0 1,0 5,3 81,-9 124,2-157,9-92,0-1,3 2,1-1,2 2,21-44,-22 51,-9 17,1 0,1 1,0 0,0-1,0 1,0 1,1-1,-1 0,2 1,0 0,-1 1,1-1,0 0,1 1,-1 0,8-2,-6 3,-1 1,1 0,0 1,0-1,-1 1,1 1,0-1,0 2,0-1,0 1,0 0,-1 0,1 1,0 0,12 5,0-1,1 1,-1-1,1-1,0-2,39 3,-49-6,-1 0,2-1,-2-1,0 0,1 0,-1 0,0-1,0 0,0-1,0-1,-1 0,0 1,16-12,-14 9,0-1,-1 0,1 0,-2-2,0 0,1 1,-2-2,0 2,0-3,-2 1,1 0,-2-1,0 1,1-2,-2 1,-1 0,0-1,-1 1,2-16,-5 4,2-1,1 1,9-41,-1-15,-10 65,2-1,0 1,0-1,10-24,-1 13</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20409,21 +21193,21 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:43:50.651"/>
+<file path=xl/ink/ink240.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:43.115"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -20432,6 +21216,282 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2948,'4'-1,"-1"-1,1 1,1-1,-2 0,1 0,-1 0,1 0,-1-1,1 0,-1 0,0 0,0 0,-1 0,1 1,-1-2,0 1,3-6,7-6,39-49,62-67,-58 71,-40 41,1 0,1 1,0 2,33-24,226-134,-248 158,36-29,-47 31,2 1,-1 1,2 1,35-17,-12 10,60-37,-62 32,54-23,-35 20,-3-3,-1-2,-2-2,-1-2,72-63,-74 60,108-61,-1 1,-50 28,-60 40,62-49,88-67,-156 115,90-49,21-12,6-14,-85 59,111-91,-39 27,-101 81,-2-3,66-62,126-175,-114 123,-66 93,-39 40</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink241.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:46.863"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'130'122,"51"53,-173-167,-1 0,0 1,0 0,0 0,-2 1,1 0,-1 0,4 13,-7-19,-1 0,-1 1,1-1,-1 0,0 1,0-1,0 0,0 1,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,1-1,-1 1,0-1,-4 5,-34 29,39-34,-1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 0,-8 1,10-3,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0 0,0-3,-2-46,2 42,-2-17,1 20,0 0,1-1,-1 1,1 0,0-1,1 1,-1 0,1 0,0-1,3-6,-4 12,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,0 0,0-1,0 1,0-1,1 2,-2-1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,-1 1,0 0,-18 7,-1-3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink242.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:52.504"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">95 216,'-1'-1,"1"0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-3 0,4 0,-1-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,1-1,0 2,2 3,0 0,1-1,-1 0,1 0,0 0,1 0,-1 0,1-1,-1 0,11 5,54 25,-68-33,3 2,-1-1,0 1,1-1,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0-1,-1 1,1-1,0 1,-1-1,1 0,0-1,5-2,-6 1,0 1,0-2,0 1,0 0,-1 0,0-1,1 1,-1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1-5,3-8,-1 0,-1 0,-1 0,0 0,-1 0,-1 0,-7-29,8 43,0 1,0-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 1,1-1,-1 0,0 1,0 0,1-1,-1 1,0 0,0 1,0-1,-5 1,3 0,0 1,-1-1,1 1,0 0,0 0,0 0,0 1,0-1,1 1,-1 0,1 1,-1-1,1 1,-6 7,4 0,1 0,0 1,0 0,1 0,1 0,0 0,0 0,2 1,-1 0,2-1,-1 1,2-1,0 1,0 0,1-1,6 20,-6-28,0 0,0 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,0 0,-1-1,1 0,0 0,0 0,0 0,0-1,7 2,-8-1,0-1,1 0,-1-1,1 1,-1 0,1-1,0 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,3-3,-4 3,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,0 0,0 1,-1-1,1 0,0 1,-2-5,-24-58,10 27,11 23,0-2,0 0,-2 1,0-1,-15-24,19 37,0 0,0 0,0 0,-1 0,1 1,-1 0,0-1,0 2,0-1,0 0,-1 1,1-1,-1 1,0 1,1-1,-1 1,0-1,0 1,0 1,0-1,-7 1,10 0,-1 0,0 1,1 0,-1 0,1-1,0 1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,-1 4,-2 10,1 1,0 0,2 20,0-33,-1 3,1 3,0 0,0 0,1-1,1 1,-1 0,5 13,-5-21,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,1-1,-1 1,5 0,13 1,0 0,1-1,-1-1,0-1,0-1,39-8,-60 10,1 0,0 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 1,0-1,0-1,-8-24,-26-25,29 45,-5-8,0 0,-1 1,-1 1,0 0,-17-14,25 23,-1 0,0 0,0 1,-1-1,1 1,0 1,-1-1,1 1,-1-1,1 2,-1-1,0 0,1 1,-1 0,0 1,1-1,-1 1,1 0,-1 1,-5 1,8-2,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1-1,-3 5,5-5,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,2 0,19 6</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink243.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:25:59.184"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1978,'137'1,"157"-2,-216-7,0-3,-2-3,113-35,-52 13,320-65,-441 98,336-90,-194 48,76-25,59-17,-62 33,-181 44,74-5,7-1,-102 11,288-57,-202 33,78-15,-186 43,1 0,1-1,-2 0,1-1,8-3,-14 5,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,-1-1,1 1,0 0,-1-1,1-3,0-3,-1-2,-1 0,1 2,-2-2,0 0,-4-14,-29-71,-1-7,34 96,1-2,-1 1,0 0,2 0,0 0,0-1,2 1,-2 1,2-2,-1 1,1 0,1 1,0-1,0 0,0 0,1 2,10-15,-6 11,2 0,-1 1,2-1,-1 2,2 0,-1 0,1 1,-1 1,2-1,17-6,30-9,3 2,114-22,133-2,-267 38,-2-3,71-23,18-4,59-4,231-21,-65 8,-30 3,99 15,-252 9,-34 4,325-6,-423 27,16-4,1-3,96-24,11-2,42 13,-154 19</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink244.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:03.738"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'42,"2"1,2-1,21 75,-22-107,0-2,2 2,0-2,0 1,1 0,-1-2,2 1,0 0,0-1,0 0,1 0,0 0,1-1,-1 0,1-1,0 1,13 3,17 8,2-3,0-1,45 10,-15-5,-23-7,0 0,1-3,-1-2,1-1,69-2,363-5,-476 2,0-1,0 1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1 0,-1 0,1-1,-1 2,0-1,1 1,-1 0,-1 0,1 0,0 0,-1 1,0-1,0 0,0 1,0 0,0 0,-1 1,0-2,-1 1,1 1,1 7,4 14,-3 1,-1 0,0 0,-6 54,1-60,1 0,1 1,1-1,1 1,2-1,-1 1,2-1,12 29,-17-49,0 0,0 0,0-1,0 1,1-1,-1 0,0 1,0 0,1-1,-1 1,0 0,2-1,-2 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,2 0,-2-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 2,0-2,-1 1,1-1,0-2,11-58,-10-40,-3 61,8-57,-6 88,1-1,1 1,-1-1,2 2,0-2,0 1,1 1,1-1,-1 1,10-12,-12 18,0 1,0 0,0-1,0 1,0-1,2 1,-2 0,0 0,1 0,1 1,-2-1,1 1,0 1,0-1,0 0,0 1,0-1,1 1,-1 0,0 0,-1 0,2 1,-1-1,0 1,7 1,11 4,0 2,0 0,33 17,5 0,-43-20,0 0,0-1,0-1,2-1,-2 0,1-1,0-1,23-3,18-4,63-14,-90 14,-15 4,31-6,59-19,-95 24,0 0,0-1,-2 1,1-1,0-1,0-1,-1 1,0-1,-1-1,14-12,-20 14,2 0,-2 1,0-1,-1 0,0 0,2 1,-3-2,1 1,-1-1,0 1,-1 0,1-8,-2-15,-7-41,2 20,4 18</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink245.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:07.485"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">161 168,'-5'0,"-1"0,1 0,0 1,0-1,0 1,0 0,0 1,1-1,-1 1,0 0,-4 2,6-1,0-1,0 0,1 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 1,0-1,1 0,0 1,0-1,0 1,-1 4,-5 30,2 0,2 1,1-1,2 1,8 62,-8-97,0 0,1 0,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,6 2,-9-4,1-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,0 0,0 0,1 0,7-39,-8 36,36-313,-30 283,-2 16,0 0,-2 0,0 0,-2 0,0 0,-2-22,1 37,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,-4 1,2-1,1 1,-1-1,1 1,0 0,-1 0,1 1,0-1,0 0,0 1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,0 0,0 0,-3 5,-9 19,2 1,-12 40,22-60,0-1,0 1,1-1,-1 1,2 0,-1 0,1 0,0 0,1-1,0 1,0 0,0 0,1-1,6 14,-6-17,1-1,0 0,-1 0,2 0,-1 0,0-1,0 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,5 1,75 11,-64-11,-15-2,-1 1,1-1,-1 1,1-1,-1 0,1-1,-1 1,0-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,4-3,-5 2,0 0,-1 0,1-1,-1 1,0 0,0-1,0 1,0-1,-1 0,1 0,-1 0,0 1,0-1,0 0,-1 0,0 0,0-1,0-3,1-2,-2-1,1 1,-1 0,-1-1,0 1,0 0,-1 0,0 0,-1 1,0-1,-9-15,10 22,1-1,-1 1,0 0,0-1,0 1,0 1,-1-1,1 0,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,-1 0,1 1,0-1,-1 1,1 0,0 1,0-1,-1 1,1 0,0 0,0 0,-7 3,5-1,1 0,-1 0,1 1,0 0,0 0,0 0,0 0,0 1,1 0,0 0,0 0,1 0,-1 1,1 0,0-1,1 1,-4 9,2-4,1 1,-1-1,2 1,-1 0,2 0,0 0,0 0,2 17,-1-25,1 1,1-1,-1 0,0 1,1-1,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 1,0-1,1 0,-1 0,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,1-1,-1 0,0 1,1-1,-1-1,1 1,7 0,-7-1,1 0,-1 1,0-2,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0-1,0 1,0-1,0 0,-1 0,0 0,0 0,0-1,3-5,-2 1,0-1,0 1,-1-1,-1 0,1 0,-2-1,1 1,-1-20,-2 26,1 0,-1 0,-1 0,1 0,0-1,-1 2,0-1,0 0,0 0,-1 1,1-1,-1 1,0-1,1 1,-2 0,1 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,-7-2,-23-8,4 4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink246.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:13.661"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'0,"7"0,18 14,6 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1889.99">557 397,'-25'2,"1"1,0 2,-31 8,33-7,13-5,1 2,-1-1,0 1,1 0,0 1,0 0,0 0,0 1,-12 9,19-13,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,2 2,23 18,-21-17,24 15,1-1,0-1,51 18,-60-26,0-2,1 0,0-1,0-1,0-1,39 0,-58-3,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 1,1-1,-1 0,0-1,0 1,0 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,-1 1,1-3,0-13,-1 0,-1 0,-5-26,4 31,2 7,0-1,0 1,-1 0,0 0,0 0,0 1,-1-1,0 0,0 1,-1 0,0-1,1 2,-2-1,1 0,0 1,-9-7,6 7,0 0,-1 1,1-1,-1 1,1 1,-1 0,0 0,0 0,0 1,0 0,-1 1,-9 0,-5 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink247.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:18.693"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2568,'12'1,"-1"-1,1 0,-1-1,1-1,-1 1,0-2,0 1,1-1,-2 0,0-1,1-1,-1 0,1-1,14-9,128-106,94-67,369-177,43 38,-429 225,317-97,266-21,-457 142,1809-270,-2006 325,-33 3,243-8,90 38,-425-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1000">6728 1,'77'0,"-1"2,146 23,-181-17,-3 1,2 3,-2 0,-1 3,1 1,-1 1,40 27,-58-33,1-2,28 11,-29-13,0 0,-2 2,23 12,-37-18,0 0,2 0,-2 0,0-1,0 2,0-1,-1 1,1 0,-1 0,0 0,1-1,-2 1,1 0,-1 1,0-1,0 0,0 0,0 0,-1 1,0-1,0 1,0-2,-1 2,1-1,-1 1,0-1,0 1,-1-2,-3 7,-5 13,-1-1,-2 0,-1-1,-16 22,12-19,-108 138,-212 210,239-270,48-48</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink248.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:26:23.837"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4619 0,'-264'219,"-105"99,211-149,-51 51,-39 26,-132 115,171-177,-47 37,201-178,-1-2,-2-3,-2-1,-122 53,-180 87,223-103,-19 11,135-73</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="851">1625 1755,'-3'0,"0"1,-1-1,1 0,0 1,1-1,-1 1,0-1,-1 1,1 0,0 0,1 1,-1-1,-3 3,0-1,-405 228,10 27,283-180,82-55,-502 345,535-367,-6 6,1-2,0 3,-1-1,1 1,-10 12,17-19,1 1,-1-1,0 1,0-2,1 2,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,0-1,1 1,-1 0,0-1,1 0,-1 0,1 1,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,2 0,-2 0,0 0,1 0,-1 0,1 0,-1-1,1 0,-1 1,3 0,47 23,2-2,76 20,122 21,-146-39,-3 1,3-4,0-4,1-5,185 0,-283-12,7-1,2 1,-1 0,-1 1,1 0,20 5,-1 5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink249.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-13T14:27:01.132"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2271,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="505">784 1378</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="943">1819 638</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1414">3161 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-12T21:43:50.651"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 85,'12'-1,"1"-1,0-1,-1-1,1 1,-1-2,17-8,3 0,0 3,0 1,1 2,0 1,0 2,39-1,168 12,-221-6,0 0,0 2,0 1,-1 0,35 13,-44-13,-1 0,0 0,0 1,0 0,-1 1,0-1,0 1,0 1,-1-1,0 1,0 0,-1 1,0 0,5 9,5 16,-1 0,-2 1,-2 0,-1 0,-1 1,4 51,-3 217,-10-258,1-29,-2 1,0-1,-1 1,-1-1,0 0,-1 0,-1 0,0-1,-1 0,-1 0,0-1,-1 0,0 0,-17 18,12-17,-1 0,-1-1,0-1,0-1,-1 0,-1-1,0 0,0-2,-1 0,0-1,-27 6,14-8,-1-2,1-2,-1-1,0-1,-43-7,68 6,3 1,1-1,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 1,1-1,0 0,-1 0,1 0,0-1,0 1,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-2-5,-3-13,1-1,1 1,-2-42,4 48,0-7,0-4,0-1,1 1,4-30,-2 50,0 0,1 0,-1 0,1 0,1 0,0 0,0 0,0 0,0 1,1 0,0 0,1 0,-1 0,1 0,0 1,7-6,23-12,0 1,1 1,45-17,-32 14,-10 9,1 1,0 2,1 2,51-6,-45 8,14-5,68-25,-109 31</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1977.02">1668 376,'-7'1,"1"0,0 0,0 0,0 1,0 0,0 0,1 1,-1-1,0 1,1 0,0 1,0-1,0 1,0 0,1 1,-1-1,-4 7,-8 10,1 1,-21 37,33-51,-10 18,1 2,1 0,1 0,2 1,1 1,1-1,1 1,2 0,-1 37,5-56,1 0,0 0,0 1,1-1,1 0,0-1,0 1,1 0,8 16,-9-22,0 0,0 0,0 0,0-1,1 0,0 1,0-1,0-1,0 1,1 0,-1-1,1 0,0 0,0-1,0 1,0-1,0 0,1 0,-1-1,11 2,-13-3,1 0,-1-1,0 1,1-1,-1 0,0 1,0-2,1 1,-1 0,0-1,0 1,-1-1,1 0,3-2,39-37,-29 25,16-15,-2-1,-1-2,-2-1,-1-1,-2-2,35-72,84-258,-67 155,-73 205,-1 1,1 0,1 1,-1-1,1 1,9-12,-12 17,-1 1,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,0 1,0-1,1 0,-1 0,0 1,9 36,-5 396,-9-236,4-83,-5-1,-5 1,-5-2,-39 147,27-160,16-47,-2-1,-3 0,-2-2,-34 64,29-71,-2-2,-2 0,-1-2,-56 57,77-89,0-1,-1 1,0-1,1-1,-2 0,1 0,0 0,-1-1,1-1,-1 0,0 0,0-1,-11 0,3 0,0-1,0-1,1-1,-1 0,0-1,-25-9,32 8,0-1,1-1,0 0,0 0,1-1,0 0,0 0,0-1,1 0,0-1,1 0,0 0,-9-16,8 12,1 0,0-1,1 0,1 0,0 0,1-1,0 0,1 0,-1-30,4 37,1 0,0 0,1 0,0 0,0 0,0 0,1 0,0 1,1-1,0 1,0 0,1 0,-1 0,1 1,1 0,-1 0,1 0,0 0,1 1,-1 0,1 1,0-1,0 1,0 1,1-1,7-1,9-3</inkml:trace>
 </inkml:ink>
@@ -20460,8 +21520,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1158 356,'-5'0,"-5"0,-6 0,-5-4,1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2259.42">1013 382,'-1'-17,"-1"0,0 1,-1-1,-1 0,0 1,-1 0,-14-29,2 11,-2 0,-30-40,45 67,-1 1,0 1,0-1,-1 1,0 0,1 0,-2 0,1 1,-1 0,1 0,-1 1,0 0,-13-4,9 4,0 1,-1 0,1 1,-1 0,1 1,-1 0,1 1,-17 3,3 2,1 0,0 2,0 1,1 1,0 1,0 1,-33 23,22-11,2 1,-46 46,68-61,0 1,1 1,0 0,1 0,1 0,0 1,0 0,1 0,1 1,-6 23,-6 38,5-27,3 1,1-1,0 53,9-15,3 0,5-1,3 0,41 150,-40-178,-2 0,4 100,3 16,66 448,-68-498,15 211,-30 138,-2-212,0-255,1 0,-1 1,1-1,-1 0,-1 0,1-1,-1 1,0 0,0 0,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,-1 0,0-1,0 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0 0,-8 1,-13 3,-1-1,1-1,-1-2,-35 0,56-2,-23 1,0 0,-1 0,1-2,0-2,15 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1159 342,'-5'0,"-5"0,-6 0,-5-4,1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2259.42">1014 367,'-1'-17,"-1"1,0 1,-1-2,-1 1,0 1,-1-1,-14-27,2 11,-2-1,-30-38,45 64,-1 1,0 2,0-2,-1 1,0 0,1 0,-2 1,1 0,-1 0,1 0,-1 1,0 0,-13-3,9 3,0 1,-1 0,1 1,-1 0,1 1,-1 0,1 1,-17 3,3 2,1-1,0 3,-1 1,2 0,0 2,0 0,-33 23,22-11,2 1,-46 44,68-58,0 0,1 2,0-1,1 1,1-1,0 2,0-1,1 1,1 0,-6 23,-6 36,5-26,3 1,1-1,0 51,9-15,3 1,5-2,3 1,41 143,-40-170,-2 0,4 96,3 15,66 429,-68-476,15 201,-30 133,-2-203,0-246,1 1,-1 1,1-1,-1 0,-1-1,1 0,-1 1,0 0,0 0,0-2,0 2,-1-1,0 0,0 0,0 0,0-1,-1 1,0-1,0 1,0-1,0 0,0 0,0-2,-1 2,1-1,-1 0,0 0,0 0,-8 1,-13 3,-1-2,1 0,-1-2,-35 0,56-2,-23 1,0 0,-1 0,1-2,0-2,15 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20488,7 +21548,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1014 293,'-1'-7,"0"0,0 0,-1 0,0 0,0 1,0-1,-1 0,0 1,-7-11,-41-56,31 46,12 17,-1 1,0-1,-1 1,0 1,-1 0,1 0,-1 1,-1 1,-22-10,25 12,-1 0,0 0,0 1,0 0,-1 1,1 1,-1-1,1 1,-1 1,1 0,-1 1,-17 3,22-2,1 0,-1 1,0 0,1 0,0 1,0-1,0 1,0 0,0 1,1-1,0 1,0 0,0 0,1 0,-1 0,1 1,0-1,1 1,0 0,-1 0,2 0,-1 0,-1 9,-2 16,1 0,2 0,2 42,0-62,3 1002,-17-791,0-18,13 762,3-465,-2-494,0-1,-1 1,0 0,0-1,0 1,-1-1,1 0,-2 1,1-1,-1 0,0 0,0 0,0-1,-9 11,9-13,0 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,0 0,0 0,0-1,-1 0,1 1,0-2,-1 1,1 0,0-1,-1 0,1 0,-1 0,1 0,0-1,-1 0,-6-2,-27-10,2-1,0-2,-54-32,39 19,38 23,0-1,1-1,0 0,-18-16,26 20,1 0,-1 0,1 0,0-1,0 0,0 0,1 1,0-2,0 1,0 0,0 0,1-1,0 1,-1-11,0-49,11-117,-9 179,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,3-3,7-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1014 282,'-1'-7,"0"0,0 1,-1-1,0 0,0 1,0 0,-1-1,0 1,-7-10,-41-54,31 44,12 16,-1 1,0 0,-1 0,0 1,-1 1,1-1,-1 1,-1 1,-22-9,25 11,-1 0,0 1,0 0,0 0,-1 1,1 1,-1-1,1 1,-1 1,1 0,-1 1,-17 3,22-2,1 0,-1 1,0-1,1 1,0 1,0-1,0 1,0 0,0 1,1-2,0 2,0 0,0 0,1 0,-1-1,1 2,0-1,1 1,0 0,-1-1,2 1,-1 0,-1 8,-2 16,1 0,2 0,2 40,0-59,3 963,-17-760,0-18,13 733,3-447,-2-475,0-1,-1 0,0 1,0-1,0 1,-1-2,1 1,-2 1,1-1,-1-1,0 1,0 0,0-1,-9 10,9-12,0 0,-1 0,1-1,-1 1,1-1,-1-1,0 1,0 0,0 0,0-1,-1 0,1 1,0-2,-1 1,1 0,0-1,-1 0,1 0,-1 0,1 0,0-1,-1 0,-6-2,-27-9,2-2,0-1,-54-31,39 18,38 22,0-1,1 0,0-1,-18-15,26 19,1 0,-1 0,1 0,0 0,0-1,0 0,1 1,0-2,0 2,0-1,0 0,1-1,0 1,-1-10,0-48,11-112,-9 172,0 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 2,3-4,7-7</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20542,17 +21602,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">688 421,'0'0,"1"0,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,0-1,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-2,1-30,-3 14,0 0,-1 0,-1 1,-1-1,-1 1,0 0,-2 1,-17-33,18 38,0 1,-1 0,0 0,-1 1,0 0,-1 0,0 1,0 0,-1 1,0 0,-1 0,1 2,-16-8,13 9,-1-1,1 2,-1 0,0 1,-1 0,1 1,-16 0,25 3,1-1,-1 1,1 0,-1 0,1 0,-1 1,1 0,0 0,0 0,0 1,0 0,0 0,1 0,-1 0,1 1,0 0,0 0,0 0,0 0,1 0,0 1,-4 7,-4 8,2 0,0 1,2 0,-9 37,-10 91,25-143,-1 10,1 0,1-1,0 1,2 0,-1-1,2 1,4 15,40 104,-32-98,-1 0,12 58,-2 29,40 273,-38-200,-20-173,0-1,1 1,1-1,1-1,1 0,15 24,-14-28,-1 1,-2 1,0-1,0 1,-2 0,-1 1,0 0,2 38,-3 13,-7 91,-1-50,4-104,0-1,-1 0,1 1,-2-1,1 0,-1 0,0 0,-7 14,7-18,0-1,0 0,-1 0,1 0,-1-1,1 1,-1 0,0-1,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,-1-1,0 0,1 0,-1 0,0-1,-5 1,-49 3,0-3,-84-9,137 7,1 0,-1-1,0 1,1-1,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,1-1,-1 1,1 0,-1-1,1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,-2-9,-5-11,2-1,1 0,-5-32,7 34,-15-76,-13-89,29 163</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1110.98">1270 976,'4'0,"11"0,7 0,9 0,4 0,4 0,15 0,1 0,1 0,-4 0,-2 0,-6 0,-5 0,-5 0,-4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1991.98">2090 712,'15'-17,"0"-1,18-30,7-10,-22 37,0 0,1 1,1 0,0 2,28-19,-38 31,-1 0,1 1,1 0,-1 1,1 0,0 0,-1 1,1 1,1 0,-1 0,0 1,0 0,1 1,-1 1,18 2,-1 2,0 2,0 1,-1 1,0 2,0 0,-2 2,44 28,-52-29,1 1,-2 1,0 0,-1 1,0 1,-1 0,-1 1,-1 1,0 0,-1 0,9 23,-8-9,-1 2,-1 0,-2 0,5 48,-7-48,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2546.99">3122 236,'-1'9,"0"0,0 0,-1 0,0-1,0 1,-1 0,-1-1,1 0,-9 14,-5 6,-29 33,27-37,-263 290,182-212,77-75,-34 51,4-5,29-45</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4358">2117 1135,'95'0,"448"-6,-5-44,-381 33,1 7,179 11,-114 3,267-5,-465 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5382.98">2011 1559,'1'-2,"1"0,0 0,0-1,0 1,0 0,0 1,0-1,0 0,1 0,-1 1,1 0,-1-1,1 1,0 0,3-1,2-2,10-4,-1 1,1 0,0 1,0 1,1 1,25-3,115 3,-145 4,7 0,1 1,-1 1,1 1,-1 1,27 9,-34-8,-1 0,0 1,-1 1,1 0,-1 1,-1 0,0 1,0 0,10 12,7 12,-1 2,-1 1,-3 1,38 78,-60-113,0 2,1 0,0-1,1 1,-1 0,0 0,1-1,0 0,0 1,0-1,6 4,7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5965.99">2910 1373,'-3'1,"0"-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 1,1-1,0 1,-1-1,1 1,0 0,0 0,-2 2,-31 36,30-32,-136 168,-109 148,248-321,-11 18,13-21,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,14-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7355">3096 1320,'7'-6,"1"1,0 0,0 0,0 0,0 1,1 0,0 0,0 1,0 1,0-1,1 2,10-2,10 0,0 1,46 3,-70-1,-1 1,0 0,0 0,0 0,-1 1,1 0,0 0,0 0,-1 0,1 1,-1-1,0 1,0 0,0 1,0-1,0 1,-1 0,0-1,0 1,0 1,0-1,0 0,-1 1,0 0,0-1,0 1,-1 0,1 0,0 6,2 12,0 0,-2 1,-1-1,-1 0,-3 28,3-41,-1 0,-1 0,0 0,0-1,-1 1,0-1,0 0,-1 0,0 0,-1 0,0-1,-1 1,1-1,-1-1,-1 1,0-1,0 0,0-1,-1 1,0-1,0-1,0 0,-1 0,1-1,-1 1,-1-2,1 0,0 0,-1 0,0-1,1-1,-1 0,-19 0,20 0,-60-4,66 3,1 0,-1-1,1 1,-1-1,0 1,1-1,0 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-3-4,4 5,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,0 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,1 0,35-6,-37 6,46-1,-1 2,1 2,-1 2,74 18,-61-12,-24-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7894.98">3969 1453,'0'9,"0"12,-5 16,-1 20,0 13,1 4,-2 17,-6-8,0-13,2-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8605.98">3731 1823,'4'0,"11"0,7 0,4 0,3 0,0 0,5 0,1 0,-2 0,0 0,-3 0,-1 0,-2 0,0 0,-1 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10008.98">4630 1611,'-1'-1,"1"0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 0,1-1,0 1,-2 0,-41-5,39 5,-4-1,-16-1,-1 1,1 1,0 1,-46 8,65-8,0 0,0 1,0 0,1 0,-1 1,1 0,-1 0,1 0,0 0,0 1,0 0,1 0,-1 0,1 1,0-1,1 1,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,2-1,-3 11,1-2,0 0,1 0,1 0,0 0,1 1,1-1,2 14,-3-24,1 0,0 0,0-1,0 1,0-1,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,1 0,0-1,-1 1,1-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0-1,6 1,5 0,0 0,-1-1,1-1,-1-1,1 0,-1-1,0 0,1-1,-2-1,1 0,17-10,-23 11,0-1,-1-1,1 0,-1 0,0 0,-1-1,1 0,-2 0,1-1,-1 1,0-1,0 0,-1-1,0 1,-1-1,1 0,-2 0,4-16,-3-48,-2 33,5 81,39 214,-26-166,-11-57,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">725 406,'0'0,"1"0,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,1-1,-1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-2,1-29,-3 14,0 0,-1-1,-2 2,0-1,-1 0,-1 1,-1 0,-18-31,18 37,1 0,-2 0,1 1,-1 0,-1 0,-1 1,1 0,-1 0,0 2,-1-1,0 0,0 2,-16-7,13 8,-1-1,1 3,-1-1,1 1,-2 0,1 1,-17 0,27 3,1-1,-2 1,2 0,-1 0,0 0,0 1,1 0,0 0,-1 0,1 0,0 1,-1 0,2 0,-1 0,1 1,0 0,-1 0,1-1,0 1,1 0,0 1,-5 7,-3 7,1 0,1 1,1 1,-9 35,-10 87,26-137,-1 10,1-1,1 0,0 0,2 0,-1 0,2 0,5 15,41 100,-33-94,-1 0,12 56,-2 27,43 264,-41-193,-21-167,1 0,0 0,2-1,0-1,2 0,15 24,-14-28,-2 1,-1 2,-1-2,0 1,-1 1,-2 0,0 0,3 37,-4 13,-7 87,-1-48,4-100,0-2,-2 1,2 1,-2-2,1 1,-1 0,0 0,-7 13,6-17,1-1,0-1,-1 1,1 0,-1-1,1 1,-1 0,-1-1,1 0,0 0,-1 0,1 0,0-1,-2 0,2 1,-1-1,0 0,1 0,-2 0,1-1,-5 1,-52 3,-1-3,-87-9,143 7,2 0,-1-1,0 1,0 0,0-1,1 0,0 0,-1-1,0 1,1-1,0 0,1-1,-2 1,2 1,-1-2,1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-2-9,-6-10,3-1,1 0,-6-31,8 33,-16-74,-14-85,31 157</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1110.98">1339 942,'4'0,"12"0,7 0,9 0,5 0,4 0,16 0,1 0,1 0,-4 0,-2 0,-7 0,-5 0,-5 0,-4 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1991.98">2203 687,'16'-16,"-1"-2,20-28,7-10,-23 36,0-1,1 2,1 0,1 1,28-17,-39 29,-2 0,2 1,0 0,0 2,0-1,1 0,-1 1,0 1,2 0,-2 0,1 1,0 0,0 1,0 1,18 2,0 2,-1 2,1 0,-2 2,1 2,-1-1,-1 3,45 26,-54-27,1 1,-2 0,0 1,-1 0,0 2,-2-1,0 1,-1 2,-1-1,0 0,9 23,-8-9,-2 2,0-1,-3 1,6 46,-8-46,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2546.99">3291 228,'-2'8,"1"1,0 0,-1-1,0 0,0 1,-1 0,-1-2,1 1,-10 13,-5 6,-31 32,29-36,-277 280,192-204,81-73,-37 49,6-5,29-43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4358">2231 1095,'100'0,"473"-6,-6-42,-402 32,2 6,188 11,-120 3,281-5,-489 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5382.98">2120 1504,'1'-2,"1"0,0 0,0-1,0 1,0 1,0 0,0-1,0 0,2 0,-2 1,1 0,-1-1,1 1,0 0,4-1,1-2,11-3,-1 0,1 0,0 1,0 1,1 2,26-4,122 3,-153 4,7 0,1 1,-1 1,1 1,-1 1,29 8,-36-7,-2 0,1 1,-1 0,1 1,-2 1,0-1,-1 2,1 0,10 11,8 12,-2 2,-1 0,-2 2,39 75,-63-109,0 2,1 0,0-1,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,7 4,7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5965.99">3067 1325,'-3'1,"0"-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 1,1-1,0 1,-2-1,2 1,0 0,0 0,-2 2,-33 34,32-30,-144 162,-114 143,260-311,-10 19,13-21,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,15-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7355">3263 1274,'8'-6,"0"1,0 0,1 0,-1 0,1 2,0-1,1 0,-1 1,1 1,-1-1,2 2,10-2,10 0,1 1,48 3,-74-1,0 1,-1 0,0 0,0 0,0 1,0 0,0 0,1 0,-2 0,1 1,-1-1,0 1,1 0,-1 0,0 0,0 1,-1 0,1-1,-1 1,0 1,0-2,0 1,-1 1,0 0,1-1,-1 1,-1-1,1 1,0 6,2 11,0 0,-2 1,0 0,-2-1,-4 27,4-39,-1-1,-1 1,0 0,0-2,-1 2,0-1,0-1,-2 1,1 0,-1-1,0 0,-2 1,2-2,-1 0,-2 1,1-1,0-1,-1 0,0 1,-1-1,1-1,-1-1,0 1,0-1,0 1,-2-2,2 0,-1 0,0 0,-1-2,2 0,-2 0,-19 0,20 0,-62-4,68 3,2 0,-1-1,1 1,-1-1,0 1,1 0,0-1,-2 0,2 0,-1 0,1 0,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 0,1 0,-3-4,4 6,0 0,0-1,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,0 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,1-1,-1 1,-1 0,1 0,0-1,0 1,1 0,37-6,-39 6,48-1,0 2,0 2,0 2,77 17,-64-11,-25-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7894.98">4183 1402,'0'9,"0"11,-5 15,-1 20,-1 13,2 3,-2 17,-7-8,0-12,3-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8605.98">3932 1759,'5'0,"10"0,9 0,3 0,4 0,-1 0,6 0,1 0,-2 0,-1 0,-2 0,-1 0,-3 0,1 0,-2 0,0 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10008.98">4880 1554,'-1'-1,"1"0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 0,1-1,0 1,-3 0,-42-5,41 5,-5-1,-16-1,-1 1,0 1,1 1,-49 8,69-8,-1 0,1 1,0 0,0 0,0 1,1-1,-1 1,0 0,1 0,0 1,-1 0,2 0,-1 0,1 0,0 0,0 1,0 0,1 0,0 0,0 0,0 0,0 1,0 0,2-1,-3 10,1-1,0-1,1 1,1-1,-1 1,2 0,2 0,1 13,-3-24,1 1,0 0,0-1,0 1,0-1,1 1,-1-1,1-1,0 2,0-1,1 0,-1 0,0 0,1 0,0-1,-1 1,1-2,1 2,-1-1,0 0,1 0,-1-1,0 1,2-1,-2 1,1-1,-1 0,1 0,1-1,5 1,6 0,0 0,-2-1,2-1,-1-1,1 0,-1-1,-1 0,2-1,-2-1,1 1,17-11,-23 11,-1-1,0 0,0-1,-1 0,1 0,-2 0,1-1,-1 0,0-1,-1 2,1-2,-1 0,-1-1,0 2,-1-2,2 0,-3 1,4-16,-3-47,-2 33,6 77,40 207,-27-160,-11-55,-1-12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20636,16 +21696,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">59 0,'0'647,"-2"-611,-13 71,5-51,9-47,-1-1,0 1,-1 0,0-1,-8 15,1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1223">350 609,'0'358,"26"-409,21-61,-27 60,2 1,3 1,40-63,-58 104,0 1,0 0,1 0,0 1,0 0,1 1,0-1,0 2,1-1,0 1,0 1,0 0,11-4,-17 7,1 0,-1 0,0 0,0 0,1 1,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0 0,1 1,-1-1,0 1,-1 0,1 0,0 1,0-1,-1 1,0-1,1 1,-1 0,0 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,2 7,0 3,0 0,0 0,-1 1,-1-1,1 28,-8 80,1-43,3 13,0-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3146">1488 529,'-3'45,"-2"-1,-1 1,-21 68,15-65,1 0,-6 80,16-98,-1-14,1 0,1 0,0 0,1 0,1 0,4 19,-6-34,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,2 1,-2-1,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 0,1 0,1-2,3-4,0 0,0-1,0 1,-1-1,3-11,20-58,-10 21,3 2,43-83,-3 14,-45 90,-15 31,1 1,-1-1,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,2-2,-3 4,0 0,-1-1,1 1,0-1,0 1,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,7 83,-7-80,-2 281,3 102,9-311,-6-58,-1 0,-1 1,-1-1,-2 25,0-38,0 0,0 1,-1-1,1 0,-2 1,1-1,-1 0,0-1,0 1,0 0,-1-1,0 0,0 0,0 0,-1 0,-9 7,2-4,-1 0,0-1,0 0,-1-1,1-1,-1 0,0-1,-1 0,1-1,-1-1,1 0,-1-1,0-1,0 0,1-1,-18-3,20 0,-1 0,1-1,0 0,0-1,0 0,1-1,0 0,0-1,1 0,0-1,-12-14,17 16,0 0,0 0,1-1,1 1,-1-1,1 0,0-1,1 1,0 0,0-1,1 1,0-1,0 1,1-1,0 0,1 1,0-1,0 1,4-12,1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4959">2573 318,'167'-6,"183"-31,-205 26,-119 11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5636">2440 688,'18'0,"19"0,22 0,14 0,8 0,4 0,-3 0,-8 0,-1 0,-10-4,-11-2,-5 1,-1-5,-5 1,-4 1,0 3,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50980.95">1065 107,'-3'4,"0"0,0 0,1 0,0 0,0 1,0-1,0 1,1-1,0 1,-2 7,-2 8,-146 454,135-424,1 0,3 0,-9 89,-15 90,20-144,-6 94,22 248,2-408,1 0,0 0,1 0,1 0,1-1,0 1,2-2,0 1,1-1,1 0,0-1,1 0,14 16,-20-28,0 1,1-1,-1 0,1-1,0 1,0-1,0 0,0 0,0-1,10 3,7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52433.41">1938 345,'1'1,"0"0,0 0,0 1,1-1,-1 0,0 0,0 0,-1 1,1-1,0 1,0-1,-1 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,0-1,0 1,0 0,0 1,1 4,23 91,-12-56,-2 0,8 82,-18 17,-2-99,2 1,1-1,3 1,1-1,14 55,-11-74</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53282.41">1858 900,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,1 0,0 0,-1 0,0 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54176.41">2229 530,'0'0,"0"0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,-2 22,-13 20,5-22,-1-1,1 1,1 1,1 0,1 0,0 0,2 1,-4 41,8-47,-1 9,1-1,2 1,0 0,8 41,-7-63,0 0,0 0,0 0,0 0,1 0,0-1,0 1,0-1,0 1,0-1,0 0,1 0,0-1,0 1,-1-1,1 0,1 0,-1 0,0 0,5 0,20 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55383.45">2414 133,'2'1,"0"0,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 3,0-2,19 49,-2 1,-2 0,20 110,-27-114,1 18,-2 0,0 69,-11 137,-2-87,5-111,2-33,-3 0,-1 1,-2-1,-2 0,-21 79,4-57,-41 82,20-51,-11 21,5-17,36-73</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 0,'0'622,"-2"-587,-14 67,6-48,9-45,-2-1,1 0,-1 1,0-1,-8 14,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1223">368 585,'0'345,"27"-394,22-59,-28 58,2 1,4 1,41-61,-61 101,1 0,-1 0,1 0,1 2,-1-1,2 1,-1 0,1 1,0-1,1 1,-1 1,1 0,11-3,-18 6,1 0,-1 0,0 0,1 0,0 1,-1 0,0 0,2 0,-2 0,0 1,1-1,-1 1,1 0,-1 0,1 1,-1-1,1 1,-2 0,1-1,0 2,0-1,-1 1,1-1,0 1,-1 0,0 0,0 1,-1-2,1 2,0-1,0 1,-1 0,0 0,2 6,0 4,1-1,-1 1,-1 0,-1 0,1 26,-8 77,1-41,3 13,0-51</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3146">1563 509,'-3'43,"-2"-1,-2 1,-21 66,15-63,2 0,-7 77,17-94,-1-13,1-1,1 0,0 1,1-1,1 0,4 19,-6-33,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0-1,0 1,-1 0,1-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,0-1,2 1,-2-1,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,2-1,-2 0,0 1,0-1,0 0,0 1,0 0,0-1,-1 0,1 0,1-2,3-4,1 0,-1 0,0 0,-1-1,4-10,20-56,-10 20,3 2,45-80,-3 14,-47 86,-16 31,1 0,-1-1,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,-1 0,1 1,2-3,-3 4,0 0,-1-1,1 1,0-1,0 0,0 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,2 0,-2 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,7 79,-7-76,-2 270,3 98,9-299,-5-55,-2-1,-1 1,-1-1,-2 25,0-38,0 1,0 1,-1-1,1-1,-3 2,2-1,-1 0,0-2,0 2,0 0,-2-1,1 0,0-1,0 1,-1 0,-10 7,2-5,0 1,-1-1,0-1,0 0,0-1,-1 0,1-1,-2-1,1 0,-1-1,2 0,-2-1,0-1,0 0,2-1,-20-3,21 0,0 1,0-2,1 0,-1-1,0 0,2 0,-1-1,1-1,0 1,1-2,-13-13,17 15,1 0,0 1,1-2,1 1,-2 0,2-1,0-1,1 2,0-1,0-1,1 2,0-2,0 1,1 0,0-1,1 1,0 0,0 0,4-11,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4959">2703 306,'175'-6,"193"-30,-216 26,-125 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5636">2563 661,'19'0,"20"0,23 0,14 0,9 0,5 0,-4 0,-9 0,0 0,-11-3,-11-3,-6 1,0-5,-6 2,-4 0,-1 3,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50980.95">1119 103,'-4'4,"1"0,0-1,1 1,0 0,0 1,0-1,0 1,1-2,0 2,-3 7,-1 7,-153 437,141-408,1 0,3 0,-9 85,-15 88,20-140,-6 91,23 239,2-393,1 0,0 1,1-1,1 0,2-1,-1 2,2-3,1 1,0 0,2-1,-1-1,2 1,14 15,-21-28,1 2,0-1,-1 0,2-1,-1 1,0-1,0-1,1 1,-1-1,11 3,7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52433.41">2036 332,'1'1,"0"0,0 0,0 0,1 0,-1 0,0 0,0 0,-1 1,1-1,0 1,0-1,-1 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,0-1,0 1,0-1,0 2,1 4,25 87,-14-53,-1-1,8 79,-19 17,-3-96,3 1,2 0,2 0,1 0,15 52,-12-71</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53282.41">1952 865,'4'0,"7"0,6 0,5 0,3 0,3 0,0 0,1 0,1 0,-2 0,1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54176.41">2341 509,'0'0,"0"0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,2 0,-2 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,-2 21,-14 20,5-22,0-1,0 1,2 1,0 0,2 1,0-1,1 1,-3 39,8-44,-1 8,1-1,2 1,0 0,8 39,-7-60,1 0,-1 0,0-1,0 1,1 0,0-1,0 1,0-1,1 1,-1-1,0-1,1 1,0-1,1 1,-2-1,1 0,1 0,-1 0,1 0,4 0,21 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55383.45">2536 128,'2'1,"0"0,0 0,0 1,-1-1,1 0,0 1,0-2,-1 2,1-1,-1 1,2 0,-2 0,0 0,0 0,0 0,0 0,0 0,1 3,0-3,20 48,-2 1,-2 0,21 106,-29-110,2 18,-3-1,1 67,-12 131,-3-83,7-107,1-32,-3 1,-1 0,-3-1,-1 1,-22 75,4-54,-43 78,20-49,-10 21,4-17,39-70</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20672,12 +21732,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">65 132,'-3'139,"6"149,-2-282,1 0,-1 0,1 0,0 0,0 0,1 0,0-1,0 1,0-1,0 0,1 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0-1,0 0,1 0,-1 0,13 3,-7-1,0-2,0 0,1 0,0-1,-1 0,1-1,0-1,0 0,-1 0,1-1,22-5,-29 5,-1-1,0 0,-1 0,1 0,0 0,0 0,-1-1,0 0,1 1,-1-1,0 0,0-1,-1 1,1-1,-1 1,0-1,1 0,1-5,3-10,0 0,7-37,1 0,-8 26,0 0,-2-1,-1 1,0-61,-3 51,12-76,-8 99,-4 25,-4 32,-40 484,31-390,-2 59,18-60,-1-64,-3 0,-10 81,8-137,0 0,-1 0,-1 0,0-1,-1 1,0-1,-1 0,-12 20,14-26,-1-1,0 1,0-1,0 0,0 0,-1-1,1 1,-1-1,-1 0,1-1,0 0,-1 0,0 0,1-1,-1 0,0 0,-13 1,-1 1,1-2,-1-1,0-1,0 0,0-1,0-2,-24-5,42 6,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,0 0,-1-1,1 1,1-1,-1 1,0-1,1 1,0-1,0 1,0-1,0-3,1-14,0 1,2 0,5-23,-4 21,1-3,1-1,16-43,-8 39</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1533.02">1388 0,'0'14,"0"13,0 11,0 17,0 8,0-1,0 10,0 2,0-2,0-9,0-11,0-9,0-8,0-6,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2057.36">1150 556,'0'-4,"9"-2,3-5,3 1,10-4,8 2,3 2,23-2,15 2,8 2,4 2,-4 3,-16-3,-14-1,-17 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2981.36">2526 132,'-17'0,"-1"1,2 1,-1 0,0 1,0 1,1 0,0 1,-1 1,2 1,-1 0,1 1,0 0,1 1,0 1,-17 16,7-7,2 2,0 1,1 0,1 2,-22 34,33-43,1 0,1 0,0 1,1-1,0 2,2-1,0 0,1 1,0 0,1 0,1 21,1-6,-1-16,1 0,1 0,5 28,-5-39,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,1 0,0-1,0 0,0 1,1-1,-1-1,1 1,7 4,8 3,1-2,0 0,1-2,0 0,40 6,109 2,-167-14,208 3,-154-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3579.25">3267 476,'4'0,"6"0,7 0,3 0,18 0,6 0,0 0,-3 0,-3 0,-5 0,-2 0,-3 0,-1 0,-1 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4166.25">3293 794,'22'0,"12"0,10 0,6 0,3 0,-2 0,-6 0,-1 0,-4 0,-4 0,-4 0,-3 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">68 127,'-3'133,"6"144,-2-271,1 0,-1 0,1-1,0 1,0 0,1 0,1-1,-1 0,0 0,0 0,1 0,0-1,1 0,0 1,-1-1,1 0,0 0,1 0,-1-2,0 1,1 0,0 0,12 3,-6-1,-1-2,1-1,0 1,1-1,-2 0,2-1,-1-1,1 0,-2 0,2-1,23-5,-31 5,-1-1,0 1,-1-1,1 0,1 0,-1 0,-1-1,0 0,1 1,-1-1,1 0,-1 0,-1 0,1-1,-1 1,0-1,1 0,1-4,4-11,-1 1,8-36,0 0,-7 26,-1-1,-2-1,-1 1,1-58,-4 48,12-72,-8 94,-4 25,-4 30,-42 466,33-375,-3 57,19-59,-1-60,-3-1,-10 78,8-131,0-1,-1 1,-1-1,-1 0,0 0,0 0,-1-1,-13 20,15-25,-2-1,1 0,0 0,0 0,0 0,-2-1,2 0,-1 0,-2 0,2-1,0 0,-1 0,-1 0,2-1,-1 0,-1-1,-12 2,-2 1,1-2,-1-1,0-1,0 0,0-1,0-2,-25-4,44 5,0 0,0 0,-1 0,1 0,0 0,1-1,-1 1,1-1,0 0,0 1,0-1,-1 0,1 0,0 0,1 0,0 0,-1-1,1 1,1 0,-1 0,0-1,1 1,0-1,0 1,0-1,0-2,1-14,0 0,2 1,6-22,-5 20,1-3,1-1,17-42,-8 38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1533.02">1450 0,'0'13,"0"13,0 11,0 16,0 7,0 0,0 9,0 2,0-1,0-10,0-10,0-9,0-7,0-6,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2057.36">1201 534,'0'-3,"10"-3,2-5,4 2,10-5,9 3,2 1,25-1,15 1,9 2,4 2,-5 4,-16-4,-14-1,-19 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2981.36">2639 127,'-18'0,"0"1,1 1,-1 0,0 1,1 0,0 1,0 1,-1 1,3 1,-2-1,1 2,1 0,0 0,0 2,-17 15,7-7,2 2,0 2,1-1,1 2,-23 32,35-40,0-1,2 1,0 0,1 0,-1 1,3-1,0 1,1 0,0 0,1 1,0 19,2-5,-1-16,1 1,1-1,6 27,-6-37,0-1,1 0,-1 1,1-1,0-1,0 1,0 0,1-1,0 1,0 0,0-1,0-1,0 2,1-1,-1-1,2 1,6 4,9 2,1-1,0 0,1-3,0 1,41 6,115 1,-175-13,218 3,-162-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3579.25">3413 458,'4'0,"7"0,7 0,3 0,18 0,7 0,0 0,-3 0,-3 0,-6 0,-1 0,-4 0,-1 0,-1 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4166.25">3440 763,'23'0,"13"0,10 0,6 0,4 0,-3 0,-6 0,-1 0,-4 0,-5 0,-3 0,-4 0,-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20731,22 +21791,22 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">89 585,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1543">407 744,'0'-10,"2"-1,0 1,0 0,5-15,4-14,0-17,4-13,-3 0,6-137,-17 161,0-39,-1 78,-1 0,0-1,0 1,0 0,-1 0,0 0,0 0,0 0,-6-9,7 13,0 0,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 1,1-1,0 0,0 0,0 1,-2 0,1 1,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 1,0-1,-2 6,-9 22,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4091.11">248 506,'79'0,"94"1,-168-1,-1 1,0-1,1 1,-1-1,0 2,0-1,0 0,0 1,0-1,0 1,6 4,-10-6,1 1,-1-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,-1 1,-1 0,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 0,-5 2,-49 11,0-1,-103 8,59-9,85-10,1 1,0 1,0 0,0 2,0-1,1 2,0-1,-14 11,28-17,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,22 5,49 0,0-3,0-4,73-10,-43 3,140-23,-368 29,-230 4,386-3,0-1,0-2,32-10,15-2,130-16,-206 33,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 1,1 0,-1-1,1 0,-20-6,-38-2,-2 3,0-3,-79-22,121 24,16 2,25 0,5 4,-24 2,-14-1,-52 2,0 2,-63 12,116-12,22-2,11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5813.11">1253 400,'1'-57,"0"19,-1 0,-8-64,7 93,-1 0,0-1,-1 2,0-1,0 0,0 0,-1 1,-1 0,1 0,-1 0,-1 0,0 1,0 0,0 0,-1 1,-9-8,14 12,0 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0 0,0-1,0 1,0 1,0-1,0 0,0 1,-1 0,1-1,0 1,0 1,-1-1,1 0,0 1,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,0 5,-17 134,6 0,13 252,11-242,2 68,-15-151,-2 98,2-164,-1 1,1-1,0 1,-1-1,0 1,0-1,0 0,0 1,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,-5 1,-9 0,0-1,0-1,0-1,-35-5,43 5,4 0,0 0,0 0,0 0,0-1,0 0,1 0,-1-1,1 0,-1 0,1 0,0 0,0-1,0 0,1 0,-1 0,1 0,0-1,1 0,-1 0,1 0,-1 0,2 0,-1-1,-2-6,0-4,0 0,2-1,0 0,0 0,2 0,0 0,2-23,-1 35,0-1,1 1,0-1,0 1,0-1,0 1,1 0,0 0,0 0,0 0,5-7,11-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6954.11">2153 268,'5'-3,"1"0,0 1,1-1,-1 1,0 0,1 1,-1-1,1 1,-1 0,1 1,0 0,-1 0,1 0,0 1,7 2,-6-1,-1 1,0 0,-1 1,1-1,-1 1,1 0,-1 1,0 0,-1 0,1 0,-1 0,0 1,5 7,19 30,41 78,-53-87,1-1,2-1,1-1,49 56,-46-64</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7655.12">2603 82,'-10'1,"1"0,0 0,0 1,0 1,1-1,-1 1,1 0,-1 1,1 0,0 1,0-1,1 2,-1-1,1 1,0 0,1 0,-1 1,1 0,-9 14,-8 14,1 1,2 1,-17 44,9-22,-73 130,89-165</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8409.11">1915 876,'315'-1,"373"3,-303 25,-8 0,-322-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9415.11">2074 1273,'0'-10,"1"0,1 0,-1 0,2 0,-1 0,2 0,-1 1,1-1,1 1,-1 0,2 0,-1 1,1-1,1 1,10-10,-12 12,0 1,1 0,0 0,0 0,1 1,-1 0,1 0,0 1,0 0,0 0,1 1,-1-1,1 2,-1-1,1 1,-1 0,1 1,0-1,-1 2,1-1,10 3,-12-2,0 2,0-1,0 1,0 0,0 0,-1 0,0 1,1 0,-1 0,-1 0,1 1,-1-1,1 1,-1 0,6 12,4 7,-1 1,14 38,-10-24,8 22,-8-20,28 52,-25-61</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9965.1">2603 1008,'-9'0,"-8"0,-5 5,-3 10,-7 12,-3 10,-3 8,-5 10,-4-1,6-4,5-6,0-2,7-4,7-3,3-3,6-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11403.18">2761 1141,'0'-1,"0"0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,2 0,-3 0,1 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1-1,0 1,0 0,0 0,1 1,4 21,0-1,-2 1,-1 1,0-1,-2 0,-3 28,2-5,1-40,-1-1,1 0,-1 1,0-1,-1 0,0 0,1 1,-1-1,-1 0,1-1,-1 1,0 0,0-1,0 0,-1 1,1-1,-1-1,0 1,0 0,-1-1,1 0,-1 0,1 0,-1-1,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,-1-1,1 1,0-1,-1 0,1 0,-11-2,14 2,0-1,1 1,-1-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,0-1,1 1,0 0,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 0,0 0,0 0,0 1,0-1,0 0,0 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,2-1,15-1,0 0,-1 2,1 0,0 1,0 1,0 1,0 1,-1 0,1 2,-1 0,34 14,-29-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11946.18">3158 1273,'0'5,"9"10,3 16,-1 30,-2 18,-2 0,-3 0,-2-9,-1-7,-1-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12512.7">3211 1617,'0'-4,"4"-2,11 1,8 0,3 2,3 1,0 1,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14017.71">3714 1326,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,-2 1,-41-5,39 5,-20-2,13 0,-1 1,1 0,-1 0,1 2,-1-1,1 2,0 0,-21 5,29-4,1 0,-1 0,1 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,0 1,1-1,-1 0,1 1,-1 5,-11 77,12-82,0 10,-2-2,2 0,0 1,0-1,1 0,1 1,0-1,1 0,4 15,-4-25,0 0,1-1,-1 1,1 0,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,8 0,5 0,0-1,0 0,27-6,-32 4,-1 1,0-2,0 1,0-2,0 1,-1-1,0 0,0-1,0 0,0-1,-1 0,0 0,-1-1,0 1,0-2,8-12,-7 8,-2 0,0 0,0-1,-2 1,1-1,-2-1,0 1,-1 0,0-1,-1 1,-1-23,-2-5,1 39,1 5,-1 24,0 480,0-501,1 1,1 0,-1 0,1-1,0 1,0 0,1-1,-1 1,1-1,5 10,4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15535.7">4878 321,'1'148,"29"216,-18-272,0 128,-25-234,-8-20,16 24,0 3,0-1,0 0,-1 1,1 0,-2 1,1-1,-1 1,0 0,0 1,0 0,-1 0,0 0,-14-5,8 5,-1 2,0-1,-1 2,1 0,0 0,-1 2,-18 1,15-1,4 0,1 1,-1 0,0 1,-15 4,26-5,0 0,1 1,-1-1,0 1,0 0,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,-2 7,-2 7,0 1,1 1,1-1,1 1,0 21,2-28,0 0,1 0,1 0,0 0,1 0,0-1,0 1,2 0,4 12,-5-19,-1-1,1 0,0 0,0 0,0 0,0 0,1-1,-1 0,1 1,0-1,0-1,0 1,0 0,1-1,-1 0,1 0,0-1,-1 1,1-1,0 0,0 0,0 0,0-1,-1 0,1 0,0 0,0 0,9-3,9-1,0-2,0-1,-1-1,34-16,-45 19,0 0,-1-1,1-1,-1 1,-1-2,1 1,15-17,-20 18,-1 0,1 0,-1-1,0 1,-1-1,0 0,0 0,0 0,-1-1,0 1,0 0,-1-1,1-11,-1 9,0 0,1 0,0 0,1 0,0 0,5-10,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16422.7">5275 929,'1'0,"0"0,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,2-2,-1 1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,1 0,1 0,1 1,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,3 5,28 49,-27-45,134 272,-139-280,1-1,0 1,0 0,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,5 1,-5-3,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 0,0 1,0-1,0 0,0 0,5-4,18-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16973.7">5778 744,'-9'0,"-8"0,-1 9,-1 8,-7 14,-4 11,0 2,-6 8,-4 4,-5 1,1 0,-6 4,1-4,-8 11,0-2,10-7,8-10,12-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">92 559,'4'0,"7"0,6 0,4 0,4 0,2 0,0 0,2 0,-1 0,1 0,-1 0,-1 0,0 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1543">419 711,'0'-9,"2"-2,0 2,0-1,5-14,5-13,-1-16,4-13,-2 0,5-131,-17 154,0-38,-1 75,-1 1,0-2,0 1,0 1,-1-1,0 0,0 0,0 1,-6-10,7 13,0 0,0 1,-1-1,1 1,0-1,-1 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,-1 0,0 1,1-1,0 0,0 0,0 1,-2 0,1 1,-1 0,1 0,0 0,-1 0,0 0,1 1,0-1,1 0,-1 1,1 0,-1 0,1 0,0 1,0-1,-2 5,-10 22,3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4091.11">255 484,'82'0,"96"1,-173-1,-1 1,0-1,1 1,-1-1,0 2,1-1,-1 0,0 0,0 0,0 1,6 4,-10-6,1 1,-1-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 0,-1 1,-1 1,-1 0,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 0,-6 2,-49 10,-1 0,-106 7,61-9,88-9,1 1,-1 1,1 0,-1 1,1 0,0 2,1-2,-15 12,29-17,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,23 5,50 0,0-3,0-4,76-10,-45 4,144-23,-379 28,-237 4,398-3,0-1,0-1,33-11,15-1,134-16,-212 32,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,2 0,-1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-1-1,0 1,1 0,-1-1,1 0,-21-6,-38-2,-3 4,0-4,-81-21,125 24,16 1,25 0,6 4,-25 2,-14-1,-54 2,0 2,-64 11,118-11,24-2,11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5813.11">1290 383,'1'-55,"0"19,-1-1,-8-60,7 88,-1 1,0-2,-2 2,1 0,0-1,0 1,-1 0,-1 0,1 1,-1-1,-2 0,1 2,0-1,0 0,-1 1,-10-7,15 11,0 0,-1 0,0 0,1 1,-1 0,0-1,0 1,0 0,-1-1,1 1,0 1,0-1,0 0,0 1,-1 0,1-1,0 1,0 1,-1-1,0 0,1 1,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 1,1-1,-2 1,1 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,1 0,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,0 5,-18 128,7-1,13 242,11-232,3 66,-16-145,-2 94,2-158,-1 2,1-1,0 1,-1-1,0 1,-1-1,1-1,0 2,-1-1,0 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 0,-1 0,1 0,0-2,0 2,0-1,-1 0,1 0,0 0,-1 0,-6 1,-8 0,-1-1,1-1,-1-1,-35-5,43 5,5 0,0 0,0 0,0 0,0 0,-1-1,2 0,-1-1,1 0,-1 0,1 0,-1 0,1 0,0-1,1 0,-1 0,1 0,0-1,1 1,-2-1,2 0,-1 0,2 1,-1-2,-2-6,0-3,0 0,2-2,0 1,-1 0,3 0,0-1,2-21,-1 33,0 0,1 0,0-1,0 1,1 0,-1 0,1 0,0 0,0 1,0-1,5-7,12-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6954.11">2216 256,'5'-3,"2"1,-1 0,1-1,-1 1,0 0,2 1,-2-1,1 1,-1 0,1 1,1 0,-2 0,1 0,0 1,8 2,-7-1,-1 1,0 0,-1 0,2 0,-2 1,1 0,-1 1,0 0,-1-1,2 1,-2 0,0 1,5 6,20 29,42 75,-54-84,0 0,3-1,0-2,51 54,-47-61</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7655.12">2680 78,'-11'1,"2"0,0 0,-1 1,1 1,1-1,-1 1,0 0,0 1,1-1,0 2,-1-1,2 2,-1-2,1 2,0 0,0 0,0 0,1 1,-9 13,-9 14,1 0,3 1,-18 43,9-22,-75 125,91-158</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8409.11">1971 838,'325'-1,"383"3,-312 23,-8 1,-331-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9415.11">2135 1217,'0'-9,"1"-1,1 1,-1-1,2 1,-1-1,2 0,-1 2,2-2,0 2,-1-1,2 0,-1 2,1-2,2 2,9-11,-12 13,0 0,2 0,-1 0,0 0,1 2,-1-1,1 0,1 1,-1 0,0 0,1 1,0 0,0 1,-1-1,1 1,-1 0,2 1,-1-1,-1 2,1-1,11 3,-13-2,0 1,0 0,1 1,-1 0,0 0,-1 0,0 1,1 0,0-1,-2 1,1 1,-1-1,1 1,-1-1,6 13,5 6,-2 0,15 38,-10-24,7 21,-7-18,28 48,-25-57</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9965.1">2680 964,'-10'0,"-7"0,-6 5,-3 9,-7 12,-3 9,-3 8,-5 10,-4-1,5-5,6-5,0-1,7-5,8-3,2-2,7-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11403.18">2842 1091,'0'-1,"0"0,0-1,0 1,0 0,0-1,1 2,-1-1,0-1,1 1,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,2 0,-3 0,1 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1-1,0 1,0 0,0 0,1 1,5 20,-1-1,-2 1,-1 1,0-1,-2 0,-3 26,2-4,1-38,-1-1,1 0,-1 0,0 0,-1 0,0 0,1 1,-2-2,0 1,1-1,-1 1,0-1,0 0,0 0,-1 1,1-1,-1-1,0 0,-1 1,0-1,1 0,-1 0,1 0,-1-1,0 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1-1,0 1,1-1,-1 0,1 0,-12-2,15 2,0-1,1 1,-1-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,0 1,-1-1,0 1,1-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1 0,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,0-1,0 0,0 1,0-1,0 0,0 1,2 0,-2-1,1 2,0-1,-1-1,1 1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,1 1,-1 0,1 1,1-1,1-1,15-1,1 0,-2 2,2 0,0 1,-1 1,1 1,-1 1,0 0,1 1,-2 1,36 13,-31-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11946.18">3251 1217,'0'5,"9"9,4 16,-2 28,-2 18,-2 0,-3-1,-2-8,0-7,-2-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12512.7">3305 1546,'0'-3,"5"-3,10 1,9 0,2 2,4 1,0 1,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14017.71">3823 1268,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,-3 1,-41-5,40 5,-21-2,14 0,-1 1,0 0,0 0,0 2,0-1,1 2,-1 0,-21 5,30-4,1 0,-1 0,1-1,0 2,0-1,0 1,0-1,1 1,-2-1,2 1,0 0,0 1,1-1,-1 0,1 0,-1 6,-11 73,12-78,0 9,-2-1,2-1,0 1,-1 0,2-1,2 2,-1-2,1 1,4 13,-4-23,0 0,1-1,-1 1,1 0,-1-1,1 0,0-1,0 1,1 0,-1 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1-1,0 1,0-1,-1 0,8 0,6 0,-1-1,0 0,29-6,-34 4,-1 1,1-1,-1 0,0-2,1 1,-2-1,0 1,0-2,1 0,-1-1,-1 1,0-1,0-1,-1 2,0-3,8-11,-6 8,-3-1,0 1,0-2,-2 2,1-2,-2 0,1 1,-2-1,0 0,-1 1,-1-23,-2-4,1 37,1 5,-1 23,0 459,0-479,1 0,1 1,-1 0,1-1,0 0,0 1,1-1,-1 1,1-2,5 11,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15535.7">5021 307,'2'142,"28"206,-17-260,-1 122,-25-223,-9-20,17 23,0 4,0-2,0 0,-2 2,2-1,-2 1,1 0,-1 0,-1 0,1 1,0 1,-1-1,0 0,-15-4,8 4,0 2,0-1,-2 2,2 0,-1 0,0 2,-19 1,15-1,5 0,0 1,0 0,-1 1,-14 4,25-5,1 0,1 1,-1-1,0 1,0-1,1 1,-1 0,1 1,0-1,-1 1,1 0,0 0,0 0,0-1,1 1,-1 0,1 1,0-1,-2 6,-2 8,-1 0,2 1,1-1,1 1,0 21,2-28,0 1,1-1,1 1,0-1,1 1,0-2,0 1,2 1,4 11,-4-18,-2-1,1-1,0 1,0 0,0 0,0 0,1-1,-1-1,1 2,0-1,1-1,-1 1,0 0,1-1,-1 0,1-1,0 0,-1 1,2-1,-1 0,0 0,0 0,0-1,-1 0,1 0,1 0,-1 0,9-3,10-1,0-1,-1-2,0-1,35-15,-47 19,0-1,-1-1,2-1,-2 2,-1-3,2 1,14-16,-19 18,-2-1,1 0,-1 0,0 0,-1-1,0 0,0 1,0-1,-1-1,0 2,1-1,-2-1,1-10,-1 9,0-1,1 0,0 1,1-1,0 1,5-10,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16422.7">5430 888,'1'0,"0"0,1-1,-1 1,0-1,0 1,1 0,-1 0,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,2-2,-1 1,-1 1,1 0,0 0,0-1,0 1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,1-1,-1 1,0-1,2 1,-2 0,1-1,-1 1,1 0,1 0,1 1,-1 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,-1 1,1-1,-1 1,1-1,-1 1,3 4,29 48,-28-44,138 261,-143-268,1-1,1 1,-1-1,0 0,0 1,1-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,6 1,-6-3,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,0 0,0 1,0-1,0 0,0 0,5-4,19-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16973.7">5948 711,'-9'0,"-9"0,0 9,-2 7,-7 14,-4 10,1 2,-7 8,-5 4,-4 0,1 1,-7 3,2-4,-9 11,0-1,11-8,8-9,12-12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20883,21 +21943,21 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">350 1910,'126'2,"140"-4,-262 1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 1,0-1,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,0 0,0-1,2-4,3-5,-1-1,-1 0,-1 0,6-20,-4 14,-3 5,0 1,0-1,-1 0,-1 0,-1 0,0 0,-1 0,0 0,-1 0,-5-22,4 30,0 0,0 0,-1 0,0 0,0 1,0-1,-1 1,0 0,0 0,-1 0,0 1,0-1,0 1,0 0,-1 1,0-1,0 1,0 0,-1 1,1 0,-1 0,0 0,-8-2,-13 0,0 0,0 2,0 1,-1 2,-48 4,-5 0,64-3,0 0,-1 1,1 1,0 1,1 1,-1 0,1 1,0 1,0 0,1 2,-21 13,19-9,0 1,1 1,0 0,2 1,0 1,0 0,2 1,-22 38,25-36,1 0,1 0,1 1,0 0,2 1,1-1,-3 35,3 14,7 72,0-31,-4-102,1 1,0 0,1-1,0 1,1 0,0-1,0 0,1 1,0-1,0 0,1 0,1-1,0 1,0-1,12 15,10 9,57 51,-70-71,1-1,0-1,0-1,1 0,0-1,32 12,-15-11,1-1,0-1,1-2,-1-2,70-1,510-4,-591 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="755.61">905 958,'4'-4,"7"-2,5 0,9 1,10 2,11 1,8 1,-1 0,4 1,-3 0,-11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3083.08">2043 296,'2'-3,"1"0,-1-1,0 0,0 0,0 0,-1 1,1-1,-1-1,0 1,0 0,1-8,2-55,-4 46,1 10,-1 0,0-1,0 1,-1 0,-5-22,5 30,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1 0,-1 0,0-1,0 1,0 1,0-1,0 0,0 1,-1 0,1 0,0 0,-5-1,-1-1,-1 1,0 0,0 1,1 0,-1 1,0 0,0 0,-18 4,24-3,-1 0,1 1,0-1,0 1,0 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,0 1,-1 0,1 0,0 0,-2 8,-2 8,1-1,1 2,0-1,2 0,-1 22,8 108,-1-53,-5-67,2 1,2-1,0 1,2-1,1 0,2 0,0-1,15 31,72 139,-84-173,-1 0,-1 0,8 43,9 29,-5-35,18 90,-34-128,-2 0,0 1,-2-1,-1 0,0 0,-9 47,8-65,-1 0,0 0,-1 0,0-1,0 0,0 1,-1-1,0 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1 0,0-1,1 0,-1 0,-1-1,1 0,0 0,-1 0,0-1,0 0,1 0,-11 1,-15 1,0-1,0-2,0 0,-47-7,70 6,0-1,-1-1,1 1,0-2,0 1,0-1,0 0,1-1,-1 0,1 0,0-1,0 0,1-1,-1 0,1 0,0 0,1-1,-1 0,2 0,-1 0,1-1,0 0,0 0,1-1,0 1,0-1,1 0,1 0,-1 0,1 0,1 0,-1-18,-1-1,2 0,2 0,0 0,2 0,8-39,-5 44</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5336.08">3366 111,'67'-1,"76"3,-138-1,0 0,-1 0,1 1,-1-1,0 1,1 0,-1 1,0-1,0 1,0-1,-1 1,1 0,-1 0,1 1,-1-1,0 1,0 0,-1 0,1 0,1 4,8 14,-2 0,13 41,-8-22,16 42,-22-54,1-1,1-1,1 0,2 0,24 35,-31-56,0 0,0 0,0 0,1-1,0 0,0 0,0-1,1 0,0-1,16 5,35 17,-38-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6077.08">3921 84,'-8'1,"0"0,0 1,0-1,0 1,0 1,0-1,1 2,0-1,0 1,-1 0,2 0,-9 7,-10 9,-38 39,50-46,-83 99,31-34,27-31,28-33,-1 0,0-1,-1-1,-1 1,-25 18,-67 26,52-32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7599.08">2599 772,'0'1,"0"1,1-1,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 1,1-1,36 5,-34-4,359 4,-199-8,937 3,-1077 2,-1 1,0 0,0 2,24 8,50 9,-1-10,95 16,-43 1,-123-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9142.1">2810 1381,'-1'-4,"1"0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,1 0,-1 1,1 0,0-1,0 1,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 1,0 0,9-2,11-1,0 1,1 2,-1 0,42 5,-21-2,-38-2,0 1,1 0,-1 1,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,0 1,0 0,0 1,0-1,0 1,-1 0,0 1,6 7,7 11,-1 2,-1 0,15 35,17 27,-36-71,0-1,1 0,0-1,19 16,-8-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10034.08">3498 1196,'-19'2,"1"0,0 0,0 2,0 0,1 1,-1 1,1 1,1 0,-1 1,1 1,-23 16,-3 6,1 2,-64 67,89-81,0 0,0 2,2 0,1 0,1 2,-11 24,8-18,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12229.08">3683 1143,'1'-2,"0"-1,0 0,1 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,0 0,0 0,0 1,-1-1,1 0,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,5 1,-2 1,0-1,-1 1,1 0,-1 0,1 1,-1 0,0 0,0 0,-1 1,1-1,-1 1,0 0,0 0,4 9,-4-7,-1 0,1 0,-1 1,-1-1,0 1,0 0,0 0,-1 0,0 0,0 0,-1 0,0 0,-1 0,0 0,0 0,-1-1,1 1,-2 0,1 0,-1-1,0 0,-1 1,0-1,-7 9,5-8,-1 0,1-1,-2 0,1 0,-1-1,0 0,-1 0,1-1,-1 0,0-1,0 0,-1 0,1-1,-1 0,0-1,0 0,0 0,0-1,-10 0,15-1,0-1,1 1,-1-1,1 0,-1 0,1-1,0 0,-1 1,1-1,0-1,0 1,0 0,-6-7,8 8,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 1,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,1 1,1-2,1 0,1 0,0 0,-1 0,1 0,0 1,0 0,1 0,-1 1,0-1,1 1,-1 0,1 0,-1 1,8 0,80 5,-39 6,-31-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13379.08">4212 1249,'0'477,"0"-454</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14259.08">4001 1513,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,0 0,1 0,4-4,1-2,0 1,-2 0,-1-3,-2 0,0 1,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16217.08">4900 1275,'-1'-1,"1"0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 0,1-1,0 1,-2 0,-41-5,40 5,-19-2,12 1,0 0,-1 1,1 0,0 1,-14 2,22-3,0 1,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,1 0,0 0,-1 3,-4 12,1-1,0 1,1 0,1 0,1 0,0 1,2-1,2 30,-2-45,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,1 1,0-1,-1 0,1 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 1,0-1,0-1,-1 1,1 0,0-1,0 1,2-2,3 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 0,-1 0,1-1,0 0,-1 0,7-8,-6 3,-1 0,1 0,-2-1,1 0,-2 0,1-1,4-20,4-10,-13 40,0 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,3-1,-4 3,1-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 3,9 76,-8 266,-3-168,2-154</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18147.08">5879 190,'0'1,"0"-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,11 19,-4 3,-2-1,0 1,-2 1,0-1,-1 23,2 8,15 143,21 464,-45-708,-2 0,-2 1,-22-69,27 109,1 1,-1 1,-1-1,1 0,-1 1,0 0,-1 0,1 1,-1-1,0 1,-1 0,1 1,-1 0,0 0,0 0,0 1,0 0,-1 0,-10-2,-4-1,0 2,0 0,0 2,0 0,-41 3,57 0,1 0,-1 0,0 0,1 0,-1 1,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,0 1,-1 0,2 0,-1 0,1 1,-1-1,1 1,1-1,-2 10,-2 5,2 0,0 0,2 1,0-1,1 1,6 39,-6-55,1 0,0 0,0 0,1 0,-1-1,1 1,0 0,1-1,-1 0,1 1,-1-1,1 0,1 0,-1 0,1-1,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0-1,9 3,9-1,1 0,-1-1,1-2,43-4,-8 1,-51 3,1 0,-1-1,0 0,0 0,1-1,-1 0,0 0,0-1,-1 0,1 0,9-6,-13 6,1-1,-1 0,1 0,-1-1,0 1,-1-1,1 0,-1 0,0 0,0 0,-1 0,1-1,-1 1,0-1,-1 0,2-9,2-16,-3 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19121.08">6276 878,'6'-7,"0"-1,0 0,0 0,-1-1,8-18,-8 17,0 0,0 1,1-1,10-11,-9 14,0 0,1 1,0 0,0 1,0 0,0 0,1 1,0 0,0 0,0 1,0 0,1 1,-1 0,1 0,0 1,-1 0,1 1,0 0,-1 0,1 1,15 4,-7-2,0 2,0 0,-1 1,1 1,-1 1,-1 0,0 1,0 1,0 0,19 18,17 26,-3 1,-2 2,65 108,-36-53,-53-81</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19799.08">6938 614,'-5'0,"-10"9,-7 12,0 7,-6 12,-1 4,-6 3,-5 3,-15 25,-1 3,3-2,7-5,10-10,8-16,8-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">362 1833,'131'2,"144"-4,-271 1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,1 0,-1 1,0-1,-1 0,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,0-1,2-3,3-6,0 0,-2-1,-1 1,6-20,-3 14,-4 5,0 0,0 0,-1 0,-1-1,-1 1,0-1,-1 1,0 0,-1-1,-5-20,4 28,0 0,0 1,-1-1,0 0,0 1,-1 0,0 0,0 0,0 0,-1 1,0 0,-1-1,1 1,0 0,-1 2,0-2,-1 1,1 0,-1 1,1 0,-1 1,-1-1,-7-2,-14 0,0 0,0 2,0 1,-1 2,-50 4,-5 0,66-3,1 0,-2 1,2 1,-1 1,1 0,0 1,0 1,0 1,1-1,0 3,-21 12,19-8,1 0,0 2,0-1,3 1,-1 2,1-1,1 1,-22 37,26-35,0 0,2 0,1 2,0-1,2 1,0-1,-2 34,3 13,7 69,0-29,-4-99,1 2,0 0,1-2,0 2,1-1,0 0,0 0,2 0,-1 0,0 0,1-1,1 0,0 1,0-2,13 15,10 9,59 49,-73-69,2 0,0-2,-1 0,2 0,-1-2,34 12,-16-10,1-1,1-2,0-1,-1-2,73-1,527-4,-611 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="755.61">937 919,'4'-3,"8"-3,4 0,10 1,10 2,12 1,8 1,-1 0,4 1,-3 0,-12 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3083.08">2115 284,'3'-3,"0"0,-1-1,0 1,0-1,0 0,-1 1,1-1,-1-1,0 2,0-1,1-8,2-52,-4 44,1 9,-1 1,0-2,0 2,-1-1,-5-21,5 30,0-1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 2,-1-2,0 0,0 1,1 0,-1 0,0-1,0 1,0 1,0-1,0 0,0 1,-2 0,2 1,0-1,-5-1,-1-1,-2 1,1 0,0 1,0 0,0 1,-1 0,1 0,-19 4,25-3,-1 0,1 1,0-1,-1 1,1-1,0 1,1 1,-1-1,1 1,-1 0,0 0,1 0,0 0,0-1,0 2,1-1,0 1,-1 0,1 0,0 0,-2 7,-3 8,2-1,1 3,0-2,2 0,-1 21,8 104,-1-51,-5-64,2 1,2-1,0 0,2 0,2 0,1 0,0-1,16 29,74 134,-86-166,-2 0,-1 0,9 41,9 28,-5-33,18 86,-35-123,-2 0,0 0,-1 0,-2 0,0 0,-10 46,9-64,-1 1,0 0,-1-1,0 0,0 0,0 1,-2-2,1 1,0-1,0 1,-1-2,0 1,-1 0,1 0,-1 0,0-1,1-1,-2 1,0-1,1 0,0 0,-1 0,-1-1,1 0,1-1,-12 2,-15 1,0-1,0-2,0 0,-49-7,73 6,-1-1,0-1,1 1,-1-1,1 0,0-1,-1 0,2-1,-1 0,0 0,1 0,0-1,1-1,-2 0,2 0,0 1,1-2,-2 0,3 1,-1-1,1-1,0 0,-1 1,2-2,0 1,0 0,1-1,1 1,-1-1,1 0,1 1,-1-18,-2-1,3 0,2 0,0 0,3 0,7-37,-5 42</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5336.08">3485 107,'70'-1,"78"3,-143-2,0 1,-1 0,2 1,-2-1,0 1,1 0,-1 1,0-1,0 1,1-1,-2 1,1-1,-1 1,1 1,-1-1,0 1,0 0,-1 0,2-1,0 5,8 13,-2 0,14 40,-8-22,16 41,-23-52,2-2,0 0,1 0,3 0,24 34,-31-55,-1 1,0 0,0 0,2-1,-1-1,0 1,0-1,2 0,-1-1,17 4,36 17,-39-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6077.08">4060 81,'-8'1,"0"0,-1 0,1 0,0 1,-1 1,1-1,1 2,0-1,-1 1,0 0,2-1,-10 8,-10 8,-39 38,52-45,-87 96,33-33,28-30,28-32,0 1,0-2,-2 0,0 0,-27 18,-68 24,53-30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7599.08">2691 741,'0'1,"0"1,1-1,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,0 0,-1 0,1-1,1 1,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 1,1-1,37 5,-34-4,371 4,-207-8,971 3,-1115 2,-1 1,0-1,0 3,25 8,51 8,0-10,97 16,-43 1,-128-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9142.1">2910 1325,'-1'-4,"1"1,1-2,-1 1,1 0,0-1,0 1,0 1,0-1,1 0,-1 0,1 0,0 0,0 1,1-1,-1 1,1 0,1-1,-1 1,0 0,0 1,1-1,-1 1,1-1,-1 1,2 0,-1 0,0 0,0 0,0 1,0 0,10-2,11 0,-1 0,2 2,-1 0,43 5,-21-2,-40-2,1 1,0 0,-1 0,0 1,1 0,-1 0,0 1,0 0,1 0,-2 0,0 1,0-1,0 2,1-1,-1 1,-1 0,0 0,7 8,6 10,0 2,-2 0,17 33,16 27,-36-69,-1-1,2 1,-1-2,20 16,-8-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10034.08">3622 1148,'-20'2,"2"0,-1-1,1 3,-1 0,1 1,0 1,0 0,1 1,0 1,0 0,-23 16,-4 6,2 2,-67 64,93-78,-1 0,1 2,1 1,2-1,0 2,-11 23,9-17,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12229.08">3814 1097,'1'-2,"0"-1,0 0,1 1,-1-1,1 1,0 1,0-2,0 1,0 0,0 0,0 0,1 1,0-1,0 0,-1 1,1 0,-1-1,1 1,0 0,0 0,0 1,-1 0,2-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,6 2,-3 1,0-1,-1 1,2 0,-2 0,1 1,-1 0,0-1,0 1,0 1,0-1,-1 1,0-1,0 1,5 9,-5-8,-1 1,1 0,-1 0,-1 0,0 1,0 0,0-1,-1 1,0 0,0-1,-1 1,0 0,-1-1,0 1,0 0,-1-2,1 2,-2 0,1-1,-1 0,0 0,-1 1,0-2,-8 10,6-9,-1 1,0-1,-1-1,1 1,-1-1,-1 0,0-1,1 0,-2 0,1-1,0 0,-2-1,2 0,-1 0,-1-1,1 0,0 0,-1-1,-9 0,14-1,1-1,1 1,-1-1,1 0,-1 0,1-1,-1 0,0 1,1-1,0-1,0 2,0-1,-7-7,9 8,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0 0,1-1,-1 0,1 1,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,1 1,1-1,1-1,2 0,-1 0,-1 0,1 0,0 1,0 0,2 0,-2 1,0-1,1 2,-1-1,2 0,-2 1,8 0,83 4,-40 7,-32-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13379.08">4361 1199,'0'457,"0"-435</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14259.08">4143 1452,'4'0,"6"0,8 0,3 0,4 0,3 0,0 0,-1 0,2 0,5-4,0-2,0 2,-2-1,-1-3,-2 0,0 2,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16217.08">5074 1224,'-1'-1,"1"0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 0,1-1,0 1,-2 0,-43-4,42 4,-20-2,13 1,0 0,-2 1,2 0,-1 1,-14 2,23-3,0 1,0-1,0 2,0-1,0 0,0 1,0-1,1 1,-2 0,2 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,0 0,1-1,-1 1,1 0,0 0,-1 2,-5 13,2-2,0 1,1 1,1-1,1 0,0 1,2 0,2 28,-2-43,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,1 1,0-1,-1-1,1 1,0 0,0 0,0 0,0 0,1 0,0-1,-1 1,0-1,1 1,0-1,-1 0,1 0,-1 0,1 0,0-1,1 0,-2 0,1 0,0 1,0-1,0-1,-1 1,1 0,0 0,0 0,3-2,2 0,0 0,0 0,0-1,0 0,-1 0,2-1,-2 1,-1-1,1-1,0 0,0 0,6-7,-6 2,0 1,0-1,-2-1,1 1,-2-1,2 0,3-20,4-9,-13 38,0 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,1-1,-1 2,0-1,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,3-1,-4 3,1-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 3,10 73,-9 255,-3-161,2-148</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18147.08">6088 182,'0'1,"0"-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,11 19,-3 2,-3-1,0 1,-2 1,0-1,-1 23,2 7,16 137,21 445,-46-679,-2 0,-2 1,-23-66,27 104,2 1,-1 2,-1-2,1 0,-1 1,0 1,-2-1,2 1,-1-1,0 1,-2 1,2 0,-1 0,0 0,-1 0,1 1,0 1,-1-1,-11-2,-4-1,1 2,-1 0,0 3,0-1,-42 3,59 0,1 0,-2-1,1 1,1 0,-1 1,1 0,-2 1,2-1,0 1,0 0,0 0,-1 0,2 0,-1 1,1 0,0 0,0 0,0 1,0-2,1 2,-1 0,2 0,-1 0,1 0,-1 0,1 1,1-1,-2 9,-3 5,3 0,0 1,2 0,0-1,1 1,6 38,-6-53,1-1,0 1,0 0,2 0,-2-1,1 0,0 1,1-1,-1 0,1 1,-1-2,1 1,1 0,-1 0,2-1,-2 1,1-1,0-1,0 1,0 0,1-1,0 1,0-1,-1 0,1 0,0-1,10 3,9-2,0 1,0-1,1-2,44-4,-7 2,-54 2,1 0,-1-1,1 0,-1 0,1-1,0 0,-1 0,0-1,-1 0,2 0,8-5,-13 5,2-1,-2 0,1 0,-1-1,0 2,-1-2,1 0,0 0,-1 0,0 1,-1-1,1-1,-1 1,0-1,-1 1,2-10,2-14,-2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19121.08">6499 843,'6'-7,"0"-1,0 1,1-1,-2-1,8-17,-8 17,1-1,-1 1,1 0,10-11,-8 13,-1 0,1 2,1-1,-1 1,0 0,0 0,2 2,-1-1,0 0,1 1,-1 0,1 1,0 0,0 0,0 1,0 0,0 1,0 0,0 0,0 1,16 4,-7-2,-1 2,1 0,-2 0,2 2,-1 1,-2-1,1 2,-1 1,1-1,19 18,18 25,-3 1,-3 1,68 105,-37-52,-55-77</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19799.08">7184 589,'-5'0,"-11"9,-6 11,-1 7,-6 11,-1 5,-6 2,-6 3,-15 24,-1 2,3-1,8-5,9-9,9-16,9-14</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20924,8 +21984,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'13'0,"18"0,13 0,17 5,7 1,5 0,-5-1,-9-2,-11-1,-9-1,-6 0,-9-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="857">27 212,'4'9,"7"3,9 0,7-3,7-2,3-3,4-2,-1-1,7-1,-1-1,-3 1,-5-1,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'15'0,"21"0,14 0,21 5,7 1,6 0,-5-1,-11-2,-13-1,-10-1,-7 0,-10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="857">31 211,'5'9,"7"3,11 0,8-3,9-2,2-3,6-2,-2-1,8-1,-1-1,-3 1,-7-1,-8 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20952,16 +22012,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1112 159,'241'1,"-226"1,0 0,0 1,0 1,0 0,-1 1,1 1,-1 0,-1 1,18 12,15 11,49 45,-95-75,160 144,-113-100,-23-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1056">1720 0,'-4'1,"1"-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,-5 5,-33 50,24-34,-99 139,-180 192,276-336,0-1,-1-1,-44 26,18-13,21-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1898.99">1 900,'2197'0,"-658"0,-1495 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2831.99">424 1455,'6'0,"0"-1,0-1,0 1,0-1,0 0,0-1,0 1,9-6,16-7,-1 4,5-2,1 1,69-14,-94 25,0 0,0 0,0 0,0 2,0-1,0 2,0-1,0 1,0 1,0 0,-1 1,1 0,-1 0,13 8,3 6,-1 0,-1 2,-1 1,-1 0,-1 2,0 0,19 30,106 195,-43-66,-96-171,24 32,-30-41,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,2-1,18-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3444">1535 1455,'-9'0,"-26"14,-11 9,-15 18,-3 7,6 4,3-2,7-5,7-2,6-7,-1-2,3-1,1-7,7-3,7-1,7-9,14-20,7-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4551.52">1641 952,'17'0,"0"1,0 0,0 1,0 0,0 2,27 9,-34-9,1 1,-1 1,-1 0,1 0,-1 1,0 0,0 1,-1-1,0 2,13 17,-4-4,-1 1,-1 0,-1 1,-1 1,-1 1,-1-1,-1 2,-2-1,0 1,-2 1,-1-1,-1 1,-2 0,-1 0,-1 0,-3 29,2-53,1 0,-1 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,0 1,-1-1,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,-1 0,1 0,0 0,-1 0,1 0,-1-1,0 0,0 0,1 0,-8 1,-10 1,0-1,0-1,0-1,-27-3,10 1,-89-2,186 4,-1 2,69 12,-105-10,-14-4,0 2,1-1,-1 1,0 0,0 0,0 1,0 0,0 1,-1 0,1 0,9 8,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5076.52">2541 1349,'0'5,"0"15,0 21,0 18,0 4,0 4,0-5,0-4,0-2,0 2,0 0,0-4,0-8,0-7,0-5,0-5,0-2,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5693.52">2355 1852,'4'-4,"11"-2,8 1,8 0,8 2,2 1,-2 1,-2 0,-9 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8917.52">3043 1482,'38'0,"13"0,80 8,-114-5,0 1,0 0,0 1,0 0,-1 2,1 0,-2 1,21 13,-34-20,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 3,-1-3,0 0,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 0,0 1,-1-1,1 0,-1 1,1-1,-3 1,-7 5,0-1,0-1,-1 0,0 0,-23 4,28-7,-40 12,47-14,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,24 6,50 4,-39-7,-1 1,1 2,61 20,-89-24,0 1,-1 0,0 0,0 1,0-1,0 1,-1 0,0 1,0-1,0 1,-1 0,0 1,0-1,0 0,-1 1,0 0,-1 0,1 0,-1 0,0 0,-1 1,0-1,0 1,0 10,-1-8,0 0,-1 0,1 0,-2 0,0-1,0 1,0 0,-1-1,-1 0,0 0,0 0,0 0,-1 0,-1-1,0 0,0 0,0-1,-10 9,4-5,-9 7,-1-1,-33 20,46-32,-1-1,1 1,-1-2,0 1,-1-1,1-1,0 0,-1 0,-18-1,-15 0,12 1,0-2,0-1,-59-10,72 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10457.52">3519 1349,'8'0,"1"-2,-1 1,1-1,12-4,26-6,-3 8,0 2,58 6,-100-4,1 0,-1 1,1-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,-1 0,1-1,-1 1,2 3,0-1,-1 1,0 0,0 0,-1 0,0 0,1 0,-2 0,1 0,0 6,-1 9,-1 0,-1 0,-7 34,5-38,0-1,0 0,-2 0,0-1,0 0,-2 0,-11 18,15-26,0-1,-1 0,1 1,-1-1,0-1,0 1,-1-1,1 0,-1 0,0-1,0 1,0-1,0 0,-1-1,1 0,-1 0,1 0,-1-1,-8 1,13-2,0 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,0-1,-1 1,1 0,0-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,3-1,3 0,1 0,-1 0,1 1,0 0,0 0,0 1,14 0,71 5,-33 0,-40-3,-1 2,30 6,-36-6,9 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1159 153,'252'1,"-237"1,1 0,-1 1,1 0,0 1,-2 1,2 1,-1 0,-2 0,19 13,16 9,51 45,-99-73,167 138,-118-96,-24-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1056">1793 0,'-4'1,"1"-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1 0,0 0,-5 5,-35 48,26-33,-104 134,-188 184,288-323,0 0,0-2,-47 25,19-12,22-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1898.99">1 865,'2290'0,"-685"0,-1559 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2831.99">442 1399,'6'0,"1"-1,-1-1,0 1,0-1,1 0,-1-1,0 1,10-5,16-8,-1 5,6-3,0 2,73-14,-99 24,1 0,-1 0,1 0,-1 2,1-1,-1 2,1-1,-1 1,0 0,1 1,-2 1,2 0,-2 0,14 7,3 7,-1-1,-1 2,-1 1,-1 1,-1 1,0 0,20 29,110 187,-45-63,-99-164,24 30,-31-39,1 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1-1,0 1,1 0,-1-1,2 1,1-1,19-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3444">1600 1399,'-9'0,"-28"13,-11 9,-15 18,-4 6,7 4,2-2,8-5,8-1,5-8,0-1,2-1,2-7,7-3,7-1,7-8,16-20,6-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4551.52">1711 915,'18'0,"-1"1,1 0,0 1,-1 0,1 2,28 8,-36-8,2 1,-2 1,0 0,0-1,0 2,-1 0,0 1,0-2,-1 3,14 16,-4-4,-2 1,0 0,-2 1,0 1,-1 1,-2-1,-1 2,-1-1,-1 1,-2 1,0-1,-2 1,-2 0,-1 0,-1 0,-3 28,2-51,1-1,-1 1,0 0,-1-1,1 1,-2 0,2-1,-1 0,0 0,0 1,-1-1,1 0,-1 0,1 0,-1-1,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,0 0,0-1,0 0,0 0,1 0,-9 1,-10 1,1-2,-1 0,0-1,-28-2,10 0,-92-2,193 4,0 2,71 11,-109-9,-15-4,1 2,0-1,-1 1,1 0,-1 0,0 1,1-1,-1 2,-1 0,2 0,9 8,-1 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5076.52">2649 1297,'0'5,"0"14,0 20,0 18,0 4,0 3,0-4,0-4,0-3,0 3,0 0,0-4,0-8,0-6,0-6,0-4,0-2,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5693.52">2455 1781,'4'-4,"12"-2,8 1,8 0,9 2,2 2,-3 0,-1 0,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8917.52">3172 1425,'40'0,"13"0,84 8,-119-6,-1 2,1 0,0 1,-1 0,0 1,1 1,-3 1,23 12,-36-19,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 3,-1-4,0 1,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 0,0 1,-1-1,1 0,-1 0,1 0,-4 1,-6 5,-1-1,1-1,-2-1,1 1,-25 4,30-7,-42 11,49-13,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,25 6,52 3,-40-6,-2 1,1 2,65 19,-94-23,0 0,-1 1,1 0,-1 1,0-1,0 0,0 1,-1 1,0-1,0 1,-1-1,1 2,-1-1,0 0,-1 0,0 1,-1 0,1 0,0-1,-1 1,-1 1,0-2,0 2,0 9,-1-7,0 0,-1-1,1 1,-2 0,0-2,-1 2,1-1,-1 0,-1 0,0-1,0 1,0 0,-2-1,0 0,0 0,0-1,-1 0,-9 9,3-6,-9 7,-1 0,-34 18,48-30,-2-1,2 1,-2-2,1 1,-2-2,2 0,0 0,-2 0,-18-1,-16 0,13 1,-1-2,1-1,-62-9,75 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10457.52">3669 1297,'8'0,"1"-2,0 1,0-1,13-4,27-5,-3 7,0 2,60 6,-104-4,1 0,-1 1,2-1,-2 1,0 0,1-1,-1 1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0 0,-1 0,1-1,-1 1,2 3,0-1,-1 1,0-1,0 1,-1 0,0 0,2 0,-3-1,1 1,0 6,-1 8,-1 0,-2 0,-6 33,5-36,0-2,0 1,-3-1,1 0,0-1,-3 0,-10 18,15-25,-1-1,0 0,1 0,-1 0,0-1,-1 1,0-1,1 0,-1-1,-1 0,1 1,0-1,0 0,-2-1,2 0,-1 0,0 0,0-1,-8 0,12-1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,1 0,-1 0,0 1,1-1,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,0-1,-1 1,1 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 1,0-1,0 0,2 0,-2 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,3-1,4 1,0-1,-1 0,2 1,-1 0,1 0,-1 1,15 0,74 5,-34 0,-43-3,0 2,31 5,-37-5,9 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21043,7 +22103,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2784,'31'10,"0"0,0 2,-1 2,0 1,-1 0,-1 3,-1 0,0 2,27 26,-4 1,-3 3,-2 1,54 81,-94-125,47 77,-49-77,1 0,-2 0,1 0,-1 0,0 0,0 1,-1-1,0 0,-1 1,0 12,-3-18,-4-12,-3-13,-56-180,56 166,1 1,-6-70,12 70,-2 0,-2 1,-13-42,-1 10,2 0,3-1,-10-100,2-6,9 80,-3-125,20-187,-3 401,1 0,1 1,-1-1,1 0,0 0,0 0,0 0,1 1,-1-1,1 0,0 1,1-1,-1 1,1 0,0 0,4-5,-1 4,0 0,0 0,1 1,-1 0,1 1,0-1,0 1,0 0,0 1,10-2,45-17,0-2,70-37,-19 8,-86 40,100-43,208-61,-175 72,303-128,-392 143,81-20,-78 26,667-201,-495 162,-207 52,0-2,0-2,-1-2,39-22,38-16,343-165,-425 201,141-82,-172 98,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,3 2,-2 1,1-1,-1 1,0 0,0 1,-1-1,1 1,-1-1,0 1,1 0,-2 1,1-1,2 5,6 11,-1 1,10 32,-13-31,2-1,14 28,-6-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2664,'32'9,"0"1,1 1,-2 3,0 0,-1 1,-1 2,-1 0,0 2,28 25,-4 1,-3 3,-2 1,55 77,-96-119,48 73,-51-73,1-1,-2 1,1 0,-1 0,0-1,0 2,-1-1,0-1,-1 2,0 11,-3-17,-4-12,-3-12,-59-172,59 159,0 0,-5-66,12 67,-3-1,-1 2,-14-41,0 10,1 0,3-1,-10-96,2-6,10 77,-4-119,21-180,-3 385,1-1,1 1,-1-1,1 0,0 1,0-1,0 0,1 1,-1 0,2-1,-1 1,1-1,-1 1,1 0,0 1,4-6,-1 4,1 0,-1 1,1 0,-1 0,2 1,-1-1,0 1,1 1,-1 0,10-2,48-16,-1-2,73-36,-19 9,-90 37,103-41,217-58,-182 69,315-122,-407 136,84-19,-82 25,694-192,-515 155,-214 49,-1-2,1-1,-2-2,41-22,39-14,357-159,-442 193,147-79,-179 94,1 0,-1 2,1-2,0 1,-1-1,2 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,3 2,-1 1,0-1,-1 1,0-1,0 2,-1-1,1 1,0-1,-1 1,1-1,-2 2,1-1,2 5,7 10,-2 1,11 31,-14-30,2-1,15 27,-6-22</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21070,19 +22130,19 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">416 3706,'6'-1,"0"0,0-1,0 0,-1 0,1 0,0-1,-1 0,0 0,1 0,-1-1,9-7,1-1,388-307,-26 18,382-284,-618 468,270-170,182-29,-36 23,-339 169,297-195,-363 210,-58 44,156-140,-226 184,1 1,34-22,-30 23,43-38,-72 57,1-1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1 0,1 0,-1 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 3,2 12,0 0,-1 30,-1-31,23 220,3 90,-27-316,3 216,-33 283,16-397,-21 134,-3 4,11 1,6 327,21-499,8 276,-2-259,33 158,-31-221,-4-25,-2 1,1-1,-1 1,-1-1,1 1,-1 0,-1 0,0-1,0 1,-2 11,1-18,0-1,0 1,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,0 1,-4-1,-58 3,47-3,-498-10,368 0,-220-44,-496-52,618 85,-565-25,199 26,58-2,-28 12,408 10,147 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1218.56">628 3415,'-5'0,"-1"5,-13 6,-17 9,-11 3,-12 5,1 3,0 0,2 0,5-5,7-4,7-4,5-1,-2 0,6 3,3-2,5-1,7-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2378.41">628 3415,'-5'5,"-10"6,-16 14,-7 3,-7 2,-4 4,-3 1,-2-1,5-6,5-4,10-1,7-4,3-6,2 0,-5 1,-3 4,5-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20455.12">893 2039,'-1'0,"0"0,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,-5-34,4 32,0-16,1 0,0 0,2 1,0-1,1 0,1 1,1 0,0 0,2 0,0 0,1 1,1 1,13-21,-18 33,0 0,1 0,-1 1,1-1,0 1,0 0,0 1,1-1,-1 1,1 0,0 1,0-1,0 1,0 0,0 1,0-1,1 1,-1 1,0-1,1 1,-1 0,12 1,-11 0,1 1,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 1,0-1,0 1,5 8,6 17,-1 1,-1 0,-2 1,13 56,-18-58,1 0,2-1,2 0,0 0,27 45,-18-50,-1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21059.14">1528 1457,'-7'2,"0"-1,0 1,0 0,0 0,0 1,1 0,0 0,-1 1,1-1,0 2,1-1,-1 0,1 1,0 0,-5 6,-3 1,-56 52,4 2,2 4,-81 116,129-160,0 2,1-1,2 2,-9 33,16-50,-24 64,21-54</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22301.16">1475 955,'31'-15,"1"2,1 1,0 1,1 1,0 3,0 0,1 2,0 2,-1 1,1 2,41 5,-72-5,0 1,0-1,-1 1,1 1,0-1,-1 0,1 1,0 0,-1 0,0 0,0 0,1 0,-1 1,-1-1,1 1,0 0,-1 0,5 6,-4-3,1 1,-1-1,-1 1,0 0,0 0,0 0,-1 0,0 0,1 11,-3 10,0-1,-2 0,-1 0,-9 34,7-37,-2 1,0-1,-1-1,-16 30,20-45,0 1,0-1,-1 0,0 0,0-1,-1 0,0 0,0 0,-1-1,0 0,0 0,0-1,-1 0,-9 4,16-8,0-1,0 1,-1 0,1-1,0 1,0-1,-1 0,1 1,0-1,0-1,-1 1,1 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 1,0-2,-4-1,3 1,1-1,-1 0,1 1,-1-1,1 0,0 0,0 0,0-1,1 1,-1 0,1-1,-2-5,1 0,0 1,1-1,0 0,0 0,1 0,0 0,0 0,1 0,0 0,5-15,-5 21,1 0,0 0,0 0,0 1,0-1,0 0,0 1,1 0,0-1,-1 1,1 0,0 0,0 1,0-1,0 0,0 1,1 0,-1 0,0 0,0 0,1 0,-1 1,6-1,12 0,0 0,38 4,-30-1,52-1,-44-2,-1 2,0 1,53 10,-67-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22842.46">2612 981,'0'5,"0"6,0 14,0 16,0 16,0 6,0 11,0 6,0 3,4 1,2-10,0-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23500.46">2374 1457,'0'-4,"0"-6,0-7,4 1,7 3,14 3,12 3,5 4,-1 1,1 2,8-4,0-1,0-1,-4 2,-5-3,-10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24622.48">3168 637,'16'-12,"0"0,2 1,-1 0,1 2,1 0,0 1,23-7,-25 9,-1 1,0 1,1 1,0 0,0 1,0 1,0 0,0 1,34 6,-48-5,1 0,-1 0,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,1 0,-1-1,0 1,-1 0,1 0,0 1,-1-1,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1-1,0 1,0-1,0 1,-2 5,1 2,0 1,-1-1,-1 0,0 0,0 0,-1 0,-1-1,-9 17,-23 16,31-37,0 0,0 1,1-1,0 1,0 0,0 0,-4 12,8-18,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 0,2 1,43 6,-37-7,-5 1,-1 0,1-1,0 2,0-1,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,-1 0,0 0,1 0,-1 0,-1 1,1-1,0 1,-1-1,1 1,0 4,-1-2,0-1,0 0,0 1,-1-1,0 1,0-1,0 1,-1-1,0 1,0-1,0 0,-1 1,1-1,-1 0,0 0,-1 0,0 0,-5 8,-3-1,0 0,-1-1,-1 0,1-1,-2 0,1-2,-17 10,-1-3,1-1,-47 14,41-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26105.49">3538 2,'121'-2,"132"5,-246-2,1-1,-1 1,0 1,0-1,0 1,0 0,0 1,-1 0,1 0,-1 0,0 1,1 0,-2 0,1 1,0 0,7 8,-8-6,0 0,-1 1,1 0,-2-1,1 1,-1 1,0-1,-1 0,0 1,0-1,-1 1,0 0,-1 12,1-2,-1 0,-2-1,0 1,0 0,-2-1,0 0,-9 21,9-29,0 0,-1-1,0 0,-1 0,0 0,-1 0,1-1,-2 0,1-1,-1 0,0 0,0 0,-1-1,-12 6,9-5,0 0,0-1,-1 0,1 0,-27 7,36-13,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0-1,0 1,1 0,-1-1,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,-2-4,-1-4,0 0,0-1,1 1,0-1,1 0,0-1,1 1,0 0,0-17,2 22,0 1,0 0,1-1,0 1,0 0,0 0,0 0,1 0,0 0,3-6,-4 9,1-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 1,0 0,-1 0,1 0,0 0,5-1,6 1,1 0,-1 0,1 2,-1 0,0 0,1 1,-1 1,0 0,0 1,18 9,19 9,65 39,-74-38,-27-15,1 0,0-1,1 0,-1-1,1-1,0-1,1 0,-1-2,1 0,0 0,22-2,53-3,-67 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76892.56">998 3124,'47'0,"-21"-1,-1 0,1 2,-1 2,27 5,-43-6,-1 0,0 1,-1 0,1 1,0-1,-1 1,0 1,0 0,0 0,-1 0,1 1,-1 0,-1 0,1 0,-1 1,7 10,10 23,-2 0,-1 1,-3 1,-1 1,12 55,-25-87,0 1,-1 0,0-1,-1 1,0-1,-1 1,0 0,-1-1,0 1,-1-1,0 0,-1 0,-9 19,-2-4,0 0,-2-1,-1-1,-23 24,29-39,8-22,5-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78122.06">2136 2807,'-16'18,"2"1,1 0,0 1,1 0,-14 34,7-14,-63 143,31-62,40-93,1 0,2 0,1 1,1 0,2 1,1-1,1 1,1-1,2 1,5 35,-5-62,-1 1,2-1,-1 1,0-1,1 0,0 0,-1 0,1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,-1 0,1 0,1 0,-1 0,0-1,0 1,1-1,-1 0,0 0,1 0,4 1,12 2,0 0,1-2,26 1,-37-3,-2 1,1-1,0 0,0 0,0-1,0 0,0 0,0-1,-1-1,1 1,-1-1,1-1,-1 1,0-2,0 1,-1-1,1 0,-1 0,0-1,-1 0,1 0,-1-1,-1 0,1 0,-1 0,0-1,-1 0,1 0,-2 0,1 0,-1 0,0-1,-1 0,2-9,3-27,-3-1,-1 0,-5-84,-1 36,3 81,-1 1,0 0,0 0,-1 0,-1 0,0 1,-1-1,0 1,0-1,-1 1,-1 1,0-1,0 1,-13-15,10 15,-1 1,-1 0,0 0,0 1,0 0,-1 1,0 1,-1-1,1 2,-1 0,0 1,-21-5,9 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78877.23">1898 3204,'4'0,"6"0,7 0,3 0,4 0,3 0,4 0,3 0,-1 0,-1 0,-1 0,-2 0,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">436 3558,'6'0,"1"-1,-1-1,0 0,-1 0,2 0,-1-1,-1 0,0 0,2 0,-2 0,10-8,0-1,408-294,-28 17,400-273,-647 450,283-164,190-27,-37 22,-356 162,312-188,-381 203,-60 41,163-134,-237 177,1 1,36-21,-31 22,44-37,-75 55,1-1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,-1 0,1 1,0-1,-1 1,1 3,2 11,0 1,-1 28,-1-30,25 212,2 86,-28-304,3 208,-34 272,16-381,-22 128,-3 4,12 1,6 314,22-479,8 265,-1-249,34 152,-33-213,-4-23,-2 1,1-2,-1 2,0-1,0 0,-1 1,-1 0,0-2,0 2,-2 10,1-17,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 0,1 0,-1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,-5-1,-60 3,50-3,-523-10,386 1,-231-43,-519-50,647 82,-592-24,209 25,60-2,-29 11,428 10,154 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1218.56">658 3279,'-5'0,"-1"5,-14 5,-18 10,-11 2,-13 5,1 2,0 1,3 0,4-5,8-4,7-4,6 0,-3-1,7 3,3-2,5 0,7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2378.41">658 3279,'-5'5,"-11"5,-16 14,-8 3,-7 2,-5 4,-2 0,-3 0,6-6,5-4,10-1,8-4,3-5,2-1,-6 2,-2 3,5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20455.12">936 1958,'-1'0,"0"0,0 0,0-1,0 1,0-1,0 1,-1 0,1-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0-1,-5-33,4 31,0-15,1 0,0 0,2 0,0 0,1 0,1 1,1 0,1-1,1 1,0 0,2 1,0 0,14-19,-19 31,1 0,0 0,-1 1,1 0,0 0,1 0,-1 1,1-1,-1 1,2 0,-1 2,0-2,1 1,-1 0,0 1,1-1,0 1,-1 1,0-1,2 1,-2 0,13 1,-12 0,2 1,-2 0,1 0,0 0,0 1,-1-1,1 1,-1 1,-1 0,2 0,-2 0,0 0,1 1,-1 0,-1 1,0-1,1 0,4 9,7 16,-1 0,-2 1,-1 1,13 53,-19-55,2 0,1-1,3-1,-1 1,29 43,-19-48,-1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21059.14">1601 1399,'-7'2,"0"-1,-1 1,1 0,0 0,-1 1,2-1,0 1,-2 1,2-1,0 2,1-1,-2-1,2 2,0 0,-6 6,-2 0,-60 51,5 1,2 4,-85 112,136-154,-1 2,1-1,3 1,-10 33,16-49,-24 62,22-51</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22301.16">1546 917,'32'-14,"2"1,0 2,1 0,1 1,-1 4,1-1,1 2,-1 2,0 1,1 2,42 5,-75-5,1 1,-1-1,-1 1,1 1,0-1,-1 0,2 1,-1 0,-1 0,0 0,0 0,1-1,0 2,-2-1,1 1,0 0,-1 0,5 6,-3-4,0 2,-1-1,-1 1,0-1,0 1,0 0,-1-1,0 1,2 10,-5 10,1-1,-2 0,-1 0,-10 33,8-36,-2 1,-1-1,0-1,-17 29,21-44,-1 2,1-1,-1-1,-1 1,1-1,-1 0,0-1,-1 1,0-1,-1-1,1 1,0-1,-2 0,-9 3,17-7,0-1,0 1,-1 0,1-1,0 1,0-1,-2 0,2 1,0-1,0-1,-1 1,1 0,0 0,-1-1,1 1,0-1,-1 0,1 0,0 1,0-1,-4-2,3 1,1-1,-2 0,2 1,-1-1,1 0,0 0,0 1,0-2,1 1,-1 0,1-1,-3-5,2 1,0 0,1 0,0-1,0 0,1 1,0-1,0 0,1 1,0-1,6-14,-6 20,1 0,0 0,0 0,0 2,0-2,0 0,0 1,1 0,1-1,-2 1,1 0,0 0,0 1,0-1,0 0,1 2,0-1,-1 0,0 0,0 0,1 0,-1 1,7-1,12 0,0 0,40 4,-32-1,55-1,-46-2,-1 2,-1 1,57 9,-71-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22842.46">2737 942,'0'5,"0"5,0 14,0 16,0 14,0 7,0 10,0 6,0 2,5 2,1-10,0-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23500.46">2488 1399,'0'-4,"0"-5,0-8,4 2,8 2,14 4,13 2,5 4,-1 1,1 2,8-4,0 0,1-2,-5 2,-5-3,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24622.48">3320 612,'17'-12,"0"1,2 0,-2 0,2 3,1-1,0 2,24-8,-26 9,-1 2,-1 0,2 1,0 0,0 1,0 1,-1 0,1 1,36 6,-51-5,1 0,-1 0,0 1,1 0,-1 0,0-1,0 1,0 0,-1 0,1 1,-1-1,1 1,0 0,-1-1,0 1,-1-1,1 1,0 1,-1-1,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,-1-1,0 1,0-1,0 1,-2 4,1 3,0 0,-1 0,-1-1,0 1,0-1,-1 1,-2-1,-8 16,-25 15,33-35,-1-1,1 2,1-1,-1 1,1-1,0 1,-4 11,8-17,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 0,3 1,44 6,-39-7,-5 1,0 0,0-1,0 2,0-1,-1 0,1 1,0-1,0 0,-1 1,0 0,0 0,0 1,1-1,-1 1,0 0,0 0,-1 0,0-1,1 1,-1 0,-1 1,2-1,-1 1,-1-1,1 1,0 3,-1-1,0-1,0 0,0 0,-1 0,0 1,0-1,0 0,-1 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,-2 0,1-1,-5 9,-4-2,1 1,-2-2,0 1,0-1,-2-1,2-1,-19 9,0-2,0-2,-48 14,42-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26105.49">3708 2,'127'-2,"138"5,-258-2,2-1,-2 1,0 1,1-1,-1 1,0 0,1 0,-2 1,1 0,-1 0,1 1,0 0,-2 0,2 0,-1 1,8 8,-9-7,0 1,-1 1,1-1,-1 0,0 1,-1 1,0-2,-1 1,0 1,0-2,-1 2,0-1,-1 13,2-3,-2 0,-3-1,1 2,0-1,-2-1,0 0,-10 21,10-28,0-1,-1 0,-1-1,0 1,0 0,-2-1,2 0,-2 0,0-2,0 1,0 0,-1 0,0-2,-13 7,9-5,1-1,-1 0,-1 0,2 0,-29 6,38-12,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 1,0-1,0-1,0 1,1 0,-2-1,1 1,1 0,-1-1,1 0,0 0,0 0,0 0,0 0,0-1,-1 1,-1-4,-1-3,0-1,0 0,0 0,1-1,1 1,0-2,1 2,0-1,0-16,2 22,0 0,0 0,1-1,0 1,0 1,0-1,0 0,1 0,0 0,3-5,-4 8,1-1,0 1,1 0,-1-1,0 1,0 1,0-1,1 0,-1 0,1 1,-1-1,2 0,-1 1,0 0,-1 0,1 0,0 0,6-1,5 1,2 0,-1 0,0 2,0 0,0 0,0 1,0 1,0 0,0 1,18 8,20 9,69 38,-78-37,-28-14,1-1,-1 0,2 0,-1-1,1-2,0 0,0 0,0-2,1 0,0 0,23-2,55-3,-69 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76892.56">1046 3000,'49'0,"-22"-1,0 0,0 2,-1 2,29 4,-46-5,-1 0,1 1,-2 0,1 1,1-1,-2 0,1 2,-1 0,0 0,0 0,0 0,-1 1,-1 0,2 0,-2 0,7 11,12 21,-4 1,0 0,-3 1,-1 2,12 52,-26-84,0 2,-1-1,0 0,-1 0,0 0,-1 0,0 1,-1-2,0 2,-1-1,0-1,-1 1,-10 17,-2-3,1 0,-3-1,-1-1,-24 24,30-39,9-20,5-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78122.06">2239 2695,'-17'18,"2"0,1 0,1 1,0 0,-14 33,7-13,-66 136,33-58,41-91,2 1,1 0,2 1,1 0,2 1,0-1,2 0,1 0,2 1,6 33,-6-59,-1 1,2-1,-1 1,0-1,1 0,0 0,-1-1,1 1,0 0,1 0,0 0,0 0,-1-1,1 1,0-1,-1-1,1 1,1 0,0 0,-1-1,0 1,1-1,-1 0,0 0,2 0,3 1,13 2,0 0,1-3,27 2,-38-3,-3 1,1-1,1 0,-1 0,1-1,-1 0,1 0,-1 0,-1-2,2 1,-2-1,2-1,-2 1,0-2,1 1,-2 0,2-1,-2 0,0-1,-1 1,2-1,-2-1,-1 0,2 1,-2-1,0-1,-1 1,2-1,-3 0,1 1,-1-1,0-1,-1 1,2-10,4-25,-4-1,-1 0,-5-81,-1 35,3 77,-1 2,0-1,0 1,-1-1,-1 1,-1 0,0-1,0 2,0-2,-1 2,-2 0,1 0,0 0,-14-14,10 14,0 2,-2-1,1 1,-1 0,1 0,-2 1,1 2,-2-2,1 2,0 0,-1 1,-21-4,8 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78877.23">1989 3076,'4'0,"7"0,7 0,3 0,4 0,3 0,5 0,2 0,0 0,-2 0,0 0,-3 0,-1 0,-5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21109,26 +22169,26 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">748 1197,'-22'1,"1"1,0 1,0 1,0 0,0 2,1 0,-21 10,-133 74,92-45,76-42,0 1,1-1,-1 1,1 0,0 0,0 1,1 0,-1 0,1 0,0 0,0 0,0 1,1 0,-3 7,5-10,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,0-1,0 0,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,1 1,-1-1,0 1,1-1,0 0,-1 0,4 2,7 3,0 0,0-1,0-1,0 0,1 0,0-2,0 0,0 0,19 0,-9 1,0 0,25 8,8 4,-26-8,40 16,-64-22,0 1,0 1,-1 0,1-1,-1 2,0-1,0 1,0 0,-1 0,0 1,6 6,-7-5,-1 1,1 0,-1 0,-1 0,1 0,-1 0,-1 0,0 1,0-1,0 0,-1 10,-1-3,0 0,0 0,-2 0,0-1,-6 21,4-25,0 0,-1 0,0-1,0 1,-1-2,-1 1,1-1,-1 0,0 0,-1-1,0 0,0-1,0 0,-1 0,-19 7,3-2,-1-1,0-1,0-1,-1-2,-31 4,-14-4,0-3,-104-9,172 5,-1 1,1-1,-1 0,1 0,-1-1,1 1,-1-1,1 0,0-1,0 1,0-1,1 0,-9-7,10 7,1 1,0-1,0 0,0 0,0 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,1 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,1-1,1-3,1-2,0 0,1 0,0 1,1-1,-1 1,1 0,10-11,14-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="609">1225 1541,'0'32,"0"23,0 12,0 3,0-5,-5-6,-1-7,0-9,1-6,2-6,-3-4,-1-10,1-26,1-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="952.99">1251 985,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2164.57">1648 1594,'2'149,"-5"158,-3-283,-1-36,-3-42,8 16,1 0,1 1,3-1,11-64,-9 83,0 1,2 0,0 0,0 0,2 1,0 0,1 0,1 1,0 1,1 0,19-18,-8 10,1 2,0 0,50-30,-64 45,-1 1,1 0,0 1,0 0,0 1,1 0,-1 0,1 1,0 1,0 0,-1 0,1 1,0 0,0 1,11 2,-15 0,-1-1,0 1,0 0,0 0,-1 1,1-1,-1 1,1 1,-1-1,-1 1,1-1,-1 2,0-1,0 0,0 1,-1-1,1 1,-2 0,1 1,3 9,4 14,-1 0,8 58,-17-88,6 52,-2 0,-5 71,0-73,1-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3110.57">3077 774,'-2'32,"0"0,-2-1,-2 0,0 0,-21 56,-75 143,23-56,51-107,-37 104,58-145,0 1,2-1,1 1,-1 51,5-55,0 22,2 0,8 52,-8-84,1 0,0-1,1 1,0-1,1 0,0 0,1 0,1-1,0 0,0 0,1 0,11 11,-16-20,0 1,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,1-1,0 1,4 0,-5-1,-1-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,-1-1,1 1,0 0,0 0,-1-1,4-2,12-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4579">3606 1144,'-16'19,"1"0,2 1,0 0,-13 27,18-31,-14 32,3 0,2 2,2 0,2 0,-7 55,11-45,2 0,3 1,7 109,-3-166,0-1,1 1,-1 0,1 0,0 0,0 0,1-1,-1 1,1 0,0-1,-1 0,2 1,-1-1,0 0,1 0,-1 0,1 0,4 3,-2-3,0 0,0 0,0-1,0 0,1 0,-1 0,1-1,-1 0,1 0,-1 0,9 0,7-2,-1 0,0-1,0-1,0-1,-1-1,23-9,-31 10,-1 0,0-1,-1 0,1-1,-1 0,0 0,0-1,-1 0,0-1,0 0,-1 0,0 0,0-1,-1 0,0-1,-1 1,0-1,-1 0,5-14,-7 19,53-143,-48 125,-2-1,0 1,-2-1,2-38,-5 6,-3-138,2 187,0 0,-1 0,1 0,-2 0,1 0,-1 0,0 1,0-1,0 1,-1 0,0 0,-1 0,1 0,-1 1,0-1,0 1,-1 1,0-1,1 1,-13-7,-2 1,0 1,0 1,-1 0,0 2,-34-6,53 11,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,1 0,-1 0,0-1,1 2,0-1,-1 0,1 0,0 1,-4 2,-3 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5338.27">3421 1541,'9'0,"7"0,6 0,8 0,3 0,5 0,1 0,3 0,-2 0,2 0,-2 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6285.92">3923 588,'19'8,"0"1,0 1,-1 1,0 0,-1 1,0 1,-1 0,-1 1,0 1,15 19,9 16,-2 1,32 59,-53-76,-2 0,-1 1,-2 1,-1 0,9 67,-15-82,4 25,-2-1,-1 1,-3 1,-2-1,-1 0,-9 50,4-71,-1 0,-1-1,-1 1,-17 30,-60 91,8-13,17-42,59-87,1-4,4-7,2-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6852.92">4532 1329,'4'-4,"6"-2,7 1,3 0,18 2,11 1,10 1,5 0,-5 1,2 0,-1 1,3-1,0 0,-3 0,-5 0,-9 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7604.6">4876 1567,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,5 0,10 0,13 0,9 0,-2 0,8 0,-5 0,-8 0,-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24493.6">7813 191,'0'-1,"0"0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,2-2,29-13,-18 9,56-27,2 3,78-22,-116 42,0 2,1 1,0 2,0 2,1 1,67 5,-100-3,-1 0,0 1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,1 4,-1-1,0-1,0 1,0 0,-1 1,0-1,0 0,0 0,-1 0,0 6,0 0,0 1,-1-1,-1 0,0 0,-1 0,0 0,0 0,-8 14,0-8,-1 0,0 0,-1-2,-1 1,-1-2,0 0,-33 23,-3-3,-77 39,36-32,92-41,-1 0,1 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,13 5,17-2,-12-3,-1 1,0 1,0 1,0 1,0 0,-1 1,1 1,24 12,-34-14,1 1,-1 0,0 0,0 1,0 0,-1 0,0 0,0 1,-1 0,0 0,0 1,-1 0,1-1,-2 1,1 1,-1-1,0 0,2 15,-3-11,0-1,-1 0,0 1,-1-1,-1 1,1-1,-2 1,0-1,0 0,-1 0,0 0,-10 21,10-25,-1-1,0 0,0 1,0-1,-1-1,0 1,0-1,-1 0,0 0,1 0,-2-1,1 0,0 0,-1-1,0 0,1 0,-1 0,-1-1,1 0,-14 2,-52 2,0-4,-83-7,7 0,123 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25350.8">6675 1091,'114'6,"185"33,-151-17,447 21,-374-27,229 46,-115-11,-229-37,40 5,171 2,-256-20,93 13,-123-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27337.72">6331 2017,'3'58,"18"99,-5-47,-8-46,33 215,-33-258,-3-33,-2-45,-3 53,0-358,12-232,-10 569,9-69,-10 88,0 1,1-1,-1 1,1 0,0-1,1 1,-1 0,1 0,0 0,0 1,1-1,7-7,-8 10,1 0,0 0,-1 0,1 0,0 1,0 0,0 0,0 0,0 0,0 1,0-1,1 1,4 0,62 8,-39-4,547 7,-359-14,2555 3,-2773 0,1 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 1,1-1,-1 0,-1 1,2 2,1 8,-1 0,0 0,-1 0,-1 24,0-13,-2 260,-1-126,2-115</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28440.73">6913 2176,'93'-35,"-60"21,1 1,1 2,0 1,64-9,-85 19,1 0,-1 1,0 1,1 0,-1 1,0 1,0 0,-1 1,1 0,-1 1,0 0,-1 1,0 1,0 0,0 1,-1 0,0 0,-1 2,10 11,10 14,-1 1,-3 1,-1 1,31 66,-8 8,-30-68,30 55,-47-98,1 1,-1 0,0-1,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,0-1,0 1,1 0,-1 0,1-1,-1 0,1 1,0-1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,3-2,15-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28988.73">7892 2149,'-5'0,"-5"0,-11 0,-6 9,-7 12,-3 7,-3 13,-5 7,2 1,-2 0,3-2,8-6,6-10,3-5,1-2,5-2,5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30116.82">8051 1858,'8'-5,"0"0,0 0,1 1,0 0,0 1,0 0,1 0,-1 1,0 0,15-1,-8 1,7-3,0 2,0 1,0 0,1 2,-1 1,38 5,-54-5,1 1,-1 0,0 0,1 1,-1 0,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 1,0-1,0 1,0 0,-1 1,1-1,-2 1,1 0,-1 0,5 13,-5-11,0 0,-1 1,0-1,0 0,-1 1,0 0,-1-1,0 1,-1-1,0 1,0-1,-1 1,0-1,-1 0,0 1,0-2,-1 1,0 0,0-1,-1 1,0-1,-1 0,0-1,0 0,-1 0,0 0,0 0,0-1,-1-1,-10 7,-9 2,-1-2,0-1,0-1,-1-2,0 0,-49 5,68-12,49-2,0 1,-1 2,45 8,37 18,-63-13,92 11,-118-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30541.8">9136 1938,'0'5,"0"14,0 18,0 17,0 7,0 11,0 8,0 21,-5-2,-1-4,0-14,1-17,2-13,-3-13,-1-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30982.8">8924 2467,'13'0,"14"0,16 5,9 1,9-1,4 0,-5-2,-4-1,-6-1,-8 0,-6 8,-5 2,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31870.8">9638 2176,'11'-4,"1"-1,0 1,0 1,1 0,-1 1,1 1,-1-1,1 2,-1 0,1 0,15 4,-26-4,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,0 1,1 0,-1-1,0 1,0 0,1 0,0 3,-2-2,1 0,-1 1,1-1,-1 1,0-1,-1 1,1-1,0 0,-1 1,0-1,0 0,0 1,-2 3,-4 8,-1 0,0-1,-1 0,-20 24,-42 31,52-53,1 1,-29 35,46-51,1 0,-1 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,2 2,4 2,0 0,0 0,1-1,-1 0,11 4,-10-5,-1 0,-1 0,1 1,0 0,6 6,-1 3,-1 2,-1-1,0 2,-1-1,0 1,-1 1,-1 0,-1 0,0 0,-1 0,-1 1,-1 0,-1 0,0 0,-1 0,-1 0,0 0,-2 1,-4 20,5-35,0 0,-1 1,0-1,0 0,0 0,0 0,0-1,-1 1,0 0,0-1,0 0,0 1,0-1,-1-1,1 1,-1 0,0-1,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,-5 1,-5 0,0 0,0-1,0-1,0 0,0-1,-19-3,29 3,1 0,-1 0,0-1,1 1,-1-1,1 0,-1 0,1-1,0 1,0-1,-5-5,-8-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33083.69">9824 1991,'4'-5,"1"1,0-1,1 1,-1-1,1 2,0-1,0 0,0 1,0 1,0-1,1 1,-1 0,1 0,0 0,0 1,-1 0,1 1,0 0,0 0,0 0,0 1,0 0,-1 0,1 0,0 1,-1 0,1 1,-1 0,0-1,10 8,-7-5,0 1,-1 1,1 0,-2 0,1 0,-1 1,0 0,0 0,-1 1,-1 0,1 0,-1 1,-1-1,0 1,0 0,-1 0,0 0,-1 0,2 15,-3-11,0-1,-1 1,0-1,-5 26,4-36,0 1,0-1,0 0,0 1,0-1,-1 0,0 0,1 0,-1 0,0 0,-1-1,1 1,0-1,-1 1,0-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,-4 1,-18 3,-22 9,47-14,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,13 4,16-1,-4-2,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">779 1156,'-23'1,"1"0,0 2,0 1,0 0,1 2,0 0,-22 9,-138 72,95-44,80-40,0 1,1-1,-1 1,0 0,1 0,0 1,1-1,-1 1,0 0,1 0,0 0,0 0,1 1,-3 7,4-10,1 0,0 0,0 0,1 0,-1 1,1-1,0 1,0-1,0 0,1 1,-1-2,1 1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,1 1,-1-1,0 1,1-1,1 0,-2 0,4 2,7 2,1 1,0-1,-1-1,1 0,0-1,1-1,-1 0,1 0,19 0,-9 1,0 0,26 7,9 5,-28-9,42 17,-67-23,0 2,1 1,-2 0,1-1,-1 2,1-1,-1 1,0-1,-1 1,1 1,5 6,-7-6,-1 2,2 0,-2-1,-1 1,1 0,-1 0,-1-1,0 2,0-1,0 0,-1 9,-1-3,0 1,0-1,-2 1,0-2,-7 21,5-24,0-1,-1 1,-1-1,1 0,-1-1,-1 1,0-1,0-1,0 1,-2-1,1 0,0-2,-1 1,0 0,-20 6,2-1,0-1,0-2,0 0,-1-2,-32 4,-15-5,0-2,-109-9,180 6,-1 0,1-1,-2 0,2 0,-1-1,1 1,-2-1,2 0,0-1,0 1,0-1,0 0,-8-6,10 6,1 1,0-1,0 0,-1 0,1 0,1-1,-1 1,1 1,0-2,0 1,0-1,0 1,0-1,1 1,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,1-1,1-3,1-1,0-1,2 0,-1 2,1-2,-1 1,1 1,11-12,14-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="609">1275 1488,'0'31,"0"22,0 11,0 4,0-5,-5-6,-1-7,0-9,1-5,1-6,-2-4,-1-10,1-24,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="952.99">1303 951,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2164.57">1716 1539,'2'144,"-5"152,-3-273,-2-34,-2-41,8 15,1 0,1 1,3 0,12-63,-10 81,0 1,2-1,1 1,-1-1,2 2,1 0,0-1,1 2,1 0,0 1,21-18,-9 10,1 1,0 1,52-29,-67 43,-1 1,2 0,-1 2,1-1,-1 1,1 0,0 0,0 1,1 1,-1 0,0 0,0 1,1 0,-1 1,12 2,-16 0,-1-1,1 1,-1 0,0 0,-1 0,2 0,-2 1,1 1,-1-1,0 1,0-1,-1 1,0 0,0 0,0 1,-1-1,2 0,-3 1,1 1,3 8,5 14,-2 0,9 56,-18-85,6 51,-2-1,-5 69,0-71,1-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3110.57">3204 747,'-2'31,"0"0,-2-1,-3 0,1 0,-22 54,-78 138,23-54,54-104,-38 102,59-141,1 1,2-1,1 1,-2 49,6-53,0 22,3-1,7 51,-8-82,1 1,0-1,1 0,1 0,0-1,0 1,1-1,2 0,-1 0,0-1,1 1,12 10,-17-19,1 1,-1 0,0-1,0 1,1-1,-1 0,1 0,-1-1,2 0,-1 1,4 0,-5-1,-1-1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-2 0,1 0,0 0,0 0,-1-1,4-2,13-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4579">3755 1104,'-17'19,"1"-1,3 1,-1 1,-13 25,19-29,-15 30,3 0,3 2,1 1,2-1,-6 53,10-43,3 0,3 1,7 105,-3-160,0-1,1 1,-1 0,1 0,0-1,0 1,1-1,-1 1,1 0,0-1,-1 0,2 1,0-2,-1 1,1 0,-1 0,1 0,4 3,-2-3,1 0,-1 0,0-2,0 1,2 0,-2 0,1-1,-1 0,1 0,0 0,8 0,8-2,-1 0,0-1,0-1,-1-1,0 0,24-10,-33 10,0 0,-1 0,0-1,0-1,-1 0,1 0,-1 0,-1-1,1-1,-1 0,-1 1,1-1,-1-1,-1 1,0-2,0 1,-1 0,-1-1,5-13,-7 18,56-138,-51 121,-2-1,0 0,-1 0,1-37,-5 6,-3-133,2 180,0 1,-2-1,2 0,-2 0,1 1,-1-1,0 1,0-1,0 1,-1 1,-1-1,0 0,1 0,-1 1,0 0,-1 0,0 1,0-1,1 1,-14-6,-2 0,0 1,0 2,0-1,-1 2,-36-5,56 10,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,0 1,-4 2,-3 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5338.27">3562 1488,'9'0,"8"0,6 0,8 0,4 0,4 0,2 0,2 0,-1 0,2 0,-2 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6285.92">4085 568,'20'7,"-1"2,1 1,-1 0,0 1,-2 1,1 0,-1 1,-2 0,1 2,15 17,10 17,-3 0,34 57,-55-73,-3 0,0 1,-3 0,0 1,9 65,-16-80,4 24,-2 0,-1 0,-2 1,-3 0,-1-1,-10 49,5-69,-1 0,-2-1,0 2,-18 28,-63 88,9-13,18-40,60-84,2-4,5-7,1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6852.92">4719 1283,'4'-4,"6"-2,8 2,3-1,19 2,11 1,10 1,6 0,-6 1,3 0,-2 1,4-1,-1 0,-2 0,-6 0,-9 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7604.6">5077 1513,'4'0,"7"0,6 0,4 0,4 0,3 0,0 0,6 0,9 0,15 0,8 0,-1 0,8 0,-6 0,-7 0,-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24493.6">8135 184,'0'-1,"0"0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,2-2,30-12,-18 8,58-26,2 3,81-21,-121 40,1 2,0 2,1 1,-1 2,1 1,71 5,-105-3,-1 0,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,-1-2,1 2,0-1,-1 1,1 0,-1-1,1 1,1 4,0-1,-1-1,0 0,0 1,-1 1,0-1,0 0,0 0,-1-1,0 7,0 0,0 0,-1 0,-1-1,0 1,-1 0,-1-1,1 1,-8 13,-1-8,0 1,-1-1,0-1,-2 0,0-1,-1-1,-34 23,-3-3,-80 37,37-30,96-40,-1 0,1 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,13 4,19-1,-14-3,0 1,0 1,-1 1,1 1,0 0,-2 1,2 0,25 13,-36-14,1 1,0-1,-1 1,0 1,1 0,-2 0,0-1,0 2,0 0,-1 0,0 0,-1 1,1-1,-2 1,2 0,-2 0,0 0,2 14,-3-11,0 0,-1 0,0 0,-1 0,-1 0,1 0,-2 1,0-2,0 1,-1 0,0-1,-11 21,11-24,-1-1,0-1,0 2,-1-1,0-1,0 1,0-2,-1 1,-1 0,2 0,-2-1,1 0,-1-1,0 0,0 0,1 0,-2 0,0-1,1 0,-15 2,-54 2,0-5,-87-5,8-1,128 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25350.8">6950 1053,'119'6,"192"32,-157-17,466 20,-390-25,239 44,-121-11,-237-35,41 4,178 2,-267-19,98 13,-129-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27337.72">6592 1947,'3'56,"19"96,-5-46,-9-44,35 207,-35-249,-3-31,-2-44,-3 51,0-346,13-223,-11 549,9-67,-10 85,1 1,0 0,-1 0,1 0,0-1,1 1,-1 1,1-1,0 0,0 1,2-1,6-6,-8 9,1 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,1 0,-1 1,0-1,1 1,4 0,65 8,-40-4,569 6,-374-12,2660 2,-2887 0,1 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 2,2-1,-2 0,-1 1,2 2,1 7,-1 1,0 0,-1-1,-1 24,0-13,-2 251,-1-121,2-112</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28440.73">7198 2101,'97'-34,"-63"20,2 2,0 1,1 2,66-10,-89 19,2 0,-2 1,1 1,1 0,-2 1,1 1,-1 0,0 1,0-1,0 2,0 0,-2 1,1 0,-1 1,1 1,-2-1,0 1,0 2,10 10,10 14,-1 1,-3 0,-1 2,32 63,-8 8,-31-65,31 52,-49-94,1 1,-1 0,0-1,1 1,0-1,0 0,0 0,0 1,0-2,0 1,0-1,0 1,1 0,-1 0,1-1,0 0,0 1,0-1,-1 0,1 0,0-1,0 1,-1 0,1-1,1 0,-1 0,0 0,0 0,0 0,-1 0,1-1,0 1,4-2,14-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28988.73">8217 2075,'-5'0,"-5"0,-12 0,-6 8,-8 13,-2 6,-4 12,-5 8,3 0,-3 0,3-1,9-7,5-9,4-5,1-2,6-1,4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30116.82">8383 1794,'8'-5,"1"0,-1 0,1 1,1 1,-1 0,0 0,2 0,-2 1,1 0,15-1,-9 1,8-3,0 2,0 1,0 1,1 1,-1 1,40 4,-57-4,1 1,-1 0,1 0,0 1,-1 0,1 0,-1 1,-1-1,1 1,0 0,-1 1,0 0,0 0,0 0,-1 0,0 1,0 0,-1 1,2-2,-3 2,1 0,-1 0,5 12,-4-10,-1-1,-1 2,0-1,0-1,-1 2,0 0,-1-2,0 2,-1-1,0 0,0 0,-1 1,0-2,-1 1,-1 1,1-2,-1 0,0 1,0-1,-1 0,-1 0,0 0,0-2,0 1,-2 0,1 0,0 0,-1-2,0 0,-11 7,-9 1,-1-1,0-2,0 0,-1-2,-1 0,-50 4,71-11,50-2,1 1,-1 2,46 8,39 17,-66-13,96 11,-122-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30541.8">9513 1871,'0'5,"0"13,0 18,0 16,0 7,0 10,0 9,0 19,-5-1,-2-5,1-12,1-18,2-11,-4-14,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30982.8">9292 2382,'14'0,"14"0,16 4,11 2,8-1,5 0,-6-2,-3-1,-7-1,-9 0,-5 7,-6 3,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31870.8">10035 2101,'12'-4,"0"-1,1 1,-1 1,2 0,-2 1,2 1,-2 0,2 1,-2 0,2 0,15 3,-27-3,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,0 0,-1-1,0 1,0 0,1-1,0 4,-2-2,1 0,-1 1,1-1,-1 1,0-1,-1 0,1 0,0 0,-1 1,0-1,0 0,0 1,-2 3,-5 7,0 1,0-2,-2 1,-20 22,-44 31,54-52,2 2,-31 33,48-49,1 0,-1 0,0 0,0 0,0 0,1 1,-1-1,-1 0,2 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,2-1,-2 0,1 0,0 1,0-2,-1 1,1 0,0 0,2 2,4 2,0 0,1 0,0-1,-1-1,12 5,-11-5,0 0,-2 0,1 1,1 0,5 5,0 4,-2 1,-1 0,1 1,-2 0,1 0,-2 2,-1-1,-1 0,1 1,-2-1,-1 2,-1-1,-1 0,0 1,-1-1,-1 1,0-1,-2 1,-4 20,5-34,0 0,-1 0,0 0,0 0,0 0,0 0,-1-1,0 1,0-1,0 0,0 0,0 1,0-1,-1-1,0 1,0 0,0-1,0 0,0 0,0-1,-1 1,1-1,0 1,-1-1,-6 1,-4 0,-1 0,1-1,-1-1,0 0,1-1,-21-3,31 3,1 0,-1 0,0-1,0 1,0-1,1 1,-1-1,1-1,0 1,-1-1,-4-5,-9-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33083.68">10229 1922,'4'-5,"1"1,1 0,0 0,-1-1,1 2,1-1,-1 0,0 1,0 1,1 0,0 0,-1 0,1 0,1 0,-1 1,-1 0,2 1,-1 0,0 0,0 0,1 1,-1 0,-1 0,2 0,-1 1,-1 0,1 1,0-1,-1 0,11 8,-8-5,0 1,0 0,0 1,-2 0,2 0,-2 0,0 1,0 0,0 1,-2-1,1 1,-1 1,0-2,-1 2,0 0,-1-1,0 1,-1 0,2 14,-3-11,0 0,-1 0,0 0,-5 24,4-34,0 1,0-1,0 0,0 1,0-1,-1 0,0 0,1-1,-1 1,0 0,-2-1,2 1,0-1,-1 1,0-1,1 0,-1 0,0 0,0 0,0-1,-1 0,1 1,0-1,-4 1,-19 3,-23 9,49-14,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,13 4,18-1,-5-2,-1-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21182,20 +22242,20 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1165 741,'-35'2,"1"0,-1 2,1 2,0 1,1 2,0 1,0 1,1 2,1 1,0 2,-32 22,60-37,1 1,-1 0,1-1,0 1,0 0,-1 1,2-1,-1 0,0 1,0-1,1 1,-1-1,1 1,0 0,-1 3,1-4,1-1,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,3 0,44 16,-12-3,1-2,55 9,-66-16,-1 1,1 1,-1 2,0 0,40 20,-50-21,4 2,1 1,-2 1,33 24,-46-30,1 0,-1 1,0-1,0 1,-1 0,0 1,0-1,0 1,-1-1,0 1,0 0,-1 0,0 1,3 14,-2-1,0 0,-2 1,0 0,-2-1,-2 24,2-40,1 0,-1 0,0 0,-1 0,1 0,-1-1,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,0-1,-1 1,1 0,-1-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,-8 1,-44 4,-1-2,1-4,-79-6,-4 0,119 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="963.43">1 1164,'9'0,"7"0,6 0,3 0,2 0,1 0,5 0,6 0,0 0,3 0,-1 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1984.43">1800 820,'-5'5,"-1"10,-4 2,-1 4,2 6,-2 9,1 1,1 5,-1 3,1-1,1-4,3-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2408.43">1932 529,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3428.31">2117 952,'-21'337,"21"-317,4-24,12-37,-10 25,9-24,74-171,-78 188,2 1,1-1,0 2,2 0,0 1,32-30,-39 43,0 0,0 1,0 1,1-1,-1 1,1 1,1 0,-1 1,0-1,1 2,0 0,-1 0,1 1,0 0,0 1,0 0,0 1,0 0,-1 1,1 0,0 0,-1 1,0 1,1 0,-1 0,-1 1,1 0,-1 1,0 0,0 0,0 1,-1 0,0 1,-1 0,1 0,-2 0,1 1,-1 0,7 14,-5-1,0 1,-2 0,0 1,-2-1,0 1,-1 31,-1-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4925.58">3705 741,'-5'1,"1"0,0 0,-1 0,1 0,0 1,0 0,0 0,0 0,0 0,1 0,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,1 1,-5 7,-6 10,1 0,-12 31,18-38,-6 14,2 1,2 0,0 0,2 1,-5 51,8-7,5 85,-1-148,0 1,0 0,1 0,1 0,0-1,0 0,8 16,-9-22,1-1,0 1,0-1,0 1,0-1,1 0,-1 0,1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,0 0,0 0,0 0,6 1,30 2,1-1,-1-1,1-3,-1-2,73-11,-112 13,23-3,-1-2,0 0,26-10,-44 13,-1 0,1 0,-1-1,0 0,0 0,0 0,0 0,0-1,-1 0,0 0,0 0,0 0,0-1,-1 0,1 0,-1 0,0 0,-1 0,3-6,4-27,-2-1,-2 0,-2-1,-1 1,-2-1,-6-48,4 73,0-1,-2 0,0 1,-1 0,0 0,-13-25,-1 5,-35-49,49 77,-1 0,1 1,-1-1,-1 1,1 1,-1-1,0 1,-1 0,1 1,-1 0,0 0,0 0,0 1,0 0,-1 1,-9-2,-11 0,0 2,-1 0,-42 5,48-2,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5516.49">3572 1085,'0'5,"4"1,16-1,12 0,16-2,16-1,12-1,10 0,5-1,-10-1,-13 1,-18 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6258.48">3440 476,'-4'2,"1"-1,0 0,0 1,0-1,1 1,-1 0,0 0,1 0,-1 1,1-1,0 1,-1-1,1 1,0-1,1 1,-3 3,-2 3,-52 73,3 3,4 1,4 3,-52 138,91-204,0 1,1 0,1 1,2-1,0 1,2 0,1 0,0 0,2 0,1 0,6 29,-4-35,1 0,1 0,1 0,0-1,2 0,0 0,0-1,2 0,0-1,1 0,1-1,0 0,1-1,24 18,-26-24,0-1,1 0,0 0,0-2,1 0,-1 0,1-1,0-1,1 0,-1-1,27 1,-7-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7013.5">4499 555,'2'1,"0"1,0-1,0 0,0 0,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 3,3 3,19 33,-2 2,-2 0,26 80,21 145,-54-200,5 105,-17-141,-1 1,-1-1,-2 0,-2 0,-11 47,14-72,-1 1,1-1,-1 0,0 0,-1 0,0 0,0 0,0-1,-1 1,0-1,0-1,0 1,-1-1,0 0,0 0,0 0,-9 4,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8678.5">6192 0,'-1'19,"-1"1,-1-2,-6 27,-3 16,-19 363,32 5,2-208,-2-151,-2 86,1-154,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0 0,0-1,0 1,-1 0,1-1,0 1,-1-1,1 0,0 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1-1,-3 2,2-2,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,-1 1,1-1,1 0,-1 0,0 0,0 0,1 0,-3-3,-12-23,2 0,0-1,2-1,1 0,-9-45,4 21,-27-109,27 93,-3 0,-38-89,54 152,0-1,-1 1,0 1,-1-1,0 1,0-1,0 1,-1 1,0-1,0 1,0 0,0 0,-1 1,0 0,0 0,-12-5,7 6,0 0,1 0,-1 1,0 1,0 0,0 0,0 2,0-1,-1 1,-17 5,5 1,-1 1,2 1,-1 1,1 1,1 1,0 2,1 0,0 1,1 2,1 0,0 1,2 0,0 2,1 0,-28 44,39-51,0-1,1 1,1 0,0 1,1-1,0 1,1-1,-1 19,6 114,0-88,-3-51,0 0,1 0,-1 0,1 0,1-1,0 1,0 0,0-1,0 1,1-1,0 0,1 0,-1 0,1 0,0 0,1-1,-1 0,1 0,0 0,1 0,-1-1,1 0,0 0,-1-1,2 1,-1-1,0-1,1 1,9 2,12 2,0-1,1-2,0 0,0-2,0-1,57-6,-3 2,-49 3,-17 1,-1-1,1-1,0 0,-1-1,28-7,-40 8,0-1,0 0,0 1,0-2,0 1,0 0,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,-1-1,1 0,-1 1,0-1,0 0,0 0,-1 0,1 0,-1-1,0 1,0 0,-1 0,1-8,3-62,-7-76,-1 33,4 88</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10212.96">6959 661,'-5'1,"1"0,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,0 1,-6 5,-41 37,38-33,-11 13,0 1,2 2,1 0,-24 43,35-52,2 1,0 0,1 0,1 0,1 1,0 0,-1 27,-2 151,8-199,0 11,0 5,0 0,1 0,1 0,3 16,-3-27,0 0,0 1,0-1,0 0,1-1,0 1,0 0,0-1,0 0,1 0,0 0,0 0,0 0,0-1,7 5,-1-2,0 0,0-1,0-1,1 0,0 0,0-1,0 0,0-1,0 0,0-1,13 0,-6-1,-1-1,0-1,0-1,0 0,-1-2,32-11,-25 6,-1-1,0-1,0 0,-1-2,-1-1,0 0,-1-2,-1 0,-1-1,19-25,-15 13,-2-1,-2 0,-1-2,-1 0,-2-1,-1 0,-1-1,-3 0,9-68,-16 94,0-1,-1 0,0 0,-1 1,0-1,-1 0,1 1,-7-18,5 22,1 0,-1 0,0 1,0-1,0 1,0 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 1,0-1,-6-1,-32-14,-1 2,0 2,0 2,-1 2,-76-7,97 17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10948.25">6695 1032,'0'5,"8"1,13-1,11 0,10-2,6-1,0-1,-4 0,-1-1,-2-1,-1 1,-1 0,6 0,-1 0,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12440.68">8203 1111,'4'0,"6"0,7-4,3-2,4 1,2 0,2 2,4 1,1 1,0 0,4-8,3-3,1 1,1 2,-5 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13447.17">8256 1296,'4'0,"11"0,12 0,14 0,5 0,0 0,-5 0,-4 0,-3 0,-4 0,-2 0,-2 0,0 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1210 714,'-36'2,"1"0,-2 2,2 1,0 2,0 2,1 0,0 2,1 2,0 0,1 2,-33 22,62-36,1 1,-2 0,2-1,0 1,0 0,-1 1,2-1,-1-1,0 2,0-1,1 1,-1-1,1 1,0 0,-1 3,1-4,1-1,0 0,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,2 0,46 16,-13-4,1-1,58 8,-69-15,-1 1,1 1,-1 1,0 1,41 19,-51-20,4 1,1 2,-3 1,35 22,-48-28,2 0,-2 1,0-1,0 0,-1 1,1 1,-1-1,0 0,-1 0,0 1,0 0,-1-1,0 2,4 13,-3 0,0-1,-2 1,0 0,-2-1,-2 24,2-39,1-1,-1 1,0 0,-1 0,1 0,-2-1,1 0,0 0,0 1,-1-1,1 0,-1 1,0-2,0 0,-1 1,0 0,0-1,0 0,0 0,0 0,0-1,-1 0,0 1,1-1,-1 0,0 0,-9 1,-45 4,-1-2,1-5,-83-4,-3-1,123 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="963.43">1 1121,'9'0,"8"0,6 0,3 0,2 0,1 0,5 0,7 0,-1 0,4 0,-1 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1984.43">1870 790,'-5'5,"-1"9,-5 3,0 3,2 6,-3 9,2 0,1 6,-2 2,2-1,0-3,4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2408.43">2007 510,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3428.31">2200 917,'-22'325,"22"-306,4-23,13-35,-11 23,9-22,78-165,-82 180,3 2,0-1,1 2,2 0,-1 0,34-28,-41 41,1 1,-1 0,0 1,2-1,-2 1,2 2,0-1,-1 1,1-1,0 2,1 0,-2 0,2 1,-1 0,0 1,1 0,-1 1,1 0,-2 1,1 0,1 0,-2 1,1 1,0 0,0-1,-2 2,1 0,0 1,-1 0,0-1,1 2,-2 0,0 1,0-1,0 1,-2 0,1 0,0 1,6 13,-5-1,1 2,-3-1,0 1,-2-1,1 1,-2 30,-1-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4925.58">3850 714,'-6'1,"2"0,0 0,-1 0,1 0,0 1,0 0,-1-1,1 1,0 0,1 0,-1 1,1 0,-1 0,0 0,1 0,0 0,0 0,1 0,-5 8,-7 9,2 0,-13 31,19-38,-7 14,3 1,1 0,1 0,2 1,-6 49,9-7,5 82,-1-142,0 0,0 1,2 0,0-1,0 0,0-1,8 16,-9-21,2-1,-1 1,0-1,0 0,0 0,1 0,-1 0,1-1,1 1,-1-1,1 0,-1-1,1 1,-1 0,2-1,-1 0,0 0,0 0,7 1,30 2,2-2,-2 0,2-3,-1-2,75-10,-116 12,24-3,-1-2,0 0,27-9,-46 12,-1 0,2 0,-2-1,0 0,0 0,1 1,-1-1,0-1,-1 0,0 0,0 0,1 0,-1 0,-1-1,1 0,-1 0,0 0,-1 1,3-7,5-26,-3 0,-2-1,-2 0,-1 0,-2 0,-6-47,4 70,0 0,-2-1,0 2,-1 0,-1-1,-12-23,-2 4,-36-47,51 74,-2 0,2 2,-1-2,-1 1,0 1,0 0,0 0,-1 0,0 1,0 0,0 0,-1 0,1 2,0-1,-2 1,-8-2,-12 0,-1 2,0 0,-44 5,51-2,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5516.49">3711 1045,'0'5,"5"1,15-1,14 0,16-3,16 0,13-1,10 0,6-1,-11-1,-13 1,-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6258.48">3574 459,'-4'2,"1"-2,0 1,0 1,0-1,1 1,-1 0,-1 0,2 0,-1 1,1-1,0 1,-1-1,1 1,0-2,1 2,-3 3,-3 3,-53 70,3 3,4 1,4 2,-54 134,95-197,0 1,0 0,2 2,2-2,0 1,2 0,1 0,0 0,2 0,1 0,6 28,-4-34,1 1,2-1,0 0,0 0,3-1,-1 0,0 0,3-1,-1 0,2-1,0-1,1 1,0-2,26 18,-28-23,1-1,0-1,1 1,-1-2,2 0,-2 0,2-2,-1 0,2 0,-2-1,29 1,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7013.5">4675 535,'2'1,"0"1,0-1,0 0,0-1,0 2,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,1 2,3 4,20 32,-2 1,-2 1,26 76,23 140,-56-192,4 100,-17-135,-1 1,-1-1,-2 0,-2 0,-12 45,15-70,-1 2,1-1,-1 0,0-1,-1 1,0 0,-1 0,1-2,-1 2,0-1,0-1,-1 0,0 0,0 0,0 0,0 0,-10 3,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8678.5">6434 0,'-1'18,"-1"2,-1-3,-7 26,-2 16,-20 350,33 4,2-200,-2-146,-2 83,1-148,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0-1,-1 0,1 1,-1 0,1-1,0 1,-1-1,1 0,0 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1-1,-4 2,3-2,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,1-1,0 1,0-1,-1 1,1-1,1 0,-1 0,0 1,0-1,0 0,-2-3,-12-22,1 0,1-1,1-1,2 0,-10-43,4 20,-27-105,27 89,-3 1,-39-86,56 146,0-1,-1 2,-1 0,0-1,0 1,0 0,0 0,-2 1,1-1,0 1,0 0,0 1,-2 0,1 0,0 0,-13-5,8 7,-1-1,2 0,-2 1,1 1,-1 0,1 0,-1 2,1-1,-2 1,-17 5,5 0,-1 2,2 1,-1 0,1 2,1 1,0 1,2 1,-1 0,1 2,1 1,0 0,3 0,-1 3,1-1,-28 43,39-50,1 0,1 0,1 1,0 0,0 0,1 0,1 0,-1 18,6 109,0-84,-3-49,0 0,1-1,-1 1,1 0,2-1,-1 0,0 1,0-1,0 1,1-2,0 1,1 0,-1 0,2 0,-1-1,1 0,-1 0,1 0,0 0,2-1,-2 0,1 0,0 0,0-1,1 1,-1-1,0-1,2 0,8 3,13 2,0-1,1-2,1 0,-1-3,0 0,59-5,-3 1,-50 3,-19 1,0-1,1-1,-1 0,0-1,29-7,-42 8,0-1,0 0,0 1,1-2,-1 2,0-1,-1-1,0 0,1 0,-1 0,0 0,1 0,-1 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1 1,-1-2,0 1,0 0,-1 0,1-7,4-61,-8-72,-2 31,5 85</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10212.95">7231 637,'-5'1,"0"0,0 0,1 0,0 0,-1 1,1-1,-1 0,1 1,0 0,0 1,-6 5,-43 35,39-31,-11 12,0 1,2 2,2 0,-26 41,36-49,3 0,0 0,0 0,2 1,1 0,0 0,-1 26,-3 146,9-192,0 11,0 4,0 1,1-1,1 0,4 16,-4-26,0 0,0 1,0-2,0 1,1-1,0 1,0 0,0-1,1-1,0 1,0 0,0 0,0 0,0-1,8 4,-2-1,1 0,-1-1,0-1,2 0,-1-1,1 0,-1 0,1-1,-1 0,0-1,14 0,-6-1,-1-1,-1-1,1-1,0 0,-2-2,34-10,-26 5,-1 0,0-2,0 1,-2-3,0 0,0-1,-1-1,-2 0,0-2,20-23,-17 12,-1-1,-2 0,-2-2,0 1,-3-2,0 0,-2-1,-2 1,8-67,-16 92,0-2,-1 0,0 1,-1 0,0 0,-1-1,1 1,-7-17,5 21,1 1,-1-1,0 1,-1-1,1 1,0 0,-1 1,0-1,0 0,0 1,-1-1,0 1,1 0,-1 0,0 1,-1 0,-5-2,-34-14,0 3,-1 1,0 3,-1 1,-78-6,100 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10948.25">6956 994,'0'5,"9"1,13-1,11-1,11-1,5-1,1-1,-4 0,-1-1,-3-1,0 1,-2 0,7 0,-1 0,-8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12440.68">8523 1070,'5'0,"5"0,8-3,2-3,5 1,2 0,2 2,5 1,0 1,0 0,5-7,2-4,2 2,1 1,-6 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13447.17">8578 1249,'5'0,"10"0,13 0,15 0,5 0,-1 0,-4 0,-4 0,-4 0,-4 0,-2 0,-2 0,0 0,-5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21222,7 +22282,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 292,'87'-4,"164"-31,-47 4,-140 25,361-25,440 32,-744-6,193-35,-51 3,-18 10,385-24,462 51,-466 2,2730-2,-3172-14,-19 1,388 13,-528 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 293,'91'-4,"171"-31,-49 4,-146 25,377-25,460 32,-777-6,201-36,-54 4,-18 10,403-24,482 51,-487 2,2852-2,-3313-14,-21 1,406 13,-552 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21276,7 +22336,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">745 109,'-1'-1,"1"-1,-1 0,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,-1 0,-38-18,32 15,-18-8,0 2,-1 1,0 1,-45-7,65 13,-1 1,0 0,1 1,-1 0,0 0,1 1,-1 0,0 0,1 1,-1 1,1-1,0 1,0 0,0 1,0 0,1 0,-1 1,1 0,-11 10,-20 31,2 1,-54 96,75-116,1 1,2 1,0 0,2 1,1 0,2 0,1 1,1 0,1 0,2 62,1-61,-2 0,-1 0,-11 43,-6 42,15-60,3 1,6 83,-3-138,1 0,-1-1,1 1,0-1,-1 1,1-1,1 1,-1-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,5 1,3 2,1-1,0 0,-1-1,14 2,21 7,-16-1,5 4,1-2,1-2,58 11,-85-20,0-1,1 0,-1-1,0 0,1 0,-1-1,0 0,0-1,0 0,0 0,0-1,0 0,-1-1,1 1,-1-2,0 1,0-1,-1-1,13-11,7-13,-2-1,-1-2,-1-1,34-69,21-34,-49 95,-12 19,-2 0,17-32,-28 44,0 0,-1 1,0-1,-1 0,0 0,-1-1,0 1,-1-21,-4-6,-9-48,-2-9,13 70,0 0,-2 0,-8-28,8 43,0 0,0 0,-1 1,0-1,-1 1,0 0,0 1,-1 0,0 0,-10-9,5 5,0-1,1 0,1-1,0 0,1 0,0-1,1 0,1 0,0-1,-5-22,4 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">745 104,'-1'-1,"1"-1,-1 0,0 1,1 0,-1 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,-1 0,-38-17,32 14,-18-7,0 1,-1 2,0 0,-45-6,65 12,-1 1,0 0,1 1,-1 0,0 0,1 1,-1 0,0 0,1 1,-1 1,1-1,0 0,0 1,0 1,0 0,1 0,-1 1,1-1,-11 11,-20 29,2 0,-54 93,75-111,1 1,2 0,0 1,2 1,1-1,2 1,1 1,1-1,1 1,2 59,1-59,-2 1,-1-1,-11 42,-6 40,15-58,3 2,6 78,-3-131,1 0,-1-1,1 1,0-1,-1 0,1 0,1 1,-1-1,0 1,0-1,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,5 1,3 2,1-1,0-1,-1 0,14 2,21 6,-16 0,5 3,1-1,1-3,58 11,-85-19,0-1,1 0,-1-1,0 0,1 0,-1-1,0 0,0-1,0 0,0 0,0 0,0-1,-1-1,1 1,-1-2,0 1,0 0,-1-2,13-10,7-13,-2-1,-1-1,-1-2,34-65,21-33,-49 91,-12 18,-2 0,17-30,-28 41,0 1,-1 0,0 0,-1-1,0 0,-1 0,0 1,-1-21,-4-5,-9-46,-2-9,13 67,0 0,-2 0,-8-26,8 40,0 0,0 1,-1 0,0 0,-1 0,0 1,0 0,-1 0,0 1,-10-10,5 6,0-2,1 1,1-1,0-1,1 1,0-1,1-1,1 1,0-1,-5-22,4 14</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21303,21 +22363,21 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">477 953,'-5'14,"-10"13,-2 20,1 11,-1 14,-2-1,2-4,0-4,2-4,4-7,0-13,1-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="708.74">1 1111,'398'17,"-287"-12,-64-4,57 9,-77-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1812.74">927 1852,'0'1,"0"0,1 1,-1-1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,2 1,36 3,-33-3,227 5,-130-5,122 15,225 19,-31 9,-213-16,21 6,109 11,614 39,-704-64,256-13,-455-7,-11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13067.25">1774 1059,'1'1,"0"-1,0 1,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,0 1,4 32,-4 0,-1 0,-7 35,3-31,0 44,5-69,1 0,1 0,-1 0,2-1,0 1,0 0,7 15,4 2,0 0,2 0,1-1,1-1,2-1,1-1,30 30,-23-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13828.81">2673 1217,'-9'18,"-12"11,-21 18,-16 10,-3 0,-4-5,4-3,12-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14618.66">2224 1455,'33'0,"1"1,-1 2,0 1,0 1,0 2,0 2,-1 1,-1 1,0 1,0 2,-1 1,48 34,-66-39,-1 1,0 0,10 13,-6-7,3 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15797.66">2964 873,'0'-1,"0"0,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,1 0,40-5,-38 5,6-1,10-1,0 1,-1 1,1 1,0 1,22 4,-39-5,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 1,0-1,0 0,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 7,0-3,0 0,0 1,-2-1,1 1,-1-1,0 0,-1 0,0 0,0 0,-1 0,-4 10,3-13,0 1,-1-1,1 0,-1 0,0 0,0-1,-1 0,0 0,0 0,0-1,0 0,-1 0,0-1,-7 4,-4 1,0-1,0-1,-1 0,0-1,0-1,-1-1,1-1,-1-1,0 0,-32-4,51 3,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,1-1,-1 1,-1-3,2 3,1-1,-1 1,0 0,1-1,-1 1,1 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,1 0,10-2,0 0,0 0,1 1,-1 1,1 0,-1 1,0 0,1 1,-1 1,0 0,0 0,-1 2,1-1,-1 2,0 0,0 0,0 1,-1 0,12 11,34 34,-33-32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16199.66">3837 1270,'0'14,"0"22,0 23,0 15,0 13,0 5,0-4,-5-8,-1-13,1-13,-4-12,0-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16833.66">3520 1614,'4'0,"6"0,7 0,3 0,4 0,12 0,7 0,11 0,10 0,11 5,12 1,4 9,0 2,-6-3,-5-2,-15-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18093.66">4393 1138,'0'0,"0"-1,0 0,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,0-1,-1 1,1 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,2 0,-1 0,85-10,2 3,99 6,-73 2,-80-2,-19 0,1 0,0 1,-1 0,1 2,0 0,-1 0,1 1,-1 1,0 1,16 7,-28-10,-1 0,1 0,0 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0 0,0-1,-1 1,1-1,-2 5,-2 9,0-1,-1 0,-1 0,-10 21,3-15,0 0,-18 21,18-25,0 1,-18 35,31-52,-1 0,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,4 1,10 4,-1-1,1 0,0-2,16 2,-24-3,0-1,0 1,0 0,0 0,-1 1,1 0,0 0,-1 1,1 0,-1 0,0 0,0 1,0 0,-1 0,1 1,-1-1,6 7,-6-4,-1 0,0 0,0 0,0 1,-1 0,-1-1,1 1,-1 0,0 0,-1 0,0 0,0 1,-1 12,1-14,-1 0,-1 1,1-1,-1 0,-1 0,1 0,-1 0,0 0,-6 13,5-16,0 1,-1-1,1 1,-1-1,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0 0,-7 2,-46 17,-1-2,-1-2,0-3,-1-3,-1-3,0-2,-124-3,139-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19516.84">5478 609,'6'1,"0"0,1 1,-1-1,0 1,0 0,0 1,0-1,-1 1,1 0,-1 1,0-1,1 1,-1 0,-1 1,8 7,1 2,0 1,-1 1,18 31,-21-28,0 1,-2 0,0 1,-1 0,-1 0,-1 0,-1 0,-1 1,0-1,-2 1,-1 0,0-1,-2 1,-8 33,10-51,0 0,-1 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,1 0,-1 0,0 0,0-1,0 0,-1 1,1-1,0-1,-9 1,-8 1,0-2,0-1,0 0,-24-6,37 6,-11-6,32-1,31-1,-26 7,0 1,1 0,-1 2,0 0,0 1,26 6,-32-4,-1 0,1 1,-1 0,-1 1,1 0,-1 0,0 1,-1 1,1 0,13 14,31 39,-32-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20265.82">6113 556,'176'391,"-138"-291,50 205,-80-264,-1 1,-2 0,-1 0,-3 1,-2-1,-1 0,-2 0,-2 0,-19 67,19-95,-1 1,0-1,-1 0,-1-1,0 0,-1-1,0 1,-22 18,12-12,-2-1,0-1,-1-2,-30 16,27-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20956.95">6510 0,'0'5,"0"15,0 12,-5 20,-6 9,0 0,-4-3,1 8,3-4,3-2,3-8,3-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21414.95">6986 397,'-9'9,"-12"21,-12 15,-13 17,-4 7,3-3,4-9,10-9,11-9,8-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22737.82">6960 820,'0'-4,"1"-1,0 0,0 0,1 0,-1 1,1-1,0 1,0-1,1 1,-1 0,1 0,4-5,1 0,0-1,1 1,15-13,-19 18,0 1,0-1,1 1,-1 0,1 0,0 1,0-1,0 1,0 1,8-2,-12 2,1 1,-1 0,0 0,0 0,1 1,-1-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,2 3,3 19,0 0,-2 0,-1 0,-1 0,0 1,-2-1,-1 0,-1 0,-1 0,-13 43,12-55,1-1,-1 0,-1 0,0-1,0 1,-1-1,0-1,-13 14,14-17,1-1,-1 0,0-1,0 1,-1-1,1 0,-1-1,0 1,0-1,0-1,0 1,0-1,-1-1,-10 2,15-3,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 0,-1 1,1-1,0 0,0 0,-1 0,1 0,1-1,-1 1,0 0,0-1,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,0-1,-1 1,1 0,1 0,2-3,0 2,0-1,0 1,1 0,0 1,0-1,-1 1,1 0,1 0,-1 1,0 0,0 0,0 0,1 1,-1 0,0 0,1 1,-1-1,0 2,0-1,0 0,0 1,0 0,7 4,14 6,0 2,-1 1,39 30,-36-24,-21-16,0-1,1 1,-1-1,1-1,-1 0,1 0,0 0,0-1,12 1,17 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">499 917,'-5'13,"-11"13,-2 19,1 11,0 13,-3 0,2-5,0-3,3-5,3-6,1-12,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="708.74">1 1069,'416'16,"-300"-11,-66-4,58 8,-79-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1812.74">970 1781,'0'1,"0"0,1 1,-1-1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,1 1,37 3,-33-3,236 5,-135-5,128 14,234 19,-32 8,-222-15,21 6,115 10,642 38,-737-62,268-12,-476-7,-11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13067.25">1856 1019,'1'0,"0"0,0 1,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,0 1,4 30,-4 1,-1 0,-7 33,3-29,0 41,5-65,1-1,1 1,-1-1,2 0,0 1,0-1,8 15,3 2,1 0,2 0,0-2,2 0,2-1,1-1,31 29,-23-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13828.81">2796 1170,'-10'18,"-11"10,-23 17,-17 10,-3 0,-4-5,4-3,13-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14618.66">2326 1399,'35'0,"0"1,0 2,-1 1,1 1,-1 2,1 1,-2 2,0 0,-1 2,1 1,-2 2,51 32,-70-37,0 0,-1 1,11 12,-6-7,3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15797.66">3100 840,'0'-1,"0"0,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,2 0,41-4,-40 4,6-1,11-1,0 1,-1 1,1 1,0 1,23 3,-41-4,1 0,0 1,0-1,-1 1,0 0,0 0,1 0,-1 1,0-1,0 1,-1-1,1 1,0 1,-1-1,0 0,0 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,-1 1,1-1,-1 0,0 0,0 1,0 7,0-4,0 1,0 1,-2-2,1 2,-1-2,0 1,-1 0,0-1,0 1,-1 0,-5 9,4-12,0 0,-1 0,0 0,0 0,0 0,0-2,-2 1,1 0,0 0,0-1,-1 0,0-1,0 0,-8 4,-4 1,0-2,1 0,-2 0,0-1,0-1,-1-2,1 0,-1-1,0 0,-33-4,53 3,-1 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1-1,0 1,0 0,0 0,-2-1,2 1,0 0,1-1,-1 1,-1-3,2 3,1-1,-1 2,0-1,1-1,-1 1,1 0,-1 0,1 0,0-1,1 1,-2 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,1 1,-1 0,0-1,1 1,-1 0,0-1,2 1,-2 0,1 0,1 0,10-2,1 1,0-1,0 1,0 1,1 0,-2 1,1 0,0 1,0 0,0 1,-1 0,0 2,0-1,0 2,-1-1,1 1,0 1,-2 0,13 10,36 33,-35-31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16199.66">4013 1221,'0'14,"0"21,0 21,0 15,0 13,0 5,0-5,-5-7,-1-12,1-13,-5-12,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16833.66">3682 1552,'4'0,"6"0,8 0,3 0,4 0,13 0,7 0,11 0,11 0,12 5,12 1,4 8,0 3,-6-4,-5-1,-16-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18093.66">4595 1095,'0'0,"0"-1,0 0,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,0-1,-1 1,1 0,-1 0,1-1,0 1,1 0,-2 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,2 0,-1 0,89-10,2 4,104 5,-77 2,-84-2,-19 0,1 0,-1 1,0 0,1 2,0 0,-2-1,2 2,-1 1,-1 1,18 7,-30-11,-1 1,1 0,0 1,-1-1,2 1,-2-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,2 0,-2 1,0-1,0 1,0 0,0-1,-2 0,2 0,-2 5,-2 8,0 0,-1-1,-1 1,-11 19,3-14,1 0,-20 21,20-25,-1 1,-18 34,32-50,-2 0,1-1,0 1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,2-1,-1 1,0 0,0 0,0-1,1 0,-1 0,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 0,0 0,-1-1,4 1,11 4,-2-1,2-1,0-1,16 2,-24-3,-1-1,0 1,0 0,1 0,-2 1,1 0,1 0,-2 1,1 0,0-1,-1 1,0 1,0 0,0 0,0 1,-1-2,7 8,-7-4,-1 0,0-1,0 1,1 1,-2-1,-1 0,1 1,-1-1,0 1,-1 0,0 0,0 0,-1 12,1-13,-1 0,-1 1,1-2,-1 1,-1 0,1 0,-1-1,0 1,-6 12,4-15,1 1,-1-1,1 1,-1-2,0 1,-1 0,1-1,-1 1,1-1,-1 0,-1-1,1 1,-7 2,-49 16,-1-1,-1-3,1-3,-2-2,-1-4,0-1,-129-3,144-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19516.84">5730 586,'6'1,"0"0,2 1,-2-1,0 0,1 1,-1 1,0-1,-1 1,2 0,-2 1,0-1,1 1,0-1,-2 2,8 7,2 1,0 2,-2 0,19 30,-21-27,-1 2,-1-1,-1 1,-1 0,-1 1,0-1,-2 0,-1 1,0-1,-2 1,-1 1,0-2,-2 1,-9 32,11-49,0 0,-1-1,0 1,0 0,0 0,0-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1-1,0 1,0-1,0 0,1 0,-1-1,0 1,-1-1,1 0,-1 1,1-1,0-1,-10 1,-8 1,0-2,0-1,0 0,-25-6,39 6,-12-5,33-2,33-1,-27 7,0 2,1-1,-1 2,0-1,-1 2,28 6,-33-4,-1 0,0 1,0-1,-2 2,2 0,-2 0,0 0,0 2,0 0,14 13,33 38,-34-34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20265.82">6394 535,'184'376,"-144"-280,52 197,-84-253,0 0,-3 1,-1-1,-3 1,-2 0,-1-1,-2 0,-2 1,-21 64,21-92,-1 2,-1-2,0 1,-1-2,-1 1,0-2,-1 2,-22 16,12-10,-2-2,0-1,-1-1,-32 15,29-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20956.95">6809 0,'0'5,"0"14,0 12,-5 19,-6 9,-1-1,-4-2,2 7,2-3,4-2,3-8,3-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21414.95">7307 382,'-9'8,"-13"21,-13 15,-13 15,-4 8,3-4,4-8,10-9,12-8,9-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22737.82">7280 789,'0'-4,"1"-1,0 0,0 0,1 1,-1 0,1-1,1 1,-1-1,1 1,-1 1,1-1,4-5,2 0,-1 0,1 0,17-12,-21 17,0 1,0-1,2 2,-2-1,1 0,0 1,1-1,-1 1,0 1,9-2,-13 2,1 1,-1 0,0 0,0 0,1 1,-1-1,1 0,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,-1 1,1-1,0 1,-1-1,0 0,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,2 3,4 18,-1 0,-2 0,-1 0,-1 0,0 1,-2-1,-1 0,-1 0,-1 0,-14 42,13-54,1 0,-2 0,0-1,0 0,-1 0,0 0,0-1,-14 13,15-16,0-2,0 1,0-1,0 1,-2-1,2-1,-1 0,-1 1,1-1,0-1,-1 1,1-1,-1-1,-11 2,16-3,0 0,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,-1 0,2 0,-1 0,0-1,1 0,-1 1,1-1,0 0,0 0,-2 0,2 1,1-2,-1 1,0 0,0-1,1 0,-1 1,1-1,0 0,0 0,0 2,0-2,1 0,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 1,0-1,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 1,-1 0,1-1,0 1,0-1,-1 1,1 0,2 0,1-3,0 2,0 0,0 0,2 0,-1 1,0-1,0 1,0 0,1 0,-1 1,1 0,-1 0,0 0,2 1,-2 0,0 0,1 1,0-1,-1 2,0-1,1 0,-1 1,0 0,8 4,14 5,0 3,-1 0,41 30,-37-24,-23-15,0-2,2 2,-2-1,2-1,-2 0,1 0,1 0,-1-1,13 0,18 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21373,7 +22433,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 30,'0'-1,"1"0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,2 0,37-4,-34 3,524-7,-318 10,5805-2,-4815 65,-1077-54,543 74,32 3,54-61,3-32,-264 0,536 7,506-5,-1255-7,552-93,-624 64,2 10,236-4,464 10,-805 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 28,'0'-1,"1"0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,2 0,39-4,-36 3,545-6,-331 9,6036-2,-5006 60,-1120-50,564 69,34 3,56-57,3-30,-274 1,556 6,527-5,-1305-6,574-87,-648 60,1 9,246-4,482 10,-837 20</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21400,74 +22460,74 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7251 6984,'4'0,"11"0,7 0,13 0,6 0,4 0,0 0,0 0,-2 0,0 0,-3 0,1 0,-1-4,-5-6,-2-2,-3 1,-6 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1512.99">7171 7461,'50'-2,"55"-10,37-1,28 0,27 0,-119 13,-55 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="171576.31">371 529,'-1'2,"0"-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 0,-1 1,1-1,0 0,0 0,-3 1,-38 5,39-6,-23 2,3 0,0 0,0 2,0 0,-23 9,38-10,1 0,-1 1,1 0,0 0,0 1,1-1,0 2,-1-1,1 1,1-1,-1 2,1-1,1 1,-1-1,-5 12,5-8,1 0,0 0,0 0,1 0,0 0,1 1,0 0,1-1,0 1,0 0,2-1,-1 1,1 0,1 0,2 11,-2-15,1 0,0 0,0 0,0 0,0-1,1 0,0 1,1-1,0-1,-1 1,2-1,-1 0,1 0,-1 0,1-1,0 0,1 0,-1 0,1-1,0 0,0 0,12 2,217 71,-211-70</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172615.49">715 476,'-3'16,"0"0,-1 0,0 0,-1-1,-1 1,0-2,-1 1,-10 15,1 0,6-10,1 0,0 1,1 0,2 1,0-1,1 1,-2 31,6-43,1-1,1 1,0-1,0 0,0 1,1-1,1 0,-1 0,2 0,-1 0,1-1,1 1,-1-1,1 0,1 0,-1-1,1 1,1-1,14 12,-6-7,1-2,0 1,0-2,1 0,1-1,0-1,0-1,30 7,-24-7,0-2,1-1,-1-2,1 0,-1-1,32-4,-52 3,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,1-1,0 1,-1-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0 0,0-1,0-3,1-12,0 1,-1-1,-1 1,-2-23,0 12,1-6,1 15,-1 0,-5-34,4 48,1-1,-1 1,-1 0,1 0,-1-1,0 2,-1-1,1 0,-1 1,0-1,0 1,-7-5,-16-11,-1 1,-1 2,0 1,-63-26,64 30,13 6,0 1,0 1,-25-5,36 8,0 2,-1-1,1 0,0 1,0 0,0 0,-1 0,1 0,0 1,0 0,-1-1,1 2,0-1,0 0,0 1,0 0,1 0,-5 2,-2 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="173622.95">1562 370,'-6'9,"-1"0,0-1,0 0,0-1,-1 0,0 0,-16 10,-10 10,22-16,-9 8,1 0,-20 24,36-38,0 1,0-1,0 1,1-1,0 1,0 0,0 0,1 0,0 1,0-1,1 0,-1 1,2 0,-2 10,3-12,1 1,-1-2,1 1,0 0,0 0,0 0,1-1,-1 0,1 1,0-1,1 0,-1 0,1 0,-1-1,1 1,8 4,8 7,2-1,23 11,-37-21,17 8,1-2,44 13,-51-18,-1 0,0 1,0 1,0 1,-1 1,0 0,25 19,-28-16,0 1,19 22,-29-31,-1 1,1 0,-1 0,0 0,-1 0,1 0,-1 1,0-1,0 1,0 0,-1 0,1 8,-2-12,0 0,-1 1,1-1,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1-1,-3 1,-12 2,0-1,0 0,-20-1,28-1,0 1,-133-3,125 0,0 0,0-1,1 0,-1-2,1 0,-21-10,34 14,0-1,0 1,0-1,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,-1-4,0-3,0 0,1 0,0 0,1-16,1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="174265.95">2514 132,'-1'22,"-1"0,-1-1,-1 1,-1-1,-8 22,-43 102,39-106,-24 56,-57 156,90-224,1 0,1 0,2 0,0 1,2 0,1 0,4 42,-1-58,0 0,1-1,0 1,1 0,0-1,0 0,1 0,1 0,0-1,1 0,0 0,0 0,1-1,10 10,-4-7,1-1,0 0,0-1,1-1,0 0,0-1,1-1,34 9,-49-15,0 0,0 0,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 0,0 0,1 0,-1 1,1-5,12-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="175340.34">2805 529,'0'1,"1"-1,0 1,0-1,-1 0,1 1,0-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 1,4 22,-4-24,0 19,-1 0,0 0,-2 1,0-1,-1-1,-1 1,-1-1,-1 0,-10 20,7-14,1-1,1 1,1 0,1 1,-3 28,8-37,0-1,2 0,-1 1,2-1,6 28,-6-35,0 0,1-1,0 1,1-1,0 0,0 0,1-1,-1 1,1-1,1 0,-1 0,1-1,7 6,-4-4,1-1,-1 0,1-1,1 0,-1 0,1-1,0-1,0 0,0 0,0-1,1 0,-1-1,1 0,-1-1,0-1,22-2,-25 1,1 0,-1 0,0 0,0-1,0 0,0-1,0 0,-1 0,0-1,1 0,-2 0,1 0,-1-1,1 0,-2 0,1-1,-1 0,0 0,0 0,-1 0,0-1,6-15,-4 3,-1-1,-1 0,-1 1,-1-1,0-1,-2 1,0 0,-2 0,0 0,-1 0,-2 1,0-1,-1 1,-1 0,0 0,-2 1,0 0,-1 0,-1 1,-1 1,-1 0,0 0,-1 1,-1 1,-24-20,30 29,1 0,-1 1,0 0,0 0,0 1,-1 1,0-1,-10-1,14 3,-1 1,0 0,1 0,-1 1,1 0,-1 0,0 0,1 1,-1 0,0 1,1-1,0 1,-8 3,11-3,1 0,-1 0,1 0,0 1,0-1,0 0,0 1,0 0,0-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 5,-1 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="176072.34">3334 106,'11'1,"1"1,0-1,-1 2,1 0,-1 0,0 1,20 9,-1 2,39 27,-38-19,-1 1,-1 2,-1 0,-2 2,0 1,40 61,-35-41,-3 1,-1 2,37 104,-52-119,-2 0,-2 0,-1 1,-2-1,-1 2,-2-1,-5 64,1-90,-1 1,0-1,-1-1,0 1,-1 0,0-1,-1 0,-1 0,1 0,-1-1,-1 0,0-1,-1 0,-17 16,-11 4,0-1,-63 35,97-61,-108 57,74-48,36-11,-1 0,1 0,0 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-2-2,-12-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="176617.34">4552 450,'8'0,"9"0,5 0,7 0,14 0,11 0,12 0,11 0,29 0,10 0,-1 0,-11 0,-15 0,-17 0,-17 0,-18 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="177129.34">4472 899,'9'0,"16"0,18 5,19 6,4 0,0 0,-8-4,-8-1,-4-3,-6-2,1 0,-4-1,-3-1,2 1,-5-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="178042.34">2699 926,'9'0,"12"0,11 0,10 0,10 0,2 0,0 0,-4 0,-7 0,-5 0,-6 0,-3 0,3 0,0 0,8 0,1 0,0 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181204.72">7753 185,'133'-2,"159"7,-277-4,0 1,-1 1,1 0,-1 2,0-1,0 1,0 1,-1 1,0 0,0 0,0 2,-1-1,0 2,-1-1,0 2,17 20,-12-9,-1 1,-1 0,-1 1,-1 1,-1 0,-2 1,0-1,6 35,4 15,-11-49</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181724.52">8626 0,'0'9,"-14"21,-17 23,-27 12,-16 9,-19 8,-11 10,-14 11,-2-7,11-12,15-15,19-14,14-13,16-9,17-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="182545.14">6324 1005,'0'2,"1"-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,3 0,0 1,83 7,157-3,-138-6,4758-1,-4798 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="185596.72">6853 1587,'2'1,"0"-1,1 1,-1-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,2 3,24 39,-24-37,5 9,-1 1,-1 0,-1 1,0 0,-1-1,2 23,6 110,-3-17,-2-97,-8-35,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,7-17,1-28,3-102,-7 63,4 1,3 0,30-108,-40 186,0 1,0-1,0 1,0-1,1 1,0 0,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,1 0,-1 1,1-1,0 1,6-3,-3 4,0-1,-1 2,1-1,0 1,0 0,-1 1,1-1,0 2,0-1,0 1,0 0,14 5,47 9,1-3,81 4,150-9,2968-10,-3261 3,-1 0,0 0,0 1,0 0,1 0,-1 1,0 0,0 0,-1 0,1 1,11 6,-15-6,1 0,-1 0,1 1,-1-1,0 1,-1 0,1-1,-1 1,1 1,-1-1,0 0,-1 0,1 1,-1-1,0 1,0 0,0-1,0 1,-1 4,0 25,-1 0,-1-1,-3 1,0-1,-19 59,22-82,-1-1,0 1,-1-1,0 0,-1 0,0 0,0-1,-1 1,-7 8,-20 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="186439.14">8256 1984,'0'14,"-9"13,-26 20,-24 20,-8 3,0-1,-3-3,2-5,7-7,15-18,15-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="187119.14">7885 2116,'4'0,"7"0,9 0,12 0,3 0,2 5,-7 6,2 5,-6 5,-2 3,0 2,-1 1,5-4,3-1,9 0,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="188295.57">8494 1852,'14'-11,"1"-1,1 2,0 0,0 1,1 1,0 0,1 1,0 1,0 1,21-4,-33 7,0 1,1 0,-1 0,0 0,1 1,-1 0,0 0,1 1,-1 0,10 2,-13-2,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,0-1,-1 4,-2 11,0 0,-1 0,-1-1,-1 1,0-1,-1 0,-1 0,0-1,-1 0,-1-1,0 0,-1 0,-1-1,0-1,0 0,-2 0,-20 14,25-22,-1 0,1 0,-1-1,0 0,0-1,0 0,0 0,-11 0,-37 7,61-6,17 0,24-1,19-2,-18-2,1 3,-1 2,60 10,-80-8,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="188729.07">9393 1905,'0'9,"0"26,0 24,0 21,0 14,0 5,0-1,0-8,0-11,0-13,4-19,2-35,0-33,-1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="189311.07">9155 2196,'4'0,"16"0,12 0,7 0,9 0,1 0,1 0,-3 5,4 1,-2-1,-6 4,-9 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="190282.03">9870 1878,'153'-2,"164"5,-314-3,-1 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,1 0,-1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 0,0 0,-1 1,0 3,0 1,-1 0,0-1,0 1,-1 0,0-1,0 0,0 1,-1-1,0 0,0-1,-10 11,-34 16,41-29,0 0,1 1,0 0,0 0,0 1,0 0,1 0,-6 6,10-9,0 0,0 0,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,2 2,12 34,-7-23,-6-13,46 142,-43-130,-1 1,0 0,-1 0,-1 0,0 0,-1 0,-1 0,-3 16,3-28,0 0,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,1 0,-1 0,-1 0,1 0,0 0,0-1,-5 1,-9 4,-1 0,-37 4,26-5,-6 3,-1-2,0-1,0-2,-61-2,94-1,0-1,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1-1,-1 0,1 1,0-1,0 0,-1-2,-4-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="191858.96">10425 1825,'6'0,"0"-2,1 1,-1-1,0 0,0 0,0 0,6-4,21-7,12 3,1 2,0 2,1 2,-1 2,93 9,-136-7,1 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,2 6,-3-3,1 1,-1 0,1 0,-2-1,1 1,-1 0,0 0,-1 0,1 0,-1 0,-1-1,-2 9,2-9,-1-1,1 0,-1 0,-1 0,1 0,-1 0,0 0,0-1,0 0,0 0,-1 0,0-1,0 1,0-1,0 0,-9 4,-3 0,1-1,-1 0,0-1,-23 4,11-5,-1-1,-54-1,142-3,-43-1,1 1,-1 1,1 1,-1 0,0 0,1 2,23 6,16 13,-28-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-131965.5">8547 3492,'5'-9,"0"0,1 0,0 1,1-1,-1 1,2 1,-1-1,1 1,0 0,1 1,0 0,0 1,13-7,-14 9,-1 0,1 0,1 0,-1 1,0 1,0-1,1 1,-1 1,1 0,-1 0,1 0,-1 1,0 0,1 1,-1 0,15 6,59 29,140 89,-207-114,0 0,-1 0,-1 2,0-1,-1 2,0 0,-1 0,14 27,-13-22,0-1,1 0,2-1,30 31,-26-34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-131238.18">9367 3254,'-14'1,"0"0,0 1,0 1,1 0,-1 1,1 0,0 1,0 0,0 1,-13 10,-17 11,-58 50,15-10,50-42,2 0,0 3,2 0,-33 38,55-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-130226.63">9685 3121,'-2'20,"-1"-1,0 0,-1 0,-2-1,1 1,-2-1,-15 29,-13 40,12-20,12-38,1 0,2 1,1 0,1 0,1 0,0 36,4-50,2 0,0-1,1 1,1-1,0 1,1-1,1 0,0 0,1-1,0 0,1 0,1 0,0-1,1 0,1 0,0-1,0-1,22 19,-7-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-125571.82">8071 2910,'0'5,"0"14,0 14,0 19,0 9,0-1,0-1,0-7,0-7,0-8,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-124881.03">7886 3492,'4'0,"11"0,7 0,13 0,6 0,4 0,0 0,0 0,-2 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-122763.89">8071 3677,'43'-1,"-24"0,0 0,0 2,25 3,-39-3,0 0,0 0,0 1,0 0,0 0,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 0,-1 1,1-1,0 1,4 7,-1 0,-1 0,0 1,-1 0,0 0,-1 0,-1 0,0 1,0-1,-1 1,-1 0,0-1,-1 1,0 0,-1 0,0-1,-1 1,-1 0,-7 21,8-29,-1-1,0 0,0 0,-1 0,1 0,-1 0,0-1,0 0,0 1,0-1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,-7 1,-4 1,1-1,-1-1,0 0,1-1,-18-2,30 1,0 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-5-4,7 4,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,1-1,11-7,0 1,0 0,1 0,0 1,1 1,-1 0,21-3,-5 4,1 1,53 1,-74 2,1 0,0 0,0 1,-1 0,1 1,-1 0,1 1,-1 0,0 0,0 1,0 1,-1 0,16 10,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-111671.26">10346 3413,'0'5,"-5"5,-1 6,-4 5,-5 3,-4 2,-4 6,-7 1,2 1,1-7,6-2,1-2,4 0,0-4,-1 0,2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-110861.85">10082 3360,'0'-4,"4"-2,20 4,10 8,8 12,2 6,-2 5,-4 6,-4-3,-8-3,-8-1,2-1,-3-1,1-4,-3-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-109464.27">10505 3174,'22'0,"-12"-1,-1 1,1 0,-1 0,14 3,-21-3,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 3,5 24,-1 1,-2 0,-1 0,-2 0,0 0,-7 36,7-61,0 0,-1-1,0 1,0 0,0 0,-1-1,1 1,-1 0,0-1,-1 0,1 1,-1-1,-5 6,5-7,0-1,0 0,0 1,0-1,-1-1,1 1,-1 0,1-1,-1 0,0 0,0 0,1 0,-1 0,0-1,0 0,-7 0,236-6,-201 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-108940.24">11114 3280,'4'-4,"6"7,2 17,-2 14,-2 10,-3 11,-2 5,-2 2,0-6,-1-7,4-4,1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-108407.54">10955 3545,'9'0,"12"0,11 0,14 0,8 0,8 0,17 0,3 0,-8 0,-7 0,-10 0,-7 0,-11-4,-13-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-107330.54">11854 3201,'4'-3,"0"0,0 0,0 1,0-1,1 1,0 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 1,0-1,0 1,7 1,-4-1,-1 1,1 0,-1 0,1 1,-1 0,0 0,0 1,0-1,0 2,7 4,-11-7,-1 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,-1 4,-4 3,0-1,0 1,-1-1,0 0,0-1,-13 11,14-14,0 1,0 1,1-1,0 1,0 0,0 0,1 0,-8 14,12-18,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,1-1,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,3 3,7 4,0 0,1-1,21 9,-14-7,-10-4,0 0,0 1,-1 0,1 1,-2 0,1 0,-1 1,11 12,-17-17,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,-1 0,0 0,0-1,-2 5,-2 1,0 0,-1-1,0 0,0 0,-1-1,0 1,0-2,-1 1,1-1,-12 5,0-1,0-1,0-1,-1-1,-22 5,18-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-106114.43">12278 2989,'5'-5,"1"0,0 0,0 1,0 0,1 0,0 0,0 1,0 0,0 0,0 1,0 0,14-2,-18 3,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,0 1,0-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,-1 1,1 0,0-1,-1 1,0 0,0 0,0-1,1 7,4 21,-2 0,-1 0,-1 1,-2 0,-1-1,-2 1,-6 32,8-56,-1 1,0 0,-1-1,0 0,0 1,0-1,-1 0,0-1,-1 1,1-1,-1 0,0 0,-1 0,0-1,-11 9,13-11,-1 0,1 0,-1-1,0 0,0 0,0 0,0 0,-1-1,1 0,0 0,-1-1,1 1,0-1,-1 0,1-1,0 1,-1-1,1 0,0 0,0-1,0 0,0 1,0-2,-6-2,8 3,-1 0,1-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,-1-1,2 1,-1-1,0 1,1-1,-3-6,4 8,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,-1-1,5 0,1-1,0 1,0 0,0 0,0 1,0-1,0 2,0-1,0 1,0 0,0 1,0-1,0 1,0 1,-1-1,13 8,3 2,-1 2,-1 1,22 19,-23-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-104961.2">12886 2830,'17'41,"-1"0,20 82,-19-61,-8-17,-2 1,-2 1,-2-1,-5 92,0-60,1-59,0-1,-2 0,0 0,-1 0,-1 0,0-1,-2 0,-13 27,-5 1,-54 72,66-100</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-101164.18">13124 2566,'4'0,"7"0,5 0,9 0,5 0,2 0,0 0,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-100583.68">13548 2248,'0'9,"0"12,0 16,0 11,0 6,0-2,0-5,0-6,0-5,0-5,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-100031.04">13865 2434,'0'9,"-14"26,-13 15,-2 9,-5 3,-1-1,0-5,3-3,5-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-98379.38">13892 2910,'0'-11,"1"0,1-1,0 1,0 0,1 0,1 0,0 1,0-1,9-14,-10 19,1 0,0-1,0 2,1-1,0 0,0 1,0 0,0 0,1 1,0-1,0 1,0 0,0 1,1-1,11-3,-16 6,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,1 2,-1 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1 5,0 10,0 0,-1-1,-2 26,0-29,1-2,0 0,-1 0,-1 0,-4 20,4-28,0 0,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0-1,-5 4,-141 71,99-52,51-25,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,17 3,32-4,-44 1,39-2,-20 0,0 1,0 1,45 6,-46 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-92582.38">14289 3333,'8'-1,"0"-1,0 0,0-1,0 0,-1 0,1 0,-1-1,9-6,7-3,-2 4,1 1,0 1,0 1,27-4,-47 10,0-1,0 1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1-1,-1 1,1 4,2 7,-1 0,0 0,-1 26,-1-26,0 6,0 1,-2-1,0 1,-2-1,0 0,-1 0,-1 0,0-1,-1 0,-2 0,-11 18,13-23,-1-1,-1-1,0 0,-1 0,0 0,-1-2,0 1,0-1,-1-1,0 0,0 0,-1-2,0 1,-1-2,-23 8,35-12,1-1,-1 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,0 1,-1-3,2 2,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 1,-1-1,1 0,0 1,-1-1,1 0,0 1,0-1,0 0,1 1,-1-1,1-2,0-3,1 1,0-1,1 1,0 0,0-1,0 1,0 0,1 1,0-1,9-9,-6 10,0 0,0 1,0 0,1 0,0 1,-1-1,1 2,0-1,1 1,-1 1,0-1,0 2,1-1,-1 1,1 0,-1 0,0 1,1 1,-1-1,9 4,0 0,0 0,0 1,-1 1,0 0,0 2,-1 0,0 0,21 18,-17-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-91897.99">15215 3227,'-2'11,"-1"0,1-1,-2 1,1-1,-1 0,-1 0,0 0,-1 0,1-1,-14 16,4-4,-61 86,38-56,-57 100,69-113,13-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-91152.96">14897 3280,'9'5,"16"15,9 21,3 5,-1 3,-6 2,1-7,-5-7,-6-5,-3-4,-5-2,2-1,1 0,-1 0,-3-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-89915.47">14527 3174,'0'5,"0"10,0 12,0 10,0 12,0 21,-5 7,-1-1,0-8,1-11,-2-12,-1-8,-4-6,1-4,2-2,-2-1,1 5,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-88657.98">8018 3042,'-1'256,"2"288,4-468,4 0,3-1,27 96,-30-114,-8-46,0 0,1 0,0-1,0 1,2 0,7 17,0-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-85556.58">15320 3016,'-2'1,"1"-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,0 2,-13 29,10-19,-180 345,97-196,-21 62,104-218,-1 1,0-1,0 0,0 0,-1 0,0-1,0 1,-1-2,1 1,-1-1,0 0,0 0,-13 4,-1-1,0 0,0-1,-37 4,-20-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-83298.58">9261 2989,'29'1,"1"-3,0 0,-1-2,58-15,-73 15,61-15,-68 17,0 1,0 0,0 1,0 0,0 0,-1 0,1 1,11 2,-16-2,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,-1-1,0 4,2 8,-1 0,-1 1,-2 15,1-12,0-1,-1 1,-1 0,-1-1,0 1,-1-1,-1 0,0-1,-1 0,-18 29,21-37,-2 0,1 0,-1-1,0 0,-1 0,1-1,-1 0,-1 0,1 0,-1-1,0 0,0 0,-1-1,1-1,-1 1,0-1,0 0,0-1,0 0,-12 0,18-2,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1-1,0 1,0 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,-2-3,3 4,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-2,0 2,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,2 0,11-4,1 1,0 1,0 1,0 0,27 0,81 9,-96-2,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-25039.4">13336 5000,'0'14,"-5"8,-5 10,-11 13,-6 4,-3 2,-5 1,-1-4,0-5,3-5,6-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-24465.39">12966 5106,'4'0,"6"0,11 0,15 0,5 9,6 8,3 9,-2 10,-1 3,-7-1,-3 3,-2-6,-8-5,-3-7,-2-3,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-23202.41">13548 4762,'0'-2,"1"0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,5-1,0-2,30-16,1 1,1 2,0 2,57-14,-21 11,118-11,-189 28,1 1,0-1,0 1,0 0,-1 0,1 1,0-1,0 1,-1 0,1 0,0 1,-1-1,0 1,1 0,5 3,-7-2,0 0,-1 1,1-1,-1 0,0 1,0-1,0 1,0 0,0 0,-1 0,0 0,1 0,-2 0,1 0,0 0,-1 0,0 8,1 6,0 0,-2-1,0 1,-1-1,-1 1,0-1,-2 0,-7 20,8-27,-1 0,0-1,-1 0,0 1,0-2,-1 1,0-1,-1 0,0-1,0 1,0-2,-1 1,0-1,-14 7,5-4,-1 0,0-1,0-1,0-1,-1 0,0-2,0 0,0-1,0-1,-1-1,1-1,0-1,-1 0,-27-7,45 7,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,-3-4,6 6,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,1-1,22-9,26 5,0 2,-1 2,74 8,-119-6,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,1 4,5 9,4 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22492.21">14844 5079,'0'18,"0"11,0 13,0 10,-5-1,-1-4,1-6,0-4,2-6,1-2,1-2,0-1,1-1,1 1,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-21960.49">14474 5370,'0'-4,"4"-2,6 1,7 0,12 2,7 1,6 1,5 0,4 1,-3 0,4 1,7-1,-3 0,-1 0,-6 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-20684.49">15506 5000,'92'0,"106"1,-194-1,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,1 1,-1-1,1 0,-1 1,0-1,0 1,1 0,-1 0,-1 1,1-1,0 1,0-1,-1 1,0 0,5 6,-6-5,0 0,0-1,0 2,0-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,-3 4,-3 3,0 1,-1-2,-19 19,19-20,1-1,0 2,0-1,-11 19,17-24,0 0,0 0,1 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 1,0-1,0 0,1 1,-1-1,1 0,0 0,3 7,23 56,-19-51,0 0,-2 1,0 0,5 25,-9-30,0 1,-1 0,0 0,0 0,-3 13,2-23,-1 1,0-1,1 1,-2-1,1 1,0-1,-1 0,1 0,-1 1,0-1,0 0,0-1,-1 1,1 0,0-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-4 1,-21 6,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19065.49">16088 4630,'85'-1,"96"3,-176-1,-1-1,1 1,0 0,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,0 1,-1-1,1 1,-1-1,0 1,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1 6,1 14,-1-1,-1 1,-1 0,-6 41,5-55,-1-1,0-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,0-1,0 0,-1 0,0 0,-1-1,1 0,-1 0,0-1,-1 0,-16 10,15-9,-1-1,-1 0,1-1,-1 0,0-1,0 0,0-1,0 0,-1-1,1 0,-1 0,1-2,-1 1,-20-3,31 2,-1 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-2-3,3 3,-1 0,0 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0-1,2 1,8-3,1 1,-1 0,1 1,0 1,0-1,-1 2,1 0,0 0,-1 1,1 0,-1 1,18 7,5 5,0 1,49 34,-39-24,-14-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-16698.86">15691 5423,'29'-1,"-17"0,0 1,0 0,0 0,21 5,-31-5,1 1,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 1,0-1,0 1,1 0,-1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,0 1,-1-1,2 6,1 8,0 0,-2 0,0 0,0 0,-2 0,0 0,-1 1,0-2,-2 1,-9 29,11-38,-2 0,1 0,-1 0,0-1,0 1,0-1,-1 0,0 0,-1-1,1 1,-1-1,0 0,0-1,0 0,-1 0,0 0,0 0,0-1,0-1,0 1,0-1,-1 0,1-1,-14 2,-53-1,41-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44888.1">11828 6323,'0'-1,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,40-5,-36 4,35-3,0 1,0 2,0 2,52 9,-80-7,0 1,0 1,-1 0,0 0,0 2,19 12,64 56,-53-40,-11-6,-1 2,-2 1,0 0,-3 3,40 66,-47-71,-17-29,3 6,0 0,1 0,-1-1,1 1,1-1,-1 0,1-1,0 1,8 4,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45447.13">12754 6164,'-9'0,"-8"0,-14 9,-11 3,-7 4,0 4,4 3,0 6,-5 3,2 6,-1-5,-1 6,0-3,7-4,3-3,3-1,0-2,5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46736.73">13045 5979,'0'-1,"1"0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,1 0,45 1,-47-1,18 1,0 1,0 1,0 1,0 1,-1 1,0 0,24 12,-34-14,0 0,-1 1,1 0,-1 0,0 1,0 0,-1 0,0 1,0 0,0 0,-1 0,0 0,0 1,-1 0,0 0,0 0,-1 1,2 9,-4-13,0 1,0 0,0-1,-1 1,0 0,-1 0,1-1,-1 1,0 0,0-1,-1 1,0-1,-5 11,2-6,-1 0,0-1,-1 0,0 0,0 0,-15 12,-4 0,-1 0,-1-2,-54 27,65-38,-1 0,0-1,0-1,-1-1,1-1,-25 3,55-10,-1-1,0 0,0 0,0-1,15-10,32-13,-38 22,-1 0,1 2,1 0,-1 1,29 0,103 10,-143-7,0 2,0-1,0 1,0 0,8 4,-14-5,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,2 4,0 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47557.11">10611 6984,'4486'0,"-4479"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48285.34">11696 7328,'-1'9,"0"0,-1 0,1-1,-2 1,1-1,-1 1,0-1,-5 8,-39 65,32-58,-7 11,-1 0,-1-2,-2-1,-1-1,-34 28,42-42,-1 0,0-2,-1 0,-1-2,0 0,-1-1,0-2,0 0,-36 8,54-16,0 0,0 0,0-1,0 0,0 1,0-2,-1 1,1-1,-7-1,-7-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48729.33">11219 7408,'9'5,"7"1,15 17,24 28,17 19,0 1,2 3,-12-3,-8-8,-8-7,-7-7,-7-9,-3-5,-7-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50048.95">11934 7328,'2'-4,"1"1,0-1,0 0,0 1,1-1,-1 1,1 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,-1 1,1 0,9-1,2-1,-1 1,1 1,0 1,22 2,-35-2,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 5,2 12,-1 0,-1 1,-3 32,0-18,3-28,0-1,0 1,-1-1,0 1,0-1,-1 0,0 1,0-1,-6 11,6-14,0 0,0-1,-1 1,1-1,-1 0,1 1,-1-1,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,0 0,0 0,-1-1,1 1,-1-1,-5 0,-39-2,47 2,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1-2,1 1,0 1,0-1,-1 0,1 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 1,0-1,-1 1,5 0,50-5,-50 4,5 0,1 1,0 0,0 0,-1 1,1 1,0 0,-1 0,1 1,-1 1,0 0,0 0,12 8,-8-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50858.95">12833 7461,'-21'409,"19"-329,3-61,-1 1,-1-1,-1 0,-5 21,1-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51440.04">12436 7858,'4'0,"7"0,9 0,7 0,8 0,1 0,5 0,-1 0,-2 0,1 0,-2 0,3 0,-2 0,-3 0,-2 0,-3 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52530.95">13389 7646,'10'-4,"0"1,1-1,0 2,-1-1,1 2,0-1,0 1,18 1,4-1,-32 1,255-6,-253 6,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,4 3,-5-3,0 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,-2 2,-24 30,21-26,-1 0,1 1,1 0,-10 17,15-23,0 0,-1 1,1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1 1,-1 0,1-1,0 1,0-1,0 0,3 7,-1-2,6 10,0 1,-2 0,0 1,5 27,-11-41,0-1,-1 1,1-1,-1 1,-1-1,1 1,-1-1,0 1,0-1,0 0,-1 1,0-1,0 0,0 0,-1 0,0-1,0 1,0 0,0-1,-1 0,-6 7,0-3,-1 0,0-1,0 0,-1-1,0 0,0-1,0 0,-1-1,1 0,-1-1,-20 2,-14 0,-86-1,127-4,2 0,0 0,0 1,-1-1,1-1,0 1,0 0,0-1,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,0 0,1 0,0-1,-4-2,-5-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53855.95">14050 7540,'32'-37,"-29"32,0-1,1 2,0-1,0 0,0 1,1 0,-1 0,1 0,0 0,0 1,1 0,-1 0,0 0,1 1,9-3,22 0,1 1,-1 3,1 1,48 6,-81-6,-1 0,1 1,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 1,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,6 7,-6-5,-1 0,1 0,-1 0,0 1,0-1,-1 1,1-1,-1 1,-1-1,1 1,-1-1,0 1,-1 10,0-5,-1 0,0 0,-1-1,0 1,-1-1,0 0,-1 0,0 0,0 0,-1-1,0 0,-1 0,0-1,0 1,-17 12,15-15,-1 0,0-1,-1 0,1-1,-1 0,0-1,-16 3,-11 4,53-12,0 1,-1 1,1 0,0 1,24 4,-8 2,0 1,0 2,31 13,-27-8,58 14,-65-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55194.85">16485 6826,'0'9,"0"21,0 19,-5 10,-1 40,0 12,1-8,2-13,1-17,-4-16,0-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55824.85">16194 7090,'833'0,"-804"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7538 6695,'5'0,"10"0,8 0,13 0,7 0,4 0,0 0,-1 0,-1 0,0 0,-4 0,2 0,-1-4,-6-6,-2-1,-3 0,-6 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1512.99">7455 7152,'52'-2,"57"-10,39 0,29 0,28-1,-124 13,-57 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="171576.31">386 507,'-1'2,"0"-1,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 0,-3 1,-40 5,41-6,-24 2,3 0,0 0,0 2,0 0,-24 8,40-9,1 0,-2 1,2-1,0 1,0 1,0-1,1 2,-1-2,1 2,0-1,0 2,1-2,1 2,-1-1,-6 11,6-7,1-1,0 1,0-1,0 1,1 0,1 0,0 1,1-2,0 2,0-1,2 0,-1 1,1-1,1 1,2 10,-2-15,2 1,-1 0,0 0,0-1,0 0,1 0,0 0,2 0,-1-1,-1 1,2-1,-1-1,2 1,-2 0,1-1,0 0,1-1,0 1,0-1,0 0,1 0,11 2,227 68,-220-68</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172615.49">743 456,'-3'16,"0"-1,-1 0,0 1,-1-2,-2 1,1-1,-1 0,-11 15,2 0,5-10,2 0,-1 1,2 0,2 1,0-1,0 2,-1 28,6-40,1-1,1 0,0 0,0-1,0 2,1-1,1-1,0 1,1 0,-1-1,1 0,1 0,-1 0,2 0,0-1,-1 0,1 1,1-1,15 11,-6-7,1-1,-1 0,1-1,0 0,2-2,0 0,0-1,31 6,-26-6,1-2,1-1,-1-2,1 0,-1-1,34-4,-55 3,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,0 0,0 0,0 0,-1 1,1-2,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0 1,-1-1,1 0,-1-1,0 1,0 0,0-1,0-2,1-12,0 0,-1 0,-1 1,-2-23,0 13,1-7,1 15,-1 0,-5-33,4 46,1 0,-1 0,-1 0,1 0,-2 0,1 1,-1-1,1 0,-1 2,0-2,0 1,-8-5,-16-10,-1 1,-1 2,0 1,-66-26,67 30,13 5,1 1,-1 2,-25-6,36 8,1 2,-1-1,1 0,0 1,0 0,-1 0,0 0,1 0,0 1,0 0,-1-1,0 2,1-1,0 0,0 1,0 0,1 0,-6 2,-1 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="173622.95">1624 355,'-6'8,"-2"1,1-1,0-1,0 0,-2 0,1-1,-17 11,-10 9,22-16,-9 8,2 1,-22 22,38-36,0 0,-1 0,1 1,1-1,0 0,0 1,0 0,1 0,0 0,0 0,1 0,-2 1,3-1,-2 11,3-13,2 2,-2-2,1 1,0 0,0-1,0 1,1-1,-1 0,1 1,0-2,1 1,0 0,0 0,-1-1,1 1,8 3,9 8,2-2,24 11,-39-20,18 7,1-1,46 12,-53-17,-1 0,-1 0,1 2,0 1,-2 0,1 1,26 18,-30-16,1 2,19 20,-30-29,-1 1,2 0,-2 0,0-1,-1 1,1 0,-1 1,0-2,0 2,0 0,-1 0,1 7,-2-11,0 0,-1 1,1-1,-1 0,0 0,0 1,0-2,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0 0,1-1,-1 1,-1-2,1 1,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1-1,-4 1,-11 2,-1-1,0 0,-20-1,29-1,-1 1,-137-3,129 0,0 0,1-1,0 0,-1-2,2 1,-23-11,36 14,0-1,0 1,0 0,1-1,-2 0,2 0,-1-1,1 1,0 0,0-1,0 0,0 1,0 0,1-1,-1 0,1 0,0 0,-2-4,1-2,0-1,1 1,0-1,1-15,1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="174265.95">2614 127,'-1'21,"-1"0,-2-1,0 1,-1-1,-8 21,-46 98,42-101,-26 53,-59 149,94-214,1 0,0 0,3 0,0 1,2 0,1-1,4 41,-1-55,0-1,1 0,0 1,2-1,-1 0,0-1,1 1,1-1,1 0,0-1,0 1,0 0,2-2,9 10,-3-6,1-2,-1 1,1-1,0-2,1 1,0-2,0 0,36 9,-51-16,0 1,1 0,-1-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0-1,0 1,1-1,0 1,-1-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,0-1,0 1,-1-1,2 1,-2-1,1 1,-1-1,0 0,0 0,1 0,-1 1,1-4,13-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="175340.34">2916 507,'0'1,"1"-1,0 1,0-1,-1 0,1 1,0-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,2-1,-2 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 1,4 21,-4-23,0 19,-1-1,0 0,-2 1,-1-1,0 0,-1 0,-1-1,-1 0,-11 20,8-14,0-1,2 1,1 0,0 1,-2 27,8-36,0-1,2 1,-1 0,2-1,6 28,-6-35,0 1,2-1,-1 0,1 0,0 0,0-1,1 0,0 1,0-1,1-1,-1 1,1-1,8 6,-5-5,2 0,-2 0,1-1,2-1,-2 1,2-1,-1-1,1 0,-1 0,0-1,2-1,-2 0,2 0,-2-1,1-1,22-1,-26 0,2 0,-2 0,0 0,1-1,-1 0,0-1,1 0,-2 1,0-2,1 0,-1 0,0 0,-1 0,1-1,-1 0,0-1,-1 1,0-1,1 0,-2 1,0-2,6-14,-4 3,0-1,-2-1,-1 2,-1-1,0-1,-2 1,0 0,-2 0,0 0,-1-1,-2 2,-1-1,0 1,-1 0,0 0,-3 0,1 1,-1 0,-2 1,0 0,-2 1,1 0,-2 0,-1 2,-24-19,31 27,0 0,0 1,0 0,-1 1,1 0,-2 1,1-1,-11-1,15 3,-1 1,-1 0,2 1,-1 0,1 0,-2 0,1 0,1 0,-1 1,-1 1,2-1,0 1,-9 3,12-3,1 0,-1 0,1 0,0 1,0-1,0-1,0 2,-1 0,1-1,1 1,-1 0,1 0,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,-1 5,-1 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="176072.34">3466 102,'12'1,"0"0,1 0,-2 2,1 0,0 0,-1 1,22 8,-2 3,40 25,-38-18,-2 1,-1 2,-1 0,-2 2,0 1,42 58,-37-39,-3 1,-1 2,39 99,-55-113,-1-1,-3 0,-1 2,-2-2,0 3,-3-2,-5 62,0-87,0 2,0-2,-1 0,0 0,-1 1,0-1,-2-1,0 1,1-1,-2 0,0-1,0 0,-2 0,-17 15,-11 3,0 0,-66 34,100-59,-111 54,77-45,37-11,-2 0,2 0,0 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-3-2,-11-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="176617.34">4732 431,'9'0,"8"0,6 0,7 0,15 0,11 0,13 0,11 0,30 0,11 0,-2 0,-11 0,-15 0,-18 0,-18 0,-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="177129.34">4649 862,'10'0,"16"0,18 5,21 5,3 1,1-1,-9-3,-8-1,-4-3,-6-3,0 1,-3-1,-4-1,3 1,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="178042.34">2806 888,'9'0,"13"0,11 0,11 0,10 0,2 0,0 0,-4 0,-7 0,-5 0,-7 0,-3 0,3 0,1 0,7 0,2 0,-1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181204.72">8060 177,'139'-2,"164"7,-287-4,-1 1,0 1,0 0,0 2,0-2,-1 2,1 1,-2 1,1-1,-1 1,1 2,-2-2,1 3,-2-1,1 1,17 20,-13-9,0 1,-2 0,0 1,-2 1,0 0,-3 1,1-1,5 33,5 15,-12-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181724.52">8968 0,'0'9,"-15"19,-17 23,-28 11,-17 9,-20 8,-11 9,-15 11,-1-7,10-12,17-13,19-15,14-11,17-10,18-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="182545.14">6575 963,'0'2,"1"-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,1 1,-1-1,2 1,-2-1,1 0,-1 0,1 0,-1 0,3 0,0 1,87 6,162-2,-143-6,4947-1,-4988 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="185596.72">7125 1521,'2'1,"0"-1,1 1,-1-1,1 1,-1 0,0 0,0 0,1 0,0 0,-1 0,0 1,0-1,0 1,-1-1,1 1,0-1,2 4,25 37,-25-35,6 8,-2 2,-1-1,0 1,-1 1,-1-2,2 22,7 106,-4-17,-1-92,-9-34,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,7-16,2-28,2-96,-7 59,5 2,2-1,32-103,-42 178,0 1,0 0,0 0,0-1,1 1,0 1,1-1,0 0,-1 1,1-1,0 2,0-1,0 0,2 0,-2 1,1-1,0 1,7-2,-4 3,0-1,0 2,0-1,0 1,1 0,-2 1,1-1,0 2,1-1,-1 1,0 0,15 5,49 8,1-2,84 3,156-8,3085-10,-3389 3,-2 0,0 0,0 1,1 0,0 0,-1 1,1 0,-1-1,-1 1,1 1,12 6,-16-6,1 0,-1 0,2 0,-2 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,-1 0,2 1,-2-1,0 0,0 1,0-1,0 1,-1 3,0 25,-1 0,-1-2,-4 2,1-2,-20 58,23-80,-1 0,0 0,-1 0,0 0,-2-1,1 1,0-1,-1 0,-8 8,-20 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="186439.14">8583 1902,'0'13,"-9"13,-28 19,-24 19,-9 3,1 0,-4-4,2-5,8-6,15-17,16-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="187119.14">8197 2028,'5'0,"6"0,10 0,12 0,4 0,1 5,-7 6,2 4,-6 5,-2 3,0 2,-1 1,5-4,4-1,8 0,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="188295.57">8831 1775,'14'-10,"2"-2,0 3,1-1,0 1,0 2,1-1,1 1,-1 2,1 0,22-4,-35 7,0 1,1 0,0 0,-1 0,1 1,-1 0,1 0,0 1,-1 0,11 2,-14-2,-1 0,0 0,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 1,-1-2,1 1,-1 1,0-1,0 1,0-1,0 1,0-1,-1 4,-2 10,0 0,-1 0,-1 0,-2 0,1-1,-1 1,-1-1,-1-1,0 1,-2-2,1 1,-1-1,-2 0,1-2,-1 1,-1-1,-22 14,27-21,-1 0,0-1,0 0,-1 0,1-1,0 0,-1 0,-11 0,-38 7,63-7,18 1,25-1,19-2,-18-2,1 3,-1 2,62 10,-83-9,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="188729.07">9765 1826,'0'9,"0"24,0 24,0 19,0 15,0 4,0-2,0-6,0-12,0-11,4-19,3-34,-1-31,-1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="189311.07">9518 2105,'4'0,"17"0,12 0,8 0,8 0,2 0,1 0,-3 5,4 1,-2-2,-6 5,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="190282.03">10261 1800,'159'-2,"171"5,-327-3,-1 0,0 0,0 0,0 0,0 1,1-1,0 0,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,2 1,-2-1,0 1,0 0,1 0,-1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1-1,0 2,1-1,-1 0,0 0,0 0,-1 1,0 3,0 0,-1 1,0-1,0 0,-1 1,-1-1,1 0,0 0,-1 0,0 0,0-1,-11 10,-35 16,43-28,0-1,0 2,1 0,0 0,0 1,0 0,0-1,-5 7,10-9,0 0,0 0,1-1,-1 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,2 1,12 34,-6-23,-7-12,48 136,-45-124,-1 0,0 0,-1 1,-1-1,0 0,-1 1,-1-1,-3 16,3-27,0 0,0 1,-1-2,1 1,-1 0,-1 0,1 0,0 0,0 0,-1 0,1-2,-1 2,0-1,0 0,1 0,-2 0,0 0,1 0,0 0,0-1,-5 1,-10 3,-1 1,-38 4,27-6,-6 4,-2-2,1-1,-1-2,-63-2,98-1,0-1,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 1,-1-2,2 1,-1 0,1-1,-1 0,1 1,0-1,0 0,-1-1,-4-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="191858.96">10838 1749,'6'0,"1"-2,0 2,-1-2,0 0,1 0,-1 0,6-4,23-6,11 2,2 2,0 3,1 1,-1 2,96 9,-141-7,2 1,-2-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,1 1,-1-1,2 0,-2 0,0 1,0 0,0 0,-1 0,1 0,2 5,-3-2,1 1,-1 0,1-1,-2 0,1 1,-1-1,0 1,-1 0,1 0,-1-1,-1 0,-2 8,2-8,-1-1,1 0,-1 0,-1-1,0 1,0 0,0 0,0-1,0-1,0 1,-2 0,1-1,0 1,0-1,0-1,-10 5,-3 0,2-1,-2-1,0 0,-23 4,11-5,-1-1,-57-2,149-2,-46 0,2 0,-2 1,2 1,-1 0,-1-1,2 3,23 6,18 12,-30-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-131965.5">8886 3347,'5'-8,"0"-1,1 0,1 2,0-2,-1 1,2 2,0-2,0 1,0 1,2 0,-1 0,0 1,14-6,-14 8,-2 0,1 0,2 0,-2 1,0 2,1-2,0 1,-1 1,2 0,-2 0,1 0,0 1,-1 0,1 0,0 1,14 6,63 28,144 84,-214-108,0-1,-2 1,0 1,-1 0,0 1,-1 0,0 1,14 25,-14-21,1-1,0 1,3-2,30 30,-26-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-131238.18">9738 3119,'-14'1,"-1"0,1 1,-1 1,1 0,0 1,0-1,1 2,-1 0,1 1,-14 9,-18 11,-60 48,16-10,51-40,3 0,0 3,1 0,-33 36,56-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-130226.63">10069 2992,'-2'19,"-1"-1,0 0,-2 1,-1-2,1 1,-2-1,-16 28,-14 39,13-20,13-36,1 0,1 0,2 1,1 0,1 0,-1 34,5-48,2 0,0 0,2 0,0 0,0 0,1-1,1 1,0-1,2-1,-1 1,1-1,1 1,1-2,0 1,1-1,1 0,-1-2,24 19,-8-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-125571.82">8391 2789,'0'5,"0"13,0 14,0 18,0 8,0 0,0-2,0-6,0-7,0-7,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-124881.03">8199 3347,'4'0,"11"0,8 0,14 0,5 0,5 0,0 0,0 0,-3 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-122763.89">8391 3525,'45'-1,"-26"0,1 0,0 2,26 3,-41-3,0 0,0-1,0 2,1 0,-1 0,0 0,-1 0,1 1,-1 0,2 0,-2 0,0-1,-1 2,1-1,0 1,5 7,-2-1,-1 1,0 0,0 1,-1-1,-1 1,-1-1,0 2,0-2,-1 2,0-1,-1 0,-1 0,0 0,-1 1,-1-2,0 2,-1-1,-7 21,8-28,-1-1,0-1,-1 1,0 0,1 0,-1 0,0-1,0-1,0 2,-1-1,0-1,1 1,-1-1,1 0,-2 0,1 0,0 0,0-1,-8 0,-3 2,0-1,0-1,-1 0,1-1,-18-2,31 1,0 1,0-1,1 1,-2-1,1 0,1 0,-1 0,1 1,-1-1,1-1,0 1,-5-4,7 4,-2 0,2 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 1,0 0,0-1,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,1 1,-1-1,2 0,-2 0,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,1-1,11-6,1 0,-1 0,2 0,0 2,0 0,0 0,21-3,-5 5,2 0,54 1,-77 2,2 0,-1 0,1 1,-2 0,1 1,0 0,0 0,0 1,-1 0,0 1,1 1,-2 0,17 9,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-111671.26">10756 3272,'0'4,"-5"6,-1 5,-5 5,-4 3,-5 2,-4 6,-7 1,2 0,1-6,6-2,1-2,4 0,1-4,-2 1,2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-110861.85">10482 3221,'0'-4,"4"-2,21 4,10 8,9 11,1 6,-1 5,-4 6,-5-4,-8-2,-8-1,1-1,-2-1,1-4,-4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-109464.27">10921 3043,'23'0,"-12"-1,-2 1,1 0,0 0,14 2,-22-2,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 1,0-1,1 0,-1 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 3,5 23,0 0,-3 1,-1 0,-2 0,0-1,-7 36,7-59,0-1,-1 0,0 1,-1 0,1 0,-1-2,1 2,-1 0,0-1,-1 0,1 0,-1 0,-5 6,4-7,1-1,0 0,0 0,0 0,-1-1,1 1,-1 0,0-1,0 0,0 0,0 0,1 0,-1 0,-1-1,1 0,-7 0,245-6,-209 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-108940.24">11554 3144,'5'-4,"5"7,2 16,-1 14,-3 9,-3 11,-1 4,-3 3,0-7,-1-6,4-3,1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-108407.54">11389 3398,'10'0,"11"0,13 0,13 0,10 0,7 0,18 0,3 0,-8 0,-7 0,-11 0,-7 0,-11-4,-14-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-107330.54">12324 3068,'4'-2,"0"-1,0 0,0 1,1-1,0 1,0 0,-1 0,1 1,1-1,-1 1,0 0,0 0,0 1,1 0,-1 0,7 0,-3 0,-2 1,1 0,-1 0,2 1,-2 0,0 0,1 1,-1-1,0 2,8 3,-12-6,-1 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1-1,-1 1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,-1 3,-4 4,-1-1,1 0,-1 0,-1 0,1-2,-14 12,15-14,0 0,0 2,1-1,-1 1,1-1,0 1,1 0,-9 13,13-17,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 0,2 0,-2 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,3 2,8 5,-1 0,2-1,21 8,-14-7,-11-3,1 0,-1 1,0 0,0 0,-2 1,2 0,-2 0,12 13,-18-18,0 2,0-1,0 1,0-1,0 1,0-1,-1 0,0 1,0 0,0 0,0 0,-1 0,1-1,-1 1,0 0,0 0,-1 0,1 0,-1-1,0 1,0 0,0-1,0 1,-1 0,0-1,0 0,-2 5,-2 1,-1-1,0 0,0 0,-1-1,0 0,0 1,0-3,-2 2,2-1,-13 4,0 0,0-1,1-2,-2 0,-23 4,19-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-106114.43">12765 2865,'5'-5,"1"1,0-1,1 1,-1 0,1 0,0 0,1 2,-1-1,0 0,0 1,1 0,14-2,-19 3,0 1,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0 0,0 0,-1 0,1 0,0 1,0-1,-1 1,2-1,-2 1,0 0,1-1,-1 1,0 0,0 1,0-1,0 0,-1 1,1 0,0-1,-1 1,1-1,-1 1,0-1,1 7,4 20,-2-1,-1 1,-1 1,-2 0,-1-2,-2 2,-6 30,8-53,-1 1,0-1,-2 0,1 0,0 1,0-2,-1 1,0-1,-1 0,0 0,0 0,0 0,-1-1,0 0,-12 9,14-11,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,0-1,1 0,0 0,-1-1,0 1,1-1,-1 0,1-1,-1 1,0-1,1 0,0 0,0-1,-1 0,1 1,0-2,-6-2,7 3,0 1,1-2,0 1,0-1,0 1,0-1,1 0,-1 0,0 0,1 1,-1-2,2 1,-1-1,0 1,1-1,-3-5,4 7,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,1 0,-1-1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,1 1,-1-1,0 1,0 0,1 0,-1 0,2 0,-2 0,1 0,0 0,-1 0,1 0,0 0,0 1,-1-1,5 0,2-1,-1 1,0 0,0 0,1 1,-1-1,0 2,1-1,-1 1,0 0,0 1,1-1,-1 1,0 1,-1-1,14 7,3 3,-1 1,-1 2,22 17,-23-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-104961.2">13397 2713,'17'39,"0"0,20 79,-19-58,-9-17,-1 1,-3 1,-2-1,-5 88,0-57,1-57,0 0,-2-1,0 0,-2 0,0 1,0-2,-2 0,-14 26,-5 2,-56 68,68-96</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-101164.18">13644 2460,'4'0,"8"0,4 0,10 0,6 0,1 0,0 0,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-100583.68">14085 2155,'0'8,"0"13,0 14,0 11,0 6,0-2,0-5,0-6,0-4,0-6,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-100031.04">14414 2333,'0'9,"-14"24,-14 15,-2 9,-6 2,0 0,0-6,2-2,6-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-98379.38">14443 2789,'0'-10,"1"-1,1 0,0 0,0 1,1-1,1 1,0 0,0 0,10-14,-11 18,1 0,0-1,1 3,0-2,0 0,0 1,0 0,1 1,0 0,0-1,0 1,0 0,1 2,0-2,12-3,-17 6,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,1 1,-2-1,1 0,-1 1,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,1 2,-1 0,0-2,0 2,1 0,-2 0,1 0,-1 0,1 0,-1 0,0 0,1 6,0 9,0 0,-1 0,-2 24,0-28,1-1,0-1,-1 1,-1-1,-4 20,4-27,0-1,-1 0,1 1,-1-1,0 0,0-1,0 1,0 0,0-1,-1 1,0-1,0 1,0-2,0 0,-5 4,-147 68,103-50,53-24,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-2 0,2 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,18 2,33-2,-46 0,41-2,-21 0,0 1,0 1,47 5,-48 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-92582.38">14855 3195,'9'-1,"-1"-1,0 0,1-1,-1 0,-1 1,1-1,0-1,8-6,8-2,-2 3,1 1,0 2,0 0,28-4,-49 10,0-1,0 1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,-1 1,2-1,-1 1,0 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 1,0-1,-1 1,2-1,-1 0,0 1,-1 0,1-1,-1 1,1 4,2 6,-1 1,0-1,-1 26,-1-26,0 6,0 1,-2 0,0 0,-2-1,0 0,-2 1,0-1,0-1,-1 0,-3 0,-11 18,14-23,-1 0,-2-1,1-1,-1 1,-1-1,0-1,-1 0,1 0,-1-1,-1-1,1 1,-2-2,1 0,-2-1,-23 8,35-12,2-1,-1 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0-1,0 1,-1 0,1-1,1 1,-1-1,0 1,0-1,1 0,-1 0,0 1,-1-3,2 2,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,1 1,-1-1,1-2,0-2,1 0,0-1,1 1,0 1,0-2,0 1,0 0,2 2,-1-2,9-8,-6 9,1 0,-1 1,0 0,2 0,-1 2,-1-2,2 2,-1-1,1 1,0 1,-1-1,0 2,2-1,-2 1,1 0,0 0,-1 1,1 1,0-1,8 4,1 0,0-1,-1 2,0 1,-1 0,1 1,-1 1,-1-1,23 18,-19-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-91897.99">15818 3093,'-2'11,"-1"-1,1 0,-2 1,0-2,0 1,-1-1,0 1,-1-1,0 0,-13 15,3-4,-63 83,40-54,-60 95,72-107,13-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-91152.96">15487 3144,'10'5,"16"14,9 20,4 5,-2 3,-6 2,1-6,-5-8,-6-4,-3-5,-6-1,3-1,1 0,-2 0,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-89915.47">15103 3043,'0'4,"0"11,0 11,0 9,0 12,0 20,-5 7,-2-1,1-8,1-10,-2-12,-2-8,-3-5,0-4,3-2,-2-1,0 5,3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-88657.98">8336 2916,'-1'245,"2"277,4-449,4 0,4-2,27 93,-30-109,-9-44,0-1,1 1,0-2,0 2,2-1,8 17,-1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-85556.58">15927 2891,'-2'1,"1"-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-2 0,2-1,-1 1,0 2,-13 28,10-19,-188 332,102-189,-22 60,108-210,-2 2,1-1,0 0,0-1,-2 1,1-1,0 1,-1-3,0 2,0-1,0 0,0 0,-14 3,-1 0,0 0,0-1,-38 3,-21 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-83298.58">9628 2865,'30'1,"1"-3,1 0,-2-2,60-14,-75 14,63-14,-71 16,0 1,1 0,-1 1,0 0,0 0,0 0,0 1,12 2,-17-2,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,1-1,-2 1,0 0,1 0,-1 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,-1 0,0 4,2 8,-1-1,-1 1,-2 15,1-12,0 0,-1 0,-1 0,-1-1,-1 2,0-2,-1 0,0 0,-2-1,-18 28,22-35,-2-1,1 1,-1-1,-1 0,0-1,1 0,-1 0,-2-1,2 1,-1-1,-1 0,1 0,-1-2,0 0,0 1,0-1,-1 0,1-1,0 0,-13 0,19-2,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,1 0,-1-1,0 1,-1 0,2-1,-1 1,1-1,0 0,-1 0,1 0,0 1,-2-4,3 4,0 0,1 0,-2 0,2 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-2,0 2,0-1,1 1,-1-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1 0,2-1,12-4,1 1,-1 1,1 1,0 0,27 0,85 9,-100-2,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-25039.4">13865 4793,'0'13,"-6"8,-4 10,-12 12,-6 4,-3 2,-6 1,0-4,0-5,2-4,7-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-24465.39">13480 4894,'4'0,"6"0,12 0,16 0,4 9,7 7,3 9,-2 10,-1 2,-7 0,-4 2,-2-6,-8-4,-3-7,-2-3,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-23202.41">14085 4565,'0'-2,"1"0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,1 0,0-1,1 1,-2-1,1 1,0 0,0-1,0 1,0 0,5-1,1-2,30-15,2 1,0 2,1 1,58-13,-21 11,123-11,-197 27,1 1,1-1,-1 1,0 0,-1 0,1 1,1-1,-1 1,-1 0,1 0,0 1,-1-1,1 1,0 0,5 3,-7-2,0-1,0 2,0-1,-1 0,0 1,0-1,0 1,0-1,0 1,-1 0,0 0,1 0,-2 0,1-1,0 1,-1 0,0 8,1 5,0 0,-2-1,0 2,-1-2,-1 1,0 0,-2-1,-8 19,9-25,-1-1,0 0,-1 0,-1 0,1-1,-1 1,0-2,-2 1,1-1,0 0,-1-1,0 1,0-1,-15 6,5-3,-1-1,0 0,1-1,-1-2,-1 1,0-2,1 0,-1-1,0-1,-1-1,1-1,1-1,-2 0,-28-7,47 7,0 0,-2 0,2 0,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,-4-4,7 6,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,1-1,23-8,27 4,0 2,-1 2,77 8,-124-6,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,0 0,0 0,0 0,-1 1,2-1,-2 1,0-1,0 1,0-1,0 1,0 0,0 0,-1 0,1 1,1 3,6 10,3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22492.21">15432 4869,'0'17,"0"11,0 12,0 10,-5-1,-1-4,1-6,-1-4,3-5,1-2,1-2,0-1,1-1,1 1,-1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-21960.49">15048 5148,'0'-4,"4"-2,6 1,8 0,12 2,7 2,7 0,5 0,4 1,-3 0,4 1,7-1,-2 0,-2 0,-6 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-20684.5">16121 4793,'95'0,"111"1,-202-1,0 0,-1 0,2 1,-1-1,-1 1,1-1,-1 1,1 1,-1-1,2 0,-2 0,0 0,0 1,1 0,-1 0,-1 1,1-1,1 1,-1-1,-1 1,0-1,5 7,-6-5,0 0,0-1,0 1,0 0,-1 0,0 0,0 0,0 0,0-1,0 1,-1 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,-3 4,-4 2,1 2,-1-3,-20 19,19-19,2-2,0 3,-1-2,-11 19,18-23,0 0,0 0,1 0,0-1,0 1,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,1 1,-1-1,1 0,0-1,3 8,24 53,-19-49,-1 1,-2 0,0 0,6 25,-10-30,0 2,-1-1,0 1,0-1,-3 13,2-22,-1 1,0-1,1 0,-2 0,1 1,0-1,-1 0,1 0,-1 1,0-2,0 1,-1-1,0 1,1 0,0-1,-1 1,0-1,0 0,0-1,0 1,-1 0,1 0,-4 1,-22 6,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19065.5">16726 4438,'88'-1,"100"3,-183-1,-1-1,2 1,-1 0,0 0,-1 0,1 1,0 0,0 0,-1 0,0 0,0 0,0 0,1 1,-1 0,0 1,-1-1,1 1,-1-2,0 2,1 0,-2 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 0,1 5,1 14,-1-1,0 1,-2 0,-7 39,6-52,-1-2,0 0,-1 1,0-2,0 1,-1-1,-1 0,0 1,0-2,0 1,-1 0,-1-1,0 0,1 0,-1 0,-1-2,0 1,-17 9,16-8,-2-1,0 0,0-2,0 1,0-1,-1 0,1-1,-1 0,0-1,0-1,0 1,0-2,0 1,-21-3,32 2,-1 0,1 0,-2-1,2 1,-1-1,1 1,0 0,-1 0,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-3-3,5 3,-2 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0-1,3 1,7-2,1 0,0 0,0 1,1 1,-1-1,0 2,0 0,1 0,-2 1,2 0,-2 0,19 8,6 4,-1 2,51 32,-40-23,-15-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-16698.86">16313 5198,'30'-1,"-18"0,1 1,-1 0,1 0,21 5,-32-5,1 1,0 0,0 0,0 0,-1 0,0 0,1 0,-1 1,0-1,0 1,1 0,-1 0,-1-1,2 1,-1 0,0 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,0 1,-1-2,2 7,1 7,0 1,-2-1,0 0,1 1,-4-1,1 0,-1 2,0-3,-2 1,-9 29,11-38,-3 1,2 0,-1-1,0 0,0 1,0-1,-2-1,1 1,-1-1,1 1,-1-1,-1-1,1 0,0 0,-1 0,-1 0,1-1,0 0,-1-1,1 1,0-1,-1 0,0-1,-14 2,-54-1,41-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44888.1">12297 6061,'0'-1,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0 0,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1-1,0 1,-1 0,0 0,1 0,41-5,-36 4,35-3,1 1,0 2,-1 2,55 9,-84-7,1 1,-1 0,0 1,-1 0,1 2,19 11,67 54,-56-39,-10-5,-2 2,-2 1,0-1,-3 4,42 63,-50-69,-17-27,4 6,-1 0,1-1,-1 0,1 1,2-1,-2-1,1 0,0 1,9 4,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45447.13">13259 5909,'-9'0,"-9"0,-14 8,-11 4,-8 3,0 4,4 3,0 6,-5 3,2 5,-1-4,-1 5,0-2,8-5,2-2,4-1,-1-2,6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46736.73">13562 5731,'0'-1,"1"0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,2 1,-2-1,0 0,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,1 0,47 1,-49-1,19 1,0 1,0 1,-1 1,1 0,-1 2,-1 0,26 11,-36-13,1 0,-2 1,1-1,0 1,-1 1,0 0,-1-1,1 2,-1 0,0 0,-1-1,1 1,-1 1,-1-1,0 1,0 0,-1 0,3 10,-5-14,0 2,0 0,0-1,-1 0,0 1,-1 0,1-1,-1 0,0 1,0-1,-2 1,1-1,-5 10,2-6,-1 1,-1-1,0-1,0 1,0 0,-16 11,-4 0,-1 0,-1-2,-57 26,69-36,-2 0,0-2,0 0,0-1,0-1,-26 2,58-8,-2-2,1 0,-1 0,1-1,15-9,33-13,-39 21,-2 1,2 1,1 0,-1 1,30 0,107 10,-149-7,0 2,1-1,-1 1,1 0,7 3,-14-4,-1 0,2 1,-2-1,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0-1,0 1,0 1,0-1,0 0,-1 1,1-1,-1 1,2 3,0 18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47557.11">11032 6695,'4663'0,"-4655"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48285.34">12160 7024,'-2'9,"1"0,-1-1,1 0,-2 1,1-2,-1 2,0-1,-5 7,-41 63,33-56,-7 10,-1 1,-1-3,-2 0,-1-1,-35 27,43-41,-1 0,1-1,-2-1,-1-1,0-1,-1 0,0-3,0 1,-37 7,56-15,-1 0,1 0,0-1,0 0,0 1,-1-2,0 1,1-1,-7-1,-8-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48729.33">11664 7101,'9'5,"8"1,15 16,25 27,18 18,0 1,2 3,-13-3,-8-8,-8-6,-7-7,-8-9,-3-4,-7-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50048.95">12407 7024,'2'-3,"1"0,0-1,0 0,1 1,0-1,-1 1,1 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,2 0,8-1,3 0,-2 0,2 1,0 1,22 2,-36-2,0 1,1 0,-1 0,0-1,-1 1,1 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-2,-1 2,1-1,-1 1,1 0,-1-1,0 1,0 0,1 0,-1-1,-1 1,1 0,-1 5,2 11,-1 0,-1 1,-3 31,-1-17,4-28,0 0,0 1,-1-1,0 0,0 0,-1 0,0 1,0-2,-6 12,6-15,0 1,0-1,-2 1,2-1,-1 0,1 1,-1-1,0-1,0 1,0 0,0-2,-1 2,0-1,1 0,0 0,0 0,-1-1,1 1,-1-1,-6 0,-40-2,49 2,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 0,-1 1,1 0,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1-2,1 1,0 2,0-2,-1 0,1 1,1-1,-1 1,0 0,0-1,1 1,-1 0,1 0,0-1,-1 1,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 1,0-1,-1 1,6 0,51-4,-52 3,5 0,2 1,-1 0,1 0,-2 1,2 1,-1 0,0-1,0 2,0 1,-1 0,0 0,13 7,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50858.95">13342 7152,'-22'392,"20"-315,3-59,-1 1,-1-1,-1 0,-6 21,2-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51440.04">12929 7532,'4'0,"7"0,10 0,7 0,9 0,0 0,6 0,-2 0,-1 0,0 0,-1 0,2 0,-1 0,-4 0,-1 0,-4 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52530.95">13920 7329,'10'-4,"0"2,2-2,-1 2,0-1,0 2,1-1,-1 1,19 1,4-1,-33 1,266-6,-264 6,0 0,0 0,-1 0,1 0,0 1,0-1,1 1,-1 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,5 3,-6-3,0-1,-1 1,1 0,-1 0,0 0,0 0,1 0,-1 0,-1 0,1 0,0 0,0 0,-1-1,1 1,-1-1,1 1,-1 0,0 0,0 0,0-1,0 1,0 0,-1-1,0 1,-2 2,-25 28,22-24,-1-1,0 2,2 0,-11 16,16-23,0 1,-1 1,1-1,0 1,1-1,-1 1,1-2,-1 2,1-1,0 1,0-1,1 1,-1 0,1-2,0 2,0-1,0 0,3 7,0-3,5 11,0 0,-1 0,-1 1,5 26,-11-39,0-1,-1 0,1 0,-1 1,-1-1,1 1,-1-2,0 2,0-1,0 0,-1 0,0 0,0 0,0 0,-1 0,0-2,0 2,-1 0,1-1,-1 0,-6 6,-1-2,0 0,-1-2,1 1,-1-1,-1 0,1-2,-1 1,0-1,0 0,0-1,-22 1,-14 1,-89-1,132-4,2 0,0 0,-1 1,0-1,1-1,0 1,0 0,0-1,-1 0,1 0,0 0,0-1,0 1,1-1,-1 1,-1-1,2 0,0-1,-4-2,-6-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53855.95">14607 7228,'33'-36,"-30"31,0 0,1 1,1-1,-1 0,0 1,1 1,-1-1,2 0,-1 0,0 1,1 0,-1 0,1 1,0 0,9-3,24 0,0 1,0 3,0 1,51 6,-85-6,-1 0,1 1,-1 0,2 0,-1 0,-1 0,0 1,1-1,0 1,-1-1,0 2,0-1,0 1,0 0,-1 0,2 0,-2 0,6 6,-6-4,-1 0,1 0,-1-1,1 2,-1-1,-1 1,1-1,-1 0,-1 0,1 1,-1-1,0 0,-1 11,0-6,-1 1,0-1,-2 0,1 0,-1 0,0 0,-1-1,0 1,-1-1,0 0,0 0,-1-1,-1 0,1 1,-18 11,16-15,-2 1,1-1,-1 0,0-1,0-1,-1 0,-16 3,-11 4,54-12,1 1,-2 1,2 0,0 1,24 4,-8 1,1 2,-1 1,32 14,-27-9,59 14,-66-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55194.85">17138 6543,'0'9,"0"20,0 18,-5 9,-1 39,0 11,0-7,3-13,1-16,-4-15,0-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55824.85">16836 6796,'866'0,"-836"0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21494,7 +22554,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 405,'1'2,"1"0,-1 0,0 0,1-1,-1 1,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,0 3,0-1,12 121,-10-84,2-1,2 0,18 68,-8-79,-16-29,1-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,1 0,1-1,-1 0,0 0,0-1,0 1,0 0,0-1,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0-4,40-117,-24 65,33-72,-23 69,-17 35,2 0,0 1,2 0,0 1,28-34,-34 51,1-1,0 2,0-1,0 1,16-8,33-22,-46 24,-1 0,0-1,11-15,-14 15,2 1,-1 1,14-12,-18 19,0 0,0 0,0 1,1 0,-1 0,1 0,0 1,0 0,0 0,0 0,8-1,43-2,0 2,89 8,-26-1,1989-2,-1074-4,-1031 2,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,0 0,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 1,6 3,-6-2,-1 0,1 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,-1-1,1 1,-1-1,0 7,-1 49,-1-34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 385,'1'2,"1"0,-1 0,0 0,1-1,-1 0,0 1,0 1,0-1,0 0,1 0,-2 0,1 0,-1 1,1-2,-1 1,0 1,0 3,0-1,12 114,-10-79,2-1,3 0,17 65,-7-76,-17-27,1-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,1 0,-2 1,1-1,0 0,0 0,0 0,0 0,0 0,1 0,1-1,-1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,-1-1,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-4,42-111,-26 62,35-69,-23 66,-19 34,2-1,1 1,1 1,1 0,29-32,-36 48,1-1,1 3,-1-2,0 1,17-7,35-21,-49 22,0 1,-1-1,12-15,-15 15,3 0,-2 2,15-12,-19 18,0 0,0 0,1 2,0-1,-1 0,1 0,1 1,-1 0,0 0,0 0,9 0,44-3,0 2,93 8,-27-1,2067-3,-1116-2,-1071 1,-1 0,0 0,0 0,0 0,-1 1,1-1,1 0,-1 1,0 0,-1 1,1-1,0 1,-1-1,2 1,-2 1,6 3,-6-3,-1 1,1 0,0 0,-1 0,0-1,-1 2,1-1,-1 1,0-2,0 2,-1-1,1 1,-1-1,0 6,-1 47,-1-32</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21521,14 +22581,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 455,'-3'1,"1"-1,0 1,-1 0,1-1,0 1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 0,-1 0,1 5,-4 12,2-1,0 33,1-36,1 34,1 0,16 91,-17-138,0 1,1-1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,3 2,-3-3,0-1,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,-1-1,2 1,17-21,1-15,-2 0,-1-2,-2 0,10-43,-6 26,6-32,14-91,-22 90,30-87,-46 172,1 0,0 0,-1 0,1 0,0 1,0-1,1 1,-1-1,0 1,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,6-1,10 0,-1 0,38 2,-27 0,856 1,-339 2,2157-3,-2700 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,3 3,-3-2,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,0 1,0-1,0 0,0 1,-1-1,0 1,0 5,4 70,15 91,-17-165,-1-1,0 1,0 0,-1 0,0 0,0 0,0 0,-1 0,0-1,-2 8,-9 11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.33">1167 429,'-5'0,"-14"14,-5 8,-11 15,0 5,-3 4,1-1,1-3,8-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1202.33">850 455,'0'9,"9"12,7 12,1 4,7 5,4 0,-3-3,-2-3,1-4,0-6,-4-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2343.38">1220 243,'10'0,"0"-2,0 1,0-1,12-4,32-6,-28 10,75-4,-93 6,0 1,0-1,0 1,0 1,0-1,0 1,0 1,-1-1,13 7,-16-5,0-1,-1 1,1-1,-1 1,0 0,0 0,0 1,0-1,-1 0,0 1,0 0,0-1,0 1,-1 0,0 0,0 0,0 0,0 8,0 11,-1-1,-4 37,2-50,0 0,-1-1,-1 1,1-1,-1 0,-1 0,0 0,0-1,0 1,-1-1,-1-1,1 1,-1-1,-1 0,1 0,-1-1,0 0,0-1,-1 0,0 0,0-1,0 0,0 0,-1-1,1 0,-1-1,0 0,0 0,-11-1,19 0,0-1,1 0,-1 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,1 0,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,0 1,-1-1,1 0,0 1,0-1,0 1,0-3,0 1,1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,1 1,-1 0,4-1,0 0,0 0,0 0,0 1,0-1,1 1,-1 1,1 0,0-1,-1 2,1-1,0 1,-1 0,1 1,0-1,-1 1,11 3,-1 2,0 0,-1 1,1 1,-1 0,16 12,32 15,-37-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2883.9">2226 402,'0'5,"0"15,0 21,0 23,-5 13,-1-1,0-6,1-9,-2-6,-10-22,-2-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3405.36">1961 640,'13'0,"14"0,7 0,10 5,8 1,-1 0,-5-1,-5-2,-6-1,-4-1,-2 0,-3-1,5 8,0 4,0-1,-1-2,-1-2,-5-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4565.58">2966 349,'83'-1,"93"3,-174-2,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,-1 3,-1 2,0-1,0 1,-1-1,1 0,-1 0,0 0,-1-1,1 1,-1-1,0 0,-10 6,-7-1,15-7,0 1,1 0,-1 0,1 1,-8 4,13-7,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 1,1-1,0 0,0 2,8 11,0-1,1 0,0-1,21 19,-21-21,-1-1,0 1,0 0,0 1,-2 0,1 0,-1 1,9 23,-13-29,-1 0,-1 1,1-1,-1 1,0 0,0-1,-1 1,0 0,0 0,-1-1,1 1,-2 0,-1 7,1-10,0 0,0-1,0 1,0-1,0 0,-1 0,0 0,1 0,-1 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-7 1,-41 4,0-2,1-2,-59-6,23 1,74 3,9 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,-3-4,-2-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5838.58">3337 243,'7'-2,"1"0,0-1,-1 0,0-1,0 0,0 0,0 0,-1-1,1 0,-1 0,8-9,-3 4,1 1,1 0,-1 1,2 1,-1 0,1 1,-1 1,2 0,-1 0,0 2,1 0,18-2,-20 3,0 1,0 1,0 0,0 1,0 0,0 1,0 0,0 1,-1 1,1 0,-1 0,0 1,13 8,-20-9,0-1,0 1,-1 0,0 0,1 0,-2 1,1 0,0 0,-1 0,0 0,0 0,0 1,-1-1,0 1,0-1,0 1,-1 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,-2 10,-1-2,0 0,0 0,-1 0,-1 0,0-1,-1 0,-1 0,0-1,-16 20,1-7,-42 37,58-56,0 0,-1-1,1 0,-1 0,0 0,0-1,-1 0,1-1,-1 0,0-1,-11 3,21-6,1 1,-1 0,0-1,1 0,-1 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,-2 0,12-1,0 0,1 0,-1 0,0 1,0 0,0 1,0 0,0 0,0 1,0 0,0 0,15 7,-7-2,0 1,0 1,0 0,26 22,-24-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">58 445,'-3'1,"1"-1,0 1,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,1 1,-1-1,1 0,-1 0,1 4,-4 13,2-1,0 31,1-34,1 33,1 0,17 89,-18-135,0 1,1-1,-1-1,1 2,0-1,-1 0,1 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,3 2,-3-3,0-1,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,2 0,-1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,-1-1,2 1,18-21,0-14,-1 0,-2-2,-1 0,10-42,-6 25,5-31,16-89,-24 88,32-85,-48 168,1 0,0 0,-1 0,1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,0 1,-1-1,1 0,0 0,0 1,1-1,-1 1,0 0,0 0,1 0,-1 0,6-1,11 0,-1 0,39 2,-28 0,887 1,-352 2,2235-3,-2797 0,1 0,0 0,-1 0,2 0,-1 1,-1-1,1 1,0 0,-1 0,1 0,-1 1,2-1,-2 1,0 0,0 0,0 0,3 2,-3-1,-1 1,0 0,1 0,-1 0,0 0,0 0,-1 0,0 1,0-1,0-1,0 2,-1-1,0 1,0 5,4 68,16 89,-18-161,-1-1,0 1,0 0,-1-1,0 1,0 0,0 0,-1 0,0-1,-2 8,-10 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.33">1209 419,'-5'0,"-15"14,-5 7,-11 16,0 4,-4 4,2-1,1-3,8-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1202.33">880 445,'0'8,"10"13,6 11,2 4,7 5,4 0,-3-2,-3-4,2-4,0-6,-4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2343.38">1264 237,'10'0,"0"-1,1 0,-1-1,13-4,33-6,-29 10,77-4,-95 6,-1 1,0-1,1 1,-1 1,0-1,0 1,1 1,-2-1,14 7,-17-5,0-1,-1 0,1 0,-1 1,0 0,0 0,1 1,-1-1,-1 0,0 1,0 0,0-1,0 0,-1 1,0 0,0 0,0 0,0 8,0 10,-1 0,-4 35,2-48,0 0,-1-1,-1 0,1 0,-2 0,0 0,0-1,0 0,0 1,-1-1,-2-1,2 1,-1-2,-1 1,0 0,0-1,0 0,-1-1,0 0,0-1,-1 0,1 0,0 0,-2-1,2 0,-1-1,-1 0,1 0,-12-1,20 0,0-1,1 0,-1 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,-2 1,2-1,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,1 0,-1-1,0 1,0-1,1 1,-1-1,0 1,1 0,0 0,-1-1,1 0,0 1,0-1,0 1,0-3,0 1,1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 1,0 0,0-1,0 1,0-1,1 1,0 0,-1-1,1 1,-1 0,4-1,0 0,1 0,-1 0,0 1,0-1,1 1,0 1,0 0,0 0,-1 1,2-1,-1 1,-1 0,1 1,1-1,-2 1,11 2,0 3,0 0,-2 1,2 1,-2 0,17 11,34 15,-39-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2883.9">2306 393,'0'5,"0"14,0 21,0 23,-5 12,-2-1,1-5,1-10,-2-5,-11-22,-2-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3405.36">2031 625,'14'0,"14"0,7 0,10 5,9 1,-1 0,-5-1,-6-2,-6-1,-3-1,-3 0,-3-1,5 8,0 3,0 0,-1-2,-1-2,-5-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4565.58">3072 341,'86'-1,"96"3,-179-2,-2 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1 0,0-1,1 1,-1 0,0 0,1-1,0 1,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,-1 3,-1 2,0-1,-1 0,0 0,1 0,-1 0,0 0,-1-1,1 1,-2-1,1 0,-10 5,-8 0,16-7,-1 1,2 0,-1 0,1 1,-9 4,14-7,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 1,1-1,0 0,0 2,8 10,1 0,0 0,0-2,22 20,-21-21,-2-2,0 2,1 0,-1 1,-2-1,2 1,-2 1,9 22,-12-28,-2 0,-1 1,1-2,-1 2,0 0,0-1,-1 1,0 0,0 0,-1-2,1 2,-2 0,-1 7,1-10,-1 0,1-1,0 0,0 0,0 0,-1 0,0 0,1 0,-1 0,0 0,0-1,-2 1,2-1,-1 0,1 0,-1 0,1-1,-1 1,0-1,-1 0,1 0,-7 0,-43 5,0-2,1-2,-61-6,24 1,77 3,9 0,1 1,-2-1,2 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,1 0,0 0,0 0,0 0,0-1,0 0,0 0,-1 0,-2-4,-2-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5838.58">3456 237,'8'-1,"0"-1,0-1,0 0,-1-1,0 0,0 0,1 0,-2-1,1 0,-1 0,9-8,-4 3,2 1,0 0,-1 2,3 0,-2 0,2 1,-2 1,3 0,-2 0,1 2,0 0,20-1,-22 2,1 1,-1 1,1 0,-1 1,0 0,1 1,-1 0,1 0,-2 2,2 0,-2 0,1 1,13 8,-21-9,0-1,0 1,-1-1,0 1,2 0,-3 1,1 0,0 0,-1 0,0 0,0 0,0 0,-1 0,0 1,1-1,-1 1,-1 0,0 0,0 0,0-1,-1 1,0 0,0 0,0 0,-1 0,-2 9,-2-1,1 0,0-1,-1 1,-1 0,0-2,-2 1,0 0,0-1,-17 19,1-7,-43 37,59-55,1 0,-1-2,1 1,-2 0,1 0,0-1,-1 0,0-1,0 0,0-1,-12 3,22-6,1 1,-1 0,0-1,1 0,-1 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,-1 0,1-1,1 1,-1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,1-1,-2 1,1 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-2 0,-1 0,13-1,-1 0,1 0,0 0,-1 1,0 0,0 1,1 0,-1 0,0 1,1 0,-1 0,16 7,-8-2,1 0,-1 2,1 0,26 21,-24-14</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21609,7 +22669,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'6712'0,"-6681"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'6965'0,"-6933"0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21636,26 +22696,26 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">160 2940,'4'0,"11"0,16 0,8 0,5 0,5 0,3 0,-3 0,-1 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="947.69">1192 2675,'0'1,"1"-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,3 18,-2 0,0 0,0-1,-2 1,-1 0,0 0,-6 23,-41 133,47-170,-4 14,-1 0,0 0,-2 0,-1-1,0-1,-1 1,0-2,-2 1,0-2,-1 0,0 0,-1-1,-1-1,0-1,-27 16,19-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1594.73">848 2860,'9'0,"12"0,11 9,5 8,5 10,0 4,-3 2,1 0,-1 3,-4 0,-2-6,-8-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3160.35">1324 2464,'0'-2,"0"0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,4-2,5-1,0 1,0-1,19 0,-18 2,12-2,1 2,-1 1,1 0,-1 2,36 7,-57-8,0 0,0 0,0 0,-1 1,1-1,0 1,-1 0,1 0,-1 0,0 0,0 0,1 1,-1-1,-1 1,1-1,0 1,-1 0,3 4,-2 0,0-1,0 1,-1 0,1 0,-2 0,1 0,-1 0,0 9,-1-6,0 1,0-1,-1 0,-1 1,0-1,0-1,-1 1,0 0,0-1,-1 0,-9 13,3-11,-1-1,0 0,0-1,-1-1,0 0,-1 0,-26 10,38-18,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-3,1 2,-1-1,1 1,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0 0,3-2,3 0,0 0,0 1,1 0,-1 0,1 0,0 1,0 1,-1-1,1 1,0 1,0 0,-1 0,1 1,10 3,10 5,-1 1,49 27,24 10,-16-14,-57-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-40206.17">2832 690,'0'1,"0"0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,2 0,37 6,-29-5,4 2,1 1,-1 0,-1 1,1 0,0 1,-1 1,0 0,-1 1,0 1,0 0,-1 0,0 1,12 14,-10-10,-1 2,-1 0,0 0,-1 1,-1 1,-1-1,0 2,-1-1,9 35,-15-46,-1 2,1 0,1 0,-1 0,1 0,1 0,0-1,0 1,0-1,1 0,0 0,1-1,9 10,3-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-39195.99">3388 2,'184'-1,"203"3,-381-2,1 1,0-1,0 1,-1 0,1 1,-1 0,1 0,-1 0,7 4,-10-4,-1-1,0 1,-1-1,1 1,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,-2 4,-2 12,-1 0,0-1,-2 1,0-1,-1 0,-1-1,0 0,-1 0,-1-1,0-1,-25 25,-13 9,-98 72,138-113,-31 20,0-1,-1-3,-2-1,0-1,-1-3,-49 13,59-25,20-9,14 3,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0 0,1-1,4-2,0-1,0 1,1 0,-1 0,1 1,-1 0,1 0,0 0,0 0,0 1,0 0,0 1,0-1,8 1,-4 0,0 1,0 0,-1 0,1 1,0 0,-1 0,1 1,11 6,0 4,1 1,-2 1,0 0,31 33,-25-23,40 29,-39-39,-4-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-38750.99">4631 320,'0'9,"0"17,0 12,0 18,0 18,0 14,0 5,0 1,0-2,0-13,0-14,0-15,0-11,0-7,0-5,0-3,-9-5,-3-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-38274.99">4155 849,'127'-1,"-12"-1,-1 4,166 25,-5 22,-236-44</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-37336.82">5399 585,'49'2,"0"2,0 2,0 2,58 18,179 75,-259-91,54 25,-77-33,0 0,0 1,0-1,0 1,0 0,0 0,-1 1,0-1,1 1,-1 0,-1-1,1 1,0 1,2 5,-5-7,1 1,-1-1,0 0,0 1,0-1,0 1,-1-1,0 0,1 1,-1-1,0 0,0 0,-1 0,1 1,-1-1,0-1,0 1,0 0,0 0,0-1,0 1,-1-1,1 1,-5 1,-8 9,0 0,-31 16,45-28,-18 9,13-7,0 1,0-1,0 1,0 0,-9 9,14-12,0 0,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,1 1,6 12,0 0,1-1,1 0,0-1,1 0,22 20,-22-24,-1 1,-1 0,1 1,-2-1,1 2,-1-1,-1 1,0 0,-1 1,0 0,6 21,-9-18,0 0,-1 0,-1-1,0 1,-1 0,-1 0,-1 0,0 0,-8 29,6-32,-1-1,-1 0,0 0,0 0,-2-1,1 0,-1-1,-1 1,1-2,-2 1,1-1,-17 11,0-2,-2-1,0-1,-1-1,0-2,-1-1,-1-1,0-2,0-1,-40 5,9-6,1-2,-1-3,-120-12,175 9,0 0,-1 0,1 0,0-1,0 0,1 0,-1-1,0 0,1 0,-1 0,1-1,0 0,0 0,1-1,-1 0,1 0,0 0,0 0,0-1,1 0,0 0,0 0,1 0,0-1,0 1,0-1,-2-11,-2-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-36068.79">6298 293,'436'0,"-415"1,-1 1,0 1,0 1,0 0,-1 2,36 14,-21-5,-1 1,56 40,-84-53,-1 0,0 0,0 1,0-1,0 1,0 0,-1 0,0 1,0-1,0 1,0 0,-1-1,0 1,0 0,0 0,-1 1,2 6,-2-4,-1 0,0 0,0 1,-1-1,0 0,-1 0,1-1,-2 1,1 0,-6 11,-4 5,-1-1,-1-1,-1 0,-1-1,-1 0,-22 19,17-19,-1 0,-1-2,0 0,-2-2,0-1,-1-1,0-1,-1-1,-1-2,-39 11,-169 31,97-25,133-26,0-1,0 0,0-1,-1 1,-8-2,15 1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,1 0,-1 0,0 1,1-1,1-1,3-6,2 0,-1 0,1 1,0 0,0 0,1 0,0 1,0 1,1-1,16-7,13-5,49-17,-59 27,0 0,1 2,0 1,46-2,123 9,-84 0,-107-1,1-1,-1 1,1 0,-1 0,1 1,-1 0,0 0,0 1,0 0,0 0,11 8,-2 1,0 1,28 29,-36-33,13 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13316.11">2991 2940,'13'5,"14"28,7 35,6 25,1 10,-6 0,-5-8,-8-15,-2-17,-5-15,-33-34,-12-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14003.14">2726 3019,'4'0,"16"0,8 0,9 0,2 0,8 0,33 0,10 0,1 0,-4 0,-10 0,-10 0,-12 0,-7 0,-6 0,-6 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14972.1">3917 2728,'21'1,"0"1,0 1,0 1,-1 0,1 2,-1 0,0 1,-1 2,0 0,0 0,-1 2,0 0,26 23,-11-5,-1 1,-1 1,-2 2,-2 1,36 57,-54-77,0 0,21 22,-10-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15665.55">4605 2622,'-9'1,"0"0,1 0,-1 1,1 0,-1 1,1 0,0 0,0 1,0-1,-11 9,-9 7,-34 30,32-24,-130 108,-84 65,227-187</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18293.03">4579 2305,'42'-2,"0"-2,70-16,-73 11,1 2,-1 1,47 1,-82 5,-1 0,0 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0 0,0-1,0 1,0 1,0-1,0 0,-1 0,0 1,1 0,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,2 4,0 12,0 0,-1 0,-2 0,-3 34,0-9,3-21,1-10,0 0,-1 1,-1-1,-7 27,8-37,0-1,0 0,0 0,-1 0,0 0,0 0,1 0,-2-1,1 1,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1-1,-4 1,-27 2,1-2,-1-1,1-1,-35-7,67 8,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,12-14,19-9,-21 18,0 1,1 0,0 1,0 0,0 1,0 0,1 1,-1 0,1 0,-1 1,1 1,-1 0,1 1,0 0,20 5,0 2,0 1,0 2,-1 1,37 20,-28-11,-9-5,63 25,-65-33</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23968.14">5663 2808,'0'9,"0"8,0 9,0 5,0 11,4 3,2-2,0-4,-1-4,-2-3,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24507.21">5478 2966,'0'-4,"4"-2,7 1,9 0,7 2,7 1,12 1,7 0,3 1,10 0,-1 1,1-1,-5 0,-5 0,-7 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25596.58">6245 2464,'3'-2,"0"0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,5 0,6-1,124-9,202 9,-334 1,1 0,-1 1,1 0,-1 0,0 0,0 1,1 0,-1 0,-1 1,1-1,0 1,7 5,-10-5,0 1,0 0,0-1,0 1,-1 0,1 0,-1 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0 0,-1 8,2 3,-1 0,-1 0,-4 27,3-37,0 0,0 0,-1-1,0 1,0 0,0-1,-1 1,0-1,0 0,0 1,-1-2,-8 10,-10 6,15-14,0 0,1 0,0 0,0 1,-8 12,12-17,1 1,-1 1,1-1,0 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 1,0-1,0 0,1 1,-1-1,1 0,0 0,0 0,2 5,25 57,-19-49,-1 1,-1 0,-1 0,0 0,-1 1,-1 0,1 18,-5-34,0 1,0-1,0 0,0 0,-1 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0 1,0-1,0-1,-1 1,1 0,0 0,0-1,-5 1,-8 1,0 0,0-1,-30-2,23 1,-49 0,-177-6,240 5,0 0,0 0,0-1,0 0,0 0,1-1,-1 0,1 0,0 0,0-1,0-1,-9-6,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26744.85">7224 2093,'8'-7,"1"0,0 1,1 0,0 0,0 1,0 0,0 1,1 0,0 1,13-3,12-1,64-5,-94 11,15-1,-1 1,1 1,-1 0,23 5,-36-4,-1 0,0 1,0 0,0 1,0-1,-1 1,1 0,-1 0,0 1,1-1,-2 1,1 1,0-1,-1 1,0-1,0 1,5 8,-3-4,-1 0,0 0,0 1,-1 0,0 0,-1 0,0 0,-1 1,0-1,0 1,-1 15,-1-20,0 0,-1 0,0-1,0 1,-1 0,0 0,0-1,0 1,0-1,-1 0,0 1,0-1,0 0,-1-1,0 1,0-1,0 1,0-1,-1-1,0 1,-9 5,-40 21,-2-3,-66 22,44-27,159-18,-65-4,0 0,1 1,-1 1,0 1,0 0,0 1,0 0,-1 2,0 0,0 0,0 2,-1-1,15 12,2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27882.85">1 2966,'11'-7,"0"0,1 1,0 0,0 1,0 0,1 1,0 0,15-2,55-8,1 3,0 4,143 6,-118 3,588 1,689-4,-950-12,167-1,-201 1,0-1,-344 10,-37-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">167 2821,'4'0,"12"0,16 0,9 0,5 0,5 0,3 0,-3 0,-1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="947.69">1244 2567,'0'1,"1"-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,0 1,2-1,-2 1,0-1,1 1,-1-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,3 17,-2 0,0 0,0 0,-2 0,-1 0,0 0,-7 23,-42 126,49-162,-4 14,-1-1,-1 0,-1 0,-2-1,1 0,-2 0,1-2,-3 2,1-3,-2 1,1-1,-2-1,-1 0,1-2,-29 16,20-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1594.73">885 2745,'10'0,"11"0,13 8,4 9,6 9,0 3,-3 3,1 0,-2 2,-3 1,-3-6,-8-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3160.35">1382 2365,'0'-2,"0"0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 2,1-2,-1 0,1 0,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,1 1,3-2,5-1,1 2,-1-2,21 0,-20 2,13-2,1 2,-1 1,1 0,-1 2,38 7,-60-8,0-1,0 1,1 0,-2 1,1-1,0 1,-1 0,1 0,-1 0,0 0,0 0,2 1,-2-1,-1 0,1 0,0 1,-1 0,3 4,-2 0,0-2,0 2,-1 0,1-1,-2 1,1 0,-1 0,0 8,-1-5,0 0,0 0,-1-1,-1 2,0-1,0-2,-1 2,0-1,-1 0,0 0,-9 12,2-11,0 0,-1-1,0 0,0-1,-1-1,0 1,-28 9,40-17,1 1,-1-1,1 0,-1 1,1-1,-2 0,2 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,-1 1,1-1,0 0,-1 1,1 0,0-1,-1 0,0 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-2,1 1,-1-1,1 1,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,2-1,-1 2,-1-2,1 1,0 0,3-2,3 0,1 0,-1 1,2 0,-2 0,1 0,1 1,-1 1,-1-1,2 1,-1 1,1 0,-2 0,1 1,11 3,10 5,0 0,50 27,25 9,-16-14,-60-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-40206.17">2956 662,'0'1,"0"0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,1-1,-2 1,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,2 0,39 6,-31-5,5 2,1 1,-2 0,0 1,1-1,-1 2,0 1,0 0,-2 0,1 2,-1 0,0-1,-1 2,13 13,-10-10,-1 3,-2-1,1 0,-2 2,0 0,-2-1,0 2,0 0,8 33,-15-45,0 3,0 0,1-1,-1 1,1-1,1 1,0-1,1 0,-1 0,1 0,0-1,1 0,10 9,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-39195.99">3537 2,'192'-1,"212"3,-398-2,1 1,0-1,1 1,-2 0,1 1,0 0,0 0,-1-1,8 5,-11-4,-1-1,0 1,-1-1,1 1,0 0,0 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,0 1,0-1,0 0,-1 1,1-1,-1 0,1 1,-1-2,0 2,0-1,0 1,0-1,0 1,0-1,-2 4,-2 11,-2 0,1 0,-2 0,0-1,-2 0,0 0,-1-1,0 0,-1 0,-1-2,-26 25,-13 8,-102 69,143-108,-31 19,-1-1,-1-3,-2-1,0-1,-1-3,-51 13,62-24,20-9,15 3,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0 0,2-1,3-2,0 0,0 0,1 0,0 0,0 1,-1 0,1 0,1 0,-1 0,0 1,0 0,1 1,-1-1,9 1,-5 0,0 1,1 0,-2 0,2 1,-1 0,0 0,0 1,12 6,0 3,1 2,-2 0,0 0,32 32,-26-22,42 28,-41-37,-4-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-38750.99">4834 307,'0'9,"0"16,0 11,0 18,0 17,0 13,0 6,0 0,0-2,0-12,0-14,0-14,0-10,0-8,0-4,0-3,-9-4,-4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-38274.99">4337 815,'133'-1,"-13"-1,-1 4,173 24,-5 21,-246-42</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-37336.82">5636 561,'51'2,"0"2,0 2,0 2,61 17,187 72,-271-88,56 25,-80-32,1 0,-1 0,0 0,0 1,0 0,0 0,0 1,-1-1,1 1,-1-1,-1 0,1 1,0 1,3 4,-6-6,1 1,-1-1,0 0,0 1,0-1,0 1,-1-2,0 1,1 1,-1-1,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,0 0,0 0,0-1,0 1,-1-1,0 1,-4 0,-8 10,-1-1,-32 16,47-27,-19 9,14-7,-1 0,1 0,0 1,0 0,-10 8,15-11,0 0,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,0-1,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,1 0,6 13,0-1,2 0,0-1,1 0,0-1,24 20,-24-24,0 2,-2 0,1 0,-1 0,0 1,-1 0,0 0,-1 1,-1 0,1 1,5 19,-9-16,0-1,0 0,-2 0,0 0,-1 1,-1-1,-2 0,1 1,-8 27,6-31,-1 0,-2-1,1 1,0-1,-3 0,2-1,-1 0,-2 1,2-3,-2 2,0-2,-17 12,0-3,-2-1,-1 0,0-2,0-1,-1-2,-2 0,1-3,-1 0,-41 4,10-5,0-2,-1-3,-125-12,183 9,0 0,-2 0,2 0,0-1,-1 1,2-1,-1-1,0 0,0 0,0 0,1-1,-1 0,1 1,1-2,-1 0,0 0,1 0,0 1,0-2,1 0,-1 0,1 1,1-1,0-1,0 1,0 0,-2-12,-3-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-36068.79">6574 281,'455'0,"-433"1,-1 1,0 1,0 1,0 0,-2 1,39 15,-23-6,0 1,58 39,-88-51,-1 0,0 0,0 1,1-2,-1 2,0 0,-1 0,0 1,0-1,1 0,-1 1,-1-1,0 1,0 0,0-1,-1 2,2 6,-2-5,-1 1,0 0,0 0,-1 0,0 0,-1-1,1 0,-2 1,1-1,-7 12,-3 4,-2-1,0-1,-2 0,-1-1,0 0,-24 19,18-19,-1 0,-1-2,0 1,-2-3,0-1,-2 0,1-2,-1-1,-1-1,-41 10,-177 30,102-24,139-25,0-1,-1 0,1-1,-1 1,-9-2,16 1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,-1 0,1-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 1,0 0,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,1 0,-1 0,0 1,1-1,1-1,3-6,3 1,-2-1,1 1,1 1,-1-1,1 0,1 1,-1 2,1-2,17-7,14-4,51-16,-62 25,0 0,2 2,-1 2,48-3,129 9,-88 0,-112-1,2-1,-2 1,1 0,-1 0,2 1,-2-1,0 1,1 1,-1 0,0 0,12 8,-2 0,0 2,28 27,-36-31,13 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13316.11">3122 2821,'14'5,"14"27,7 33,7 24,1 10,-7 0,-4-8,-9-14,-2-16,-6-15,-34-33,-12-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14003.14">2845 2897,'5'0,"16"0,8 0,9 0,3 0,8 0,35 0,10 0,1 0,-5 0,-9 0,-11 0,-13 0,-7 0,-6 0,-6 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14972.1">4089 2618,'22'1,"0"1,-1 1,1 1,-1-1,1 3,-1 0,0 1,-1 1,0 1,-1 0,0 1,0 1,27 21,-12-4,0 1,-2 1,-2 1,-1 2,36 54,-55-73,-1-1,22 22,-10-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15665.55">4807 2516,'-10'1,"1"0,1 0,-2 1,2 0,-1 1,0 0,1 0,0 0,-1 0,-11 9,-9 6,-36 29,34-23,-136 104,-88 62,238-180</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18293.03">4780 2212,'44'-2,"-1"-2,74-15,-76 10,1 3,-1 0,48 1,-85 5,0 0,-1 0,1 1,-1-1,1 1,-1 0,2 0,-2 0,0 0,0 0,0 1,0 0,0-1,0 1,1 1,-1-2,0 1,-1 0,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 1,-1-1,0 0,-1 1,2 3,0 13,0-1,-1 0,-2 0,-3 33,0-9,3-20,1-9,0-1,-1 1,-1 0,-8 25,9-35,0-1,0 0,0 0,-1 0,0-1,0 1,1 0,-2-1,0 1,1-1,0 1,-1-1,1 0,-1 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,-1 0,0-1,-3 1,-28 2,0-2,0-1,0-1,-36-7,70 8,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,12-14,21-8,-23 17,1 2,0-1,1 1,-1 0,1 1,-1 0,2 1,-2 1,2-1,-2 1,2 1,-2 0,2 1,-1 0,22 4,-1 3,0 1,1 1,-2 2,39 18,-29-9,-10-6,66 24,-67-31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23968.14">5911 2695,'0'8,"0"9,0 8,0 4,0 12,4 2,3-2,-1-3,-1-5,-2-2,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24507.21">5718 2846,'0'-3,"4"-3,8 1,9 0,7 2,7 1,13 1,8 1,2 0,11 0,-1 0,1 0,-6 0,-4 0,-8 0,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25596.58">6519 2365,'3'-2,"0"0,0 1,0-1,0 1,1-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,2 1,-2 0,5 0,7-1,129-8,211 8,-349 1,1 0,0 1,0 0,-1 0,0 0,1 1,0-1,-1 1,-1 1,2-1,-1 1,8 5,-11-5,0 0,0 1,0-1,0 1,-1 0,1 0,0-1,-1 2,0-1,-1 1,1-1,-1 1,0-2,0 2,0 0,-1 7,2 4,-1-1,-1 1,-4 25,3-35,0-1,0 1,-1-1,0 1,0-1,-1 0,0 1,0-1,0 0,0 0,-1-1,-9 10,-10 5,16-13,0-1,0 1,1 0,0 1,-9 11,13-16,1 1,-1 0,1 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1-1,0 2,0-1,0 0,1 1,-1-1,1 0,0-1,0 1,2 5,26 54,-19-46,-2 0,-1 0,0 1,-1-1,-1 1,-1 1,2 16,-6-32,0 1,0-1,0 0,0 0,-1 1,-1-2,2 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 0,0 0,0 1,1-1,-2 0,1 0,0 1,0-1,0-1,-1 1,1 0,0 0,0-1,-6 1,-7 1,-1 0,0-1,-31-2,25 1,-53 0,-183-6,249 5,1 0,-1 0,1-1,0 0,-1 0,2-1,-1 1,0-1,1 0,0-1,0-1,-10-5,2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26744.85">7541 2009,'8'-7,"1"0,1 1,0 1,1-1,-1 1,1 0,-1 1,2 1,-1 0,14-3,13-1,66-4,-98 10,16-1,-1 1,1 1,-1 0,24 5,-38-4,-1 0,1 1,-1-1,0 2,0-1,0 1,0 0,-1 0,0 1,2-1,-3 0,1 2,0-1,-1 1,1-1,-1 1,5 7,-3-3,0-1,-1 1,0 1,-1-1,0 1,0-1,-1 1,-1 0,0 0,0 1,-1 14,-1-20,0 1,-1 0,0-1,0 0,-1 1,0 0,0-1,-1 0,1 0,-1 0,0 1,0-1,0-1,-1 0,0 1,-1-1,1 1,0-1,-1-2,0 2,-10 5,-41 20,-3-3,-68 21,45-26,167-17,-68-4,-1 0,2 1,-1 0,-1 2,1 0,0 1,0 0,-2 2,1-1,0 1,-1 2,0-1,15 11,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27882.85">1 2846,'11'-6,"1"-1,0 1,1 0,0 2,-1-1,2 1,-1 0,16-2,58-7,1 2,-1 5,150 5,-123 3,614 1,719-4,-992-12,174 0,-209 0,-1 0,-358 9,-39-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21709,30 +22769,30 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2328,'157'0,"230"-32,-229 10,212-4,1645 24,-922 5,1497-85,-1652 11,409-16,-296 83,-841 5,1965 3,-1886-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1699.93">12622 2037,'531'-2,"564"5,-766 9,138 2,1079-15,-1491 4,1 3,78 17,-89-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10872">5452 1349,'0'19,"-2"7,2 1,1-1,1 0,1-1,1 1,2 0,0-1,11 27,-6-31,1 0,2 0,0-1,32 36,-21-27,-16-15,10 11,-10-24,-2-15,-1-30,-2 0,-1 0,-5-50,1 24,-1-84,2-131,0 283,0-1,0 1,0-1,1 0,-1 1,1-1,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0 0,1 0,3-1,3 0,0 1,0 1,-1-1,1 1,0 1,0 0,14 3,188 34,-25 8,-127-29,108 18,-45-20,250 25,-159-16,131 7,1187-29,-754-5,-734 3,46 2,-1-4,0-4,110-22,-166 20,75-12,-104 20,-1-1,0 2,1-1,-1 0,1 0,-1 1,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1 2,1 11,1 0,-2 0,-1 31,0-39,0 0,0 0,0 0,-1 0,0 0,0 0,-1 0,0 0,0 0,-1-1,-4 8,-6 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12215.92">6457 1640,'0'-2,"0"0,0 0,0 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1 0,-1-1,3 0,1-1,-1 1,1 0,0 0,0 1,0-1,-1 1,1 0,10 0,-4 0,-1 1,1 0,-1 1,0 0,1 1,-1 0,0 1,16 6,-15-3,0 1,0 0,-1 1,0 0,-1 0,0 1,0 1,-1-1,12 19,4 11,26 58,0-2,-36-71</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12779.53">6907 1561,'0'-4,"-5"-2,-10 4,-7 8,-18 16,-2 9,1 3,-1 1,3 3,-2 5,-3 3,-2-1,10-9,12-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14002.18">7066 1375,'7'0,"1"-1,-1-1,0 1,15-6,28-4,-45 11,1 0,-1 0,0 1,1-1,-1 1,0 1,0-1,0 1,0 0,0 0,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,6 6,-5-4,-1 1,1-1,-1 1,0 0,-1 0,0 1,0-1,-1 1,0-1,0 1,1 14,-2-11,0 0,-1-1,-1 1,0 0,0 0,-1-1,-1 1,-5 17,5-22,1 1,-1-1,-1 0,1 0,-1-1,0 1,0-1,0 1,-1-1,0-1,0 1,0-1,-11 7,15-10,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,-4 0,5 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0-1,1 0,-1 0,0 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,1 0,2-3,-2 2,0 1,1 0,-1 0,1-1,0 2,0-1,0 0,0 1,0-1,1 1,-1 0,1 0,0 0,-1 0,1 1,0 0,0-1,0 2,0-1,0 0,0 1,0-1,7 2,-2 0,0 1,0 0,0 1,0 0,0 1,0 0,-1 0,16 11,7 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14541.31">7833 1508,'4'0,"2"5,0 10,-1 20,-2 19,-1 3,-1-2,0-7,-1-6,0-7,-1-4,1-3,0-2,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15118.71">7701 1799,'4'0,"11"0,12 0,14 0,5 0,0 0,-5 0,-4 0,-3 0,-4 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16888.02">8283 1481,'126'-1,"142"3,-261-1,0-1,-1 1,1 1,-1-1,0 1,1 0,-1 0,0 1,0 0,0 0,6 5,-10-6,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,0-1,1 1,-1-1,0 1,0-1,-2 4,-1 1,-1 0,1-1,-1 1,-1-1,1 0,-1-1,0 1,0-1,-1 0,0-1,0 1,0-1,-10 4,-36 25,52-32,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,2 3,21 46,-10-25,-11-17,1-1,-1 1,0 0,-1 0,0 0,0 0,0 0,-1 0,-1 0,1 0,-1 0,-1 0,-2 9,3-12,-1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,0-1,-1 0,1 1,0-1,-1-1,1 1,-1-1,1 1,-7 0,-28 2,1-1,0-2,-1-1,-39-7,75 7,-1 0,1 0,0 0,-1-1,1 1,0-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0 0,-2-4,-2-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18392.05">8997 1455,'83'-2,"-48"0,1 1,0 2,62 9,-95-10,-1 1,1-1,-1 1,1 0,0 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0-1,0 1,-1 0,1 0,0 0,-1 1,1-1,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,-1 1,0-1,1 1,-1 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,0-1,-1 5,-1 1,-1 0,1 1,-1-1,-1-1,0 1,0-1,0 1,-1-2,0 1,0 0,-10 6,-16 7,0-2,-2-1,0-2,-54 16,81-28,6-3,-4 2,0 0,0 0,0 0,0-1,0 1,-1-1,1-1,0 1,-1-1,1 0,0 0,-1 0,1-1,0 0,-6-1,11 1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,12-9,21-1,-4 6,0 1,1 2,0 1,-1 1,1 2,42 7,-49-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53730.97">5399 3016,'0'0,"1"0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,-1 1,0-1,1 1,0 0,22 18,-2 3,-1 1,-1 1,-1 1,-1 1,-2 0,13 29,63 177,-54-130,-24-79,-13-23,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 0,14-50,12-121,27-123,-26 221,-16 50</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54845.95">5822 2857,'-5'0,"-1"5,1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55887.96">5743 3545,'0'9,"0"12,-5 7,-10 8,-12 6,-5-3,-7 0,3-2,4-7,7-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56496.96">5769 3545,'4'5,"2"5,0 11,3 15,9 6,2 0,2 2,1 2,-3-1,0-5,1-4,-3-22,-5-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57691.98">5981 2672,'3'-2,"1"-1,-1 0,1 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0 0,9 0,60-2,-50 3,12-1,117 3,-149-2,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,-1-1,1 1,0 0,-1 0,1 3,1 11,0 1,-2 0,-2 33,0-22,2 20,0-29,0 0,0 0,-2 0,-7 30,6-43,0-1,0 1,-1-1,0 0,0 0,0-1,-1 1,0-1,0 0,-1 0,1-1,-1 1,0-1,-8 4,3-2,-1 0,0 0,0-1,0-1,-1 0,-22 5,32-9,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-3-1,6 2,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,25-6,51-1,129 6,-98 3,-82-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58099.95">7436 2831,'4'0,"2"9,0 17,3 21,0 12,8 23,1 11,1 4,-2 20,-4-5,-4-12,-4-18,-2-20,-7-15,-7-20,-1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58538.67">7251 3492,'0'-4,"9"-2,12 1,15 0,17 2,11 1,4 1,5 0,-7 1,-4 0,-10 1,-3-1,-6-4,-11-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59567.67">8230 2936,'84'0,"153"5,-204-2,-1 2,0 1,0 1,-1 2,39 17,-44-16,62 31,-81-37,1 0,-1 1,0 0,-1 0,1 1,-1 0,0 0,9 12,-14-16,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,-1 4,0-2,0 1,-1-1,1 0,-1 0,-1 0,1 0,0 0,-6 3,-5 5,0-1,-1-1,-27 13,-53 26,94-49,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,2 1,5 5,0-1,0 0,1-1,15 8,-6-4,10 7,-1 1,-1 2,-1 0,0 1,39 44,-54-53,-1 1,-1 0,0 0,-1 1,0 0,-1 0,0 1,-1-1,0 1,-2 1,1-1,-2 0,0 1,0-1,-2 18,0-26,-1-1,0 1,0 0,0-1,-1 1,1-1,-1 0,-1 1,1-1,-1 0,0 0,0-1,0 1,-1 0,0-1,0 0,0 0,0 0,0-1,-1 1,0-1,0 0,0 0,0-1,0 1,0-1,-11 2,-10 3,0-1,-1-1,0-2,-43 1,-19-2,0-4,0-3,0-5,1-3,-93-28,170 39,1-1,-1 0,0-1,1 0,0-1,0 0,0-1,1 0,0 0,0-1,0 0,1-1,0 0,-9-11,5-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60669.7">9368 2751,'8'-6,"1"0,0 1,0 0,1 0,0 1,-1 0,2 1,-1 0,0 0,11-1,-5 1,24-6,0 2,1 1,0 2,52 2,-88 3,1-1,0 1,-1 0,1 0,-1 1,1 0,-1 0,0 0,1 1,-1-1,-1 1,1 0,0 1,-1-1,1 1,4 5,-4-2,1 0,-1 0,0 1,-1 0,1 0,-1 0,-1 0,0 0,4 17,-4-13,-1 0,-1 0,1 0,-2 0,0 0,0 1,-1-1,-1 0,0 0,0 0,-1 0,-1-1,0 1,-1-1,-10 19,5-15,-1-2,-1 0,0 0,0-1,-1-1,-1 0,0 0,-1-2,0 0,-22 11,11-10,0 0,-1-1,0-2,-1-1,-47 5,38-5,30-4,0-1,1 1,-1-1,0 0,0-1,0 0,0 0,0 0,0-1,-12-3,18 4,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-2,17-9,31-2,-12 10,1 2,-1 1,1 1,-1 3,0 1,0 1,0 2,-1 2,39 15,-32-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61393.67">5028 4762,'461'0,"767"4,-2 48,1059 185,-2092-210</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62227.67">7277 5291,'0'1,"1"-1,0 0,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 1,0 0,1 1,3 29,-3-25,3 63,-3 0,-3 0,-3 0,-19 90,-22 202,44-333,1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="64266.64">11087 1481,'105'97,"-70"-68,-1 2,-1 2,49 64,-40-37,-3 2,-3 2,-3 1,-2 1,-4 2,-2 1,20 92,-33-68,-5 0,-3 0,-11 115,7-200,-3 31,-2 1,-2-1,-22 75,-57 105,65-176,-1 0,-2-2,-2-1,-1-1,-2-1,-2-2,-1-1,-2-1,-1-2,-2-1,-78 49,82-60,-20 14,-2-3,-110 45,135-66</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="66539.36">12437 0,'0'5,"13"19,14 14,20 24,16 10,10 6,-3-5,-12-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="68551.64">12596 211,'19'13,"-1"0,0 1,0 1,-1 0,28 35,-14-16,35 39,-3 3,-3 2,-4 3,-3 2,-4 2,-4 2,57 157,43 222,-50-152,-42-157,-16-51,45 216,-60-124,-4 293,-17-379,-26 622,12-617,-6 0,-5-1,-4-1,-52 131,45-159,-4-2,-4-2,-3-1,-79 105,91-143,-2-2,-1-2,-2-1,-2-2,-2-1,-1-3,-1-2,-92 48,21-28,-3-5,-1-5,-222 44,263-74,0-4,-157-7,115-3,96 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2240,'163'0,"240"-30,-239 8,221-3,1711 24,-959 3,1557-81,-1718 11,425-16,-308 81,-875 4,2045 2,-1963-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1699.93">13129 1960,'552'-2,"587"5,-797 9,144 1,1122-14,-1550 4,0 3,81 16,-92-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10872">5671 1298,'0'19,"-2"6,2 1,1-1,1 0,1-1,1 1,3 0,-1-1,11 26,-5-30,0 0,3 0,-1 0,34 34,-22-27,-16-13,9 10,-9-23,-3-15,-1-28,-1 0,-2-1,-5-47,1 23,-2-82,3-125,0 272,0-1,0 1,0 0,1-1,-1 1,2-1,-2 0,1 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,1 1,0-1,-1 1,0 0,1 0,3 0,4-1,-1 1,0 1,0-1,0 1,0 1,1 0,14 2,195 34,-25 7,-133-27,113 16,-47-18,259 23,-164-15,136 7,1234-28,-783-5,-765 3,49 2,-2-4,1-4,114-20,-173 18,78-11,-107 19,-2-1,0 2,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 1,0 0,1 0,0 0,-1 0,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,-1 0,1 0,-1 0,0 0,2 0,-2-1,0 1,0 0,0 0,-1 1,1-1,0 0,-1 1,1 2,1 10,1 0,-2 1,-1 29,0-37,0-1,0 1,0 0,-1 0,0-1,0 1,-1 0,0-1,0 1,-1-1,-5 7,-5 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12215.92">6716 1578,'0'-2,"0"0,0 1,0-1,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 2,1-2,-1 1,1 0,-1-1,3 0,1-1,0 1,0 0,0 0,0 1,0-1,0 1,0 0,10 0,-3 0,-2 1,2 0,-2 1,0 0,2 1,-2 0,1 1,16 6,-16-3,1 0,-1 1,-1 1,1-1,-2 1,1 1,-1 0,-1 0,13 18,4 11,27 55,0-2,-37-68</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12779.53">7184 1502,'0'-4,"-5"-1,-10 3,-8 8,-19 15,-2 9,2 2,-2 2,4 2,-3 6,-3 2,-2-1,11-8,12-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14002.18">7350 1323,'7'0,"1"-1,0-1,-1 1,16-5,29-5,-47 11,1 0,-1 0,1 1,0-1,-1 1,0 1,1-1,-1 1,0 0,0 0,0 0,-1 1,2-1,-2 1,1 0,-1 0,0 1,7 6,-6-5,-1 2,1-1,-1 1,1-1,-2 1,0 1,0-2,-1 2,0-1,0 1,1 13,-2-11,0 1,-1-1,-1 0,0 1,0-1,-1 0,-1 1,-5 15,5-20,1 1,-2-1,0 0,1-1,-1 0,0 1,0-1,0 0,-2 0,1-1,0 1,0-1,-12 6,16-9,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,-2-1,2 1,0-1,0 0,0 0,0 0,-4 0,5 0,0-1,-1 1,1 0,0-1,-1 1,1-1,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0-1,0-1,1 0,-1 0,0 0,1 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 2,0-2,1 0,2-3,-2 2,1 1,0 0,-1 1,1-2,0 2,0-1,0 0,0 1,0-1,2 1,-2 0,1 0,0 0,-1 1,1 0,1 0,-1-1,0 2,0-1,0 0,0 1,0-1,8 2,-3 0,1 1,-1 0,0 0,1 1,-1 1,0 0,0 0,16 10,7 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14541.31">8148 1451,'4'0,"2"5,0 10,-1 18,-1 19,-2 3,-1-2,0-7,-1-5,0-8,-1-3,1-3,0-2,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15118.71">8010 1731,'4'0,"12"0,12 0,15 0,5 0,-1 0,-4 0,-4 0,-4 0,-4 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16888.02">8616 1425,'131'-1,"147"3,-270-1,-1-1,-1 1,2 1,-2-1,0 1,1 0,0 0,-1 1,0 0,0-1,7 6,-11-6,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,0-1,1 1,-1-1,0 1,0-2,-3 5,0 1,-1 0,1-1,-1 0,-2 0,2 0,-1-1,0 0,0 0,-2 0,1-1,0 1,-1-1,-9 3,-38 25,54-31,0 0,-1 0,1 1,0-1,0 0,1 1,-1-1,1 1,-1-2,1 1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,2 3,22 44,-10-24,-12-17,1 0,-1 1,0 0,-1-1,0 1,0 0,0-1,-1 1,-1 0,1-1,-1 1,-1 0,-2 8,3-11,-1-1,0 1,-1-2,1 1,-1 0,0 0,0 0,0 0,-1-1,1 0,-1 0,1 0,-2 0,1 0,0-1,-1 0,1 1,0-1,-2-1,2 1,-1-1,1 0,-8 1,-28 2,0-1,1-2,-2-1,-40-7,78 7,-1 0,1 0,0 0,-2-1,2 1,0-1,-1 0,1 1,0-1,0-1,0 1,-1-1,1 1,0-1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,-2-4,-2-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18392.05">9358 1400,'87'-2,"-51"0,2 1,-1 2,65 9,-99-10,-1 1,1-1,-1 1,1 0,1 0,-2 0,0 0,1 0,-1 0,0 1,1-1,-1 1,0-1,0 0,0 1,-1 0,2 0,-1 0,-1 1,1-1,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,-1 0,1-1,-1 1,0-1,1 1,-1 0,-1-1,1 1,0-1,-1 0,1 1,-1 0,0-1,-1 5,-1 0,-1 1,0 1,0-1,-1-2,0 2,0-1,0 0,-2-1,1 1,0 0,-11 5,-16 7,0-1,-3-2,1-1,-57 14,85-26,6-3,-4 2,0 0,-1 0,1 0,0-1,0 1,-1-1,0-1,1 1,-1-1,1 0,-1 0,0 0,1-1,0 0,-7-1,12 1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,13-8,21-2,-4 6,0 1,1 3,1 0,-2 1,1 1,44 8,-51-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53730.97">5616 2903,'0'0,"1"0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,0-1,2 1,-1 0,23 18,-3 2,0 1,-1 1,-1 1,-2 1,-1 0,13 28,66 170,-57-125,-24-75,-14-23,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 0,15-48,12-117,28-118,-27 213,-17 48</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54845.95">6056 2750,'-5'0,"-2"4,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55887.96">5974 3412,'0'8,"0"13,-6 5,-9 9,-13 6,-6-4,-6 1,2-3,5-6,7-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56496.96">6001 3412,'4'4,"2"6,0 10,4 15,8 5,3 1,2 1,1 2,-3 0,0-6,0-3,-2-22,-5-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57691.98">6221 2571,'3'-1,"1"-2,0 0,0 1,0 0,0 0,0 0,0 0,1 1,0-1,-1 1,0 0,10 0,62-1,-53 2,14-1,121 2,-155-1,0 1,0-1,-1 1,2 0,-1 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,0-1,2 1,-2 0,0 0,-1 1,1-2,0 1,-1 1,1-1,-1 1,0-1,1 1,-1 0,-1-1,1 1,0 0,-1-1,1 4,1 11,0 0,-2 0,-2 32,0-21,2 19,0-27,0-1,0 0,-2 0,-7 29,6-41,0-1,0 1,-2-2,1 1,0 0,0-1,-1 1,-1-2,1 1,-1 0,1-1,-1 1,-1-1,-7 3,2-1,0 0,-1 0,1-2,-1 0,0 0,-23 5,32-9,1 1,1-1,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,0 0,-3-1,6 2,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,26-6,53 0,134 5,-101 3,-86-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58099.95">7735 2725,'4'0,"2"8,0 17,4 20,-1 12,9 22,0 11,2 3,-2 20,-5-6,-3-10,-5-18,-2-20,-7-14,-8-19,0-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58538.67">7542 3361,'0'-4,"10"-2,11 1,17 0,17 3,12 0,3 1,6 0,-7 1,-5 0,-10 1,-3-1,-6-4,-12-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59567.67">8561 2826,'87'0,"159"4,-211-1,-2 2,0 1,1 1,-2 1,41 17,-46-15,64 29,-83-35,0 0,-1 1,0 0,0-1,0 2,-1 0,0 0,10 11,-15-15,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,-1 3,0-1,0 1,-1-1,1 0,-1 0,-1-1,0 1,1 0,-6 3,-6 4,1 0,-2-1,-27 12,-56 25,98-47,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,2 1,6 5,-1-1,0-1,2 0,15 8,-7-5,12 8,-2 0,-1 3,-1-1,0 1,40 43,-55-52,-2 2,-1-1,1 1,-2 0,0 1,0-1,-1 2,-1-2,0 2,-2 0,1 0,-1-1,-1 2,0-2,-2 18,0-25,-1-1,0 0,0 1,0-1,-2 1,2-2,-1 1,-1 1,1-1,-1 0,0 0,0-2,0 2,-2 0,1-1,0 0,0 0,0-1,0 0,-2 1,1-1,0 0,0 0,0-1,-1 1,1-1,-11 1,-11 4,0-1,-2-1,1-2,-44 0,-21-1,0-4,1-2,-1-6,2-3,-98-26,178 37,1-1,-2 0,1-1,0 1,1-2,0 0,-1-1,2 0,-1 1,1-2,0 0,0 0,1-1,-10-10,6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60669.7">9744 2648,'9'-6,"0"0,0 1,1 0,0 1,0 0,0 0,1 1,0 0,-1 0,12-1,-5 1,24-5,1 1,0 1,1 2,54 2,-92 3,1-1,0 1,0 0,0 0,-1 1,1 0,0 0,-1 0,1 1,-1-1,-1 1,2 0,-1 0,-1 0,1 1,4 5,-3-2,0-1,-1 1,0 1,-1-1,2 1,-2 0,-1 0,0-1,4 17,-4-12,0-1,-2 1,1 0,-2-1,0 1,0 0,-1 0,-1-1,-1 1,1-1,-1 1,-1-2,0 2,-1-1,-11 17,6-13,-2-3,0 1,-1-1,1 0,-2-1,0-1,-1 1,0-3,-1 1,-22 10,10-9,1 0,-1-2,0-1,-1-1,-49 4,40-4,30-4,1-1,1 1,-1-1,-1 0,1-1,0 0,-1 0,1 0,0-1,-13-3,19 4,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0 0,0 0,0-2,17-9,33-2,-12 11,0 1,0 1,0 1,0 2,-1 2,0 1,1 2,-2 1,41 15,-33-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61393.67">5230 4583,'479'0,"799"4,-3 46,1102 178,-2176-202</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62227.67">7569 5092,'0'1,"1"-1,0 0,0 0,0 1,-1-1,1 0,0 1,1-1,-2 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,0 0,1 1,3 28,-3-24,3 60,-3 1,-3-1,-3 1,-20 86,-23 194,46-320,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="64266.64">11532 1425,'109'94,"-72"-66,-2 1,0 3,50 61,-41-35,-4 2,-2 1,-4 2,-2 1,-4 1,-2 1,21 89,-34-65,-6-1,-3 1,-11 110,7-192,-3 29,-3 2,-1-2,-23 73,-60 101,69-170,-2 1,-2-3,-2-1,-1 0,-3-1,-1-3,-1 0,-2-1,-2-3,-1 0,-82 47,86-57,-21 12,-3-2,-113 43,140-63</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="66539.36">12937 0,'0'5,"13"18,15 13,21 24,17 9,9 7,-2-6,-12-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="68551.64">13102 203,'20'13,"-2"-1,1 2,0 0,-1 0,28 35,-13-17,35 39,-2 2,-4 2,-4 3,-2 2,-6 1,-3 3,59 151,45 213,-52-145,-44-152,-16-49,46 208,-62-120,-4 283,-18-366,-27 600,12-595,-6 1,-5-1,-4-2,-54 127,47-153,-5-2,-4-3,-3 0,-82 101,95-137,-2-3,-2-1,-1-2,-3-1,-2-2,-1-2,0-2,-97 46,22-27,-2-5,-2-4,-231 42,274-72,0-3,-164-7,120-3,100 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21759,9 +22819,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2227,'195'0,"861"32,-303 49,395 33,516-45,21-69,-1259-2,2787-24,-2882 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1996.03">4816 693,'138'0,"58"-2,197 25,-382-22,-1 1,0 0,-1 0,1 1,0 0,-1 0,1 1,16 10,-22-11,0 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,-1 0,0 1,0-1,0 0,0 1,-1-1,1 1,-1-1,-1 7,0-4,1 0,-1 0,-1 0,0 0,0 0,0-1,0 1,-1-1,0 0,-1 0,1 0,-1 0,-1 0,1-1,-10 10,0-3,0-1,-1 0,-1-1,-29 15,43-25,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,0 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,1 0,-1 2,2-2,0-1,0 1,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0-1,3 1,9 3,-1 0,1 1,-1 0,0 1,0 0,0 1,-1 1,0 0,-1 0,0 1,0 1,0 0,16 21,-16-14,-1 1,-1 0,0 0,-2 1,0 0,-1 0,-1 0,-1 1,0 0,0 21,-2-16,-1 0,-2 0,0 1,-2-1,0 0,-2 0,-12 37,15-54,-1-1,1 0,-1 0,0 0,-1 0,1 0,-2-1,1 1,-1-1,1 0,-2-1,1 1,-1-1,1 0,-1 0,-1-1,1 1,-1-2,0 1,1-1,-15 5,-97 18,-217 18,312-42,-380 11,400-13,1 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-5,-8-33</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3384.67">5742 163,'6'-5,"1"1,0-1,0 1,0 0,0 0,1 1,0 0,13-3,9-4,212-72,-203 73,0 0,1 3,0 2,61 0,-52 4,-19 0,0 1,0 1,53 11,-75-11,0 0,0 1,0 0,0 1,0-1,-1 2,0-1,0 1,0 0,0 0,-1 1,0 0,0 0,0 1,-1-1,0 1,0 0,3 9,2 3,-2 0,-1 1,-1 0,0 1,-1-1,-2 1,0 0,-1 0,-1 0,-1 0,-4 38,1-40,0-1,-1 0,-1 0,-1-1,-1 1,0-1,-1 0,-1-1,0 0,-1-1,-1 0,-1 0,-21 22,-1-11,0-1,-1-1,-1-2,-2-2,-72 30,88-42,1-1,-38 8,51-14,-1 1,0-1,0-1,0 1,0-2,0 1,1-1,-1 0,-14-5,22 6,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,0-2,1 1,0 1,0-1,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,1-1,2-3,5-5,0 0,0 1,1 0,22-16,-17 15,2 1,-1 1,1 1,1 0,-1 1,2 1,-1 1,0 0,1 1,0 1,0 1,0 1,0 1,0 0,0 1,19 4,-28-3,1 0,-1 1,0 1,1-1,-1 2,-1-1,1 1,9 7,73 56,-62-44,149 126,-129-105,-28-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2154,'203'0,"896"31,-316 47,412 32,536-43,22-67,-1310-2,2901-23,-3000 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1996.03">5011 670,'144'0,"59"-2,206 25,-397-22,-2 0,1 1,-2 0,1 1,1 0,-2 0,2 1,16 9,-23-10,0 0,-1 0,0 0,0 0,0 1,1-1,-2 1,1-2,-1 2,0 0,0 0,0 0,0 0,-1 0,0 1,0-2,0 1,0 1,-1-1,1 1,-1-1,-1 6,0-3,1 0,-1 0,-1-1,0 1,0 0,0-1,0 0,-1 0,0 0,-2 0,2 0,-1 0,-1-1,1 0,-11 10,1-4,-1 0,0 0,-2-2,-30 15,45-24,0 1,0-1,1 1,-1 0,0 0,1 0,-2 0,1 0,1 0,0 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 0,1 1,-1 2,2-2,0-1,0 1,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,3 1,10 3,-2 0,2 1,-2 0,1 1,0-1,-1 2,0 1,-1 0,-1-1,1 2,-1 1,1-1,16 21,-17-13,0 0,-2 1,1-1,-3 1,0 1,-1-1,0 1,-2 0,0 0,0 21,-2-16,-1 0,-2 0,0 2,-2-2,0 0,-2 0,-13 36,16-52,-1-1,1-1,-1 1,-1 0,0 0,1-1,-2 0,1 1,-1-1,0 0,-1-2,1 2,-1-1,0 0,0 0,-1-1,1 0,-2-1,1 1,1-1,-16 5,-101 17,-225 18,324-42,-396 12,417-13,1 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-2 0,2 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 1,-1 0,0-1,1 0,-2 0,2 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1 1,0-6,-8-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3384.67">5974 158,'7'-5,"0"1,0-1,1 1,-1 0,0 1,1 0,1 0,13-3,9-4,221-69,-212 70,1 1,0 2,1 2,63 0,-54 4,-20 0,1 1,-1 1,55 10,-78-10,1 0,-1 1,0 0,1 1,-1-1,-1 2,1-1,-1 0,0 1,0 0,0 1,-1 0,0 0,0 0,0 0,-1 1,0 0,3 8,3 3,-3 1,-1 0,0 1,-1 0,-1-1,-2 2,0-1,-1 0,-1 0,-1 1,-4 36,1-39,0 0,-1-1,-1 0,-2 0,0 0,0 0,-1-1,-2 0,1-1,-2 0,0-1,-2 1,-21 20,-1-9,-1-2,0-1,-2-2,-1-1,-76 28,93-40,0-2,-40 9,54-14,-1 1,-1-1,1-1,0 1,-1-2,1 1,1-1,-2 0,-14-5,23 6,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-2 0,2-1,0 1,0 0,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0-2,1 1,0 1,0-1,0 0,1 1,-1 0,1-1,0 0,0 1,0-1,0 0,0 1,1-1,3-3,4-4,0-1,1 1,0 1,23-16,-17 14,2 1,-2 2,2 0,1 0,-2 1,3 2,-1 0,0 0,0 1,1 1,0 1,0 1,-1 1,1 0,0 1,20 4,-30-3,1 0,0 1,-1 1,2-1,-2 1,-1 0,2 1,9 7,75 53,-64-41,156 121,-135-102,-29-18</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21788,21 +22848,21 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">691 322,'-12'0,"1"1,-1 0,1 0,-1 1,1 1,0 0,0 0,0 1,0 0,1 1,-1 1,1-1,-10 9,-256 184,137-95,50-43,67-44</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="834">82 348,'11'1,"1"0,-1 0,1 1,-1 0,0 1,0 0,0 1,0 0,-1 1,1 0,-1 1,0 0,-1 0,1 1,13 13,5 10,-1 0,-2 2,27 42,-33-45,1 0,1-2,1 0,36 32,54 26,-95-71</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2219.73">743 269,'0'-3,"1"-1,0 1,0 0,0-1,0 1,1 0,-1-1,1 1,0 0,0 0,0 0,0 1,1-1,-1 0,4-2,47-38,-39 33,9-8,1 0,1 2,1 1,0 1,1 1,37-13,-62 26,0-1,0 0,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,-1 1,4 1,-3 0,0 0,0 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,-1-1,1 1,-1-1,1 8,-1 9,-1 1,-1 0,-9 34,11-52,-3 11,1 0,-1 0,-1-1,0 1,0-1,-10 19,12-29,0 0,-1 0,1 0,0 0,-1 0,0 0,0-1,1 0,-1 1,-1-1,1 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 0,0 0,1 0,-6 0,9-1,1 1,-1 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,32-22,-22 18,1 1,1 1,-1 0,0 0,0 1,1 1,-1-1,0 2,1-1,-1 2,20 4,-18-4,0 2,0 0,0 0,-1 1,1 1,-1 0,-1 0,1 1,15 14,-14-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2899.74">1537 375,'4'5,"2"10,0 16,-1 7,-2 12,-1 9,-1 9,0-2,-1 0,0-6,-1-4,1-3,0-6,0-7,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3650.01">1299 772,'4'0,"11"0,7 0,5 0,6 0,2 0,5 0,-1 0,-2 0,2 0,-2 0,-2 0,-3 0,-2 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4762.03">1855 507,'4'-1,"0"0,0-1,1 0,-1 0,0 0,-1-1,1 1,0-1,5-6,5-1,3-1,1 1,0 1,1 1,0 0,0 2,1 0,0 1,20-2,167-12,-166 17,-41 2,265-6,-260 5,-1 2,1-1,-1 0,1 1,-1 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0 0,0 1,-1-1,1 1,-1 0,1 0,5 6,-7-6,0 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0-1,-1 1,1 0,-1 0,0 0,0-1,0 1,-1 0,0 0,1 0,-1-1,0 1,-1 0,1-1,-3 6,-4 4,1 1,-2-1,0-1,0 0,-13 13,-27 37,48-61,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1-1,3 2,5 3,-1-1,1 0,0 0,13 4,13 6,-25-7,0 0,0 1,0 0,-1 0,0 0,-1 1,0 1,0-1,-1 1,0 0,-1 1,0-1,-1 1,0 0,3 12,-1 3,-1 0,-1 0,-2 0,0 0,-3 43,0-60,0 0,0 0,-1 0,0 0,0 0,-1-1,0 1,-1-1,0 0,0 0,-1 0,0-1,0 0,-1 1,1-2,-2 1,1-1,-1 0,0 0,0-1,-12 7,4-4,-1-1,0 0,0-2,-1 0,1-1,-1 0,0-1,0-1,-1-1,-21-1,27 0,-28 0,-62-10,70 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5970.96">2966 348,'3'0,"1"-1,-1-1,0 1,1 0,-1-1,0 0,0 0,0 0,0 0,0 0,3-3,5-4,30-21,5-4,68-38,-100 65,0 0,0 0,1 2,0-1,0 2,1 0,-1 1,1 1,29-1,-41 3,-1 0,1 1,-1 0,0-1,1 1,-1 1,0-1,1 0,-1 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,-1-1,1 1,-1 5,2 12,0 1,-2 0,-5 43,4-59,-1 11,-1 1,-1-1,-1 0,0 0,-1-1,-11 22,12-28,-1 1,0-1,-1-1,0 1,0-1,-1 0,0-1,-1 0,0 0,-14 9,18-15,0 1,0-2,-1 1,1-1,0 1,-1-1,1-1,0 1,-1-1,1 0,-1 0,1-1,-1 0,-6-1,9 1,1 1,-1-1,0 1,1-1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,1-1,-1-5,1 5,1 0,-1 0,1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 1,3-3,3-1,-1 0,2 1,-1 0,17-5,-16 8,0-1,0 2,1 0,-1 0,0 1,0 0,0 0,0 1,0 1,-1 0,16 6,-10-4,8 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7753.9">3522 931,'4'1,"1"-1,-1 1,1 0,-1 0,1 0,-1 1,0 0,0 0,1 0,-1 0,-1 0,1 1,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,-1 0,4 6,4 9,-1 1,0 0,7 31,-9-32,6 26,-8-26,0-1,1-1,0 1,2-1,0 0,14 20,-22-36,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,9-39,-7 33,17-95,5 0,4 1,4 1,5 2,4 2,4 1,4 3,4 1,103-134,-127 187,-15 19,-1 2,2-1,0 2,30-26,-39 38,0 1,0-1,0 1,0 0,0 0,1 1,-1-1,1 1,-1 0,1 1,-1-1,1 1,7 1,6-1,66 1,131 17,91 33,-175-28,249 46,613 87,-818-145,201-13,-160-3,9 5,821-32,-909 20,-2-7,138-36,-258 50,-12 4,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 1,0 0,-1 0,1 0,5 1,-3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8666.63">5374 931,'4'0,"-3"5,-5 5,-17 11,-9 10,-3 4,-6 6,0 5,-3-1,6-4,0-4,7-5,2-6,3-9,4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9218.26">4924 931,'4'0,"6"5,11 5,11 6,12 9,5 5,1 7,-2 0,0 5,0 7,-3-4,-10-6,-5-8,-9-7,-7-1,-7-10,-4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10311.83">5559 666,'464'0,"-459"0,0 0,1 0,-1 1,1-1,-1 1,0 0,1 1,-1-1,0 1,0 0,0 1,0-1,0 1,6 5,-8-6,-1 1,0 0,1 0,-1 0,-1 0,1 0,0 1,-1-1,0 0,0 1,0-1,0 1,0-1,-1 1,0-1,1 1,-1 0,0-1,-1 1,1-1,-1 1,0 0,-1 3,0 3,-1 1,-1-1,0-1,0 1,-1 0,0-1,-1 0,0 0,0-1,-1 0,0 0,0 0,-1-1,0 0,0 0,-1-1,0 0,0-1,0 0,-1 0,0-1,0 0,-16 3,-37 11,49-13,0-1,-1 0,0-1,0 0,0-1,-18 0,32-2,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,0-3,1 3,0-1,0 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,3-1,11-3,1 1,-1 0,1 1,0 1,0 0,0 1,0 1,-1 0,1 1,0 1,-1 0,1 1,-1 1,0 1,-1 0,1 0,-1 2,0 0,13 10,-8-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11666.87">6644 904,'0'1,"1"-1,0 0,0 1,0-1,0 1,-1-1,1 0,0 1,0 0,-1-1,1 1,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 1,4 31,-3-27,7 436,-10-259,2-155</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12268.73">6326 1380,'4'0,"7"0,5 0,9 0,10 0,2 0,1 0,-3 0,-2 0,-2 0,-2 0,-2 0,0 0,-1 0,0 0,0 0,0 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13498.08">6961 957,'167'-13,"-25"1,-111 11,106 1,-135 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1-1,1 1,1 2,-2-2,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,-1 0,0 0,1 0,-3 3,-3 6,-1 0,0 0,-1-1,0 0,-14 15,20-24,0 0,0 1,1-1,-1 1,1-1,-1 1,1 0,0 0,0 0,0-1,0 1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 3,1-3,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 0,4 2,17 9,-2 1,0 1,36 32,-50-39,0-1,-1 2,0-1,0 1,-1 0,0 0,0 1,-1-1,0 1,-1 0,0 0,0 0,2 14,-4-14,0-1,0 1,-1-1,0 1,0 0,-1-1,0 1,-1-1,0 0,0 1,-1-1,-3 9,2-11,1-1,-1 1,0-1,-1 0,1 0,-1 0,0 0,0-1,0 0,-1 0,0 0,1-1,-1 0,-1 0,1 0,-7 1,-13 3,0-2,0 0,0-2,0-1,-41-2,36-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16887.71">7808 745,'0'-1,"0"0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,2 0,35-6,-32 6,-2-1,0 1,0 0,0-1,0 2,0-1,0 0,0 1,0 0,0-1,0 2,0-1,0 0,0 1,-1 0,6 3,-7-3,1 1,-1 0,1-1,-1 1,0 1,0-1,0 0,-1 0,1 1,-1-1,0 0,0 1,0 0,0-1,-1 1,1-1,-1 7,3 33,-2 0,-1 0,-13 82,12-120,-1 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 0,0 0,0 0,0 0,-1-1,1 1,-1-1,1 0,-1 0,0-1,0 0,0 0,0 0,-6 0,4 1,0-2,0 1,0-1,0 0,0 0,0-1,0 0,0 0,0-1,0 0,1 0,-1-1,1 1,-1-1,1-1,0 1,0-1,-9-8,12 9,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,0 1,1-1,0 1,-1-1,2 1,-1 0,0-1,1 1,0-1,0 1,0 0,1-1,-1 1,1 0,0 0,0 0,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 1,0 0,0 0,0 0,0 0,0 0,1 1,5-2,-1 2,0-1,0 2,1-1,-1 1,0 1,0 0,1 0,-1 1,0 0,0 0,-1 1,1 0,14 8,-1 3,0 1,-2 0,30 29,-23-20,35 23,-47-37,1 2,-1 0,-1 0,20 23,-17-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">723 309,'-13'0,"2"1,-2 0,2 0,-2 1,1 1,1 0,-1 0,1 1,-1-1,2 2,-2 1,2-1,-11 8,-268 177,144-91,52-41,70-43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="834">86 334,'11'1,"2"0,-2 0,2 1,-2 0,1 1,-1 0,1 1,-1-1,0 2,0 0,0 1,-1 0,0-1,0 2,14 12,5 10,0 0,-3 2,28 40,-34-43,1-1,1-1,1 0,38 31,56 25,-99-69</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2219.73">777 258,'0'-3,"1"0,0 0,0 0,0-1,0 1,1 0,-1-1,1 2,1-1,-1 0,0 0,0 1,1-1,-1 0,4-2,50-36,-42 32,10-9,2 1,0 2,1 0,0 2,1 0,39-12,-65 25,0-1,1 0,-1 1,0-1,0 1,0 0,0 0,0-1,0 1,0 1,0-1,0 0,1 0,-1 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,-1 1,5 1,-4 0,0 0,0 0,-1 0,1 0,-1 0,0 1,1-1,-1 1,-1-1,1 0,-1 0,1 8,-1 8,-1 1,-1 0,-9 33,11-50,-3 11,0-1,0 0,-1 0,0 0,0 0,-11 18,13-28,0-1,-1 1,1 0,0 0,-2 0,1 0,0-1,1 0,-1 1,-1-2,1 1,0 0,-1-1,0 1,1-1,-1 0,1 0,-1 0,-1 0,2 0,-1-1,0 0,0 0,1 0,-7 0,10-1,1 1,-1 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,33-21,-22 17,0 1,2 1,-2 0,0 0,1 1,0 1,0-1,-1 2,2-1,-2 2,22 4,-20-4,1 2,-1 0,1-1,-2 2,2 1,-2 0,0-1,0 2,17 13,-16-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2899.74">1607 360,'5'5,"1"9,0 16,-1 7,-2 11,0 8,-2 10,0-3,-1 0,0-5,-1-4,1-3,0-6,0-7,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3650.01">1358 741,'5'0,"10"0,8 0,6 0,5 0,3 0,5 0,-2 0,-1 0,2 0,-2 0,-3 0,-2 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4762.03">1940 487,'4'-1,"0"0,1-1,0 0,-1 0,0 0,-1-1,1 2,1-2,4-6,6-1,2 0,2 0,0 2,1 0,0 0,0 2,1 1,0 0,20-2,176-11,-174 16,-43 2,277-6,-272 5,-1 2,2-1,-2 0,1 1,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-1 1,-1-1,1 0,-1 1,1 0,6 6,-8-6,0 1,-1-2,1 2,-1-1,0 1,0 0,0 0,0-1,-1 0,1 1,-1 0,0 0,0-1,0 1,-1-1,0 1,1 0,-1-1,0 1,-1 0,1-1,-3 5,-5 5,2 0,-2 0,-1-2,1 1,-14 12,-28 35,50-58,0 0,1 0,-1 0,1 0,-2 0,2 1,-1-1,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,2 0,-2 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1-1,3 2,5 2,0 0,0 0,0 0,14 4,14 5,-27-6,1 0,-1 0,1 1,-2 0,0-1,0 2,-1 1,0-2,0 2,-1-1,-1 2,0-1,-1 0,1 1,2 11,-1 3,-1 0,0 0,-3 0,0 0,-3 41,0-57,0-1,0 1,-1-1,-1 1,1 0,-1-2,0 2,-1-1,0-1,0 1,-2 0,1-1,0-1,-1 2,0-2,-1 0,1 0,-2 0,1 0,0-1,-13 6,4-3,0-2,-1 1,0-2,-1 0,2-1,-2-1,0 0,0-1,-1-1,-21-1,27 0,-29 0,-64-9,72 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5970.96">3102 334,'3'0,"1"-1,-1-1,0 1,2 0,-2 0,0-1,0 0,0 0,0 0,0 0,4-3,4-4,32-19,5-5,71-36,-104 62,0 0,-1 1,2 1,0-1,-1 2,2 0,-1 2,1 0,30-1,-43 3,-1 0,1 1,-1 0,0-1,2 1,-2 1,0-2,1 1,-1 1,0 0,1 0,-1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 1,0-2,0 1,0 1,-1-1,1 1,-1 5,2 11,0 1,-2 0,-5 41,4-56,-1 11,-1 0,-1-1,-2 0,1 1,-1-2,-12 22,13-28,-1 2,-1-2,0 0,0 1,-1-2,0 1,0-1,-2-1,1 1,-15 8,19-14,-1 1,1-2,-1 1,1-1,-1 1,0-1,1-1,0 1,-2-1,2 0,-1 0,1-1,-2 0,-5-1,9 1,1 1,-2-1,1 1,1-1,-1 0,1 0,-1 0,1-1,0 1,-1 0,0-1,1 1,0 0,0-1,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0-1,0 1,1-1,-1-5,1 5,1 1,-1-1,1 0,0 0,2 1,-2-1,0 0,1 0,-1 1,1-1,0 2,0-1,0-1,0 1,0 0,0 0,2 0,-2 0,1 1,3-3,3 0,0-1,1 1,0 0,17-5,-17 8,1 0,-1 1,2 0,-2 0,1 1,-1-1,1 1,-1 1,1 1,-2 0,17 6,-10-4,8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7753.9">3683 894,'5'1,"0"-1,-1 1,1 0,-1 0,2 0,-2 1,0 0,0 0,1 0,0 0,-2-1,1 2,0 0,-1 0,1 0,0 0,-1 0,0 1,0-2,0 2,-1 0,4 6,5 8,-2 1,1 0,6 30,-8-30,5 24,-7-25,-1-1,1 0,0 0,3-1,-1 1,15 18,-23-34,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,2 0,-2 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,9-38,-7 32,18-91,5 0,4 1,5 1,5 2,3 2,5 0,5 4,3 1,108-129,-133 179,-15 19,-1 1,1 0,1 2,31-26,-41 37,0 1,1 0,-1 0,0 0,0 0,1 1,0-1,0 1,-1 0,1 1,0-1,0 1,8 1,5-1,70 1,137 16,95 32,-183-27,261 45,640 82,-855-138,211-13,-168-3,9 5,859-31,-951 20,-1-7,143-35,-269 48,-13 4,1-1,-1 1,2 0,-2 0,1 0,-1 0,2 1,-1 0,-1 0,1 0,6 1,-4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8666.63">5620 894,'4'0,"-3"5,-5 5,-18 10,-9 9,-4 5,-5 5,-1 6,-3-2,6-4,1-3,6-5,3-6,3-9,4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9218.26">5150 894,'4'0,"6"5,12 5,12 5,12 9,5 5,1 6,-2 1,1 4,-1 7,-3-4,-10-5,-6-8,-9-7,-7-1,-8-10,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10311.83">5814 640,'485'0,"-480"0,0 0,2 0,-2 1,1-1,-1 1,1 0,0 0,-1 0,0 1,1 0,-1 1,0-1,0 1,7 5,-9-6,-1 0,0 1,1 0,-1 0,-1 0,2 0,-1 1,-1-1,0-1,0 2,0-1,0 1,0-1,-1 1,0-1,1 0,-1 1,0-1,-1 1,1-1,-1 1,0 0,-1 2,0 4,-2 0,0 0,0-1,0 0,-1 1,-1-1,0-1,0 1,0-1,-2-1,1 1,0 0,-2-2,1 1,0 0,-2-1,1-1,-1 0,1 0,-2 0,1-1,0-1,-18 4,-38 10,52-12,-1-1,0 0,-1-1,0 0,0-1,-18-1,33-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,1-1,-1 1,0 0,0-3,1 3,0 0,0 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1 0,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,4-1,10-3,2 1,-1 0,0 1,1 1,0 0,0 1,-1 1,0 0,1 1,0 1,-2 0,2 1,-1 1,-1 0,0 1,1 0,-2 1,1 1,13 9,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11666.87">6948 868,'0'1,"2"-1,-1 0,0 1,0-1,0 1,-1-1,1 0,0 1,0 0,-1-1,1 1,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,4 31,-3-26,8 418,-11-248,2-149</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12268.73">6616 1325,'4'0,"8"0,4 0,10 0,11 0,2 0,1 0,-4 0,-1 0,-3 0,-2 0,-1 0,-1 0,-1 0,0 0,0 0,1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13498.08">7280 919,'175'-12,"-27"0,-115 11,110 1,-141 0,0 0,0 0,0 0,0 1,1-1,0 0,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 1,2-1,-1 1,-1-1,1 0,1 3,-2-2,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-3 3,-4 5,0 1,0-1,-2 0,1 0,-15 14,21-23,0 0,0 0,1 0,-1 1,1-1,-1 1,0 0,1 0,0 0,0-1,0 1,0 0,0 1,0-1,1 0,-1-1,1 1,-1 0,1 3,1-3,0 0,0 1,0-1,0 0,1 0,-1 0,2-1,-2 0,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 0,5 2,17 8,-2 2,0 0,37 31,-52-37,1-1,-2 2,0-2,1 2,-2 0,0-1,0 2,-1-1,1 0,-2 1,0 0,0-1,2 14,-4-13,0-1,0 0,-1 0,0 1,0-1,-1 0,0 1,-1-2,0 1,0 1,-1-2,-3 10,1-12,2 0,-1 1,0-1,-1 0,1-1,-2 1,1 0,0-1,0 0,-2 0,1-1,1 0,-1 0,-2 0,2 0,-8 1,-13 2,0-1,0 0,0-2,-1-1,-42-2,38-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16887.71">8166 716,'0'-1,"0"0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0 0,2 0,37-6,-34 6,-2-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,1 0,-1-1,0 2,0-1,0 0,1 1,-2 0,6 3,-7-3,1 1,-1 0,2-2,-2 2,0 1,0-1,0 0,-1 0,1 1,-1-1,0-1,0 2,0 0,0-1,-1 1,1-1,-1 6,3 33,-2-1,-1 0,-13 79,12-115,-1 0,0 0,0-1,-2 0,2 0,-1 0,0 0,0 0,0 0,-1-1,0 1,0-1,0 0,0 0,0 0,0 0,-2-1,2 0,-1 0,1 0,-2 0,1-1,0 0,0 0,0 0,-7 0,5 1,-1-2,1 1,0-1,-1 0,1 0,0-1,-1 0,1 0,0-1,0 0,0 0,0-1,1 1,-2 0,2-2,0 1,0-1,-10-8,13 10,0-2,0 0,0 1,1-1,0 0,0 0,0 1,1-1,-1-1,1 1,0 0,0 0,0 0,1-1,0 1,-1-1,2 1,-1 1,0-2,1 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,0 0,1 0,-1 2,2-2,-1 1,0-1,0 1,0 0,0 0,1 0,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 1,5-2,0 2,-1-1,1 2,0-1,0 1,-1 1,0 0,2 0,-2 1,1 0,-1 0,-1 1,2 0,14 7,-1 4,0 0,-2 1,31 27,-24-19,37 22,-49-35,1 1,-2 1,0-1,20 23,-17-13</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21829,9 +22889,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1017 0,'0'1753,"-13"-1896,4 65,7 52,-1-8,-1 0,-15-60,17 86,0-1,-1 1,-1 0,0 0,0 0,0 0,-1 1,0 0,0 0,-1 0,0 0,0 1,-1 0,1 1,-1-1,-9-4,-17-5,-2 1,0 2,-1 2,0 1,0 1,-1 2,-64-1,73 7,0 1,0 1,1 2,-40 9,-104 39,156-47,1-1,0 1,1 1,-1 0,1 0,0 2,-19 13,28-17,0 0,0 0,0 1,0-1,0 1,1 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,1 0,0-1,0 1,0 0,1 0,0 6,0-1,0 31,1 0,9 52,-8-83,0-1,1 1,0 0,1-1,0 0,0 1,1-2,0 1,1 0,0-1,1 0,0-1,15 15,-8-11,1 0,1-1,0-1,0-1,1 0,0-1,1-1,0 0,0-2,0 0,34 5,403 15,-438-25,0-1,0 0,-1-1,1-1,-1-1,0 0,22-9,-29 9,-1 0,0-1,1 0,-2-1,1 0,-1 0,1 0,-2-1,1 0,-1 0,0-1,0 0,-1 0,6-12,-7 11,0-1,0 0,-1 0,0 0,0-1,-1 1,0-14,-1 19,-1 1,0-1,0 0,-1 0,1 0,-1 0,0 1,-1-1,1 0,-1 1,0-1,0 1,0 0,-1 0,1-1,-1 2,-6-8,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="979.5">1493 1455,'1'-27,"1"0,2 0,0 0,2 0,1 1,2 0,0 0,1 1,2 0,0 1,23-31,-32 50,1 0,0 0,0 0,1 1,-1-1,1 1,0 0,1 0,-1 1,0 0,1 0,0 0,0 0,0 1,0 0,0 0,0 1,0 0,1 0,-1 0,0 1,1 0,8 1,-4 0,0 1,0 1,0 0,-1 0,1 1,-1 0,0 1,0 0,0 1,-1 0,0 0,16 14,18 23,-2 1,48 67,58 108,-123-182,5 5,3 0,37 38,-67-77,1-1,-1 1,0-1,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,3-1,23-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1754.01">2393 873,'-2'-1,"-1"-1,1 1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,-3 2,-5 1,0 1,0 1,-14 10,6-3,2 1,-1 1,2 1,0 1,1 0,-14 21,-72 124,50-75,0-3,16-23,-3-2,-50 59,61-87,2 1,2 1,-21 37,34-51,0 1,2 0,0 1,1-1,1 1,2 1,-4 25,5-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1088 0,'0'1678,"-14"-1815,4 63,8 49,-1-8,-1 1,-17-58,19 82,0-1,-1 2,-1-1,-1 0,1 1,0-1,-2 1,1 1,0-1,-2 0,1 1,-1 0,0 0,1 1,-2 0,-9-5,-18-4,-3 0,1 3,-2 1,1 2,-1 0,0 2,-69-1,78 7,0 1,0 1,1 2,-43 9,-111 36,167-44,1-1,0 1,1 1,-1-1,1 1,1 2,-22 12,31-16,0-1,0 1,-1 1,1-1,0 1,0-1,1 1,0 1,1-1,-1 1,1-2,-1 2,1 0,1 0,0-2,0 2,0 0,1 0,0 5,0 0,0 29,1 0,10 50,-9-79,0-2,1 2,0-1,2 0,-1-1,0 2,2-3,-1 2,1 0,1-2,0 1,1-1,15 14,-8-11,1 1,1-2,1 0,-1-2,1 1,0-1,1-2,1 1,-1-2,0 0,37 4,430 15,-467-24,-1-1,0 0,-1-1,1-1,-1-1,1 1,22-10,-30 9,-2 1,1-2,1 0,-3-1,2 0,-2 1,2-1,-3-1,2 1,-2-1,0-1,1 1,-2-1,7-11,-8 10,1 0,-1-1,-1 0,0 1,0-2,0 2,-1-14,-1 18,-1 1,0-1,0 1,-1-1,1 0,-1 0,0 1,-2 0,2-1,-1 1,0-1,0 1,0 1,-1-1,0-1,0 2,-6-7,-10-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="979.5">1597 1393,'1'-26,"1"0,3 0,-1 1,2-1,2 1,1 0,1 0,1 1,2 0,-1 1,26-29,-35 47,1 0,1 0,-1 0,1 2,0-2,0 1,0 0,2 0,-2 1,0 1,2-1,-1 0,1 0,-1 1,0 0,1 0,-1 1,1 0,0 0,0 0,-1 1,1 0,10 1,-6 0,1 1,0 1,0 0,-2 0,2 1,-1-1,-1 2,1 0,0 1,-2 0,1-1,17 14,19 23,-2 0,51 64,62 104,-131-175,5 5,3 0,40 37,-72-74,1-1,-1 1,1-1,0 0,-1-1,1 1,0-1,1 1,-1 0,0-1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,4-1,24-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1754.01">2560 836,'-2'-1,"-1"-1,0 1,1 0,0 0,-1 0,1 0,-1 0,0 0,0 1,1-1,-1 1,1-1,-1 1,0 0,0 0,0 0,1 1,-1-1,0 1,0-1,1 1,-1 0,-4 2,-4 1,-1 1,0 0,-15 11,7-4,2 2,-1 0,2 1,-1 1,2 1,-15 19,-77 119,54-71,-1-4,18-22,-4-1,-53 56,65-84,2 2,3 1,-23 35,36-49,0 1,3 0,-1 1,2-1,0 2,3 0,-5 24,6-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21858,15 +22918,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1164,'4'0,"20"0,23 0,23 0,7 0,5 0,6 0,2 0,-1 0,-12 0,-9 0,-12 0,-11 0,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1139">1535 952,'-21'0,"11"0,0 0,0 0,0 1,0 0,-10 3,17-3,0 0,0 0,0 0,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,1 1,-1 0,0-1,1 1,-3 6,-1 4,0 2,1-1,1 1,0-1,1 1,0 0,1 0,1 0,0-1,1 1,1 0,4 18,-4-30,0 1,0-1,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,6 2,55 19,-42-16,-17-5,25 7,-2 2,1 1,35 21,-58-29,0 0,0 0,-1 0,1 1,-1-1,0 1,0 1,0-1,-1 1,1 0,-2 0,1 0,-1 0,1 1,-2-1,1 1,-1 0,0 0,0 0,0 8,-2-9,0 0,-1 0,1 0,-1 0,0-1,-1 1,0 0,0-1,0 1,0-1,-1 1,0-1,0 0,0 0,-1-1,0 1,0-1,0 1,0-1,-1 0,1-1,-1 1,0-1,-7 4,-5 1,1 0,-1-1,-1 0,1-2,-1 0,-29 4,-42 2,0-4,-1-4,1-4,-97-13,179 13,-59-11,62 11,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,-1 0,-3-5,-3-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1985.99">2117 979,'1'1,"0"0,0 0,0 0,1 0,-1 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,-1 2,2-1,14 158,-12-99,4 0,15 70,22 76,-43-204,10 29,-5-21,-6-11,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,3-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2414.52">2065 714,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3446.93">2409 1058,'3'60,"3"0,3-1,17 62,11 75,-30-174,-6-22,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1-1,1 1,2-2,0-1,0 1,-1-1,1 0,-1 1,1-1,-1-1,0 1,3-6,70-154,-13 25,-24 65,90-129,-104 170,2 1,0 1,2 2,1 1,2 1,35-24,-55 43,1 0,0 1,1 0,0 1,0 1,0 0,0 0,0 1,1 1,18-1,-22 3,-1 0,0 0,1 1,-1 1,0 0,0 0,0 0,0 1,0 1,-1-1,1 2,-1-1,0 1,0 0,13 12,-7-4,0 2,-1 0,-1 1,0 0,-1 1,-1 0,-1 0,0 1,-1 1,-1-1,-1 1,-1 1,0-1,-2 1,0-1,-1 1,-1 38,-10 208,5-238,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4222.95">4208 291,'1'45,"-2"-1,-1 1,-3-1,-1 0,-16 56,15-71,1 0,-4 40,-3 21,-9 26,-9 159,30-269,1 1,0-1,0 0,1 1,0-1,0 0,0 1,1-1,0 0,0 0,1 0,-1 0,1-1,0 1,1-1,0 0,-1 1,8 5,1-1,0 0,0-1,2-1,-1 0,1 0,19 6,28 15,-39-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5280.92">4975 502,'-14'1,"1"1,-1 0,1 1,0 0,0 1,0 0,1 1,0 0,0 1,0 1,0 0,1 0,0 1,-16 15,-10 14,2 0,-45 61,67-80,2-5,1 1,1 0,1 1,0 0,1 0,0 0,1 1,1 0,0 1,2-1,-3 21,5-24,1 0,0-1,1 1,1 0,0 0,0-1,1 1,1-1,0 1,1-1,0-1,1 1,0-1,1 0,10 13,-7-12,0-2,0 0,1 0,1-1,-1 0,2-1,-1 0,1-1,0 0,18 6,2-2,0-1,0-1,45 5,-75-14,1 0,-1 0,1 0,-1 0,1-1,-1 0,0 1,1-1,-1 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1-1,-1 1,1-1,3-4,4-8,-1 0,0 0,10-23,-5 10,11-20,36-99,-54 126,-2 0,0 0,-1 0,-1-1,-1 1,-1-1,-4-41,2 49,-1-1,-1 1,0 0,-1-1,-1 1,-11-23,13 30,-2 1,1-1,-1 1,0 0,0 0,-1 0,0 1,0 0,0 0,-1 1,1 0,-1 0,0 0,-9-3,-17-5,3 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6034.89">5478 0,'36'86,"-3"2,31 133,-30-97,-12-32,-3 1,-4 1,-5 1,-2 182,-9-195,2-17,-11 83,7-129,0 0,-1 0,-1 0,-1-1,-1 0,0 0,-1 0,-19 28,23-40,0-1,0 0,0 0,-1 0,0 0,0-1,0 0,0 0,-1 0,0-1,0 0,1 0,-2 0,1-1,0 0,0 0,-1 0,-9 0,-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6733.89">4578 1032,'0'-4,"4"-2,11-5,7 1,9 1,13 2,12 3,10 2,-1 1,1 0,-6 2,-4-1,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1122,'4'0,"21"0,23 0,24 0,8 0,4 0,7 0,1 0,0 0,-13 0,-9 0,-12 0,-12 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1139">1581 917,'-22'0,"12"0,-1 0,1 0,0 1,-1 0,-9 3,17-3,0 0,0 0,0 0,-1 1,1 0,0-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,1 1,-1 0,0-1,1 1,-4 5,0 5,0 1,1 0,1 0,0 0,1 0,0 1,1-1,1 1,0-2,1 2,1-1,4 18,-4-29,0 1,0-2,0 1,1-1,-1 1,1 0,-1-1,2 1,-1-1,0 0,0 0,0 0,0 0,6 1,57 20,-43-17,-18-4,26 7,-2 2,1 0,35 21,-58-28,-1 0,0-1,-1 1,1 1,-1-1,1 1,-1 1,0-2,-1 2,1 0,-2 0,1 0,-1-1,2 2,-3-1,1 1,-1-1,0 1,0 0,0 7,-2-8,0 0,-1 0,1-1,-1 1,0-1,-1 1,0 0,0-2,0 2,0-1,-1 1,-1-1,1-1,0 1,-1-1,0 1,0-1,0 1,0-2,-1 1,0-1,0 1,0-1,-7 4,-6 0,2 1,-2-1,0 0,0-3,0 1,-31 4,-42 1,-1-3,-1-4,2-4,-101-12,185 12,-61-11,64 11,0-1,0 1,-1-1,1 0,0 0,0 1,1-1,-1-1,1 1,0-1,-1 0,-4-5,-2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1985.99">2180 943,'1'1,"0"0,0 0,0 0,1 0,-1 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 0,0 0,1 1,-1-1,0 1,-1 2,2-1,15 152,-13-95,4 0,16 67,22 73,-44-196,10 28,-4-21,-7-10,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,3-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2414.52">2126 688,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3446.93">2481 1019,'3'58,"3"0,3-1,18 60,11 71,-31-166,-6-22,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,2 0,-2 0,0 0,1 0,-1-1,1 1,2-2,0-1,0 1,-1-1,1 0,-1 1,1-1,-1-1,0 2,3-7,73-148,-15 24,-23 62,91-123,-106 163,2 1,0 1,2 2,0 1,3 1,36-23,-56 41,0 0,0 2,2-1,-1 1,0 1,1 0,-1 1,1 0,0 1,19-1,-23 3,0 0,-1 0,1 1,-1 1,1 0,-1 0,0-1,0 2,1 1,-2-1,1 2,-1-1,1 1,-1-1,14 13,-8-5,0 3,0-1,-2 2,0-1,0 1,-2 1,-1-1,1 2,-2 0,-1-1,-1 2,-1 0,1-1,-3 1,0 0,-1 0,-1 37,-10 200,4-229,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4222.95">4333 280,'1'44,"-2"-2,-1 2,-3-2,-1 0,-17 55,16-69,1 0,-5 38,-2 21,-10 25,-9 153,31-260,1 2,0-1,0 0,1 0,0 0,0 0,0 1,2-2,-1 1,0 0,1 0,-1 0,1-2,0 2,1-1,0 0,-1 1,9 4,0 0,0 0,1-2,1 0,-1 0,2-1,19 7,29 14,-41-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5280.92">5123 484,'-15'1,"2"1,-1 0,0 0,1 1,-1 1,1 0,1 1,-1 0,1 0,0 2,-1 0,2 0,0 0,-17 16,-10 12,2 1,-47 58,70-76,2-6,0 2,2-1,1 2,0-1,0 1,1-1,1 1,1 1,0 0,2 0,-4 19,6-22,1-1,0 0,1 0,1 1,1-1,-1 0,1 1,1-2,0 2,1-2,0 0,1 0,1 0,0 0,10 12,-6-12,-1-1,0 0,2-1,0 0,-1 0,3-2,-2 1,1-1,1-1,18 7,2-2,0-2,0 0,46 4,-77-13,1 0,-1 0,1 0,-1 0,2-1,-2 0,0 1,1-1,-1 0,1 0,-1 0,0-1,0 1,0-1,0 0,1 0,-1 0,-1 0,1-1,-1 1,1-1,3-3,4-9,0 1,-1-1,11-21,-6 9,12-20,36-94,-54 121,-3-1,0 1,-1 0,-1-1,-1 0,-1 0,-4-40,2 48,-1-1,-1 0,0 1,-1-2,-1 2,-12-23,14 29,-2 1,1 0,-1 0,0 0,-1 0,0 1,0 0,0 0,0 0,-2 1,2 0,-1 1,0-1,-10-3,-17-5,4 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6034.89">5641 0,'37'83,"-3"2,32 128,-31-94,-13-30,-2 0,-5 2,-4 0,-3 176,-9-188,2-16,-11 80,7-125,-1 0,0 1,-1-1,-1-1,-1 1,0-1,-2 0,-18 28,22-40,1 0,0 0,0 0,-1 0,0-1,0 0,0 0,-1 0,0 0,0-1,0 0,1 0,-3-1,2 0,0 0,0 0,-1 0,-10 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6733.89">4714 994,'0'-3,"4"-3,12-5,6 2,10 0,14 2,11 3,11 2,-1 1,1 0,-6 2,-5-1,-10 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21977,9 +23037,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1248 0,'1'352,"-3"381,-12-487,0 43,12-249,2-40,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,-1-1,1 0,-14-17,0 0,2-1,0-1,1 0,1-1,-13-37,4 12,-163-432,180 469,-1 1,0-1,0 0,-1 1,0 0,0 0,-1 0,0 0,-1 1,-6-8,6 10,0 0,-1 1,1 0,0 0,-1 1,0-1,0 2,0-1,0 1,-1 0,1 0,-13 0,-42-4,0 2,0 4,-72 7,107-4,-1 1,1 0,0 2,0 2,0 0,-38 18,55-20,0-1,0 1,0 1,0-1,1 2,0-1,1 1,0 1,0 0,1 0,0 0,0 1,1 0,0 0,1 0,0 1,1 0,-4 14,-7 51,-7 82,12-72,7-62,-1 1,1 1,1-1,2 47,1-67,-1 1,1-1,0 0,0 1,1-1,0 0,0 0,0 1,0-2,1 1,-1 0,1 0,1-1,-1 0,1 1,-1-1,1-1,0 1,1 0,-1-1,1 0,-1 0,8 3,28 8,70 17,-34-12,-27-5,0-2,1-2,1-2,-1-3,1-1,69-5,-102-1,1-1,-1-1,0 0,-1-2,1 0,-1 0,0-2,29-17,-34 17,0-1,-1 1,0-2,0 1,-1-2,-1 1,1-1,-2-1,0 0,0 0,11-24,7-20,-17 39,0-1,-2 0,0-1,0 0,5-34,-10 27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="945.99">1883 926,'-1'-5,"2"0,-1 0,1-1,-1 1,2 0,-1 0,0 0,1 0,0 0,0 0,1 0,-1 0,1 1,0 0,0-1,0 1,1 0,4-4,-2 4,0-1,1 1,-1 0,1 1,-1-1,1 2,0-1,1 1,-1 0,0 0,15-1,-12 2,0 0,0 1,0 0,0 1,0 0,0 0,0 1,0 0,0 1,-1 0,1 1,-1 0,0 1,0-1,0 2,-1-1,0 1,0 0,10 11,106 155,12 15,-11-16,-108-148,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1636.01">2994 423,'-9'0,"0"0,1 1,-1 0,0 0,1 0,-1 1,1 1,0-1,0 1,0 1,0 0,0 0,1 0,0 1,0 0,0 0,-10 11,-163 148,-46 39,202-182,-204 179,179-152,3 2,-61 83,26-33,59-75,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1319 0,'1'335,"-3"363,-13-464,0 41,13-236,2-39,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-2-1,2 1,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,-1-1,1 1,-14-18,-1 1,2-1,0-1,2 0,0-1,-13-35,4 11,-173-411,191 446,-1 2,0-2,0 1,-1 0,-1 0,1 1,-1-1,0 1,-2 0,-5-7,5 9,1 0,-2 1,2 0,0 1,-2 0,1-1,0 2,-1-1,1 1,-2 0,2 0,-14 1,-45-5,1 2,-1 4,-75 7,112-4,0 0,0 1,0 2,1 2,-1-1,-39 18,57-19,1-2,-1 2,0 1,1-2,0 3,1-1,0 0,1 2,-1-1,2 1,0 0,-1 0,2 1,0-1,0 1,1 0,1 1,-5 12,-7 50,-7 77,13-68,7-59,-2 1,2 1,1-2,2 46,1-64,-1 0,1 0,0 0,0 1,1-2,0 1,1 0,-1 1,0-3,1 2,-1 0,1 0,1-1,0-1,0 2,-1-1,1-1,0 1,2-1,-2 0,1 0,0 0,7 3,30 7,75 16,-37-10,-28-6,0-2,0-1,2-3,-1-2,1-1,73-5,-108-1,1-1,-1 0,0-1,-1-2,1 0,-1 1,0-3,31-16,-37 17,1-2,-1 1,-1-1,1 0,-2-1,0 0,0 0,-1-2,-1 1,1 0,11-24,7-18,-17 37,-1-1,-1-1,-1 0,1 0,4-32,-10 25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="945.99">1990 882,'-1'-5,"2"0,-1 0,1 0,-1 0,2 0,-1 0,0 1,1-1,0 0,0 0,2 1,-2-1,1 1,0 0,0-1,0 2,2-1,3-4,-2 4,1 0,0 0,0 0,0 1,-1-1,2 2,-1 0,2 0,-2 0,0 0,17-1,-14 2,1 0,-1 1,1 0,-1 1,1 0,0 0,-1 1,1 0,-1 1,0 0,0 0,0 1,-1 1,1-1,-1 1,0 0,-1 1,1 0,10 10,112 148,13 14,-12-16,-114-140,-3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1636.01">3164 403,'-10'0,"1"0,0 1,0 0,-1 0,2 0,-2 0,2 2,0-1,-1 1,1 1,-1 0,1 0,0-1,1 2,0 0,-1 0,-10 10,-172 141,-49 37,214-173,-216 171,189-146,3 3,-64 79,28-32,62-71,-1-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22060,10 +23120,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">425 0,'4'0,"11"0,7 0,13 0,10 0,7 5,-2 1,-5-1,0 0,0-2,-2-1,-9 4,-6 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="948.02">1 635,'165'-13,"2"-2,131 18,227-5,-488-2,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42954.05">4340 688,'-7'1,"0"0,0 0,0 0,0 1,0 0,0 1,1-1,-1 1,1 0,0 1,-8 5,-61 53,63-51,-12 12,1 1,1 0,1 2,1 0,1 2,2 0,0 1,2 0,2 2,0-1,2 2,2-1,1 1,1 1,1 0,3-1,-1 55,5 124,4 138,1-258,31 161,-37-249,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,4 1,16 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44468.05">7912 846,'6'1,"0"-1,1 1,-1 0,0 1,0-1,0 1,0 0,0 1,0 0,-1 0,1 0,-1 0,0 1,0 0,0 0,0 0,-1 1,0-1,0 1,6 8,0 3,-1-1,-1 2,0-1,-1 1,-1 1,5 18,1 10,20 67,-5 2,16 156,-40-238,-3 1,-4 52,1-70,0 1,0-2,-1 1,-1 0,-1-1,0 0,-11 18,-57 105,46-81,-3-1,-69 94,20-53,61-74</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">443 0,'4'0,"11"0,8 0,14 0,10 0,7 5,-2 1,-5-2,0 1,-1-2,-1-1,-9 4,-7-1,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="948.02">1 607,'172'-12,"2"-2,136 16,237-3,-509-3,-7-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42954.05">4520 658,'-8'1,"1"0,0 0,0 0,-1 1,1 0,0 1,0-2,0 2,1 0,0 1,-9 5,-63 50,66-49,-13 12,1 1,1 0,1 2,1 0,1 2,2 0,1 0,1 1,3 2,-1-1,3 1,1 0,2 0,1 2,0-1,4 0,-1 52,5 119,4 132,2-247,31 154,-38-238,0 0,1 0,-1-1,1 1,0 0,0 0,0 0,0 0,1-1,-1 1,2-1,-2 0,1 1,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,2-2,-1 2,4 1,17 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44468.05">8240 809,'6'1,"0"-1,2 1,-2 0,0 1,0-1,1 1,-1 0,0 1,0-1,-1 1,2 0,-2 0,0 1,0 0,1 0,-1-1,-1 2,0-1,0 1,7 7,-1 4,-1-2,0 2,-1-1,-1 2,0 0,4 17,2 10,20 64,-5 2,17 150,-42-229,-3 2,-4 49,1-67,0 2,-1-3,0 1,-1 0,-1 0,0-1,-12 18,-59 100,48-78,-4 0,-71 89,21-50,63-71</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22145,26 +23205,26 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1432 741,'-1'3,"0"-1,0 0,1 0,-1 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,-3 1,-7 10,-65 88,-5-3,-4-4,-5-4,-3-3,-109 77,150-123,38-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="597.45">823 1032,'4'-4,"7"2,9 7,12 7,12 10,9 10,9 18,-2 5,-12-2,-13-6,-13-7,-1-5,-4-4,0-8,-4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2112.51">1696 502,'3'0,"0"-1,1-1,-1 1,0 0,0-1,0 0,0 0,5-4,16-8,-9 9,0 0,0 1,0 1,1 0,-1 1,1 1,0 1,18 1,-28-1,0 1,0 0,-1 0,1 0,0 1,-1 0,1 0,-1 0,0 1,0-1,0 1,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,3 7,-1 5,0 0,-1 0,0 0,-2 1,0-1,-1 28,-1-36,0 0,-1 1,0-1,-1 1,0-1,0 0,-1 0,0 0,0 0,-1 0,0-1,-1 0,-9 13,10-17,-1-1,0 1,1-1,-1 0,0-1,-1 1,1-1,0 0,-1 0,1 0,-1-1,1 0,-1 0,0-1,-5 1,-16-1,-47-4,69 4,3-1,-1 1,0 0,0-1,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1-1,-2-2,4 3,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,1-3,0 1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 1,0-1,1 1,-1-1,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,1-1,5 0,-2 0,1 0,-1 1,1 0,0 0,-1 1,1 0,0 0,-1 1,1 0,0 0,-1 1,10 3,4 3,0 1,34 21,-9-4,-34-19,-1 1,1 0,-2 0,17 17,-10-9,0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3396.06">2728 979,'0'534,"0"-525,0 0,1 0,1 0,-1 0,5 12,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4217.66">2464 1349,'0'0,"0"-1,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0 0,0-1,0 1,1-1,26-8,-18 6,25-6,0 2,1 1,0 1,1 2,-1 2,0 1,72 11,-101-10,1 0,-1 0,0 1,0 0,0 1,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,0 1,-1 0,0 0,0 1,5 6,3 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7286.27">3284 926,'18'-1,"1"-1,35-8,28-3,-41 11,-12-1,-1 2,0 1,0 1,49 9,-74-10,-1 0,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0-1,0 1,-1 0,1-1,-1 1,0 2,-1 3,-1 1,0-1,-1 0,0 0,0-1,0 1,-1-1,0 0,-1 0,-6 6,11-12,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 1,0-1,-1 0,1 0,0 0,2 2,5 3,1 0,0 0,0-1,0 0,13 4,9 6,-19-7,0 0,-1 0,0 1,-1 0,0 1,0 0,-1 1,-1 0,0 0,13 24,-16-25,-1-1,0 1,-1 0,0 0,-1 0,0 0,0 1,-1-1,0 0,-1 1,-1-1,1 1,-1-1,-1 0,-4 16,4-20,-1-1,1 1,-1-1,0 0,0 1,-1-1,1-1,-1 1,0-1,-1 1,1-1,-1 0,0-1,0 1,0-1,0 0,0 0,-9 3,-9 3,-1-2,0 0,-31 3,15-2,-3 1,1-2,-1-2,-60 0,82-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11723.65">4131 741,'12'-1,"0"-1,0 0,1-1,-2 0,17-8,-18 7,1 0,-1 1,0 0,1 1,0 0,-1 0,14 1,-21 1,0 1,1 0,-1-1,0 2,0-1,0 0,0 0,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,1 5,4 19,-1 0,-1 1,-2-1,0 1,-2-1,-6 48,5-72,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,-1 0,1 0,0-1,-1 1,1-1,0 0,-1-1,1 1,-1-1,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-6-4,7 5,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,0 0,-1 1,1-1,0 0,2-2,-1 2,0 0,0 0,0 0,0 1,0-1,1 1,-1-1,0 1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,-1 0,5 2,2 2,1 1,-1 1,-1 0,1 0,-1 1,0-1,-1 2,0-1,0 1,8 15,-1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13310.76">321 1958,'0'-1,"0"0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,2 1,35-5,-32 5,498-6,-284 9,3395-3,-3577 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30415.47">4766 1878,'4122'0,"-4061"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32091.97">5004 1137,'1'11,"0"-1,1-1,1 1,0 0,0 0,1-1,0 0,6 10,2 7,113 262,-124-287,25 45,-9-32,-16-14,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,1 0,-1 1,0-1,5-15,-1 0,-1 1,0-1,-1 0,-1-1,-1-17,3-25,11-122,-5 43,5 1,46-191,1 166,-53 137</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33131.47">4554 264,'0'3,"0"0,1 0,0 0,0 0,-1 0,2-1,-1 1,0 0,0-1,1 1,0-1,1 3,7 10,12 26,96 198,-108-211,0 0,-2 1,-1-1,-1 2,-1-1,-2 0,0 32,-4 67,-4 102,3-217,0 0,0 0,-2-1,1 1,-2-1,1 0,-2 0,1-1,-2 1,-11 15,-10 10,-51 52,60-70,-4 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34288.46">585 0,'-2'2,"0"0,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 3,-3 8,-75 150,-184 281,230-394,-9 13,-65 132,99-174,1 0,1 1,1 0,1 0,-2 32,5 116,2-104,-2-20,0-17,1 0,2 1,6 35,-7-58,1 1,0 0,0-1,1 1,0-1,0 0,1 0,0 0,0-1,1 1,0-1,0 0,0 0,1-1,0 1,12 7,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36015.46">5453 344,'4258'0,"-4213"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36808.39">6300 873,'-5'0,"-10"9,-11 12,-11 21,-35 38,-19 20,-7 6,4-10,18-17,18-23,18-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37396.42">5665 873,'16'1,"0"-1,-1 2,1 0,0 1,0 1,-1 0,0 1,0 0,0 1,-1 1,0 1,15 9,3 5,-1 1,0 1,-2 2,-1 1,-1 1,-1 1,-2 1,-1 2,-1 0,-2 1,-1 1,16 44,-24-56,1 0,1-1,0 0,24 26,-10-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38744.93">6274 688,'154'-1,"168"3,-314-2,0 0,-1 1,1 0,0 0,0 1,-1 0,1 0,-1 1,0 0,1 0,-1 1,-1 0,1 0,-1 0,1 1,-1 0,0 1,-1-1,1 1,-1 0,-1 0,1 0,-1 1,0 0,0 0,-1 0,0 0,0 0,-1 1,0 0,0-1,0 1,0 11,3 16,-2 0,-1 0,-2 0,-1 0,-2 0,-1 0,-12 49,13-76,0-1,0 0,-1 1,0-1,0 0,0 0,-1-1,0 0,-7 8,9-12,0 1,0 0,-1-1,1 1,-1-1,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-6-1,7 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,-1 1,2-1,-1 0,0 0,0 0,1 1,0-5,-2-4,1 0,0 0,1-1,0 1,3-19,-2 27,-1 0,2-1,-1 1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,0 1,0-1,0 0,0 1,0 0,1-1,-1 1,0 1,1-1,-1 0,1 1,-1 0,7 0,12 0,0 1,-1 1,41 8,-34-4,-17-5,0 2,0-1,-1 1,1 1,-1 0,0 1,0 0,0 0,-1 1,11 8,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39417.24">7464 1005,'4'0,"2"9,5 12,4 21,4 11,4 16,-2 0,-5 2,-5-7,-4-5,0-8,0-8,-1-8,-3-4,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39965.24">7464 1455,'4'0,"7"0,5 0,5 0,3 0,7 0,2 0,5 0,4 0,19 0,2 0,-4 0,-8 0,-9 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41354.58">8311 1085,'3'-2,"0"-1,1 1,-1 0,1-1,0 1,-1 1,1-1,0 1,0-1,0 1,0 0,8 0,56-2,-43 3,-8-1,0 0,1 1,-1 0,1 1,32 7,-45-7,-1 0,1 1,-1-1,0 1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,-1 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,-1 1,3 7,-1 1,0 1,0 0,-2 0,1 0,-2 1,0-1,-1 0,-4 25,3-29,-1-1,0 0,0 0,-1 0,0-1,0 1,-1-1,-1 0,1 0,-1 0,0-1,-1 0,-13 11,15-14,-24 22,29-26,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 0,13 5,0 1,-1 0,0 0,23 16,-32-18,0-1,0 1,0 0,-1 0,0 0,0 0,0 1,0-1,-1 1,0 0,0-1,0 1,0 0,-1 0,0 0,0 1,0 7,0-8,0-1,0 1,-1 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,-1-1,0 1,0 0,0-1,0 0,-1 0,0 0,0 0,0 0,0 0,0-1,-1 1,0-1,0 0,0 0,0 0,0-1,0 0,-1 1,-7 1,-19 10,0-2,-39 10,57-18,1-2,-1 1,0-2,0 1,0-2,0 0,0 0,-23-5,17-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42545.15">8867 952,'5'-3,"1"0,0 0,0 0,0 1,0 0,0 0,0 0,1 1,-1 0,1 0,-1 1,0 0,11 1,1-2,310-2,-321 3,1 1,0 0,-1 0,1 0,-1 1,1 0,-1 0,0 1,0 0,10 6,-13-6,0 0,0 1,0-1,-1 1,0 0,1 0,-1 0,0 0,-1 1,1-1,-1 1,0 0,0 0,-1 0,1 0,0 7,1-2,-1 1,-1 0,0 0,-1-1,0 1,0 0,-1 0,-1-1,0 1,0 0,-1-1,0 0,-1 0,-8 17,4-15,-1 1,1-2,-2 1,0-1,0-1,-1 1,0-2,-1 0,0 0,-17 9,-9 4,-2-1,-1-1,0-3,-69 20,83-37,27 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-2,1-1,0 1,0-1,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,3-2,8-7,0 0,0 1,1 1,1 0,-1 1,2 1,-1 0,1 1,0 1,0 0,20-2,-25 5,1 1,0 1,0 0,0 0,-1 1,1 1,0 0,-1 1,1 0,-1 0,0 2,0-1,0 1,-1 1,0 0,17 12,6 11,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1494 709,'-1'3,"0"-1,0 0,1 0,-1 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,-4 1,-6 10,-68 83,-6-2,-4-4,-5-4,-3-3,-113 74,155-117,41-30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="597.44">859 988,'4'-4,"7"2,10 7,13 6,11 10,11 10,8 17,-1 4,-13-1,-13-6,-14-7,-1-4,-5-4,1-8,-4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2112.51">1770 480,'3'0,"0"0,1-2,-1 1,0 0,0-1,0 0,1 0,4-4,17-7,-9 8,-1 0,1 1,0 2,0-1,0 1,1 1,-1 1,20 1,-30-1,0 1,1 0,-2 0,1 0,0 0,0 1,0 0,-1 0,0 1,0-1,1 1,-1 1,0-1,-1 0,1 1,0 0,-1 0,0 0,0 1,-1-2,0 2,1 0,-1 0,3 6,-1 5,0 1,0-1,-1 0,-2 2,0-2,-1 27,-1-35,0 1,-1 1,0-2,-1 2,0-2,0 1,-2 0,1-1,0 1,-1 0,0-2,-1 1,-10 12,11-16,-1-1,-1 0,2 0,-1 0,0-1,-1 1,0-1,1 0,-1 0,1 0,-2-1,2 0,-1 0,0-1,-6 0,-16 0,-49-3,72 3,3-1,-2 1,1 0,0-1,0 1,1-1,-1 0,0 0,1 0,-2 0,1 0,1-1,0 1,-1-1,-2-2,4 3,1 0,-1 0,0 1,0-1,0-1,1 1,-1 0,1-1,-2 1,2 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,1-2,0 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,1 0,-1 1,0-1,1 1,-1-1,2 1,-2 0,1 0,0 1,0 0,0-1,0 1,2-1,4 0,-2 0,2 0,-2 1,1 0,1 0,-2 1,1 0,1 0,-2 1,1 0,1 0,-2 1,11 3,3 2,1 2,36 20,-10-4,-36-19,0 2,0 0,-1-1,17 17,-10-8,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3396.06">2846 937,'0'511,"0"-502,0-1,1 1,1 0,-1-1,6 12,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4217.66">2571 1291,'0'0,"0"-1,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0 0,0-1,0 1,1-1,28-8,-20 6,27-5,-1 1,2 1,-1 2,2 1,-2 2,1 1,75 10,-106-9,1 0,0 0,-1 1,0 0,1 1,-1 0,0 0,0-1,0 2,0 0,-1 0,1 0,-1 0,-1 1,0 0,0 1,6 5,2 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7286.27">3426 886,'19'-1,"1"-1,36-7,30-4,-43 11,-13 0,-1 1,0 1,1 1,50 8,-77-9,-1 0,1 1,-1 0,1 0,0 0,0 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0 0,0-1,0 1,1 0,-2 0,1 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-2,0 2,-1-1,1 1,-1 0,1-1,-1 1,0 0,0-1,0 0,-1 1,1-1,-1 1,0 2,-1 3,-1 0,0 0,-1-1,-1 1,1-1,0 0,-1 0,0 0,-2 0,-5 5,11-11,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-2,1 1,-1 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 1,0-1,-1 0,1 0,0 0,3 2,4 2,1 1,1 0,-1-1,1-1,12 5,11 5,-21-6,1 0,-2-1,1 2,-2 0,1 0,-1 1,0 0,-2 1,0-1,14 24,-17-25,0 0,-1 1,-1-1,0 1,-1-1,0 1,0 0,-1 0,0-1,-1 2,-1-1,1 0,-1 0,-1-1,-4 16,4-19,-1-1,1 0,-2 0,1 0,0 1,-1-1,1-2,-1 2,0-1,-2 1,2-1,-1-1,0 0,-1 1,1-1,0 0,0 0,-10 2,-9 4,-1-2,0-1,-32 4,15-2,-3 0,1-1,-1-2,-62 0,85-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11723.65">4310 709,'13'-1,"-1"-1,1 0,0 0,-1-1,17-8,-19 7,2 1,-2 0,1 0,0 1,1 0,-2 0,15 1,-22 1,0 1,2 0,-2-1,0 2,0-1,0 0,0 0,0 1,0 0,1 0,-1-1,-1 1,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,1-1,-2 1,1 0,-1 0,0 0,1 0,-1 1,1 4,4 19,-1 0,0 1,-3-2,0 2,-2-1,-6 46,5-69,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,0 0,-1-1,1 1,-1-1,-1 1,1-2,0 1,0 0,-1 0,1-1,-1 1,-1-1,1 0,0 0,0-1,0 1,0-1,-1 0,1 0,-1 0,1 0,0-1,-2 1,2-1,0 0,-1-1,1 1,-1-1,0 0,1 0,0 0,-1 0,1-1,-1 2,1-2,1 0,-6-4,7 5,0 0,1 0,-2 0,1 0,1-1,-1 1,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,0 0,-1 1,1 0,0-1,2-2,-1 2,0 0,0 0,0 0,0 1,0-1,2 1,-2-1,0 1,1 1,-1-1,1 0,0 0,-1 1,1-1,1 1,-2 0,1-1,0 1,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,-1 0,5 1,3 3,0 1,-1 1,0-1,0 1,-1 1,1-2,-2 3,0-1,1 0,7 15,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13310.76">335 1874,'0'-1,"0"0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0-1,2 1,37-5,-34 5,520-6,-297 9,3543-3,-3732 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30415.47">4973 1797,'4300'0,"-4236"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32091.97">5221 1088,'1'11,"0"-2,1 0,1 1,0-1,1 1,0-2,0 1,6 9,3 7,117 251,-129-275,26 43,-9-31,-17-13,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,-1-1,1 1,-1 0,2-1,-2 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,1 0,-1 1,0 0,5-16,-1 1,-1 1,0-2,0 1,-2-1,-1-17,3-23,11-118,-4 42,4 1,49-183,1 159,-56 131</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33131.47">4751 253,'0'3,"0"-1,1 1,1 0,-1 0,-1 0,2-1,-1 1,0 0,0-2,1 2,0-1,1 3,8 9,11 26,102 188,-114-201,0 0,-1 1,-2-1,-1 1,0 0,-3 0,0 30,-4 65,-4 97,2-208,1 1,0-1,-2 0,1 0,-2 0,1-1,-3 1,2-2,-2 2,-12 13,-10 11,-54 49,64-67,-5 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34288.46">610 0,'-2'2,"0"0,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 2,-4 9,-77 143,-192 269,239-377,-9 12,-67 127,102-167,2 0,1 1,1 0,0 0,-1 31,5 110,2-98,-2-20,0-17,1 1,2 1,6 33,-7-55,2 0,-1 1,0-1,1 0,0 0,0 0,1 0,0-1,1 0,0 1,0-2,0 1,1 0,0-1,0 0,13 8,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36015.46">5689 329,'4443'0,"-4396"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36808.39">6573 836,'-5'0,"-11"8,-11 12,-11 20,-38 37,-19 19,-7 5,4-9,19-16,18-23,20-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37396.42">5911 836,'16'1,"1"-1,-1 1,0 1,1 1,0 1,-2 0,1 1,0-1,-1 2,0 1,0 1,15 8,3 5,0 1,-1 1,-2 2,-1 1,0 0,-2 2,-2 1,-1 1,-1 1,-3 1,0 0,17 43,-26-54,2 0,0-1,1 0,25 25,-11-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38744.93">6546 658,'161'0,"175"1,-328-1,0 0,0 1,0 0,0 0,1 1,-2 0,1 0,0 1,-1 0,1 0,0 1,-2-1,1 1,-1 0,2 1,-2 0,0 0,-1 0,2 1,-2 0,-1-1,1 1,-1 1,1-1,-1 1,-1 0,0 0,0-1,-1 2,0 0,0-2,1 2,-1 10,3 16,-2-1,-1 1,-2-1,-1 1,-2-1,-1 1,-13 46,14-72,0-2,0 1,-2 1,1-2,0 1,0 0,-1-1,0-1,-8 9,10-12,0 1,0-1,-2 0,2 1,-1-1,1 0,-1 0,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,0 0,-6-1,6 0,2 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 1,0-2,1 1,-1-1,1 1,0-1,0 0,-1 1,2-1,-1 1,0-1,0 0,1 1,0-5,-3-3,2-1,0 1,1-2,0 2,3-19,-1 26,-2 0,2-1,-1 1,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 1,1 0,-1 0,2 0,-2-1,1 1,0 0,0 1,0-1,0 0,0 1,1 0,0-1,-1 1,0 1,1 0,-1-1,1 1,0 0,6 0,13 0,0 1,-1 0,43 9,-36-4,-18-5,1 2,-1-2,0 2,0 1,0 0,-1 1,0 0,1-1,-2 2,12 8,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39417.24">7788 962,'4'0,"2"9,6 11,3 20,5 11,4 15,-2 0,-5 2,-6-7,-4-5,1-7,-1-8,-1-7,-3-5,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39965.24">7788 1393,'4'0,"7"0,6 0,5 0,3 0,7 0,3 0,4 0,5 0,20 0,2 0,-5 0,-8 0,-9 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41354.58">8671 1038,'3'-1,"1"-2,0 1,-1 0,1-1,0 1,-1 1,2-1,-1 1,0-1,0 1,0 0,9 0,58-1,-45 2,-8-1,-1 0,2 1,-1 0,1 1,33 6,-47-6,-1 0,1 1,-1-1,1 1,-1 0,0 1,0-1,0 1,1-2,-2 2,1 0,-1 1,0-1,0 1,0-1,0 0,0 1,0 0,-1 0,0 0,0 0,-1 0,3 8,-1 0,0 2,1-1,-3 1,1-1,-2 1,0 0,-1-1,-5 24,4-27,-1-1,0-1,0 1,-1-1,0 0,-1 1,0-2,-1 1,1 0,-2-1,1 0,-1 0,-14 10,16-13,-25 21,30-25,-1 1,1-1,-2 1,2-1,0 0,-1 1,1-1,0 0,-1 0,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,1 1,-1-1,0 0,2 1,-2-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 0,13 4,1 2,-1 0,-1 0,25 15,-34-18,0 0,0 1,0 0,0 0,-1 0,0-1,0 2,0-1,-1 1,0 0,0-1,0 0,0 1,0 0,-1 0,0 0,0 8,0-8,0-2,0 2,-1 0,0 0,0 0,-1-1,1 1,-1 0,0-1,0 1,0-1,-2 0,1 1,0 0,0-1,0-1,-1 1,0 0,0 0,0 0,-1 0,1-2,-1 2,0-1,0 0,0 0,-1 0,1-1,0 0,-1 0,-8 2,-19 10,0-3,-41 10,59-17,2-2,-2 1,0-2,1 1,-1-2,1 0,-1 0,-23-5,17-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42545.15">9251 911,'6'-3,"0"0,0 1,0-1,1 1,-1 0,0 0,0 0,2 1,-2 0,1 0,0 1,-1 0,12 1,0-2,325-2,-336 3,1 1,1 0,-2 0,1 0,0 1,0 0,-1 0,0 1,1 0,10 5,-14-5,0 0,0 1,0-1,-1 0,0 1,2 0,-2 0,0 0,-1 1,1-2,-1 2,0 0,0 0,-1 0,2-1,-1 8,1-3,-1 2,-1-1,0 1,-1-1,0 0,0 1,-1-1,-1 0,0 0,0 1,-2-2,1 1,-1-1,-8 17,3-14,0 0,1-1,-3 0,1 0,-1-2,0 2,-1-2,0-1,-1 1,-17 8,-10 4,-1-1,-2-1,0-2,-72 18,87-35,28 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-2,1 0,0 0,0-1,0 0,0 0,0 1,1-1,-1 1,1-1,0 2,0-2,1 1,-1 0,0 0,3-2,8-6,1-1,0 2,0 0,2 0,-2 2,3 0,-1 0,1 1,-1 2,1-1,20-2,-25 5,0 1,1 1,-1 0,1 0,-2 1,2 1,0 0,-2 1,2 0,-2 0,0 2,1-2,-1 2,0 1,-1 0,18 11,7 11,-8-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22191,15 +23251,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1156 1403,'-147'-2,"34"-1,-121 13,223-9,0 1,0 0,0 0,0 1,1 0,-1 1,1 0,-17 11,24-13,0 0,1 0,-1 0,1 0,0 0,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,-1-1,1 2,0-1,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,0 1,0-1,1-1,-1 1,3 5,1 0,0 0,1 0,0 0,0-1,0 0,1 0,0-1,0 1,1-2,0 1,13 7,13 4,59 22,-12-6,-62-24,-6-3,1 1,-1 0,0 0,-1 1,16 14,-26-20,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,0-1,0 1,-1 0,1-1,-1 1,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,0 0,-2 4,0 0,0 0,0-1,-1 1,-1-1,1 1,-1-1,0-1,-1 1,1-1,-1 0,-1 0,-11 9,6-8,1 0,-1-1,-1-1,1 0,0 0,-1-1,-19 3,-15-1,1-2,-1-3,-77-6,108 4,-45-3,-1-3,1-2,0-3,-93-32,143 40,1 0,0-1,0-1,-18-12,7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="763">1579 1270,'0'5,"0"19,0 42,0 18,0 9,0 1,0-9,0-16,0-11,0-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1151.99">1579 926</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2194.81">1791 1508,'0'29,"-1"-1,-1 1,-2-1,0 0,-2 0,-19 53,12-59,13-22,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,-1-1,1 1,0-1,-2-6,0 0,0 0,1-1,0 1,0-9,0-17,2 0,1 0,1 0,2 0,1 0,2 1,18-49,-19 60,2 0,0 1,2 1,0 0,1 0,1 1,0 0,2 1,0 1,0 1,2 0,26-19,-31 28,1 1,-1 1,0 0,1 0,0 1,0 1,0 0,0 1,0 1,0 0,1 0,-1 1,24 6,-31-5,-1-1,0 2,0-1,-1 0,1 1,0 0,-1 0,0 0,1 0,-1 1,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,-1 1,3 8,2 12,-2 0,0 0,0 38,-4-61,-3 419,-17-285,17-114</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3345.83">3140 582,'-4'1,"1"-1,0 0,0 1,0-1,0 1,0 0,0 0,0 1,0-1,0 0,0 1,0 0,1 0,-1-1,1 2,-1-1,1 0,-4 5,-2 4,1 0,0 1,-8 16,1 1,-62 113,7 3,6 3,-65 231,121-352,0 1,2 0,2 0,0 0,2 1,1-1,1 0,1 0,8 37,-6-50,0 1,1-1,1 0,0 0,1-1,0 0,1 0,1-1,0 0,1 0,0-1,1 0,0-1,1-1,0 1,1-2,27 16,-32-20,0-1,-1 0,1-1,1 0,-1 0,0-1,1 0,-1 0,1-1,12 0,-15-2,0 1,0-2,-1 1,1-1,-1 0,1 0,-1 0,0-1,0 0,0 0,0 0,-1 0,1-1,-1 0,0 0,0 0,4-6,147-183,23-27,-158 198,-3 3,-1 0,16-24,-27 36,-1-1,0 0,0-1,-1 1,0-1,0 1,-1-1,0 0,1-14,-3-331,-4 157,4 179,-1 0,0 0,-2 0,0 0,-9-26,9 36,0-1,-1 1,0-1,0 1,-1 0,0 1,0-1,-1 1,0 0,0 0,-1 1,-13-10,13 12,0 0,0 1,-1 0,0 1,1 0,-1 0,0 0,0 1,0 0,-14 1,-86 7,94-6,8 1,-1-1,1 1,-1 0,1 0,0 1,0-1,0 2,0-1,1 0,-1 1,1 0,0 1,0-1,1 1,-9 10,-17 22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3910.81">2558 1376,'13'0,"10"0,13 0,11 0,6 0,2 0,6 0,2 0,12 0,3 0,-8 0,-11 0,-11 0,-10 0,-6 0,-4 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5689.81">4278 0,'33'110,"32"186,-11 117,-36-255,54 594,-53-571,-15-314,-5 105,0-29,-2-1,-3 1,-13-59,18 113,0-1,0 0,0 1,-1-1,0 1,1 0,-1 0,0-1,-1 1,1 0,0 1,-1-1,0 0,0 1,1-1,-1 1,-1 0,1 0,0 0,0 1,-1-1,1 1,-1-1,0 1,1 0,-5 0,-8-1,0 2,0-1,0 2,-31 5,16-2,6-1,0 2,0 2,1 0,0 1,1 1,-1 1,2 2,-23 14,11-4,1 2,1 1,1 1,-36 41,59-59,1 1,1 0,0 0,0 0,0 1,1 0,1 0,0 1,0-1,1 1,0-1,1 1,1 0,-2 12,3-17,0 1,1 0,0-1,0 1,0-1,0 0,1 1,0-1,1 0,-1 0,1 0,0 0,1-1,-1 1,1-1,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,1-1,11 7,4 0,0 0,1-2,45 12,-60-18,1 0,0-1,-1 0,1-1,0 1,-1-1,1-1,0 0,-1 0,1 0,0-1,-1 0,0 0,1-1,-1 0,7-4,2-5,-1-1,-1 0,0 0,-1-2,0 0,-1 0,-1-1,-1 0,0-1,-1 0,0-1,-2 0,0 0,-1-1,-1 1,-1-1,0-1,-2 1,0 0,-1-26,-2 22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7222.09">4993 1085,'-2'13,"1"0,-2 0,1 0,-2 0,-9 24,-4 11,-21 103,7 2,-14 184,43-310,-1-8,1 1,2 1,0-1,4 30,-4-46,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0 0,1-1,-1 0,1 0,0 1,0-1,0-1,0 1,0 0,1-1,-1 0,1 0,0 0,-1 0,1 0,0-1,0 0,6 2,5-1,0-1,0 0,0-1,0 0,0-1,0-1,-1 0,1-1,0-1,16-6,-4 0,-1-2,-1 0,0-2,35-24,-52 31,1 0,-2-1,1 0,-1 0,0-1,0 0,-1 0,8-16,3-11,13-41,12-25,-21 62,1 0,18-48,-35 72,0 0,0 0,-2-1,0 1,-1-1,1-27,-3 30,-1 1,0-1,0 0,-2 1,1-1,-9-22,8 30,0 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,0 1,0-1,0 1,-1 0,0 0,1 1,-12-5,-27-10,-1 2,0 2,-1 2,-1 3,0 1,0 2,-63 1,80 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7962.14">4860 1403,'0'1,"0"0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,-1 1,3-1,27 5,-26-4,66 4,134-5,30 1,-207 2,0 0,0 2,36 12,-43-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1209 1347,'-154'-1,"36"-2,-127 12,234-8,-1 1,1 0,-1 0,1 1,0 0,0 1,0-1,-17 12,25-13,0 0,1 0,-2 0,2-1,0 1,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,-1-2,1 3,0-1,-1 0,2 0,-1 0,1 0,-1 1,1-2,0 1,0 0,0 1,1-1,-1 0,1 0,1 0,-1-1,0 2,0-1,1-1,-1 1,3 5,1-1,0 1,2 0,-1-1,0 0,1 0,0 0,0-2,0 2,2-2,-1 1,14 6,14 4,61 22,-12-6,-66-24,-5-2,1 1,-2-1,1 1,-2 1,18 13,-28-19,1 1,-1 0,1 0,-1-1,0 1,0 0,1 0,-1 0,-1 1,1-1,-1 1,0-1,0 0,0 1,-1 0,1-1,-1 1,0-1,0 1,0-1,-1 1,1 0,-1-1,0 1,0-1,-2 5,0 0,-1 0,1-2,-1 2,-1-1,1 0,-2 0,1-1,-1 1,1-2,-2 1,0 0,-12 8,7-7,0 0,0-2,-2 0,2 0,-1 0,-1-1,-19 2,-16 0,1-2,-1-3,-81-6,113 4,-47-3,0-2,0-3,0-3,-97-30,150 38,0 1,1-2,-1-1,-18-11,7-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="763">1651 1220,'0'5,"0"18,0 40,0 18,0 8,0 1,0-8,0-16,0-10,0-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1151.99">1651 889</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2194.81">1872 1448,'0'28,"-1"-1,-1 1,-2-1,0 0,-2 0,-21 50,14-56,13-21,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,-2-1,2 1,0-1,-2-6,0 0,0 1,1-2,0 1,0-8,0-17,2 0,1 1,1-1,3 0,0 1,2 0,19-47,-19 58,1 0,0 1,3 0,-1 1,2 0,1 0,-1 1,3 1,0 1,-1 0,3 1,27-19,-32 27,0 1,0 2,-1-1,2 0,-1 1,1 1,0 0,-1 1,1 1,-1 0,2 0,-1 1,24 6,-31-5,-2-1,0 2,0-1,-1 0,2 0,-1 1,-1 0,0 0,1 0,0 1,-1 0,-1-1,1 1,-1 0,0 1,1-1,-1 1,-1-1,1 0,-1 1,0 0,-1 1,3 7,3 12,-3 0,0 0,0 36,-4-58,-3 403,-18-275,18-109</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3345.83">3283 559,'-4'1,"0"-1,1 0,0 1,0-1,0 1,0 0,0 0,-1 1,1-1,0 0,0 1,0-1,1 1,-1-1,1 2,-2-1,2 0,-4 5,-2 3,0 1,1 0,-9 16,2 1,-66 109,8 2,6 3,-67 222,125-338,1 1,2 0,2 0,-1-1,3 2,1-1,1 0,1 0,9 35,-7-47,0 0,2 0,0-1,0 0,1 0,1-1,0 1,1-2,1 1,0-1,1 0,0-1,1 0,0-2,1 2,0-2,29 15,-33-20,-1 0,-1 0,2-1,0 0,-1 0,1-1,0 0,0 0,0-2,13 1,-16-2,1 1,-1-1,-1 0,1-1,0 0,0 0,-1 0,0-1,0 0,1 0,-1 0,-1 1,1-2,0 0,-1 0,0 0,4-5,154-177,24-25,-165 190,-3 3,-1-1,16-22,-28 34,0 0,-1-1,0-1,-1 2,0-2,0 1,0 0,-1-1,1-13,-3-318,-4 151,4 171,-1 1,-1 0,-1 0,0-1,-9-24,9 34,-1 0,0 0,0-1,0 2,-1-1,-1 1,1 0,-1 0,0 0,-1 0,0 2,-14-11,14 12,-1 1,1 0,-1 0,-1 1,2 0,-1 0,-1 0,1 1,0 0,-15 1,-90 7,98-6,9 1,-1-1,0 1,0 0,1 0,-1 0,1 0,0 2,0-1,0 0,0 1,1 0,0 0,-1 0,2 1,-9 9,-19 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3910.81">2674 1322,'14'0,"10"0,14 0,11 0,6 0,3 0,5 0,3 0,13 0,2 0,-8 0,-11 0,-12 0,-10 0,-7 0,-3 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5689.81">4473 0,'34'106,"34"178,-12 113,-37-246,57 572,-57-550,-14-300,-6 100,-1-28,-1-1,-3 2,-14-58,19 109,0-1,0 1,0 0,-1-1,0 1,1 0,-1 0,0-1,-2 2,2-1,0 1,-1-1,0 0,0 1,1-1,-1 1,-2 0,2 0,0 0,0 2,-1-2,1 1,-1-1,-1 1,2 0,-5 0,-9-1,0 2,1-1,-1 2,-32 5,16-2,7-2,0 3,0 2,1 0,0 0,1 2,-1 1,2 1,-24 14,11-4,2 2,0 1,2 1,-38 40,61-58,2 2,1 0,-1-1,1 1,0 0,1 1,1 0,-1 0,1 0,1 0,0 0,1 1,1-1,-2 12,3-16,0 1,1-1,0 0,0 1,0-1,0-1,1 2,0-1,1 0,-1-1,1 1,1 0,0-1,-1 1,1-2,0 1,1 0,0 0,0-1,0 0,0 0,1 0,0-1,12 7,4-1,-1 1,2-3,48 13,-64-18,1-1,1 0,-2 0,1-1,1 1,-2-1,1-1,1 0,-2 0,1 1,1-2,-2 0,0 0,2-1,-2 0,8-4,1-4,0-2,-1 1,-1-1,0-1,0-1,-2 1,0-1,-2-1,0 0,0 0,-1-2,-1 1,-1 0,-1-1,-1 0,0 0,-1-1,-2 1,0-1,-1-24,-2 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7222.09">5220 1042,'-2'13,"1"-1,-2 1,1-1,-3 0,-8 24,-5 10,-22 99,8 2,-15 177,45-298,-1-8,1 1,2 1,0 0,4 28,-4-45,1 1,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 1,0 0,2-1,-2 0,1-1,0 2,0-1,0-1,0 1,1 0,0-1,-1 0,1 0,0 0,-1-1,2 1,-1-1,0 0,6 2,6-1,0-1,-1 0,1-1,0 0,-1-1,1-1,-1 0,0-1,1 0,17-7,-5 0,-1-1,-1-1,0-1,37-24,-55 31,2-1,-3-1,1 1,0-1,-1-1,0 1,0-1,7-15,4-11,13-39,13-24,-22 60,1 0,19-47,-37 70,1-1,-1 1,-2-1,0 0,-1 0,1-26,-3 28,-1 2,0-2,0 1,-2 0,1 0,-10-22,9 30,0-1,0 0,-1 0,0 1,-1 0,1-1,0 1,-1 0,0 2,-1-2,1 1,-1 0,0 0,0 1,-11-4,-29-11,-1 3,0 2,-2 1,0 3,0 2,0 1,-66 1,84 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7962.14">5081 1347,'0'1,"0"0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,-1 1,1-1,1 0,-1 1,0-1,0 0,0 0,-1 1,3-1,28 5,-27-4,70 3,139-4,31 1,-215 2,-1 0,0 2,38 11,-45-8</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22253,17 +23313,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1439 386,'0'-19,"1"-13,-2 0,0 0,-3 0,-13-61,15 85,-1 1,0-1,0 1,0 0,-1 0,0 0,-1 0,1 1,-1 0,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 1,0 0,0 0,0 0,0 1,-1 0,1 1,-1-1,0 2,-9-2,13 2,-20-3,1 1,-31-1,45 5,-1-1,1 2,0-1,-1 1,1 1,0 0,0 0,-15 8,9-3,0 0,1 0,0 2,0-1,1 2,0 0,1 1,1 0,-1 0,2 1,0 1,1 0,0 0,1 1,0 0,-9 29,2 8,2 1,3 0,-7 105,17 168,3-147,11 97,0 5,5 543,-12-275,-8-334,1-208,0 0,0 0,-1 0,0 0,0 0,-1 0,-3 10,4-14,-1-1,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0 0,-5 0,-37 3,-1-1,-75-7,45 1,46 3,1-2,0-1,1-1,-1-1,1-2,0-1,0-1,1-1,-31-17,25 11,1-2,1-1,-49-40,78 58,1 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,3-2,2-4,1 0,-1 1,2-1,9-8,-12 12,46-44,2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="967.88">2577 729,'0'-14,"0"-1,1 0,1 0,1 1,0-1,1 1,0 0,1 0,1 0,0 0,1 1,0 0,1 1,1 0,0 0,0 0,1 1,22-19,-25 27,-1-1,1 1,-1 0,1 1,0-1,0 1,0 1,1-1,-1 1,0 1,10-1,84 6,-87-3,-3 0,0 0,-1 1,1 0,-1 1,0 0,0 0,0 1,0 1,-1 0,0 0,11 10,13 14,44 50,-48-48,169 200,-194-229,-1 1,1 0,0-1,-1 0,2 0,-1 0,0 0,0-1,1 0,8 4,8-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1704.88">3503 227,'-8'1,"1"0,0 0,-1 0,1 1,0 0,0 1,0 0,1 0,-1 0,1 1,-1-1,1 2,0-1,1 1,-9 7,-7 11,0 0,-24 37,12-15,-13 13,-165 194,111-136,87-99</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2705.89">1518 1444,'258'-12,"-60"0,-74 10,-36 3,0-5,88-15,706-70,-434 57,1063-124,-1193 125,423 14,-712 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4907.05">2603 2079,'-7'3,"1"0,0 0,0 1,0-1,1 1,-1 0,1 1,0-1,-8 10,-40 58,19-25,12-21,9-7,-2 0,0-2,-1 1,-1-2,0 0,-1-1,-1-1,-32 18,-152 73,174-90</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5479.23">2127 2185,'9'0,"12"0,11 0,5 0,1 5,7 10,5 11,-2 7,5 14,-2 10,-6-2,-5 0,-5-10,-9-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6608.23">3000 1947,'-1'-5,"1"-1,0 1,1-1,-1 1,1-1,0 1,1 0,-1-1,1 1,0 0,0 0,1 0,0 0,0 1,0-1,0 1,0-1,1 1,0 0,0 1,0-1,0 1,1-1,0 1,-1 0,1 1,0-1,0 1,0 0,1 1,-1-1,0 1,1 0,-1 0,1 0,6 1,-9 0,15-2,0 0,0 2,1 0,22 3,-38-2,1-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 1,0-1,0 0,0 1,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,1 5,0-1,0 1,-1 0,0-1,-1 1,0 0,0 0,-1 0,0-1,-4 15,4-19,0-1,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 0,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-5-1,-51-2,19 0,33 3,12 3,187 79,-150-54,-28-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8137.79">4032 2079,'-3'1,"1"-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 0,1 1,-1-1,1 4,-3 13,1 1,0 33,2-44,3 339,-3-326</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8889.85">3662 2555,'0'-4,"4"-2,6 1,11 0,6 2,2 1,6 1,6 0,5 1,-1 0,-3 1,-1-1,-2 0,-3 0,-4 0,3 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10174.36">4614 2105,'130'-2,"140"5,-268-3,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,-1-1,1 2,0-1,0 0,-1 0,1 0,0 1,-1-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-2 3,-1 3,1-1,-2 0,1 0,0 0,-1-1,-1 1,1-1,-1 0,0 0,0 0,-9 6,0-2,10-7,0-1,1 0,-1 1,1 0,0-1,0 1,-5 6,8-8,-1 0,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1 0,22 17,0 2,31 32,-47-43,-1 0,0 1,-1 0,0 0,0 0,-1 1,-1 0,0 0,5 20,-4-5,-1 0,-1 0,-2 52,-1-62,-1 0,-1 0,-1 0,0-1,-1 1,-1-1,-11 25,12-34,-1 1,0-1,0 1,-1-2,1 1,-1 0,-1-1,1 0,-1-1,0 0,0 0,0 0,0-1,-1 1,1-2,-1 1,0-1,0-1,0 1,0-1,0-1,0 1,0-2,0 1,0-1,0 0,0 0,0-1,0 0,1-1,-1 0,-8-4,-1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11765.51">5381 1814,'8'0,"1"-2,-1 1,1-1,12-4,26-6,-35 11,4-2,0 2,0 0,0 1,1 0,-1 1,27 6,-40-6,-1 1,1-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 6,1 10,0 0,-3 29,1-30,0-3,-1 0,0 0,-1-1,-1 1,0-1,-1 1,-1-1,0 0,-1 0,-8 14,10-22,0 1,0-1,-1-1,0 1,0-1,0 0,-1 0,1 0,-1-1,-1 0,1 0,0 0,-1-1,0 0,0-1,0 1,0-1,0 0,0-1,0 0,-1 0,-9 0,12-1,-10 0,1 0,0-1,-20-4,32 5,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,0-2,0 2,1 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 1,0 0,2-1,50-4,-49 4,22 0,82 2,-99 0,-1 0,1 1,-1 0,1 0,-1 1,0 0,0 1,16 9,-11-5,-1 0,0 1,0 1,-1 0,-1 1,0 0,0 1,13 18,-14-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1496 371,'0'-18,"1"-13,-2 0,0 1,-3-1,-14-59,16 83,-1 0,0-1,0 2,0-1,-1 0,0 0,-2 1,2 0,-1 0,-1 0,1 1,-2-1,1 1,0 0,0 0,-2 2,1-1,0 0,-1 0,1 1,-1 0,1 1,-2-1,1 2,-10-1,14 1,-21-3,1 1,-32-1,47 5,-2-1,2 2,0-1,-2 1,2 1,-1 0,1-1,-16 9,10-3,-1-1,1 1,1 2,-1-2,2 3,-1 0,2 0,0 1,0-1,1 2,1 0,1 1,-1-1,2 1,0 1,-10 27,2 8,3 1,3 0,-8 101,18 162,3-142,12 93,-1 5,6 523,-13-265,-8-322,1-199,0 0,0-1,-1 1,0 0,0 0,-1-1,-3 11,4-14,-1-1,1 0,-2 0,1 0,0 1,0-1,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,0-1,0 0,1-1,-1 1,0 0,0 0,0 0,-6 0,-37 3,-2-1,-78-7,47 1,48 3,1-2,0-1,0 0,0-2,1-2,0-1,0 0,1-2,-32-16,25 11,2-3,1 0,-51-39,80 57,2-1,0-1,0 1,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,0 1,0 0,0-1,0 0,0 1,0-1,0 0,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,3-1,2-5,2 0,-2 1,2 0,10-9,-13 12,48-42,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="967.88">2680 701,'0'-13,"0"-2,1 1,1-1,1 2,0-2,1 2,0-1,1 1,2 0,-1-1,1 2,0-1,2 2,0-1,1 0,-1 1,1 0,24-18,-27 27,-1-2,1 1,0 0,0 1,0-1,0 1,1 1,0-1,-1 1,1 1,9-1,88 6,-90-3,-4 0,1 0,-2 1,2 0,-2 1,0-1,1 1,-1 1,1 1,-2 0,0-1,12 11,13 13,46 48,-49-47,174 193,-200-220,-2 1,1 0,0-1,-1 0,2 0,0 0,-1-1,0 0,1 0,9 4,7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1704.88">3642 218,'-8'1,"1"0,0 0,-2 0,2 1,0 0,-1 1,1 0,1 0,-1 0,0 0,0 0,1 2,0-1,0 1,-8 6,-8 11,0 0,-25 36,13-15,-14 13,-171 187,115-132,90-95</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2705.89">1578 1389,'269'-12,"-63"0,-78 11,-36 2,0-5,91-15,734-66,-452 54,1107-119,-1242 120,441 14,-741 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4907.05">2707 1999,'-8'3,"2"0,0 0,0 1,-1-1,2 0,-1 1,1 1,0-1,-9 9,-41 57,20-25,12-20,9-7,-1 0,-1-1,-1 0,0-2,-1 1,-1-2,0 0,-35 16,-157 71,181-86</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5479.23">2212 2101,'9'0,"13"0,11 0,6 0,0 5,8 9,5 11,-2 7,5 13,-2 10,-6-2,-6 0,-4-10,-10-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6608.23">3119 1872,'-1'-5,"1"0,0 0,1-1,-1 1,1-1,0 2,2-1,-2-1,1 1,0 0,0 1,1-1,0 0,0 1,0-1,0 2,1-2,0 1,0 0,0 1,0-1,0 1,2 0,-1 0,-1 0,1 1,0-1,1 1,-1 0,1 1,-1-1,0 1,2 0,-2 0,1 0,7 1,-10 0,15-1,1-1,0 2,1 0,22 2,-39-1,1-1,1 1,-2 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 1,0-1,0 0,0 1,-1-2,0 2,2 0,-2 0,0 0,0 0,0 0,-1 1,1-2,-1 1,0 1,1 5,0-1,0 0,-1 1,0-1,-1 0,0 1,0 0,-1-1,0 0,-4 14,4-18,0-1,-1 0,1-1,-1 1,0 0,0-1,0 1,-1 0,0-1,1 1,-1-1,1 0,-1 0,0-1,0 1,0 0,-1-1,1 0,0 1,0-1,0 0,-1 0,1-1,0 1,-2-1,2 1,-5-1,-53-2,19 0,35 3,12 3,195 76,-157-52,-28-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8137.79">4193 1999,'-4'1,"2"-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,-1 1,0-1,1 1,0-1,1 1,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,1-2,-1 1,1 1,-1-1,1 4,-4 12,2 1,0 32,2-42,3 326,-3-314</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8889.84">3808 2457,'0'-4,"4"-2,6 1,12 1,6 1,2 1,7 1,5 0,6 1,-1 0,-3 1,-2-1,-1 0,-4 0,-3 0,2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10174.35">4798 2024,'135'-2,"146"5,-279-3,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,1 0,-1 0,-1-1,1 2,0-1,0 0,-1 0,1 0,0 1,-1-1,1 1,-1-2,0 2,0 0,1-1,-1 1,0 0,1 0,-1 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-2 3,-2 2,2 0,-2 0,1-1,0 1,-1-1,-1 1,0-2,0 1,0 0,0 0,-10 5,1-1,10-7,-1-1,2 0,-1 0,1 1,0-1,0 1,-6 6,9-8,-1 0,1 0,-1 0,1 0,0 1,0-1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,2 0,-1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,23 18,0 1,32 31,-49-41,0-1,-1 2,-1 0,0-1,1 1,-2 0,-1 1,0 0,6 18,-5-4,-1 0,-1 0,-2 50,-1-59,-1-1,-1 1,-1-1,0-1,-1 2,-2-2,-10 25,12-34,-2 2,1-1,0 1,-1-3,1 2,-2 0,0-1,1 0,-2-2,1 1,0 0,0 0,-1-1,0 1,1-2,-2 0,1 0,0-1,-1 1,1-1,0-1,0 1,-1-2,1 1,0-1,-1 0,1 0,0-1,-1 1,2-2,-1 0,-9-4,-1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11765.51">5595 1744,'9'0,"0"-2,-1 1,2 0,11-5,28-6,-36 11,3-2,1 2,0 0,-1 1,2 0,-1 1,27 6,-41-6,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,1-1,-2 1,1 0,-1-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 6,1 9,0 0,-3 28,1-28,0-4,-1 1,0-1,-1 0,-1 0,0-1,-2 2,0-2,0 1,-1-1,-9 14,11-21,0 1,0-2,-1 0,-1 1,1-1,0 0,-1-1,1 1,-2-1,0 0,1 0,0 0,-2-1,1-1,0 0,-1 1,1-1,0 0,0-1,-1 0,0 0,-10 0,13-1,-10 0,0 0,0-1,-20-4,33 5,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,-1 1,1-1,0 0,1 0,-1 0,1 0,-1 0,0 1,1-2,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,1 0,-1 1,1-1,-1 1,1-1,0 0,0-2,0 2,1 1,0-1,-1 0,1 1,1-1,-1 1,0-1,0 1,0-1,0 2,0-1,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 1,-1-1,2 1,-1 0,2-1,52-4,-51 4,23 0,86 2,-104 0,-1 0,2 1,-2 0,1 0,0 1,-1 0,1 1,16 8,-12-4,0-1,-1 2,1 1,-2-1,0 2,-1-1,0 2,14 17,-14-11</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22290,8 +23350,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">216 0,'-4'103,"-5"0,-4-1,-35 135,31-145,-7 136,17-132,-25 120,11-117,4 1,5 0,0 111,32 384,-12-519,4-1,3 0,3-1,3-1,57 128,-51-143,4-2,1-2,46 59,-52-83</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="853.94">401 1455,'4'0,"6"0,7 0,8 0,9 0,9 0,0 0,-2 0,1 0,-2 0,1 0,-2 0,-7 5,-6 1,-1 0,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">237 0,'-5'99,"-5"0,-4-1,-38 129,33-139,-7 131,18-127,-27 116,12-113,4 1,6 0,0 106,35 370,-13-500,4 0,3 0,4-1,3 0,62 122,-55-138,4-1,1-2,50 56,-56-79</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="853.94">439 1397,'5'0,"5"0,9 0,8 0,11 0,9 0,0 0,-2 0,1 0,-2 0,0 0,-1 0,-8 4,-6 2,-2 0,-6-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22318,7 +23378,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'350'14,"-3"-1,356-15,422 5,-730 22,13 0,207-20,242 7,663 1,-924-16,-550 8,-25 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'367'14,"-3"-1,373-15,443 5,-766 22,14 0,217-20,254 7,695 1,-969-16,-577 8,-26 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22345,21 +23405,21 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">504 619,'0'1,"1"-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,-1-1,1 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 1,4 30,-3-25,1 17,-1 0,-1 0,-1 1,-1-1,-2 0,0 0,-1-1,-10 27,4-21,-1-1,-2 0,-1-1,-1 0,-1-2,-21 24,-17 13,-111 95,149-142</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="762.77">1 778,'4'-4,"7"-2,5 0,9 1,5 6,7 3,5 10,5 11,8 24,-1 9,-1 2,-4-3,-7-3,-10-7,-2-6,4-1,0 2,-6-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1930.16">821 460,'0'-3,"0"-1,0 0,1 0,-1 1,1-1,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,0 0,0-1,0 2,5-6,-1 3,-1 1,0 0,1 0,0 0,0 1,0 0,1 0,11-3,-5 2,1 1,-1 1,1 0,0 1,0 0,0 1,0 1,23 3,-33-2,-1-1,1 1,-1 0,0 0,1 0,-1 1,0-1,0 1,-1 0,1 0,0 0,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,0 0,0 0,-1 0,0 0,1 3,0 6,0 0,-1 0,0 0,-1 0,0-1,-6 24,3-25,0-1,-1 1,0-1,-1-1,0 1,0-1,-1 0,0 0,-1-1,0 0,0 0,-1-1,0 0,0 0,-1-1,1 0,-15 5,23-10,-1-1,1 1,-1-1,0 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1-1,-1 0,1-6,16-3,-3 6,0 1,0 0,0 0,0 1,0 1,1 0,-1 0,1 1,-1 1,0 0,1 0,18 6,-8-1,-1 0,0 2,-1 1,1 0,29 19,2 17,-35-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2461.16">1747 751,'0'9,"0"26,0 24,0 30,0 17,0 14,0 3,0 5,0-12,0-20,0-22,0-20,0-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2992.16">1377 1227,'18'0,"15"0,15 0,18 0,10 0,3 0,-9 0,-7 0,-9 0,-10 5,-8 1,-5 0,-4-1,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3991.16">2382 540,'94'-2,"-49"0,1 1,-1 3,47 7,-87-8,0 0,0 0,0 0,0 1,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,-1 0,0 0,0 0,0 0,0 0,0 1,-1-1,0 1,1-1,-2 1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,0 8,-1 0,0 0,-1 0,0-1,0 1,-2-1,0 1,0-1,-1 0,0 0,-1-1,-12 18,-21 15,30-34,-1 0,2 0,-11 15,19-23,-1-1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 1,0-1,0 0,-1 1,1-1,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,1 0,7 3,1 0,0-1,1 0,11 2,-3-1,5 2,-2 1,1 1,-1 1,0 1,36 23,-51-28,-1 0,0 0,0 1,0 0,-1 0,0 1,0 0,0 0,-1 0,0 1,0 0,-1 0,0 0,-1 0,0 0,0 1,0 0,-1-1,1 12,-3-11,2 11,0 0,-2 0,-3 28,2-43,1 0,-1 0,-1 0,1 0,-1 0,0 0,0-1,-1 1,1 0,-1-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,-5 4,-7 2,-1-1,-1 0,1-1,-1-1,0-1,0 0,-1-1,-34 2,-2-3,-99-8,147 4,-1 0,1 0,0-1,-1 0,1 0,0-1,0 0,0 0,1 0,-1-1,1 0,0-1,0 1,0-1,0 0,1-1,0 1,0-1,-6-10,-37-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5082.95">2991 301,'7'-6,"0"0,1 1,0 0,0 0,1 0,-1 1,1 1,0-1,15-3,86-12,-107 18,110-8,151 7,-198 3,-59-1,-1 0,0 0,0 1,0 0,0 0,0 0,0 1,-1 0,1 0,0 0,-1 1,11 6,-13-6,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,0-1,-1 1,1-1,-1 8,-1 0,0 0,0 0,-2 0,1 0,-1-1,-1 1,0-1,-1 0,0 0,-1 0,0-1,0 0,-1 0,0 0,-11 9,-1 2,-2-1,0-1,-1-1,-1-1,-34 19,44-30,-1 0,0-1,-1 0,1-1,-1-1,1-1,-1 0,0 0,0-2,0 0,0 0,-18-4,137 11,-80-2,0 0,-1 2,1 1,-1 0,-1 2,36 21,-41-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6978.81">3785 1333,'3'2,"0"-1,0 1,1 0,-1 0,0 0,-1 0,1 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,2 5,-3-6,8 15,-1 1,-1 1,0 0,-2 0,7 36,6 23,-18-78,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,4-18,0-32,9-83,6 2,65-232,-26 181,110-237,-147 369,3 0,2 2,40-56,-63 99,1 0,-1 0,0 0,1 0,0 1,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 1,0 0,0 0,1 1,-1-1,1 1,-1 1,1-1,-1 1,1 0,0 1,-1 0,10 2,389 85,-228-44,402 99,103 24,-208-88,-250-63,246-14,-221-6,-207 3,-29-1,-1 1,1 1,-1 0,0 0,1 2,-1-1,21 7,-30-7,0 2,-1-1,1 0,0 0,-1 1,0 0,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,-1-1,1 1,0 6,0 12,0-1,-2 27,0-29,0 17,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8067.8">5187 751,'0'14,"0"18,0 16,-9 28,-12 10,-3-6,-1-7,-1-16,4-13,1-10,4-6,0-7,4-4,-1-4,-3-4,-2-4,-12-3,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8604.91">4737 936,'4'0,"7"0,5 5,5 6,7 5,4 14,1 15,-1 4,17 22,5 2,-3-2,-1-4,-9-9,-7-9,-9-10,1-6,-6-4,-4-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9823.84">5319 698,'4'0,"0"-1,0 0,0-1,1 1,-1-1,0 0,-1 0,1 0,6-4,21-11,3 9,1 2,-1 1,1 2,0 1,0 2,58 7,-89-6,0-1,0 1,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,5 6,-4-2,0-1,0 0,-1 1,0 0,0 0,-1 0,0 0,0 0,1 13,-2-4,0 0,-1 0,0 0,-2 0,0 0,0 0,-2 0,0 0,-6 15,6-22,-1-1,1 1,-1-1,-1 0,1 0,-2-1,1 1,-1-1,0 0,0-1,-1 0,1 0,-2-1,1 0,0 0,-1-1,0 0,0 0,0-1,-1-1,1 1,-1-1,1-1,-1 0,1 0,-1-1,-19-2,70 2,41-4,52-2,-120 7,1 0,0 1,0 0,-1 1,1 1,21 8,-15-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10347.94">6298 963,'9'0,"3"9,-1 17,-2 17,-2 15,-3 24,-2 12,-1-1,-1-12,0-15,-1-14,1-12,-1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10900.75">5954 1386,'4'0,"11"-4,12-2,6 1,1 0,0 2,-2 1,-1 1,3 0,4 1,5 0,0 1,-3-1,-4 0,-4 0,2 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12001.04">6880 1148,'0'-1,"1"0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1 0,37-4,-34 3,20-1,-4-1,2 1,-1 1,0 1,0 1,36 6,-55-7,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,1-1,-1 2,-1-1,1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,-1 0,1 0,-1-1,0 1,0 0,-1 0,1 0,-1 0,1-1,-2 5,-2 6,0 1,-1-1,0 0,-1-1,0 1,-11 14,15-24,1-1,-1 0,1 1,-1 0,1-1,0 1,0 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,1 1,0 4,1 0,1-1,0 0,0 0,1 0,-1 0,6 5,-5-5,1 1,-1-1,0 1,0 0,-1 0,5 14,-5-9,-1 0,0 0,0 1,-2-1,1 1,-1 0,-1-1,-3 14,4-22,-2 1,1 0,0-1,-1 1,0-1,0 1,0-1,-1 0,0 0,1 0,-1 0,-1 0,1-1,0 1,-1-1,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,-8 2,-3 0,-1-2,0 0,1 0,-1-1,0-1,0-1,1-1,-1 0,1 0,-1-2,1 0,0-1,0 0,-23-12,-8-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13630.08">7277 936,'21'0,"-8"-1,0 1,1 0,-1 1,0 1,0 0,0 0,-1 1,26 10,-6 2,0 2,-1 0,0 3,39 32,-62-45,-1 0,1 1,-2 0,1 0,-1 0,-1 1,1-1,-1 1,4 12,-7-15,0 0,-1 0,0 0,0 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,-1 0,1 0,-1 0,0 0,-5 9,3-8,0 0,-1-1,1 0,-2 0,1 0,0-1,-1 0,0 0,-1 0,1-1,-1 0,1 0,-12 4,7-3,0 0,-1-1,0-1,0 0,0-1,0 0,-23 1,33-3,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0-1,1 1,0 1,0 0,1-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,1-1,-1 1,0 0,1-1,-1 1,1 0,1 0,20-4,1 1,1 1,40 2,-51 1,0 0,1 1,-1 0,0 2,0-1,0 2,20 9,6 17,-22-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">520 590,'0'1,"1"-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,-1-1,1 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,0-1,1 0,-1 1,0 0,0 0,1 0,-1 0,0 1,5 29,-4-25,1 17,-1 0,-1 0,-1 1,-1-1,-3 0,1-1,-1 0,-10 26,3-20,0-2,-2 1,-2-1,0-1,-2-1,-21 23,-18 12,-114 91,153-136</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="762.77">1 742,'4'-4,"7"-2,6 0,9 2,5 5,7 2,5 11,6 10,7 22,0 10,-1 1,-5-3,-6-2,-11-8,-2-5,4 0,0 1,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1930.16">847 438,'0'-2,"0"-2,0 0,1 0,-1 1,1 0,0-1,0 1,1-1,-1 1,1-1,0 2,0-1,1 0,-1-1,0 2,5-6,-1 4,-1 0,0 0,2 0,-1 0,0 2,0-1,1 0,12-3,-6 2,2 1,-2 2,2-1,-1 1,1 0,-1 1,0 1,25 2,-35-1,-1-1,1 1,-1 0,0 0,1 0,-1 1,0-1,1 1,-2-1,1 1,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 1,1 0,-1-1,0 1,0-1,0 1,-1 0,0 0,1 3,0 5,1 0,-2 1,0-1,-2 0,1 0,-6 22,3-23,0-2,-1 2,0-2,-2 0,1 0,0 0,-1 0,0-1,-2 0,1-1,0 1,-1-1,-1-1,1 1,-1-1,0-1,-14 6,23-10,-1-1,1 1,-2-1,1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1-1,-1 0,1-6,16-2,-3 5,1 1,-1 0,0 0,1 1,-1 1,2 1,-2-1,1 1,0 1,-1-1,1 1,19 6,-8-1,-1 0,-1 1,0 2,1-1,29 19,3 16,-37-26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2461.16">1802 716,'0'8,"0"26,0 22,0 29,0 16,0 13,0 4,0 4,0-12,0-18,0-22,0-18,0-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2992.16">1421 1170,'18'0,"16"0,16 0,18 0,10 0,4 0,-10 0,-7 0,-9 0,-11 4,-8 2,-5 0,-4-1,-6-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3991.16">2458 515,'97'-2,"-51"0,2 1,-2 3,49 6,-90-7,0 0,0 0,1 0,-1 1,0 0,-1 0,1 1,-1-1,1 1,0-1,-1 1,0 0,0 0,0 1,-1 0,0 0,0-1,0 1,1 0,-1 1,-1-1,0 0,1 0,-2 1,1 0,-1-1,0 1,0 0,0 0,0-1,-1 1,0 8,-1-1,0 0,-1 1,0-2,0 2,-2-2,0 1,-1 0,0-1,0 1,-1-2,-13 18,-21 14,31-33,-1 1,1-1,-10 15,19-22,-1-1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 1,0-1,0 0,-2 0,2 0,0 0,2 1,-2-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,1 0,8 3,0 0,0-1,2-1,10 3,-2-1,5 2,-2 0,0 2,0 1,0 0,37 23,-53-28,-1 1,0 0,1 1,-1-1,-1 1,0 1,0-1,1 1,-2 0,0 0,0 1,-1 0,0-1,-1 1,0-1,1 2,-1 0,-1-2,1 12,-3-10,2 10,0 0,-2 0,-3 27,2-41,1-1,-1 1,-1 0,1 0,-1-1,0 1,-1-1,0 1,1 0,-1-2,0 1,0 0,0 0,-1 0,1-1,-1 1,-1-1,-4 4,-7 1,-2 0,0 0,0-2,-1 0,1-1,-1 0,0-2,-36 3,-2-3,-102-8,152 4,-1 0,1 0,-1-1,0 0,1 1,0-2,0 0,-1 0,2 0,-1-1,1 1,0-2,-1 1,1-1,0 0,1 0,0 0,-1-1,-5-9,-38-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5082.95">3086 287,'7'-6,"0"0,2 2,-1-1,0 0,2 0,-2 2,1 0,0-1,16-3,89-11,-111 17,113-7,157 6,-205 3,-61-1,-1 0,0 0,1 1,-1 0,0 0,0-1,0 2,-1 0,2 0,-1 0,-1 1,12 6,-14-7,0 2,0-1,0 0,0 1,-1 0,1-2,-1 2,0 0,0 0,0 0,-1 0,2 0,-2 0,0 1,0-1,-1 0,1 0,-1 8,-1-1,0 1,0-1,-3 0,2 1,-1-2,-1 2,0-2,-1 1,0-1,-1 1,-1-2,1 1,-1-1,0 1,-12 8,0 2,-3-1,0-1,-1-1,0 0,-36 17,46-28,-2-1,1 0,-2 0,2-1,-2-2,2 0,-2 0,1 0,-1-2,1 0,-1 0,-18-4,142 11,-84-2,1 0,-1 1,1 2,-2 0,0 1,37 21,-42-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6978.81">3905 1271,'3'2,"0"-1,1 0,0 1,-1 0,0 0,-1 0,1 0,0 1,-1-1,1 1,-1-1,0 1,0 0,1 0,-1 0,2 5,-3-7,8 16,-1 0,-1 1,1 0,-3 0,7 35,7 21,-19-74,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,4-18,0-29,10-80,5 2,68-221,-27 173,113-227,-151 353,3-1,2 2,41-53,-65 94,1 0,-1 1,0-1,2 0,-1 1,0 1,1-1,-1 1,1-1,1 1,-1 0,0 0,0 2,0-1,1 0,0 1,-1-1,1 1,-1 1,2-1,-2 1,1 0,0 1,-1 0,11 2,401 81,-236-42,416 94,106 23,-215-84,-258-59,254-14,-228-6,-214 3,-30-1,0 1,0 1,-1 0,1 0,0 2,0-1,21 6,-31-6,0 2,-1-1,1 0,0 0,-1 1,0 0,1-1,-1 0,0 1,1 0,-2 0,1 0,-1 0,1 1,-1-2,0 1,0 1,-1-1,1 1,0 5,0 12,0-1,-2 26,0-28,0 16,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8067.8">5352 716,'0'13,"0"18,0 15,-9 26,-13 10,-3-6,-1-6,-1-16,5-12,0-10,5-5,-1-7,5-4,-2-3,-2-5,-3-3,-12-3,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8604.91">4887 892,'5'0,"6"0,5 5,6 5,7 6,4 12,1 15,-1 4,18 21,4 1,-2-1,-1-4,-10-9,-7-8,-9-10,1-6,-7-3,-3-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9823.84">5488 665,'4'0,"0"-1,0 0,0 0,2 0,-2-1,0 0,-1 0,1 0,6-4,22-10,4 8,0 3,-1 0,1 2,0 1,0 2,60 7,-92-6,0-1,0 1,2 0,-2 0,0 0,0 1,0-2,0 2,0 0,-1 0,2 1,-2-1,1 1,-1-1,0 1,0-1,5 7,-4-2,1-2,-1 1,-1 1,0-1,0 1,-1 0,0 0,0-1,1 13,-2-4,0 1,-1-1,0 0,-2 1,0-1,0 0,-2 0,0 1,-6 13,5-20,0-2,1 2,-1-2,-1 1,1 0,-3-2,2 2,-1-1,0-1,0 0,-2 0,2 0,-2-2,1 1,-1 0,0-1,0-1,-1 1,1-1,-1-1,1 1,-2-1,2-1,-1 0,0 0,0-1,-20-2,72 2,43-4,53-2,-123 7,0 0,1 1,-1 0,0 1,0 1,22 7,-15-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10347.94">6498 918,'9'0,"4"9,-2 15,-2 17,-1 15,-4 22,-2 11,-1 0,-1-12,0-14,-1-13,1-12,-1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10900.75">6143 1321,'4'0,"12"-4,12-1,6 0,1 0,0 2,-2 1,-1 1,3 0,4 1,5 0,1 1,-4-1,-4 0,-4 0,2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12001.04">7099 1094,'0'-1,"1"0,-1 0,1 1,-1 0,1-1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1 0,39-4,-36 3,21-1,-5 0,3 0,-1 1,-1 1,1 1,37 5,-57-6,0 1,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 1,0 0,0 0,1-1,-1 1,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 0,0 1,0 0,0-1,-1 1,2 0,-2 0,1-1,-1 0,0 1,0 0,-1 0,1 0,-2 0,2-1,-2 4,-2 7,0 0,-1-1,0 1,-1-2,-1 2,-10 12,15-22,1-1,-1 0,1 1,-1 0,1-1,0 1,0-1,0 0,1 1,-1 0,1 0,-2 0,2 0,0-1,0 1,0-1,2 1,-1 4,1-1,1 0,0 0,0 0,1-1,-1 1,6 4,-4-4,0 1,-1-1,0 0,0 1,-1 0,5 13,-4-9,-2 1,0-1,0 1,-2 0,1 0,-1 1,-1-2,-3 14,4-21,-2 0,0 1,1-1,-1 1,0-1,0 0,0 0,-1 0,0 0,1 0,-1-1,-1 1,1-1,0 1,-2-1,1 0,0-1,0 1,0-1,0 1,-1-1,0 0,-7 2,-3-1,-2-1,1 0,0 0,0-1,-1-1,1-1,0-1,0 0,0 0,0-1,0-1,1-1,-1 0,-23-11,-8-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13630.08">7508 892,'22'0,"-9"-1,1 1,0 0,0 1,-1 1,0 0,1 0,-2 1,27 9,-6 3,0 1,-1 0,0 3,41 31,-65-44,-1 1,1 1,-1-1,0 1,-1-1,-1 2,1-1,-1 0,5 12,-8-14,0 0,-1-1,0 1,0 0,0 0,-1-1,0 1,0 0,-1-1,1 1,-1 0,-1 0,1-1,-1 1,0 0,-6 8,4-7,0-1,-1 0,1 0,-2 0,1-1,-1 0,0 0,0 0,-1-1,1 0,-2 0,2 0,-12 3,6-2,1 0,-1-1,-1-1,1-1,-1 0,1 0,-24 1,34-3,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0-1,1 1,0 1,0 0,1-1,-1 1,1 1,-1-2,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,1-1,-1 1,0 0,2 0,-2 0,1 0,1 0,20-4,2 1,1 1,41 2,-52 1,-1 0,1 1,0 0,-1 1,1 0,-1 2,21 8,7 17,-24-14</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22413,7 +23473,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1090,'129'-35,"194"-28,-265 53,209-29,205-41,-136-16,-6 1,264-40,-142 35,-157 34,462-123,-562 121,23-7,-144 55,-12 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1048,'134'-34,"201"-26,-275 50,217-27,213-40,-142-16,-6 2,274-39,-147 34,-163 33,480-119,-584 117,24-7,-149 52,-13 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22440,7 +23500,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1059,'85'-2,"-1"-5,95-19,164-50,-316 69,1769-472,-1497 388,301-85,-449 140,171-53,-258 64,37-13,-75 31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1017,'89'-2,"-2"-5,100-18,170-48,-329 67,1843-454,-1560 372,314-81,-467 135,177-52,-268 62,38-12,-78 29</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22467,11 +23527,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1429 295,'116'-1,"133"3,-240-1,0 0,0 0,-1 1,1 0,13 6,-21-8,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 1,-1 0,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1-1,-3 2,-44 12,43-14,-1 1,0 0,1 1,-1-1,1 1,0 0,-1 0,1 1,0-1,1 1,-1 0,0 1,-5 4,9-7,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,1 0,34 25,-17-13,-14-7,0 0,-1 0,1 1,-1-1,-1 1,1 0,-1 0,0 1,-1-1,0 1,0-1,0 1,-1 0,0-1,-1 14,1 0,-2-1,0 1,-2-1,-8 36,10-50,-1 1,0-1,-1 0,1 0,-1 0,0 0,-1 0,0 0,0-1,0 0,0 0,-1 0,1 0,-10 6,7-7,-1 0,0 0,0-1,0 1,0-2,0 1,-1-1,1-1,-1 0,-15 1,-191-3,95-1,98 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2074.98">2091 4,'66'-2,"-37"1,0 0,57 7,-82-5,-1 0,0 0,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-1 1,0-1,1 0,-1 0,0 1,0-1,-1 1,1-1,-1 0,0 1,0-1,0 5,0 5,0 1,-1-1,0 0,-1 0,-1 0,-7 22,8-28,0 0,-1 0,0-1,0 1,-1-1,1 0,-2 0,1 0,0-1,-1 1,0-1,0 0,-1 0,0-1,1 0,-1 0,-1 0,1 0,0-1,-1 0,0-1,0 0,0 0,0 0,0 0,0-1,0-1,0 1,-11-2,17 2,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,0 0,2-3,-1 0,1 0,1 1,-1 0,0-1,1 1,-1 0,8-4,-5 4,0 0,1 1,-1-1,1 1,0 0,0 1,0 0,0 0,0 0,0 1,0 0,-1 0,15 3,-2 2,0 1,0 0,26 14,-28-12,1-1,0 0,0-1,26 5,-21-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22983.4">1 216,'0'-1,"0"0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,2 0,32-5,-29 4,6 0,1 0,-1 1,1 0,-1 1,1 1,-1 0,0 1,15 4,-22-5,0 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,-1 1,1-1,0 1,-1 0,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,0 0,-1 0,2 6,-1-4,0-1,0 0,1 0,-1 0,1 0,0 0,1-1,0 1,0-1,0 0,6 6,62 49,-56-48,0 0,-1 0,16 20,-21-18,-1 1,0 0,-1 1,-1-1,-1 1,0 1,-1-1,-1 1,0 0,-2 0,1 1,-2-1,-1 0,-2 34,1-47,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,0 1,0-1,0-1,-1 1,1 0,0-1,-1 0,0 0,-6 3,-9 3,0 0,-1-2,-25 5,20-4,-3-1,-1-2,0-1,0-1,-43-2,50-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23726.87">927 454,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26193.08">2091 4,'22'0,"-5"-1,-1 1,1 1,-1 0,26 6,-39-7,-1 1,1-1,0 1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,-1 4,-5 35,4-32,0-1,1 1,0 0,0 0,1 0,2 11,-1-17,-1-1,1 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,0 1,1 0,-1-1,0 0,1 1,-1-1,1 0,0 0,0-1,0 1,-1-1,2 1,5 1,45 12,-43-12,0-1,1 2,-1-1,0 2,-1-1,12 8,-21-12,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,-1-1,-1 1,-51 7,4-6,-76-6,123 4,0 0,1-1,-1 0,0 1,1-1,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 1,0-1,1 1,-1-1,0-4,-1-8,1 0,0 0,1 0,2-19,0 5,-2 1,0 18,-1-1,2 0,-1 1,2-1,-1 1,1-1,1 1,0 0,5-12,4 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1525 288,'124'-1,"142"3,-257-1,1 0,0 0,-2 1,2 0,13 6,-22-8,0 0,1 1,-1-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,0-1,1 1,-1 1,-1 0,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-2 0,2 0,0 0,-1 0,1 0,-1 0,1-1,-3 2,-48 12,47-14,-1 1,-1 0,2 0,-1 0,0 1,1 0,-2 0,2 1,0-1,0 1,0 0,0 1,-6 4,10-7,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,2 0,35 24,-18-12,-14-7,-1 0,-1 0,2 1,-2-2,-1 2,1 0,0 0,-1 1,-1-1,0 0,0 0,0 1,-1 0,0-1,-1 13,1 1,-2-2,0 2,-2-2,-9 36,11-49,-1 1,0-1,-1-1,1 1,-1 0,-1 0,0 0,0 0,0-1,-1 0,1-1,-1 1,0 0,-10 6,8-7,-2 0,1 0,-1-1,1 0,-1-1,1 1,-2-1,2-1,-2 0,-16 1,-203-3,101-1,104 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2074.98">2232 4,'70'-2,"-39"1,0 0,61 7,-88-5,-1 0,1 0,0 1,-1-1,0 1,1 0,-1 0,-1 0,1-1,0 1,-1 1,2-1,-2 1,0 0,0-1,0 1,0 0,0 0,0 1,-1-1,1 0,-1 0,0 1,0-2,-1 2,1-1,-1 0,0 1,0-1,0 5,0 5,0 0,-1 0,0 0,-1-1,-1 1,-8 21,9-27,0 0,-2 0,1-1,0 0,-1 0,1 0,-3 0,2 0,0-1,-2 1,1-1,0-1,-2 1,1-1,0 0,0 0,-1 0,0 0,1-1,-2 0,1-1,-1 0,1 0,-1 0,1-1,-1 0,1-1,0 1,-13-2,19 2,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-2 0,1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,0 0,2-3,-1 0,2 0,0 1,-1 1,0-2,2 1,-2 0,8-4,-4 4,-1 0,2 1,-2-1,2 1,-1 0,1 1,-1 0,1 0,-1 0,0 1,1 0,-2 0,17 3,-3 2,0 1,1 0,27 13,-30-11,1-1,0 0,0-1,28 5,-22-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22983.4">1 211,'0'-1,"0"0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,1 1,-1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,2 0,35-4,-32 3,7 0,1 0,-1 1,1 0,-2 1,2 1,-1-1,0 2,16 4,-24-5,0 0,1 0,-2 1,1-1,0 1,-1 0,1 0,-1 0,0 1,0-1,0 0,-1 1,1 0,-1 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,-1-1,2 7,-1-4,0-1,0 0,2 0,-2-1,1 1,0 0,1-1,1 1,-1-1,0 0,7 5,66 49,-60-47,0-1,-1 1,17 19,-22-17,-2 1,1-1,-2 2,0-1,-2 0,1 2,-2-1,-1 0,1 1,-3-1,1 2,-2-1,-1-1,-2 34,1-46,0 0,0 0,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,-1 1,0-1,0 0,0 1,0-1,0-1,-2 1,2 0,0-1,-1-1,-1 1,-5 3,-11 3,1 0,-1-2,-27 5,21-5,-3 0,-1-2,0-1,0-1,-45-2,52-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23726.87">989 443,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26193.08">2232 4,'23'0,"-4"-1,-2 1,1 1,-1 0,28 6,-42-7,-1 1,1-1,0 1,0 0,0 0,-1 1,1-1,-1 0,1 0,0 0,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,2 0,-2 0,1 1,-1-1,0 1,0-1,0 1,0 0,0-1,-1 1,1-1,-1 0,0 1,1 0,-1 0,-1 4,-5 34,4-31,0-1,0 0,1 1,0 0,1 0,2 10,0-16,-2-1,1 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,0 0,2 1,-2-1,0 0,1 1,-1-1,1 0,1 0,-1-1,0 1,-1-1,2 1,6 1,48 12,-47-13,1 0,1 2,-1-1,0 2,-2-1,14 8,-23-12,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 0,0 1,0 0,0 0,0-1,0 1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,-2-1,0 1,-54 7,3-6,-80-6,130 4,1 0,1-1,-1 0,0 1,1-1,-2 0,2 0,0-1,-1 1,1 0,0-1,0 1,-2-1,2 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0-1,1 1,0-1,0 1,0-1,1 1,-1-1,0-4,-1-7,1-1,0 0,1 1,2-20,0 6,-2 1,0 17,-1-1,2 0,-1 2,2-2,-1 1,1-1,1 2,1-1,4-12,5 6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22525,7 +23585,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1167 687,'-3'-43,"-1"0,-19-78,-2-24,23 128,-1-1,0 1,-2 0,0 0,0 1,-2-1,0 1,0 1,-2-1,0 1,-1 1,-13-16,13 20,0-1,-1 2,0 0,0 0,-1 1,0 0,-1 1,0 0,0 1,0 1,-1 0,1 1,-1 0,-1 1,-15-1,25 3,0 1,0 0,0 0,0 1,0-1,0 1,0 0,0 1,0-1,0 1,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,0 1,-3 3,-6 7,1 1,0 0,-17 31,17-27,-41 74,5 2,4 2,-35 113,57-140,4 2,3 0,3 1,-2 76,9 299,8-244,0-144,3-1,22 101,5 31,-2-13,1 23,-31-196,-1 0,1 0,-1 0,-1 0,1 0,-1 0,1 0,-1 0,-1 0,-2 6,3-8,-1-1,1 0,-1 1,0-1,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,-3 1,-9 1,0-1,0 0,-1-1,1-1,0 0,0-1,-1 0,2-2,-19-5,2-2,0-2,0-1,-31-20,57 32,1 0,-1-1,1 0,-1 0,1 0,0 0,0-1,1 0,-1 0,1 0,0 0,-1 0,2 0,-1-1,1 0,-1 1,1-1,1 0,-1 0,1 0,0 0,0-1,-1-9,5-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1251 660,'-3'-41,"-2"-1,-19-74,-3-23,25 123,-1-2,-1 2,-1 0,0-1,-1 2,-1-1,-1 0,1 2,-3-2,1 2,-2 1,-14-16,14 19,1 0,-2 1,0 0,0 1,-1 0,1 0,-2 1,0 1,0 0,0 1,-1 0,1 2,-1-1,-1 1,-16-1,26 3,1 1,0 0,-1 0,1 1,0-1,-1 1,1 0,-1 1,1-1,0 1,-1 0,2 0,-1-1,0 2,0-1,1 1,-1 0,1 1,-3 3,-7 6,1 1,0 1,-18 29,18-26,-44 72,6 1,4 2,-38 109,61-135,5 2,3 0,3 2,-2 72,10 287,8-234,0-138,4-1,23 96,5 31,-2-13,2 22,-34-188,-1-1,1 1,-1 0,-1 0,1 0,-1-1,1 1,-1 0,-2 0,-1 5,3-7,-1-1,1 0,-1 1,-1-1,1 0,0 0,0-1,0 1,0 0,-1-1,0 1,0-2,1 1,-1 0,1 0,-2 0,1 0,1 0,-1-1,-4 1,-9 1,0-1,0 0,-1-1,1-1,0 0,0-1,-1 0,2-2,-21-4,3-3,0-1,0-2,-34-18,62 30,1 0,-2-1,2 0,-1 0,0 0,1 0,0 0,0-1,0 0,1 0,0 0,-2 0,3 0,-1 0,1-1,-1 1,1-1,1 0,-2 1,2-1,0 0,0-1,-1-8,5-13</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22609,14 +23669,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">621 1218,'-75'-2,"41"0,1 1,-64 8,95-7,1 0,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 2,0 1,0 0,1 0,0 0,0-1,0 1,0-1,0 1,1-1,0 0,-1 0,1 0,0 0,6 3,16 9,1-2,0 0,38 11,38 19,-93-38,0 1,0 0,-1 1,0 0,0 0,-1 1,1 0,-2 0,1 1,-1 0,-1 0,1 0,-2 1,1-1,-1 1,-1 1,0-1,0 0,-1 1,1 13,-1-14,-2 1,1-1,-1 0,0 0,-1 1,-1-1,1 0,-1 0,-1 0,0 0,-1 0,1-1,-2 0,0 1,0-1,0-1,-1 1,0-1,-1 0,-14 13,11-14,0 0,-1 0,0-1,0-1,-1 0,1 0,-1-1,0-1,0 0,-1-1,-14 2,-16-2,-83-5,49 0,64 3,-114-8,113 6,0 0,1-1,-1-1,1 0,0-1,0 0,-12-8,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="765.15">1150 1244,'4'5,"2"14,0 14,-2 14,-1 13,-1 10,-1 1,0-1,-1-9,4-10,2-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1133.28">1229 926,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2317.67">1441 1244,'2'4,"1"-1,-1 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 5,2 58,-3-44,2 192,-2-211,0 0,1 0,-1 0,1 0,0-1,0 1,0 0,1 0,-1-1,1 1,0-1,2 5,-3-8,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,0 0,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,3-4,19-21,-2-1,-1-1,-1-1,15-33,-19 34,1 0,2 0,1 2,41-47,-59 72,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 1,1 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,4 1,-2 1,0-1,0 1,0 0,-1 0,1 1,-1-1,1 0,-1 1,0 0,0-1,0 1,2 4,3 5,-1 0,-1 1,0 0,0 0,3 20,2 94,-5-103</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3531.89">2684 953,'-4'1,"1"-1,0 1,0 0,0-1,-1 1,1 1,0-1,0 0,0 1,1 0,-1-1,0 1,1 0,-1 0,1 1,-1-1,1 0,0 1,-2 3,-5 8,0 0,-11 25,11-21,-27 56,4 2,3 1,-21 88,46-149,1 0,0 1,1-1,1 0,0 1,1-1,1 1,0-1,7 26,-6-34,1 0,0 0,0 0,1 0,0 0,1-1,-1 1,2-1,-1 0,1-1,0 1,0-1,0-1,1 1,0-1,0 0,1 0,-1-1,14 5,-15-7,0 0,0 0,0-1,1 0,-1 0,1 0,-1-1,1 0,-1 0,1-1,-1 0,10-2,6-3,0-1,23-12,-35 15,31-14,0-2,-2-2,0-1,45-37,-66 45,-1 1,0-2,-1 0,-1-1,-1-1,0 0,-1-1,-1 0,-1-1,13-30,-19 29,-2 0,0 0,-1 0,0 0,-2 0,-1 0,-4-29,4 38,0 6,0-1,1 1,-2-1,1 1,-1-1,0 1,-1 0,1 0,-1 0,0 0,-1 0,1 1,-1 0,0-1,-1 1,-5-5,-1 1,-1 1,0 1,-1 0,1 1,-1 0,-21-6,-7-4,0 3,-1 1,-1 2,1 2,-1 2,-1 2,-50 2,91 2,0 0,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,-5 3,-6 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4168.69">2526 1218,'0'2,"1"0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 0,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0-1,2 2,41 17,-40-17,44 12,1-1,0-3,1-3,52 2,-57-5,-26-1,-1 1,1 0,29 12,-29-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5278.69">3505 609,'2'38,"2"0,2 0,2-1,19 59,-12-43,13 73,-15 25,-9 242,-6-254,-1-110,-1 0,-1-1,-2 1,0-1,-2 0,-1-1,-22 41,21-44</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6657.45">3848 0,'149'591,"61"316,-190-778,-7 1,-4 0,-7 0,-5 1,-23 152,5-164,-6-2,-4 0,-79 187,108-299,-95 204,80-180</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">646 1172,'-78'-2,"42"0,2 1,-67 7,99-6,1 0,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 2,0 1,0 0,1-1,0 1,0-1,0 1,0-1,1 1,0-1,0 0,-1-1,1 1,0 0,6 3,17 8,2-1,-1-1,39 11,40 19,-96-37,-1 0,0 1,0 1,-1 0,0-1,0 2,0 0,-2-1,1 2,0 0,-2-1,1 1,-2 1,1-2,0 2,-2 1,0-2,0 1,-1 0,1 13,-1-13,-2 1,1-2,-1 1,0 0,-1 0,-1 0,1-1,-1 1,-1 0,0-1,-1 1,0-2,-1 1,0 1,0-2,0 0,-2 1,1-2,-1 1,-15 12,12-13,-1 0,0 0,-1-2,1 0,-2 0,2 0,-1-1,-1-2,1 1,-2-1,-14 2,-17-2,-86-5,51 0,67 3,-119-7,117 5,0 0,2-1,-2-1,2 0,-1-1,1 1,-13-9,5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="765.15">1196 1197,'4'4,"2"15,1 12,-3 15,-1 11,-1 11,-1 0,0-1,-1-8,4-10,2-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1133.28">1278 891,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2317.67">1499 1197,'2'3,"1"0,-1 1,0-1,0 1,0 0,0 0,-1-1,1 1,-1 0,0 0,0 0,0 4,3 57,-4-43,2 185,-2-203,0 0,1-1,-1 1,1 0,0-1,0 1,0 0,1 0,-1-2,1 2,0-1,2 5,-3-8,0 1,-1 0,1-1,0 1,1-1,-2 1,1-1,0 1,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,0 0,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,-1 0,3-4,20-20,-2-1,-1-1,-1-1,15-31,-20 32,2 0,2 0,1 2,42-45,-61 69,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 1,0-1,0 0,0 0,-1 1,1-1,-1 1,1 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,3 1,-2 1,0-1,0 1,0 0,-1 0,1 1,-1-1,2 0,-2 0,0 1,0-1,0 1,2 4,3 4,0 1,-2 1,0-1,0 1,4 18,1 91,-5-98</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3531.89">2791 917,'-4'1,"1"-1,0 1,0 0,0-1,-1 1,0 0,1 0,0 0,0 1,1 0,-1-1,0 1,1 0,-1 0,0 1,0-1,1 0,0 1,-2 2,-5 9,-1-1,-11 25,12-21,-28 54,3 2,4 1,-22 85,48-143,1-1,0 1,1 0,1-1,0 1,1 0,1 0,0 0,7 24,-6-32,1-1,0 1,1 0,0-1,0 1,1-1,-1 1,2-2,0 1,0-1,0 1,0-2,1 0,0 1,0-1,0-1,2 1,-2-1,15 5,-16-7,0 0,1 0,-1-1,1 0,-1-1,2 1,-2-1,1 0,-1 0,2-1,-2 1,11-3,5-3,1-1,24-11,-36 14,31-13,1-3,-3-1,1-1,46-36,-68 44,-1 1,-1-3,0 1,-1-2,-2 0,1 0,-2-1,0-1,-2 0,14-29,-20 28,-2 0,1-1,-2 1,0 0,-2 0,-1 0,-5-29,5 38,0 5,0-1,1 2,-2-2,1 1,-1-1,0 2,-1-1,1 0,-1 0,0 1,-2-1,2 1,-1 0,0-1,-1 2,-6-6,0 1,-1 2,-1 0,0 0,0 1,0 1,-23-7,-6-3,-1 2,-1 2,-1 1,2 2,-2 2,-1 3,-51 1,93 2,1 0,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,-1-1,2 1,-1 1,1-1,-1 1,1 0,-5 3,-7 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4168.69">2627 1172,'0'1,"1"1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,1 0,0-1,2 1,43 18,-42-17,46 11,1 0,0-4,1-2,54 2,-59-6,-27 0,-1 1,0 0,31 11,-30-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5278.69">3645 586,'2'36,"2"1,3-1,1 0,20 56,-12-41,13 71,-16 23,-9 233,-6-244,-1-107,-1 1,-1-1,-2 1,-1-1,-1 0,-1-1,-24 39,23-42</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6657.45">4002 0,'155'568,"63"305,-197-749,-7 1,-5 0,-7 0,-5 1,-24 146,5-157,-6-3,-4 1,-83 179,113-287,-99 196,84-173</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22643,23 +23703,23 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">405 717,'-22'1,"0"0,1 1,-1 0,1 2,-1 1,2 1,-40 16,51-18,0 0,1 1,-1 0,1 0,1 1,-1 0,1 1,0-1,0 2,1-1,0 0,0 1,1 0,0 1,0-1,1 1,0 0,1 0,-5 19,-19 66,16-58,-9 47,18-72,0-1,1 1,1-1,0 1,0-1,1 1,1-1,-1 0,5 14,-2-17,0 0,0 0,0-1,1 1,0-1,0 0,0 0,1-1,0 0,0 0,1 0,-1 0,1-1,0 0,12 4,-2 0,0-1,1-1,0-1,0 0,30 3,6-6,-32-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1517.08">1437 770,'-95'-1,"-103"3,193-1,0 0,0 0,0 1,0 0,0-1,0 2,0-1,1 1,-1-1,1 1,0 0,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,1-1,-1 1,1 0,0-1,0 1,0 0,1 0,-1 1,1-1,1 0,-1 0,1 0,0 1,0-1,0 0,1 1,0-1,0 0,0 0,0 0,1 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 1,1-2,-1 1,6 4,4 1,1 0,0 0,0-2,1 0,0 0,0-1,23 5,36 14,-68-21,1 0,-1 0,1 0,-1 1,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 0,0 1,0-1,-1 1,0 0,0 0,0 0,1 10,3 11,-1 0,-1 1,1 41,-6-67,1 0,-1 1,0-1,0 0,0 1,0-1,-1 0,0 0,1 1,-1-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,-1 0,1 1,0-1,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,-6 0,-78 4,-98-8,36-1,94 0,37-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2836.18">1940 691,'0'0,"-1"-1,1 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,1 1,-2 0,-37 19,-6 9,2 2,1 1,2 3,-36 39,71-67,0 0,1 0,0 0,1 1,0-1,0 1,0 0,1 0,0 0,1 0,0 0,-1 13,2 13,6 57,-4-70,0-9,0 0,1 0,0-1,1 1,0-1,1 0,0 0,1-1,0 0,1 0,0 0,0 0,1-1,0-1,1 1,0-1,0-1,20 13,-12-10,1 0,1-1,-1 0,1-2,1 0,-1-1,1-1,0-1,0-1,30 1,-28-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6899.19">2760 453,'-2'17,"-1"0,0-1,-1 1,-1-1,-1 0,0 0,-14 24,-4 15,-42 149,26-74,22-65,3 1,3 1,2 0,4 1,3-1,8 110,-5-169,0-1,1 1,0 0,0 0,1-1,0 1,0 0,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 1,0-1,0-1,1 1,0-1,0 0,0 0,0 0,13 6,9 4,-3-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8683.98">3527 797,'-13'1,"0"0,1 1,-1 0,1 1,-1 0,1 1,0 0,0 1,1 0,0 1,0 1,0 0,0 0,-15 15,9-6,0 2,1 0,1 1,0 0,2 1,-21 41,28-48,1 1,0 0,1-1,1 2,0-1,1 0,-1 16,6 104,0-57,-3-71,0 1,0-1,1 0,0 0,0 0,0 1,1-1,0 0,0-1,0 1,1 0,0-1,0 1,0-1,1 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,0-1,1 1,-1-1,1 0,-1-1,1 1,0-1,0 0,0-1,11 2,-1 0,-1 0,1-2,0 0,0 0,20-3,-29 1,0 0,0-1,0 1,0-1,0-1,-1 1,1-1,-1 0,0-1,1 1,-2-1,1 0,10-10,-5 1,0-1,-1 0,0 0,-1-1,-1 0,0 0,-1-1,-1 0,-1-1,0 1,-1-1,2-17,0-24,-2 0,-5-72,0 51,1 73,0 0,0 0,-1 0,0 0,0 0,0 1,-1-1,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,-7-7,4 7,0 0,-1 0,0 0,0 1,0 0,0 0,-1 1,1 0,-1 1,0 0,-10-1,-19-2,5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9458.14">3263 1088,'4'0,"6"0,11 0,6 0,2 0,2 0,-1 0,4 0,1 0,-1 0,-2 0,-2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10274.14">3898 347,'5'1,"-1"-1,1 1,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,1 1,-1 0,0-1,0 1,0 0,0 1,-1-1,1 0,-1 1,2 7,5 12,-2 2,0-1,5 49,-8-45,37 165,-23-117,-3 1,6 87,-20-139,4 40,-4 0,-2 0,-11 73,9-129,0 1,0-1,-1 0,0-1,-1 1,0-1,0 1,-1-1,-1-1,1 1,-1-1,-13 11,-7 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40531.07">5564 929,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,-1 1,-40-5,38 5,-30-2,0 2,-41 5,61-4,0 2,1 0,-1 1,0 0,1 1,0 0,-20 12,31-15,-1 0,1 0,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,0-1,0 1,0 0,1 0,-1-1,1 1,0 0,0 0,0 0,1-1,-1 1,1 0,0 0,0-1,0 1,1 0,-1-1,1 0,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,0 0,-1-1,1 1,6 2,18 12,0-1,2-2,40 16,-19-9,-43-18,-1 0,0 0,1 0,-1 1,0 0,-1 1,1-1,-1 1,0 0,0 0,0 1,-1-1,0 1,0 0,5 11,-5-5,0 0,0 1,-1 0,-1-1,-1 1,1 0,-2 23,0-29,0 7,0 0,-1-1,0 1,-1-1,-5 18,6-28,0 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 1,0-1,0-1,0 1,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,-3 0,-34 2,0-1,-71-6,25 0,67 4,0 0,-1-2,1 0,1-1,-1-1,0-1,1-1,0 0,0-1,-30-17,33 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41138.33">6411 690,'0'9,"0"8,0 14,0 11,-5 12,-1 5,1 16,0 8,-3 4,0-9,-3-13,0-12,2-12,3-8,2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41521.33">6411 267,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42503.33">6782 796,'-21'697,"20"-669,1-22,0 0,0 0,0 0,-1 1,0-1,0 0,-1 0,0 0,0 0,-5 10,7-16,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1-1,-8-18,-2-26,3-21,3-1,2 1,12-118,-5 162,1 1,1-1,1 1,1 1,1 0,0 0,2 0,0 1,1 1,19-22,-30 38,1 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,5 0,-3 0,0 1,0 0,0 1,0-1,0 1,-1 0,1 0,0 1,-1 0,1-1,5 6,5 6,0-1,-1 2,-1 0,0 1,13 22,-12-14,-1 1,-1 0,-1 1,-1 1,-2 0,0 0,-2 0,-1 1,-1 0,-2 0,-1 0,-3 42,1-45</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43699.33">7919 320,'-2'51,"-2"-1,-2-1,-12 51,-48 142,37-148,-29 172,53-236,2-1,2 1,1-1,0 1,6 29,-5-54,1 0,-1-1,1 1,0 0,0-1,0 0,0 1,1-1,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0-1,1 0,-1 1,1-2,-1 1,1 0,6 0,-4 0,1-1,-1 0,1-1,-1 0,1 0,-1 0,1-1,-1 0,0-1,1 1,-1-1,0-1,0 1,0-1,11-7,23-21,-2-1,-1-2,-1-2,-2-2,-2 0,30-46,-53 69,-1 0,0-1,-1 0,0 0,-1-1,-1 0,-1 0,-1 0,4-21,-3-11,-3 0,-3-50,1 63,-2 13,-1 0,-1 0,-1 0,0 0,-2 1,-1-1,-1 2,0-1,-18-27,23 44,1-1,-1 1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,0 1,0 0,-1 0,1 0,0 1,-1 0,-10-1,-11 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44259.46">7787 902,'9'5,"16"1,13 4,14 1,20-2,8-3,-2-1,-9-3,-17-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45610.38">9533 188,'27'83,"-3"0,24 172,-34-174,21 137,55 276,-69-393,-13-62,0 1,24 63,-32-102,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,5-20,-1-30,-5-6,-11-85,8 114,-1 1,-2-1,0 1,-2 0,-14-27,19 46,0 1,-1 0,0 0,-1 0,0 0,0 1,0 0,-1 0,0 1,0 0,0 0,0 1,-1-1,0 2,0-1,0 1,0 0,-1 1,-9-2,-17-1,1 1,-1 1,-52 4,48 0,16-1,0 1,1 0,-1 2,0 1,1 1,-32 11,47-14,0 1,0 1,1-1,-1 1,1 1,-1-1,2 1,-1 0,0 0,1 1,0 0,0 0,1 0,-1 0,1 1,1 0,-1-1,1 2,0-1,1 0,0 0,0 1,-1 10,0 6,2 1,0 0,2 0,0 0,2-1,1 1,0-1,2 0,1 0,1 0,14 28,-15-37,1 1,1-2,0 1,1-1,0 0,2-1,-1 0,1-1,1-1,0 0,1 0,0-1,0-1,1-1,1 0,-1 0,18 4,-22-9,1-1,0-1,-1 0,1 0,0-1,0-1,-1 0,1-1,-1 0,1 0,-1-1,0-1,0 0,0-1,0 0,-1 0,0-1,0-1,17-13,-13 9,0-2,0 1,-1-2,-1 1,0-2,-1 0,-1 0,0-1,-1 0,-1 0,12-35,-14 31,-2 0,-1 0,0 0,-1-1,-2 1,0-1,-1 1,0 0,-2-1,-1 1,-7-25,9 40,0 1,-1-1,1 1,-1-1,0 1,-6-7,-5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46972.38">9957 1061,'-13'161,"8"-124,1 0,2 0,1 0,9 72,-6-101,0 1,0-1,0 0,1-1,0 1,1 0,0-1,0 0,0 0,1 0,0 0,0-1,1 0,0 0,0 0,0-1,1 0,0 0,0-1,0 1,0-2,1 1,-1-1,1 0,0-1,0 1,17 1,-15-3,1 0,-1-1,1 0,-1-1,1 0,-1-1,1 0,-1 0,0-1,0 0,0-1,0 0,-1-1,0 0,0-1,0 1,0-2,-1 1,0-1,0-1,9-11,-8 10,-1-1,-1 0,1-1,-1 0,-1 0,0 0,-1-1,0 0,-1 0,0 0,-1 0,0-1,-1 1,1-16,-2-12,1-11,-9-96,5 140,0 1,0-1,-1 1,0 0,0 0,0 0,-1 0,0 0,0 1,0-1,-1 1,0 0,0 1,0-1,-1 1,1 0,-1 1,0-1,-12-4,3 1,-1 0,0 1,0 1,-1 1,0 0,-32-3,37 7,-1 0,0 1,0 0,0 0,1 2,-1 0,1 0,0 1,0 0,-14 8,1 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47855.38">670 1617,'31'-1,"1"-2,0-2,-1 0,34-12,4 0,215-53,469-182,722-384,-326 133,-1092 478,1 3,2 3,104-20,-147 36</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48645.77">4877 1246,'73'1,"14"0,0-3,154-24,358-130,-382 93,194-51,160-45,1075-312,-1538 437,-46 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">421 692,'-22'1,"-1"0,1 1,-1 0,1 2,-1 0,2 2,-41 15,53-17,-1 0,2 1,-2 0,2 0,1 0,-1 1,0 1,1-1,0 1,0 0,1 0,0 1,1-1,0 2,-1-1,2 1,0-1,1 1,-5 18,-21 64,18-57,-10 46,19-69,0-1,1 0,1 0,0 1,0-2,1 2,1-1,-1-1,5 14,-1-16,-1 0,0 0,0-2,1 2,0-1,1 0,-1 0,1-2,0 1,1 0,0 0,-1 0,1-1,1-1,11 5,-1 0,0-1,1-2,-1 0,1 0,31 3,6-6,-33-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1517.08">1496 743,'-99'-1,"-107"3,200-1,1 0,0 0,0 1,0 0,-1-1,1 2,0-1,1 1,-1-2,0 2,1 0,0 1,0-1,0 1,0 0,1 0,-2-1,2 1,0 1,1-1,-1 1,1 0,0-2,0 2,0 0,1 0,-2 1,2-1,1-1,-1 1,1 0,0 1,0-1,0-1,1 2,0-1,1 0,-1 0,0 0,1-1,0 1,0 0,1 0,-1-1,1 1,0-2,0 1,1 1,0-2,-1 1,6 4,5 0,0 1,1 0,-1-3,2 1,0 0,-1-1,25 4,37 14,-71-20,1 0,0 0,0 0,-1 1,-1 0,2-1,-2 1,0 1,0 0,0 0,0-1,-1 2,0-1,-1 1,0-1,0 1,0 0,2 9,2 11,-1 0,-1 1,2 40,-7-65,1 0,-1 1,0-2,0 1,0 1,0-1,-1 0,0 0,1 1,-2-1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,-1 0,1 0,0 0,-2 0,1 0,1 0,-1 0,0-1,0 1,0-1,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,-7 0,-80 4,-103-8,38-1,98 0,38-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2836.18">2019 667,'0'0,"-1"-1,1 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0 0,-1 0,2 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,1 1,-2 0,-39 19,-5 8,1 1,1 2,2 3,-37 38,74-66,0 1,1 0,0 0,0 0,1 0,0 1,0-1,1 1,0 0,1 0,0-1,-1 14,2 11,6 56,-4-67,0-10,0 1,1-1,0 0,2 0,-1 0,1 0,0-1,1 0,1 0,0-1,0 1,1 0,0-2,0 0,2 1,-1-2,0 0,21 12,-12-9,1 0,1-2,-2 1,2-2,1 0,-1-2,1 0,-1-1,1-1,31 1,-29-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6899.19">2873 437,'-2'17,"-2"-1,1-1,-1 2,-1-2,-1 1,-1-1,-13 24,-5 14,-44 144,27-72,24-62,2 1,3 0,3 1,4 1,3-2,8 107,-5-163,0-2,1 2,0 0,0 0,1-2,0 2,0 0,1-1,1-1,-1 1,1 0,0 0,0-1,0 0,2 1,-1-1,0-1,1 0,0 0,1 0,-1 0,0 0,14 5,9 5,-3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8683.98">3671 769,'-14'1,"1"0,0 1,0 0,0 1,0 0,0 1,1-1,-1 2,2 0,-1 1,1 1,0-1,-1 1,-15 14,9-5,1 1,0 1,1 0,1 0,1 2,-21 38,29-45,0 0,1 1,1-1,1 1,0 0,1-1,-1 16,6 100,0-54,-3-70,0 2,0-1,1 0,0 0,0-1,0 2,1-1,0 0,0-2,0 2,1 0,1-1,-1 1,0-1,1-1,0 1,0 0,0-1,2 1,-2-1,1-1,0 1,0-1,2 1,-2-1,1 0,-1-1,2 1,-1-1,0-1,0 0,12 2,-1 0,-2 0,2-2,0 0,-1 0,22-3,-31 1,0 0,1-1,-1 1,0-1,0-1,0 2,0-2,-1 0,0-1,2 1,-3-1,1 0,11-9,-6 0,1 0,-2-1,1 1,-2-2,-1 1,1-1,-2 0,-1-1,-1 0,1 1,-2-2,2-16,0-23,-2 0,-5-69,0 49,1 70,0 0,0 0,-1 0,0 1,0-1,0 1,-1-1,0 0,0 1,0 0,-1-1,0 1,-1 0,1 1,0-1,-1 0,-7-7,3 8,1-1,-1 0,-1 0,1 1,0 0,-1 0,0 2,1-1,-2 1,1 0,-11-1,-19-2,4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9458.14">3396 1050,'4'0,"7"0,11 0,6 0,2 0,2 0,-1 0,5 0,0 0,0 0,-3 0,-2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10274.14">4057 335,'5'1,"-1"-1,2 1,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 2,-1-1,1 1,-1 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0 0,0 1,-1-1,1 0,-1 0,2 8,6 11,-3 2,0-1,6 48,-9-44,39 159,-25-113,-2 2,6 83,-21-134,4 39,-4-1,-2 1,-11 70,8-124,1 0,0 0,-1 0,0-2,-1 2,-1-1,1 0,-1 0,-1-1,1 1,-2-2,-13 12,-7 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40531.07">5791 897,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,-1 1,-42-5,40 5,-31-1,-1 1,-42 4,63-3,1 2,0 0,0 1,-1 0,1 1,1-1,-22 13,33-15,-1 0,1 0,0 1,0-2,1 2,-1 0,1 0,-2 0,2 0,0 0,0 0,0 0,0 1,1-2,-1 2,1 0,0-1,0 1,0 0,1 0,-1-1,1 0,0 1,0 0,0 0,1-1,-1 1,1 0,0-1,0 0,0 1,1 0,-1-1,1 0,0 1,0-1,0-1,0 1,2 0,-2 0,1 0,0 0,-1-1,1 1,6 2,20 11,-1-1,2-1,42 15,-20-9,-45-17,-1 0,0 0,2 0,-2 1,0-1,-1 2,2-1,-2 1,0 0,0 0,1 0,-2 0,0 1,0 0,5 10,-4-4,-1-1,0 2,-1 0,-1-2,-1 2,1-1,-2 23,0-28,0 6,0 1,-1-2,0 2,-1-2,-5 18,6-27,0 0,-1 1,1-1,-2 0,1 0,0-1,0 1,0 0,0 0,-1-1,1 1,-1-1,0 0,-1 1,1-1,0-1,0 1,0-1,0 0,-1 1,1-1,-2 0,2 0,-1 0,-3 0,-36 2,0-1,-73-6,25 0,71 4,-1 0,-1-2,1 0,1 0,-1-2,1-1,0-1,0 0,0 0,-31-18,35 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41138.33">6673 666,'0'9,"0"7,0 14,0 10,-6 13,0 3,1 17,0 7,-4 4,1-9,-3-12,-1-12,3-11,3-9,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41521.33">6673 258,'4'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42503.33">7059 768,'-22'673,"21"-646,1-21,0-1,0 1,0 0,-1 1,0-1,0-1,-1 1,0 0,0 0,-6 9,8-15,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1-1,-9-17,-1-26,3-19,2-2,3 1,13-113,-6 155,1 2,1-1,2 1,0 0,1 1,1 0,1 0,1 0,0 2,20-22,-31 37,1 0,0-1,1 2,-1-1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1-1,1 1,-2 0,1 0,0 0,0 0,0 1,0-1,0 1,6 0,-4 0,0 1,0 0,1 1,-1-1,0 1,-1 0,1 0,0 1,0 0,0-1,5 5,6 7,-1-2,0 3,-1-1,-1 2,14 20,-12-12,-2 0,0 0,-2 1,0 1,-3 0,0 0,-1 0,-2 1,-1 0,-2 0,-1 0,-3 41,1-44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43699.33">8242 309,'-2'49,"-2"-1,-2 0,-13 48,-50 138,39-144,-30 167,55-228,1-1,3 1,1-1,0 1,7 28,-6-52,1-1,-1 0,1 1,0 0,0-1,0 0,0 1,1-2,0 1,1 0,-1 0,0-1,1 1,-1-1,1 0,0-1,1 1,-1 0,0-1,1 0,-1 1,1-2,0 1,0 0,6 0,-3 0,0-1,-1 0,2-1,-2 0,1 0,-1 0,2-1,-2 0,0-1,2 1,-2-1,0-1,1 1,-1-1,12-7,23-19,-1-2,-2-2,0-2,-3-2,-1 1,30-45,-54 66,-2 1,0-2,0 1,-1-1,-1 0,0 0,-2-1,-1 1,4-21,-3-10,-2 0,-5-49,2 61,-2 13,-1 0,-1 0,-1-1,0 1,-3 1,0-1,-1 2,-1-2,-18-25,24 42,1-1,-1 2,-1-1,0 1,0-1,0 1,0 0,0 1,-1-1,0 1,1 0,-1 0,-1 0,1 1,0 0,-1 0,0 0,1 1,-1 0,-11 0,-11 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44259.46">8105 870,'9'5,"17"1,14 4,14 0,21-1,8-3,-2-1,-9-3,-18-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45610.38">9922 181,'28'81,"-3"-1,25 166,-35-168,21 132,58 267,-72-380,-14-59,0 1,26 60,-34-98,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,5-19,-1-29,-5-6,-11-83,8 111,-2 1,-1-1,0 1,-2 0,-15-26,19 44,1 2,-1-1,0 0,-1 0,-1 1,1 0,0 0,-1 0,-1 1,1 1,0-1,-1 1,0-1,0 2,-1-1,1 1,0 1,-2 0,-8-2,-19-1,2 1,-2 1,-53 4,49 0,17-1,0 1,2 0,-2 2,0 1,1 1,-33 10,48-13,1 1,0 1,0-1,0 1,1 0,-1 0,1 1,0 0,0 0,1 0,0 1,-1 0,2 0,-1 0,1 0,1 1,-1-1,0 2,1-2,1 1,0 0,0 1,-1 9,0 6,2 1,0 0,2 1,0-1,2-1,1 1,0-1,2 0,2 0,0 1,15 26,-16-36,2 2,0-3,0 2,2-2,-1 1,3-2,-2 1,2-2,0 0,1 0,0-1,1 0,-1-1,2-2,1 1,-2 0,20 3,-24-8,2-1,-1-1,-1 0,2 0,-1-1,1-1,-2 0,2-1,-2 0,2 0,-2-1,1 0,-1-1,1-1,-1 0,-1 0,1-1,-1 0,18-14,-13 10,0-3,-1 2,0-3,-2 2,1-3,-2 1,-1-1,1 0,-2-1,0 1,11-34,-13 29,-3 1,-1 0,0-1,-1 0,-2 1,0-1,-1 0,0 1,-2-1,-1 0,-8-23,10 38,0 1,-1-1,1 2,-1-2,0 1,-7-7,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46972.38">10363 1024,'-13'155,"8"-119,1 0,1-1,2 1,10 69,-7-97,0 1,0-2,0 1,1-1,0 1,1-1,1 0,-1 0,0 0,1-1,0 1,1-1,0 0,0 0,0-1,1 0,0 0,0 0,0-1,1 0,-1-1,1 1,0-1,0 0,0-1,1 1,17 1,-16-3,1 0,0-1,0 0,0-1,0 0,0-1,0 0,-1 0,1-1,-1 0,1-1,-1 0,-1 0,1-1,-1-1,1 1,-1-2,-1 2,1-2,-1-1,10-10,-9 9,-1-1,0 1,0-2,-1 1,-1-1,1 0,-2 0,0-1,-1 1,0-1,0 0,-1 0,-1 0,1-15,-2-11,1-12,-9-91,5 134,0 1,-1-1,0 2,0-1,0 0,0 0,-1 0,0 1,-1 0,1-1,-1 1,0 0,0 1,-1 0,0 0,1 0,-1 1,0-1,-13-4,3 2,0-1,-1 1,0 1,0 1,-1 1,-33-4,38 7,0 0,-1 1,1 0,-1 0,2 2,-2-1,2 1,-1 1,1 0,-15 8,1 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47855.38">697 1561,'33'-1,"0"-2,0-2,-1 0,36-11,4-1,224-50,487-177,752-369,-339 127,-1136 462,0 3,3 3,107-20,-152 35</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48645.77">5076 1202,'76'1,"15"0,-1-3,161-23,372-125,-397 89,202-49,166-43,1120-302,-1602 422,-47 13</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22686,13 +23746,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">398 0,'-2'36,"-2"0,-1 0,-11 36,0 10,-22 140,-17 423,54-568,6 395,-4-460,-1 1,2-1,0-1,0 1,1 0,0 0,1-1,8 18,-9-24,0-1,0 0,0 0,0 0,0 0,1-1,0 1,0-1,0 0,0 0,0-1,1 1,-1-1,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,10 1,3-3,0 0,0-1,0-1,-1 0,0-2,1 0,-2-1,24-12,7-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="614.57">1 1005,'33'1,"0"1,0 2,0 1,0 1,62 21,-63-17,-1-2,2-1,-1-2,0-1,1-1,45-3,-56-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2226.99">1377 1270,'-7'0,"1"1,0-1,0 1,0 0,-1 0,1 0,0 1,1 0,-1 1,0-1,1 1,-1 0,1 0,0 1,0-1,0 1,0 1,1-1,-1 0,1 1,0 0,-5 8,-9 13,1 1,1 1,1 0,2 1,1 0,1 1,1 0,2 1,1 0,-3 32,10-59,0-1,0 1,0-1,1 1,0-1,-1 1,1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,3 3,0-1,0 0,1-1,-1 1,1-1,0 0,1 0,9 4,4-1,0 0,1-1,-1-1,33 4,-49-8,15 2,1-2,-1 1,25-3,-39 1,0-1,-1 0,1 1,0-2,-1 1,1 0,-1-1,0 0,1 0,-1 0,0-1,0 1,0-1,-1 0,1 0,-1 0,0-1,6-6,-2-2,0 0,-1 0,0-1,-1 1,-1-1,0 0,-1 0,0-1,1-13,-2-14,-4-67,0 71,1-1,6-51,-5 88,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,3-1,-3 2,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,0 1,1 0,4 5,0 0,-1 0,0 1,-1-1,4 9,10 30,-1 1,-3 0,10 66,7 149,-23 281,-8-512,-1-1,-1-1,-2 1,0 0,-2-1,-1 0,-2-1,0 0,-2 0,-1-1,-29 45,33-58,-1-1,0 1,-1-2,0 1,-1-1,0-1,-16 10,22-17,1 0,0 0,-1-1,0 0,1 0,-1 0,0-1,0 0,0 0,0-1,0 1,0-1,0 0,0-1,0 0,0 0,0 0,0-1,0 1,0-2,1 1,-6-3,6 1,0 1,0-1,0 0,1 0,0 0,0-1,0 1,0-1,1 0,0 0,0-1,0 1,1-1,-1 1,1-1,1 0,-1 1,1-1,-1-11,-2-15,2 0,3-47,-1 43,1-33</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3642.04">2621 767,'-1'10,"0"-1,-1 0,0 1,0-1,-1 0,0-1,-1 1,0 0,-5 8,-10 24,18-39,-47 118,-38 139,76-220,1 0,3 0,1 0,1 1,3 0,1 0,2-1,8 51,-8-80,1-1,0 1,0-1,1 0,0 0,1 0,0 0,0-1,1 0,0 0,0-1,1 1,0-1,0-1,1 1,0-1,0-1,0 1,1-2,0 1,0-1,0 0,0-1,13 3,-18-5,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-1-1,1 1,0-1,0 1,-1-1,1 0,-1 0,0-1,1 1,-1-1,0 0,-1 1,1-1,0-1,2-3,9-12,-2 0,0 0,10-23,-14 25,19-33,11-22,51-133,-67 144,-13 39,0-2,-2 1,-1-1,0 0,2-36,-4-40,-10-103,5 197,0-1,-1 1,1 0,-1 0,0 0,-1 0,1 0,-1 0,-1 0,1 1,-1 0,0 0,0 0,0 0,-1 0,1 1,-12-8,6 6,0-1,0 2,-1-1,0 1,0 1,-1 0,1 1,-21-4,9 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4273.62">2409 1111,'0'5,"4"1,16 4,8 1,13 2,4 0,4-3,2 1,-3 0,-5-3,-1-3,-4-1,2-3,3 13,-7 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5061.22">3600 1137,'13'0,"32"0,12 0,6 0,-3 0,-8 0,-8 0,-2 0,-4 0,-4 0,-4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5646.9">3679 1561,'4'0,"16"0,21 0,19 0,6 0,12 0,0 0,-3 0,-6 0,-10 0,-11 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">414 0,'-2'34,"-2"1,-2-1,-10 35,-1 10,-22 133,-19 404,57-542,7 377,-5-439,-1 0,2 0,0-2,0 2,1-1,0 1,1-2,9 18,-10-23,0-1,0-1,0 1,0 0,0 0,2-1,-1 1,0-2,0 1,0 0,0-1,2 1,-2-1,1 0,-1 0,1 0,0-1,1 0,-1 0,0 0,0-1,11 1,3-3,-1 0,1 0,0-2,-2 0,1-2,1 1,-3-2,26-11,7-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="614.57">1 961,'34'1,"1"1,-1 2,0 0,1 2,63 20,-64-16,-2-3,2 0,-1-2,1-2,0 0,47-3,-58-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2226.99">1432 1214,'-8'0,"2"1,0-1,0 1,-1 0,0 0,1 0,0 1,0 0,0 1,0-1,1 1,-2-1,2 1,0 1,0-1,0 1,-1 1,2-2,-1 1,1 1,0 0,-6 7,-8 13,0 1,1 1,2-1,1 2,2 0,0 1,2-1,2 2,0 0,-2 30,10-56,0-2,0 2,0-1,1 1,0-1,-1 1,1-1,0-1,1 1,-1 1,1-1,-1 0,1 0,1 0,-1-1,3 4,0-1,0 0,1-1,0 0,0 0,0 0,1 0,10 3,4 0,0 0,0-1,0-2,34 5,-50-8,14 2,2-2,-1 1,26-3,-41 1,0-1,-1 0,1 1,1-2,-2 1,1 0,-1-1,0 0,1 0,0 0,-1-1,0 2,0-2,-1 0,1 0,-1 0,1-1,5-5,-2-3,0 1,0-1,-1 0,-1 0,-1 0,0 0,0-1,-1 0,1-13,-2-13,-4-65,0 69,1-1,6-49,-5 84,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,3 0,-3 1,1 0,0 0,-1 0,1 0,0 0,-1 0,2 0,-1 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,0 1,1 0,4 5,0 0,-1-1,1 2,-2-1,4 8,11 29,-2 1,-2 0,10 63,7 143,-24 268,-8-489,-1-2,-1 0,-2 1,0 0,-3-2,0 1,-2-1,-1 0,-1 0,-2-1,-29 42,33-54,0-2,-1 2,0-3,0 2,-2-2,1 0,-18 9,24-16,1 0,0 0,-1-2,-1 1,2 0,-1 0,0-1,-1 0,1 0,0-1,0 1,-1-1,1 0,0-1,0 0,0 0,-1 0,1-1,0 1,0-2,0 2,-5-4,6 1,0 1,-1-1,1 0,1 1,0-1,0-1,0 1,-1-1,2 1,0-1,0-1,0 1,1 0,-1 0,1-1,1 0,-2 2,2-2,-1-10,-2-15,2 0,3-44,-1 40,1-31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3642.04">2725 733,'-1'10,"0"-1,-1-1,0 2,0-2,-2 1,1-1,-1 0,0 1,-5 7,-11 23,19-37,-49 113,-39 133,78-211,2 0,3 0,0 1,2 0,3 0,1 0,2 0,9 48,-9-77,1 0,0 0,0 0,1 0,0-1,2 1,-1-1,0 0,1 0,0-1,1 0,0 1,0-2,1 0,0 1,0-1,0-2,1 2,0-2,1 1,-1-1,0-1,1 0,12 3,-17-5,0-1,-1 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 0,-1-1,1 1,1-1,-1 1,-1-1,1 1,-1-1,0-1,1 1,-1-1,1 0,-2 1,1-1,0 0,2-4,10-11,-3-1,1 1,10-22,-15 24,20-32,11-21,54-127,-70 138,-14 37,1-2,-3 1,-1-1,0 0,3-34,-5-39,-10-98,4 188,1 0,-1 0,1 0,-1 0,0 1,-1-1,1 0,-1 0,-1 1,1 0,-2 0,1 0,0 1,0-1,-1 0,1 1,-13-7,7 5,-1-1,1 2,-2 0,1 0,-1 1,0 0,1 1,-23-3,10 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4273.62">2504 1062,'0'5,"5"1,15 3,10 2,12 1,5 1,4-4,2 2,-3-1,-5-2,-2-3,-3-1,1-3,4 12,-8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5061.22">3743 1087,'13'0,"34"0,12 0,7 0,-4 0,-8 0,-8 0,-2 0,-5 0,-4 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5646.9">3825 1493,'4'0,"17"0,21 0,21 0,5 0,14 0,-1 0,-3 0,-7 0,-9 0,-12 0,-14 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22719,18 +23779,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 900,'0'-5,"1"0,0 0,0 0,1 0,0 0,0 0,0 0,0 1,1-1,0 1,0-1,0 1,0 0,0 0,1 1,0-1,6-4,10-7,-1 1,30-15,-45 26,21-12,0 2,1 1,0 1,1 1,0 1,1 1,-1 2,2 1,-1 1,51-1,-60 6,1 1,-1 0,1 1,-1 1,0 1,0 1,0 0,-1 2,0 0,0 1,-1 1,0 0,-1 1,0 1,-1 0,0 2,-1-1,-1 2,0 0,-1 0,0 1,-1 1,-1 0,-1 0,14 37,47 161,-68-209,1 1,-1-1,1 0,1 0,-1 0,1 0,0 0,0-1,1 0,-1 0,11 8,-3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536.68">1033 450,'-5'5,"-5"10,-11 16,-10 12,-5 3,-1-2,-2 1,0 1,7-2,9-4,8-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1572.89">901 423,'-10'0,"0"-1,0 2,0-1,1 1,-1 1,0 0,1 0,-1 1,1 0,0 0,0 1,0 0,0 1,1 0,0 0,0 1,0 0,1 1,-14 14,-12 17,1 1,2 2,1 1,3 2,1 0,3 1,-34 97,39-92,10-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2835.73">1007 26,'170'-13,"-121"6,0 3,59 2,-103 2,-1 1,1 0,-1 0,1 0,-1 0,1 1,-1 0,1 0,-1 0,0 0,0 0,0 1,-1 0,1 0,0 0,-1 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 0,0 1,0 0,1 7,2 15,-2 1,0-1,-2 1,-4 32,2-15,2-12,1-20,-1 1,0 0,-4 24,3-35,1-1,-1 1,1 0,-1-1,0 1,0-1,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,-1 0,1 0,-4 1,-5 1,0-1,0 0,0-1,-1 0,1-1,0 0,0-1,0 0,-1-1,1 0,-19-7,29 9,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,12-4,24 0,-19 4,12-2,1 1,0 1,-1 2,1 1,0 2,50 12,-75-14,-1-1,0 2,0-1,0 0,0 1,0 0,3 3,8 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3342.73">2091 529,'4'14,"2"13,0 20,-1 43,-2 19,-1-4,-1-7,0-15,-1-17,0-16,-1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3782.82">1800 1032,'4'0,"16"0,8 0,9 0,11 0,2 0,-2 0,-6 0,-5 0,0 0,-2 0,-2-4,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5341.52">2938 661,'-1'-1,"1"0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0 0,-2 0,-41-5,39 5,-7-1,0 0,-1 1,1 1,-1 0,1 0,0 1,0 1,0 0,0 1,0 0,1 1,-1 0,1 0,1 2,-1-1,1 1,0 1,0 0,1 0,0 1,1 0,0 0,0 1,-7 13,10-15,0 0,1 0,0 1,0 0,1-1,0 1,0 1,1-1,1 0,-1 1,1-1,1 0,0 14,1-18,0-1,0 1,0-1,1 1,-1-1,1 1,0-1,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 1,1-1,0 0,-1 0,1-1,0 1,0-1,0 0,1 0,-1 0,0-1,1 1,-1-1,9 1,-4 0,-1 0,1-1,-1-1,1 1,-1-1,1-1,0 1,-1-2,0 1,1-1,-1 0,0-1,0 0,0 0,0-1,0 0,-1 0,0-1,0 0,0 0,0 0,-1-1,0 0,0-1,-1 1,0-1,0 0,0 0,-1-1,0 1,0-1,-1 0,0 0,-1 0,1-1,-2 1,1 0,0-14,-2-44,-1 53,1 1,0-1,0 1,1-1,3-13,-3 26,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,5 18,1 28,-2 228,-1-44,0-193,2-1,14 51,1 2,-17-66</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6392.95">3467 926,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10340.32">3467 900,'7'5,"0"-1,0-1,1 1,-1-1,1-1,0 1,0-1,16 2,-1 0,168 34,-187-37,1 1,-1 0,0 0,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 1,0-1,1 0,-1 1,-1-1,1 1,-1-1,0 1,0 7,0 4,-1 0,-1 1,0-1,-1 0,-1 0,-9 27,-10 5,-2-1,-2-1,-2-2,-56 67,71-95,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12985.01">4658 741,'-18'1,"0"0,1 0,-1 2,1 0,0 1,0 1,0 0,1 2,-1 0,-24 15,32-17,1 0,1 1,-1 0,1 0,0 1,1 0,-1 0,1 1,1 0,0 0,0 0,0 0,1 1,0 0,1 0,0 0,0 0,1 0,0 1,-1 17,-8 107,-1 41,11-152,1-11,0 1,0-1,1 0,0 1,6 20,-6-30,0 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0-1,0 0,0 0,1 0,-1 0,0-1,0 1,6-1,40 3,56-6,-18 0,-79 3,0 0,1-1,-1 0,0-1,0 1,1-2,-1 1,-1-1,1 0,0-1,-1 0,0 0,0-1,0 0,0 0,-1 0,10-11,-8 7,-1-1,1-1,-2 0,0 0,0 0,-1-1,0 1,-1-1,0 0,-1-1,2-12,7-65,0-176,-12 259,0-1,-1 0,0 1,0-1,0 1,-1 0,-1-1,1 1,-1 0,0 0,0 0,-1 1,0-1,0 1,-1 0,0 0,0 0,0 1,-1 0,1 0,-1 0,-1 1,1-1,0 2,-1-1,0 1,0 0,0 0,0 1,-1 0,1 0,0 0,-1 1,0 1,1-1,-12 1,-76 4,67-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25825.47">319 741,'-2'0,"1"0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0 0,-1-1,1 1,0 0,0-3,0-37,1 35,1 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,1-1,-1 1,1 0,0-1,0 2,0-1,1 0,-1 1,1 0,0 0,0 0,0 1,0 0,0 0,1 0,-1 0,0 1,1 0,7-1,0 1,0 0,0 0,0 1,0 0,1 2,-1-1,0 1,-1 1,1 1,22 8,-14-3,-1 1,1 1,-2 0,0 2,0 0,-1 1,-1 1,0 1,-1 0,-1 1,0 1,-2 0,0 1,-1 0,-1 1,16 38,21 92,8 22,-46-147,1-1,1 0,1-1,27 37,-31-52,-1 1,1-1,0-1,16 11,18 15,-30-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27318.8">901 503,'-7'0,"1"-1,0 1,-1 0,1 1,0-1,0 1,0 0,-1 1,1 0,0 0,1 0,-1 0,0 1,1 0,-1 0,1 1,0 0,0-1,0 2,1-1,-1 0,-5 10,-42 54,4 4,-64 125,-55 166,161-350,-5 9,-1-1,-1 0,-1-1,-1 0,-24 26,24-31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 863,'0'-4,"1"-1,0 0,0 0,1 0,0 1,0-1,0 0,0 1,2-1,-1 2,0-2,0 1,0 0,0 0,1 1,0-1,7-3,9-8,0 2,31-15,-47 25,22-11,0 1,1 2,-1 0,2 2,0 0,1 1,-1 3,2 0,-1 1,53-1,-62 6,0 1,0 0,1 1,-2 1,1 1,0 0,-1 1,0 2,0-1,-1 2,0 1,-1-1,0 2,0 0,-2 1,1 1,-2 0,0 1,-1 1,-1-1,1 1,-2 2,0-1,-2 0,15 36,48 154,-70-200,1 1,-1-2,2 1,0 0,-1 0,1-1,0 1,0-1,1 0,0 0,10 7,-3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536.68">1069 432,'-5'4,"-5"11,-12 15,-10 11,-6 3,0-2,-2 1,-1 1,8-1,9-5,9-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1572.89">932 406,'-10'0,"0"-1,-1 2,1-1,1 1,-2 1,1 0,1-1,-2 2,2 0,0 0,-1 1,1 0,0 1,0-1,1 1,0 1,0 0,0 0,-13 15,-13 15,0 1,3 3,1 0,3 2,2 0,2 2,-35 92,40-88,11-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2835.73">1042 25,'176'-13,"-125"7,-1 2,62 2,-107 2,0 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,2 0,-2-1,0 1,0 0,0 1,-1 0,1 0,1 0,-2 0,0 1,0-2,0 2,0 0,-1 0,1 0,-1 0,0-1,1 2,-1-1,-1 0,0 1,0-1,1 8,2 14,-2 1,0-1,-2 1,-4 30,2-14,2-11,1-20,-1 2,0-1,-4 24,3-34,1-2,-1 2,1 0,-1-1,0 1,0-1,-2 1,2-1,0 0,-1 1,1-2,-1 1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,-2 0,2 0,-4 1,-5 0,-1 0,1 0,0-1,-2 0,2-1,-1 0,1-1,0 0,-2-1,2 0,-20-6,30 8,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,12-4,25 1,-19 3,12-2,1 1,0 1,-1 2,1 1,0 2,52 11,-78-13,-1-1,0 2,0-1,1 0,-1 0,0 1,3 3,9 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3342.73">2164 507,'4'14,"2"12,1 19,-2 41,-2 19,-1-5,-1-5,0-16,-1-16,0-15,-1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3782.82">1863 990,'4'0,"17"0,8 0,9 0,12 0,1 0,-1 0,-7 0,-4 0,-1 0,-2 0,-2-4,-6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5341.52">3041 634,'-2'-1,"2"0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0 0,-2 0,-43-5,41 5,-8-1,1 0,-1 1,0 1,0 0,0 0,1 1,-1 1,1 0,0 1,-1-1,2 2,-2 0,2 0,1 2,-2-2,2 2,0 1,-1-1,2 1,0 1,0-1,1 1,0 0,-8 14,11-16,0 1,1 0,0 0,-1 1,2-1,0 0,0 2,1-2,1 1,-1 1,1-2,1 1,0 13,1-17,0-1,0 0,0 0,1 1,-1-1,1 1,0-2,0 1,1 0,0 0,0 0,0-1,0 1,0-2,0 2,1-1,0 0,-1 0,2-1,-1 1,0-1,0 0,1-1,-1 1,0-1,2 1,-2-1,9 1,-3 0,-2 0,1-1,-1-1,2 1,-2-1,1-1,1 1,-2-2,0 1,2-1,-2 0,0-1,0 0,1 1,-1-2,0 0,-1 0,1-1,-1 0,0 1,0-1,0-1,-1 0,0 0,-1 0,0-1,1 0,-1 1,-1-2,0 1,0 0,-1-1,0 0,-1 1,2-2,-3 1,1 1,0-14,-2-43,-1 52,1 0,0 0,0 0,1 0,3-13,-3 25,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,5 17,1 27,-1 219,-2-42,0-186,2 0,15 48,0 3,-17-64</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6392.95">3588 888,'4'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10340.32">3588 863,'7'5,"0"-1,1-1,0 1,-1-1,2-2,-1 2,0-1,17 2,-1 0,173 32,-192-35,0 1,-1 0,0 0,0 0,0 1,-1 0,2-1,-2 1,1-1,-1 2,0-1,0 1,0-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,-1 1,0-1,1-1,-1 2,-1-1,1 1,-1-1,0 0,0 8,0 3,-1 1,-1 0,0-1,-1 1,-2-1,-8 26,-11 5,-2-1,-2 0,-2-3,-58 64,74-90,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12985.01">4821 711,'-19'1,"0"0,2 0,-2 2,1-1,1 2,-1 1,1 0,0 2,0-1,-26 15,34-16,1 0,0 1,0 0,1-1,0 2,0 0,0-1,1 2,1 0,0-1,-1 1,1 0,1 0,0 1,1 0,0-1,0 1,0 0,1 0,-1 17,-8 103,-1 39,10-146,2-11,0 2,0-2,2 1,-1 0,6 20,-6-29,0-1,1 1,-1 0,1 0,0 0,-1-1,1 1,0-1,1 1,-1-2,1 1,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0-1,0 0,1 0,0 0,-1 0,0-1,0 1,6-1,42 3,58-6,-19 0,-82 3,0 0,2-1,-2 0,0-1,0 1,2-2,-2 1,-1-1,2 0,-1 0,-1-1,0 0,1-1,-1 0,0 0,-1 1,11-12,-9 8,-1-2,2 0,-3-1,0 0,0 1,-1-2,1 2,-2-2,0 1,-1-2,2-11,8-62,-1-169,-12 248,0-1,-1 1,0 0,0-1,0 2,-1-1,-1-1,1 2,-2-1,1 0,0 0,-1 2,0-2,0 1,-1 0,-1 1,1-1,0 1,-1 0,1 1,-1-1,-2 1,2-1,0 2,-1-1,-1 2,1-1,0 0,0 1,-2 0,2 0,0 0,-1 1,-1 1,2-1,-13 1,-78 4,69-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25825.47">330 711,'-2'0,"1"0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-2 0,1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0-3,0-35,1 33,1 1,1-1,-1 2,0-1,1 0,-1 0,1 0,0 2,1-2,-1 1,1 0,1-1,-1 2,0 0,1-1,-1 1,1 0,0 0,1 0,-1 1,0 0,0 1,1-1,0 0,-1 1,1 0,7-1,1 1,-1 0,1 0,-1 1,1 0,0 2,0-1,-1 1,0 1,0 0,23 9,-14-3,-1 0,0 2,-1-1,0 3,-1-1,0 2,-1 0,-1 1,0 1,-2 0,1 1,-3 1,1 0,-2 0,-1 1,17 37,22 88,8 21,-48-141,2-1,0 0,2-1,27 35,-32-49,0 1,0-2,0 0,17 10,19 15,-32-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27318.8">932 483,'-7'0,"1"-1,0 1,-1 0,0 1,1-1,0 0,0 1,-2 1,2 0,0 0,1 0,-1 0,-1 1,2 0,-1 0,1 0,0 1,0-1,-1 2,2-1,-1 0,-5 9,-44 52,4 4,-66 120,-57 160,167-337,-5 9,-2-1,0 0,-2 0,0-1,-25 25,24-30</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22814,7 +23874,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">959 428,'-7'-10,"1"0,-2 0,1 1,-1-1,-1 2,1-1,-18-11,15 11,0-1,0 1,1-2,1 1,-13-19,-16-39,26 43,-1 1,-1 0,-26-31,35 49,-1 0,1 0,-1 1,0 0,-1 0,1 1,-1-1,0 1,0 1,0 0,0 0,-1 0,1 1,-1 0,0 0,-12-1,12 2,0 1,0 0,0 0,1 1,-1 0,0 0,0 1,1 0,-1 0,1 1,0 0,-1 0,-10 8,8-4,1 1,-1 1,1 0,1 0,0 0,0 1,-11 20,3-1,2 0,1 0,1 1,1 1,2 0,1 0,2 1,1 0,1 0,2 0,1 0,6 53,4-13,3-1,3-1,2 0,44 107,-45-134,-3 1,-1 0,9 71,-4 141,-6-82,1 62,-9-112,-1-29,-13 144,-10-122,18-101,-1-1,-1-1,-1 1,0-1,-13 22,16-32,-1 1,0-1,0 0,0-1,-1 1,0-1,1 1,-1-1,0-1,-1 1,1-1,0 0,-1 0,1 0,-1-1,1 0,-11 1,-12 0,0-1,-40-4,30 1,29 2,-1-1,1 0,0 0,0-1,-1 0,1 0,1-1,-1 0,-9-5,14 5,1 1,-1-1,0 0,1 0,0 0,0 0,0-1,0 1,0-1,0 0,1 0,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 1,0-6,-1-14,1 0,3-25,-1 37,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">958 408,'-7'-10,"1"1,-2-1,1 2,-1-2,-1 2,1 0,-18-11,15 10,0 0,0 0,1-1,1 0,-13-17,-16-38,26 41,-1 1,-1 0,-26-29,35 46,-1 0,1 1,-1 0,0 0,-1 0,1 2,-1-2,0 1,0 1,0 0,0 0,-1 1,1 0,-1 0,0 0,-12-1,12 2,0 1,0 0,0 0,1 1,-1 0,0 0,0 1,1 0,-1 0,2 0,-1 1,-1 0,-10 8,8-5,1 2,-1 0,1 1,1 0,0-1,0 2,-11 18,3 0,2 0,1-1,1 2,1 0,2 1,1-1,2 2,1-1,1 1,2-1,1 1,6 50,4-13,3 0,3-1,2-1,44 103,-45-128,-3 1,-1 0,9 67,-4 135,-6-78,0 59,-8-107,-1-27,-12 136,-11-115,18-97,-1-1,-1 0,-1 0,0-1,-13 22,16-32,-1 2,0-1,0 0,0-1,-1 0,0 0,1 1,-1-1,0-1,-1 1,1-1,0 0,-1-1,1 1,-1-1,1 0,-11 1,-12 0,0-1,-40-4,30 1,29 2,-1-1,1 0,0 0,0 0,-1-1,1 0,1-1,-1 0,-9-5,14 6,1 0,-1-1,0 0,1 0,0 0,0 0,0 0,0 0,0-1,0 0,1 0,0 0,0 1,0-1,1 0,-1-1,1 1,0 0,0 0,0-6,-1-13,1 1,3-25,-1 35,0-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22841,17 +23901,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">585 979,'-121'-1,"-130"3,242-1,0 0,0 0,0 1,0 0,0 1,0-1,0 2,1 0,0 0,0 0,0 1,0 0,0 0,1 1,-10 10,10-8,0 1,0 1,1-1,0 1,1 0,0 0,1 0,0 1,0 0,1 0,-2 16,2-10,2 0,0 0,1 0,0 0,2 0,0 0,0 0,2 0,0-1,1 1,1-1,0 0,1-1,1 0,0 0,18 23,-17-28,1-1,1 0,-1-1,1 0,1 0,-1-1,1-1,0 0,1 0,18 4,-13-4,-1-2,1 0,0-1,1 0,-1-2,0 0,22-2,-35 0,-1 0,1 0,-1 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 1,-1-1,0 0,6-5,16-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="788">1141 26,'-1'150,"17"536,36-307,-49-363,0 4,2 0,0 0,10 24,-12-38,0 0,0 0,1 0,0 0,0-1,0 1,1-1,0 0,0-1,0 1,0-1,1 0,9 5,-1-2,1 0,-1-1,1-1,0 0,1-1,-1-1,1 0,-1-1,1-1,24-1,-33 0,-1 0,0-1,1 0,-1-1,0 1,0-1,0 0,0 0,0-1,0 0,0 0,-1 0,0-1,0 0,0 0,0 0,0-1,-1 1,0-1,0 0,0 0,0-1,-1 1,0-1,0 0,-1 0,1 0,1-7,2-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1539.99">1035 740,'0'-4,"9"-2,16 1,13 0,32 2,8 5,-4 3,-11 0,-11 0,-6-2,-10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3429.99">2093 846,'-12'1,"1"-1,0 1,0 1,-1 0,1 1,1 0,-1 0,0 1,1 1,0 0,0 0,0 1,1 0,-1 1,2 0,-1 0,1 1,0 0,0 1,1-1,0 1,1 1,0-1,-8 20,7-9,1 1,1 0,2 0,0 1,1-1,0 1,2-1,3 24,-3-42,1 1,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,0-1,0 0,1 1,-1-1,1 0,4 4,-1-2,0-1,1 0,-1 0,1 0,0-1,0 0,13 4,-1-3,0 0,0-1,0-1,0 0,34-3,-44 0,1 0,-1-1,1 0,-1-1,0 1,0-2,0 1,-1-1,1-1,-1 0,0 0,14-11,-12 6,1-1,-1 0,-1 0,0-1,-1 0,0 0,11-25,-9 15,-2-1,0 1,-2-1,0-1,-2 1,0-1,-2 0,0 0,-2 0,-3-28,-2 37,0 25,-2 32,-2 79,5 1,6-1,4 1,24 120,-16-110,-9 262,-7-212,2-169,0 1,-1-1,0 1,-1-1,-1 1,-4 14,6-25,-1 0,1-1,0 1,-1 0,1-1,-1 1,0-1,1 0,-1 0,0 1,-1-1,1-1,0 1,-1 0,1 0,-1-1,1 1,-1-1,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0-1,1 1,-1-1,-5-1,6 1,-1 0,0 1,1-1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,1-1,-1 1,0 0,1 0,-2-5,0-1,0 0,0 0,1 0,0 0,0-9,-2-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4275.52">3125 317,'-7'1,"0"0,0 0,0 0,0 1,1 0,-1 0,1 1,-1 0,1 0,0 0,0 1,1 0,-1 0,1 0,-1 1,1 0,1 0,-6 7,-8 11,1 2,-26 50,33-57,-18 37,3 0,2 2,2 1,3 0,3 1,2 1,2 1,4-1,2 1,5 106,0-162,1 1,0-1,0 0,0 1,1-1,0 0,0 0,0 0,1-1,-1 1,1 0,0-1,0 0,1 1,-1-1,8 5,2 1,1 0,0-1,0-1,16 6,9 6,-18-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5478.76">3416 608,'-32'46,"-7"32,-38 107,63-142,1 1,2 0,2 1,-4 60,12-91,2 0,-1 1,2-1,0 0,1 0,0 0,1 0,1-1,0 1,1-1,0 0,1-1,1 1,0-1,0-1,20 21,-21-25,0 0,1-1,0 0,0 0,0-1,1 0,-1 0,1-1,0 0,1-1,-1 0,1 0,-1-1,1-1,0 1,-1-1,1-1,0 0,0 0,0-1,0 0,-1-1,1 0,-1-1,16-5,-12 2,0 0,0-1,0 0,-1-1,0-1,0 0,-1 0,0-1,-1 0,0-1,-1 0,0-1,0 0,-1-1,-1 1,0-1,-1-1,-1 1,0-1,0 0,-2 0,1 0,-2-1,0 1,-1-1,-1-21,-6-259,6 290,0-1,0 1,-1-1,1 1,-1-1,0 1,-1 0,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 1,0-1,-1 1,1-1,-1 1,0 0,0 1,0-1,0 1,-1-1,1 1,-1 1,0-1,0 1,0-1,0 1,0 1,0-1,-1 1,1 0,-11-1,-12 0,1 0,-52 5,41-1,15-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6066.96">3205 1031,'4'0,"6"0,7 0,8 0,5 0,2 0,4 0,10 0,1 0,7 5,7 1,2 4,-5 1,-12-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6747.67">3813 158,'1'-1,"0"0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,-1 1,1 0,0-1,0 1,0 0,0 0,3 0,2 1,0 0,0 0,0 0,0 1,0 0,-1 1,1-1,-1 1,1 1,-1-1,0 1,0 0,-1 0,1 1,-1 0,0 0,0 0,6 10,6 8,-1 1,-1 0,15 33,-6-4,-3 2,-2 0,-2 1,-3 1,-2 0,5 74,-6 354,-13-358,0-105,0 0,-1 0,-2-1,0 1,-1-1,-13 30,13-37,7-6,7-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8113.57">5374 0,'9'28,"-1"0,-2 0,0 1,-2-1,1 54,-1-19,16 266,49 411,-66-719,-2-12,0-1,0 0,0 1,1-1,1 0,-1 0,2 0,-1-1,6 10,-7-27,-4-34,-3 1,-18-83,-37-85,46 167,11 34,-5-19,-2 0,-1 0,-24-45,32 68,-1 0,0 0,0 0,-1 0,0 1,1-1,-2 1,1 1,-1-1,1 1,-1 0,0 0,-1 1,1-1,-1 2,1-1,-1 1,0 0,0 0,0 0,-10 0,-10 1,-1 1,0 1,0 1,1 1,-38 11,49-10,0 1,1 1,0 1,1 0,-1 1,1 0,1 2,0-1,0 1,-18 19,17-15,1 1,1 0,0 1,1 0,1 1,-14 29,21-37,0 0,0 1,1-1,0 1,0-1,1 1,1-1,-1 1,2 0,-1-1,1 1,1-1,0 1,0-1,6 16,9 20,2 0,2-1,2-1,28 40,-41-69,0 0,2-1,-1 0,1-1,1-1,0 0,1 0,0-1,1-1,0-1,0 0,1-1,0 0,29 7,-31-10,0-2,-1 1,1-2,0 0,0 0,19-3,-26 1,0 0,0-1,0 0,0-1,-1 1,1-1,-1 0,1-1,-1 0,0 0,-1 0,1-1,9-9,-3 1,0 0,0-1,-1 0,-1-1,-1 0,0 0,-1-1,0 0,-2-1,0 0,0 0,-2 0,0-1,-1 1,-1-1,0-20,-1-22,0 23,-2 1,-9-74,4 86</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9389.4">6327 688,'-9'1,"0"1,1-1,-1 1,1 1,-1-1,1 1,0 1,0 0,0 0,1 0,0 1,-1 0,-10 11,-1 2,0 1,1 0,-19 27,18-15,2 1,0 0,3 2,0-1,3 2,0 0,-9 64,16-82,2 1,0-1,1 1,0 0,2 0,3 22,-3-35,0 0,0 0,0 0,1 0,0-1,0 1,0 0,1-1,-1 1,1-1,0 0,1 0,-1 0,1 0,-1-1,1 0,0 1,0-1,1-1,-1 1,1 0,-1-1,1 0,0 0,7 1,27 4,-1-3,1-1,0-2,-1-1,53-8,-89 8,12-1,-1-1,0-1,1 0,-1-1,-1 0,1-1,-1 0,1-1,-2 0,1-1,-1-1,0 1,0-2,-1 0,0 0,-1-1,0 0,0 0,-1-1,0 0,-1-1,-1 1,0-1,0-1,-1 1,-1-1,4-14,-2-2,-1-1,-2 0,0 0,-2 0,-2 0,0 0,-9-43,9 66,-1 1,1 0,-1 0,-1 0,1 1,-1-1,0 0,0 1,0 0,-1 0,0 0,0 0,0 0,-1 1,-8-7,4 5,0 0,0 1,0 0,-1 1,1 0,-1 1,0 0,-19-4,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10098.4">6062 1111,'210'14,"4"0,-163-15,-21-1,-1 2,1 0,-1 2,0 2,1 0,-2 2,34 11,-22-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">607 946,'-126'-1,"-134"3,251-1,-1 0,1 0,0 1,-1 0,1 1,0-1,-1 2,2-1,0 1,-1 0,1 1,0 0,-1 0,2 0,-10 11,9-8,1 0,0 2,1-1,-1 0,2 1,0 0,1-1,0 2,-1 0,2-1,-2 16,2-9,2-1,0 1,1-1,0 0,2 1,0-1,0 1,2-1,1 0,0 0,1 0,0-1,1 0,2-1,-1 1,19 21,-18-26,2-1,0-1,-1 0,2 0,0-1,0 0,0-1,1 0,0 0,19 3,-13-3,-1-2,0 0,1-1,1 0,-2-2,1 0,22-2,-35 0,-2 0,1 0,-1 0,0 0,0-1,1 0,-1 0,0 0,0 0,0-1,0 1,-1-1,0 0,7-4,16-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="788">1183 25,'-1'145,"18"518,37-297,-51-350,0 3,2 0,0 1,11 22,-13-36,0 0,0 0,1-1,1 1,-1-1,0 1,1-1,0 0,0-2,1 2,-1-1,1 0,10 5,-2-3,2 1,-2-1,2-1,-1 0,2-1,-2-2,2 1,-1-1,0-1,26-1,-35 0,-1 0,0-1,2 0,-2-1,0 1,0-1,1 1,-1-1,0-1,0 0,0 0,0 0,-1-1,0 0,0 0,0 1,1-2,-2 1,0-1,0 0,0 0,0 0,-1 0,0-1,1 0,-2 0,1 1,1-8,2-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1539.99">1073 715,'0'-4,"10"-2,16 2,13-1,34 2,8 5,-5 3,-10 0,-12-1,-7-1,-9-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3429.99">2171 818,'-13'1,"2"-1,-1 1,1 0,-1 1,0 1,2 0,-2 0,1 1,1 1,-1 0,1-1,-1 2,2 0,-1 1,1 0,0-1,1 2,0 0,-1 0,2 0,0 1,0 1,1-2,-8 20,6-8,2 0,1 0,2 1,0 0,1-1,0 1,2 0,3 22,-3-40,1 1,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,0 1,0-1,0 0,2 1,-2-2,1 1,4 4,-1-2,0-1,2 0,-2 0,1-1,0 0,1 0,12 4,0-3,0 0,0-1,-1-1,1-1,35-2,-46 1,2-1,-2-1,1 0,0-1,-1 1,0-2,1 1,-2-1,1-1,0 1,-1-1,15-11,-13 7,1-2,0 0,-2 1,1-2,-2 1,0-1,12-24,-10 15,-2-1,1 0,-3 0,0-1,-2 1,1-1,-3-1,0 1,-2 0,-3-27,-3 35,1 25,-2 31,-2 75,4 2,8-1,3 1,25 116,-17-106,-8 252,-9-204,3-163,0 0,-1 0,0 0,-1 0,-1 1,-4 13,6-24,-1-1,1 0,0 1,-1 0,1-1,-1 1,0-1,0 0,0 0,0 1,-1-1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,-1 0,2 0,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1 0,0-1,1 1,-1-1,-5-1,6 1,-1 0,-1 1,2-1,-1-1,1 1,0 0,-1-1,1 2,0-2,0 0,0 1,0-1,0 0,-1 0,2-1,-1 1,0 0,1 0,-2-5,0 0,0-1,0 0,1 0,0 1,0-10,-3-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4275.52">3241 306,'-7'1,"-1"0,1 0,0 0,0 1,0 0,0 0,1 1,-1 0,0 0,1 0,0 0,1 1,-1 0,0 0,0 1,1 0,1 0,-7 6,-7 11,0 3,-26 47,33-55,-18 37,3-1,2 2,3 1,2 0,3 1,3 1,2 1,3-1,3 1,5 102,0-156,1 1,0-1,0 0,0 0,1 0,0 0,0 0,1 0,0-2,-1 2,1 0,0-1,0 0,1 1,-1-1,9 4,1 2,2 0,-1-2,1 0,16 6,9 5,-18-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5478.76">3543 588,'-33'44,"-8"31,-39 104,66-137,0 0,3 1,2 0,-5 59,13-89,2 1,-1 0,2 0,0-1,1 1,0-1,2 1,0-1,0 0,1 0,0-1,2 0,0 0,0 0,1-1,20 20,-22-25,0 1,1-1,1 0,-1-1,0 0,2 0,-2 0,1-1,1 0,0-1,-1-1,2 1,-2-1,1-1,1 1,-2-1,1-1,1 0,-1 0,1-1,-1 0,-1-1,2 0,-2-1,17-4,-13 1,1 0,-1-1,1 1,-2-2,1-1,-1 0,0 1,-1-2,-1 0,1 0,-2-1,0 0,1-1,-2-1,-1 2,1-2,-2 0,-1 0,0 0,0-1,-2 1,2-1,-3 0,0 0,-1 0,-1-21,-6-250,6 280,0-1,0 1,-2-1,2 2,-1-2,0 1,-1 0,1-1,-1 1,0 1,0-1,-1 0,1 0,-1 1,0-1,-1 2,0-2,0 1,0 0,0 1,0-1,0 1,-2-1,2 2,-1 0,0-1,0 1,0-1,-1 1,1 1,0-1,-1 1,1 0,-12-1,-12 0,1 0,-54 5,43-1,15-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6066.96">3324 996,'4'0,"6"0,8 0,8 0,5 0,2 0,5 0,9 0,2 0,7 5,7 1,3 4,-6 0,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6747.67">3954 153,'2'-1,"-1"0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,-1 1,1 0,0-1,1 1,-1 0,0 0,3 0,2 1,0 0,1 0,-1 0,0 1,0 0,0 1,0-1,-1 1,1 0,0 0,-1 1,0 0,-1 0,1 1,0 0,-1-1,0 1,6 10,7 7,-1 1,-2 0,16 33,-6-5,-3 2,-2 0,-3 1,-2 1,-3 0,6 72,-7 342,-13-347,0-100,0-1,-1 0,-2-1,0 2,-2-2,-12 29,12-35,8-6,8-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8113.57">5573 0,'10'27,"-2"0,-2 0,0 1,-1-1,0 53,-1-20,17 258,50 397,-68-694,-2-13,0 0,0 0,1 1,0-2,1 1,-1 0,2 0,-1-2,6 11,-7-27,-4-32,-3 0,-19-80,-38-82,48 162,10 32,-4-18,-2 0,-2 0,-24-43,33 65,-1 0,0 0,0 0,-2 1,1 0,1-1,-2 1,1 1,-2-1,2 2,-1-1,0 0,-1 1,0-1,0 2,1-1,-1 1,-1 0,1 0,0 0,-11 1,-10 0,-1 1,0 1,0 0,1 2,-39 11,50-10,0 1,2 0,-1 2,2 0,-2 1,2-1,0 3,1-1,-1 0,-18 19,18-14,0 0,2 1,-1 0,2 1,0 0,-13 29,20-37,1 1,0 1,1-1,0 0,0 0,1 1,1-2,-1 2,2 0,-1-2,1 2,1-1,0 0,0 0,7 15,8 20,3-1,2 0,1-2,30 39,-42-66,-1 0,3-2,-2 1,1-2,2 0,-1-1,2 1,-1-1,2-2,0 0,-1 0,2-1,-1-1,31 8,-33-10,1-2,-2 1,2-2,0 0,-1 0,20-3,-26 1,-1 0,0-1,0 0,1-1,-2 1,1-1,-1 0,2-1,-2 1,0-1,-1 0,1-1,10-9,-4 2,1-1,-1 0,0-1,-2 0,-1-1,1 1,-2-2,0 1,-1-2,-1 1,0 0,-2-1,0 0,-1 0,-1 0,1-20,-2-21,0 22,-2 2,-10-73,5 84</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9389.4">6562 665,'-10'1,"1"1,1-1,-2 1,2 1,-1-1,1 0,-1 2,1 0,0 0,0 0,1 1,-1 0,-11 10,-1 2,1 2,0-1,-19 27,18-15,2 0,1 1,2 2,1-1,2 2,1 0,-10 61,17-78,2 0,0 0,1 0,0 1,2-1,3 22,-3-35,0 1,0 0,0 0,1 0,0-1,0 0,0 1,2-1,-2 1,1-1,0 0,1 0,-1-1,1 1,-1-1,1 0,1 1,-1-1,1-1,-1 1,1 0,-1-1,2-1,-1 1,7 1,29 4,-2-3,2-1,-1-2,-1-1,56-8,-93 8,12-1,0-1,-1-1,2 0,-2-1,0 1,0-2,0 0,0-1,-1 0,0 0,-1-2,1 1,-1-2,0 1,-1-1,-1-1,1 1,-1-1,-1-1,1 1,-2-2,-1 2,0-2,1-1,-2 2,-1-2,4-13,-2-2,0-1,-3 0,0 0,-2 0,-2 0,0 0,-10-41,10 63,-1 1,1 0,-1 0,-1 1,1 0,-1-1,0 0,0 1,0 1,-2-1,1 0,0 0,0 0,-1 1,-9-6,5 4,0 0,-1 1,1 0,-1 2,0-1,0 1,0 0,-21-4,1 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10098.4">6287 1074,'218'13,"4"1,-169-15,-22-1,-1 2,1 0,-1 2,0 2,1 0,-2 1,35 12,-22-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22906,16 +23966,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'5'94,"4"0,30 130,7 66,-38 55,-9-285,1-33</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2836.01">610 662,'0'275,"1"-270,-1 4,0 1,1-1,0 1,5 14,-6-23,0 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,3 1,6-4,-1 0,1 0,-1 0,0-2,0 1,-1-1,1 0,-1 0,-1-1,11-11,67-86,-79 97,41-62,-31 43,2 1,0 1,41-41,-55 61,0 1,1-1,-1 1,1 0,0 0,0 1,0-1,1 1,-1 0,0 1,1-1,0 1,-1 0,1 0,-1 1,1 0,5 0,-7 1,0-1,-1 1,1 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,-1-1,1 0,-1 1,0-1,2 6,9 54,-3 0,-2 0,-4 1,-4 71,1-99</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3758.01">2224 159,'-4'1,"1"-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,-2 4,-2 4,0-1,0 1,1 0,-4 12,-30 98,-41 229,64-246,5 0,4 0,10 159,-1-224,3 0,1 0,16 55,-16-73,1 0,1-1,0-1,1 1,1-1,1-1,0 0,18 19,-19-26,0-1,1 0,0 0,0-1,1-1,0 0,14 6,-3-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5249.76">2779 556,'-8'1,"0"0,1 0,0 1,-1-1,1 2,0-1,0 1,0 0,0 0,0 1,1 0,-1 0,1 1,0 0,1 0,-1 0,-8 12,4-6,1 2,1-1,0 1,1 1,0-1,1 1,0 0,-3 18,8-28,0-1,0 1,1-1,0 1,0-1,0 1,0 0,0-1,1 1,0-1,0 1,0-1,0 1,0-1,0 0,1 0,0 1,0-1,0 0,0 0,0-1,0 1,1 0,-1-1,1 1,0-1,0 0,0 0,4 2,10 5,1 0,0-1,1-1,24 6,-6-2,-22-6,0 0,0 2,-1-1,16 11,-26-14,0 0,0 1,0-1,0 1,-1-1,0 1,0 0,0 0,0 1,0-1,-1 1,0-1,0 1,0 0,0 0,1 9,1 20,-2 0,-1 0,-2 0,-6 44,6-73,-1-1,1 0,-1 1,0-1,0 0,0 0,0 0,-1 0,0-1,0 1,0-1,0 1,0-1,-1 0,1-1,-1 1,0 0,0-1,0 0,0 0,-5 2,-4 1,-1 1,0-2,0 0,-1-1,-19 3,16-5,0-1,1-1,-1-1,0 0,1-1,-1-1,1-1,-29-11,-13-10,-59-36,67 34,13 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6032.8">3176 635,'9'0,"16"5,5 10,-4 12,4 32,-4 12,-7 1,-5-6,-6-1,-5-7,-2-4,-1-7,-1-8,0-4,-1-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6430.72">3282 238,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7635.02">3732 635,'3'6,"-1"-1,1 1,-1-1,0 1,0 0,0-1,-1 1,0 0,0 0,-1 0,1 0,-2 11,2 4,7 106,-11 169,3-292,0-1,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,-4 5,5-8,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,-10-18,6-1,0 0,2 0,0 0,1-1,1 1,1 0,1-1,1 1,0 0,1-1,1 2,1-1,1 0,12-26,-12 31,0 0,2 0,0 0,0 1,1 0,1 1,0 0,1 1,0 0,1 0,0 1,0 1,1 0,1 0,-1 2,1 0,1 0,20-6,-29 11,0 0,0 1,1 0,-1 0,0 1,1-1,-1 1,0 1,1-1,-1 1,0 0,0 1,0-1,0 1,0 0,0 1,0-1,8 7,-7-4,-1 1,1 0,-1 0,-1 0,1 1,-1 0,-1 0,1 0,-1 1,0 0,-1 0,0 0,3 12,1 7,-2 0,0 0,-2 1,-1 30,-8 111,5-161</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9020.24">4870 582,'-6'1,"1"0,0 1,0-1,0 1,0 0,0 1,0-1,1 1,-1 0,1 0,0 0,-1 0,1 1,1 0,-1 0,1 0,-1 0,1 0,0 1,-2 5,-6 9,1 0,0 0,-10 35,8-14,2 0,1 1,2 0,3 0,1 1,1-1,5 44,-2-76,1 0,-1 0,2 0,-1 0,1 0,0-1,1 1,0-1,0 0,1 0,0 0,1-1,-1 0,1 0,1 0,8 7,-11-11,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,0-1,0 1,0-1,0 0,0 0,0-1,0 0,0 0,0 0,-1 0,1-1,-1 1,1-1,3-4,6-4,-1-1,-1 0,0-1,-1-1,0 0,-1 0,0-1,-1 0,-1 0,10-28,-9 19,-2 0,0-1,-2 1,0-1,-2 0,1-48,-4 66,0 0,0 0,-1 1,0-1,0 0,-1 0,0 1,0-1,0 1,-1 0,0-1,0 1,0 0,-1 1,0-1,0 1,0-1,-1 1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 1,0-1,0 2,-1-1,1 1,-1 0,1 0,-1 0,0 1,1 0,-9 1,-9-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10077.35">4632 847,'8'9,"13"3,7 0,8-3,-3 2,-2-1,-2-2,-1-3,-1-2,-1-1,0-1,0-2,0 1,1 0,-1-1,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11240.17">5240 212,'6'1,"1"0,0 0,0 0,-1 1,1 0,-1 0,1 1,-1 0,0 0,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 0,0 0,7 12,6 10,-3 1,0 0,12 37,-18-43,5 15,-1 1,-3 1,-1 0,6 71,-10 164,-5-202,1-34,1-8,-1 0,-1 0,-2 0,-1 0,-1-1,-12 38,9-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'5'91,"4"-1,32 126,6 64,-39 53,-9-275,1-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2836.01">629 638,'0'266,"1"-262,-1 5,0 1,1-2,0 2,5 13,-6-22,0 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,1 0,-1 0,0-1,1 1,-1 0,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,4 1,5-4,-1 1,1-1,0 0,-1-2,0 1,0-1,0 1,-1-1,-1-1,12-10,68-84,-80 95,41-61,-31 42,1 1,1 1,42-40,-57 59,0 1,1 0,-1 0,1 0,0 0,1 1,-1-1,1 1,-1 0,0 1,1-1,1 1,-2 0,1 0,-1 1,1 0,6 0,-8 1,0-1,-1 1,1 0,-1 1,1-1,-1 1,2-1,-2 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-2,-1 2,1 0,-1 0,1 0,-1 0,0 1,-1-1,1 0,-1 0,0 0,2 6,9 52,-2 0,-3-1,-4 2,-4 68,1-95</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3758.01">2293 153,'-4'1,"1"-1,0 1,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 1,1-1,0-1,-1 2,1-1,-2 4,-2 4,0-2,0 2,1 0,-5 11,-30 95,-42 220,65-236,6-1,4 0,10 154,-1-217,3 1,1 0,17 52,-17-69,1-1,1-1,1 0,0 0,1-1,2 0,-1-1,19 19,-20-25,0-2,2 1,-1 0,0-2,2 0,-1 0,15 5,-3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5249.76">2865 536,'-8'1,"0"0,1 0,-1 1,0-1,1 2,0-1,-1 1,1 0,0-1,0 2,1 0,-2 0,2 1,0 0,1 0,-1-1,-9 13,5-7,1 3,0-2,1 2,1 0,0 0,1 1,-1-1,-2 18,8-27,0-1,0 1,1-2,0 2,0-1,0 1,0 0,0-1,1 1,0-1,0 0,0 0,0 1,0-1,0 0,1 0,0 1,0-1,0-1,0 1,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,0 0,4 2,11 4,0 1,1-1,1-2,24 7,-6-3,-22-5,-1 0,0 2,0-1,16 10,-27-13,0 0,0 1,0-1,0 0,0 0,-1 1,0 0,0 0,0 1,0-1,-1 0,0 0,0 1,0 0,0 0,1 8,2 20,-3 0,-1 0,-2-1,-7 44,7-72,-1 0,1 0,-1 1,0-1,0 0,0 0,0-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 0,1-2,-1 2,0 0,0-1,0 0,0 0,-6 2,-3 1,-2 1,1-3,0 1,-2-1,-19 3,17-5,-1-1,1-1,0-1,-1 0,2-1,-2-1,2-1,-31-10,-13-10,-60-35,68 33,14 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6032.8">3275 612,'9'0,"17"5,5 10,-5 11,5 31,-4 11,-7 2,-6-7,-6 0,-4-7,-3-4,-1-7,-1-7,-1-4,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6430.72">3384 230,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7635.02">3848 612,'3'6,"-1"-1,1 1,-1-1,0 0,0 1,0-1,-1 1,0 0,0-1,-1 1,1 0,-2 10,2 5,8 101,-12 164,3-283,0 0,-1 0,1 0,-1 0,0 0,0 0,-2 0,2 0,0-1,-4 6,5-8,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,-10-17,5-2,1 1,2 0,0-1,1 0,1 1,1-1,1 0,1 1,0-1,1 0,1 2,2-1,0-1,12-24,-12 29,1 1,1-1,0 1,0 0,2 1,0 0,0 1,2 0,-1 0,1 1,1 0,-1 1,1 1,2-1,-2 2,2 1,0-1,21-6,-30 11,1 0,-1 1,1 0,-1 1,0 0,2-1,-2 1,0 1,1-1,-1 0,1 1,-1 1,0-1,0 1,0 0,1 1,-1-1,8 7,-7-4,0 0,0 1,-1 0,-1 0,1 0,-1 1,0 0,0 0,-1 0,0 1,-1 0,0 0,3 11,2 7,-3 0,0 0,-2 1,-1 29,-8 107,5-155</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9020.24">5021 561,'-6'1,"1"0,0 1,0-1,-1 1,1 0,0 1,0-1,1 1,-1 0,1-1,-1 1,0 0,1 1,1 0,-1 0,1 0,-1 0,1-1,0 2,-3 5,-5 8,1 0,-1 1,-9 33,7-14,3 1,1 1,2-1,2 1,2 0,1 0,5 42,-2-74,2 1,-2 0,2-1,-1 1,1 0,0-2,1 2,0-1,0 0,1-1,1 1,0-1,-1 0,1-1,1 1,9 7,-12-12,0 1,0 0,1-1,-1 1,2-1,-1 0,0 0,0 0,0-1,0 0,1 0,-1 0,0-1,0 1,1-1,-1 0,0-1,1 1,-1-1,0 0,0 0,0-1,0 0,1 0,-1 0,-1 0,1-1,-1 1,1-1,4-3,5-5,-1-1,0 1,-1-2,-1 0,1-1,-2 1,0-2,0 1,-2-1,10-26,-8 18,-3 0,0-1,-2 0,1 0,-3 0,1-46,-4 63,0 0,0 1,-1 0,0-1,0 0,-1 0,0 2,-1-2,1 1,-1 0,0 0,0 0,0 0,-1 1,0-1,0 2,0-2,-2 1,1 1,0-1,0 1,-1 1,1-1,-2 0,1 1,0-1,0 2,-1-1,0 1,0 0,1 1,-1-1,0 1,0 0,-8 1,-10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10077.34">4776 817,'8'9,"14"2,7 1,8-4,-3 3,-2-1,-2-3,-2-2,0-2,-1-1,0-1,0-2,0 1,0 0,0-1,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11240.17">5403 204,'6'1,"1"0,0 0,1 0,-2 1,1 0,-1 0,1 1,0 0,-1 0,0 0,0 1,-1-1,1 1,0 0,-1 1,0 0,0 0,-1-1,0 1,8 12,5 9,-2 1,-1 0,13 35,-19-40,6 13,-2 2,-3 0,-1 1,7 68,-11 158,-5-194,1-33,1-9,-1 1,-1 0,-2 0,-1 0,-1-1,-13 37,10-46</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23024,17 +24084,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">240 99,'-3'71,"-2"0,-18 86,-44 135,34-160,8-30,5-27,4 0,-9 96,3 838,22-897,0-80,1-1,1 0,2 0,1 0,1-1,1 1,2-1,2-1,17 38,-11-33,-6-9,28 43,-35-62,0-1,0 1,1-1,0 0,0 0,0 0,1-1,-1 1,1-1,0-1,0 1,8 2,6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1629.63">2410 19,'10'-4,"0"1,0 0,1 0,0 1,-1 0,1 1,0 0,0 1,0 0,-1 1,1 0,14 3,-5 1,-1 0,1 1,-1 0,-1 2,31 16,-39-18,-1 1,0 0,0 0,0 1,-1 0,-1 0,1 1,-1 0,-1 1,1-1,-2 1,1 0,-1 1,-1-1,0 1,5 22,-5-13,-2 0,1 0,-2 0,-1 0,-1 0,0 0,-1 0,-10 36,9-48,0 0,-1 0,1-1,-2 0,1 1,-1-2,0 1,0 0,-1-1,0 0,0-1,-1 1,1-1,-1 0,0-1,0 1,-1-1,1-1,-1 0,0 0,0 0,0-1,0 0,-1-1,-8 1,113-4,-69 0,0 1,0 1,44 6,-67-5,-1-1,0 1,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 1,0-1,-1 0,0 1,0-1,0 1,0 0,0-1,2 5,-2-2,-1 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,-1 0,0 0,-2 9,-4 4,0 1,-1-1,0-1,-2 1,0-1,-14 17,15-23,0 0,0 0,-1-1,0 0,-1-1,0 0,-1-1,1 0,-2-1,-24 11,8-4,0-2,0-1,-1-1,-1-2,1-1,-1-1,-47 3,55-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2907.25">769 1554,'1652'1,"-337"100,-76 43,-881-123,-318-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5836.35">1325 2162,'1'12,"2"0,-1-1,2 1,0-1,0 0,1 0,0 0,0-1,12 17,14 28,-12-4,-3 1,-1 0,-3 1,6 66,-7-46,29 102,-30-150,-3-21,6-35,-7 10,20-72,19-146,0 5,-22 152,-13 52,-1-1,-2 0,3-31,-10 57,1 1,-1 0,1-1,0 1,0 0,0 0,0 0,1-1,0 2,0-1,0 0,0 0,0 1,1-1,0 1,3-4,-1 4,-1 0,1 0,-1 0,1 1,0 0,0 0,0 1,0-1,0 1,1 0,-1 0,0 1,8-1,342 3,-133 2,24-6,262 4,189 70,-574-56,707 28,-747-45,65 3,-146-2,-1 0,1 0,0 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 3,10 43,-8-31,74 346,-78-361,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,-2 2,0-1,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,-7 1,-27 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8793.25">2357 2427,'140'-2,"150"5,-285-2,0 0,-1 0,1 0,0 1,-1-1,1 1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 1,0-1,-1 0,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,1 6,5 14,-2 1,0 0,3 44,-3-19,0-8,-4-24,1-1,0 1,1 0,2-1,6 18,1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9471.58">2992 2506,'-5'9,"-6"8,-9 10,-7 4,-12 7,-8 0,4-1,4-6,9-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10808.61">3177 2400,'61'-1,"-34"-1,0 2,1 1,47 7,-71-7,0 0,-1 0,1 1,0-1,0 1,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,0 0,1 1,-1-1,-1 1,1 0,0-1,-1 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,-1 8,1-3,-1 1,0-1,-1 0,0 0,-1 0,0 0,0 0,-1 0,0-1,0 0,-1 0,-10 14,3-8,-1-1,0-1,-1 0,0-1,-1 0,0-2,-1 1,0-2,0 0,0-1,-1-1,0 0,-31 5,47-10,0-1,0 0,-1 0,1 0,0 1,-1-1,1-1,0 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 0,0 1,0-1,-2-2,3 2,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,2-1,3-7,0 0,1 1,1 0,9-9,-2 3,0 0,2 1,-1 1,2 0,-1 1,2 1,-1 1,1 0,1 1,24-7,-32 12,0 1,0 0,0 1,0 0,0 1,0 0,0 1,0 0,0 1,-1 0,1 0,0 1,-1 1,1 0,-1 0,0 1,-1 0,1 1,-1 0,11 9,23 27,-26-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11752.63">3944 2533,'0'9,"0"30,0 17,0 4,0 1,0-6,0-8,0-2,0-5,4-9,2-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12283.64">3733 2903,'4'0,"7"0,5 0,4 0,9 0,16 0,10 0,1 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13394.64">4077 2506,'73'-1,"117"5,-170-2,-1 1,1 0,-1 2,1 0,-1 1,-1 1,23 12,-38-18,-1 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 0,1 1,-1-1,-1 1,1 0,1 4,-2-3,-1-1,1 1,-1 0,0-1,1 1,-1-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,-5 6,-3 3,0-1,-1-1,0 0,-1 0,0-1,-20 12,-29 4,129-15,-18-5,-42-4,0 0,0 0,-1 1,1 0,-1 0,1 1,-1 0,0 0,7 5,-11-5,1-1,-1 1,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,0 0,0 0,0 0,-1 0,1 8,0 4,-1-1,-1 1,-1-1,0 1,-1-1,0 0,-7 18,6-22,0 0,-1 0,0-1,-1 0,0 0,0 0,-1-1,0 0,-1 0,-12 11,13-16,1 0,-1 0,-1-1,1 0,0 0,-1 0,0-1,1-1,-1 1,0-1,-12 0,-1 0,1-1,-1-1,-24-5,41 5,1 1,0-1,-1 0,1-1,0 1,-1 0,1-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,-5-6,-8-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14390.9">5214 495,'20'0,"-6"-1,0 1,1 0,-1 1,0 1,0 0,-1 0,1 2,0 0,17 7,-4 4,-1 2,-1 1,0 0,-2 2,0 1,-1 1,-1 0,22 32,-3 3,-2 2,48 100,-45-63,-4 1,-4 2,-4 1,-5 2,-4 0,11 166,-25 306,-10-320,4-242,-2 0,0 0,0 0,-1-1,-1 1,1-1,-2 1,0-1,0 0,-1-1,-1 1,1-1,-2-1,1 1,-16 14,-12 8,0-1,-66 42,93-68,-90 55,72-46</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">250 95,'-3'68,"-2"0,-19 83,-46 129,36-153,8-29,5-26,4 0,-9 92,3 805,23-861,0-78,1 0,1 0,2 0,2-1,0 0,1 1,2-1,3-2,17 38,-11-33,-7-8,30 42,-37-61,0 0,0 1,2-1,-1 0,0-1,0 1,2-1,-2 1,1-1,0-1,0 0,9 3,6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1629.63">2512 18,'10'-4,"1"2,-1-1,2 0,-1 1,-1 0,2 1,-1 0,1 1,-1 0,0 1,0 0,15 3,-5 1,-1-1,1 2,-1 0,-2 2,33 15,-40-18,-2 2,1 0,-1 0,0 0,0 1,-2 0,1 0,0 1,-2 0,1 0,-2 1,2-1,-2 2,-1-2,0 2,5 21,-4-13,-3 0,1 0,-2 0,-1 1,-1-1,0 0,-1 0,-11 35,10-46,0-1,-1 1,1-1,-3 0,2 0,-1-1,0 1,0-1,-2 0,1 0,0-1,-1 1,0-2,0 1,0-1,-1 1,0-1,1-2,-1 1,-1 0,1 0,-1-1,1 0,-1-1,-9 1,118-4,-72 0,0 1,1 1,45 6,-70-5,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1 1,0-1,0 0,-1 1,0-1,0 1,0-1,0 0,2 5,-2-2,-1 0,0-1,0 1,0 0,-1 0,0 0,0-1,0 1,0 0,-1 0,0 0,-2 8,-4 4,0 2,-2-2,1-1,-2 2,-1-2,-14 16,16-21,-1 0,1-1,-1 0,-1-1,0 0,-1 0,0-2,0 1,-1-1,-26 10,9-4,0-1,-1-1,0-2,-1-1,1-1,-2-2,-48 4,57-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2907.25">801 1492,'1722'1,"-351"96,-80 41,-918-118,-331-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5836.35">1381 2076,'1'11,"2"1,-1-2,2 2,1-2,-1 1,1-1,0 1,0-1,13 16,14 26,-12-3,-3 1,-2 0,-2 1,6 63,-8-44,31 98,-32-144,-2-20,5-34,-7 10,22-69,18-140,1 4,-23 146,-13 50,-2 0,-2-1,4-30,-11 56,1 0,-1 0,1-1,0 1,0 0,0 1,0-1,1-1,0 2,0-1,0 0,0 0,1 2,0-2,0 1,3-4,-1 4,-1 0,2 1,-2-1,1 1,0 0,0 0,1 1,-1-1,0 1,1 0,0 0,-1 1,8-1,357 3,-138 2,24-6,274 4,196 67,-598-54,737 28,-778-44,67 3,-152-2,-1 0,1 0,0 1,-1-1,1 1,0-1,0 0,0 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 3,11 41,-9-30,77 333,-81-347,0 1,1-2,-1 2,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,-2 2,0-1,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-7 1,-29 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8793.25">2457 2330,'145'-2,"158"5,-298-2,0 0,-1 0,2 0,-1 1,-1-1,1 1,-1 0,1 0,0 0,-1 1,0-1,0 1,0 1,1-1,-2 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 1,0-2,-1 2,1 6,5 13,-2 1,1 0,2 42,-3-18,1-8,-5-23,1 0,0 0,1 0,2-1,7 18,0-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9471.58">3118 2406,'-5'9,"-6"7,-10 10,-7 4,-13 6,-8 1,4-2,5-5,8-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10808.61">3311 2304,'64'-1,"-36"-1,0 2,1 1,49 7,-73-7,-1 0,-1 0,1 1,0-1,0 1,0 0,0-1,-1 1,0 0,1 1,-1-1,0 1,-1 0,2 0,-1 0,-1-1,0 1,1 1,-1-1,-1 1,1 0,0-1,-1 0,0 1,0 0,0 0,1 0,-2 0,1 0,-1-1,-1 9,1-3,-2 0,1 0,-1-1,0 1,-1 0,0-1,0 1,-1 0,0-2,-1 1,0 0,-10 13,2-8,-1 0,1-2,-2 1,1-2,-2 1,0-3,0 2,-1-2,0-1,1 0,-2-1,0 0,-32 4,49-9,0-1,0 0,-1 0,1 0,0 1,-1-1,1-1,0 1,-1 0,1 0,0 0,0-1,-1 1,0 0,1-1,0 1,-1-1,1 0,0 1,0-1,-2-1,3 1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,2-1,3-6,1-1,0 1,1 1,10-10,-3 4,1 0,2 0,-2 2,3-1,-1 1,1 2,0 0,1 1,1 0,25-6,-34 11,1 1,-1 0,0 1,1 0,-1 1,1 0,-1 1,1 0,-1 1,0 0,0 0,1 0,-2 2,1 0,0 0,-1 1,0 0,0 0,0 1,10 8,25 27,-27-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11752.63">4111 2432,'0'8,"0"30,0 16,0 3,0 2,0-6,0-8,0-2,0-5,4-8,2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12283.64">3891 2787,'4'0,"7"0,6 0,4 0,9 0,17 0,10 0,2 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13394.64">4249 2406,'76'-1,"122"5,-177-2,-1 1,1-1,-1 3,0 0,0 1,-1 1,24 11,-40-17,-1 0,0 0,1 1,-1-1,0 0,0 0,1 1,-1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 0,1 0,-1 0,-1 1,1 0,1 4,-2-3,-1-1,1 0,-1 1,0-1,1 1,-1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,-5 6,-4 2,1 0,-2-2,1 1,-2 0,1-2,-22 12,-29 4,134-14,-19-5,-44-4,0 0,1 0,-2 1,1 0,0-1,0 2,-1 0,1 0,6 5,-11-5,2-1,-2 0,-1 1,1 1,0-1,-1 0,1 1,-1-1,0 0,-1 1,2 0,-1 0,-1 0,0 0,0 0,0-1,-1 1,1 8,0 3,-1 0,-1 0,-1-1,0 2,-1-2,-1 0,-6 18,6-21,0-1,-2 1,1-2,-1 1,0 0,-1-1,0 0,0-1,-1 1,-13 10,13-15,2 0,-1 0,-2-1,2 0,0-1,-1 1,-1-1,2-1,-1 1,-1-1,-12 0,0 0,0-1,-1-1,-25-5,43 5,1 1,-1-1,0 0,1 0,0 0,-1 0,1-1,0 0,-1 0,1 0,0 0,1 0,-1-1,1 1,-5-5,-9-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14390.9">5434 475,'21'0,"-6"-1,-1 1,2 0,-1 1,-1 1,1 0,-2 0,2 2,-1 0,19 6,-5 5,-1 1,-1 1,0 1,-2 1,0 1,-1 1,-1 0,23 31,-4 3,-1 1,50 97,-48-61,-3 1,-5 2,-3 1,-6 2,-5 0,13 159,-27 295,-10-309,4-231,-2-1,0 1,0-1,-2 0,0 1,1-2,-2 2,0-2,-1 1,0-2,-1 2,1-1,-3-2,2 2,-17 13,-12 8,-1-2,-68 41,97-65,-95 53,76-45</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23337,13 +24397,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE660C8A-832B-49A1-A335-A150A4CB74F7}">
   <dimension ref="K2:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L120" sqref="L120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="11:17" x14ac:dyDescent="0.3">
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -23357,7 +24417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:17" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
         <v>6</v>
       </c>
@@ -23371,7 +24431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="11:17" x14ac:dyDescent="0.3">
       <c r="K7" t="s">
         <v>1</v>
       </c>
@@ -23398,9 +24458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBE8555-9035-4BC0-BCA7-A7B14E69A3EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23412,7 +24472,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23423,11 +24483,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7C474-3CD7-4EE9-9386-18EC27149925}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
